--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175349</v>
+        <v>0.175935</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187024</v>
+        <v>0.187315</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196691</v>
+        <v>0.196941</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175709</v>
+        <v>0.176336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187661</v>
+        <v>0.188204</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197266</v>
+        <v>0.197467</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176427</v>
+        <v>0.177096</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188476</v>
+        <v>0.189133</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198635</v>
+        <v>0.198874</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1772</v>
+        <v>0.177694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190107</v>
+        <v>0.190699</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200386</v>
+        <v>0.200555</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178182</v>
+        <v>0.178658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.191957</v>
+        <v>0.192582</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202412</v>
+        <v>0.202669</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17984</v>
+        <v>0.18033</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194251</v>
+        <v>0.194705</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205438</v>
+        <v>0.205602</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182066</v>
+        <v>0.182513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19724</v>
+        <v>0.19773</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210228</v>
+        <v>0.210269</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.185921</v>
+        <v>0.186249</v>
       </c>
       <c r="C9" t="n">
-        <v>0.20095</v>
+        <v>0.201556</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193838</v>
+        <v>0.193903</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.181375</v>
+        <v>0.181953</v>
       </c>
       <c r="C10" t="n">
-        <v>0.186254</v>
+        <v>0.187053</v>
       </c>
       <c r="D10" t="n">
-        <v>0.19399</v>
+        <v>0.194048</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181486</v>
+        <v>0.181962</v>
       </c>
       <c r="C11" t="n">
-        <v>0.187455</v>
+        <v>0.186987</v>
       </c>
       <c r="D11" t="n">
-        <v>0.195396</v>
+        <v>0.195364</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.182249</v>
+        <v>0.183004</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187005</v>
+        <v>0.18723</v>
       </c>
       <c r="D12" t="n">
-        <v>0.19463</v>
+        <v>0.194471</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.181675</v>
+        <v>0.182161</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187368</v>
+        <v>0.187639</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194643</v>
+        <v>0.194808</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.181967</v>
+        <v>0.182448</v>
       </c>
       <c r="C14" t="n">
-        <v>0.187727</v>
+        <v>0.188167</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1951</v>
+        <v>0.196542</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.182124</v>
+        <v>0.183536</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188366</v>
+        <v>0.189124</v>
       </c>
       <c r="D15" t="n">
-        <v>0.195723</v>
+        <v>0.196089</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.183498</v>
+        <v>0.182816</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189288</v>
+        <v>0.189355</v>
       </c>
       <c r="D16" t="n">
-        <v>0.19681</v>
+        <v>0.19657</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.18277</v>
+        <v>0.183237</v>
       </c>
       <c r="C17" t="n">
-        <v>0.189798</v>
+        <v>0.191028</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197318</v>
+        <v>0.197463</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.183147</v>
+        <v>0.183647</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19077</v>
+        <v>0.19203</v>
       </c>
       <c r="D18" t="n">
-        <v>0.19835</v>
+        <v>0.198421</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.184172</v>
+        <v>0.18518</v>
       </c>
       <c r="C19" t="n">
-        <v>0.192079</v>
+        <v>0.192799</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200105</v>
+        <v>0.200139</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185371</v>
+        <v>0.18578</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195008</v>
+        <v>0.193825</v>
       </c>
       <c r="D20" t="n">
-        <v>0.203425</v>
+        <v>0.20223</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.187132</v>
+        <v>0.188324</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196384</v>
+        <v>0.195908</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205341</v>
+        <v>0.204776</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.189661</v>
+        <v>0.190098</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198947</v>
+        <v>0.198684</v>
       </c>
       <c r="D22" t="n">
-        <v>0.20879</v>
+        <v>0.208967</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.196266</v>
+        <v>0.193806</v>
       </c>
       <c r="C23" t="n">
-        <v>0.201799</v>
+        <v>0.202211</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199613</v>
+        <v>0.201092</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.20044</v>
+        <v>0.204996</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189486</v>
+        <v>0.193559</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201127</v>
+        <v>0.201336</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.200938</v>
+        <v>0.205232</v>
       </c>
       <c r="C25" t="n">
-        <v>0.190071</v>
+        <v>0.193824</v>
       </c>
       <c r="D25" t="n">
-        <v>0.201356</v>
+        <v>0.203833</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.200583</v>
+        <v>0.206411</v>
       </c>
       <c r="C26" t="n">
-        <v>0.190727</v>
+        <v>0.19489</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201788</v>
+        <v>0.204019</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.200392</v>
+        <v>0.206022</v>
       </c>
       <c r="C27" t="n">
-        <v>0.190548</v>
+        <v>0.195741</v>
       </c>
       <c r="D27" t="n">
-        <v>0.20214</v>
+        <v>0.204671</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.199944</v>
+        <v>0.206339</v>
       </c>
       <c r="C28" t="n">
-        <v>0.191441</v>
+        <v>0.19586</v>
       </c>
       <c r="D28" t="n">
-        <v>0.202297</v>
+        <v>0.20564</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.20058</v>
+        <v>0.20621</v>
       </c>
       <c r="C29" t="n">
-        <v>0.192149</v>
+        <v>0.196876</v>
       </c>
       <c r="D29" t="n">
-        <v>0.202373</v>
+        <v>0.207272</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.201075</v>
+        <v>0.20644</v>
       </c>
       <c r="C30" t="n">
-        <v>0.192301</v>
+        <v>0.197171</v>
       </c>
       <c r="D30" t="n">
-        <v>0.20336</v>
+        <v>0.207667</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202196</v>
+        <v>0.206569</v>
       </c>
       <c r="C31" t="n">
-        <v>0.193598</v>
+        <v>0.197203</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204512</v>
+        <v>0.207786</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202898</v>
+        <v>0.206899</v>
       </c>
       <c r="C32" t="n">
-        <v>0.195031</v>
+        <v>0.19908</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204807</v>
+        <v>0.209029</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.203043</v>
+        <v>0.206623</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196383</v>
+        <v>0.200407</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206755</v>
+        <v>0.210402</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.203617</v>
+        <v>0.20787</v>
       </c>
       <c r="C34" t="n">
-        <v>0.197438</v>
+        <v>0.201144</v>
       </c>
       <c r="D34" t="n">
-        <v>0.20897</v>
+        <v>0.212115</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.205226</v>
+        <v>0.211553</v>
       </c>
       <c r="C35" t="n">
-        <v>0.200845</v>
+        <v>0.203806</v>
       </c>
       <c r="D35" t="n">
-        <v>0.211751</v>
+        <v>0.214785</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.206475</v>
+        <v>0.211147</v>
       </c>
       <c r="C36" t="n">
-        <v>0.20346</v>
+        <v>0.207186</v>
       </c>
       <c r="D36" t="n">
-        <v>0.216484</v>
+        <v>0.219084</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.210582</v>
+        <v>0.213507</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207</v>
+        <v>0.210717</v>
       </c>
       <c r="D37" t="n">
-        <v>0.221698</v>
+        <v>0.218513</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.233943</v>
+        <v>0.232133</v>
       </c>
       <c r="C38" t="n">
-        <v>0.207949</v>
+        <v>0.210558</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221466</v>
+        <v>0.220758</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232931</v>
+        <v>0.233165</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210071</v>
+        <v>0.210519</v>
       </c>
       <c r="D39" t="n">
-        <v>0.221767</v>
+        <v>0.221022</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233231</v>
+        <v>0.232401</v>
       </c>
       <c r="C40" t="n">
-        <v>0.211496</v>
+        <v>0.21147</v>
       </c>
       <c r="D40" t="n">
-        <v>0.222704</v>
+        <v>0.220758</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233585</v>
+        <v>0.232563</v>
       </c>
       <c r="C41" t="n">
-        <v>0.211259</v>
+        <v>0.210817</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221021</v>
+        <v>0.221653</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231718</v>
+        <v>0.234064</v>
       </c>
       <c r="C42" t="n">
-        <v>0.213099</v>
+        <v>0.213161</v>
       </c>
       <c r="D42" t="n">
-        <v>0.223594</v>
+        <v>0.223097</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.23156</v>
+        <v>0.235019</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213068</v>
+        <v>0.213956</v>
       </c>
       <c r="D43" t="n">
-        <v>0.223708</v>
+        <v>0.223743</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.232844</v>
+        <v>0.235333</v>
       </c>
       <c r="C44" t="n">
-        <v>0.21412</v>
+        <v>0.215746</v>
       </c>
       <c r="D44" t="n">
-        <v>0.223757</v>
+        <v>0.225616</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.232757</v>
+        <v>0.234311</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214505</v>
+        <v>0.215621</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225307</v>
+        <v>0.226186</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.232894</v>
+        <v>0.236535</v>
       </c>
       <c r="C46" t="n">
-        <v>0.215524</v>
+        <v>0.21727</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226324</v>
+        <v>0.228383</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.232703</v>
+        <v>0.234949</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216317</v>
+        <v>0.218983</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227455</v>
+        <v>0.229598</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.233684</v>
+        <v>0.235717</v>
       </c>
       <c r="C48" t="n">
-        <v>0.221472</v>
+        <v>0.219335</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231462</v>
+        <v>0.231449</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237014</v>
+        <v>0.236873</v>
       </c>
       <c r="C49" t="n">
-        <v>0.221992</v>
+        <v>0.222927</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232791</v>
+        <v>0.234798</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238348</v>
+        <v>0.240957</v>
       </c>
       <c r="C50" t="n">
-        <v>0.224659</v>
+        <v>0.225696</v>
       </c>
       <c r="D50" t="n">
-        <v>0.237269</v>
+        <v>0.238581</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.239118</v>
+        <v>0.24354</v>
       </c>
       <c r="C51" t="n">
-        <v>0.230973</v>
+        <v>0.230408</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232777</v>
+        <v>0.232156</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.246344</v>
+        <v>0.245955</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237925</v>
+        <v>0.237328</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234197</v>
+        <v>0.23366</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.260145</v>
+        <v>0.254016</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224527</v>
+        <v>0.22592</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233616</v>
+        <v>0.23469</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.257555</v>
+        <v>0.260054</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227761</v>
+        <v>0.226293</v>
       </c>
       <c r="D54" t="n">
-        <v>0.23475</v>
+        <v>0.234953</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.26136</v>
+        <v>0.253524</v>
       </c>
       <c r="C55" t="n">
-        <v>0.227802</v>
+        <v>0.226064</v>
       </c>
       <c r="D55" t="n">
-        <v>0.235546</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261275</v>
+        <v>0.261362</v>
       </c>
       <c r="C56" t="n">
-        <v>0.228176</v>
+        <v>0.226662</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236485</v>
+        <v>0.235775</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.260252</v>
+        <v>0.259901</v>
       </c>
       <c r="C57" t="n">
-        <v>0.229057</v>
+        <v>0.228415</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237598</v>
+        <v>0.236802</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259727</v>
+        <v>0.261399</v>
       </c>
       <c r="C58" t="n">
-        <v>0.228989</v>
+        <v>0.228895</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236393</v>
+        <v>0.237323</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.261179</v>
+        <v>0.255449</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231808</v>
+        <v>0.230177</v>
       </c>
       <c r="D59" t="n">
-        <v>0.239116</v>
+        <v>0.23856</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261566</v>
+        <v>0.254837</v>
       </c>
       <c r="C60" t="n">
-        <v>0.232177</v>
+        <v>0.231215</v>
       </c>
       <c r="D60" t="n">
-        <v>0.240212</v>
+        <v>0.239868</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261681</v>
+        <v>0.262137</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2349</v>
+        <v>0.233571</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242668</v>
+        <v>0.242513</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.263796</v>
+        <v>0.256315</v>
       </c>
       <c r="C62" t="n">
-        <v>0.236581</v>
+        <v>0.235386</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244731</v>
+        <v>0.243949</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26432</v>
+        <v>0.263283</v>
       </c>
       <c r="C63" t="n">
-        <v>0.236547</v>
+        <v>0.238183</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247931</v>
+        <v>0.247999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265678</v>
+        <v>0.261632</v>
       </c>
       <c r="C64" t="n">
-        <v>0.240671</v>
+        <v>0.241323</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25113</v>
+        <v>0.252234</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266908</v>
+        <v>0.262622</v>
       </c>
       <c r="C65" t="n">
-        <v>0.246807</v>
+        <v>0.246602</v>
       </c>
       <c r="D65" t="n">
-        <v>0.258671</v>
+        <v>0.259785</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.273927</v>
+        <v>0.269828</v>
       </c>
       <c r="C66" t="n">
-        <v>0.253215</v>
+        <v>0.253611</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242079</v>
+        <v>0.242087</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.269219</v>
+        <v>0.273243</v>
       </c>
       <c r="C67" t="n">
-        <v>0.237872</v>
+        <v>0.235993</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242247</v>
+        <v>0.242336</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.278426</v>
+        <v>0.273938</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238324</v>
+        <v>0.236934</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24257</v>
+        <v>0.242608</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.276915</v>
+        <v>0.273999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.240034</v>
+        <v>0.237882</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243833</v>
+        <v>0.243535</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.274626</v>
+        <v>0.274145</v>
       </c>
       <c r="C70" t="n">
-        <v>0.241343</v>
+        <v>0.238726</v>
       </c>
       <c r="D70" t="n">
-        <v>0.244892</v>
+        <v>0.24434</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.274792</v>
+        <v>0.274656</v>
       </c>
       <c r="C71" t="n">
-        <v>0.241908</v>
+        <v>0.240094</v>
       </c>
       <c r="D71" t="n">
-        <v>0.244534</v>
+        <v>0.245366</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.274889</v>
+        <v>0.277195</v>
       </c>
       <c r="C72" t="n">
-        <v>0.242381</v>
+        <v>0.241207</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245709</v>
+        <v>0.245603</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.278684</v>
+        <v>0.274815</v>
       </c>
       <c r="C73" t="n">
-        <v>0.244248</v>
+        <v>0.24318</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247037</v>
+        <v>0.247375</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.275553</v>
+        <v>0.279051</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245611</v>
+        <v>0.244584</v>
       </c>
       <c r="D74" t="n">
-        <v>0.248835</v>
+        <v>0.249551</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.276095</v>
+        <v>0.27627</v>
       </c>
       <c r="C75" t="n">
-        <v>0.246041</v>
+        <v>0.245914</v>
       </c>
       <c r="D75" t="n">
-        <v>0.249909</v>
+        <v>0.250375</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.281025</v>
+        <v>0.276649</v>
       </c>
       <c r="C76" t="n">
-        <v>0.249324</v>
+        <v>0.248104</v>
       </c>
       <c r="D76" t="n">
-        <v>0.253783</v>
+        <v>0.252631</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.278174</v>
+        <v>0.281529</v>
       </c>
       <c r="C77" t="n">
-        <v>0.251892</v>
+        <v>0.250048</v>
       </c>
       <c r="D77" t="n">
-        <v>0.256302</v>
+        <v>0.257149</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.279609</v>
+        <v>0.279537</v>
       </c>
       <c r="C78" t="n">
-        <v>0.253976</v>
+        <v>0.253836</v>
       </c>
       <c r="D78" t="n">
-        <v>0.262129</v>
+        <v>0.260874</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.282825</v>
+        <v>0.281801</v>
       </c>
       <c r="C79" t="n">
-        <v>0.259219</v>
+        <v>0.257732</v>
       </c>
       <c r="D79" t="n">
-        <v>0.267489</v>
+        <v>0.269337</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.286714</v>
+        <v>0.286399</v>
       </c>
       <c r="C80" t="n">
-        <v>0.265806</v>
+        <v>0.26442</v>
       </c>
       <c r="D80" t="n">
-        <v>0.25256</v>
+        <v>0.255336</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.298476</v>
+        <v>0.297507</v>
       </c>
       <c r="C81" t="n">
-        <v>0.243178</v>
+        <v>0.241843</v>
       </c>
       <c r="D81" t="n">
-        <v>0.253506</v>
+        <v>0.257493</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.298351</v>
+        <v>0.298302</v>
       </c>
       <c r="C82" t="n">
-        <v>0.239952</v>
+        <v>0.241534</v>
       </c>
       <c r="D82" t="n">
-        <v>0.251748</v>
+        <v>0.252493</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.299262</v>
+        <v>0.294814</v>
       </c>
       <c r="C83" t="n">
-        <v>0.24107</v>
+        <v>0.243107</v>
       </c>
       <c r="D83" t="n">
-        <v>0.25253</v>
+        <v>0.255808</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.299053</v>
+        <v>0.298842</v>
       </c>
       <c r="C84" t="n">
-        <v>0.24131</v>
+        <v>0.244474</v>
       </c>
       <c r="D84" t="n">
-        <v>0.253212</v>
+        <v>0.255841</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.298672</v>
+        <v>0.298466</v>
       </c>
       <c r="C85" t="n">
-        <v>0.241686</v>
+        <v>0.24603</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254139</v>
+        <v>0.257342</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.298917</v>
+        <v>0.298939</v>
       </c>
       <c r="C86" t="n">
-        <v>0.24352</v>
+        <v>0.244635</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256955</v>
+        <v>0.258148</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.300333</v>
+        <v>0.300372</v>
       </c>
       <c r="C87" t="n">
-        <v>0.245173</v>
+        <v>0.244563</v>
       </c>
       <c r="D87" t="n">
-        <v>0.256759</v>
+        <v>0.257797</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300242</v>
+        <v>0.302679</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246514</v>
+        <v>0.24715</v>
       </c>
       <c r="D88" t="n">
-        <v>0.258607</v>
+        <v>0.260893</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.303651</v>
+        <v>0.304774</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246733</v>
+        <v>0.250054</v>
       </c>
       <c r="D89" t="n">
-        <v>0.259719</v>
+        <v>0.263201</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.303319</v>
+        <v>0.304311</v>
       </c>
       <c r="C90" t="n">
-        <v>0.249823</v>
+        <v>0.250515</v>
       </c>
       <c r="D90" t="n">
-        <v>0.263257</v>
+        <v>0.264377</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.303656</v>
+        <v>0.304276</v>
       </c>
       <c r="C91" t="n">
-        <v>0.251152</v>
+        <v>0.253411</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264396</v>
+        <v>0.266396</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.304458</v>
+        <v>0.306166</v>
       </c>
       <c r="C92" t="n">
-        <v>0.255436</v>
+        <v>0.253457</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269742</v>
+        <v>0.27125</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.30846</v>
+        <v>0.30516</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258393</v>
+        <v>0.258593</v>
       </c>
       <c r="D93" t="n">
-        <v>0.277726</v>
+        <v>0.278327</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.309377</v>
+        <v>0.308969</v>
       </c>
       <c r="C94" t="n">
-        <v>0.262273</v>
+        <v>0.267149</v>
       </c>
       <c r="D94" t="n">
-        <v>0.369362</v>
+        <v>0.369907</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.49403</v>
+        <v>0.459696</v>
       </c>
       <c r="C95" t="n">
-        <v>0.385928</v>
+        <v>0.384255</v>
       </c>
       <c r="D95" t="n">
-        <v>0.366692</v>
+        <v>0.371329</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.438613</v>
+        <v>0.440941</v>
       </c>
       <c r="C96" t="n">
-        <v>0.393616</v>
+        <v>0.399213</v>
       </c>
       <c r="D96" t="n">
-        <v>0.381222</v>
+        <v>0.384034</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.458271</v>
+        <v>0.46598</v>
       </c>
       <c r="C97" t="n">
-        <v>0.393463</v>
+        <v>0.375799</v>
       </c>
       <c r="D97" t="n">
-        <v>0.379319</v>
+        <v>0.373689</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.458533</v>
+        <v>0.427151</v>
       </c>
       <c r="C98" t="n">
-        <v>0.40308</v>
+        <v>0.38073</v>
       </c>
       <c r="D98" t="n">
-        <v>0.387745</v>
+        <v>0.384085</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.46322</v>
+        <v>0.433451</v>
       </c>
       <c r="C99" t="n">
-        <v>0.38238</v>
+        <v>0.392098</v>
       </c>
       <c r="D99" t="n">
-        <v>0.371524</v>
+        <v>0.382523</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.441294</v>
+        <v>0.434353</v>
       </c>
       <c r="C100" t="n">
-        <v>0.400197</v>
+        <v>0.418658</v>
       </c>
       <c r="D100" t="n">
-        <v>0.388253</v>
+        <v>0.406016</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.464383</v>
+        <v>0.496686</v>
       </c>
       <c r="C101" t="n">
-        <v>0.402242</v>
+        <v>0.394769</v>
       </c>
       <c r="D101" t="n">
-        <v>0.392272</v>
+        <v>0.396841</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.473288</v>
+        <v>0.448816</v>
       </c>
       <c r="C102" t="n">
-        <v>0.403147</v>
+        <v>0.429507</v>
       </c>
       <c r="D102" t="n">
-        <v>0.394631</v>
+        <v>0.41858</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.466629</v>
+        <v>0.491931</v>
       </c>
       <c r="C103" t="n">
-        <v>0.405107</v>
+        <v>0.433432</v>
       </c>
       <c r="D103" t="n">
-        <v>0.392854</v>
+        <v>0.418178</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.467677</v>
+        <v>0.495656</v>
       </c>
       <c r="C104" t="n">
-        <v>0.405223</v>
+        <v>0.405665</v>
       </c>
       <c r="D104" t="n">
-        <v>0.399544</v>
+        <v>0.400784</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.471615</v>
+        <v>0.456956</v>
       </c>
       <c r="C105" t="n">
-        <v>0.395365</v>
+        <v>0.436166</v>
       </c>
       <c r="D105" t="n">
-        <v>0.388587</v>
+        <v>0.417498</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.450381</v>
+        <v>0.500381</v>
       </c>
       <c r="C106" t="n">
-        <v>0.399153</v>
+        <v>0.436061</v>
       </c>
       <c r="D106" t="n">
-        <v>0.391994</v>
+        <v>0.41904</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.453888</v>
+        <v>0.494462</v>
       </c>
       <c r="C107" t="n">
-        <v>0.418039</v>
+        <v>0.441836</v>
       </c>
       <c r="D107" t="n">
-        <v>0.410861</v>
+        <v>0.433298</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.471544</v>
+        <v>0.492435</v>
       </c>
       <c r="C108" t="n">
-        <v>0.422086</v>
+        <v>0.443299</v>
       </c>
       <c r="D108" t="n">
-        <v>0.665602</v>
+        <v>0.687528</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.483113</v>
+        <v>0.494148</v>
       </c>
       <c r="C109" t="n">
-        <v>0.429294</v>
+        <v>0.450812</v>
       </c>
       <c r="D109" t="n">
-        <v>0.666677</v>
+        <v>0.693379</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.775837</v>
+        <v>0.821513</v>
       </c>
       <c r="C110" t="n">
-        <v>0.64578</v>
+        <v>0.702449</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6670700000000001</v>
+        <v>0.707597</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.776006</v>
+        <v>0.819484</v>
       </c>
       <c r="C111" t="n">
-        <v>0.647329</v>
+        <v>0.68672</v>
       </c>
       <c r="D111" t="n">
-        <v>0.667901</v>
+        <v>0.710651</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.774533</v>
+        <v>0.817094</v>
       </c>
       <c r="C112" t="n">
-        <v>0.667866</v>
+        <v>0.705192</v>
       </c>
       <c r="D112" t="n">
-        <v>0.669991</v>
+        <v>0.7107869999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7779239999999999</v>
+        <v>0.806392</v>
       </c>
       <c r="C113" t="n">
-        <v>0.666645</v>
+        <v>0.706555</v>
       </c>
       <c r="D113" t="n">
-        <v>0.671105</v>
+        <v>0.711884</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.762113</v>
+        <v>0.807478</v>
       </c>
       <c r="C114" t="n">
-        <v>0.666863</v>
+        <v>0.707437</v>
       </c>
       <c r="D114" t="n">
-        <v>0.65867</v>
+        <v>0.713535</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.766662</v>
+        <v>0.822864</v>
       </c>
       <c r="C115" t="n">
-        <v>0.668725</v>
+        <v>0.7097329999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.673064</v>
+        <v>0.7038990000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.779982</v>
+        <v>0.808091</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6687340000000001</v>
+        <v>0.694043</v>
       </c>
       <c r="D116" t="n">
-        <v>0.675352</v>
+        <v>0.7174199999999999</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.778053</v>
+        <v>0.817838</v>
       </c>
       <c r="C117" t="n">
-        <v>0.654771</v>
+        <v>0.697434</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6781779999999999</v>
+        <v>0.718681</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.775558</v>
+        <v>0.819384</v>
       </c>
       <c r="C118" t="n">
-        <v>0.675673</v>
+        <v>0.71561</v>
       </c>
       <c r="D118" t="n">
-        <v>0.680281</v>
+        <v>0.722495</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.778479</v>
+        <v>0.806998</v>
       </c>
       <c r="C119" t="n">
-        <v>0.67744</v>
+        <v>0.719715</v>
       </c>
       <c r="D119" t="n">
-        <v>0.68524</v>
+        <v>0.725233</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.778376</v>
+        <v>0.817949</v>
       </c>
       <c r="C120" t="n">
-        <v>0.681576</v>
+        <v>0.7238560000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.67776</v>
+        <v>0.7195859999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.786273</v>
+        <v>0.818558</v>
       </c>
       <c r="C121" t="n">
-        <v>0.686026</v>
+        <v>0.730129</v>
       </c>
       <c r="D121" t="n">
-        <v>0.695916</v>
+        <v>0.739083</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.78045</v>
+        <v>0.822273</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6796219999999999</v>
+        <v>0.7382880000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.704391</v>
+        <v>0.748327</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.771303</v>
+        <v>0.824541</v>
       </c>
       <c r="C123" t="n">
-        <v>0.703156</v>
+        <v>0.747686</v>
       </c>
       <c r="D123" t="n">
-        <v>0.778034</v>
+        <v>0.830082</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.02833</v>
+        <v>1.09668</v>
       </c>
       <c r="C124" t="n">
-        <v>0.762533</v>
+        <v>0.819318</v>
       </c>
       <c r="D124" t="n">
-        <v>0.779309</v>
+        <v>0.832251</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03154</v>
+        <v>1.09485</v>
       </c>
       <c r="C125" t="n">
-        <v>0.762216</v>
+        <v>0.8141620000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.780245</v>
+        <v>0.834068</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03098</v>
+        <v>1.09944</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7710050000000001</v>
+        <v>0.81472</v>
       </c>
       <c r="D126" t="n">
-        <v>0.781908</v>
+        <v>0.834002</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.0321</v>
+        <v>1.11869</v>
       </c>
       <c r="C127" t="n">
-        <v>0.772313</v>
+        <v>0.815905</v>
       </c>
       <c r="D127" t="n">
-        <v>0.783372</v>
+        <v>0.836139</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.02544</v>
+        <v>1.11229</v>
       </c>
       <c r="C128" t="n">
-        <v>0.773865</v>
+        <v>0.818392</v>
       </c>
       <c r="D128" t="n">
-        <v>0.786413</v>
+        <v>0.838952</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03483</v>
+        <v>1.10961</v>
       </c>
       <c r="C129" t="n">
-        <v>0.775452</v>
+        <v>0.828611</v>
       </c>
       <c r="D129" t="n">
-        <v>0.787206</v>
+        <v>0.841427</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03633</v>
+        <v>1.10147</v>
       </c>
       <c r="C130" t="n">
-        <v>0.773124</v>
+        <v>0.830443</v>
       </c>
       <c r="D130" t="n">
-        <v>0.784342</v>
+        <v>0.844567</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.01509</v>
+        <v>1.10824</v>
       </c>
       <c r="C131" t="n">
-        <v>0.781447</v>
+        <v>0.833937</v>
       </c>
       <c r="D131" t="n">
-        <v>0.793388</v>
+        <v>0.84803</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.01688</v>
+        <v>1.10958</v>
       </c>
       <c r="C132" t="n">
-        <v>0.784068</v>
+        <v>0.836708</v>
       </c>
       <c r="D132" t="n">
-        <v>0.796866</v>
+        <v>0.851222</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03077</v>
+        <v>1.08048</v>
       </c>
       <c r="C133" t="n">
-        <v>0.788125</v>
+        <v>0.841645</v>
       </c>
       <c r="D133" t="n">
-        <v>0.802072</v>
+        <v>0.85651</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.0368</v>
+        <v>1.07817</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7931009999999999</v>
+        <v>0.847514</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8088070000000001</v>
+        <v>0.858604</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.03868</v>
+        <v>1.10831</v>
       </c>
       <c r="C135" t="n">
-        <v>0.793357</v>
+        <v>0.854212</v>
       </c>
       <c r="D135" t="n">
-        <v>0.817874</v>
+        <v>0.87468</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04114</v>
+        <v>1.08642</v>
       </c>
       <c r="C136" t="n">
-        <v>0.80887</v>
+        <v>0.8660949999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.825</v>
+        <v>0.8921790000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04851</v>
+        <v>1.09611</v>
       </c>
       <c r="C137" t="n">
-        <v>0.820871</v>
+        <v>0.8816079999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.829804</v>
+        <v>0.88586</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.24905</v>
+        <v>1.35234</v>
       </c>
       <c r="C138" t="n">
-        <v>0.817822</v>
+        <v>0.87153</v>
       </c>
       <c r="D138" t="n">
-        <v>0.8314589999999999</v>
+        <v>0.883483</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26216</v>
+        <v>1.35396</v>
       </c>
       <c r="C139" t="n">
-        <v>0.81767</v>
+        <v>0.872622</v>
       </c>
       <c r="D139" t="n">
-        <v>0.833152</v>
+        <v>0.888558</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26425</v>
+        <v>1.35476</v>
       </c>
       <c r="C140" t="n">
-        <v>0.818595</v>
+        <v>0.87454</v>
       </c>
       <c r="D140" t="n">
-        <v>0.83104</v>
+        <v>0.887594</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26554</v>
+        <v>1.35463</v>
       </c>
       <c r="C141" t="n">
-        <v>0.821733</v>
+        <v>0.875146</v>
       </c>
       <c r="D141" t="n">
-        <v>0.836039</v>
+        <v>0.889257</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.2634</v>
+        <v>1.34418</v>
       </c>
       <c r="C142" t="n">
-        <v>0.820222</v>
+        <v>0.877048</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8360610000000001</v>
+        <v>0.894312</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26458</v>
+        <v>1.3562</v>
       </c>
       <c r="C143" t="n">
-        <v>0.82473</v>
+        <v>0.880449</v>
       </c>
       <c r="D143" t="n">
-        <v>0.84179</v>
+        <v>0.896936</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175935</v>
+        <v>0.175254</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187315</v>
+        <v>0.187245</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196941</v>
+        <v>0.196829</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176336</v>
+        <v>0.175686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188204</v>
+        <v>0.187776</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197467</v>
+        <v>0.197385</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177096</v>
+        <v>0.176503</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189133</v>
+        <v>0.189152</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198874</v>
+        <v>0.198815</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177694</v>
+        <v>0.17875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190699</v>
+        <v>0.190104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200555</v>
+        <v>0.200351</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178658</v>
+        <v>0.17942</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192582</v>
+        <v>0.191976</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202669</v>
+        <v>0.202465</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18033</v>
+        <v>0.17967</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194705</v>
+        <v>0.194159</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205602</v>
+        <v>0.205419</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182513</v>
+        <v>0.183384</v>
       </c>
       <c r="C8" t="n">
-        <v>0.19773</v>
+        <v>0.197079</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210269</v>
+        <v>0.209994</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.186249</v>
+        <v>0.185729</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201556</v>
+        <v>0.201055</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193903</v>
+        <v>0.19563</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.181953</v>
+        <v>0.181404</v>
       </c>
       <c r="C10" t="n">
-        <v>0.187053</v>
+        <v>0.186155</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194048</v>
+        <v>0.19395</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181962</v>
+        <v>0.181825</v>
       </c>
       <c r="C11" t="n">
-        <v>0.186987</v>
+        <v>0.186709</v>
       </c>
       <c r="D11" t="n">
-        <v>0.195364</v>
+        <v>0.195124</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.183004</v>
+        <v>0.181477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18723</v>
+        <v>0.187557</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194471</v>
+        <v>0.194286</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.182161</v>
+        <v>0.183602</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187639</v>
+        <v>0.188447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194808</v>
+        <v>0.195587</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.182448</v>
+        <v>0.182816</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188167</v>
+        <v>0.188711</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196542</v>
+        <v>0.195399</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.183536</v>
+        <v>0.182728</v>
       </c>
       <c r="C15" t="n">
-        <v>0.189124</v>
+        <v>0.188229</v>
       </c>
       <c r="D15" t="n">
-        <v>0.196089</v>
+        <v>0.195816</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.182816</v>
+        <v>0.184441</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189355</v>
+        <v>0.190275</v>
       </c>
       <c r="D16" t="n">
-        <v>0.19657</v>
+        <v>0.196458</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.183237</v>
+        <v>0.182604</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191028</v>
+        <v>0.189733</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197463</v>
+        <v>0.197243</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.183647</v>
+        <v>0.184995</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19203</v>
+        <v>0.191822</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198421</v>
+        <v>0.198471</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.18518</v>
+        <v>0.185441</v>
       </c>
       <c r="C19" t="n">
-        <v>0.192799</v>
+        <v>0.192768</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200139</v>
+        <v>0.202092</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18578</v>
+        <v>0.185178</v>
       </c>
       <c r="C20" t="n">
-        <v>0.193825</v>
+        <v>0.193229</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20223</v>
+        <v>0.201917</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.188324</v>
+        <v>0.187008</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195908</v>
+        <v>0.195444</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204776</v>
+        <v>0.204529</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.190098</v>
+        <v>0.189513</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198684</v>
+        <v>0.197967</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208967</v>
+        <v>0.208604</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.193806</v>
+        <v>0.193101</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202211</v>
+        <v>0.201723</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201092</v>
+        <v>0.204477</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.204996</v>
+        <v>0.204149</v>
       </c>
       <c r="C24" t="n">
-        <v>0.193559</v>
+        <v>0.19027</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201336</v>
+        <v>0.20191</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.205232</v>
+        <v>0.203533</v>
       </c>
       <c r="C25" t="n">
-        <v>0.193824</v>
+        <v>0.191244</v>
       </c>
       <c r="D25" t="n">
-        <v>0.203833</v>
+        <v>0.201573</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.206411</v>
+        <v>0.203741</v>
       </c>
       <c r="C26" t="n">
-        <v>0.19489</v>
+        <v>0.191264</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204019</v>
+        <v>0.201902</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.206022</v>
+        <v>0.204236</v>
       </c>
       <c r="C27" t="n">
-        <v>0.195741</v>
+        <v>0.192219</v>
       </c>
       <c r="D27" t="n">
-        <v>0.204671</v>
+        <v>0.202383</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.206339</v>
+        <v>0.204276</v>
       </c>
       <c r="C28" t="n">
-        <v>0.19586</v>
+        <v>0.194053</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20564</v>
+        <v>0.204447</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.20621</v>
+        <v>0.20438</v>
       </c>
       <c r="C29" t="n">
-        <v>0.196876</v>
+        <v>0.193701</v>
       </c>
       <c r="D29" t="n">
-        <v>0.207272</v>
+        <v>0.205609</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20644</v>
+        <v>0.205831</v>
       </c>
       <c r="C30" t="n">
-        <v>0.197171</v>
+        <v>0.193081</v>
       </c>
       <c r="D30" t="n">
-        <v>0.207667</v>
+        <v>0.205737</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.206569</v>
+        <v>0.204757</v>
       </c>
       <c r="C31" t="n">
-        <v>0.197203</v>
+        <v>0.194304</v>
       </c>
       <c r="D31" t="n">
-        <v>0.207786</v>
+        <v>0.205331</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206899</v>
+        <v>0.205153</v>
       </c>
       <c r="C32" t="n">
-        <v>0.19908</v>
+        <v>0.196044</v>
       </c>
       <c r="D32" t="n">
-        <v>0.209029</v>
+        <v>0.206259</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.206623</v>
+        <v>0.206674</v>
       </c>
       <c r="C33" t="n">
-        <v>0.200407</v>
+        <v>0.198058</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210402</v>
+        <v>0.208204</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.20787</v>
+        <v>0.208224</v>
       </c>
       <c r="C34" t="n">
-        <v>0.201144</v>
+        <v>0.199692</v>
       </c>
       <c r="D34" t="n">
-        <v>0.212115</v>
+        <v>0.211643</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.211553</v>
+        <v>0.208976</v>
       </c>
       <c r="C35" t="n">
-        <v>0.203806</v>
+        <v>0.202323</v>
       </c>
       <c r="D35" t="n">
-        <v>0.214785</v>
+        <v>0.21388</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.211147</v>
+        <v>0.21096</v>
       </c>
       <c r="C36" t="n">
-        <v>0.207186</v>
+        <v>0.206346</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219084</v>
+        <v>0.218696</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.213507</v>
+        <v>0.21497</v>
       </c>
       <c r="C37" t="n">
-        <v>0.210717</v>
+        <v>0.211395</v>
       </c>
       <c r="D37" t="n">
-        <v>0.218513</v>
+        <v>0.220766</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232133</v>
+        <v>0.230001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.210558</v>
+        <v>0.208728</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220758</v>
+        <v>0.220437</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233165</v>
+        <v>0.231423</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210519</v>
+        <v>0.209613</v>
       </c>
       <c r="D39" t="n">
-        <v>0.221022</v>
+        <v>0.221183</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232401</v>
+        <v>0.233524</v>
       </c>
       <c r="C40" t="n">
-        <v>0.21147</v>
+        <v>0.210567</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220758</v>
+        <v>0.220822</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.232563</v>
+        <v>0.234732</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210817</v>
+        <v>0.211738</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221653</v>
+        <v>0.222623</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.234064</v>
+        <v>0.233289</v>
       </c>
       <c r="C42" t="n">
-        <v>0.213161</v>
+        <v>0.213633</v>
       </c>
       <c r="D42" t="n">
-        <v>0.223097</v>
+        <v>0.223223</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.235019</v>
+        <v>0.235847</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213956</v>
+        <v>0.214771</v>
       </c>
       <c r="D43" t="n">
-        <v>0.223743</v>
+        <v>0.225128</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.235333</v>
+        <v>0.236664</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215746</v>
+        <v>0.215819</v>
       </c>
       <c r="D44" t="n">
-        <v>0.225616</v>
+        <v>0.225702</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.234311</v>
+        <v>0.23381</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215621</v>
+        <v>0.2168</v>
       </c>
       <c r="D45" t="n">
-        <v>0.226186</v>
+        <v>0.227205</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.236535</v>
+        <v>0.238546</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21727</v>
+        <v>0.217165</v>
       </c>
       <c r="D46" t="n">
-        <v>0.228383</v>
+        <v>0.226912</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.234949</v>
+        <v>0.235863</v>
       </c>
       <c r="C47" t="n">
-        <v>0.218983</v>
+        <v>0.217766</v>
       </c>
       <c r="D47" t="n">
-        <v>0.229598</v>
+        <v>0.227894</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.235717</v>
+        <v>0.236657</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219335</v>
+        <v>0.221683</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231449</v>
+        <v>0.232483</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236873</v>
+        <v>0.235995</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222927</v>
+        <v>0.222801</v>
       </c>
       <c r="D49" t="n">
-        <v>0.234798</v>
+        <v>0.233827</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.240957</v>
+        <v>0.239482</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225696</v>
+        <v>0.226518</v>
       </c>
       <c r="D50" t="n">
-        <v>0.238581</v>
+        <v>0.239561</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24354</v>
+        <v>0.240966</v>
       </c>
       <c r="C51" t="n">
-        <v>0.230408</v>
+        <v>0.229949</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232156</v>
+        <v>0.234475</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.245955</v>
+        <v>0.245563</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237328</v>
+        <v>0.236662</v>
       </c>
       <c r="D52" t="n">
-        <v>0.23366</v>
+        <v>0.233015</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.254016</v>
+        <v>0.259718</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22592</v>
+        <v>0.224038</v>
       </c>
       <c r="D53" t="n">
-        <v>0.23469</v>
+        <v>0.232543</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260054</v>
+        <v>0.259981</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226293</v>
+        <v>0.227308</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234953</v>
+        <v>0.234352</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.253524</v>
+        <v>0.258556</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226064</v>
+        <v>0.226008</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2354</v>
+        <v>0.233528</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261362</v>
+        <v>0.259277</v>
       </c>
       <c r="C56" t="n">
-        <v>0.226662</v>
+        <v>0.22744</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235775</v>
+        <v>0.235915</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.259901</v>
+        <v>0.25947</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228415</v>
+        <v>0.229986</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236802</v>
+        <v>0.236362</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.261399</v>
+        <v>0.259968</v>
       </c>
       <c r="C58" t="n">
-        <v>0.228895</v>
+        <v>0.230841</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237323</v>
+        <v>0.237159</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.255449</v>
+        <v>0.259213</v>
       </c>
       <c r="C59" t="n">
-        <v>0.230177</v>
+        <v>0.230266</v>
       </c>
       <c r="D59" t="n">
-        <v>0.23856</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.254837</v>
+        <v>0.258939</v>
       </c>
       <c r="C60" t="n">
-        <v>0.231215</v>
+        <v>0.23108</v>
       </c>
       <c r="D60" t="n">
-        <v>0.239868</v>
+        <v>0.240093</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262137</v>
+        <v>0.262733</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233571</v>
+        <v>0.234421</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242513</v>
+        <v>0.240418</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.256315</v>
+        <v>0.26047</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235386</v>
+        <v>0.235825</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243949</v>
+        <v>0.242463</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263283</v>
+        <v>0.264168</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238183</v>
+        <v>0.239044</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247999</v>
+        <v>0.246175</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261632</v>
+        <v>0.26529</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241323</v>
+        <v>0.242401</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252234</v>
+        <v>0.251532</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262622</v>
+        <v>0.268829</v>
       </c>
       <c r="C65" t="n">
-        <v>0.246602</v>
+        <v>0.247456</v>
       </c>
       <c r="D65" t="n">
-        <v>0.259785</v>
+        <v>0.25858</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269828</v>
+        <v>0.269867</v>
       </c>
       <c r="C66" t="n">
-        <v>0.253611</v>
+        <v>0.252362</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242087</v>
+        <v>0.242302</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.273243</v>
+        <v>0.274964</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235993</v>
+        <v>0.237744</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242336</v>
+        <v>0.240415</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.273938</v>
+        <v>0.277624</v>
       </c>
       <c r="C68" t="n">
-        <v>0.236934</v>
+        <v>0.239102</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242608</v>
+        <v>0.242739</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.273999</v>
+        <v>0.278478</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237882</v>
+        <v>0.239977</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243535</v>
+        <v>0.243212</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.274145</v>
+        <v>0.278446</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238726</v>
+        <v>0.240857</v>
       </c>
       <c r="D70" t="n">
-        <v>0.24434</v>
+        <v>0.243924</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.274656</v>
+        <v>0.279148</v>
       </c>
       <c r="C71" t="n">
-        <v>0.240094</v>
+        <v>0.242376</v>
       </c>
       <c r="D71" t="n">
-        <v>0.245366</v>
+        <v>0.245427</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.277195</v>
+        <v>0.27842</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241207</v>
+        <v>0.243053</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245603</v>
+        <v>0.245946</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.274815</v>
+        <v>0.27891</v>
       </c>
       <c r="C73" t="n">
-        <v>0.24318</v>
+        <v>0.244115</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247375</v>
+        <v>0.245726</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279051</v>
+        <v>0.279922</v>
       </c>
       <c r="C74" t="n">
-        <v>0.244584</v>
+        <v>0.246676</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249551</v>
+        <v>0.249509</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.27627</v>
+        <v>0.279692</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245914</v>
+        <v>0.24769</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250375</v>
+        <v>0.250569</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276649</v>
+        <v>0.280904</v>
       </c>
       <c r="C76" t="n">
-        <v>0.248104</v>
+        <v>0.24962</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252631</v>
+        <v>0.252956</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.281529</v>
+        <v>0.281855</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250048</v>
+        <v>0.252361</v>
       </c>
       <c r="D77" t="n">
-        <v>0.257149</v>
+        <v>0.256829</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.279537</v>
+        <v>0.283621</v>
       </c>
       <c r="C78" t="n">
-        <v>0.253836</v>
+        <v>0.255061</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260874</v>
+        <v>0.260818</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.281801</v>
+        <v>0.28633</v>
       </c>
       <c r="C79" t="n">
-        <v>0.257732</v>
+        <v>0.258976</v>
       </c>
       <c r="D79" t="n">
-        <v>0.269337</v>
+        <v>0.268478</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.286399</v>
+        <v>0.290309</v>
       </c>
       <c r="C80" t="n">
-        <v>0.26442</v>
+        <v>0.263868</v>
       </c>
       <c r="D80" t="n">
-        <v>0.255336</v>
+        <v>0.250984</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.297507</v>
+        <v>0.298282</v>
       </c>
       <c r="C81" t="n">
-        <v>0.241843</v>
+        <v>0.2401</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257493</v>
+        <v>0.251623</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.298302</v>
+        <v>0.298157</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241534</v>
+        <v>0.239975</v>
       </c>
       <c r="D82" t="n">
-        <v>0.252493</v>
+        <v>0.252026</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.294814</v>
+        <v>0.298513</v>
       </c>
       <c r="C83" t="n">
-        <v>0.243107</v>
+        <v>0.241438</v>
       </c>
       <c r="D83" t="n">
-        <v>0.255808</v>
+        <v>0.253078</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298842</v>
+        <v>0.298388</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244474</v>
+        <v>0.233854</v>
       </c>
       <c r="D84" t="n">
-        <v>0.255841</v>
+        <v>0.248059</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.298466</v>
+        <v>0.288323</v>
       </c>
       <c r="C85" t="n">
-        <v>0.24603</v>
+        <v>0.241853</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257342</v>
+        <v>0.253942</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.298939</v>
+        <v>0.298775</v>
       </c>
       <c r="C86" t="n">
-        <v>0.244635</v>
+        <v>0.242771</v>
       </c>
       <c r="D86" t="n">
-        <v>0.258148</v>
+        <v>0.254981</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.300372</v>
+        <v>0.298926</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244563</v>
+        <v>0.243598</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257797</v>
+        <v>0.255816</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.302679</v>
+        <v>0.299207</v>
       </c>
       <c r="C88" t="n">
-        <v>0.24715</v>
+        <v>0.236986</v>
       </c>
       <c r="D88" t="n">
-        <v>0.260893</v>
+        <v>0.250141</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.304774</v>
+        <v>0.289774</v>
       </c>
       <c r="C89" t="n">
-        <v>0.250054</v>
+        <v>0.238095</v>
       </c>
       <c r="D89" t="n">
-        <v>0.263201</v>
+        <v>0.251504</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.304311</v>
+        <v>0.290144</v>
       </c>
       <c r="C90" t="n">
-        <v>0.250515</v>
+        <v>0.239661</v>
       </c>
       <c r="D90" t="n">
-        <v>0.264377</v>
+        <v>0.25404</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.304276</v>
+        <v>0.291337</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253411</v>
+        <v>0.249582</v>
       </c>
       <c r="D91" t="n">
-        <v>0.266396</v>
+        <v>0.264117</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.306166</v>
+        <v>0.303907</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253457</v>
+        <v>0.25437</v>
       </c>
       <c r="D92" t="n">
-        <v>0.27125</v>
+        <v>0.268553</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.30516</v>
+        <v>0.305726</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258593</v>
+        <v>0.248936</v>
       </c>
       <c r="D93" t="n">
-        <v>0.278327</v>
+        <v>0.268061</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.308969</v>
+        <v>0.298844</v>
       </c>
       <c r="C94" t="n">
-        <v>0.267149</v>
+        <v>0.261916</v>
       </c>
       <c r="D94" t="n">
-        <v>0.369907</v>
+        <v>0.331362</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.459696</v>
+        <v>0.451566</v>
       </c>
       <c r="C95" t="n">
-        <v>0.384255</v>
+        <v>0.377804</v>
       </c>
       <c r="D95" t="n">
-        <v>0.371329</v>
+        <v>0.360594</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.440941</v>
+        <v>0.456911</v>
       </c>
       <c r="C96" t="n">
-        <v>0.399213</v>
+        <v>0.383891</v>
       </c>
       <c r="D96" t="n">
-        <v>0.384034</v>
+        <v>0.36313</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.46598</v>
+        <v>0.471821</v>
       </c>
       <c r="C97" t="n">
-        <v>0.375799</v>
+        <v>0.351009</v>
       </c>
       <c r="D97" t="n">
-        <v>0.373689</v>
+        <v>0.337307</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.427151</v>
+        <v>0.413415</v>
       </c>
       <c r="C98" t="n">
-        <v>0.38073</v>
+        <v>0.388093</v>
       </c>
       <c r="D98" t="n">
-        <v>0.384085</v>
+        <v>0.36731</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.433451</v>
+        <v>0.452122</v>
       </c>
       <c r="C99" t="n">
-        <v>0.392098</v>
+        <v>0.38697</v>
       </c>
       <c r="D99" t="n">
-        <v>0.382523</v>
+        <v>0.366697</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.434353</v>
+        <v>0.455078</v>
       </c>
       <c r="C100" t="n">
-        <v>0.418658</v>
+        <v>0.385243</v>
       </c>
       <c r="D100" t="n">
-        <v>0.406016</v>
+        <v>0.371895</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.496686</v>
+        <v>0.455784</v>
       </c>
       <c r="C101" t="n">
-        <v>0.394769</v>
+        <v>0.387907</v>
       </c>
       <c r="D101" t="n">
-        <v>0.396841</v>
+        <v>0.370479</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.448816</v>
+        <v>0.453933</v>
       </c>
       <c r="C102" t="n">
-        <v>0.429507</v>
+        <v>0.38661</v>
       </c>
       <c r="D102" t="n">
-        <v>0.41858</v>
+        <v>0.363152</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.491931</v>
+        <v>0.45688</v>
       </c>
       <c r="C103" t="n">
-        <v>0.433432</v>
+        <v>0.393668</v>
       </c>
       <c r="D103" t="n">
-        <v>0.418178</v>
+        <v>0.386667</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.495656</v>
+        <v>0.452328</v>
       </c>
       <c r="C104" t="n">
-        <v>0.405665</v>
+        <v>0.394416</v>
       </c>
       <c r="D104" t="n">
-        <v>0.400784</v>
+        <v>0.374554</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.456956</v>
+        <v>0.455697</v>
       </c>
       <c r="C105" t="n">
-        <v>0.436166</v>
+        <v>0.394625</v>
       </c>
       <c r="D105" t="n">
-        <v>0.417498</v>
+        <v>0.381728</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.500381</v>
+        <v>0.453761</v>
       </c>
       <c r="C106" t="n">
-        <v>0.436061</v>
+        <v>0.370185</v>
       </c>
       <c r="D106" t="n">
-        <v>0.41904</v>
+        <v>0.364214</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.494462</v>
+        <v>0.418372</v>
       </c>
       <c r="C107" t="n">
-        <v>0.441836</v>
+        <v>0.405894</v>
       </c>
       <c r="D107" t="n">
-        <v>0.433298</v>
+        <v>0.405674</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492435</v>
+        <v>0.483908</v>
       </c>
       <c r="C108" t="n">
-        <v>0.443299</v>
+        <v>0.406338</v>
       </c>
       <c r="D108" t="n">
-        <v>0.687528</v>
+        <v>0.6449279999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.494148</v>
+        <v>0.465363</v>
       </c>
       <c r="C109" t="n">
-        <v>0.450812</v>
+        <v>0.413855</v>
       </c>
       <c r="D109" t="n">
-        <v>0.693379</v>
+        <v>0.651376</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.821513</v>
+        <v>0.779253</v>
       </c>
       <c r="C110" t="n">
-        <v>0.702449</v>
+        <v>0.656514</v>
       </c>
       <c r="D110" t="n">
-        <v>0.707597</v>
+        <v>0.665513</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.819484</v>
+        <v>0.814731</v>
       </c>
       <c r="C111" t="n">
-        <v>0.68672</v>
+        <v>0.64757</v>
       </c>
       <c r="D111" t="n">
-        <v>0.710651</v>
+        <v>0.668216</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.817094</v>
+        <v>0.767567</v>
       </c>
       <c r="C112" t="n">
-        <v>0.705192</v>
+        <v>0.648628</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7107869999999999</v>
+        <v>0.6566959999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.806392</v>
+        <v>0.776471</v>
       </c>
       <c r="C113" t="n">
-        <v>0.706555</v>
+        <v>0.648546</v>
       </c>
       <c r="D113" t="n">
-        <v>0.711884</v>
+        <v>0.657027</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.807478</v>
+        <v>0.784191</v>
       </c>
       <c r="C114" t="n">
-        <v>0.707437</v>
+        <v>0.667019</v>
       </c>
       <c r="D114" t="n">
-        <v>0.713535</v>
+        <v>0.6718460000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.822864</v>
+        <v>0.772048</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7097329999999999</v>
+        <v>0.667774</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7038990000000001</v>
+        <v>0.673038</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.808091</v>
+        <v>0.762145</v>
       </c>
       <c r="C116" t="n">
-        <v>0.694043</v>
+        <v>0.668807</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7174199999999999</v>
+        <v>0.675238</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.817838</v>
+        <v>0.772141</v>
       </c>
       <c r="C117" t="n">
-        <v>0.697434</v>
+        <v>0.672175</v>
       </c>
       <c r="D117" t="n">
-        <v>0.718681</v>
+        <v>0.676569</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.819384</v>
+        <v>0.775851</v>
       </c>
       <c r="C118" t="n">
-        <v>0.71561</v>
+        <v>0.673894</v>
       </c>
       <c r="D118" t="n">
-        <v>0.722495</v>
+        <v>0.680473</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.806998</v>
+        <v>0.771084</v>
       </c>
       <c r="C119" t="n">
-        <v>0.719715</v>
+        <v>0.677688</v>
       </c>
       <c r="D119" t="n">
-        <v>0.725233</v>
+        <v>0.682648</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.817949</v>
+        <v>0.771237</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7238560000000001</v>
+        <v>0.681036</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7195859999999999</v>
+        <v>0.687839</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.818558</v>
+        <v>0.775076</v>
       </c>
       <c r="C121" t="n">
-        <v>0.730129</v>
+        <v>0.686713</v>
       </c>
       <c r="D121" t="n">
-        <v>0.739083</v>
+        <v>0.6955750000000001</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.822273</v>
+        <v>0.762943</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7382880000000001</v>
+        <v>0.6938029999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.748327</v>
+        <v>0.705095</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.824541</v>
+        <v>0.776975</v>
       </c>
       <c r="C123" t="n">
-        <v>0.747686</v>
+        <v>0.703341</v>
       </c>
       <c r="D123" t="n">
-        <v>0.830082</v>
+        <v>0.779529</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.09668</v>
+        <v>1.04137</v>
       </c>
       <c r="C124" t="n">
-        <v>0.819318</v>
+        <v>0.77111</v>
       </c>
       <c r="D124" t="n">
-        <v>0.832251</v>
+        <v>0.780481</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.09485</v>
+        <v>1.03528</v>
       </c>
       <c r="C125" t="n">
-        <v>0.8141620000000001</v>
+        <v>0.769059</v>
       </c>
       <c r="D125" t="n">
-        <v>0.834068</v>
+        <v>0.782053</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.09944</v>
+        <v>1.02738</v>
       </c>
       <c r="C126" t="n">
-        <v>0.81472</v>
+        <v>0.765647</v>
       </c>
       <c r="D126" t="n">
-        <v>0.834002</v>
+        <v>0.783424</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.11869</v>
+        <v>1.04017</v>
       </c>
       <c r="C127" t="n">
-        <v>0.815905</v>
+        <v>0.765805</v>
       </c>
       <c r="D127" t="n">
-        <v>0.836139</v>
+        <v>0.784348</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11229</v>
+        <v>1.02885</v>
       </c>
       <c r="C128" t="n">
-        <v>0.818392</v>
+        <v>0.768432</v>
       </c>
       <c r="D128" t="n">
-        <v>0.838952</v>
+        <v>0.786727</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.10961</v>
+        <v>1.0287</v>
       </c>
       <c r="C129" t="n">
-        <v>0.828611</v>
+        <v>0.77667</v>
       </c>
       <c r="D129" t="n">
-        <v>0.841427</v>
+        <v>0.789948</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.10147</v>
+        <v>1.04126</v>
       </c>
       <c r="C130" t="n">
-        <v>0.830443</v>
+        <v>0.779056</v>
       </c>
       <c r="D130" t="n">
-        <v>0.844567</v>
+        <v>0.784919</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.10824</v>
+        <v>1.02955</v>
       </c>
       <c r="C131" t="n">
-        <v>0.833937</v>
+        <v>0.785657</v>
       </c>
       <c r="D131" t="n">
-        <v>0.84803</v>
+        <v>0.796744</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.10958</v>
+        <v>1.02172</v>
       </c>
       <c r="C132" t="n">
-        <v>0.836708</v>
+        <v>0.786373</v>
       </c>
       <c r="D132" t="n">
-        <v>0.851222</v>
+        <v>0.798611</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.08048</v>
+        <v>1.03391</v>
       </c>
       <c r="C133" t="n">
-        <v>0.841645</v>
+        <v>0.783458</v>
       </c>
       <c r="D133" t="n">
-        <v>0.85651</v>
+        <v>0.8039770000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.07817</v>
+        <v>1.05688</v>
       </c>
       <c r="C134" t="n">
-        <v>0.847514</v>
+        <v>0.7949310000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.858604</v>
+        <v>0.803455</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.10831</v>
+        <v>1.03186</v>
       </c>
       <c r="C135" t="n">
-        <v>0.854212</v>
+        <v>0.802684</v>
       </c>
       <c r="D135" t="n">
-        <v>0.87468</v>
+        <v>0.820275</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.08642</v>
+        <v>1.05986</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8660949999999999</v>
+        <v>0.810431</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8921790000000001</v>
+        <v>0.832898</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.09611</v>
+        <v>1.04188</v>
       </c>
       <c r="C137" t="n">
-        <v>0.8816079999999999</v>
+        <v>0.822777</v>
       </c>
       <c r="D137" t="n">
-        <v>0.88586</v>
+        <v>0.829928</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.35234</v>
+        <v>1.26241</v>
       </c>
       <c r="C138" t="n">
-        <v>0.87153</v>
+        <v>0.815083</v>
       </c>
       <c r="D138" t="n">
-        <v>0.883483</v>
+        <v>0.83221</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.35396</v>
+        <v>1.26494</v>
       </c>
       <c r="C139" t="n">
-        <v>0.872622</v>
+        <v>0.818735</v>
       </c>
       <c r="D139" t="n">
-        <v>0.888558</v>
+        <v>0.832962</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.35476</v>
+        <v>1.26596</v>
       </c>
       <c r="C140" t="n">
-        <v>0.87454</v>
+        <v>0.820024</v>
       </c>
       <c r="D140" t="n">
-        <v>0.887594</v>
+        <v>0.834303</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.35463</v>
+        <v>1.26453</v>
       </c>
       <c r="C141" t="n">
-        <v>0.875146</v>
+        <v>0.821412</v>
       </c>
       <c r="D141" t="n">
-        <v>0.889257</v>
+        <v>0.836556</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.34418</v>
+        <v>1.26452</v>
       </c>
       <c r="C142" t="n">
-        <v>0.877048</v>
+        <v>0.823749</v>
       </c>
       <c r="D142" t="n">
-        <v>0.894312</v>
+        <v>0.836207</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.3562</v>
+        <v>1.26567</v>
       </c>
       <c r="C143" t="n">
-        <v>0.880449</v>
+        <v>0.82616</v>
       </c>
       <c r="D143" t="n">
-        <v>0.896936</v>
+        <v>0.841587</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175254</v>
+        <v>0.175582</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187245</v>
+        <v>0.187398</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196829</v>
+        <v>0.196981</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175686</v>
+        <v>0.175593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187776</v>
+        <v>0.18811</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197385</v>
+        <v>0.197429</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176503</v>
+        <v>0.176977</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189152</v>
+        <v>0.188968</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198815</v>
+        <v>0.198779</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17875</v>
+        <v>0.17769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190104</v>
+        <v>0.19052</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200351</v>
+        <v>0.200464</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17942</v>
+        <v>0.178599</v>
       </c>
       <c r="C6" t="n">
-        <v>0.191976</v>
+        <v>0.192027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202465</v>
+        <v>0.20246</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17967</v>
+        <v>0.18004</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194159</v>
+        <v>0.194634</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205419</v>
+        <v>0.205486</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.183384</v>
+        <v>0.182486</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197079</v>
+        <v>0.197555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.209994</v>
+        <v>0.210282</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.185729</v>
+        <v>0.18621</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201055</v>
+        <v>0.201365</v>
       </c>
       <c r="D9" t="n">
-        <v>0.19563</v>
+        <v>0.193639</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.181404</v>
+        <v>0.183707</v>
       </c>
       <c r="C10" t="n">
-        <v>0.186155</v>
+        <v>0.188636</v>
       </c>
       <c r="D10" t="n">
-        <v>0.19395</v>
+        <v>0.195159</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181825</v>
+        <v>0.184576</v>
       </c>
       <c r="C11" t="n">
-        <v>0.186709</v>
+        <v>0.189457</v>
       </c>
       <c r="D11" t="n">
-        <v>0.195124</v>
+        <v>0.196928</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.181477</v>
+        <v>0.181526</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187557</v>
+        <v>0.187113</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194286</v>
+        <v>0.194229</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.183602</v>
+        <v>0.183858</v>
       </c>
       <c r="C13" t="n">
-        <v>0.188447</v>
+        <v>0.187459</v>
       </c>
       <c r="D13" t="n">
-        <v>0.195587</v>
+        <v>0.194593</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.182816</v>
+        <v>0.184466</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188711</v>
+        <v>0.189711</v>
       </c>
       <c r="D14" t="n">
-        <v>0.195399</v>
+        <v>0.196403</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.182728</v>
+        <v>0.185488</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188229</v>
+        <v>0.18919</v>
       </c>
       <c r="D15" t="n">
-        <v>0.195816</v>
+        <v>0.196249</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.184441</v>
+        <v>0.182308</v>
       </c>
       <c r="C16" t="n">
-        <v>0.190275</v>
+        <v>0.189207</v>
       </c>
       <c r="D16" t="n">
-        <v>0.196458</v>
+        <v>0.19629</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.182604</v>
+        <v>0.184681</v>
       </c>
       <c r="C17" t="n">
-        <v>0.189733</v>
+        <v>0.190861</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197243</v>
+        <v>0.197142</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.184995</v>
+        <v>0.184225</v>
       </c>
       <c r="C18" t="n">
-        <v>0.191822</v>
+        <v>0.192238</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198471</v>
+        <v>0.198369</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.185441</v>
+        <v>0.185597</v>
       </c>
       <c r="C19" t="n">
-        <v>0.192768</v>
+        <v>0.193545</v>
       </c>
       <c r="D19" t="n">
-        <v>0.202092</v>
+        <v>0.200681</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185178</v>
+        <v>0.187712</v>
       </c>
       <c r="C20" t="n">
-        <v>0.193229</v>
+        <v>0.194244</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201917</v>
+        <v>0.202277</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.187008</v>
+        <v>0.189019</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195444</v>
+        <v>0.196579</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204529</v>
+        <v>0.205238</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.189513</v>
+        <v>0.192023</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197967</v>
+        <v>0.198476</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208604</v>
+        <v>0.208539</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.193101</v>
+        <v>0.194005</v>
       </c>
       <c r="C23" t="n">
-        <v>0.201723</v>
+        <v>0.201895</v>
       </c>
       <c r="D23" t="n">
-        <v>0.204477</v>
+        <v>0.201314</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.204149</v>
+        <v>0.203676</v>
       </c>
       <c r="C24" t="n">
-        <v>0.19027</v>
+        <v>0.189455</v>
       </c>
       <c r="D24" t="n">
-        <v>0.20191</v>
+        <v>0.201696</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.203533</v>
+        <v>0.20453</v>
       </c>
       <c r="C25" t="n">
-        <v>0.191244</v>
+        <v>0.189835</v>
       </c>
       <c r="D25" t="n">
-        <v>0.201573</v>
+        <v>0.201456</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203741</v>
+        <v>0.203239</v>
       </c>
       <c r="C26" t="n">
-        <v>0.191264</v>
+        <v>0.191911</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201902</v>
+        <v>0.201374</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.204236</v>
+        <v>0.20221</v>
       </c>
       <c r="C27" t="n">
-        <v>0.192219</v>
+        <v>0.191548</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202383</v>
+        <v>0.202851</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.204276</v>
+        <v>0.202521</v>
       </c>
       <c r="C28" t="n">
-        <v>0.194053</v>
+        <v>0.192591</v>
       </c>
       <c r="D28" t="n">
-        <v>0.204447</v>
+        <v>0.20341</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.20438</v>
+        <v>0.201388</v>
       </c>
       <c r="C29" t="n">
-        <v>0.193701</v>
+        <v>0.192623</v>
       </c>
       <c r="D29" t="n">
-        <v>0.205609</v>
+        <v>0.204009</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.205831</v>
+        <v>0.2018</v>
       </c>
       <c r="C30" t="n">
-        <v>0.193081</v>
+        <v>0.193874</v>
       </c>
       <c r="D30" t="n">
-        <v>0.205737</v>
+        <v>0.206042</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204757</v>
+        <v>0.202342</v>
       </c>
       <c r="C31" t="n">
-        <v>0.194304</v>
+        <v>0.194468</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205331</v>
+        <v>0.205299</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205153</v>
+        <v>0.202944</v>
       </c>
       <c r="C32" t="n">
-        <v>0.196044</v>
+        <v>0.194848</v>
       </c>
       <c r="D32" t="n">
-        <v>0.206259</v>
+        <v>0.206398</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.206674</v>
+        <v>0.203647</v>
       </c>
       <c r="C33" t="n">
-        <v>0.198058</v>
+        <v>0.196121</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208204</v>
+        <v>0.208303</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.208224</v>
+        <v>0.204892</v>
       </c>
       <c r="C34" t="n">
-        <v>0.199692</v>
+        <v>0.19851</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211643</v>
+        <v>0.209739</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.208976</v>
+        <v>0.205945</v>
       </c>
       <c r="C35" t="n">
-        <v>0.202323</v>
+        <v>0.199843</v>
       </c>
       <c r="D35" t="n">
-        <v>0.21388</v>
+        <v>0.212553</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.21096</v>
+        <v>0.207623</v>
       </c>
       <c r="C36" t="n">
-        <v>0.206346</v>
+        <v>0.202885</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218696</v>
+        <v>0.216344</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21497</v>
+        <v>0.21211</v>
       </c>
       <c r="C37" t="n">
-        <v>0.211395</v>
+        <v>0.207161</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220766</v>
+        <v>0.220482</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.230001</v>
+        <v>0.234247</v>
       </c>
       <c r="C38" t="n">
-        <v>0.208728</v>
+        <v>0.20804</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220437</v>
+        <v>0.219658</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.231423</v>
+        <v>0.232953</v>
       </c>
       <c r="C39" t="n">
-        <v>0.209613</v>
+        <v>0.208877</v>
       </c>
       <c r="D39" t="n">
-        <v>0.221183</v>
+        <v>0.220178</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233524</v>
+        <v>0.233497</v>
       </c>
       <c r="C40" t="n">
-        <v>0.210567</v>
+        <v>0.209484</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220822</v>
+        <v>0.220446</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234732</v>
+        <v>0.234541</v>
       </c>
       <c r="C41" t="n">
-        <v>0.211738</v>
+        <v>0.209716</v>
       </c>
       <c r="D41" t="n">
-        <v>0.222623</v>
+        <v>0.220578</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.233289</v>
+        <v>0.233453</v>
       </c>
       <c r="C42" t="n">
-        <v>0.213633</v>
+        <v>0.211874</v>
       </c>
       <c r="D42" t="n">
-        <v>0.223223</v>
+        <v>0.222485</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.235847</v>
+        <v>0.233087</v>
       </c>
       <c r="C43" t="n">
-        <v>0.214771</v>
+        <v>0.213347</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225128</v>
+        <v>0.22283</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.236664</v>
+        <v>0.233432</v>
       </c>
       <c r="C44" t="n">
-        <v>0.215819</v>
+        <v>0.212713</v>
       </c>
       <c r="D44" t="n">
-        <v>0.225702</v>
+        <v>0.222711</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.23381</v>
+        <v>0.23335</v>
       </c>
       <c r="C45" t="n">
-        <v>0.2168</v>
+        <v>0.214313</v>
       </c>
       <c r="D45" t="n">
-        <v>0.227205</v>
+        <v>0.224372</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.238546</v>
+        <v>0.233815</v>
       </c>
       <c r="C46" t="n">
-        <v>0.217165</v>
+        <v>0.215508</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226912</v>
+        <v>0.22563</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.235863</v>
+        <v>0.233932</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217766</v>
+        <v>0.216277</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227894</v>
+        <v>0.226924</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.236657</v>
+        <v>0.234269</v>
       </c>
       <c r="C48" t="n">
-        <v>0.221683</v>
+        <v>0.218531</v>
       </c>
       <c r="D48" t="n">
-        <v>0.232483</v>
+        <v>0.229042</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235995</v>
+        <v>0.235322</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222801</v>
+        <v>0.221933</v>
       </c>
       <c r="D49" t="n">
-        <v>0.233827</v>
+        <v>0.232807</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239482</v>
+        <v>0.237015</v>
       </c>
       <c r="C50" t="n">
-        <v>0.226518</v>
+        <v>0.224533</v>
       </c>
       <c r="D50" t="n">
-        <v>0.239561</v>
+        <v>0.236966</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.240966</v>
+        <v>0.242067</v>
       </c>
       <c r="C51" t="n">
-        <v>0.229949</v>
+        <v>0.228914</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234475</v>
+        <v>0.23446</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.245563</v>
+        <v>0.243919</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236662</v>
+        <v>0.235722</v>
       </c>
       <c r="D52" t="n">
-        <v>0.233015</v>
+        <v>0.234614</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.259718</v>
+        <v>0.258437</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224038</v>
+        <v>0.226194</v>
       </c>
       <c r="D53" t="n">
-        <v>0.232543</v>
+        <v>0.233565</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.259981</v>
+        <v>0.258033</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227308</v>
+        <v>0.226792</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234352</v>
+        <v>0.232832</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.258556</v>
+        <v>0.259284</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226008</v>
+        <v>0.228052</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233528</v>
+        <v>0.234463</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259277</v>
+        <v>0.259109</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22744</v>
+        <v>0.228121</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235915</v>
+        <v>0.235231</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.25947</v>
+        <v>0.260179</v>
       </c>
       <c r="C57" t="n">
-        <v>0.229986</v>
+        <v>0.228773</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236362</v>
+        <v>0.234888</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259968</v>
+        <v>0.259784</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230841</v>
+        <v>0.230134</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237159</v>
+        <v>0.236632</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.259213</v>
+        <v>0.260977</v>
       </c>
       <c r="C59" t="n">
-        <v>0.230266</v>
+        <v>0.231585</v>
       </c>
       <c r="D59" t="n">
-        <v>0.2379</v>
+        <v>0.237538</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.258939</v>
+        <v>0.260374</v>
       </c>
       <c r="C60" t="n">
-        <v>0.23108</v>
+        <v>0.233296</v>
       </c>
       <c r="D60" t="n">
-        <v>0.240093</v>
+        <v>0.23909</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262733</v>
+        <v>0.260882</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234421</v>
+        <v>0.234622</v>
       </c>
       <c r="D61" t="n">
-        <v>0.240418</v>
+        <v>0.24117</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.26047</v>
+        <v>0.262431</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235825</v>
+        <v>0.236642</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242463</v>
+        <v>0.242845</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264168</v>
+        <v>0.261495</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239044</v>
+        <v>0.238526</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246175</v>
+        <v>0.246182</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.26529</v>
+        <v>0.265897</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242401</v>
+        <v>0.24342</v>
       </c>
       <c r="D64" t="n">
-        <v>0.251532</v>
+        <v>0.25187</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268829</v>
+        <v>0.266474</v>
       </c>
       <c r="C65" t="n">
-        <v>0.247456</v>
+        <v>0.247159</v>
       </c>
       <c r="D65" t="n">
-        <v>0.25858</v>
+        <v>0.257727</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269867</v>
+        <v>0.271543</v>
       </c>
       <c r="C66" t="n">
-        <v>0.252362</v>
+        <v>0.252401</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242302</v>
+        <v>0.241435</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.274964</v>
+        <v>0.277518</v>
       </c>
       <c r="C67" t="n">
-        <v>0.237744</v>
+        <v>0.237543</v>
       </c>
       <c r="D67" t="n">
-        <v>0.240415</v>
+        <v>0.241139</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.277624</v>
+        <v>0.277904</v>
       </c>
       <c r="C68" t="n">
-        <v>0.239102</v>
+        <v>0.237824</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242739</v>
+        <v>0.24118</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.278478</v>
+        <v>0.27775</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239977</v>
+        <v>0.238483</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243212</v>
+        <v>0.241698</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278446</v>
+        <v>0.278386</v>
       </c>
       <c r="C70" t="n">
-        <v>0.240857</v>
+        <v>0.238761</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243924</v>
+        <v>0.242322</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.279148</v>
+        <v>0.27793</v>
       </c>
       <c r="C71" t="n">
-        <v>0.242376</v>
+        <v>0.239257</v>
       </c>
       <c r="D71" t="n">
-        <v>0.245427</v>
+        <v>0.242804</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.27842</v>
+        <v>0.278796</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243053</v>
+        <v>0.239872</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245946</v>
+        <v>0.243515</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.27891</v>
+        <v>0.278233</v>
       </c>
       <c r="C73" t="n">
-        <v>0.244115</v>
+        <v>0.241485</v>
       </c>
       <c r="D73" t="n">
-        <v>0.245726</v>
+        <v>0.24489</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279922</v>
+        <v>0.279076</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246676</v>
+        <v>0.24288</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249509</v>
+        <v>0.246551</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279692</v>
+        <v>0.279777</v>
       </c>
       <c r="C75" t="n">
-        <v>0.24769</v>
+        <v>0.24434</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250569</v>
+        <v>0.248422</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280904</v>
+        <v>0.280362</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24962</v>
+        <v>0.246544</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252956</v>
+        <v>0.251149</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.281855</v>
+        <v>0.28151</v>
       </c>
       <c r="C77" t="n">
-        <v>0.252361</v>
+        <v>0.247136</v>
       </c>
       <c r="D77" t="n">
-        <v>0.256829</v>
+        <v>0.254003</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283621</v>
+        <v>0.283404</v>
       </c>
       <c r="C78" t="n">
-        <v>0.255061</v>
+        <v>0.251426</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260818</v>
+        <v>0.258767</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.28633</v>
+        <v>0.28619</v>
       </c>
       <c r="C79" t="n">
-        <v>0.258976</v>
+        <v>0.255823</v>
       </c>
       <c r="D79" t="n">
-        <v>0.268478</v>
+        <v>0.265637</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290309</v>
+        <v>0.290359</v>
       </c>
       <c r="C80" t="n">
-        <v>0.263868</v>
+        <v>0.260164</v>
       </c>
       <c r="D80" t="n">
-        <v>0.250984</v>
+        <v>0.254739</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.298282</v>
+        <v>0.295387</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2401</v>
+        <v>0.233</v>
       </c>
       <c r="D81" t="n">
-        <v>0.251623</v>
+        <v>0.245329</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.298157</v>
+        <v>0.288776</v>
       </c>
       <c r="C82" t="n">
-        <v>0.239975</v>
+        <v>0.246822</v>
       </c>
       <c r="D82" t="n">
-        <v>0.252026</v>
+        <v>0.258101</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.298513</v>
+        <v>0.304821</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241438</v>
+        <v>0.241656</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253078</v>
+        <v>0.253278</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298388</v>
+        <v>0.29939</v>
       </c>
       <c r="C84" t="n">
-        <v>0.233854</v>
+        <v>0.238541</v>
       </c>
       <c r="D84" t="n">
-        <v>0.248059</v>
+        <v>0.251525</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.288323</v>
+        <v>0.292841</v>
       </c>
       <c r="C85" t="n">
-        <v>0.241853</v>
+        <v>0.244436</v>
       </c>
       <c r="D85" t="n">
-        <v>0.253942</v>
+        <v>0.254599</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.298775</v>
+        <v>0.300968</v>
       </c>
       <c r="C86" t="n">
-        <v>0.242771</v>
+        <v>0.238515</v>
       </c>
       <c r="D86" t="n">
-        <v>0.254981</v>
+        <v>0.249057</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.298926</v>
+        <v>0.293985</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243598</v>
+        <v>0.243792</v>
       </c>
       <c r="D87" t="n">
-        <v>0.255816</v>
+        <v>0.256547</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299207</v>
+        <v>0.300239</v>
       </c>
       <c r="C88" t="n">
-        <v>0.236986</v>
+        <v>0.244854</v>
       </c>
       <c r="D88" t="n">
-        <v>0.250141</v>
+        <v>0.257352</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.289774</v>
+        <v>0.303749</v>
       </c>
       <c r="C89" t="n">
-        <v>0.238095</v>
+        <v>0.243893</v>
       </c>
       <c r="D89" t="n">
-        <v>0.251504</v>
+        <v>0.254544</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.290144</v>
+        <v>0.300578</v>
       </c>
       <c r="C90" t="n">
-        <v>0.239661</v>
+        <v>0.248155</v>
       </c>
       <c r="D90" t="n">
-        <v>0.25404</v>
+        <v>0.26131</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.291337</v>
+        <v>0.305305</v>
       </c>
       <c r="C91" t="n">
-        <v>0.249582</v>
+        <v>0.24974</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264117</v>
+        <v>0.264361</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.303907</v>
+        <v>0.305304</v>
       </c>
       <c r="C92" t="n">
-        <v>0.25437</v>
+        <v>0.253491</v>
       </c>
       <c r="D92" t="n">
-        <v>0.268553</v>
+        <v>0.269643</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.305726</v>
+        <v>0.307001</v>
       </c>
       <c r="C93" t="n">
-        <v>0.248936</v>
+        <v>0.258732</v>
       </c>
       <c r="D93" t="n">
-        <v>0.268061</v>
+        <v>0.276767</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.298844</v>
+        <v>0.31263</v>
       </c>
       <c r="C94" t="n">
-        <v>0.261916</v>
+        <v>0.263013</v>
       </c>
       <c r="D94" t="n">
-        <v>0.331362</v>
+        <v>0.400516</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.451566</v>
+        <v>0.476803</v>
       </c>
       <c r="C95" t="n">
-        <v>0.377804</v>
+        <v>0.417707</v>
       </c>
       <c r="D95" t="n">
-        <v>0.360594</v>
+        <v>0.403098</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.456911</v>
+        <v>0.477214</v>
       </c>
       <c r="C96" t="n">
-        <v>0.383891</v>
+        <v>0.412554</v>
       </c>
       <c r="D96" t="n">
-        <v>0.36313</v>
+        <v>0.39846</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.471821</v>
+        <v>0.48104</v>
       </c>
       <c r="C97" t="n">
-        <v>0.351009</v>
+        <v>0.407924</v>
       </c>
       <c r="D97" t="n">
-        <v>0.337307</v>
+        <v>0.395149</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.413415</v>
+        <v>0.477036</v>
       </c>
       <c r="C98" t="n">
-        <v>0.388093</v>
+        <v>0.409837</v>
       </c>
       <c r="D98" t="n">
-        <v>0.36731</v>
+        <v>0.390914</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.452122</v>
+        <v>0.481234</v>
       </c>
       <c r="C99" t="n">
-        <v>0.38697</v>
+        <v>0.411013</v>
       </c>
       <c r="D99" t="n">
-        <v>0.366697</v>
+        <v>0.399393</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.455078</v>
+        <v>0.488578</v>
       </c>
       <c r="C100" t="n">
-        <v>0.385243</v>
+        <v>0.417174</v>
       </c>
       <c r="D100" t="n">
-        <v>0.371895</v>
+        <v>0.393679</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.455784</v>
+        <v>0.490411</v>
       </c>
       <c r="C101" t="n">
-        <v>0.387907</v>
+        <v>0.409481</v>
       </c>
       <c r="D101" t="n">
-        <v>0.370479</v>
+        <v>0.388526</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.453933</v>
+        <v>0.478422</v>
       </c>
       <c r="C102" t="n">
-        <v>0.38661</v>
+        <v>0.408886</v>
       </c>
       <c r="D102" t="n">
-        <v>0.363152</v>
+        <v>0.401719</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.45688</v>
+        <v>0.486595</v>
       </c>
       <c r="C103" t="n">
-        <v>0.393668</v>
+        <v>0.415632</v>
       </c>
       <c r="D103" t="n">
-        <v>0.386667</v>
+        <v>0.408842</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.452328</v>
+        <v>0.477532</v>
       </c>
       <c r="C104" t="n">
-        <v>0.394416</v>
+        <v>0.419316</v>
       </c>
       <c r="D104" t="n">
-        <v>0.374554</v>
+        <v>0.412563</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.455697</v>
+        <v>0.480502</v>
       </c>
       <c r="C105" t="n">
-        <v>0.394625</v>
+        <v>0.418588</v>
       </c>
       <c r="D105" t="n">
-        <v>0.381728</v>
+        <v>0.410654</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.453761</v>
+        <v>0.475954</v>
       </c>
       <c r="C106" t="n">
-        <v>0.370185</v>
+        <v>0.384605</v>
       </c>
       <c r="D106" t="n">
-        <v>0.364214</v>
+        <v>0.367507</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.418372</v>
+        <v>0.444713</v>
       </c>
       <c r="C107" t="n">
-        <v>0.405894</v>
+        <v>0.423627</v>
       </c>
       <c r="D107" t="n">
-        <v>0.405674</v>
+        <v>0.4079</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.483908</v>
+        <v>0.48205</v>
       </c>
       <c r="C108" t="n">
-        <v>0.406338</v>
+        <v>0.426169</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6449279999999999</v>
+        <v>0.6649350000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.465363</v>
+        <v>0.492807</v>
       </c>
       <c r="C109" t="n">
-        <v>0.413855</v>
+        <v>0.433394</v>
       </c>
       <c r="D109" t="n">
-        <v>0.651376</v>
+        <v>0.665007</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.779253</v>
+        <v>0.7757540000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>0.656514</v>
+        <v>0.663028</v>
       </c>
       <c r="D110" t="n">
-        <v>0.665513</v>
+        <v>0.666459</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.814731</v>
+        <v>0.772755</v>
       </c>
       <c r="C111" t="n">
-        <v>0.64757</v>
+        <v>0.663344</v>
       </c>
       <c r="D111" t="n">
-        <v>0.668216</v>
+        <v>0.656247</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.767567</v>
+        <v>0.778676</v>
       </c>
       <c r="C112" t="n">
-        <v>0.648628</v>
+        <v>0.66453</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6566959999999999</v>
+        <v>0.6685179999999999</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.776471</v>
+        <v>0.77629</v>
       </c>
       <c r="C113" t="n">
-        <v>0.648546</v>
+        <v>0.664819</v>
       </c>
       <c r="D113" t="n">
-        <v>0.657027</v>
+        <v>0.669671</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.784191</v>
+        <v>0.780725</v>
       </c>
       <c r="C114" t="n">
-        <v>0.667019</v>
+        <v>0.666248</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6718460000000001</v>
+        <v>0.658605</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.772048</v>
+        <v>0.777699</v>
       </c>
       <c r="C115" t="n">
-        <v>0.667774</v>
+        <v>0.669109</v>
       </c>
       <c r="D115" t="n">
-        <v>0.673038</v>
+        <v>0.6609159999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.762145</v>
+        <v>0.773817</v>
       </c>
       <c r="C116" t="n">
-        <v>0.668807</v>
+        <v>0.65315</v>
       </c>
       <c r="D116" t="n">
-        <v>0.675238</v>
+        <v>0.675315</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.772141</v>
+        <v>0.776245</v>
       </c>
       <c r="C117" t="n">
-        <v>0.672175</v>
+        <v>0.671681</v>
       </c>
       <c r="D117" t="n">
-        <v>0.676569</v>
+        <v>0.677643</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.775851</v>
+        <v>0.771709</v>
       </c>
       <c r="C118" t="n">
-        <v>0.673894</v>
+        <v>0.674525</v>
       </c>
       <c r="D118" t="n">
-        <v>0.680473</v>
+        <v>0.680607</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.771084</v>
+        <v>0.774236</v>
       </c>
       <c r="C119" t="n">
-        <v>0.677688</v>
+        <v>0.677685</v>
       </c>
       <c r="D119" t="n">
-        <v>0.682648</v>
+        <v>0.671281</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.771237</v>
+        <v>0.776613</v>
       </c>
       <c r="C120" t="n">
-        <v>0.681036</v>
+        <v>0.681552</v>
       </c>
       <c r="D120" t="n">
-        <v>0.687839</v>
+        <v>0.689898</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.775076</v>
+        <v>0.76011</v>
       </c>
       <c r="C121" t="n">
-        <v>0.686713</v>
+        <v>0.6865250000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6955750000000001</v>
+        <v>0.69617</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.762943</v>
+        <v>0.790106</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6938029999999999</v>
+        <v>0.678732</v>
       </c>
       <c r="D122" t="n">
-        <v>0.705095</v>
+        <v>0.693424</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.776975</v>
+        <v>0.777213</v>
       </c>
       <c r="C123" t="n">
-        <v>0.703341</v>
+        <v>0.703301</v>
       </c>
       <c r="D123" t="n">
-        <v>0.779529</v>
+        <v>0.777894</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04137</v>
+        <v>1.032</v>
       </c>
       <c r="C124" t="n">
-        <v>0.77111</v>
+        <v>0.769261</v>
       </c>
       <c r="D124" t="n">
-        <v>0.780481</v>
+        <v>0.779385</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03528</v>
+        <v>1.04384</v>
       </c>
       <c r="C125" t="n">
-        <v>0.769059</v>
+        <v>0.763287</v>
       </c>
       <c r="D125" t="n">
-        <v>0.782053</v>
+        <v>0.781417</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02738</v>
+        <v>1.03512</v>
       </c>
       <c r="C126" t="n">
-        <v>0.765647</v>
+        <v>0.764727</v>
       </c>
       <c r="D126" t="n">
-        <v>0.783424</v>
+        <v>0.781675</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.04017</v>
+        <v>1.03478</v>
       </c>
       <c r="C127" t="n">
-        <v>0.765805</v>
+        <v>0.772716</v>
       </c>
       <c r="D127" t="n">
-        <v>0.784348</v>
+        <v>0.77679</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.02885</v>
+        <v>1.03908</v>
       </c>
       <c r="C128" t="n">
-        <v>0.768432</v>
+        <v>0.773665</v>
       </c>
       <c r="D128" t="n">
-        <v>0.786727</v>
+        <v>0.778334</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.0287</v>
+        <v>1.02628</v>
       </c>
       <c r="C129" t="n">
-        <v>0.77667</v>
+        <v>0.776442</v>
       </c>
       <c r="D129" t="n">
-        <v>0.789948</v>
+        <v>0.788753</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.04126</v>
+        <v>1.03808</v>
       </c>
       <c r="C130" t="n">
-        <v>0.779056</v>
+        <v>0.771387</v>
       </c>
       <c r="D130" t="n">
-        <v>0.784919</v>
+        <v>0.790849</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02955</v>
+        <v>1.01243</v>
       </c>
       <c r="C131" t="n">
-        <v>0.785657</v>
+        <v>0.782213</v>
       </c>
       <c r="D131" t="n">
-        <v>0.796744</v>
+        <v>0.788184</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.02172</v>
+        <v>1.04498</v>
       </c>
       <c r="C132" t="n">
-        <v>0.786373</v>
+        <v>0.785311</v>
       </c>
       <c r="D132" t="n">
-        <v>0.798611</v>
+        <v>0.7913520000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03391</v>
+        <v>1.01934</v>
       </c>
       <c r="C133" t="n">
-        <v>0.783458</v>
+        <v>0.788792</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8039770000000001</v>
+        <v>0.8030890000000001</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05688</v>
+        <v>1.04257</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7949310000000001</v>
+        <v>0.794122</v>
       </c>
       <c r="D134" t="n">
-        <v>0.803455</v>
+        <v>0.811127</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.03186</v>
+        <v>1.02015</v>
       </c>
       <c r="C135" t="n">
-        <v>0.802684</v>
+        <v>0.801991</v>
       </c>
       <c r="D135" t="n">
-        <v>0.820275</v>
+        <v>0.820533</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05986</v>
+        <v>1.04755</v>
       </c>
       <c r="C136" t="n">
-        <v>0.810431</v>
+        <v>0.804652</v>
       </c>
       <c r="D136" t="n">
-        <v>0.832898</v>
+        <v>0.83536</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04188</v>
+        <v>1.05496</v>
       </c>
       <c r="C137" t="n">
-        <v>0.822777</v>
+        <v>0.824147</v>
       </c>
       <c r="D137" t="n">
-        <v>0.829928</v>
+        <v>0.829619</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.26241</v>
+        <v>1.25008</v>
       </c>
       <c r="C138" t="n">
-        <v>0.815083</v>
+        <v>0.816793</v>
       </c>
       <c r="D138" t="n">
-        <v>0.83221</v>
+        <v>0.827971</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26494</v>
+        <v>1.26411</v>
       </c>
       <c r="C139" t="n">
-        <v>0.818735</v>
+        <v>0.818452</v>
       </c>
       <c r="D139" t="n">
-        <v>0.832962</v>
+        <v>0.833684</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26596</v>
+        <v>1.26271</v>
       </c>
       <c r="C140" t="n">
-        <v>0.820024</v>
+        <v>0.821253</v>
       </c>
       <c r="D140" t="n">
-        <v>0.834303</v>
+        <v>0.834429</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26453</v>
+        <v>1.26331</v>
       </c>
       <c r="C141" t="n">
-        <v>0.821412</v>
+        <v>0.820883</v>
       </c>
       <c r="D141" t="n">
-        <v>0.836556</v>
+        <v>0.8359</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26452</v>
+        <v>1.26367</v>
       </c>
       <c r="C142" t="n">
-        <v>0.823749</v>
+        <v>0.823438</v>
       </c>
       <c r="D142" t="n">
-        <v>0.836207</v>
+        <v>0.838637</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26567</v>
+        <v>1.26437</v>
       </c>
       <c r="C143" t="n">
-        <v>0.82616</v>
+        <v>0.823267</v>
       </c>
       <c r="D143" t="n">
-        <v>0.841587</v>
+        <v>0.8421920000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175582</v>
+        <v>0.175283</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187398</v>
+        <v>0.187319</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196981</v>
+        <v>0.196872</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175593</v>
+        <v>0.175679</v>
       </c>
       <c r="C3" t="n">
-        <v>0.18811</v>
+        <v>0.187832</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197429</v>
+        <v>0.19745</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176977</v>
+        <v>0.176453</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188968</v>
+        <v>0.188726</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198779</v>
+        <v>0.198878</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17769</v>
+        <v>0.17717</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19052</v>
+        <v>0.190264</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200464</v>
+        <v>0.200424</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178599</v>
+        <v>0.178177</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192027</v>
+        <v>0.192151</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20246</v>
+        <v>0.202514</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.18004</v>
+        <v>0.17982</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194634</v>
+        <v>0.194327</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205486</v>
+        <v>0.205495</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182486</v>
+        <v>0.18204</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197555</v>
+        <v>0.197093</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210282</v>
+        <v>0.210011</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.18621</v>
+        <v>0.185756</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201365</v>
+        <v>0.200986</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193639</v>
+        <v>0.196511</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.183707</v>
+        <v>0.182997</v>
       </c>
       <c r="C10" t="n">
-        <v>0.188636</v>
+        <v>0.186973</v>
       </c>
       <c r="D10" t="n">
-        <v>0.195159</v>
+        <v>0.193997</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.184576</v>
+        <v>0.184899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.189457</v>
+        <v>0.192212</v>
       </c>
       <c r="D11" t="n">
-        <v>0.196928</v>
+        <v>0.198849</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.181526</v>
+        <v>0.187624</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187113</v>
+        <v>0.192026</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194229</v>
+        <v>0.198021</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.183858</v>
+        <v>0.1837</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187459</v>
+        <v>0.188937</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194593</v>
+        <v>0.195587</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184466</v>
+        <v>0.184286</v>
       </c>
       <c r="C14" t="n">
-        <v>0.189711</v>
+        <v>0.188838</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196403</v>
+        <v>0.196291</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.185488</v>
+        <v>0.187375</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18919</v>
+        <v>0.191238</v>
       </c>
       <c r="D15" t="n">
-        <v>0.196249</v>
+        <v>0.198284</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.182308</v>
+        <v>0.183657</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189207</v>
+        <v>0.189095</v>
       </c>
       <c r="D16" t="n">
-        <v>0.19629</v>
+        <v>0.196377</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.184681</v>
+        <v>0.186625</v>
       </c>
       <c r="C17" t="n">
-        <v>0.190861</v>
+        <v>0.192037</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197142</v>
+        <v>0.199281</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.184225</v>
+        <v>0.188588</v>
       </c>
       <c r="C18" t="n">
-        <v>0.192238</v>
+        <v>0.194625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198369</v>
+        <v>0.200374</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.185597</v>
+        <v>0.186585</v>
       </c>
       <c r="C19" t="n">
-        <v>0.193545</v>
+        <v>0.19416</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200681</v>
+        <v>0.201406</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187712</v>
+        <v>0.185526</v>
       </c>
       <c r="C20" t="n">
-        <v>0.194244</v>
+        <v>0.195938</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202277</v>
+        <v>0.204372</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.189019</v>
+        <v>0.19052</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196579</v>
+        <v>0.197576</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205238</v>
+        <v>0.207484</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.192023</v>
+        <v>0.194415</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198476</v>
+        <v>0.202329</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208539</v>
+        <v>0.212827</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.194005</v>
+        <v>0.196769</v>
       </c>
       <c r="C23" t="n">
-        <v>0.201895</v>
+        <v>0.205599</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201314</v>
+        <v>0.206533</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.203676</v>
+        <v>0.204771</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189455</v>
+        <v>0.195849</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201696</v>
+        <v>0.208732</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.20453</v>
+        <v>0.205303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.189835</v>
+        <v>0.196049</v>
       </c>
       <c r="D25" t="n">
-        <v>0.201456</v>
+        <v>0.208429</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203239</v>
+        <v>0.203233</v>
       </c>
       <c r="C26" t="n">
-        <v>0.191911</v>
+        <v>0.1959</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201374</v>
+        <v>0.208284</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.20221</v>
+        <v>0.203574</v>
       </c>
       <c r="C27" t="n">
-        <v>0.191548</v>
+        <v>0.195884</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202851</v>
+        <v>0.208552</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.202521</v>
+        <v>0.203664</v>
       </c>
       <c r="C28" t="n">
-        <v>0.192591</v>
+        <v>0.197967</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20341</v>
+        <v>0.20847</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.201388</v>
+        <v>0.203441</v>
       </c>
       <c r="C29" t="n">
-        <v>0.192623</v>
+        <v>0.197259</v>
       </c>
       <c r="D29" t="n">
-        <v>0.204009</v>
+        <v>0.209438</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.2018</v>
+        <v>0.202413</v>
       </c>
       <c r="C30" t="n">
-        <v>0.193874</v>
+        <v>0.198132</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206042</v>
+        <v>0.21063</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202342</v>
+        <v>0.203446</v>
       </c>
       <c r="C31" t="n">
-        <v>0.194468</v>
+        <v>0.199392</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205299</v>
+        <v>0.210865</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202944</v>
+        <v>0.206436</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194848</v>
+        <v>0.201559</v>
       </c>
       <c r="D32" t="n">
-        <v>0.206398</v>
+        <v>0.212239</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.203647</v>
+        <v>0.207046</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196121</v>
+        <v>0.203216</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208303</v>
+        <v>0.215682</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.204892</v>
+        <v>0.20759</v>
       </c>
       <c r="C34" t="n">
-        <v>0.19851</v>
+        <v>0.204578</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209739</v>
+        <v>0.217029</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.205945</v>
+        <v>0.208938</v>
       </c>
       <c r="C35" t="n">
-        <v>0.199843</v>
+        <v>0.207011</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212553</v>
+        <v>0.220608</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.207623</v>
+        <v>0.211059</v>
       </c>
       <c r="C36" t="n">
-        <v>0.202885</v>
+        <v>0.210692</v>
       </c>
       <c r="D36" t="n">
-        <v>0.216344</v>
+        <v>0.223758</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21211</v>
+        <v>0.215429</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207161</v>
+        <v>0.214247</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220482</v>
+        <v>0.219884</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.234247</v>
+        <v>0.231774</v>
       </c>
       <c r="C38" t="n">
-        <v>0.20804</v>
+        <v>0.209947</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219658</v>
+        <v>0.221532</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232953</v>
+        <v>0.231337</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208877</v>
+        <v>0.208492</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220178</v>
+        <v>0.220328</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233497</v>
+        <v>0.232301</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209484</v>
+        <v>0.209706</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220446</v>
+        <v>0.221511</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234541</v>
+        <v>0.231579</v>
       </c>
       <c r="C41" t="n">
-        <v>0.209716</v>
+        <v>0.210703</v>
       </c>
       <c r="D41" t="n">
-        <v>0.220578</v>
+        <v>0.222494</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.233453</v>
+        <v>0.231573</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211874</v>
+        <v>0.211828</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222485</v>
+        <v>0.222671</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.233087</v>
+        <v>0.231887</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213347</v>
+        <v>0.214073</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22283</v>
+        <v>0.225337</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.233432</v>
+        <v>0.232549</v>
       </c>
       <c r="C44" t="n">
-        <v>0.212713</v>
+        <v>0.212479</v>
       </c>
       <c r="D44" t="n">
-        <v>0.222711</v>
+        <v>0.223862</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.23335</v>
+        <v>0.235794</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214313</v>
+        <v>0.213884</v>
       </c>
       <c r="D45" t="n">
-        <v>0.224372</v>
+        <v>0.22448</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.233815</v>
+        <v>0.232848</v>
       </c>
       <c r="C46" t="n">
-        <v>0.215508</v>
+        <v>0.215105</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22563</v>
+        <v>0.225903</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.233932</v>
+        <v>0.233656</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216277</v>
+        <v>0.217273</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226924</v>
+        <v>0.228054</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.234269</v>
+        <v>0.234021</v>
       </c>
       <c r="C48" t="n">
-        <v>0.218531</v>
+        <v>0.220026</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229042</v>
+        <v>0.231568</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235322</v>
+        <v>0.23515</v>
       </c>
       <c r="C49" t="n">
-        <v>0.221933</v>
+        <v>0.220858</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232807</v>
+        <v>0.232228</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237015</v>
+        <v>0.237895</v>
       </c>
       <c r="C50" t="n">
-        <v>0.224533</v>
+        <v>0.226174</v>
       </c>
       <c r="D50" t="n">
-        <v>0.236966</v>
+        <v>0.238249</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.242067</v>
+        <v>0.241594</v>
       </c>
       <c r="C51" t="n">
-        <v>0.228914</v>
+        <v>0.231167</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23446</v>
+        <v>0.233444</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.243919</v>
+        <v>0.247738</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235722</v>
+        <v>0.238104</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234614</v>
+        <v>0.233662</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.258437</v>
+        <v>0.255645</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226194</v>
+        <v>0.226965</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233565</v>
+        <v>0.235168</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.258033</v>
+        <v>0.25995</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226792</v>
+        <v>0.226738</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232832</v>
+        <v>0.234649</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259284</v>
+        <v>0.257943</v>
       </c>
       <c r="C55" t="n">
-        <v>0.228052</v>
+        <v>0.227415</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234463</v>
+        <v>0.235941</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259109</v>
+        <v>0.261289</v>
       </c>
       <c r="C56" t="n">
-        <v>0.228121</v>
+        <v>0.229555</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235231</v>
+        <v>0.237146</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.260179</v>
+        <v>0.261351</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228773</v>
+        <v>0.229565</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234888</v>
+        <v>0.237552</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259784</v>
+        <v>0.261131</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230134</v>
+        <v>0.228901</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236632</v>
+        <v>0.237011</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260977</v>
+        <v>0.261322</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231585</v>
+        <v>0.231731</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237538</v>
+        <v>0.23731</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.260374</v>
+        <v>0.262107</v>
       </c>
       <c r="C60" t="n">
-        <v>0.233296</v>
+        <v>0.230878</v>
       </c>
       <c r="D60" t="n">
-        <v>0.23909</v>
+        <v>0.238174</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260882</v>
+        <v>0.260171</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234622</v>
+        <v>0.233879</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24117</v>
+        <v>0.239824</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262431</v>
+        <v>0.262518</v>
       </c>
       <c r="C62" t="n">
-        <v>0.236642</v>
+        <v>0.234743</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242845</v>
+        <v>0.24342</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.261495</v>
+        <v>0.26218</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238526</v>
+        <v>0.238639</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246182</v>
+        <v>0.247715</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265897</v>
+        <v>0.262893</v>
       </c>
       <c r="C64" t="n">
-        <v>0.24342</v>
+        <v>0.242864</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25187</v>
+        <v>0.251408</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266474</v>
+        <v>0.26588</v>
       </c>
       <c r="C65" t="n">
-        <v>0.247159</v>
+        <v>0.246227</v>
       </c>
       <c r="D65" t="n">
-        <v>0.257727</v>
+        <v>0.259227</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.271543</v>
+        <v>0.269348</v>
       </c>
       <c r="C66" t="n">
-        <v>0.252401</v>
+        <v>0.253113</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241435</v>
+        <v>0.241746</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.277518</v>
+        <v>0.277705</v>
       </c>
       <c r="C67" t="n">
-        <v>0.237543</v>
+        <v>0.23772</v>
       </c>
       <c r="D67" t="n">
-        <v>0.241139</v>
+        <v>0.241808</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.277904</v>
+        <v>0.277783</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237824</v>
+        <v>0.238864</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24118</v>
+        <v>0.243193</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.27775</v>
+        <v>0.278395</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238483</v>
+        <v>0.239998</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241698</v>
+        <v>0.243254</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278386</v>
+        <v>0.278579</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238761</v>
+        <v>0.241026</v>
       </c>
       <c r="D70" t="n">
-        <v>0.242322</v>
+        <v>0.244619</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.27793</v>
+        <v>0.278742</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239257</v>
+        <v>0.242016</v>
       </c>
       <c r="D71" t="n">
-        <v>0.242804</v>
+        <v>0.245379</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278796</v>
+        <v>0.275066</v>
       </c>
       <c r="C72" t="n">
-        <v>0.239872</v>
+        <v>0.243015</v>
       </c>
       <c r="D72" t="n">
-        <v>0.243515</v>
+        <v>0.246323</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.278233</v>
+        <v>0.274729</v>
       </c>
       <c r="C73" t="n">
-        <v>0.241485</v>
+        <v>0.244178</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24489</v>
+        <v>0.247286</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279076</v>
+        <v>0.275201</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24288</v>
+        <v>0.246252</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246551</v>
+        <v>0.249674</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279777</v>
+        <v>0.275853</v>
       </c>
       <c r="C75" t="n">
-        <v>0.24434</v>
+        <v>0.246561</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248422</v>
+        <v>0.250362</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280362</v>
+        <v>0.280994</v>
       </c>
       <c r="C76" t="n">
-        <v>0.246544</v>
+        <v>0.249175</v>
       </c>
       <c r="D76" t="n">
-        <v>0.251149</v>
+        <v>0.253756</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.28151</v>
+        <v>0.27797</v>
       </c>
       <c r="C77" t="n">
-        <v>0.247136</v>
+        <v>0.251584</v>
       </c>
       <c r="D77" t="n">
-        <v>0.254003</v>
+        <v>0.255773</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283404</v>
+        <v>0.279404</v>
       </c>
       <c r="C78" t="n">
-        <v>0.251426</v>
+        <v>0.25455</v>
       </c>
       <c r="D78" t="n">
-        <v>0.258767</v>
+        <v>0.262114</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.28619</v>
+        <v>0.282154</v>
       </c>
       <c r="C79" t="n">
-        <v>0.255823</v>
+        <v>0.25956</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265637</v>
+        <v>0.269701</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290359</v>
+        <v>0.290053</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260164</v>
+        <v>0.266415</v>
       </c>
       <c r="D80" t="n">
-        <v>0.254739</v>
+        <v>0.253062</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.295387</v>
+        <v>0.314505</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233</v>
+        <v>0.236466</v>
       </c>
       <c r="D81" t="n">
-        <v>0.245329</v>
+        <v>0.244987</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.288776</v>
+        <v>0.291221</v>
       </c>
       <c r="C82" t="n">
-        <v>0.246822</v>
+        <v>0.233382</v>
       </c>
       <c r="D82" t="n">
-        <v>0.258101</v>
+        <v>0.245714</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.304821</v>
+        <v>0.292258</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241656</v>
+        <v>0.245321</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253278</v>
+        <v>0.252554</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.29939</v>
+        <v>0.303595</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238541</v>
+        <v>0.24239</v>
       </c>
       <c r="D84" t="n">
-        <v>0.251525</v>
+        <v>0.254407</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.292841</v>
+        <v>0.304174</v>
       </c>
       <c r="C85" t="n">
-        <v>0.244436</v>
+        <v>0.244295</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254599</v>
+        <v>0.254195</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.300968</v>
+        <v>0.311201</v>
       </c>
       <c r="C86" t="n">
-        <v>0.238515</v>
+        <v>0.245784</v>
       </c>
       <c r="D86" t="n">
-        <v>0.249057</v>
+        <v>0.256792</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.293985</v>
+        <v>0.317097</v>
       </c>
       <c r="C87" t="n">
-        <v>0.243792</v>
+        <v>0.247444</v>
       </c>
       <c r="D87" t="n">
-        <v>0.256547</v>
+        <v>0.257332</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300239</v>
+        <v>0.300249</v>
       </c>
       <c r="C88" t="n">
-        <v>0.244854</v>
+        <v>0.250526</v>
       </c>
       <c r="D88" t="n">
-        <v>0.257352</v>
+        <v>0.257881</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.303749</v>
+        <v>0.303611</v>
       </c>
       <c r="C89" t="n">
-        <v>0.243893</v>
+        <v>0.250219</v>
       </c>
       <c r="D89" t="n">
-        <v>0.254544</v>
+        <v>0.261525</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.300578</v>
+        <v>0.308837</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248155</v>
+        <v>0.252481</v>
       </c>
       <c r="D90" t="n">
-        <v>0.26131</v>
+        <v>0.262033</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.305305</v>
+        <v>0.302067</v>
       </c>
       <c r="C91" t="n">
-        <v>0.24974</v>
+        <v>0.252265</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264361</v>
+        <v>0.264448</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.305304</v>
+        <v>0.307144</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253491</v>
+        <v>0.253717</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269643</v>
+        <v>0.26939</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.307001</v>
+        <v>0.308882</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258732</v>
+        <v>0.257637</v>
       </c>
       <c r="D93" t="n">
-        <v>0.276767</v>
+        <v>0.274623</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.31263</v>
+        <v>0.309788</v>
       </c>
       <c r="C94" t="n">
-        <v>0.263013</v>
+        <v>0.265034</v>
       </c>
       <c r="D94" t="n">
-        <v>0.400516</v>
+        <v>0.399027</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.476803</v>
+        <v>0.469349</v>
       </c>
       <c r="C95" t="n">
-        <v>0.417707</v>
+        <v>0.410876</v>
       </c>
       <c r="D95" t="n">
-        <v>0.403098</v>
+        <v>0.398402</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.477214</v>
+        <v>0.471249</v>
       </c>
       <c r="C96" t="n">
-        <v>0.412554</v>
+        <v>0.401873</v>
       </c>
       <c r="D96" t="n">
-        <v>0.39846</v>
+        <v>0.387991</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.48104</v>
+        <v>0.474267</v>
       </c>
       <c r="C97" t="n">
-        <v>0.407924</v>
+        <v>0.409908</v>
       </c>
       <c r="D97" t="n">
-        <v>0.395149</v>
+        <v>0.393792</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.477036</v>
+        <v>0.471939</v>
       </c>
       <c r="C98" t="n">
-        <v>0.409837</v>
+        <v>0.402628</v>
       </c>
       <c r="D98" t="n">
-        <v>0.390914</v>
+        <v>0.396239</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.481234</v>
+        <v>0.482341</v>
       </c>
       <c r="C99" t="n">
-        <v>0.411013</v>
+        <v>0.414564</v>
       </c>
       <c r="D99" t="n">
-        <v>0.399393</v>
+        <v>0.400034</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.488578</v>
+        <v>0.486505</v>
       </c>
       <c r="C100" t="n">
-        <v>0.417174</v>
+        <v>0.418328</v>
       </c>
       <c r="D100" t="n">
-        <v>0.393679</v>
+        <v>0.403191</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.490411</v>
+        <v>0.490583</v>
       </c>
       <c r="C101" t="n">
-        <v>0.409481</v>
+        <v>0.388035</v>
       </c>
       <c r="D101" t="n">
-        <v>0.388526</v>
+        <v>0.379705</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.478422</v>
+        <v>0.450115</v>
       </c>
       <c r="C102" t="n">
-        <v>0.408886</v>
+        <v>0.41571</v>
       </c>
       <c r="D102" t="n">
-        <v>0.401719</v>
+        <v>0.408861</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.486595</v>
+        <v>0.482903</v>
       </c>
       <c r="C103" t="n">
-        <v>0.415632</v>
+        <v>0.407042</v>
       </c>
       <c r="D103" t="n">
-        <v>0.408842</v>
+        <v>0.3932</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.477532</v>
+        <v>0.473026</v>
       </c>
       <c r="C104" t="n">
-        <v>0.419316</v>
+        <v>0.423755</v>
       </c>
       <c r="D104" t="n">
-        <v>0.412563</v>
+        <v>0.409801</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.480502</v>
+        <v>0.47835</v>
       </c>
       <c r="C105" t="n">
-        <v>0.418588</v>
+        <v>0.415921</v>
       </c>
       <c r="D105" t="n">
-        <v>0.410654</v>
+        <v>0.40487</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.475954</v>
+        <v>0.479943</v>
       </c>
       <c r="C106" t="n">
-        <v>0.384605</v>
+        <v>0.395899</v>
       </c>
       <c r="D106" t="n">
-        <v>0.367507</v>
+        <v>0.402141</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.444713</v>
+        <v>0.438107</v>
       </c>
       <c r="C107" t="n">
-        <v>0.423627</v>
+        <v>0.40462</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4079</v>
+        <v>0.403797</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.48205</v>
+        <v>0.444359</v>
       </c>
       <c r="C108" t="n">
-        <v>0.426169</v>
+        <v>0.429047</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6649350000000001</v>
+        <v>0.645338</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.492807</v>
+        <v>0.486321</v>
       </c>
       <c r="C109" t="n">
-        <v>0.433394</v>
+        <v>0.436305</v>
       </c>
       <c r="D109" t="n">
-        <v>0.665007</v>
+        <v>0.651844</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.7757540000000001</v>
+        <v>0.778403</v>
       </c>
       <c r="C110" t="n">
-        <v>0.663028</v>
+        <v>0.662044</v>
       </c>
       <c r="D110" t="n">
-        <v>0.666459</v>
+        <v>0.665852</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.772755</v>
+        <v>0.783546</v>
       </c>
       <c r="C111" t="n">
-        <v>0.663344</v>
+        <v>0.663689</v>
       </c>
       <c r="D111" t="n">
-        <v>0.656247</v>
+        <v>0.667824</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.778676</v>
+        <v>0.77774</v>
       </c>
       <c r="C112" t="n">
-        <v>0.66453</v>
+        <v>0.647904</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6685179999999999</v>
+        <v>0.656062</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.77629</v>
+        <v>0.776861</v>
       </c>
       <c r="C113" t="n">
-        <v>0.664819</v>
+        <v>0.6655990000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.669671</v>
+        <v>0.67053</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.780725</v>
+        <v>0.786196</v>
       </c>
       <c r="C114" t="n">
-        <v>0.666248</v>
+        <v>0.666198</v>
       </c>
       <c r="D114" t="n">
-        <v>0.658605</v>
+        <v>0.659003</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.777699</v>
+        <v>0.76023</v>
       </c>
       <c r="C115" t="n">
-        <v>0.669109</v>
+        <v>0.66814</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6609159999999999</v>
+        <v>0.672743</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.773817</v>
+        <v>0.763648</v>
       </c>
       <c r="C116" t="n">
-        <v>0.65315</v>
+        <v>0.669088</v>
       </c>
       <c r="D116" t="n">
-        <v>0.675315</v>
+        <v>0.675465</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.776245</v>
+        <v>0.778782</v>
       </c>
       <c r="C117" t="n">
-        <v>0.671681</v>
+        <v>0.655659</v>
       </c>
       <c r="D117" t="n">
-        <v>0.677643</v>
+        <v>0.6779579999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.771709</v>
+        <v>0.779724</v>
       </c>
       <c r="C118" t="n">
-        <v>0.674525</v>
+        <v>0.67381</v>
       </c>
       <c r="D118" t="n">
-        <v>0.680607</v>
+        <v>0.681301</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.774236</v>
+        <v>0.777264</v>
       </c>
       <c r="C119" t="n">
-        <v>0.677685</v>
+        <v>0.677915</v>
       </c>
       <c r="D119" t="n">
-        <v>0.671281</v>
+        <v>0.684619</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.776613</v>
+        <v>0.779363</v>
       </c>
       <c r="C120" t="n">
-        <v>0.681552</v>
+        <v>0.681825</v>
       </c>
       <c r="D120" t="n">
-        <v>0.689898</v>
+        <v>0.688921</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.76011</v>
+        <v>0.7789740000000001</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6865250000000001</v>
+        <v>0.6868649999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>0.69617</v>
+        <v>0.695628</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.790106</v>
+        <v>0.782801</v>
       </c>
       <c r="C122" t="n">
-        <v>0.678732</v>
+        <v>0.693989</v>
       </c>
       <c r="D122" t="n">
-        <v>0.693424</v>
+        <v>0.6934940000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.777213</v>
+        <v>0.774361</v>
       </c>
       <c r="C123" t="n">
-        <v>0.703301</v>
+        <v>0.702965</v>
       </c>
       <c r="D123" t="n">
-        <v>0.777894</v>
+        <v>0.778093</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.032</v>
+        <v>1.0362</v>
       </c>
       <c r="C124" t="n">
-        <v>0.769261</v>
+        <v>0.768967</v>
       </c>
       <c r="D124" t="n">
-        <v>0.779385</v>
+        <v>0.772359</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04384</v>
+        <v>1.03944</v>
       </c>
       <c r="C125" t="n">
-        <v>0.763287</v>
+        <v>0.763421</v>
       </c>
       <c r="D125" t="n">
-        <v>0.781417</v>
+        <v>0.773803</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03512</v>
+        <v>1.03586</v>
       </c>
       <c r="C126" t="n">
-        <v>0.764727</v>
+        <v>0.76503</v>
       </c>
       <c r="D126" t="n">
-        <v>0.781675</v>
+        <v>0.783303</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03478</v>
+        <v>1.03487</v>
       </c>
       <c r="C127" t="n">
-        <v>0.772716</v>
+        <v>0.7664570000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.77679</v>
+        <v>0.784722</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03908</v>
+        <v>1.04152</v>
       </c>
       <c r="C128" t="n">
-        <v>0.773665</v>
+        <v>0.775374</v>
       </c>
       <c r="D128" t="n">
-        <v>0.778334</v>
+        <v>0.7877110000000001</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.02628</v>
+        <v>1.03567</v>
       </c>
       <c r="C129" t="n">
-        <v>0.776442</v>
+        <v>0.770031</v>
       </c>
       <c r="D129" t="n">
-        <v>0.788753</v>
+        <v>0.781529</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03808</v>
+        <v>1.04162</v>
       </c>
       <c r="C130" t="n">
-        <v>0.771387</v>
+        <v>0.778322</v>
       </c>
       <c r="D130" t="n">
-        <v>0.790849</v>
+        <v>0.790142</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.01243</v>
+        <v>1.03026</v>
       </c>
       <c r="C131" t="n">
-        <v>0.782213</v>
+        <v>0.775529</v>
       </c>
       <c r="D131" t="n">
-        <v>0.788184</v>
+        <v>0.793957</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04498</v>
+        <v>1.03406</v>
       </c>
       <c r="C132" t="n">
-        <v>0.785311</v>
+        <v>0.785501</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7913520000000001</v>
+        <v>0.7986</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.01934</v>
+        <v>1.03191</v>
       </c>
       <c r="C133" t="n">
-        <v>0.788792</v>
+        <v>0.789086</v>
       </c>
       <c r="D133" t="n">
-        <v>0.8030890000000001</v>
+        <v>0.796991</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04257</v>
+        <v>1.01282</v>
       </c>
       <c r="C134" t="n">
-        <v>0.794122</v>
+        <v>0.788621</v>
       </c>
       <c r="D134" t="n">
-        <v>0.811127</v>
+        <v>0.811211</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.02015</v>
+        <v>1.04035</v>
       </c>
       <c r="C135" t="n">
-        <v>0.801991</v>
+        <v>0.8028459999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.820533</v>
+        <v>0.820833</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04755</v>
+        <v>1.04716</v>
       </c>
       <c r="C136" t="n">
-        <v>0.804652</v>
+        <v>0.8103359999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.83536</v>
+        <v>0.833623</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05496</v>
+        <v>1.04649</v>
       </c>
       <c r="C137" t="n">
-        <v>0.824147</v>
+        <v>0.823418</v>
       </c>
       <c r="D137" t="n">
-        <v>0.829619</v>
+        <v>0.83042</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25008</v>
+        <v>1.26435</v>
       </c>
       <c r="C138" t="n">
-        <v>0.816793</v>
+        <v>0.819842</v>
       </c>
       <c r="D138" t="n">
-        <v>0.827971</v>
+        <v>0.832465</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26411</v>
+        <v>1.26374</v>
       </c>
       <c r="C139" t="n">
-        <v>0.818452</v>
+        <v>0.814876</v>
       </c>
       <c r="D139" t="n">
-        <v>0.833684</v>
+        <v>0.83188</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26271</v>
+        <v>1.24919</v>
       </c>
       <c r="C140" t="n">
-        <v>0.821253</v>
+        <v>0.819948</v>
       </c>
       <c r="D140" t="n">
-        <v>0.834429</v>
+        <v>0.830782</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26331</v>
+        <v>1.26456</v>
       </c>
       <c r="C141" t="n">
-        <v>0.820883</v>
+        <v>0.821395</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8359</v>
+        <v>0.835849</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26367</v>
+        <v>1.26537</v>
       </c>
       <c r="C142" t="n">
-        <v>0.823438</v>
+        <v>0.822528</v>
       </c>
       <c r="D142" t="n">
-        <v>0.838637</v>
+        <v>0.837401</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26437</v>
+        <v>1.2645</v>
       </c>
       <c r="C143" t="n">
-        <v>0.823267</v>
+        <v>0.824797</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8421920000000001</v>
+        <v>0.840176</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175283</v>
+        <v>0.175298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187319</v>
+        <v>0.187337</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196872</v>
+        <v>0.196804</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175679</v>
+        <v>0.175703</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187832</v>
+        <v>0.188288</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19745</v>
+        <v>0.197402</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176453</v>
+        <v>0.176412</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188726</v>
+        <v>0.188737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198878</v>
+        <v>0.198717</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.17717</v>
+        <v>0.177157</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190264</v>
+        <v>0.190187</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200424</v>
+        <v>0.20037</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178177</v>
+        <v>0.178123</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192151</v>
+        <v>0.19207</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202514</v>
+        <v>0.202495</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17982</v>
+        <v>0.180093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194327</v>
+        <v>0.194056</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205495</v>
+        <v>0.205318</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.18204</v>
+        <v>0.181916</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197093</v>
+        <v>0.196929</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210011</v>
+        <v>0.209823</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.185756</v>
+        <v>0.185664</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200986</v>
+        <v>0.200656</v>
       </c>
       <c r="D9" t="n">
-        <v>0.196511</v>
+        <v>0.193551</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.182997</v>
+        <v>0.181323</v>
       </c>
       <c r="C10" t="n">
-        <v>0.186973</v>
+        <v>0.187637</v>
       </c>
       <c r="D10" t="n">
-        <v>0.193997</v>
+        <v>0.194396</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.184899</v>
+        <v>0.181323</v>
       </c>
       <c r="C11" t="n">
-        <v>0.192212</v>
+        <v>0.187937</v>
       </c>
       <c r="D11" t="n">
-        <v>0.198849</v>
+        <v>0.195082</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.187624</v>
+        <v>0.181438</v>
       </c>
       <c r="C12" t="n">
-        <v>0.192026</v>
+        <v>0.187586</v>
       </c>
       <c r="D12" t="n">
-        <v>0.198021</v>
+        <v>0.19482</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1837</v>
+        <v>0.182484</v>
       </c>
       <c r="C13" t="n">
-        <v>0.188937</v>
+        <v>0.187954</v>
       </c>
       <c r="D13" t="n">
-        <v>0.195587</v>
+        <v>0.195085</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.184286</v>
+        <v>0.181925</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188838</v>
+        <v>0.189178</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196291</v>
+        <v>0.196341</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.187375</v>
+        <v>0.181933</v>
       </c>
       <c r="C15" t="n">
-        <v>0.191238</v>
+        <v>0.188281</v>
       </c>
       <c r="D15" t="n">
-        <v>0.198284</v>
+        <v>0.195594</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.183657</v>
+        <v>0.183213</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189095</v>
+        <v>0.189765</v>
       </c>
       <c r="D16" t="n">
-        <v>0.196377</v>
+        <v>0.196274</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.186625</v>
+        <v>0.182593</v>
       </c>
       <c r="C17" t="n">
-        <v>0.192037</v>
+        <v>0.189893</v>
       </c>
       <c r="D17" t="n">
-        <v>0.199281</v>
+        <v>0.197133</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.188588</v>
+        <v>0.183875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.194625</v>
+        <v>0.191975</v>
       </c>
       <c r="D18" t="n">
-        <v>0.200374</v>
+        <v>0.199577</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.186585</v>
+        <v>0.184966</v>
       </c>
       <c r="C19" t="n">
-        <v>0.19416</v>
+        <v>0.193306</v>
       </c>
       <c r="D19" t="n">
-        <v>0.201406</v>
+        <v>0.200171</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185526</v>
+        <v>0.185813</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195938</v>
+        <v>0.19509</v>
       </c>
       <c r="D20" t="n">
-        <v>0.204372</v>
+        <v>0.203299</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.19052</v>
+        <v>0.186791</v>
       </c>
       <c r="C21" t="n">
-        <v>0.197576</v>
+        <v>0.195521</v>
       </c>
       <c r="D21" t="n">
-        <v>0.207484</v>
+        <v>0.204468</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.194415</v>
+        <v>0.189585</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202329</v>
+        <v>0.197885</v>
       </c>
       <c r="D22" t="n">
-        <v>0.212827</v>
+        <v>0.208472</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.196769</v>
+        <v>0.192938</v>
       </c>
       <c r="C23" t="n">
-        <v>0.205599</v>
+        <v>0.202468</v>
       </c>
       <c r="D23" t="n">
-        <v>0.206533</v>
+        <v>0.197718</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.204771</v>
+        <v>0.202284</v>
       </c>
       <c r="C24" t="n">
-        <v>0.195849</v>
+        <v>0.188044</v>
       </c>
       <c r="D24" t="n">
-        <v>0.208732</v>
+        <v>0.200666</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.205303</v>
+        <v>0.202181</v>
       </c>
       <c r="C25" t="n">
-        <v>0.196049</v>
+        <v>0.189162</v>
       </c>
       <c r="D25" t="n">
-        <v>0.208429</v>
+        <v>0.200419</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203233</v>
+        <v>0.203639</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1959</v>
+        <v>0.19083</v>
       </c>
       <c r="D26" t="n">
-        <v>0.208284</v>
+        <v>0.200618</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.203574</v>
+        <v>0.202907</v>
       </c>
       <c r="C27" t="n">
-        <v>0.195884</v>
+        <v>0.191383</v>
       </c>
       <c r="D27" t="n">
-        <v>0.208552</v>
+        <v>0.202408</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.203664</v>
+        <v>0.202734</v>
       </c>
       <c r="C28" t="n">
-        <v>0.197967</v>
+        <v>0.192166</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20847</v>
+        <v>0.203849</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.203441</v>
+        <v>0.202538</v>
       </c>
       <c r="C29" t="n">
-        <v>0.197259</v>
+        <v>0.192697</v>
       </c>
       <c r="D29" t="n">
-        <v>0.209438</v>
+        <v>0.204068</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.202413</v>
+        <v>0.203216</v>
       </c>
       <c r="C30" t="n">
-        <v>0.198132</v>
+        <v>0.193141</v>
       </c>
       <c r="D30" t="n">
-        <v>0.21063</v>
+        <v>0.205527</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203446</v>
+        <v>0.203358</v>
       </c>
       <c r="C31" t="n">
-        <v>0.199392</v>
+        <v>0.193713</v>
       </c>
       <c r="D31" t="n">
-        <v>0.210865</v>
+        <v>0.205553</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.206436</v>
+        <v>0.204059</v>
       </c>
       <c r="C32" t="n">
-        <v>0.201559</v>
+        <v>0.194664</v>
       </c>
       <c r="D32" t="n">
-        <v>0.212239</v>
+        <v>0.205865</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.207046</v>
+        <v>0.205607</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203216</v>
+        <v>0.196338</v>
       </c>
       <c r="D33" t="n">
-        <v>0.215682</v>
+        <v>0.208129</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.20759</v>
+        <v>0.206367</v>
       </c>
       <c r="C34" t="n">
-        <v>0.204578</v>
+        <v>0.197595</v>
       </c>
       <c r="D34" t="n">
-        <v>0.217029</v>
+        <v>0.209108</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.208938</v>
+        <v>0.207296</v>
       </c>
       <c r="C35" t="n">
-        <v>0.207011</v>
+        <v>0.199726</v>
       </c>
       <c r="D35" t="n">
-        <v>0.220608</v>
+        <v>0.212224</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.211059</v>
+        <v>0.20845</v>
       </c>
       <c r="C36" t="n">
-        <v>0.210692</v>
+        <v>0.202905</v>
       </c>
       <c r="D36" t="n">
-        <v>0.223758</v>
+        <v>0.216874</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.215429</v>
+        <v>0.21239</v>
       </c>
       <c r="C37" t="n">
-        <v>0.214247</v>
+        <v>0.207352</v>
       </c>
       <c r="D37" t="n">
-        <v>0.219884</v>
+        <v>0.220019</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.231774</v>
+        <v>0.232306</v>
       </c>
       <c r="C38" t="n">
-        <v>0.209947</v>
+        <v>0.208057</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221532</v>
+        <v>0.220486</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.231337</v>
+        <v>0.232521</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208492</v>
+        <v>0.208592</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220328</v>
+        <v>0.220602</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232301</v>
+        <v>0.232654</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209706</v>
+        <v>0.209626</v>
       </c>
       <c r="D40" t="n">
-        <v>0.221511</v>
+        <v>0.220329</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231579</v>
+        <v>0.232469</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210703</v>
+        <v>0.211151</v>
       </c>
       <c r="D41" t="n">
-        <v>0.222494</v>
+        <v>0.221816</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231573</v>
+        <v>0.232893</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211828</v>
+        <v>0.211603</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222671</v>
+        <v>0.222196</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.231887</v>
+        <v>0.231849</v>
       </c>
       <c r="C43" t="n">
-        <v>0.214073</v>
+        <v>0.212892</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225337</v>
+        <v>0.222552</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.232549</v>
+        <v>0.233912</v>
       </c>
       <c r="C44" t="n">
-        <v>0.212479</v>
+        <v>0.214326</v>
       </c>
       <c r="D44" t="n">
-        <v>0.223862</v>
+        <v>0.223997</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.235794</v>
+        <v>0.234475</v>
       </c>
       <c r="C45" t="n">
-        <v>0.213884</v>
+        <v>0.21544</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22448</v>
+        <v>0.224726</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.232848</v>
+        <v>0.234991</v>
       </c>
       <c r="C46" t="n">
-        <v>0.215105</v>
+        <v>0.216835</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225903</v>
+        <v>0.226971</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.233656</v>
+        <v>0.233174</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217273</v>
+        <v>0.217908</v>
       </c>
       <c r="D47" t="n">
-        <v>0.228054</v>
+        <v>0.228141</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.234021</v>
+        <v>0.233013</v>
       </c>
       <c r="C48" t="n">
-        <v>0.220026</v>
+        <v>0.220493</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231568</v>
+        <v>0.231372</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.23515</v>
+        <v>0.23446</v>
       </c>
       <c r="C49" t="n">
-        <v>0.220858</v>
+        <v>0.222014</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232228</v>
+        <v>0.232548</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237895</v>
+        <v>0.23571</v>
       </c>
       <c r="C50" t="n">
-        <v>0.226174</v>
+        <v>0.225018</v>
       </c>
       <c r="D50" t="n">
-        <v>0.238249</v>
+        <v>0.236764</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.241594</v>
+        <v>0.239321</v>
       </c>
       <c r="C51" t="n">
-        <v>0.231167</v>
+        <v>0.229475</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233444</v>
+        <v>0.233975</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.247738</v>
+        <v>0.245753</v>
       </c>
       <c r="C52" t="n">
-        <v>0.238104</v>
+        <v>0.236439</v>
       </c>
       <c r="D52" t="n">
-        <v>0.233662</v>
+        <v>0.232816</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.255645</v>
+        <v>0.25693</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226965</v>
+        <v>0.22502</v>
       </c>
       <c r="D53" t="n">
-        <v>0.235168</v>
+        <v>0.234493</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.25995</v>
+        <v>0.259931</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226738</v>
+        <v>0.226069</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234649</v>
+        <v>0.233728</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.257943</v>
+        <v>0.257339</v>
       </c>
       <c r="C55" t="n">
-        <v>0.227415</v>
+        <v>0.226778</v>
       </c>
       <c r="D55" t="n">
-        <v>0.235941</v>
+        <v>0.234251</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261289</v>
+        <v>0.258137</v>
       </c>
       <c r="C56" t="n">
-        <v>0.229555</v>
+        <v>0.226571</v>
       </c>
       <c r="D56" t="n">
-        <v>0.237146</v>
+        <v>0.234132</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.261351</v>
+        <v>0.257792</v>
       </c>
       <c r="C57" t="n">
-        <v>0.229565</v>
+        <v>0.228217</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237552</v>
+        <v>0.235107</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.261131</v>
+        <v>0.259426</v>
       </c>
       <c r="C58" t="n">
-        <v>0.228901</v>
+        <v>0.229758</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237011</v>
+        <v>0.236907</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.261322</v>
+        <v>0.26101</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231731</v>
+        <v>0.229659</v>
       </c>
       <c r="D59" t="n">
-        <v>0.23731</v>
+        <v>0.237965</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.262107</v>
+        <v>0.261617</v>
       </c>
       <c r="C60" t="n">
-        <v>0.230878</v>
+        <v>0.233027</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238174</v>
+        <v>0.241099</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260171</v>
+        <v>0.262319</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233879</v>
+        <v>0.234273</v>
       </c>
       <c r="D61" t="n">
-        <v>0.239824</v>
+        <v>0.239993</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262518</v>
+        <v>0.263333</v>
       </c>
       <c r="C62" t="n">
-        <v>0.234743</v>
+        <v>0.233964</v>
       </c>
       <c r="D62" t="n">
-        <v>0.24342</v>
+        <v>0.242266</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26218</v>
+        <v>0.26328</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238639</v>
+        <v>0.238408</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247715</v>
+        <v>0.247403</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.262893</v>
+        <v>0.264542</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242864</v>
+        <v>0.240102</v>
       </c>
       <c r="D64" t="n">
-        <v>0.251408</v>
+        <v>0.252934</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26588</v>
+        <v>0.267586</v>
       </c>
       <c r="C65" t="n">
-        <v>0.246227</v>
+        <v>0.243719</v>
       </c>
       <c r="D65" t="n">
-        <v>0.259227</v>
+        <v>0.257042</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269348</v>
+        <v>0.27217</v>
       </c>
       <c r="C66" t="n">
-        <v>0.253113</v>
+        <v>0.24977</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241746</v>
+        <v>0.242465</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.277705</v>
+        <v>0.277557</v>
       </c>
       <c r="C67" t="n">
-        <v>0.23772</v>
+        <v>0.23774</v>
       </c>
       <c r="D67" t="n">
-        <v>0.241808</v>
+        <v>0.242074</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.277783</v>
+        <v>0.277844</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238864</v>
+        <v>0.238233</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243193</v>
+        <v>0.242305</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.278395</v>
+        <v>0.278111</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239998</v>
+        <v>0.239566</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243254</v>
+        <v>0.243759</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278579</v>
+        <v>0.274207</v>
       </c>
       <c r="C70" t="n">
-        <v>0.241026</v>
+        <v>0.240858</v>
       </c>
       <c r="D70" t="n">
-        <v>0.244619</v>
+        <v>0.243807</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.278742</v>
+        <v>0.278795</v>
       </c>
       <c r="C71" t="n">
-        <v>0.242016</v>
+        <v>0.2418</v>
       </c>
       <c r="D71" t="n">
-        <v>0.245379</v>
+        <v>0.244548</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275066</v>
+        <v>0.278616</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243015</v>
+        <v>0.242121</v>
       </c>
       <c r="D72" t="n">
-        <v>0.246323</v>
+        <v>0.245395</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.274729</v>
+        <v>0.27888</v>
       </c>
       <c r="C73" t="n">
-        <v>0.244178</v>
+        <v>0.243735</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247286</v>
+        <v>0.247139</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.275201</v>
+        <v>0.278802</v>
       </c>
       <c r="C74" t="n">
-        <v>0.246252</v>
+        <v>0.245602</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249674</v>
+        <v>0.24898</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.275853</v>
+        <v>0.279819</v>
       </c>
       <c r="C75" t="n">
-        <v>0.246561</v>
+        <v>0.247972</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250362</v>
+        <v>0.250812</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280994</v>
+        <v>0.280482</v>
       </c>
       <c r="C76" t="n">
-        <v>0.249175</v>
+        <v>0.24766</v>
       </c>
       <c r="D76" t="n">
-        <v>0.253756</v>
+        <v>0.252242</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.27797</v>
+        <v>0.281512</v>
       </c>
       <c r="C77" t="n">
-        <v>0.251584</v>
+        <v>0.252072</v>
       </c>
       <c r="D77" t="n">
-        <v>0.255773</v>
+        <v>0.256296</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.279404</v>
+        <v>0.283331</v>
       </c>
       <c r="C78" t="n">
-        <v>0.25455</v>
+        <v>0.254514</v>
       </c>
       <c r="D78" t="n">
-        <v>0.262114</v>
+        <v>0.260404</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.282154</v>
+        <v>0.285966</v>
       </c>
       <c r="C79" t="n">
-        <v>0.25956</v>
+        <v>0.259509</v>
       </c>
       <c r="D79" t="n">
-        <v>0.269701</v>
+        <v>0.269328</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290053</v>
+        <v>0.286297</v>
       </c>
       <c r="C80" t="n">
-        <v>0.266415</v>
+        <v>0.265582</v>
       </c>
       <c r="D80" t="n">
-        <v>0.253062</v>
+        <v>0.252506</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.314505</v>
+        <v>0.298767</v>
       </c>
       <c r="C81" t="n">
-        <v>0.236466</v>
+        <v>0.240679</v>
       </c>
       <c r="D81" t="n">
-        <v>0.244987</v>
+        <v>0.251998</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.291221</v>
+        <v>0.30194</v>
       </c>
       <c r="C82" t="n">
-        <v>0.233382</v>
+        <v>0.234991</v>
       </c>
       <c r="D82" t="n">
-        <v>0.245714</v>
+        <v>0.247962</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.292258</v>
+        <v>0.287764</v>
       </c>
       <c r="C83" t="n">
-        <v>0.245321</v>
+        <v>0.238041</v>
       </c>
       <c r="D83" t="n">
-        <v>0.252554</v>
+        <v>0.251109</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.303595</v>
+        <v>0.289185</v>
       </c>
       <c r="C84" t="n">
-        <v>0.24239</v>
+        <v>0.235552</v>
       </c>
       <c r="D84" t="n">
-        <v>0.254407</v>
+        <v>0.249706</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.304174</v>
+        <v>0.291457</v>
       </c>
       <c r="C85" t="n">
-        <v>0.244295</v>
+        <v>0.238168</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254195</v>
+        <v>0.25038</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.311201</v>
+        <v>0.288385</v>
       </c>
       <c r="C86" t="n">
-        <v>0.245784</v>
+        <v>0.245662</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256792</v>
+        <v>0.259883</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317097</v>
+        <v>0.302049</v>
       </c>
       <c r="C87" t="n">
-        <v>0.247444</v>
+        <v>0.249283</v>
       </c>
       <c r="D87" t="n">
-        <v>0.257332</v>
+        <v>0.258117</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300249</v>
+        <v>0.301181</v>
       </c>
       <c r="C88" t="n">
-        <v>0.250526</v>
+        <v>0.248931</v>
       </c>
       <c r="D88" t="n">
-        <v>0.257881</v>
+        <v>0.262254</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.303611</v>
+        <v>0.300976</v>
       </c>
       <c r="C89" t="n">
-        <v>0.250219</v>
+        <v>0.246849</v>
       </c>
       <c r="D89" t="n">
-        <v>0.261525</v>
+        <v>0.261929</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.308837</v>
+        <v>0.30297</v>
       </c>
       <c r="C90" t="n">
-        <v>0.252481</v>
+        <v>0.252441</v>
       </c>
       <c r="D90" t="n">
-        <v>0.262033</v>
+        <v>0.263913</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.302067</v>
+        <v>0.302696</v>
       </c>
       <c r="C91" t="n">
-        <v>0.252265</v>
+        <v>0.253418</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264448</v>
+        <v>0.264945</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.307144</v>
+        <v>0.305228</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253717</v>
+        <v>0.259636</v>
       </c>
       <c r="D92" t="n">
-        <v>0.26939</v>
+        <v>0.277588</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.308882</v>
+        <v>0.305778</v>
       </c>
       <c r="C93" t="n">
-        <v>0.257637</v>
+        <v>0.259062</v>
       </c>
       <c r="D93" t="n">
-        <v>0.274623</v>
+        <v>0.278086</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.309788</v>
+        <v>0.31345</v>
       </c>
       <c r="C94" t="n">
-        <v>0.265034</v>
+        <v>0.256353</v>
       </c>
       <c r="D94" t="n">
-        <v>0.399027</v>
+        <v>0.389531</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.469349</v>
+        <v>0.477362</v>
       </c>
       <c r="C95" t="n">
-        <v>0.410876</v>
+        <v>0.411825</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398402</v>
+        <v>0.39913</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.471249</v>
+        <v>0.4909</v>
       </c>
       <c r="C96" t="n">
-        <v>0.401873</v>
+        <v>0.409681</v>
       </c>
       <c r="D96" t="n">
-        <v>0.387991</v>
+        <v>0.398387</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.474267</v>
+        <v>0.483464</v>
       </c>
       <c r="C97" t="n">
-        <v>0.409908</v>
+        <v>0.411075</v>
       </c>
       <c r="D97" t="n">
-        <v>0.393792</v>
+        <v>0.404143</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.471939</v>
+        <v>0.486845</v>
       </c>
       <c r="C98" t="n">
-        <v>0.402628</v>
+        <v>0.410157</v>
       </c>
       <c r="D98" t="n">
-        <v>0.396239</v>
+        <v>0.400627</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.482341</v>
+        <v>0.488918</v>
       </c>
       <c r="C99" t="n">
-        <v>0.414564</v>
+        <v>0.384048</v>
       </c>
       <c r="D99" t="n">
-        <v>0.400034</v>
+        <v>0.367215</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.486505</v>
+        <v>0.448644</v>
       </c>
       <c r="C100" t="n">
-        <v>0.418328</v>
+        <v>0.409732</v>
       </c>
       <c r="D100" t="n">
-        <v>0.403191</v>
+        <v>0.399305</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.490583</v>
+        <v>0.486712</v>
       </c>
       <c r="C101" t="n">
-        <v>0.388035</v>
+        <v>0.420201</v>
       </c>
       <c r="D101" t="n">
-        <v>0.379705</v>
+        <v>0.405399</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.450115</v>
+        <v>0.483754</v>
       </c>
       <c r="C102" t="n">
-        <v>0.41571</v>
+        <v>0.412917</v>
       </c>
       <c r="D102" t="n">
-        <v>0.408861</v>
+        <v>0.405767</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.482903</v>
+        <v>0.49535</v>
       </c>
       <c r="C103" t="n">
-        <v>0.407042</v>
+        <v>0.420793</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3932</v>
+        <v>0.405042</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.473026</v>
+        <v>0.491456</v>
       </c>
       <c r="C104" t="n">
-        <v>0.423755</v>
+        <v>0.421769</v>
       </c>
       <c r="D104" t="n">
-        <v>0.409801</v>
+        <v>0.414494</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.47835</v>
+        <v>0.482743</v>
       </c>
       <c r="C105" t="n">
-        <v>0.415921</v>
+        <v>0.422497</v>
       </c>
       <c r="D105" t="n">
-        <v>0.40487</v>
+        <v>0.410885</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.479943</v>
+        <v>0.485396</v>
       </c>
       <c r="C106" t="n">
-        <v>0.395899</v>
+        <v>0.434418</v>
       </c>
       <c r="D106" t="n">
-        <v>0.402141</v>
+        <v>0.42752</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.438107</v>
+        <v>0.494318</v>
       </c>
       <c r="C107" t="n">
-        <v>0.40462</v>
+        <v>0.393216</v>
       </c>
       <c r="D107" t="n">
-        <v>0.403797</v>
+        <v>0.386986</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.444359</v>
+        <v>0.451449</v>
       </c>
       <c r="C108" t="n">
-        <v>0.429047</v>
+        <v>0.442708</v>
       </c>
       <c r="D108" t="n">
-        <v>0.645338</v>
+        <v>0.645227</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.486321</v>
+        <v>0.492273</v>
       </c>
       <c r="C109" t="n">
-        <v>0.436305</v>
+        <v>0.450334</v>
       </c>
       <c r="D109" t="n">
-        <v>0.651844</v>
+        <v>0.666015</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.778403</v>
+        <v>0.763711</v>
       </c>
       <c r="C110" t="n">
-        <v>0.662044</v>
+        <v>0.662471</v>
       </c>
       <c r="D110" t="n">
-        <v>0.665852</v>
+        <v>0.666567</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.783546</v>
+        <v>0.7786380000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.663689</v>
+        <v>0.664083</v>
       </c>
       <c r="D111" t="n">
-        <v>0.667824</v>
+        <v>0.667166</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.77774</v>
+        <v>0.778447</v>
       </c>
       <c r="C112" t="n">
-        <v>0.647904</v>
+        <v>0.664467</v>
       </c>
       <c r="D112" t="n">
-        <v>0.656062</v>
+        <v>0.667749</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.776861</v>
+        <v>0.779825</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6655990000000001</v>
+        <v>0.665237</v>
       </c>
       <c r="D113" t="n">
-        <v>0.67053</v>
+        <v>0.671037</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.786196</v>
+        <v>0.775671</v>
       </c>
       <c r="C114" t="n">
-        <v>0.666198</v>
+        <v>0.667562</v>
       </c>
       <c r="D114" t="n">
-        <v>0.659003</v>
+        <v>0.672281</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.76023</v>
+        <v>0.778826</v>
       </c>
       <c r="C115" t="n">
-        <v>0.66814</v>
+        <v>0.66797</v>
       </c>
       <c r="D115" t="n">
-        <v>0.672743</v>
+        <v>0.672454</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.763648</v>
+        <v>0.77583</v>
       </c>
       <c r="C116" t="n">
-        <v>0.669088</v>
+        <v>0.669258</v>
       </c>
       <c r="D116" t="n">
-        <v>0.675465</v>
+        <v>0.66117</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.778782</v>
+        <v>0.7822249999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.655659</v>
+        <v>0.655123</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6779579999999999</v>
+        <v>0.677579</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.779724</v>
+        <v>0.778799</v>
       </c>
       <c r="C118" t="n">
-        <v>0.67381</v>
+        <v>0.657571</v>
       </c>
       <c r="D118" t="n">
-        <v>0.681301</v>
+        <v>0.668396</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.777264</v>
+        <v>0.782286</v>
       </c>
       <c r="C119" t="n">
-        <v>0.677915</v>
+        <v>0.677508</v>
       </c>
       <c r="D119" t="n">
-        <v>0.684619</v>
+        <v>0.683128</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.779363</v>
+        <v>0.782372</v>
       </c>
       <c r="C120" t="n">
-        <v>0.681825</v>
+        <v>0.665524</v>
       </c>
       <c r="D120" t="n">
-        <v>0.688921</v>
+        <v>0.688875</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.7789740000000001</v>
+        <v>0.782516</v>
       </c>
       <c r="C121" t="n">
-        <v>0.6868649999999999</v>
+        <v>0.687025</v>
       </c>
       <c r="D121" t="n">
-        <v>0.695628</v>
+        <v>0.686264</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.782801</v>
+        <v>0.7849390000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.693989</v>
+        <v>0.67824</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6934940000000001</v>
+        <v>0.7048990000000001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.774361</v>
+        <v>0.782756</v>
       </c>
       <c r="C123" t="n">
-        <v>0.702965</v>
+        <v>0.70356</v>
       </c>
       <c r="D123" t="n">
-        <v>0.778093</v>
+        <v>0.77908</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.0362</v>
+        <v>1.01522</v>
       </c>
       <c r="C124" t="n">
-        <v>0.768967</v>
+        <v>0.768876</v>
       </c>
       <c r="D124" t="n">
-        <v>0.772359</v>
+        <v>0.772008</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03944</v>
+        <v>1.03749</v>
       </c>
       <c r="C125" t="n">
-        <v>0.763421</v>
+        <v>0.76359</v>
       </c>
       <c r="D125" t="n">
-        <v>0.773803</v>
+        <v>0.773916</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03586</v>
+        <v>1.03319</v>
       </c>
       <c r="C126" t="n">
-        <v>0.76503</v>
+        <v>0.764896</v>
       </c>
       <c r="D126" t="n">
-        <v>0.783303</v>
+        <v>0.784029</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03487</v>
+        <v>1.04036</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7664570000000001</v>
+        <v>0.766551</v>
       </c>
       <c r="D127" t="n">
-        <v>0.784722</v>
+        <v>0.785362</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04152</v>
+        <v>1.03935</v>
       </c>
       <c r="C128" t="n">
-        <v>0.775374</v>
+        <v>0.775508</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7877110000000001</v>
+        <v>0.779494</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03567</v>
+        <v>1.0336</v>
       </c>
       <c r="C129" t="n">
-        <v>0.770031</v>
+        <v>0.777483</v>
       </c>
       <c r="D129" t="n">
-        <v>0.781529</v>
+        <v>0.788531</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.04162</v>
+        <v>1.03645</v>
       </c>
       <c r="C130" t="n">
-        <v>0.778322</v>
+        <v>0.778688</v>
       </c>
       <c r="D130" t="n">
-        <v>0.790142</v>
+        <v>0.783478</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03026</v>
+        <v>1.02927</v>
       </c>
       <c r="C131" t="n">
-        <v>0.775529</v>
+        <v>0.78245</v>
       </c>
       <c r="D131" t="n">
-        <v>0.793957</v>
+        <v>0.787735</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03406</v>
+        <v>1.01955</v>
       </c>
       <c r="C132" t="n">
-        <v>0.785501</v>
+        <v>0.7851630000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7986</v>
+        <v>0.798917</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03191</v>
+        <v>1.0436</v>
       </c>
       <c r="C133" t="n">
-        <v>0.789086</v>
+        <v>0.790038</v>
       </c>
       <c r="D133" t="n">
-        <v>0.796991</v>
+        <v>0.804683</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.01282</v>
+        <v>1.03608</v>
       </c>
       <c r="C134" t="n">
-        <v>0.788621</v>
+        <v>0.795058</v>
       </c>
       <c r="D134" t="n">
-        <v>0.811211</v>
+        <v>0.8110619999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04035</v>
+        <v>1.03706</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8028459999999999</v>
+        <v>0.802376</v>
       </c>
       <c r="D135" t="n">
-        <v>0.820833</v>
+        <v>0.820624</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04716</v>
+        <v>1.02459</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8103359999999999</v>
+        <v>0.810526</v>
       </c>
       <c r="D136" t="n">
-        <v>0.833623</v>
+        <v>0.827763</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04649</v>
+        <v>1.04959</v>
       </c>
       <c r="C137" t="n">
-        <v>0.823418</v>
+        <v>0.823124</v>
       </c>
       <c r="D137" t="n">
-        <v>0.83042</v>
+        <v>0.829943</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.26435</v>
+        <v>1.26329</v>
       </c>
       <c r="C138" t="n">
-        <v>0.819842</v>
+        <v>0.814066</v>
       </c>
       <c r="D138" t="n">
-        <v>0.832465</v>
+        <v>0.831179</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26374</v>
+        <v>1.26229</v>
       </c>
       <c r="C139" t="n">
-        <v>0.814876</v>
+        <v>0.817577</v>
       </c>
       <c r="D139" t="n">
-        <v>0.83188</v>
+        <v>0.829862</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.24919</v>
+        <v>1.25001</v>
       </c>
       <c r="C140" t="n">
-        <v>0.819948</v>
+        <v>0.820042</v>
       </c>
       <c r="D140" t="n">
-        <v>0.830782</v>
+        <v>0.835647</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26456</v>
+        <v>1.24897</v>
       </c>
       <c r="C141" t="n">
-        <v>0.821395</v>
+        <v>0.821541</v>
       </c>
       <c r="D141" t="n">
-        <v>0.835849</v>
+        <v>0.833739</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26537</v>
+        <v>1.24913</v>
       </c>
       <c r="C142" t="n">
-        <v>0.822528</v>
+        <v>0.8209419999999999</v>
       </c>
       <c r="D142" t="n">
-        <v>0.837401</v>
+        <v>0.838699</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.2645</v>
+        <v>1.24985</v>
       </c>
       <c r="C143" t="n">
-        <v>0.824797</v>
+        <v>0.825895</v>
       </c>
       <c r="D143" t="n">
-        <v>0.840176</v>
+        <v>0.841244</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175298</v>
+        <v>0.175105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187337</v>
+        <v>0.18711</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196804</v>
+        <v>0.196607</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175703</v>
+        <v>0.175507</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188288</v>
+        <v>0.187582</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197402</v>
+        <v>0.197216</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176412</v>
+        <v>0.176265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188737</v>
+        <v>0.188568</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198717</v>
+        <v>0.198525</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177157</v>
+        <v>0.176976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190187</v>
+        <v>0.190083</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20037</v>
+        <v>0.200178</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178123</v>
+        <v>0.177904</v>
       </c>
       <c r="C6" t="n">
-        <v>0.19207</v>
+        <v>0.191941</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202495</v>
+        <v>0.202234</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180093</v>
+        <v>0.17955</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194056</v>
+        <v>0.194168</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205318</v>
+        <v>0.205472</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.181916</v>
+        <v>0.182307</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196929</v>
+        <v>0.197215</v>
       </c>
       <c r="D8" t="n">
-        <v>0.209823</v>
+        <v>0.210177</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.185664</v>
+        <v>0.185798</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200656</v>
+        <v>0.200976</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193551</v>
+        <v>0.194118</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.181323</v>
+        <v>0.181982</v>
       </c>
       <c r="C10" t="n">
-        <v>0.187637</v>
+        <v>0.186212</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194396</v>
+        <v>0.193766</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181323</v>
+        <v>0.182354</v>
       </c>
       <c r="C11" t="n">
-        <v>0.187937</v>
+        <v>0.188596</v>
       </c>
       <c r="D11" t="n">
-        <v>0.195082</v>
+        <v>0.196044</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.181438</v>
+        <v>0.187657</v>
       </c>
       <c r="C12" t="n">
-        <v>0.187586</v>
+        <v>0.188377</v>
       </c>
       <c r="D12" t="n">
-        <v>0.19482</v>
+        <v>0.194822</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.182484</v>
+        <v>0.185801</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187954</v>
+        <v>0.18931</v>
       </c>
       <c r="D13" t="n">
-        <v>0.195085</v>
+        <v>0.195759</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.181925</v>
+        <v>0.183582</v>
       </c>
       <c r="C14" t="n">
-        <v>0.189178</v>
+        <v>0.188882</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196341</v>
+        <v>0.196252</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.181933</v>
+        <v>0.183864</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188281</v>
+        <v>0.188393</v>
       </c>
       <c r="D15" t="n">
-        <v>0.195594</v>
+        <v>0.19553</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.183213</v>
+        <v>0.18631</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189765</v>
+        <v>0.189012</v>
       </c>
       <c r="D16" t="n">
-        <v>0.196274</v>
+        <v>0.196226</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.182593</v>
+        <v>0.186044</v>
       </c>
       <c r="C17" t="n">
-        <v>0.189893</v>
+        <v>0.192102</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197133</v>
+        <v>0.200705</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.183875</v>
+        <v>0.18578</v>
       </c>
       <c r="C18" t="n">
-        <v>0.191975</v>
+        <v>0.193199</v>
       </c>
       <c r="D18" t="n">
-        <v>0.199577</v>
+        <v>0.200517</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.184966</v>
+        <v>0.185714</v>
       </c>
       <c r="C19" t="n">
-        <v>0.193306</v>
+        <v>0.192809</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200171</v>
+        <v>0.199943</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185813</v>
+        <v>0.189588</v>
       </c>
       <c r="C20" t="n">
-        <v>0.19509</v>
+        <v>0.195157</v>
       </c>
       <c r="D20" t="n">
-        <v>0.203299</v>
+        <v>0.204248</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.186791</v>
+        <v>0.194444</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195521</v>
+        <v>0.19875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204468</v>
+        <v>0.208747</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.189585</v>
+        <v>0.191721</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197885</v>
+        <v>0.198385</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208472</v>
+        <v>0.209121</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.192938</v>
+        <v>0.193769</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202468</v>
+        <v>0.201905</v>
       </c>
       <c r="D23" t="n">
-        <v>0.197718</v>
+        <v>0.200619</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.202284</v>
+        <v>0.200229</v>
       </c>
       <c r="C24" t="n">
-        <v>0.188044</v>
+        <v>0.189396</v>
       </c>
       <c r="D24" t="n">
-        <v>0.200666</v>
+        <v>0.201911</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.202181</v>
+        <v>0.200756</v>
       </c>
       <c r="C25" t="n">
-        <v>0.189162</v>
+        <v>0.189083</v>
       </c>
       <c r="D25" t="n">
-        <v>0.200419</v>
+        <v>0.202356</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203639</v>
+        <v>0.20038</v>
       </c>
       <c r="C26" t="n">
-        <v>0.19083</v>
+        <v>0.189366</v>
       </c>
       <c r="D26" t="n">
-        <v>0.200618</v>
+        <v>0.20098</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.202907</v>
+        <v>0.19942</v>
       </c>
       <c r="C27" t="n">
-        <v>0.191383</v>
+        <v>0.190209</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202408</v>
+        <v>0.201541</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.202734</v>
+        <v>0.199402</v>
       </c>
       <c r="C28" t="n">
-        <v>0.192166</v>
+        <v>0.19049</v>
       </c>
       <c r="D28" t="n">
-        <v>0.203849</v>
+        <v>0.201728</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.202538</v>
+        <v>0.20016</v>
       </c>
       <c r="C29" t="n">
-        <v>0.192697</v>
+        <v>0.191523</v>
       </c>
       <c r="D29" t="n">
-        <v>0.204068</v>
+        <v>0.202498</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.203216</v>
+        <v>0.201817</v>
       </c>
       <c r="C30" t="n">
-        <v>0.193141</v>
+        <v>0.192878</v>
       </c>
       <c r="D30" t="n">
-        <v>0.205527</v>
+        <v>0.203347</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203358</v>
+        <v>0.201539</v>
       </c>
       <c r="C31" t="n">
-        <v>0.193713</v>
+        <v>0.193003</v>
       </c>
       <c r="D31" t="n">
-        <v>0.205553</v>
+        <v>0.204576</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.204059</v>
+        <v>0.202644</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194664</v>
+        <v>0.194447</v>
       </c>
       <c r="D32" t="n">
-        <v>0.205865</v>
+        <v>0.20502</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.205607</v>
+        <v>0.205168</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196338</v>
+        <v>0.196191</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208129</v>
+        <v>0.206634</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.206367</v>
+        <v>0.206092</v>
       </c>
       <c r="C34" t="n">
-        <v>0.197595</v>
+        <v>0.19863</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209108</v>
+        <v>0.209135</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.207296</v>
+        <v>0.207417</v>
       </c>
       <c r="C35" t="n">
-        <v>0.199726</v>
+        <v>0.201025</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212224</v>
+        <v>0.212966</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.20845</v>
+        <v>0.210267</v>
       </c>
       <c r="C36" t="n">
-        <v>0.202905</v>
+        <v>0.203766</v>
       </c>
       <c r="D36" t="n">
-        <v>0.216874</v>
+        <v>0.217202</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21239</v>
+        <v>0.212276</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207352</v>
+        <v>0.208229</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220019</v>
+        <v>0.220741</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232306</v>
+        <v>0.232691</v>
       </c>
       <c r="C38" t="n">
-        <v>0.208057</v>
+        <v>0.208903</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220486</v>
+        <v>0.220046</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232521</v>
+        <v>0.233601</v>
       </c>
       <c r="C39" t="n">
-        <v>0.208592</v>
+        <v>0.209981</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220602</v>
+        <v>0.220084</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232654</v>
+        <v>0.232156</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209626</v>
+        <v>0.210796</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220329</v>
+        <v>0.220825</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.232469</v>
+        <v>0.232599</v>
       </c>
       <c r="C41" t="n">
-        <v>0.211151</v>
+        <v>0.211012</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221816</v>
+        <v>0.221089</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232893</v>
+        <v>0.233989</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211603</v>
+        <v>0.212712</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222196</v>
+        <v>0.222495</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.231849</v>
+        <v>0.233781</v>
       </c>
       <c r="C43" t="n">
-        <v>0.212892</v>
+        <v>0.212947</v>
       </c>
       <c r="D43" t="n">
-        <v>0.222552</v>
+        <v>0.222305</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.233912</v>
+        <v>0.233244</v>
       </c>
       <c r="C44" t="n">
-        <v>0.214326</v>
+        <v>0.213498</v>
       </c>
       <c r="D44" t="n">
-        <v>0.223997</v>
+        <v>0.223036</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.234475</v>
+        <v>0.2333</v>
       </c>
       <c r="C45" t="n">
-        <v>0.21544</v>
+        <v>0.214519</v>
       </c>
       <c r="D45" t="n">
-        <v>0.224726</v>
+        <v>0.224293</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.234991</v>
+        <v>0.234982</v>
       </c>
       <c r="C46" t="n">
-        <v>0.216835</v>
+        <v>0.21731</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226971</v>
+        <v>0.226798</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.233174</v>
+        <v>0.234458</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217908</v>
+        <v>0.217848</v>
       </c>
       <c r="D47" t="n">
-        <v>0.228141</v>
+        <v>0.227786</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.233013</v>
+        <v>0.234387</v>
       </c>
       <c r="C48" t="n">
-        <v>0.220493</v>
+        <v>0.219277</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231372</v>
+        <v>0.229612</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.23446</v>
+        <v>0.235979</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222014</v>
+        <v>0.222043</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232548</v>
+        <v>0.232911</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23571</v>
+        <v>0.238412</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225018</v>
+        <v>0.225972</v>
       </c>
       <c r="D50" t="n">
-        <v>0.236764</v>
+        <v>0.237881</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.239321</v>
+        <v>0.241162</v>
       </c>
       <c r="C51" t="n">
-        <v>0.229475</v>
+        <v>0.230997</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233975</v>
+        <v>0.233107</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.245753</v>
+        <v>0.245209</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236439</v>
+        <v>0.237453</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232816</v>
+        <v>0.234234</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.25693</v>
+        <v>0.259143</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22502</v>
+        <v>0.225404</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234493</v>
+        <v>0.233396</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.259931</v>
+        <v>0.261375</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226069</v>
+        <v>0.226184</v>
       </c>
       <c r="D54" t="n">
-        <v>0.233728</v>
+        <v>0.23274</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.257339</v>
+        <v>0.261813</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226778</v>
+        <v>0.22788</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234251</v>
+        <v>0.234806</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258137</v>
+        <v>0.259199</v>
       </c>
       <c r="C56" t="n">
-        <v>0.226571</v>
+        <v>0.228591</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234132</v>
+        <v>0.234656</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.257792</v>
+        <v>0.259806</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228217</v>
+        <v>0.22819</v>
       </c>
       <c r="D57" t="n">
-        <v>0.235107</v>
+        <v>0.234724</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259426</v>
+        <v>0.258995</v>
       </c>
       <c r="C58" t="n">
-        <v>0.229758</v>
+        <v>0.230088</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236907</v>
+        <v>0.235989</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.26101</v>
+        <v>0.260708</v>
       </c>
       <c r="C59" t="n">
-        <v>0.229659</v>
+        <v>0.231551</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237965</v>
+        <v>0.237565</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261617</v>
+        <v>0.260043</v>
       </c>
       <c r="C60" t="n">
-        <v>0.233027</v>
+        <v>0.232134</v>
       </c>
       <c r="D60" t="n">
-        <v>0.241099</v>
+        <v>0.238219</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262319</v>
+        <v>0.260486</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234273</v>
+        <v>0.234606</v>
       </c>
       <c r="D61" t="n">
-        <v>0.239993</v>
+        <v>0.240947</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.263333</v>
+        <v>0.260185</v>
       </c>
       <c r="C62" t="n">
-        <v>0.233964</v>
+        <v>0.235482</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242266</v>
+        <v>0.242451</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26328</v>
+        <v>0.263344</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238408</v>
+        <v>0.238805</v>
       </c>
       <c r="D63" t="n">
-        <v>0.247403</v>
+        <v>0.246098</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264542</v>
+        <v>0.264273</v>
       </c>
       <c r="C64" t="n">
-        <v>0.240102</v>
+        <v>0.24164</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252934</v>
+        <v>0.250837</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.267586</v>
+        <v>0.268463</v>
       </c>
       <c r="C65" t="n">
-        <v>0.243719</v>
+        <v>0.246094</v>
       </c>
       <c r="D65" t="n">
-        <v>0.257042</v>
+        <v>0.257079</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.27217</v>
+        <v>0.270627</v>
       </c>
       <c r="C66" t="n">
-        <v>0.24977</v>
+        <v>0.252337</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242465</v>
+        <v>0.240248</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.277557</v>
+        <v>0.277349</v>
       </c>
       <c r="C67" t="n">
-        <v>0.23774</v>
+        <v>0.236908</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242074</v>
+        <v>0.24018</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.277844</v>
+        <v>0.277425</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238233</v>
+        <v>0.238104</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242305</v>
+        <v>0.241184</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.278111</v>
+        <v>0.278032</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239566</v>
+        <v>0.238275</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243759</v>
+        <v>0.241207</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.274207</v>
+        <v>0.277881</v>
       </c>
       <c r="C70" t="n">
-        <v>0.240858</v>
+        <v>0.239371</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243807</v>
+        <v>0.241694</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.278795</v>
+        <v>0.278379</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2418</v>
+        <v>0.23965</v>
       </c>
       <c r="D71" t="n">
-        <v>0.244548</v>
+        <v>0.243067</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278616</v>
+        <v>0.27851</v>
       </c>
       <c r="C72" t="n">
-        <v>0.242121</v>
+        <v>0.240237</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245395</v>
+        <v>0.243618</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.27888</v>
+        <v>0.279351</v>
       </c>
       <c r="C73" t="n">
-        <v>0.243735</v>
+        <v>0.241459</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247139</v>
+        <v>0.244606</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.278802</v>
+        <v>0.279596</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245602</v>
+        <v>0.24302</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24898</v>
+        <v>0.246428</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279819</v>
+        <v>0.279681</v>
       </c>
       <c r="C75" t="n">
-        <v>0.247972</v>
+        <v>0.243767</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250812</v>
+        <v>0.247649</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280482</v>
+        <v>0.279992</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24766</v>
+        <v>0.245898</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252242</v>
+        <v>0.250547</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.281512</v>
+        <v>0.281493</v>
       </c>
       <c r="C77" t="n">
-        <v>0.252072</v>
+        <v>0.246877</v>
       </c>
       <c r="D77" t="n">
-        <v>0.256296</v>
+        <v>0.253365</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283331</v>
+        <v>0.283831</v>
       </c>
       <c r="C78" t="n">
-        <v>0.254514</v>
+        <v>0.251723</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260404</v>
+        <v>0.258289</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.285966</v>
+        <v>0.285499</v>
       </c>
       <c r="C79" t="n">
-        <v>0.259509</v>
+        <v>0.254904</v>
       </c>
       <c r="D79" t="n">
-        <v>0.269328</v>
+        <v>0.26513</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.286297</v>
+        <v>0.289221</v>
       </c>
       <c r="C80" t="n">
-        <v>0.265582</v>
+        <v>0.261334</v>
       </c>
       <c r="D80" t="n">
-        <v>0.252506</v>
+        <v>0.252752</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.298767</v>
+        <v>0.296302</v>
       </c>
       <c r="C81" t="n">
-        <v>0.240679</v>
+        <v>0.241559</v>
       </c>
       <c r="D81" t="n">
-        <v>0.251998</v>
+        <v>0.252591</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.30194</v>
+        <v>0.29898</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234991</v>
+        <v>0.239962</v>
       </c>
       <c r="D82" t="n">
-        <v>0.247962</v>
+        <v>0.251989</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.287764</v>
+        <v>0.298904</v>
       </c>
       <c r="C83" t="n">
-        <v>0.238041</v>
+        <v>0.242048</v>
       </c>
       <c r="D83" t="n">
-        <v>0.251109</v>
+        <v>0.253401</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.289185</v>
+        <v>0.301432</v>
       </c>
       <c r="C84" t="n">
-        <v>0.235552</v>
+        <v>0.244621</v>
       </c>
       <c r="D84" t="n">
-        <v>0.249706</v>
+        <v>0.257302</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.291457</v>
+        <v>0.299585</v>
       </c>
       <c r="C85" t="n">
-        <v>0.238168</v>
+        <v>0.246226</v>
       </c>
       <c r="D85" t="n">
-        <v>0.25038</v>
+        <v>0.256221</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.288385</v>
+        <v>0.301784</v>
       </c>
       <c r="C86" t="n">
-        <v>0.245662</v>
+        <v>0.244716</v>
       </c>
       <c r="D86" t="n">
-        <v>0.259883</v>
+        <v>0.256468</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.302049</v>
+        <v>0.299899</v>
       </c>
       <c r="C87" t="n">
-        <v>0.249283</v>
+        <v>0.244687</v>
       </c>
       <c r="D87" t="n">
-        <v>0.258117</v>
+        <v>0.256405</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301181</v>
+        <v>0.30118</v>
       </c>
       <c r="C88" t="n">
-        <v>0.248931</v>
+        <v>0.246034</v>
       </c>
       <c r="D88" t="n">
-        <v>0.262254</v>
+        <v>0.260201</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.300976</v>
+        <v>0.301942</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246849</v>
+        <v>0.246614</v>
       </c>
       <c r="D89" t="n">
-        <v>0.261929</v>
+        <v>0.259545</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.30297</v>
+        <v>0.302355</v>
       </c>
       <c r="C90" t="n">
-        <v>0.252441</v>
+        <v>0.248463</v>
       </c>
       <c r="D90" t="n">
-        <v>0.263913</v>
+        <v>0.261132</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.302696</v>
+        <v>0.305392</v>
       </c>
       <c r="C91" t="n">
-        <v>0.253418</v>
+        <v>0.254218</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264945</v>
+        <v>0.266697</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.305228</v>
+        <v>0.308083</v>
       </c>
       <c r="C92" t="n">
-        <v>0.259636</v>
+        <v>0.246194</v>
       </c>
       <c r="D92" t="n">
-        <v>0.277588</v>
+        <v>0.262446</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.305778</v>
+        <v>0.296046</v>
       </c>
       <c r="C93" t="n">
-        <v>0.259062</v>
+        <v>0.257261</v>
       </c>
       <c r="D93" t="n">
-        <v>0.278086</v>
+        <v>0.275618</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.31345</v>
+        <v>0.311613</v>
       </c>
       <c r="C94" t="n">
-        <v>0.256353</v>
+        <v>0.258909</v>
       </c>
       <c r="D94" t="n">
-        <v>0.389531</v>
+        <v>0.395746</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.477362</v>
+        <v>0.485608</v>
       </c>
       <c r="C95" t="n">
-        <v>0.411825</v>
+        <v>0.380275</v>
       </c>
       <c r="D95" t="n">
-        <v>0.39913</v>
+        <v>0.37457</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4909</v>
+        <v>0.457117</v>
       </c>
       <c r="C96" t="n">
-        <v>0.409681</v>
+        <v>0.376977</v>
       </c>
       <c r="D96" t="n">
-        <v>0.398387</v>
+        <v>0.365901</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.483464</v>
+        <v>0.434689</v>
       </c>
       <c r="C97" t="n">
-        <v>0.411075</v>
+        <v>0.387169</v>
       </c>
       <c r="D97" t="n">
-        <v>0.404143</v>
+        <v>0.371069</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.486845</v>
+        <v>0.429474</v>
       </c>
       <c r="C98" t="n">
-        <v>0.410157</v>
+        <v>0.420853</v>
       </c>
       <c r="D98" t="n">
-        <v>0.400627</v>
+        <v>0.40684</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.488918</v>
+        <v>0.484445</v>
       </c>
       <c r="C99" t="n">
-        <v>0.384048</v>
+        <v>0.412198</v>
       </c>
       <c r="D99" t="n">
-        <v>0.367215</v>
+        <v>0.393666</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.448644</v>
+        <v>0.484944</v>
       </c>
       <c r="C100" t="n">
-        <v>0.409732</v>
+        <v>0.423324</v>
       </c>
       <c r="D100" t="n">
-        <v>0.399305</v>
+        <v>0.40625</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.486712</v>
+        <v>0.49576</v>
       </c>
       <c r="C101" t="n">
-        <v>0.420201</v>
+        <v>0.414864</v>
       </c>
       <c r="D101" t="n">
-        <v>0.405399</v>
+        <v>0.405048</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.483754</v>
+        <v>0.488797</v>
       </c>
       <c r="C102" t="n">
-        <v>0.412917</v>
+        <v>0.420177</v>
       </c>
       <c r="D102" t="n">
-        <v>0.405767</v>
+        <v>0.409096</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.49535</v>
+        <v>0.484959</v>
       </c>
       <c r="C103" t="n">
-        <v>0.420793</v>
+        <v>0.422607</v>
       </c>
       <c r="D103" t="n">
-        <v>0.405042</v>
+        <v>0.409932</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.491456</v>
+        <v>0.487798</v>
       </c>
       <c r="C104" t="n">
-        <v>0.421769</v>
+        <v>0.398917</v>
       </c>
       <c r="D104" t="n">
-        <v>0.414494</v>
+        <v>0.395255</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.482743</v>
+        <v>0.443965</v>
       </c>
       <c r="C105" t="n">
-        <v>0.422497</v>
+        <v>0.421933</v>
       </c>
       <c r="D105" t="n">
-        <v>0.410885</v>
+        <v>0.413785</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.485396</v>
+        <v>0.49533</v>
       </c>
       <c r="C106" t="n">
-        <v>0.434418</v>
+        <v>0.39771</v>
       </c>
       <c r="D106" t="n">
-        <v>0.42752</v>
+        <v>0.391738</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.494318</v>
+        <v>0.450368</v>
       </c>
       <c r="C107" t="n">
-        <v>0.393216</v>
+        <v>0.430456</v>
       </c>
       <c r="D107" t="n">
-        <v>0.386986</v>
+        <v>0.422505</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.451449</v>
+        <v>0.489429</v>
       </c>
       <c r="C108" t="n">
-        <v>0.442708</v>
+        <v>0.437244</v>
       </c>
       <c r="D108" t="n">
-        <v>0.645227</v>
+        <v>0.645365</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.492273</v>
+        <v>0.493156</v>
       </c>
       <c r="C109" t="n">
-        <v>0.450334</v>
+        <v>0.444748</v>
       </c>
       <c r="D109" t="n">
-        <v>0.666015</v>
+        <v>0.652023</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.763711</v>
+        <v>0.778564</v>
       </c>
       <c r="C110" t="n">
-        <v>0.662471</v>
+        <v>0.646877</v>
       </c>
       <c r="D110" t="n">
-        <v>0.666567</v>
+        <v>0.666188</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7786380000000001</v>
+        <v>0.7757500000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>0.664083</v>
+        <v>0.663876</v>
       </c>
       <c r="D111" t="n">
-        <v>0.667166</v>
+        <v>0.667489</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.778447</v>
+        <v>0.778408</v>
       </c>
       <c r="C112" t="n">
-        <v>0.664467</v>
+        <v>0.665144</v>
       </c>
       <c r="D112" t="n">
-        <v>0.667749</v>
+        <v>0.655293</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.779825</v>
+        <v>0.778294</v>
       </c>
       <c r="C113" t="n">
-        <v>0.665237</v>
+        <v>0.665693</v>
       </c>
       <c r="D113" t="n">
-        <v>0.671037</v>
+        <v>0.671602</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.775671</v>
+        <v>0.766886</v>
       </c>
       <c r="C114" t="n">
-        <v>0.667562</v>
+        <v>0.668163</v>
       </c>
       <c r="D114" t="n">
-        <v>0.672281</v>
+        <v>0.672885</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.778826</v>
+        <v>0.776041</v>
       </c>
       <c r="C115" t="n">
-        <v>0.66797</v>
+        <v>0.668418</v>
       </c>
       <c r="D115" t="n">
-        <v>0.672454</v>
+        <v>0.673561</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.77583</v>
+        <v>0.766365</v>
       </c>
       <c r="C116" t="n">
-        <v>0.669258</v>
+        <v>0.669548</v>
       </c>
       <c r="D116" t="n">
-        <v>0.66117</v>
+        <v>0.6749000000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7822249999999999</v>
+        <v>0.765724</v>
       </c>
       <c r="C117" t="n">
-        <v>0.655123</v>
+        <v>0.672006</v>
       </c>
       <c r="D117" t="n">
-        <v>0.677579</v>
+        <v>0.677625</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.778799</v>
+        <v>0.774896</v>
       </c>
       <c r="C118" t="n">
-        <v>0.657571</v>
+        <v>0.674774</v>
       </c>
       <c r="D118" t="n">
-        <v>0.668396</v>
+        <v>0.680491</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.782286</v>
+        <v>0.779425</v>
       </c>
       <c r="C119" t="n">
-        <v>0.677508</v>
+        <v>0.678771</v>
       </c>
       <c r="D119" t="n">
-        <v>0.683128</v>
+        <v>0.684906</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.782372</v>
+        <v>0.782256</v>
       </c>
       <c r="C120" t="n">
-        <v>0.665524</v>
+        <v>0.681438</v>
       </c>
       <c r="D120" t="n">
-        <v>0.688875</v>
+        <v>0.677086</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.782516</v>
+        <v>0.781751</v>
       </c>
       <c r="C121" t="n">
-        <v>0.687025</v>
+        <v>0.671875</v>
       </c>
       <c r="D121" t="n">
-        <v>0.686264</v>
+        <v>0.695752</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7849390000000001</v>
+        <v>0.777748</v>
       </c>
       <c r="C122" t="n">
-        <v>0.67824</v>
+        <v>0.693705</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7048990000000001</v>
+        <v>0.705114</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.782756</v>
+        <v>0.770996</v>
       </c>
       <c r="C123" t="n">
-        <v>0.70356</v>
+        <v>0.6879769999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.77908</v>
+        <v>0.780477</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.01522</v>
+        <v>1.0336</v>
       </c>
       <c r="C124" t="n">
-        <v>0.768876</v>
+        <v>0.769831</v>
       </c>
       <c r="D124" t="n">
-        <v>0.772008</v>
+        <v>0.779388</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03749</v>
+        <v>1.04115</v>
       </c>
       <c r="C125" t="n">
-        <v>0.76359</v>
+        <v>0.770746</v>
       </c>
       <c r="D125" t="n">
-        <v>0.773916</v>
+        <v>0.781552</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03319</v>
+        <v>1.01805</v>
       </c>
       <c r="C126" t="n">
-        <v>0.764896</v>
+        <v>0.772187</v>
       </c>
       <c r="D126" t="n">
-        <v>0.784029</v>
+        <v>0.775603</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.04036</v>
+        <v>1.03326</v>
       </c>
       <c r="C127" t="n">
-        <v>0.766551</v>
+        <v>0.773031</v>
       </c>
       <c r="D127" t="n">
-        <v>0.785362</v>
+        <v>0.784328</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03935</v>
+        <v>1.04057</v>
       </c>
       <c r="C128" t="n">
-        <v>0.775508</v>
+        <v>0.7740320000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>0.779494</v>
+        <v>0.778905</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.0336</v>
+        <v>1.03579</v>
       </c>
       <c r="C129" t="n">
-        <v>0.777483</v>
+        <v>0.769749</v>
       </c>
       <c r="D129" t="n">
-        <v>0.788531</v>
+        <v>0.781576</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03645</v>
+        <v>1.03577</v>
       </c>
       <c r="C130" t="n">
-        <v>0.778688</v>
+        <v>0.778551</v>
       </c>
       <c r="D130" t="n">
-        <v>0.783478</v>
+        <v>0.79166</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02927</v>
+        <v>1.04287</v>
       </c>
       <c r="C131" t="n">
-        <v>0.78245</v>
+        <v>0.775505</v>
       </c>
       <c r="D131" t="n">
-        <v>0.787735</v>
+        <v>0.794793</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.01955</v>
+        <v>1.04574</v>
       </c>
       <c r="C132" t="n">
-        <v>0.7851630000000001</v>
+        <v>0.785813</v>
       </c>
       <c r="D132" t="n">
-        <v>0.798917</v>
+        <v>0.798723</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.0436</v>
+        <v>1.03896</v>
       </c>
       <c r="C133" t="n">
-        <v>0.790038</v>
+        <v>0.7899350000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.804683</v>
+        <v>0.80385</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.03608</v>
+        <v>1.04234</v>
       </c>
       <c r="C134" t="n">
-        <v>0.795058</v>
+        <v>0.795084</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8110619999999999</v>
+        <v>0.810669</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.03706</v>
+        <v>1.03792</v>
       </c>
       <c r="C135" t="n">
-        <v>0.802376</v>
+        <v>0.801495</v>
       </c>
       <c r="D135" t="n">
-        <v>0.820624</v>
+        <v>0.821025</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.02459</v>
+        <v>1.03821</v>
       </c>
       <c r="C136" t="n">
-        <v>0.810526</v>
+        <v>0.810808</v>
       </c>
       <c r="D136" t="n">
-        <v>0.827763</v>
+        <v>0.8339029999999999</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04959</v>
+        <v>1.04702</v>
       </c>
       <c r="C137" t="n">
-        <v>0.823124</v>
+        <v>0.822983</v>
       </c>
       <c r="D137" t="n">
-        <v>0.829943</v>
+        <v>0.82956</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.26329</v>
+        <v>1.25101</v>
       </c>
       <c r="C138" t="n">
-        <v>0.814066</v>
+        <v>0.817267</v>
       </c>
       <c r="D138" t="n">
-        <v>0.831179</v>
+        <v>0.831228</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26229</v>
+        <v>1.2636</v>
       </c>
       <c r="C139" t="n">
-        <v>0.817577</v>
+        <v>0.816019</v>
       </c>
       <c r="D139" t="n">
-        <v>0.829862</v>
+        <v>0.830373</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25001</v>
+        <v>1.26532</v>
       </c>
       <c r="C140" t="n">
-        <v>0.820042</v>
+        <v>0.821024</v>
       </c>
       <c r="D140" t="n">
-        <v>0.835647</v>
+        <v>0.832573</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24897</v>
+        <v>1.26514</v>
       </c>
       <c r="C141" t="n">
-        <v>0.821541</v>
+        <v>0.818995</v>
       </c>
       <c r="D141" t="n">
-        <v>0.833739</v>
+        <v>0.836039</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24913</v>
+        <v>1.25038</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8209419999999999</v>
+        <v>0.822895</v>
       </c>
       <c r="D142" t="n">
-        <v>0.838699</v>
+        <v>0.8391380000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24985</v>
+        <v>1.26428</v>
       </c>
       <c r="C143" t="n">
-        <v>0.825895</v>
+        <v>0.8269609999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.841244</v>
+        <v>0.84106</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175105</v>
+        <v>0.175832</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18711</v>
+        <v>0.187526</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196607</v>
+        <v>0.196873</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175507</v>
+        <v>0.176682</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187582</v>
+        <v>0.188129</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197216</v>
+        <v>0.197467</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176265</v>
+        <v>0.177384</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188568</v>
+        <v>0.18912</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198525</v>
+        <v>0.198805</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.176976</v>
+        <v>0.177729</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190083</v>
+        <v>0.190633</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200178</v>
+        <v>0.20052</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177904</v>
+        <v>0.178678</v>
       </c>
       <c r="C6" t="n">
-        <v>0.191941</v>
+        <v>0.192477</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202234</v>
+        <v>0.202604</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.17955</v>
+        <v>0.180305</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194168</v>
+        <v>0.194475</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205472</v>
+        <v>0.20563</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182307</v>
+        <v>0.182488</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197215</v>
+        <v>0.197376</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210177</v>
+        <v>0.210182</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.185798</v>
+        <v>0.186262</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200976</v>
+        <v>0.201194</v>
       </c>
       <c r="D9" t="n">
-        <v>0.194118</v>
+        <v>0.194997</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.181982</v>
+        <v>0.188041</v>
       </c>
       <c r="C10" t="n">
-        <v>0.186212</v>
+        <v>0.190395</v>
       </c>
       <c r="D10" t="n">
-        <v>0.193766</v>
+        <v>0.196299</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.182354</v>
+        <v>0.184878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.188596</v>
+        <v>0.187647</v>
       </c>
       <c r="D11" t="n">
-        <v>0.196044</v>
+        <v>0.194797</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.187657</v>
+        <v>0.187097</v>
       </c>
       <c r="C12" t="n">
-        <v>0.188377</v>
+        <v>0.189881</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194822</v>
+        <v>0.196087</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.185801</v>
+        <v>0.189467</v>
       </c>
       <c r="C13" t="n">
-        <v>0.18931</v>
+        <v>0.192308</v>
       </c>
       <c r="D13" t="n">
-        <v>0.195759</v>
+        <v>0.197705</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.183582</v>
+        <v>0.185879</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188882</v>
+        <v>0.189728</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196252</v>
+        <v>0.196463</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.183864</v>
+        <v>0.187168</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188393</v>
+        <v>0.192426</v>
       </c>
       <c r="D15" t="n">
-        <v>0.19553</v>
+        <v>0.1997</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.18631</v>
+        <v>0.189439</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189012</v>
+        <v>0.192759</v>
       </c>
       <c r="D16" t="n">
-        <v>0.196226</v>
+        <v>0.198486</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.186044</v>
+        <v>0.184696</v>
       </c>
       <c r="C17" t="n">
-        <v>0.192102</v>
+        <v>0.19059</v>
       </c>
       <c r="D17" t="n">
-        <v>0.200705</v>
+        <v>0.198159</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.18578</v>
+        <v>0.189574</v>
       </c>
       <c r="C18" t="n">
-        <v>0.193199</v>
+        <v>0.19435</v>
       </c>
       <c r="D18" t="n">
-        <v>0.200517</v>
+        <v>0.201012</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.185714</v>
+        <v>0.191618</v>
       </c>
       <c r="C19" t="n">
-        <v>0.192809</v>
+        <v>0.197167</v>
       </c>
       <c r="D19" t="n">
-        <v>0.199943</v>
+        <v>0.204224</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.189588</v>
+        <v>0.18815</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195157</v>
+        <v>0.195538</v>
       </c>
       <c r="D20" t="n">
-        <v>0.204248</v>
+        <v>0.203609</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.194444</v>
+        <v>0.193507</v>
       </c>
       <c r="C21" t="n">
-        <v>0.19875</v>
+        <v>0.200676</v>
       </c>
       <c r="D21" t="n">
-        <v>0.208747</v>
+        <v>0.2087</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.191721</v>
+        <v>0.194224</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198385</v>
+        <v>0.202722</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209121</v>
+        <v>0.211687</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.193769</v>
+        <v>0.19579</v>
       </c>
       <c r="C23" t="n">
-        <v>0.201905</v>
+        <v>0.20294</v>
       </c>
       <c r="D23" t="n">
-        <v>0.200619</v>
+        <v>0.203087</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.200229</v>
+        <v>0.203572</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189396</v>
+        <v>0.194148</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201911</v>
+        <v>0.203597</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.200756</v>
+        <v>0.203541</v>
       </c>
       <c r="C25" t="n">
-        <v>0.189083</v>
+        <v>0.193323</v>
       </c>
       <c r="D25" t="n">
-        <v>0.202356</v>
+        <v>0.204505</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.20038</v>
+        <v>0.206149</v>
       </c>
       <c r="C26" t="n">
-        <v>0.189366</v>
+        <v>0.193934</v>
       </c>
       <c r="D26" t="n">
-        <v>0.20098</v>
+        <v>0.204242</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.19942</v>
+        <v>0.206096</v>
       </c>
       <c r="C27" t="n">
-        <v>0.190209</v>
+        <v>0.194715</v>
       </c>
       <c r="D27" t="n">
-        <v>0.201541</v>
+        <v>0.20358</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.199402</v>
+        <v>0.205399</v>
       </c>
       <c r="C28" t="n">
-        <v>0.19049</v>
+        <v>0.195156</v>
       </c>
       <c r="D28" t="n">
-        <v>0.201728</v>
+        <v>0.204415</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.20016</v>
+        <v>0.205255</v>
       </c>
       <c r="C29" t="n">
-        <v>0.191523</v>
+        <v>0.196097</v>
       </c>
       <c r="D29" t="n">
-        <v>0.202498</v>
+        <v>0.205251</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.201817</v>
+        <v>0.206118</v>
       </c>
       <c r="C30" t="n">
-        <v>0.192878</v>
+        <v>0.196812</v>
       </c>
       <c r="D30" t="n">
-        <v>0.203347</v>
+        <v>0.207647</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.201539</v>
+        <v>0.204829</v>
       </c>
       <c r="C31" t="n">
-        <v>0.193003</v>
+        <v>0.197543</v>
       </c>
       <c r="D31" t="n">
-        <v>0.204576</v>
+        <v>0.207484</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202644</v>
+        <v>0.205774</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194447</v>
+        <v>0.19924</v>
       </c>
       <c r="D32" t="n">
-        <v>0.20502</v>
+        <v>0.208528</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.205168</v>
+        <v>0.206955</v>
       </c>
       <c r="C33" t="n">
-        <v>0.196191</v>
+        <v>0.199894</v>
       </c>
       <c r="D33" t="n">
-        <v>0.206634</v>
+        <v>0.210169</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.206092</v>
+        <v>0.208083</v>
       </c>
       <c r="C34" t="n">
-        <v>0.19863</v>
+        <v>0.202469</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209135</v>
+        <v>0.213137</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.207417</v>
+        <v>0.209773</v>
       </c>
       <c r="C35" t="n">
-        <v>0.201025</v>
+        <v>0.204474</v>
       </c>
       <c r="D35" t="n">
-        <v>0.212966</v>
+        <v>0.216635</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210267</v>
+        <v>0.214404</v>
       </c>
       <c r="C36" t="n">
-        <v>0.203766</v>
+        <v>0.207325</v>
       </c>
       <c r="D36" t="n">
-        <v>0.217202</v>
+        <v>0.220192</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212276</v>
+        <v>0.214861</v>
       </c>
       <c r="C37" t="n">
-        <v>0.208229</v>
+        <v>0.211563</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220741</v>
+        <v>0.219462</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232691</v>
+        <v>0.232074</v>
       </c>
       <c r="C38" t="n">
-        <v>0.208903</v>
+        <v>0.211771</v>
       </c>
       <c r="D38" t="n">
-        <v>0.220046</v>
+        <v>0.221573</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233601</v>
+        <v>0.235495</v>
       </c>
       <c r="C39" t="n">
-        <v>0.209981</v>
+        <v>0.211498</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220084</v>
+        <v>0.221643</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232156</v>
+        <v>0.235772</v>
       </c>
       <c r="C40" t="n">
-        <v>0.210796</v>
+        <v>0.212091</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220825</v>
+        <v>0.222169</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.232599</v>
+        <v>0.233683</v>
       </c>
       <c r="C41" t="n">
-        <v>0.211012</v>
+        <v>0.213056</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221089</v>
+        <v>0.223163</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.233989</v>
+        <v>0.233533</v>
       </c>
       <c r="C42" t="n">
-        <v>0.212712</v>
+        <v>0.214379</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222495</v>
+        <v>0.224141</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.233781</v>
+        <v>0.234742</v>
       </c>
       <c r="C43" t="n">
-        <v>0.212947</v>
+        <v>0.213904</v>
       </c>
       <c r="D43" t="n">
-        <v>0.222305</v>
+        <v>0.22414</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.233244</v>
+        <v>0.232797</v>
       </c>
       <c r="C44" t="n">
-        <v>0.213498</v>
+        <v>0.216399</v>
       </c>
       <c r="D44" t="n">
-        <v>0.223036</v>
+        <v>0.226336</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.2333</v>
+        <v>0.234791</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214519</v>
+        <v>0.215216</v>
       </c>
       <c r="D45" t="n">
-        <v>0.224293</v>
+        <v>0.225402</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.234982</v>
+        <v>0.237394</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21731</v>
+        <v>0.21797</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226798</v>
+        <v>0.228086</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.234458</v>
+        <v>0.239088</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217848</v>
+        <v>0.218599</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227786</v>
+        <v>0.229167</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.234387</v>
+        <v>0.237791</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219277</v>
+        <v>0.2205</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229612</v>
+        <v>0.231287</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235979</v>
+        <v>0.238054</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222043</v>
+        <v>0.222426</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232911</v>
+        <v>0.234464</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238412</v>
+        <v>0.240033</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225972</v>
+        <v>0.225746</v>
       </c>
       <c r="D50" t="n">
-        <v>0.237881</v>
+        <v>0.238766</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.241162</v>
+        <v>0.242789</v>
       </c>
       <c r="C51" t="n">
-        <v>0.230997</v>
+        <v>0.230342</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233107</v>
+        <v>0.232587</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.245209</v>
+        <v>0.247874</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237453</v>
+        <v>0.237245</v>
       </c>
       <c r="D52" t="n">
-        <v>0.234234</v>
+        <v>0.233298</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.259143</v>
+        <v>0.254492</v>
       </c>
       <c r="C53" t="n">
-        <v>0.225404</v>
+        <v>0.22602</v>
       </c>
       <c r="D53" t="n">
-        <v>0.233396</v>
+        <v>0.234853</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.261375</v>
+        <v>0.260359</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226184</v>
+        <v>0.225678</v>
       </c>
       <c r="D54" t="n">
-        <v>0.23274</v>
+        <v>0.235034</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.261813</v>
+        <v>0.259789</v>
       </c>
       <c r="C55" t="n">
-        <v>0.22788</v>
+        <v>0.226019</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234806</v>
+        <v>0.235947</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259199</v>
+        <v>0.262027</v>
       </c>
       <c r="C56" t="n">
-        <v>0.228591</v>
+        <v>0.227931</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234656</v>
+        <v>0.236965</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.259806</v>
+        <v>0.261527</v>
       </c>
       <c r="C57" t="n">
-        <v>0.22819</v>
+        <v>0.228479</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234724</v>
+        <v>0.237366</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.258995</v>
+        <v>0.261027</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230088</v>
+        <v>0.229858</v>
       </c>
       <c r="D58" t="n">
-        <v>0.235989</v>
+        <v>0.238325</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260708</v>
+        <v>0.260845</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231551</v>
+        <v>0.231314</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237565</v>
+        <v>0.239494</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.260043</v>
+        <v>0.255862</v>
       </c>
       <c r="C60" t="n">
-        <v>0.232134</v>
+        <v>0.232112</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238219</v>
+        <v>0.241294</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260486</v>
+        <v>0.262064</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234606</v>
+        <v>0.233492</v>
       </c>
       <c r="D61" t="n">
-        <v>0.240947</v>
+        <v>0.242296</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260185</v>
+        <v>0.260928</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235482</v>
+        <v>0.235275</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242451</v>
+        <v>0.244721</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263344</v>
+        <v>0.263476</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238805</v>
+        <v>0.23845</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246098</v>
+        <v>0.248794</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264273</v>
+        <v>0.263755</v>
       </c>
       <c r="C64" t="n">
-        <v>0.24164</v>
+        <v>0.241898</v>
       </c>
       <c r="D64" t="n">
-        <v>0.250837</v>
+        <v>0.252967</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268463</v>
+        <v>0.267831</v>
       </c>
       <c r="C65" t="n">
-        <v>0.246094</v>
+        <v>0.247294</v>
       </c>
       <c r="D65" t="n">
-        <v>0.257079</v>
+        <v>0.260229</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.270627</v>
+        <v>0.269324</v>
       </c>
       <c r="C66" t="n">
-        <v>0.252337</v>
+        <v>0.253462</v>
       </c>
       <c r="D66" t="n">
-        <v>0.240248</v>
+        <v>0.242311</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.277349</v>
+        <v>0.275772</v>
       </c>
       <c r="C67" t="n">
-        <v>0.236908</v>
+        <v>0.236184</v>
       </c>
       <c r="D67" t="n">
-        <v>0.24018</v>
+        <v>0.242389</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.277425</v>
+        <v>0.275131</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238104</v>
+        <v>0.237296</v>
       </c>
       <c r="D68" t="n">
-        <v>0.241184</v>
+        <v>0.242608</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.278032</v>
+        <v>0.278794</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238275</v>
+        <v>0.237797</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241207</v>
+        <v>0.243481</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.277881</v>
+        <v>0.277296</v>
       </c>
       <c r="C70" t="n">
-        <v>0.239371</v>
+        <v>0.239009</v>
       </c>
       <c r="D70" t="n">
-        <v>0.241694</v>
+        <v>0.244151</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.278379</v>
+        <v>0.276066</v>
       </c>
       <c r="C71" t="n">
-        <v>0.23965</v>
+        <v>0.240082</v>
       </c>
       <c r="D71" t="n">
-        <v>0.243067</v>
+        <v>0.244613</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.27851</v>
+        <v>0.277022</v>
       </c>
       <c r="C72" t="n">
-        <v>0.240237</v>
+        <v>0.241359</v>
       </c>
       <c r="D72" t="n">
-        <v>0.243618</v>
+        <v>0.245899</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.279351</v>
+        <v>0.278719</v>
       </c>
       <c r="C73" t="n">
-        <v>0.241459</v>
+        <v>0.242579</v>
       </c>
       <c r="D73" t="n">
-        <v>0.244606</v>
+        <v>0.247724</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279596</v>
+        <v>0.277393</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24302</v>
+        <v>0.24429</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246428</v>
+        <v>0.248483</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279681</v>
+        <v>0.278891</v>
       </c>
       <c r="C75" t="n">
-        <v>0.243767</v>
+        <v>0.246282</v>
       </c>
       <c r="D75" t="n">
-        <v>0.247649</v>
+        <v>0.250463</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.279992</v>
+        <v>0.276909</v>
       </c>
       <c r="C76" t="n">
-        <v>0.245898</v>
+        <v>0.247672</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250547</v>
+        <v>0.252962</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.281493</v>
+        <v>0.27958</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246877</v>
+        <v>0.250398</v>
       </c>
       <c r="D77" t="n">
-        <v>0.253365</v>
+        <v>0.2559</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283831</v>
+        <v>0.281884</v>
       </c>
       <c r="C78" t="n">
-        <v>0.251723</v>
+        <v>0.253933</v>
       </c>
       <c r="D78" t="n">
-        <v>0.258289</v>
+        <v>0.261299</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.285499</v>
+        <v>0.284447</v>
       </c>
       <c r="C79" t="n">
-        <v>0.254904</v>
+        <v>0.258412</v>
       </c>
       <c r="D79" t="n">
-        <v>0.26513</v>
+        <v>0.267841</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.289221</v>
+        <v>0.288142</v>
       </c>
       <c r="C80" t="n">
-        <v>0.261334</v>
+        <v>0.264266</v>
       </c>
       <c r="D80" t="n">
-        <v>0.252752</v>
+        <v>0.258718</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.296302</v>
+        <v>0.302775</v>
       </c>
       <c r="C81" t="n">
-        <v>0.241559</v>
+        <v>0.246173</v>
       </c>
       <c r="D81" t="n">
-        <v>0.252591</v>
+        <v>0.257414</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.29898</v>
+        <v>0.303706</v>
       </c>
       <c r="C82" t="n">
-        <v>0.239962</v>
+        <v>0.242835</v>
       </c>
       <c r="D82" t="n">
-        <v>0.251989</v>
+        <v>0.254011</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.298904</v>
+        <v>0.302113</v>
       </c>
       <c r="C83" t="n">
-        <v>0.242048</v>
+        <v>0.247275</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253401</v>
+        <v>0.257414</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.301432</v>
+        <v>0.302729</v>
       </c>
       <c r="C84" t="n">
-        <v>0.244621</v>
+        <v>0.246861</v>
       </c>
       <c r="D84" t="n">
-        <v>0.257302</v>
+        <v>0.255766</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.299585</v>
+        <v>0.306728</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246226</v>
+        <v>0.24739</v>
       </c>
       <c r="D85" t="n">
-        <v>0.256221</v>
+        <v>0.258291</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.301784</v>
+        <v>0.301752</v>
       </c>
       <c r="C86" t="n">
-        <v>0.244716</v>
+        <v>0.247749</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256468</v>
+        <v>0.258676</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.299899</v>
+        <v>0.305292</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244687</v>
+        <v>0.248103</v>
       </c>
       <c r="D87" t="n">
-        <v>0.256405</v>
+        <v>0.260679</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30118</v>
+        <v>0.299169</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246034</v>
+        <v>0.250879</v>
       </c>
       <c r="D88" t="n">
-        <v>0.260201</v>
+        <v>0.263547</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.301942</v>
+        <v>0.305499</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246614</v>
+        <v>0.251517</v>
       </c>
       <c r="D89" t="n">
-        <v>0.259545</v>
+        <v>0.264619</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.302355</v>
+        <v>0.306187</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248463</v>
+        <v>0.253556</v>
       </c>
       <c r="D90" t="n">
-        <v>0.261132</v>
+        <v>0.265931</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.305392</v>
+        <v>0.307912</v>
       </c>
       <c r="C91" t="n">
-        <v>0.254218</v>
+        <v>0.254231</v>
       </c>
       <c r="D91" t="n">
-        <v>0.266697</v>
+        <v>0.268018</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.308083</v>
+        <v>0.306398</v>
       </c>
       <c r="C92" t="n">
-        <v>0.246194</v>
+        <v>0.259588</v>
       </c>
       <c r="D92" t="n">
-        <v>0.262446</v>
+        <v>0.273788</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.296046</v>
+        <v>0.310419</v>
       </c>
       <c r="C93" t="n">
-        <v>0.257261</v>
+        <v>0.261799</v>
       </c>
       <c r="D93" t="n">
-        <v>0.275618</v>
+        <v>0.280298</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.311613</v>
+        <v>0.311964</v>
       </c>
       <c r="C94" t="n">
-        <v>0.258909</v>
+        <v>0.266005</v>
       </c>
       <c r="D94" t="n">
-        <v>0.395746</v>
+        <v>0.423771</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.485608</v>
+        <v>0.50974</v>
       </c>
       <c r="C95" t="n">
-        <v>0.380275</v>
+        <v>0.430969</v>
       </c>
       <c r="D95" t="n">
-        <v>0.37457</v>
+        <v>0.413614</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.457117</v>
+        <v>0.506814</v>
       </c>
       <c r="C96" t="n">
-        <v>0.376977</v>
+        <v>0.429426</v>
       </c>
       <c r="D96" t="n">
-        <v>0.365901</v>
+        <v>0.412615</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.434689</v>
+        <v>0.502968</v>
       </c>
       <c r="C97" t="n">
-        <v>0.387169</v>
+        <v>0.431752</v>
       </c>
       <c r="D97" t="n">
-        <v>0.371069</v>
+        <v>0.418529</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.429474</v>
+        <v>0.505306</v>
       </c>
       <c r="C98" t="n">
-        <v>0.420853</v>
+        <v>0.430337</v>
       </c>
       <c r="D98" t="n">
-        <v>0.40684</v>
+        <v>0.414825</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.484445</v>
+        <v>0.500115</v>
       </c>
       <c r="C99" t="n">
-        <v>0.412198</v>
+        <v>0.430258</v>
       </c>
       <c r="D99" t="n">
-        <v>0.393666</v>
+        <v>0.416804</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.484944</v>
+        <v>0.506889</v>
       </c>
       <c r="C100" t="n">
-        <v>0.423324</v>
+        <v>0.429835</v>
       </c>
       <c r="D100" t="n">
-        <v>0.40625</v>
+        <v>0.415804</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.49576</v>
+        <v>0.50291</v>
       </c>
       <c r="C101" t="n">
-        <v>0.414864</v>
+        <v>0.434615</v>
       </c>
       <c r="D101" t="n">
-        <v>0.405048</v>
+        <v>0.422189</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.488797</v>
+        <v>0.505623</v>
       </c>
       <c r="C102" t="n">
-        <v>0.420177</v>
+        <v>0.431422</v>
       </c>
       <c r="D102" t="n">
-        <v>0.409096</v>
+        <v>0.417682</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.484959</v>
+        <v>0.504656</v>
       </c>
       <c r="C103" t="n">
-        <v>0.422607</v>
+        <v>0.43797</v>
       </c>
       <c r="D103" t="n">
-        <v>0.409932</v>
+        <v>0.424928</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.487798</v>
+        <v>0.504825</v>
       </c>
       <c r="C104" t="n">
-        <v>0.398917</v>
+        <v>0.438307</v>
       </c>
       <c r="D104" t="n">
-        <v>0.395255</v>
+        <v>0.428187</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.443965</v>
+        <v>0.503095</v>
       </c>
       <c r="C105" t="n">
-        <v>0.421933</v>
+        <v>0.444485</v>
       </c>
       <c r="D105" t="n">
-        <v>0.413785</v>
+        <v>0.431458</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.49533</v>
+        <v>0.50475</v>
       </c>
       <c r="C106" t="n">
-        <v>0.39771</v>
+        <v>0.443805</v>
       </c>
       <c r="D106" t="n">
-        <v>0.391738</v>
+        <v>0.433365</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.450368</v>
+        <v>0.505699</v>
       </c>
       <c r="C107" t="n">
-        <v>0.430456</v>
+        <v>0.451056</v>
       </c>
       <c r="D107" t="n">
-        <v>0.422505</v>
+        <v>0.440519</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.489429</v>
+        <v>0.507787</v>
       </c>
       <c r="C108" t="n">
-        <v>0.437244</v>
+        <v>0.4509</v>
       </c>
       <c r="D108" t="n">
-        <v>0.645365</v>
+        <v>0.710371</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.493156</v>
+        <v>0.509269</v>
       </c>
       <c r="C109" t="n">
-        <v>0.444748</v>
+        <v>0.458562</v>
       </c>
       <c r="D109" t="n">
-        <v>0.652023</v>
+        <v>0.710861</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.778564</v>
+        <v>0.836471</v>
       </c>
       <c r="C110" t="n">
-        <v>0.646877</v>
+        <v>0.704161</v>
       </c>
       <c r="D110" t="n">
-        <v>0.666188</v>
+        <v>0.713643</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7757500000000001</v>
+        <v>0.832471</v>
       </c>
       <c r="C111" t="n">
-        <v>0.663876</v>
+        <v>0.7069879999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.667489</v>
+        <v>0.713985</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.778408</v>
+        <v>0.827135</v>
       </c>
       <c r="C112" t="n">
-        <v>0.665144</v>
+        <v>0.70679</v>
       </c>
       <c r="D112" t="n">
-        <v>0.655293</v>
+        <v>0.715861</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.778294</v>
+        <v>0.82992</v>
       </c>
       <c r="C113" t="n">
-        <v>0.665693</v>
+        <v>0.709097</v>
       </c>
       <c r="D113" t="n">
-        <v>0.671602</v>
+        <v>0.717726</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.766886</v>
+        <v>0.826874</v>
       </c>
       <c r="C114" t="n">
-        <v>0.668163</v>
+        <v>0.71271</v>
       </c>
       <c r="D114" t="n">
-        <v>0.672885</v>
+        <v>0.718758</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.776041</v>
+        <v>0.828341</v>
       </c>
       <c r="C115" t="n">
-        <v>0.668418</v>
+        <v>0.713323</v>
       </c>
       <c r="D115" t="n">
-        <v>0.673561</v>
+        <v>0.7208830000000001</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.766365</v>
+        <v>0.831559</v>
       </c>
       <c r="C116" t="n">
-        <v>0.669548</v>
+        <v>0.715195</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6749000000000001</v>
+        <v>0.7232730000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.765724</v>
+        <v>0.82921</v>
       </c>
       <c r="C117" t="n">
-        <v>0.672006</v>
+        <v>0.717684</v>
       </c>
       <c r="D117" t="n">
-        <v>0.677625</v>
+        <v>0.724174</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.774896</v>
+        <v>0.8303469999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.674774</v>
+        <v>0.719754</v>
       </c>
       <c r="D118" t="n">
-        <v>0.680491</v>
+        <v>0.728972</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.779425</v>
+        <v>0.8284899999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>0.678771</v>
+        <v>0.723538</v>
       </c>
       <c r="D119" t="n">
-        <v>0.684906</v>
+        <v>0.73147</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.782256</v>
+        <v>0.8279339999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.681438</v>
+        <v>0.7276049999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.677086</v>
+        <v>0.737972</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.781751</v>
+        <v>0.829052</v>
       </c>
       <c r="C121" t="n">
-        <v>0.671875</v>
+        <v>0.731459</v>
       </c>
       <c r="D121" t="n">
-        <v>0.695752</v>
+        <v>0.744007</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.777748</v>
+        <v>0.829381</v>
       </c>
       <c r="C122" t="n">
-        <v>0.693705</v>
+        <v>0.739042</v>
       </c>
       <c r="D122" t="n">
-        <v>0.705114</v>
+        <v>0.753535</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.770996</v>
+        <v>0.828623</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6879769999999999</v>
+        <v>0.750336</v>
       </c>
       <c r="D123" t="n">
-        <v>0.780477</v>
+        <v>0.832462</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.0336</v>
+        <v>1.11314</v>
       </c>
       <c r="C124" t="n">
-        <v>0.769831</v>
+        <v>0.821626</v>
       </c>
       <c r="D124" t="n">
-        <v>0.779388</v>
+        <v>0.8269</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04115</v>
+        <v>1.11228</v>
       </c>
       <c r="C125" t="n">
-        <v>0.770746</v>
+        <v>0.822229</v>
       </c>
       <c r="D125" t="n">
-        <v>0.781552</v>
+        <v>0.83509</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.01805</v>
+        <v>1.0944</v>
       </c>
       <c r="C126" t="n">
-        <v>0.772187</v>
+        <v>0.824156</v>
       </c>
       <c r="D126" t="n">
-        <v>0.775603</v>
+        <v>0.830356</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03326</v>
+        <v>1.11305</v>
       </c>
       <c r="C127" t="n">
-        <v>0.773031</v>
+        <v>0.818689</v>
       </c>
       <c r="D127" t="n">
-        <v>0.784328</v>
+        <v>0.839297</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04057</v>
+        <v>1.11358</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7740320000000001</v>
+        <v>0.826191</v>
       </c>
       <c r="D128" t="n">
-        <v>0.778905</v>
+        <v>0.840014</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03579</v>
+        <v>1.11102</v>
       </c>
       <c r="C129" t="n">
-        <v>0.769749</v>
+        <v>0.828178</v>
       </c>
       <c r="D129" t="n">
-        <v>0.781576</v>
+        <v>0.84179</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03577</v>
+        <v>1.11114</v>
       </c>
       <c r="C130" t="n">
-        <v>0.778551</v>
+        <v>0.830404</v>
       </c>
       <c r="D130" t="n">
-        <v>0.79166</v>
+        <v>0.844607</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04287</v>
+        <v>1.11384</v>
       </c>
       <c r="C131" t="n">
-        <v>0.775505</v>
+        <v>0.82741</v>
       </c>
       <c r="D131" t="n">
-        <v>0.794793</v>
+        <v>0.841018</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04574</v>
+        <v>1.09409</v>
       </c>
       <c r="C132" t="n">
-        <v>0.785813</v>
+        <v>0.839098</v>
       </c>
       <c r="D132" t="n">
-        <v>0.798723</v>
+        <v>0.852858</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03896</v>
+        <v>1.11541</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7899350000000001</v>
+        <v>0.84211</v>
       </c>
       <c r="D133" t="n">
-        <v>0.80385</v>
+        <v>0.850939</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04234</v>
+        <v>1.11412</v>
       </c>
       <c r="C134" t="n">
-        <v>0.795084</v>
+        <v>0.84787</v>
       </c>
       <c r="D134" t="n">
-        <v>0.810669</v>
+        <v>0.864766</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.03792</v>
+        <v>1.12101</v>
       </c>
       <c r="C135" t="n">
-        <v>0.801495</v>
+        <v>0.855116</v>
       </c>
       <c r="D135" t="n">
-        <v>0.821025</v>
+        <v>0.870352</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03821</v>
+        <v>1.09772</v>
       </c>
       <c r="C136" t="n">
-        <v>0.810808</v>
+        <v>0.866085</v>
       </c>
       <c r="D136" t="n">
-        <v>0.8339029999999999</v>
+        <v>0.891008</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04702</v>
+        <v>1.11621</v>
       </c>
       <c r="C137" t="n">
-        <v>0.822983</v>
+        <v>0.880003</v>
       </c>
       <c r="D137" t="n">
-        <v>0.82956</v>
+        <v>0.885767</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25101</v>
+        <v>1.3628</v>
       </c>
       <c r="C138" t="n">
-        <v>0.817267</v>
+        <v>0.8707279999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.831228</v>
+        <v>0.886836</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.2636</v>
+        <v>1.36207</v>
       </c>
       <c r="C139" t="n">
-        <v>0.816019</v>
+        <v>0.871938</v>
       </c>
       <c r="D139" t="n">
-        <v>0.830373</v>
+        <v>0.8889629999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26532</v>
+        <v>1.36305</v>
       </c>
       <c r="C140" t="n">
-        <v>0.821024</v>
+        <v>0.87301</v>
       </c>
       <c r="D140" t="n">
-        <v>0.832573</v>
+        <v>0.8908160000000001</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26514</v>
+        <v>1.36432</v>
       </c>
       <c r="C141" t="n">
-        <v>0.818995</v>
+        <v>0.875466</v>
       </c>
       <c r="D141" t="n">
-        <v>0.836039</v>
+        <v>0.892636</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.25038</v>
+        <v>1.36389</v>
       </c>
       <c r="C142" t="n">
-        <v>0.822895</v>
+        <v>0.877922</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8391380000000001</v>
+        <v>0.895226</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26428</v>
+        <v>1.36424</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8269609999999999</v>
+        <v>0.88029</v>
       </c>
       <c r="D143" t="n">
-        <v>0.84106</v>
+        <v>0.897381</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175832</v>
+        <v>0.175113</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187526</v>
+        <v>0.187022</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196873</v>
+        <v>0.196809</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176682</v>
+        <v>0.175567</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188129</v>
+        <v>0.187677</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197467</v>
+        <v>0.197289</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177384</v>
+        <v>0.176338</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18912</v>
+        <v>0.18861</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198805</v>
+        <v>0.198543</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177729</v>
+        <v>0.177019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190633</v>
+        <v>0.190081</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20052</v>
+        <v>0.200238</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178678</v>
+        <v>0.17838</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192477</v>
+        <v>0.192013</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202604</v>
+        <v>0.20305</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.180305</v>
+        <v>0.179785</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194475</v>
+        <v>0.193988</v>
       </c>
       <c r="D7" t="n">
-        <v>0.20563</v>
+        <v>0.205358</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182488</v>
+        <v>0.181718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.197376</v>
+        <v>0.196849</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210182</v>
+        <v>0.20984</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.186262</v>
+        <v>0.185455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.201194</v>
+        <v>0.200601</v>
       </c>
       <c r="D9" t="n">
-        <v>0.194997</v>
+        <v>0.19533</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.188041</v>
+        <v>0.183456</v>
       </c>
       <c r="C10" t="n">
-        <v>0.190395</v>
+        <v>0.187442</v>
       </c>
       <c r="D10" t="n">
-        <v>0.196299</v>
+        <v>0.193842</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.184878</v>
+        <v>0.181192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.187647</v>
+        <v>0.186458</v>
       </c>
       <c r="D11" t="n">
-        <v>0.194797</v>
+        <v>0.193907</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.187097</v>
+        <v>0.18558</v>
       </c>
       <c r="C12" t="n">
-        <v>0.189881</v>
+        <v>0.189002</v>
       </c>
       <c r="D12" t="n">
-        <v>0.196087</v>
+        <v>0.196112</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.189467</v>
+        <v>0.182423</v>
       </c>
       <c r="C13" t="n">
-        <v>0.192308</v>
+        <v>0.187952</v>
       </c>
       <c r="D13" t="n">
-        <v>0.197705</v>
+        <v>0.19511</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.185879</v>
+        <v>0.182412</v>
       </c>
       <c r="C14" t="n">
-        <v>0.189728</v>
+        <v>0.188183</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196463</v>
+        <v>0.195706</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.187168</v>
+        <v>0.18605</v>
       </c>
       <c r="C15" t="n">
-        <v>0.192426</v>
+        <v>0.191371</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1997</v>
+        <v>0.198254</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.189439</v>
+        <v>0.184397</v>
       </c>
       <c r="C16" t="n">
-        <v>0.192759</v>
+        <v>0.189438</v>
       </c>
       <c r="D16" t="n">
-        <v>0.198486</v>
+        <v>0.196308</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.184696</v>
+        <v>0.182721</v>
       </c>
       <c r="C17" t="n">
-        <v>0.19059</v>
+        <v>0.189837</v>
       </c>
       <c r="D17" t="n">
-        <v>0.198159</v>
+        <v>0.197438</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.189574</v>
+        <v>0.18619</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19435</v>
+        <v>0.19292</v>
       </c>
       <c r="D18" t="n">
-        <v>0.201012</v>
+        <v>0.199682</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.191618</v>
+        <v>0.188055</v>
       </c>
       <c r="C19" t="n">
-        <v>0.197167</v>
+        <v>0.193384</v>
       </c>
       <c r="D19" t="n">
-        <v>0.204224</v>
+        <v>0.200637</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18815</v>
+        <v>0.187296</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195538</v>
+        <v>0.194605</v>
       </c>
       <c r="D20" t="n">
-        <v>0.203609</v>
+        <v>0.202605</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.193507</v>
+        <v>0.188898</v>
       </c>
       <c r="C21" t="n">
-        <v>0.200676</v>
+        <v>0.196327</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2087</v>
+        <v>0.205312</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.194224</v>
+        <v>0.189569</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202722</v>
+        <v>0.198259</v>
       </c>
       <c r="D22" t="n">
-        <v>0.211687</v>
+        <v>0.208668</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.19579</v>
+        <v>0.194016</v>
       </c>
       <c r="C23" t="n">
-        <v>0.20294</v>
+        <v>0.20177</v>
       </c>
       <c r="D23" t="n">
-        <v>0.203087</v>
+        <v>0.201685</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.203572</v>
+        <v>0.20417</v>
       </c>
       <c r="C24" t="n">
-        <v>0.194148</v>
+        <v>0.189872</v>
       </c>
       <c r="D24" t="n">
-        <v>0.203597</v>
+        <v>0.200826</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.203541</v>
+        <v>0.204049</v>
       </c>
       <c r="C25" t="n">
-        <v>0.193323</v>
+        <v>0.191291</v>
       </c>
       <c r="D25" t="n">
-        <v>0.204505</v>
+        <v>0.201872</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.206149</v>
+        <v>0.203448</v>
       </c>
       <c r="C26" t="n">
-        <v>0.193934</v>
+        <v>0.191585</v>
       </c>
       <c r="D26" t="n">
-        <v>0.204242</v>
+        <v>0.202866</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.206096</v>
+        <v>0.202834</v>
       </c>
       <c r="C27" t="n">
-        <v>0.194715</v>
+        <v>0.191914</v>
       </c>
       <c r="D27" t="n">
-        <v>0.20358</v>
+        <v>0.203274</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.205399</v>
+        <v>0.203326</v>
       </c>
       <c r="C28" t="n">
-        <v>0.195156</v>
+        <v>0.192574</v>
       </c>
       <c r="D28" t="n">
-        <v>0.204415</v>
+        <v>0.204678</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.205255</v>
+        <v>0.203622</v>
       </c>
       <c r="C29" t="n">
-        <v>0.196097</v>
+        <v>0.193173</v>
       </c>
       <c r="D29" t="n">
-        <v>0.205251</v>
+        <v>0.205284</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.206118</v>
+        <v>0.203741</v>
       </c>
       <c r="C30" t="n">
-        <v>0.196812</v>
+        <v>0.194016</v>
       </c>
       <c r="D30" t="n">
-        <v>0.207647</v>
+        <v>0.206477</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204829</v>
+        <v>0.204294</v>
       </c>
       <c r="C31" t="n">
-        <v>0.197543</v>
+        <v>0.195178</v>
       </c>
       <c r="D31" t="n">
-        <v>0.207484</v>
+        <v>0.206915</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205774</v>
+        <v>0.20474</v>
       </c>
       <c r="C32" t="n">
-        <v>0.19924</v>
+        <v>0.196406</v>
       </c>
       <c r="D32" t="n">
-        <v>0.208528</v>
+        <v>0.207628</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.206955</v>
+        <v>0.20474</v>
       </c>
       <c r="C33" t="n">
-        <v>0.199894</v>
+        <v>0.197901</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210169</v>
+        <v>0.209792</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.208083</v>
+        <v>0.206276</v>
       </c>
       <c r="C34" t="n">
-        <v>0.202469</v>
+        <v>0.199599</v>
       </c>
       <c r="D34" t="n">
-        <v>0.213137</v>
+        <v>0.210607</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.209773</v>
+        <v>0.20809</v>
       </c>
       <c r="C35" t="n">
-        <v>0.204474</v>
+        <v>0.201623</v>
       </c>
       <c r="D35" t="n">
-        <v>0.216635</v>
+        <v>0.214323</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.214404</v>
+        <v>0.208891</v>
       </c>
       <c r="C36" t="n">
-        <v>0.207325</v>
+        <v>0.204437</v>
       </c>
       <c r="D36" t="n">
-        <v>0.220192</v>
+        <v>0.219523</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.214861</v>
+        <v>0.211387</v>
       </c>
       <c r="C37" t="n">
-        <v>0.211563</v>
+        <v>0.207936</v>
       </c>
       <c r="D37" t="n">
-        <v>0.219462</v>
+        <v>0.220064</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232074</v>
+        <v>0.233989</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211771</v>
+        <v>0.207734</v>
       </c>
       <c r="D38" t="n">
-        <v>0.221573</v>
+        <v>0.219785</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.235495</v>
+        <v>0.232353</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211498</v>
+        <v>0.211102</v>
       </c>
       <c r="D39" t="n">
-        <v>0.221643</v>
+        <v>0.221411</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.235772</v>
+        <v>0.231882</v>
       </c>
       <c r="C40" t="n">
-        <v>0.212091</v>
+        <v>0.210901</v>
       </c>
       <c r="D40" t="n">
-        <v>0.222169</v>
+        <v>0.222056</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233683</v>
+        <v>0.233435</v>
       </c>
       <c r="C41" t="n">
-        <v>0.213056</v>
+        <v>0.212738</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223163</v>
+        <v>0.223303</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.233533</v>
+        <v>0.233215</v>
       </c>
       <c r="C42" t="n">
-        <v>0.214379</v>
+        <v>0.211519</v>
       </c>
       <c r="D42" t="n">
-        <v>0.224141</v>
+        <v>0.222344</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.234742</v>
+        <v>0.230775</v>
       </c>
       <c r="C43" t="n">
-        <v>0.213904</v>
+        <v>0.212693</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22414</v>
+        <v>0.222978</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.232797</v>
+        <v>0.231848</v>
       </c>
       <c r="C44" t="n">
-        <v>0.216399</v>
+        <v>0.211743</v>
       </c>
       <c r="D44" t="n">
-        <v>0.226336</v>
+        <v>0.221845</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.234791</v>
+        <v>0.233581</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215216</v>
+        <v>0.215433</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225402</v>
+        <v>0.225201</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.237394</v>
+        <v>0.233323</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21797</v>
+        <v>0.21635</v>
       </c>
       <c r="D46" t="n">
-        <v>0.228086</v>
+        <v>0.226166</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.239088</v>
+        <v>0.233384</v>
       </c>
       <c r="C47" t="n">
-        <v>0.218599</v>
+        <v>0.216768</v>
       </c>
       <c r="D47" t="n">
-        <v>0.229167</v>
+        <v>0.227229</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.237791</v>
+        <v>0.23531</v>
       </c>
       <c r="C48" t="n">
-        <v>0.2205</v>
+        <v>0.219876</v>
       </c>
       <c r="D48" t="n">
-        <v>0.231287</v>
+        <v>0.230429</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.238054</v>
+        <v>0.236704</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222426</v>
+        <v>0.222005</v>
       </c>
       <c r="D49" t="n">
-        <v>0.234464</v>
+        <v>0.232727</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.240033</v>
+        <v>0.238612</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225746</v>
+        <v>0.224643</v>
       </c>
       <c r="D50" t="n">
-        <v>0.238766</v>
+        <v>0.238569</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.242789</v>
+        <v>0.241991</v>
       </c>
       <c r="C51" t="n">
-        <v>0.230342</v>
+        <v>0.228838</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232587</v>
+        <v>0.23227</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.247874</v>
+        <v>0.246691</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237245</v>
+        <v>0.236796</v>
       </c>
       <c r="D52" t="n">
-        <v>0.233298</v>
+        <v>0.232905</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.254492</v>
+        <v>0.259434</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22602</v>
+        <v>0.226337</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234853</v>
+        <v>0.234371</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260359</v>
+        <v>0.25983</v>
       </c>
       <c r="C54" t="n">
-        <v>0.225678</v>
+        <v>0.225412</v>
       </c>
       <c r="D54" t="n">
-        <v>0.235034</v>
+        <v>0.234615</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259789</v>
+        <v>0.256484</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226019</v>
+        <v>0.227399</v>
       </c>
       <c r="D55" t="n">
-        <v>0.235947</v>
+        <v>0.233865</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.262027</v>
+        <v>0.258311</v>
       </c>
       <c r="C56" t="n">
-        <v>0.227931</v>
+        <v>0.22898</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236965</v>
+        <v>0.236266</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.261527</v>
+        <v>0.257769</v>
       </c>
       <c r="C57" t="n">
-        <v>0.228479</v>
+        <v>0.229788</v>
       </c>
       <c r="D57" t="n">
-        <v>0.237366</v>
+        <v>0.235558</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.261027</v>
+        <v>0.259741</v>
       </c>
       <c r="C58" t="n">
-        <v>0.229858</v>
+        <v>0.230476</v>
       </c>
       <c r="D58" t="n">
-        <v>0.238325</v>
+        <v>0.235937</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260845</v>
+        <v>0.262196</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231314</v>
+        <v>0.232299</v>
       </c>
       <c r="D59" t="n">
-        <v>0.239494</v>
+        <v>0.238887</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.255862</v>
+        <v>0.25857</v>
       </c>
       <c r="C60" t="n">
-        <v>0.232112</v>
+        <v>0.233839</v>
       </c>
       <c r="D60" t="n">
-        <v>0.241294</v>
+        <v>0.240175</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262064</v>
+        <v>0.260545</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233492</v>
+        <v>0.233843</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242296</v>
+        <v>0.239817</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.260928</v>
+        <v>0.26023</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235275</v>
+        <v>0.23656</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244721</v>
+        <v>0.243999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.263476</v>
+        <v>0.264317</v>
       </c>
       <c r="C63" t="n">
-        <v>0.23845</v>
+        <v>0.238915</v>
       </c>
       <c r="D63" t="n">
-        <v>0.248794</v>
+        <v>0.245684</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263755</v>
+        <v>0.264375</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241898</v>
+        <v>0.241225</v>
       </c>
       <c r="D64" t="n">
-        <v>0.252967</v>
+        <v>0.250779</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.267831</v>
+        <v>0.265434</v>
       </c>
       <c r="C65" t="n">
-        <v>0.247294</v>
+        <v>0.245862</v>
       </c>
       <c r="D65" t="n">
-        <v>0.260229</v>
+        <v>0.257219</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269324</v>
+        <v>0.271669</v>
       </c>
       <c r="C66" t="n">
-        <v>0.253462</v>
+        <v>0.250803</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242311</v>
+        <v>0.241448</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.275772</v>
+        <v>0.270069</v>
       </c>
       <c r="C67" t="n">
-        <v>0.236184</v>
+        <v>0.238269</v>
       </c>
       <c r="D67" t="n">
-        <v>0.242389</v>
+        <v>0.240396</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.275131</v>
+        <v>0.278491</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237296</v>
+        <v>0.239029</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242608</v>
+        <v>0.241479</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.278794</v>
+        <v>0.279667</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237797</v>
+        <v>0.240281</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243481</v>
+        <v>0.243465</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.277296</v>
+        <v>0.278927</v>
       </c>
       <c r="C70" t="n">
-        <v>0.239009</v>
+        <v>0.241177</v>
       </c>
       <c r="D70" t="n">
-        <v>0.244151</v>
+        <v>0.243941</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.276066</v>
+        <v>0.278843</v>
       </c>
       <c r="C71" t="n">
-        <v>0.240082</v>
+        <v>0.241496</v>
       </c>
       <c r="D71" t="n">
-        <v>0.244613</v>
+        <v>0.244638</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.277022</v>
+        <v>0.279031</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241359</v>
+        <v>0.243182</v>
       </c>
       <c r="D72" t="n">
-        <v>0.245899</v>
+        <v>0.244369</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.278719</v>
+        <v>0.278847</v>
       </c>
       <c r="C73" t="n">
-        <v>0.242579</v>
+        <v>0.244473</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247724</v>
+        <v>0.244702</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.277393</v>
+        <v>0.279624</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24429</v>
+        <v>0.24477</v>
       </c>
       <c r="D74" t="n">
-        <v>0.248483</v>
+        <v>0.248326</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278891</v>
+        <v>0.279691</v>
       </c>
       <c r="C75" t="n">
-        <v>0.246282</v>
+        <v>0.247571</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250463</v>
+        <v>0.250199</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.276909</v>
+        <v>0.281466</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247672</v>
+        <v>0.249321</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252962</v>
+        <v>0.252446</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.27958</v>
+        <v>0.281721</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250398</v>
+        <v>0.251677</v>
       </c>
       <c r="D77" t="n">
-        <v>0.2559</v>
+        <v>0.255724</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.281884</v>
+        <v>0.283357</v>
       </c>
       <c r="C78" t="n">
-        <v>0.253933</v>
+        <v>0.254822</v>
       </c>
       <c r="D78" t="n">
-        <v>0.261299</v>
+        <v>0.25967</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.284447</v>
+        <v>0.286727</v>
       </c>
       <c r="C79" t="n">
-        <v>0.258412</v>
+        <v>0.258969</v>
       </c>
       <c r="D79" t="n">
-        <v>0.267841</v>
+        <v>0.267571</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.288142</v>
+        <v>0.290017</v>
       </c>
       <c r="C80" t="n">
-        <v>0.264266</v>
+        <v>0.265317</v>
       </c>
       <c r="D80" t="n">
-        <v>0.258718</v>
+        <v>0.250716</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.302775</v>
+        <v>0.302745</v>
       </c>
       <c r="C81" t="n">
-        <v>0.246173</v>
+        <v>0.233686</v>
       </c>
       <c r="D81" t="n">
-        <v>0.257414</v>
+        <v>0.244632</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.303706</v>
+        <v>0.297723</v>
       </c>
       <c r="C82" t="n">
-        <v>0.242835</v>
+        <v>0.241649</v>
       </c>
       <c r="D82" t="n">
-        <v>0.254011</v>
+        <v>0.252896</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.302113</v>
+        <v>0.301884</v>
       </c>
       <c r="C83" t="n">
-        <v>0.247275</v>
+        <v>0.246385</v>
       </c>
       <c r="D83" t="n">
-        <v>0.257414</v>
+        <v>0.253474</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.302729</v>
+        <v>0.301882</v>
       </c>
       <c r="C84" t="n">
-        <v>0.246861</v>
+        <v>0.237982</v>
       </c>
       <c r="D84" t="n">
-        <v>0.255766</v>
+        <v>0.247884</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.306728</v>
+        <v>0.29235</v>
       </c>
       <c r="C85" t="n">
-        <v>0.24739</v>
+        <v>0.246056</v>
       </c>
       <c r="D85" t="n">
-        <v>0.258291</v>
+        <v>0.254503</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.301752</v>
+        <v>0.303165</v>
       </c>
       <c r="C86" t="n">
-        <v>0.247749</v>
+        <v>0.239858</v>
       </c>
       <c r="D86" t="n">
-        <v>0.258676</v>
+        <v>0.252461</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.305292</v>
+        <v>0.297379</v>
       </c>
       <c r="C87" t="n">
-        <v>0.248103</v>
+        <v>0.23678</v>
       </c>
       <c r="D87" t="n">
-        <v>0.260679</v>
+        <v>0.248854</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299169</v>
+        <v>0.293895</v>
       </c>
       <c r="C88" t="n">
-        <v>0.250879</v>
+        <v>0.245518</v>
       </c>
       <c r="D88" t="n">
-        <v>0.263547</v>
+        <v>0.257772</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.305499</v>
+        <v>0.303663</v>
       </c>
       <c r="C89" t="n">
-        <v>0.251517</v>
+        <v>0.24537</v>
       </c>
       <c r="D89" t="n">
-        <v>0.264619</v>
+        <v>0.257838</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.306187</v>
+        <v>0.301882</v>
       </c>
       <c r="C90" t="n">
-        <v>0.253556</v>
+        <v>0.250411</v>
       </c>
       <c r="D90" t="n">
-        <v>0.265931</v>
+        <v>0.261874</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.307912</v>
+        <v>0.302638</v>
       </c>
       <c r="C91" t="n">
-        <v>0.254231</v>
+        <v>0.24938</v>
       </c>
       <c r="D91" t="n">
-        <v>0.268018</v>
+        <v>0.264853</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.306398</v>
+        <v>0.307183</v>
       </c>
       <c r="C92" t="n">
-        <v>0.259588</v>
+        <v>0.253757</v>
       </c>
       <c r="D92" t="n">
-        <v>0.273788</v>
+        <v>0.269159</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.310419</v>
+        <v>0.308643</v>
       </c>
       <c r="C93" t="n">
-        <v>0.261799</v>
+        <v>0.258017</v>
       </c>
       <c r="D93" t="n">
-        <v>0.280298</v>
+        <v>0.277016</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.311964</v>
+        <v>0.311931</v>
       </c>
       <c r="C94" t="n">
-        <v>0.266005</v>
+        <v>0.264353</v>
       </c>
       <c r="D94" t="n">
-        <v>0.423771</v>
+        <v>0.376559</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.50974</v>
+        <v>0.482124</v>
       </c>
       <c r="C95" t="n">
-        <v>0.430969</v>
+        <v>0.408583</v>
       </c>
       <c r="D95" t="n">
-        <v>0.413614</v>
+        <v>0.395501</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.506814</v>
+        <v>0.496637</v>
       </c>
       <c r="C96" t="n">
-        <v>0.429426</v>
+        <v>0.411084</v>
       </c>
       <c r="D96" t="n">
-        <v>0.412615</v>
+        <v>0.403684</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.502968</v>
+        <v>0.481361</v>
       </c>
       <c r="C97" t="n">
-        <v>0.431752</v>
+        <v>0.407269</v>
       </c>
       <c r="D97" t="n">
-        <v>0.418529</v>
+        <v>0.400238</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.505306</v>
+        <v>0.492397</v>
       </c>
       <c r="C98" t="n">
-        <v>0.430337</v>
+        <v>0.416947</v>
       </c>
       <c r="D98" t="n">
-        <v>0.414825</v>
+        <v>0.403502</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.500115</v>
+        <v>0.484155</v>
       </c>
       <c r="C99" t="n">
-        <v>0.430258</v>
+        <v>0.410953</v>
       </c>
       <c r="D99" t="n">
-        <v>0.416804</v>
+        <v>0.399547</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.506889</v>
+        <v>0.49085</v>
       </c>
       <c r="C100" t="n">
-        <v>0.429835</v>
+        <v>0.416181</v>
       </c>
       <c r="D100" t="n">
-        <v>0.415804</v>
+        <v>0.409697</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.50291</v>
+        <v>0.482666</v>
       </c>
       <c r="C101" t="n">
-        <v>0.434615</v>
+        <v>0.397448</v>
       </c>
       <c r="D101" t="n">
-        <v>0.422189</v>
+        <v>0.384181</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.505623</v>
+        <v>0.472401</v>
       </c>
       <c r="C102" t="n">
-        <v>0.431422</v>
+        <v>0.387766</v>
       </c>
       <c r="D102" t="n">
-        <v>0.417682</v>
+        <v>0.384554</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.504656</v>
+        <v>0.434005</v>
       </c>
       <c r="C103" t="n">
-        <v>0.43797</v>
+        <v>0.411351</v>
       </c>
       <c r="D103" t="n">
-        <v>0.424928</v>
+        <v>0.401701</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.504825</v>
+        <v>0.491234</v>
       </c>
       <c r="C104" t="n">
-        <v>0.438307</v>
+        <v>0.414697</v>
       </c>
       <c r="D104" t="n">
-        <v>0.428187</v>
+        <v>0.410012</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.503095</v>
+        <v>0.482684</v>
       </c>
       <c r="C105" t="n">
-        <v>0.444485</v>
+        <v>0.42073</v>
       </c>
       <c r="D105" t="n">
-        <v>0.431458</v>
+        <v>0.409778</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.50475</v>
+        <v>0.489749</v>
       </c>
       <c r="C106" t="n">
-        <v>0.443805</v>
+        <v>0.397237</v>
       </c>
       <c r="D106" t="n">
-        <v>0.433365</v>
+        <v>0.399597</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.505699</v>
+        <v>0.44488</v>
       </c>
       <c r="C107" t="n">
-        <v>0.451056</v>
+        <v>0.392362</v>
       </c>
       <c r="D107" t="n">
-        <v>0.440519</v>
+        <v>0.39382</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.507787</v>
+        <v>0.44841</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4509</v>
+        <v>0.438039</v>
       </c>
       <c r="D108" t="n">
-        <v>0.710371</v>
+        <v>0.668017</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.509269</v>
+        <v>0.496416</v>
       </c>
       <c r="C109" t="n">
-        <v>0.458562</v>
+        <v>0.445372</v>
       </c>
       <c r="D109" t="n">
-        <v>0.710861</v>
+        <v>0.655989</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.836471</v>
+        <v>0.786343</v>
       </c>
       <c r="C110" t="n">
-        <v>0.704161</v>
+        <v>0.667258</v>
       </c>
       <c r="D110" t="n">
-        <v>0.713643</v>
+        <v>0.670021</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.832471</v>
+        <v>0.785467</v>
       </c>
       <c r="C111" t="n">
-        <v>0.7069879999999999</v>
+        <v>0.667347</v>
       </c>
       <c r="D111" t="n">
-        <v>0.713985</v>
+        <v>0.671377</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.827135</v>
+        <v>0.783477</v>
       </c>
       <c r="C112" t="n">
-        <v>0.70679</v>
+        <v>0.651598</v>
       </c>
       <c r="D112" t="n">
-        <v>0.715861</v>
+        <v>0.673494</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.82992</v>
+        <v>0.769024</v>
       </c>
       <c r="C113" t="n">
-        <v>0.709097</v>
+        <v>0.669416</v>
       </c>
       <c r="D113" t="n">
-        <v>0.717726</v>
+        <v>0.673747</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.826874</v>
+        <v>0.780448</v>
       </c>
       <c r="C114" t="n">
-        <v>0.71271</v>
+        <v>0.669706</v>
       </c>
       <c r="D114" t="n">
-        <v>0.718758</v>
+        <v>0.662497</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.828341</v>
+        <v>0.783591</v>
       </c>
       <c r="C115" t="n">
-        <v>0.713323</v>
+        <v>0.671098</v>
       </c>
       <c r="D115" t="n">
-        <v>0.7208830000000001</v>
+        <v>0.6769269999999999</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.831559</v>
+        <v>0.768796</v>
       </c>
       <c r="C116" t="n">
-        <v>0.715195</v>
+        <v>0.674055</v>
       </c>
       <c r="D116" t="n">
-        <v>0.7232730000000001</v>
+        <v>0.667423</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.82921</v>
+        <v>0.788975</v>
       </c>
       <c r="C117" t="n">
-        <v>0.717684</v>
+        <v>0.675639</v>
       </c>
       <c r="D117" t="n">
-        <v>0.724174</v>
+        <v>0.680786</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.8303469999999999</v>
+        <v>0.779998</v>
       </c>
       <c r="C118" t="n">
-        <v>0.719754</v>
+        <v>0.661029</v>
       </c>
       <c r="D118" t="n">
-        <v>0.728972</v>
+        <v>0.68403</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.8284899999999999</v>
+        <v>0.786897</v>
       </c>
       <c r="C119" t="n">
-        <v>0.723538</v>
+        <v>0.665247</v>
       </c>
       <c r="D119" t="n">
-        <v>0.73147</v>
+        <v>0.687811</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.8279339999999999</v>
+        <v>0.770456</v>
       </c>
       <c r="C120" t="n">
-        <v>0.7276049999999999</v>
+        <v>0.6841660000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.737972</v>
+        <v>0.693021</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.829052</v>
+        <v>0.778613</v>
       </c>
       <c r="C121" t="n">
-        <v>0.731459</v>
+        <v>0.689423</v>
       </c>
       <c r="D121" t="n">
-        <v>0.744007</v>
+        <v>0.699041</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.829381</v>
+        <v>0.785168</v>
       </c>
       <c r="C122" t="n">
-        <v>0.739042</v>
+        <v>0.695551</v>
       </c>
       <c r="D122" t="n">
-        <v>0.753535</v>
+        <v>0.708933</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.828623</v>
+        <v>0.790569</v>
       </c>
       <c r="C123" t="n">
-        <v>0.750336</v>
+        <v>0.706385</v>
       </c>
       <c r="D123" t="n">
-        <v>0.832462</v>
+        <v>0.782265</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.11314</v>
+        <v>1.04464</v>
       </c>
       <c r="C124" t="n">
-        <v>0.821626</v>
+        <v>0.772932</v>
       </c>
       <c r="D124" t="n">
-        <v>0.8269</v>
+        <v>0.776616</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.11228</v>
+        <v>1.04288</v>
       </c>
       <c r="C125" t="n">
-        <v>0.822229</v>
+        <v>0.76695</v>
       </c>
       <c r="D125" t="n">
-        <v>0.83509</v>
+        <v>0.784904</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.0944</v>
+        <v>1.04402</v>
       </c>
       <c r="C126" t="n">
-        <v>0.824156</v>
+        <v>0.768045</v>
       </c>
       <c r="D126" t="n">
-        <v>0.830356</v>
+        <v>0.786412</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.11305</v>
+        <v>1.02381</v>
       </c>
       <c r="C127" t="n">
-        <v>0.818689</v>
+        <v>0.769594</v>
       </c>
       <c r="D127" t="n">
-        <v>0.839297</v>
+        <v>0.781111</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.11358</v>
+        <v>1.04837</v>
       </c>
       <c r="C128" t="n">
-        <v>0.826191</v>
+        <v>0.77823</v>
       </c>
       <c r="D128" t="n">
-        <v>0.840014</v>
+        <v>0.782585</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.11102</v>
+        <v>1.02264</v>
       </c>
       <c r="C129" t="n">
-        <v>0.828178</v>
+        <v>0.779786</v>
       </c>
       <c r="D129" t="n">
-        <v>0.84179</v>
+        <v>0.78403</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.11114</v>
+        <v>1.04638</v>
       </c>
       <c r="C130" t="n">
-        <v>0.830404</v>
+        <v>0.782261</v>
       </c>
       <c r="D130" t="n">
-        <v>0.844607</v>
+        <v>0.794797</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.11384</v>
+        <v>1.04451</v>
       </c>
       <c r="C131" t="n">
-        <v>0.82741</v>
+        <v>0.785436</v>
       </c>
       <c r="D131" t="n">
-        <v>0.841018</v>
+        <v>0.7908269999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.09409</v>
+        <v>1.02871</v>
       </c>
       <c r="C132" t="n">
-        <v>0.839098</v>
+        <v>0.788388</v>
       </c>
       <c r="D132" t="n">
-        <v>0.852858</v>
+        <v>0.801257</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.11541</v>
+        <v>1.04711</v>
       </c>
       <c r="C133" t="n">
-        <v>0.84211</v>
+        <v>0.793303</v>
       </c>
       <c r="D133" t="n">
-        <v>0.850939</v>
+        <v>0.808093</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.11412</v>
+        <v>1.05071</v>
       </c>
       <c r="C134" t="n">
-        <v>0.84787</v>
+        <v>0.7916879999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.864766</v>
+        <v>0.814194</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.12101</v>
+        <v>1.04832</v>
       </c>
       <c r="C135" t="n">
-        <v>0.855116</v>
+        <v>0.803931</v>
       </c>
       <c r="D135" t="n">
-        <v>0.870352</v>
+        <v>0.8229880000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.09772</v>
+        <v>1.05061</v>
       </c>
       <c r="C136" t="n">
-        <v>0.866085</v>
+        <v>0.8063129999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.891008</v>
+        <v>0.836498</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.11621</v>
+        <v>1.02925</v>
       </c>
       <c r="C137" t="n">
-        <v>0.880003</v>
+        <v>0.824916</v>
       </c>
       <c r="D137" t="n">
-        <v>0.885767</v>
+        <v>0.833001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.3628</v>
+        <v>1.25842</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8707279999999999</v>
+        <v>0.817523</v>
       </c>
       <c r="D138" t="n">
-        <v>0.886836</v>
+        <v>0.83417</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.36207</v>
+        <v>1.25794</v>
       </c>
       <c r="C139" t="n">
-        <v>0.871938</v>
+        <v>0.818221</v>
       </c>
       <c r="D139" t="n">
-        <v>0.8889629999999999</v>
+        <v>0.83684</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.36305</v>
+        <v>1.27417</v>
       </c>
       <c r="C140" t="n">
-        <v>0.87301</v>
+        <v>0.823538</v>
       </c>
       <c r="D140" t="n">
-        <v>0.8908160000000001</v>
+        <v>0.834554</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.36432</v>
+        <v>1.27223</v>
       </c>
       <c r="C141" t="n">
-        <v>0.875466</v>
+        <v>0.82385</v>
       </c>
       <c r="D141" t="n">
-        <v>0.892636</v>
+        <v>0.838448</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.36389</v>
+        <v>1.27198</v>
       </c>
       <c r="C142" t="n">
-        <v>0.877922</v>
+        <v>0.825584</v>
       </c>
       <c r="D142" t="n">
-        <v>0.895226</v>
+        <v>0.841709</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.36424</v>
+        <v>1.27269</v>
       </c>
       <c r="C143" t="n">
-        <v>0.88029</v>
+        <v>0.8281500000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.897381</v>
+        <v>0.840687</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175113</v>
+        <v>0.175297</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187022</v>
+        <v>0.187551</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196809</v>
+        <v>0.196896</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175567</v>
+        <v>0.176304</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187677</v>
+        <v>0.188557</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197289</v>
+        <v>0.197926</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176338</v>
+        <v>0.177175</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18861</v>
+        <v>0.189469</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198543</v>
+        <v>0.199227</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177019</v>
+        <v>0.177037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190081</v>
+        <v>0.190723</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200238</v>
+        <v>0.200771</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17838</v>
+        <v>0.177698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192013</v>
+        <v>0.192593</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20305</v>
+        <v>0.202466</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.179785</v>
+        <v>0.179799</v>
       </c>
       <c r="C7" t="n">
-        <v>0.193988</v>
+        <v>0.194494</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205358</v>
+        <v>0.205428</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.181718</v>
+        <v>0.182268</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196849</v>
+        <v>0.196951</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20984</v>
+        <v>0.210068</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.185455</v>
+        <v>0.185641</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200601</v>
+        <v>0.200828</v>
       </c>
       <c r="D9" t="n">
-        <v>0.19533</v>
+        <v>0.195476</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.183456</v>
+        <v>0.182065</v>
       </c>
       <c r="C10" t="n">
-        <v>0.187442</v>
+        <v>0.18698</v>
       </c>
       <c r="D10" t="n">
-        <v>0.193842</v>
+        <v>0.193918</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181192</v>
+        <v>0.186039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.186458</v>
+        <v>0.18916</v>
       </c>
       <c r="D11" t="n">
-        <v>0.193907</v>
+        <v>0.195883</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.18558</v>
+        <v>0.192247</v>
       </c>
       <c r="C12" t="n">
-        <v>0.189002</v>
+        <v>0.19094</v>
       </c>
       <c r="D12" t="n">
-        <v>0.196112</v>
+        <v>0.196536</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.182423</v>
+        <v>0.186418</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187952</v>
+        <v>0.188119</v>
       </c>
       <c r="D13" t="n">
-        <v>0.19511</v>
+        <v>0.194618</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.182412</v>
+        <v>0.189628</v>
       </c>
       <c r="C14" t="n">
-        <v>0.188183</v>
+        <v>0.191372</v>
       </c>
       <c r="D14" t="n">
-        <v>0.195706</v>
+        <v>0.196784</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.18605</v>
+        <v>0.188146</v>
       </c>
       <c r="C15" t="n">
-        <v>0.191371</v>
+        <v>0.19091</v>
       </c>
       <c r="D15" t="n">
-        <v>0.198254</v>
+        <v>0.197373</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.184397</v>
+        <v>0.185616</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189438</v>
+        <v>0.189989</v>
       </c>
       <c r="D16" t="n">
-        <v>0.196308</v>
+        <v>0.196965</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.182721</v>
+        <v>0.188324</v>
       </c>
       <c r="C17" t="n">
-        <v>0.189837</v>
+        <v>0.191956</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197438</v>
+        <v>0.199268</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.18619</v>
+        <v>0.185916</v>
       </c>
       <c r="C18" t="n">
-        <v>0.19292</v>
+        <v>0.192073</v>
       </c>
       <c r="D18" t="n">
-        <v>0.199682</v>
+        <v>0.199081</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.188055</v>
+        <v>0.188638</v>
       </c>
       <c r="C19" t="n">
-        <v>0.193384</v>
+        <v>0.194384</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200637</v>
+        <v>0.201792</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.187296</v>
+        <v>0.19532</v>
       </c>
       <c r="C20" t="n">
-        <v>0.194605</v>
+        <v>0.19756</v>
       </c>
       <c r="D20" t="n">
-        <v>0.202605</v>
+        <v>0.205799</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.188898</v>
+        <v>0.192691</v>
       </c>
       <c r="C21" t="n">
-        <v>0.196327</v>
+        <v>0.198424</v>
       </c>
       <c r="D21" t="n">
-        <v>0.205312</v>
+        <v>0.206967</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.189569</v>
+        <v>0.195061</v>
       </c>
       <c r="C22" t="n">
-        <v>0.198259</v>
+        <v>0.202271</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208668</v>
+        <v>0.209914</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.194016</v>
+        <v>0.19539</v>
       </c>
       <c r="C23" t="n">
-        <v>0.20177</v>
+        <v>0.204156</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201685</v>
+        <v>0.199531</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.20417</v>
+        <v>0.203294</v>
       </c>
       <c r="C24" t="n">
-        <v>0.189872</v>
+        <v>0.190512</v>
       </c>
       <c r="D24" t="n">
-        <v>0.200826</v>
+        <v>0.200795</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.204049</v>
+        <v>0.202789</v>
       </c>
       <c r="C25" t="n">
-        <v>0.191291</v>
+        <v>0.190048</v>
       </c>
       <c r="D25" t="n">
-        <v>0.201872</v>
+        <v>0.201081</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203448</v>
+        <v>0.202963</v>
       </c>
       <c r="C26" t="n">
-        <v>0.191585</v>
+        <v>0.191124</v>
       </c>
       <c r="D26" t="n">
-        <v>0.202866</v>
+        <v>0.201875</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.202834</v>
+        <v>0.204051</v>
       </c>
       <c r="C27" t="n">
-        <v>0.191914</v>
+        <v>0.191293</v>
       </c>
       <c r="D27" t="n">
-        <v>0.203274</v>
+        <v>0.202207</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.203326</v>
+        <v>0.203548</v>
       </c>
       <c r="C28" t="n">
-        <v>0.192574</v>
+        <v>0.192352</v>
       </c>
       <c r="D28" t="n">
-        <v>0.204678</v>
+        <v>0.204102</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.203622</v>
+        <v>0.202769</v>
       </c>
       <c r="C29" t="n">
-        <v>0.193173</v>
+        <v>0.19262</v>
       </c>
       <c r="D29" t="n">
-        <v>0.205284</v>
+        <v>0.203452</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.203741</v>
+        <v>0.202902</v>
       </c>
       <c r="C30" t="n">
-        <v>0.194016</v>
+        <v>0.193288</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206477</v>
+        <v>0.204306</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204294</v>
+        <v>0.203826</v>
       </c>
       <c r="C31" t="n">
-        <v>0.195178</v>
+        <v>0.194264</v>
       </c>
       <c r="D31" t="n">
-        <v>0.206915</v>
+        <v>0.20562</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.20474</v>
+        <v>0.204254</v>
       </c>
       <c r="C32" t="n">
-        <v>0.196406</v>
+        <v>0.195535</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207628</v>
+        <v>0.206428</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.20474</v>
+        <v>0.207621</v>
       </c>
       <c r="C33" t="n">
-        <v>0.197901</v>
+        <v>0.19683</v>
       </c>
       <c r="D33" t="n">
-        <v>0.209792</v>
+        <v>0.20845</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.206276</v>
+        <v>0.210055</v>
       </c>
       <c r="C34" t="n">
-        <v>0.199599</v>
+        <v>0.199234</v>
       </c>
       <c r="D34" t="n">
-        <v>0.210607</v>
+        <v>0.211005</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.20809</v>
+        <v>0.208992</v>
       </c>
       <c r="C35" t="n">
-        <v>0.201623</v>
+        <v>0.201701</v>
       </c>
       <c r="D35" t="n">
-        <v>0.214323</v>
+        <v>0.214313</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.208891</v>
+        <v>0.211158</v>
       </c>
       <c r="C36" t="n">
-        <v>0.204437</v>
+        <v>0.20484</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219523</v>
+        <v>0.219401</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.211387</v>
+        <v>0.21495</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207936</v>
+        <v>0.208758</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220064</v>
+        <v>0.220996</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.233989</v>
+        <v>0.232359</v>
       </c>
       <c r="C38" t="n">
-        <v>0.207734</v>
+        <v>0.208723</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219785</v>
+        <v>0.22053</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232353</v>
+        <v>0.231129</v>
       </c>
       <c r="C39" t="n">
-        <v>0.211102</v>
+        <v>0.209399</v>
       </c>
       <c r="D39" t="n">
-        <v>0.221411</v>
+        <v>0.22003</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.231882</v>
+        <v>0.23183</v>
       </c>
       <c r="C40" t="n">
-        <v>0.210901</v>
+        <v>0.209384</v>
       </c>
       <c r="D40" t="n">
-        <v>0.222056</v>
+        <v>0.220031</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.233435</v>
+        <v>0.231785</v>
       </c>
       <c r="C41" t="n">
-        <v>0.212738</v>
+        <v>0.210872</v>
       </c>
       <c r="D41" t="n">
-        <v>0.223303</v>
+        <v>0.221279</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.233215</v>
+        <v>0.234358</v>
       </c>
       <c r="C42" t="n">
-        <v>0.211519</v>
+        <v>0.212081</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222344</v>
+        <v>0.223047</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.230775</v>
+        <v>0.234942</v>
       </c>
       <c r="C43" t="n">
-        <v>0.212693</v>
+        <v>0.212008</v>
       </c>
       <c r="D43" t="n">
-        <v>0.222978</v>
+        <v>0.22202</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.231848</v>
+        <v>0.231533</v>
       </c>
       <c r="C44" t="n">
-        <v>0.211743</v>
+        <v>0.21392</v>
       </c>
       <c r="D44" t="n">
-        <v>0.221845</v>
+        <v>0.223549</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.233581</v>
+        <v>0.236195</v>
       </c>
       <c r="C45" t="n">
-        <v>0.215433</v>
+        <v>0.21444</v>
       </c>
       <c r="D45" t="n">
-        <v>0.225201</v>
+        <v>0.224696</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.233323</v>
+        <v>0.237366</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21635</v>
+        <v>0.216361</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226166</v>
+        <v>0.226497</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.233384</v>
+        <v>0.236396</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216768</v>
+        <v>0.217755</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227229</v>
+        <v>0.227889</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.23531</v>
+        <v>0.233909</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219876</v>
+        <v>0.219471</v>
       </c>
       <c r="D48" t="n">
-        <v>0.230429</v>
+        <v>0.229753</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236704</v>
+        <v>0.235312</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222005</v>
+        <v>0.220591</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232727</v>
+        <v>0.231685</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238612</v>
+        <v>0.239321</v>
       </c>
       <c r="C50" t="n">
-        <v>0.224643</v>
+        <v>0.226552</v>
       </c>
       <c r="D50" t="n">
-        <v>0.238569</v>
+        <v>0.2392</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.241991</v>
+        <v>0.241871</v>
       </c>
       <c r="C51" t="n">
-        <v>0.228838</v>
+        <v>0.232035</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23227</v>
+        <v>0.233224</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.246691</v>
+        <v>0.244194</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236796</v>
+        <v>0.237759</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232905</v>
+        <v>0.233693</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.259434</v>
+        <v>0.25721</v>
       </c>
       <c r="C53" t="n">
-        <v>0.226337</v>
+        <v>0.22571</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234371</v>
+        <v>0.232618</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.25983</v>
+        <v>0.257522</v>
       </c>
       <c r="C54" t="n">
-        <v>0.225412</v>
+        <v>0.226799</v>
       </c>
       <c r="D54" t="n">
-        <v>0.234615</v>
+        <v>0.23345</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.256484</v>
+        <v>0.260332</v>
       </c>
       <c r="C55" t="n">
-        <v>0.227399</v>
+        <v>0.227252</v>
       </c>
       <c r="D55" t="n">
-        <v>0.233865</v>
+        <v>0.234667</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258311</v>
+        <v>0.26047</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22898</v>
+        <v>0.229024</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236266</v>
+        <v>0.234691</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.257769</v>
+        <v>0.259381</v>
       </c>
       <c r="C57" t="n">
-        <v>0.229788</v>
+        <v>0.229087</v>
       </c>
       <c r="D57" t="n">
-        <v>0.235558</v>
+        <v>0.235272</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259741</v>
+        <v>0.260733</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230476</v>
+        <v>0.230347</v>
       </c>
       <c r="D58" t="n">
-        <v>0.235937</v>
+        <v>0.236059</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.262196</v>
+        <v>0.260575</v>
       </c>
       <c r="C59" t="n">
-        <v>0.232299</v>
+        <v>0.231131</v>
       </c>
       <c r="D59" t="n">
-        <v>0.238887</v>
+        <v>0.23768</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.25857</v>
+        <v>0.2606</v>
       </c>
       <c r="C60" t="n">
-        <v>0.233839</v>
+        <v>0.232453</v>
       </c>
       <c r="D60" t="n">
-        <v>0.240175</v>
+        <v>0.238384</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260545</v>
+        <v>0.260327</v>
       </c>
       <c r="C61" t="n">
-        <v>0.233843</v>
+        <v>0.234282</v>
       </c>
       <c r="D61" t="n">
-        <v>0.239817</v>
+        <v>0.240447</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.26023</v>
+        <v>0.263495</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23656</v>
+        <v>0.235819</v>
       </c>
       <c r="D62" t="n">
-        <v>0.243999</v>
+        <v>0.242562</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264317</v>
+        <v>0.262715</v>
       </c>
       <c r="C63" t="n">
-        <v>0.238915</v>
+        <v>0.237655</v>
       </c>
       <c r="D63" t="n">
-        <v>0.245684</v>
+        <v>0.245679</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264375</v>
+        <v>0.265396</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241225</v>
+        <v>0.241569</v>
       </c>
       <c r="D64" t="n">
-        <v>0.250779</v>
+        <v>0.25083</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.265434</v>
+        <v>0.266588</v>
       </c>
       <c r="C65" t="n">
-        <v>0.245862</v>
+        <v>0.246155</v>
       </c>
       <c r="D65" t="n">
-        <v>0.257219</v>
+        <v>0.257601</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.271669</v>
+        <v>0.2721</v>
       </c>
       <c r="C66" t="n">
-        <v>0.250803</v>
+        <v>0.25233</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241448</v>
+        <v>0.241018</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.270069</v>
+        <v>0.27846</v>
       </c>
       <c r="C67" t="n">
-        <v>0.238269</v>
+        <v>0.237105</v>
       </c>
       <c r="D67" t="n">
-        <v>0.240396</v>
+        <v>0.240658</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.278491</v>
+        <v>0.278354</v>
       </c>
       <c r="C68" t="n">
-        <v>0.239029</v>
+        <v>0.237914</v>
       </c>
       <c r="D68" t="n">
-        <v>0.241479</v>
+        <v>0.24139</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.279667</v>
+        <v>0.27884</v>
       </c>
       <c r="C69" t="n">
-        <v>0.240281</v>
+        <v>0.238142</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243465</v>
+        <v>0.241699</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278927</v>
+        <v>0.278585</v>
       </c>
       <c r="C70" t="n">
-        <v>0.241177</v>
+        <v>0.239692</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243941</v>
+        <v>0.243363</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.278843</v>
+        <v>0.278474</v>
       </c>
       <c r="C71" t="n">
-        <v>0.241496</v>
+        <v>0.239285</v>
       </c>
       <c r="D71" t="n">
-        <v>0.244638</v>
+        <v>0.242972</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.279031</v>
+        <v>0.278267</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243182</v>
+        <v>0.241853</v>
       </c>
       <c r="D72" t="n">
-        <v>0.244369</v>
+        <v>0.244061</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.278847</v>
+        <v>0.279274</v>
       </c>
       <c r="C73" t="n">
-        <v>0.244473</v>
+        <v>0.24173</v>
       </c>
       <c r="D73" t="n">
-        <v>0.244702</v>
+        <v>0.24491</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279624</v>
+        <v>0.279844</v>
       </c>
       <c r="C74" t="n">
-        <v>0.24477</v>
+        <v>0.243194</v>
       </c>
       <c r="D74" t="n">
-        <v>0.248326</v>
+        <v>0.246605</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279691</v>
+        <v>0.279905</v>
       </c>
       <c r="C75" t="n">
-        <v>0.247571</v>
+        <v>0.243788</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250199</v>
+        <v>0.248259</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.281466</v>
+        <v>0.280748</v>
       </c>
       <c r="C76" t="n">
-        <v>0.249321</v>
+        <v>0.245252</v>
       </c>
       <c r="D76" t="n">
-        <v>0.252446</v>
+        <v>0.250459</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.281721</v>
+        <v>0.282497</v>
       </c>
       <c r="C77" t="n">
-        <v>0.251677</v>
+        <v>0.248336</v>
       </c>
       <c r="D77" t="n">
-        <v>0.255724</v>
+        <v>0.254206</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283357</v>
+        <v>0.282992</v>
       </c>
       <c r="C78" t="n">
-        <v>0.254822</v>
+        <v>0.250696</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25967</v>
+        <v>0.258329</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.286727</v>
+        <v>0.286712</v>
       </c>
       <c r="C79" t="n">
-        <v>0.258969</v>
+        <v>0.256639</v>
       </c>
       <c r="D79" t="n">
-        <v>0.267571</v>
+        <v>0.265956</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290017</v>
+        <v>0.290456</v>
       </c>
       <c r="C80" t="n">
-        <v>0.265317</v>
+        <v>0.261017</v>
       </c>
       <c r="D80" t="n">
-        <v>0.250716</v>
+        <v>0.251636</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.302745</v>
+        <v>0.303036</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233686</v>
+        <v>0.24317</v>
       </c>
       <c r="D81" t="n">
-        <v>0.244632</v>
+        <v>0.252339</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.297723</v>
+        <v>0.307002</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241649</v>
+        <v>0.250009</v>
       </c>
       <c r="D82" t="n">
-        <v>0.252896</v>
+        <v>0.255568</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.301884</v>
+        <v>0.306849</v>
       </c>
       <c r="C83" t="n">
-        <v>0.246385</v>
+        <v>0.245729</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253474</v>
+        <v>0.254837</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.301882</v>
+        <v>0.303034</v>
       </c>
       <c r="C84" t="n">
-        <v>0.237982</v>
+        <v>0.24268</v>
       </c>
       <c r="D84" t="n">
-        <v>0.247884</v>
+        <v>0.254029</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.29235</v>
+        <v>0.300534</v>
       </c>
       <c r="C85" t="n">
-        <v>0.246056</v>
+        <v>0.239689</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254503</v>
+        <v>0.251019</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.303165</v>
+        <v>0.291358</v>
       </c>
       <c r="C86" t="n">
-        <v>0.239858</v>
+        <v>0.243905</v>
       </c>
       <c r="D86" t="n">
-        <v>0.252461</v>
+        <v>0.255334</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.297379</v>
+        <v>0.304385</v>
       </c>
       <c r="C87" t="n">
-        <v>0.23678</v>
+        <v>0.245238</v>
       </c>
       <c r="D87" t="n">
-        <v>0.248854</v>
+        <v>0.258549</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.293895</v>
+        <v>0.301813</v>
       </c>
       <c r="C88" t="n">
-        <v>0.245518</v>
+        <v>0.247883</v>
       </c>
       <c r="D88" t="n">
-        <v>0.257772</v>
+        <v>0.257749</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.303663</v>
+        <v>0.303712</v>
       </c>
       <c r="C89" t="n">
-        <v>0.24537</v>
+        <v>0.248601</v>
       </c>
       <c r="D89" t="n">
-        <v>0.257838</v>
+        <v>0.260344</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.301882</v>
+        <v>0.301268</v>
       </c>
       <c r="C90" t="n">
-        <v>0.250411</v>
+        <v>0.250192</v>
       </c>
       <c r="D90" t="n">
-        <v>0.261874</v>
+        <v>0.26228</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.302638</v>
+        <v>0.304038</v>
       </c>
       <c r="C91" t="n">
-        <v>0.24938</v>
+        <v>0.251115</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264853</v>
+        <v>0.264918</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.307183</v>
+        <v>0.304695</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253757</v>
+        <v>0.246957</v>
       </c>
       <c r="D92" t="n">
-        <v>0.269159</v>
+        <v>0.261818</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.308643</v>
+        <v>0.29661</v>
       </c>
       <c r="C93" t="n">
-        <v>0.258017</v>
+        <v>0.259912</v>
       </c>
       <c r="D93" t="n">
-        <v>0.277016</v>
+        <v>0.276998</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.311931</v>
+        <v>0.311181</v>
       </c>
       <c r="C94" t="n">
-        <v>0.264353</v>
+        <v>0.256852</v>
       </c>
       <c r="D94" t="n">
-        <v>0.376559</v>
+        <v>0.398905</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.482124</v>
+        <v>0.494411</v>
       </c>
       <c r="C95" t="n">
-        <v>0.408583</v>
+        <v>0.406857</v>
       </c>
       <c r="D95" t="n">
-        <v>0.395501</v>
+        <v>0.395705</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.496637</v>
+        <v>0.470719</v>
       </c>
       <c r="C96" t="n">
-        <v>0.411084</v>
+        <v>0.393779</v>
       </c>
       <c r="D96" t="n">
-        <v>0.403684</v>
+        <v>0.381111</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.481361</v>
+        <v>0.450406</v>
       </c>
       <c r="C97" t="n">
-        <v>0.407269</v>
+        <v>0.416812</v>
       </c>
       <c r="D97" t="n">
-        <v>0.400238</v>
+        <v>0.413108</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.492397</v>
+        <v>0.495874</v>
       </c>
       <c r="C98" t="n">
-        <v>0.416947</v>
+        <v>0.425038</v>
       </c>
       <c r="D98" t="n">
-        <v>0.403502</v>
+        <v>0.413019</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.484155</v>
+        <v>0.495239</v>
       </c>
       <c r="C99" t="n">
-        <v>0.410953</v>
+        <v>0.425791</v>
       </c>
       <c r="D99" t="n">
-        <v>0.399547</v>
+        <v>0.416893</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.49085</v>
+        <v>0.496717</v>
       </c>
       <c r="C100" t="n">
-        <v>0.416181</v>
+        <v>0.426276</v>
       </c>
       <c r="D100" t="n">
-        <v>0.409697</v>
+        <v>0.416201</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.482666</v>
+        <v>0.493648</v>
       </c>
       <c r="C101" t="n">
-        <v>0.397448</v>
+        <v>0.426114</v>
       </c>
       <c r="D101" t="n">
-        <v>0.384181</v>
+        <v>0.416522</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.472401</v>
+        <v>0.499934</v>
       </c>
       <c r="C102" t="n">
-        <v>0.387766</v>
+        <v>0.427418</v>
       </c>
       <c r="D102" t="n">
-        <v>0.384554</v>
+        <v>0.417761</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.434005</v>
+        <v>0.490079</v>
       </c>
       <c r="C103" t="n">
-        <v>0.411351</v>
+        <v>0.42301</v>
       </c>
       <c r="D103" t="n">
-        <v>0.401701</v>
+        <v>0.41329</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.491234</v>
+        <v>0.494234</v>
       </c>
       <c r="C104" t="n">
-        <v>0.414697</v>
+        <v>0.426951</v>
       </c>
       <c r="D104" t="n">
-        <v>0.410012</v>
+        <v>0.414742</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.482684</v>
+        <v>0.495826</v>
       </c>
       <c r="C105" t="n">
-        <v>0.42073</v>
+        <v>0.427818</v>
       </c>
       <c r="D105" t="n">
-        <v>0.409778</v>
+        <v>0.419128</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.489749</v>
+        <v>0.492463</v>
       </c>
       <c r="C106" t="n">
-        <v>0.397237</v>
+        <v>0.431165</v>
       </c>
       <c r="D106" t="n">
-        <v>0.399597</v>
+        <v>0.426848</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.44488</v>
+        <v>0.493778</v>
       </c>
       <c r="C107" t="n">
-        <v>0.392362</v>
+        <v>0.433542</v>
       </c>
       <c r="D107" t="n">
-        <v>0.39382</v>
+        <v>0.42555</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.44841</v>
+        <v>0.492122</v>
       </c>
       <c r="C108" t="n">
-        <v>0.438039</v>
+        <v>0.437848</v>
       </c>
       <c r="D108" t="n">
-        <v>0.668017</v>
+        <v>0.647408</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.496416</v>
+        <v>0.499907</v>
       </c>
       <c r="C109" t="n">
-        <v>0.445372</v>
+        <v>0.44532</v>
       </c>
       <c r="D109" t="n">
-        <v>0.655989</v>
+        <v>0.654807</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.786343</v>
+        <v>0.783171</v>
       </c>
       <c r="C110" t="n">
-        <v>0.667258</v>
+        <v>0.664884</v>
       </c>
       <c r="D110" t="n">
-        <v>0.670021</v>
+        <v>0.668247</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.785467</v>
+        <v>0.7801709999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.667347</v>
+        <v>0.64864</v>
       </c>
       <c r="D111" t="n">
-        <v>0.671377</v>
+        <v>0.657289</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.783477</v>
+        <v>0.780076</v>
       </c>
       <c r="C112" t="n">
-        <v>0.651598</v>
+        <v>0.651103</v>
       </c>
       <c r="D112" t="n">
-        <v>0.673494</v>
+        <v>0.671528</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.769024</v>
+        <v>0.779752</v>
       </c>
       <c r="C113" t="n">
-        <v>0.669416</v>
+        <v>0.667227</v>
       </c>
       <c r="D113" t="n">
-        <v>0.673747</v>
+        <v>0.671731</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.780448</v>
+        <v>0.780778</v>
       </c>
       <c r="C114" t="n">
-        <v>0.669706</v>
+        <v>0.668474</v>
       </c>
       <c r="D114" t="n">
-        <v>0.662497</v>
+        <v>0.673001</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.783591</v>
+        <v>0.779613</v>
       </c>
       <c r="C115" t="n">
-        <v>0.671098</v>
+        <v>0.670911</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6769269999999999</v>
+        <v>0.673885</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.768796</v>
+        <v>0.777743</v>
       </c>
       <c r="C116" t="n">
-        <v>0.674055</v>
+        <v>0.655176</v>
       </c>
       <c r="D116" t="n">
-        <v>0.667423</v>
+        <v>0.664391</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.788975</v>
+        <v>0.7681</v>
       </c>
       <c r="C117" t="n">
-        <v>0.675639</v>
+        <v>0.6735910000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.680786</v>
+        <v>0.678769</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.779998</v>
+        <v>0.7618819999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>0.661029</v>
+        <v>0.660052</v>
       </c>
       <c r="D118" t="n">
-        <v>0.68403</v>
+        <v>0.6820310000000001</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.786897</v>
+        <v>0.780787</v>
       </c>
       <c r="C119" t="n">
-        <v>0.665247</v>
+        <v>0.679823</v>
       </c>
       <c r="D119" t="n">
-        <v>0.687811</v>
+        <v>0.686378</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.770456</v>
+        <v>0.781235</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6841660000000001</v>
+        <v>0.683042</v>
       </c>
       <c r="D120" t="n">
-        <v>0.693021</v>
+        <v>0.691349</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.778613</v>
+        <v>0.784433</v>
       </c>
       <c r="C121" t="n">
-        <v>0.689423</v>
+        <v>0.672963</v>
       </c>
       <c r="D121" t="n">
-        <v>0.699041</v>
+        <v>0.685409</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.785168</v>
+        <v>0.779616</v>
       </c>
       <c r="C122" t="n">
-        <v>0.695551</v>
+        <v>0.6794750000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.708933</v>
+        <v>0.706956</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.790569</v>
+        <v>0.786985</v>
       </c>
       <c r="C123" t="n">
-        <v>0.706385</v>
+        <v>0.707086</v>
       </c>
       <c r="D123" t="n">
-        <v>0.782265</v>
+        <v>0.774797</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04464</v>
+        <v>1.04368</v>
       </c>
       <c r="C124" t="n">
-        <v>0.772932</v>
+        <v>0.76468</v>
       </c>
       <c r="D124" t="n">
-        <v>0.776616</v>
+        <v>0.7823909999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04288</v>
+        <v>1.04556</v>
       </c>
       <c r="C125" t="n">
-        <v>0.76695</v>
+        <v>0.765347</v>
       </c>
       <c r="D125" t="n">
-        <v>0.784904</v>
+        <v>0.782645</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.04402</v>
+        <v>1.04183</v>
       </c>
       <c r="C126" t="n">
-        <v>0.768045</v>
+        <v>0.773863</v>
       </c>
       <c r="D126" t="n">
-        <v>0.786412</v>
+        <v>0.784139</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.02381</v>
+        <v>1.04288</v>
       </c>
       <c r="C127" t="n">
-        <v>0.769594</v>
+        <v>0.775108</v>
       </c>
       <c r="D127" t="n">
-        <v>0.781111</v>
+        <v>0.785973</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04837</v>
+        <v>1.03953</v>
       </c>
       <c r="C128" t="n">
-        <v>0.77823</v>
+        <v>0.776481</v>
       </c>
       <c r="D128" t="n">
-        <v>0.782585</v>
+        <v>0.781244</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.02264</v>
+        <v>1.04179</v>
       </c>
       <c r="C129" t="n">
-        <v>0.779786</v>
+        <v>0.77861</v>
       </c>
       <c r="D129" t="n">
-        <v>0.78403</v>
+        <v>0.783624</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.04638</v>
+        <v>1.03905</v>
       </c>
       <c r="C130" t="n">
-        <v>0.782261</v>
+        <v>0.781264</v>
       </c>
       <c r="D130" t="n">
-        <v>0.794797</v>
+        <v>0.793114</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04451</v>
+        <v>1.04123</v>
       </c>
       <c r="C131" t="n">
-        <v>0.785436</v>
+        <v>0.77666</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7908269999999999</v>
+        <v>0.79593</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.02871</v>
+        <v>1.04339</v>
       </c>
       <c r="C132" t="n">
-        <v>0.788388</v>
+        <v>0.787079</v>
       </c>
       <c r="D132" t="n">
-        <v>0.801257</v>
+        <v>0.800183</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04711</v>
+        <v>1.04485</v>
       </c>
       <c r="C133" t="n">
-        <v>0.793303</v>
+        <v>0.790641</v>
       </c>
       <c r="D133" t="n">
-        <v>0.808093</v>
+        <v>0.805019</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05071</v>
+        <v>1.04246</v>
       </c>
       <c r="C134" t="n">
-        <v>0.7916879999999999</v>
+        <v>0.797219</v>
       </c>
       <c r="D134" t="n">
-        <v>0.814194</v>
+        <v>0.811894</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04832</v>
+        <v>1.02743</v>
       </c>
       <c r="C135" t="n">
-        <v>0.803931</v>
+        <v>0.8041700000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8229880000000001</v>
+        <v>0.82221</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.05061</v>
+        <v>1.0253</v>
       </c>
       <c r="C136" t="n">
-        <v>0.8063129999999999</v>
+        <v>0.811628</v>
       </c>
       <c r="D136" t="n">
-        <v>0.836498</v>
+        <v>0.828323</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.02925</v>
+        <v>1.04815</v>
       </c>
       <c r="C137" t="n">
-        <v>0.824916</v>
+        <v>0.817137</v>
       </c>
       <c r="D137" t="n">
-        <v>0.833001</v>
+        <v>0.826121</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25842</v>
+        <v>1.25398</v>
       </c>
       <c r="C138" t="n">
-        <v>0.817523</v>
+        <v>0.816119</v>
       </c>
       <c r="D138" t="n">
-        <v>0.83417</v>
+        <v>0.82702</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.25794</v>
+        <v>1.25176</v>
       </c>
       <c r="C139" t="n">
-        <v>0.818221</v>
+        <v>0.818001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.83684</v>
+        <v>0.831761</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.27417</v>
+        <v>1.26546</v>
       </c>
       <c r="C140" t="n">
-        <v>0.823538</v>
+        <v>0.820248</v>
       </c>
       <c r="D140" t="n">
-        <v>0.834554</v>
+        <v>0.830467</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.27223</v>
+        <v>1.25223</v>
       </c>
       <c r="C141" t="n">
-        <v>0.82385</v>
+        <v>0.820012</v>
       </c>
       <c r="D141" t="n">
-        <v>0.838448</v>
+        <v>0.835641</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.27198</v>
+        <v>1.26541</v>
       </c>
       <c r="C142" t="n">
-        <v>0.825584</v>
+        <v>0.82197</v>
       </c>
       <c r="D142" t="n">
-        <v>0.841709</v>
+        <v>0.83593</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.27269</v>
+        <v>1.25226</v>
       </c>
       <c r="C143" t="n">
-        <v>0.8281500000000001</v>
+        <v>0.821922</v>
       </c>
       <c r="D143" t="n">
-        <v>0.840687</v>
+        <v>0.839541</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175297</v>
+        <v>0.175675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187551</v>
+        <v>0.187294</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196896</v>
+        <v>0.196809</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176304</v>
+        <v>0.175614</v>
       </c>
       <c r="C3" t="n">
-        <v>0.188557</v>
+        <v>0.187559</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197926</v>
+        <v>0.197251</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177175</v>
+        <v>0.176343</v>
       </c>
       <c r="C4" t="n">
-        <v>0.189469</v>
+        <v>0.188534</v>
       </c>
       <c r="D4" t="n">
-        <v>0.199227</v>
+        <v>0.198512</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177037</v>
+        <v>0.177079</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190723</v>
+        <v>0.190046</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200771</v>
+        <v>0.20019</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177698</v>
+        <v>0.177988</v>
       </c>
       <c r="C6" t="n">
-        <v>0.192593</v>
+        <v>0.191945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202466</v>
+        <v>0.202297</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.179799</v>
+        <v>0.179574</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194494</v>
+        <v>0.194284</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205428</v>
+        <v>0.205278</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.182268</v>
+        <v>0.181792</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196951</v>
+        <v>0.196732</v>
       </c>
       <c r="D8" t="n">
-        <v>0.210068</v>
+        <v>0.209917</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.185641</v>
+        <v>0.185683</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200828</v>
+        <v>0.200466</v>
       </c>
       <c r="D9" t="n">
-        <v>0.195476</v>
+        <v>0.193602</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.182065</v>
+        <v>0.183288</v>
       </c>
       <c r="C10" t="n">
-        <v>0.18698</v>
+        <v>0.18657</v>
       </c>
       <c r="D10" t="n">
-        <v>0.193918</v>
+        <v>0.194253</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.186039</v>
+        <v>0.182182</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18916</v>
+        <v>0.187045</v>
       </c>
       <c r="D11" t="n">
-        <v>0.195883</v>
+        <v>0.194439</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.192247</v>
+        <v>0.18149</v>
       </c>
       <c r="C12" t="n">
-        <v>0.19094</v>
+        <v>0.18679</v>
       </c>
       <c r="D12" t="n">
-        <v>0.196536</v>
+        <v>0.194218</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.186418</v>
+        <v>0.181494</v>
       </c>
       <c r="C13" t="n">
-        <v>0.188119</v>
+        <v>0.187182</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194618</v>
+        <v>0.194511</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.189628</v>
+        <v>0.181798</v>
       </c>
       <c r="C14" t="n">
-        <v>0.191372</v>
+        <v>0.187543</v>
       </c>
       <c r="D14" t="n">
-        <v>0.196784</v>
+        <v>0.194922</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.188146</v>
+        <v>0.18198</v>
       </c>
       <c r="C15" t="n">
-        <v>0.19091</v>
+        <v>0.188188</v>
       </c>
       <c r="D15" t="n">
-        <v>0.197373</v>
+        <v>0.195589</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.185616</v>
+        <v>0.182296</v>
       </c>
       <c r="C16" t="n">
-        <v>0.189989</v>
+        <v>0.188971</v>
       </c>
       <c r="D16" t="n">
-        <v>0.196965</v>
+        <v>0.196302</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.188324</v>
+        <v>0.183221</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191956</v>
+        <v>0.189663</v>
       </c>
       <c r="D17" t="n">
-        <v>0.199268</v>
+        <v>0.197149</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.185916</v>
+        <v>0.183018</v>
       </c>
       <c r="C18" t="n">
-        <v>0.192073</v>
+        <v>0.190745</v>
       </c>
       <c r="D18" t="n">
-        <v>0.199081</v>
+        <v>0.198231</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.188638</v>
+        <v>0.18408</v>
       </c>
       <c r="C19" t="n">
-        <v>0.194384</v>
+        <v>0.191803</v>
       </c>
       <c r="D19" t="n">
-        <v>0.201792</v>
+        <v>0.199945</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.19532</v>
+        <v>0.18517</v>
       </c>
       <c r="C20" t="n">
-        <v>0.19756</v>
+        <v>0.193305</v>
       </c>
       <c r="D20" t="n">
-        <v>0.205799</v>
+        <v>0.201767</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.192691</v>
+        <v>0.187501</v>
       </c>
       <c r="C21" t="n">
-        <v>0.198424</v>
+        <v>0.195933</v>
       </c>
       <c r="D21" t="n">
-        <v>0.206967</v>
+        <v>0.20512</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.195061</v>
+        <v>0.18966</v>
       </c>
       <c r="C22" t="n">
-        <v>0.202271</v>
+        <v>0.197921</v>
       </c>
       <c r="D22" t="n">
-        <v>0.209914</v>
+        <v>0.208479</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.19539</v>
+        <v>0.193092</v>
       </c>
       <c r="C23" t="n">
-        <v>0.204156</v>
+        <v>0.201642</v>
       </c>
       <c r="D23" t="n">
-        <v>0.199531</v>
+        <v>0.201342</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.203294</v>
+        <v>0.201764</v>
       </c>
       <c r="C24" t="n">
-        <v>0.190512</v>
+        <v>0.1897</v>
       </c>
       <c r="D24" t="n">
-        <v>0.200795</v>
+        <v>0.201404</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.202789</v>
+        <v>0.201658</v>
       </c>
       <c r="C25" t="n">
-        <v>0.190048</v>
+        <v>0.191661</v>
       </c>
       <c r="D25" t="n">
-        <v>0.201081</v>
+        <v>0.20164</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.202963</v>
+        <v>0.201256</v>
       </c>
       <c r="C26" t="n">
-        <v>0.191124</v>
+        <v>0.191777</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201875</v>
+        <v>0.202871</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.204051</v>
+        <v>0.200475</v>
       </c>
       <c r="C27" t="n">
-        <v>0.191293</v>
+        <v>0.191686</v>
       </c>
       <c r="D27" t="n">
-        <v>0.202207</v>
+        <v>0.203629</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.203548</v>
+        <v>0.200909</v>
       </c>
       <c r="C28" t="n">
-        <v>0.192352</v>
+        <v>0.192763</v>
       </c>
       <c r="D28" t="n">
-        <v>0.204102</v>
+        <v>0.203672</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.202769</v>
+        <v>0.201349</v>
       </c>
       <c r="C29" t="n">
-        <v>0.19262</v>
+        <v>0.193087</v>
       </c>
       <c r="D29" t="n">
-        <v>0.203452</v>
+        <v>0.203442</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.202902</v>
+        <v>0.201432</v>
       </c>
       <c r="C30" t="n">
-        <v>0.193288</v>
+        <v>0.194742</v>
       </c>
       <c r="D30" t="n">
-        <v>0.204306</v>
+        <v>0.206746</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203826</v>
+        <v>0.202566</v>
       </c>
       <c r="C31" t="n">
-        <v>0.194264</v>
+        <v>0.195305</v>
       </c>
       <c r="D31" t="n">
-        <v>0.20562</v>
+        <v>0.206119</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.204254</v>
+        <v>0.202684</v>
       </c>
       <c r="C32" t="n">
-        <v>0.195535</v>
+        <v>0.196537</v>
       </c>
       <c r="D32" t="n">
-        <v>0.206428</v>
+        <v>0.206728</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.207621</v>
+        <v>0.204345</v>
       </c>
       <c r="C33" t="n">
-        <v>0.19683</v>
+        <v>0.198455</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20845</v>
+        <v>0.208427</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.210055</v>
+        <v>0.205012</v>
       </c>
       <c r="C34" t="n">
-        <v>0.199234</v>
+        <v>0.200508</v>
       </c>
       <c r="D34" t="n">
-        <v>0.211005</v>
+        <v>0.2107</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.208992</v>
+        <v>0.207592</v>
       </c>
       <c r="C35" t="n">
-        <v>0.201701</v>
+        <v>0.202079</v>
       </c>
       <c r="D35" t="n">
-        <v>0.214313</v>
+        <v>0.214368</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.211158</v>
+        <v>0.210081</v>
       </c>
       <c r="C36" t="n">
-        <v>0.20484</v>
+        <v>0.205985</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219401</v>
+        <v>0.217867</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.21495</v>
+        <v>0.214328</v>
       </c>
       <c r="C37" t="n">
-        <v>0.208758</v>
+        <v>0.210359</v>
       </c>
       <c r="D37" t="n">
-        <v>0.220996</v>
+        <v>0.22053</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232359</v>
+        <v>0.233023</v>
       </c>
       <c r="C38" t="n">
-        <v>0.208723</v>
+        <v>0.207793</v>
       </c>
       <c r="D38" t="n">
-        <v>0.22053</v>
+        <v>0.22009</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.231129</v>
+        <v>0.233773</v>
       </c>
       <c r="C39" t="n">
-        <v>0.209399</v>
+        <v>0.210213</v>
       </c>
       <c r="D39" t="n">
-        <v>0.22003</v>
+        <v>0.220957</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.23183</v>
+        <v>0.234959</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209384</v>
+        <v>0.209539</v>
       </c>
       <c r="D40" t="n">
-        <v>0.220031</v>
+        <v>0.222237</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231785</v>
+        <v>0.234676</v>
       </c>
       <c r="C41" t="n">
-        <v>0.210872</v>
+        <v>0.211024</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221279</v>
+        <v>0.221354</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.234358</v>
+        <v>0.231993</v>
       </c>
       <c r="C42" t="n">
-        <v>0.212081</v>
+        <v>0.210795</v>
       </c>
       <c r="D42" t="n">
-        <v>0.223047</v>
+        <v>0.222636</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.234942</v>
+        <v>0.231742</v>
       </c>
       <c r="C43" t="n">
-        <v>0.212008</v>
+        <v>0.21203</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22202</v>
+        <v>0.223269</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.231533</v>
+        <v>0.232987</v>
       </c>
       <c r="C44" t="n">
-        <v>0.21392</v>
+        <v>0.213551</v>
       </c>
       <c r="D44" t="n">
-        <v>0.223549</v>
+        <v>0.2242</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.236195</v>
+        <v>0.232758</v>
       </c>
       <c r="C45" t="n">
-        <v>0.21444</v>
+        <v>0.214585</v>
       </c>
       <c r="D45" t="n">
-        <v>0.224696</v>
+        <v>0.224757</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.237366</v>
+        <v>0.233946</v>
       </c>
       <c r="C46" t="n">
-        <v>0.216361</v>
+        <v>0.216255</v>
       </c>
       <c r="D46" t="n">
-        <v>0.226497</v>
+        <v>0.225841</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.236396</v>
+        <v>0.235466</v>
       </c>
       <c r="C47" t="n">
-        <v>0.217755</v>
+        <v>0.218512</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227889</v>
+        <v>0.228013</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.233909</v>
+        <v>0.236196</v>
       </c>
       <c r="C48" t="n">
-        <v>0.219471</v>
+        <v>0.220095</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229753</v>
+        <v>0.230005</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.235312</v>
+        <v>0.236105</v>
       </c>
       <c r="C49" t="n">
-        <v>0.220591</v>
+        <v>0.222105</v>
       </c>
       <c r="D49" t="n">
-        <v>0.231685</v>
+        <v>0.233137</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.239321</v>
+        <v>0.238645</v>
       </c>
       <c r="C50" t="n">
-        <v>0.226552</v>
+        <v>0.224342</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2392</v>
+        <v>0.236899</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.241871</v>
+        <v>0.241284</v>
       </c>
       <c r="C51" t="n">
-        <v>0.232035</v>
+        <v>0.229635</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233224</v>
+        <v>0.233239</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.244194</v>
+        <v>0.244712</v>
       </c>
       <c r="C52" t="n">
-        <v>0.237759</v>
+        <v>0.235156</v>
       </c>
       <c r="D52" t="n">
-        <v>0.233693</v>
+        <v>0.233832</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.25721</v>
+        <v>0.252716</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22571</v>
+        <v>0.223883</v>
       </c>
       <c r="D53" t="n">
-        <v>0.232618</v>
+        <v>0.231927</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.257522</v>
+        <v>0.259096</v>
       </c>
       <c r="C54" t="n">
-        <v>0.226799</v>
+        <v>0.227901</v>
       </c>
       <c r="D54" t="n">
-        <v>0.23345</v>
+        <v>0.235532</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.260332</v>
+        <v>0.259421</v>
       </c>
       <c r="C55" t="n">
-        <v>0.227252</v>
+        <v>0.228134</v>
       </c>
       <c r="D55" t="n">
-        <v>0.234667</v>
+        <v>0.23385</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.26047</v>
+        <v>0.262185</v>
       </c>
       <c r="C56" t="n">
-        <v>0.229024</v>
+        <v>0.227833</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234691</v>
+        <v>0.234143</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.259381</v>
+        <v>0.259632</v>
       </c>
       <c r="C57" t="n">
-        <v>0.229087</v>
+        <v>0.229047</v>
       </c>
       <c r="D57" t="n">
-        <v>0.235272</v>
+        <v>0.234819</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.260733</v>
+        <v>0.26028</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230347</v>
+        <v>0.230644</v>
       </c>
       <c r="D58" t="n">
-        <v>0.236059</v>
+        <v>0.237303</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260575</v>
+        <v>0.260707</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231131</v>
+        <v>0.232128</v>
       </c>
       <c r="D59" t="n">
-        <v>0.23768</v>
+        <v>0.237519</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.2606</v>
+        <v>0.260251</v>
       </c>
       <c r="C60" t="n">
-        <v>0.232453</v>
+        <v>0.232797</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238384</v>
+        <v>0.238526</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260327</v>
+        <v>0.261904</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234282</v>
+        <v>0.234959</v>
       </c>
       <c r="D61" t="n">
-        <v>0.240447</v>
+        <v>0.240675</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.263495</v>
+        <v>0.262117</v>
       </c>
       <c r="C62" t="n">
-        <v>0.235819</v>
+        <v>0.236244</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242562</v>
+        <v>0.242513</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262715</v>
+        <v>0.262096</v>
       </c>
       <c r="C63" t="n">
-        <v>0.237655</v>
+        <v>0.239399</v>
       </c>
       <c r="D63" t="n">
-        <v>0.245679</v>
+        <v>0.246066</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265396</v>
+        <v>0.265615</v>
       </c>
       <c r="C64" t="n">
-        <v>0.241569</v>
+        <v>0.242466</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25083</v>
+        <v>0.25079</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266588</v>
+        <v>0.266977</v>
       </c>
       <c r="C65" t="n">
-        <v>0.246155</v>
+        <v>0.247028</v>
       </c>
       <c r="D65" t="n">
-        <v>0.257601</v>
+        <v>0.257353</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.2721</v>
+        <v>0.271782</v>
       </c>
       <c r="C66" t="n">
-        <v>0.25233</v>
+        <v>0.25333</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241018</v>
+        <v>0.241859</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.27846</v>
+        <v>0.277745</v>
       </c>
       <c r="C67" t="n">
-        <v>0.237105</v>
+        <v>0.236903</v>
       </c>
       <c r="D67" t="n">
-        <v>0.240658</v>
+        <v>0.240222</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.278354</v>
+        <v>0.277747</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237914</v>
+        <v>0.238981</v>
       </c>
       <c r="D68" t="n">
-        <v>0.24139</v>
+        <v>0.241099</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.27884</v>
+        <v>0.27863</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238142</v>
+        <v>0.238801</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241699</v>
+        <v>0.241448</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278585</v>
+        <v>0.278108</v>
       </c>
       <c r="C70" t="n">
-        <v>0.239692</v>
+        <v>0.240345</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243363</v>
+        <v>0.242201</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.278474</v>
+        <v>0.278572</v>
       </c>
       <c r="C71" t="n">
-        <v>0.239285</v>
+        <v>0.241806</v>
       </c>
       <c r="D71" t="n">
-        <v>0.242972</v>
+        <v>0.243151</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278267</v>
+        <v>0.278335</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241853</v>
+        <v>0.242799</v>
       </c>
       <c r="D72" t="n">
-        <v>0.244061</v>
+        <v>0.244566</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.279274</v>
+        <v>0.278696</v>
       </c>
       <c r="C73" t="n">
-        <v>0.24173</v>
+        <v>0.243699</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24491</v>
+        <v>0.24542</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279844</v>
+        <v>0.278719</v>
       </c>
       <c r="C74" t="n">
-        <v>0.243194</v>
+        <v>0.245365</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246605</v>
+        <v>0.246428</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279905</v>
+        <v>0.279889</v>
       </c>
       <c r="C75" t="n">
-        <v>0.243788</v>
+        <v>0.245237</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248259</v>
+        <v>0.248207</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280748</v>
+        <v>0.280399</v>
       </c>
       <c r="C76" t="n">
-        <v>0.245252</v>
+        <v>0.247767</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250459</v>
+        <v>0.250926</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.282497</v>
+        <v>0.281679</v>
       </c>
       <c r="C77" t="n">
-        <v>0.248336</v>
+        <v>0.250169</v>
       </c>
       <c r="D77" t="n">
-        <v>0.254206</v>
+        <v>0.253254</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.282992</v>
+        <v>0.283423</v>
       </c>
       <c r="C78" t="n">
-        <v>0.250696</v>
+        <v>0.254345</v>
       </c>
       <c r="D78" t="n">
-        <v>0.258329</v>
+        <v>0.258968</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.286712</v>
+        <v>0.285847</v>
       </c>
       <c r="C79" t="n">
-        <v>0.256639</v>
+        <v>0.257973</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265956</v>
+        <v>0.265212</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290456</v>
+        <v>0.290025</v>
       </c>
       <c r="C80" t="n">
-        <v>0.261017</v>
+        <v>0.26455</v>
       </c>
       <c r="D80" t="n">
-        <v>0.251636</v>
+        <v>0.250545</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.303036</v>
+        <v>0.299289</v>
       </c>
       <c r="C81" t="n">
-        <v>0.24317</v>
+        <v>0.239687</v>
       </c>
       <c r="D81" t="n">
-        <v>0.252339</v>
+        <v>0.251306</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.307002</v>
+        <v>0.299173</v>
       </c>
       <c r="C82" t="n">
-        <v>0.250009</v>
+        <v>0.241376</v>
       </c>
       <c r="D82" t="n">
-        <v>0.255568</v>
+        <v>0.252125</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.306849</v>
+        <v>0.2985</v>
       </c>
       <c r="C83" t="n">
-        <v>0.245729</v>
+        <v>0.241387</v>
       </c>
       <c r="D83" t="n">
-        <v>0.254837</v>
+        <v>0.253148</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.303034</v>
+        <v>0.298996</v>
       </c>
       <c r="C84" t="n">
-        <v>0.24268</v>
+        <v>0.24267</v>
       </c>
       <c r="D84" t="n">
-        <v>0.254029</v>
+        <v>0.253948</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.300534</v>
+        <v>0.300229</v>
       </c>
       <c r="C85" t="n">
-        <v>0.239689</v>
+        <v>0.244394</v>
       </c>
       <c r="D85" t="n">
-        <v>0.251019</v>
+        <v>0.254322</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.291358</v>
+        <v>0.302544</v>
       </c>
       <c r="C86" t="n">
-        <v>0.243905</v>
+        <v>0.246848</v>
       </c>
       <c r="D86" t="n">
-        <v>0.255334</v>
+        <v>0.256326</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.304385</v>
+        <v>0.302098</v>
       </c>
       <c r="C87" t="n">
-        <v>0.245238</v>
+        <v>0.245702</v>
       </c>
       <c r="D87" t="n">
-        <v>0.258549</v>
+        <v>0.25737</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301813</v>
+        <v>0.301705</v>
       </c>
       <c r="C88" t="n">
-        <v>0.247883</v>
+        <v>0.246896</v>
       </c>
       <c r="D88" t="n">
-        <v>0.257749</v>
+        <v>0.258294</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.303712</v>
+        <v>0.302763</v>
       </c>
       <c r="C89" t="n">
-        <v>0.248601</v>
+        <v>0.246044</v>
       </c>
       <c r="D89" t="n">
-        <v>0.260344</v>
+        <v>0.259582</v>
       </c>
     </row>
     <row r="90">
@@ -4483,10 +4483,10 @@
         <v>0.301268</v>
       </c>
       <c r="C90" t="n">
-        <v>0.250192</v>
+        <v>0.248818</v>
       </c>
       <c r="D90" t="n">
-        <v>0.26228</v>
+        <v>0.261385</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.304038</v>
+        <v>0.30239</v>
       </c>
       <c r="C91" t="n">
-        <v>0.251115</v>
+        <v>0.252409</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264918</v>
+        <v>0.264308</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.304695</v>
+        <v>0.303874</v>
       </c>
       <c r="C92" t="n">
-        <v>0.246957</v>
+        <v>0.252656</v>
       </c>
       <c r="D92" t="n">
-        <v>0.261818</v>
+        <v>0.268724</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.29661</v>
+        <v>0.308231</v>
       </c>
       <c r="C93" t="n">
-        <v>0.259912</v>
+        <v>0.257</v>
       </c>
       <c r="D93" t="n">
-        <v>0.276998</v>
+        <v>0.275333</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.311181</v>
+        <v>0.309588</v>
       </c>
       <c r="C94" t="n">
-        <v>0.256852</v>
+        <v>0.262711</v>
       </c>
       <c r="D94" t="n">
-        <v>0.398905</v>
+        <v>0.393471</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.494411</v>
+        <v>0.482687</v>
       </c>
       <c r="C95" t="n">
-        <v>0.406857</v>
+        <v>0.409726</v>
       </c>
       <c r="D95" t="n">
-        <v>0.395705</v>
+        <v>0.390971</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.470719</v>
+        <v>0.480455</v>
       </c>
       <c r="C96" t="n">
-        <v>0.393779</v>
+        <v>0.404635</v>
       </c>
       <c r="D96" t="n">
-        <v>0.381111</v>
+        <v>0.393039</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.450406</v>
+        <v>0.475657</v>
       </c>
       <c r="C97" t="n">
-        <v>0.416812</v>
+        <v>0.41117</v>
       </c>
       <c r="D97" t="n">
-        <v>0.413108</v>
+        <v>0.392926</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.495874</v>
+        <v>0.483072</v>
       </c>
       <c r="C98" t="n">
-        <v>0.425038</v>
+        <v>0.405489</v>
       </c>
       <c r="D98" t="n">
-        <v>0.413019</v>
+        <v>0.38893</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.495239</v>
+        <v>0.475003</v>
       </c>
       <c r="C99" t="n">
-        <v>0.425791</v>
+        <v>0.4102</v>
       </c>
       <c r="D99" t="n">
-        <v>0.416893</v>
+        <v>0.394847</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.496717</v>
+        <v>0.483872</v>
       </c>
       <c r="C100" t="n">
-        <v>0.426276</v>
+        <v>0.408856</v>
       </c>
       <c r="D100" t="n">
-        <v>0.416201</v>
+        <v>0.393879</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.493648</v>
+        <v>0.477444</v>
       </c>
       <c r="C101" t="n">
-        <v>0.426114</v>
+        <v>0.412524</v>
       </c>
       <c r="D101" t="n">
-        <v>0.416522</v>
+        <v>0.398822</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.499934</v>
+        <v>0.480484</v>
       </c>
       <c r="C102" t="n">
-        <v>0.427418</v>
+        <v>0.40871</v>
       </c>
       <c r="D102" t="n">
-        <v>0.417761</v>
+        <v>0.395908</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.490079</v>
+        <v>0.478494</v>
       </c>
       <c r="C103" t="n">
-        <v>0.42301</v>
+        <v>0.412598</v>
       </c>
       <c r="D103" t="n">
-        <v>0.41329</v>
+        <v>0.397615</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.494234</v>
+        <v>0.480968</v>
       </c>
       <c r="C104" t="n">
-        <v>0.426951</v>
+        <v>0.409331</v>
       </c>
       <c r="D104" t="n">
-        <v>0.414742</v>
+        <v>0.398698</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.495826</v>
+        <v>0.475251</v>
       </c>
       <c r="C105" t="n">
-        <v>0.427818</v>
+        <v>0.421691</v>
       </c>
       <c r="D105" t="n">
-        <v>0.419128</v>
+        <v>0.409891</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.492463</v>
+        <v>0.483261</v>
       </c>
       <c r="C106" t="n">
-        <v>0.431165</v>
+        <v>0.414964</v>
       </c>
       <c r="D106" t="n">
-        <v>0.426848</v>
+        <v>0.406513</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.493778</v>
+        <v>0.478139</v>
       </c>
       <c r="C107" t="n">
-        <v>0.433542</v>
+        <v>0.426218</v>
       </c>
       <c r="D107" t="n">
-        <v>0.42555</v>
+        <v>0.419216</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492122</v>
+        <v>0.488566</v>
       </c>
       <c r="C108" t="n">
-        <v>0.437848</v>
+        <v>0.430463</v>
       </c>
       <c r="D108" t="n">
-        <v>0.647408</v>
+        <v>0.661958</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.499907</v>
+        <v>0.48012</v>
       </c>
       <c r="C109" t="n">
-        <v>0.44532</v>
+        <v>0.438065</v>
       </c>
       <c r="D109" t="n">
-        <v>0.654807</v>
+        <v>0.663288</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.783171</v>
+        <v>0.774296</v>
       </c>
       <c r="C110" t="n">
-        <v>0.664884</v>
+        <v>0.6603869999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.668247</v>
+        <v>0.6642439999999999</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7801709999999999</v>
+        <v>0.777064</v>
       </c>
       <c r="C111" t="n">
-        <v>0.64864</v>
+        <v>0.660141</v>
       </c>
       <c r="D111" t="n">
-        <v>0.657289</v>
+        <v>0.665214</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.780076</v>
+        <v>0.778168</v>
       </c>
       <c r="C112" t="n">
-        <v>0.651103</v>
+        <v>0.661016</v>
       </c>
       <c r="D112" t="n">
-        <v>0.671528</v>
+        <v>0.665952</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.779752</v>
+        <v>0.7769160000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>0.667227</v>
+        <v>0.6627459999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.671731</v>
+        <v>0.667205</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.780778</v>
+        <v>0.776436</v>
       </c>
       <c r="C114" t="n">
-        <v>0.668474</v>
+        <v>0.663891</v>
       </c>
       <c r="D114" t="n">
-        <v>0.673001</v>
+        <v>0.667982</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.779613</v>
+        <v>0.775365</v>
       </c>
       <c r="C115" t="n">
-        <v>0.670911</v>
+        <v>0.6660199999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.673885</v>
+        <v>0.67018</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.777743</v>
+        <v>0.7756999999999999</v>
       </c>
       <c r="C116" t="n">
-        <v>0.655176</v>
+        <v>0.666199</v>
       </c>
       <c r="D116" t="n">
-        <v>0.664391</v>
+        <v>0.672051</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.7681</v>
+        <v>0.773299</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6735910000000001</v>
+        <v>0.668212</v>
       </c>
       <c r="D117" t="n">
-        <v>0.678769</v>
+        <v>0.67356</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.7618819999999999</v>
+        <v>0.775343</v>
       </c>
       <c r="C118" t="n">
-        <v>0.660052</v>
+        <v>0.670282</v>
       </c>
       <c r="D118" t="n">
-        <v>0.6820310000000001</v>
+        <v>0.67639</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.780787</v>
+        <v>0.776506</v>
       </c>
       <c r="C119" t="n">
-        <v>0.679823</v>
+        <v>0.673412</v>
       </c>
       <c r="D119" t="n">
-        <v>0.686378</v>
+        <v>0.679603</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.781235</v>
+        <v>0.777647</v>
       </c>
       <c r="C120" t="n">
-        <v>0.683042</v>
+        <v>0.677363</v>
       </c>
       <c r="D120" t="n">
-        <v>0.691349</v>
+        <v>0.684199</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.784433</v>
+        <v>0.776757</v>
       </c>
       <c r="C121" t="n">
-        <v>0.672963</v>
+        <v>0.681979</v>
       </c>
       <c r="D121" t="n">
-        <v>0.685409</v>
+        <v>0.690715</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.779616</v>
+        <v>0.778185</v>
       </c>
       <c r="C122" t="n">
-        <v>0.6794750000000001</v>
+        <v>0.688396</v>
       </c>
       <c r="D122" t="n">
-        <v>0.706956</v>
+        <v>0.698593</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.786985</v>
+        <v>0.780438</v>
       </c>
       <c r="C123" t="n">
-        <v>0.707086</v>
+        <v>0.698717</v>
       </c>
       <c r="D123" t="n">
-        <v>0.774797</v>
+        <v>0.769535</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.04368</v>
+        <v>1.03222</v>
       </c>
       <c r="C124" t="n">
-        <v>0.76468</v>
+        <v>0.760866</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7823909999999999</v>
+        <v>0.771385</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.04556</v>
+        <v>1.03067</v>
       </c>
       <c r="C125" t="n">
-        <v>0.765347</v>
+        <v>0.762157</v>
       </c>
       <c r="D125" t="n">
-        <v>0.782645</v>
+        <v>0.7721789999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.04183</v>
+        <v>1.03215</v>
       </c>
       <c r="C126" t="n">
-        <v>0.773863</v>
+        <v>0.761615</v>
       </c>
       <c r="D126" t="n">
-        <v>0.784139</v>
+        <v>0.772594</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.04288</v>
+        <v>1.03261</v>
       </c>
       <c r="C127" t="n">
-        <v>0.775108</v>
+        <v>0.76361</v>
       </c>
       <c r="D127" t="n">
-        <v>0.785973</v>
+        <v>0.774566</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03953</v>
+        <v>1.03034</v>
       </c>
       <c r="C128" t="n">
-        <v>0.776481</v>
+        <v>0.765127</v>
       </c>
       <c r="D128" t="n">
-        <v>0.781244</v>
+        <v>0.776576</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.04179</v>
+        <v>1.02709</v>
       </c>
       <c r="C129" t="n">
-        <v>0.77861</v>
+        <v>0.766589</v>
       </c>
       <c r="D129" t="n">
-        <v>0.783624</v>
+        <v>0.778577</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03905</v>
+        <v>1.03197</v>
       </c>
       <c r="C130" t="n">
-        <v>0.781264</v>
+        <v>0.768792</v>
       </c>
       <c r="D130" t="n">
-        <v>0.793114</v>
+        <v>0.780745</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.04123</v>
+        <v>1.02984</v>
       </c>
       <c r="C131" t="n">
-        <v>0.77666</v>
+        <v>0.772072</v>
       </c>
       <c r="D131" t="n">
-        <v>0.79593</v>
+        <v>0.784821</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04339</v>
+        <v>1.03122</v>
       </c>
       <c r="C132" t="n">
-        <v>0.787079</v>
+        <v>0.776299</v>
       </c>
       <c r="D132" t="n">
-        <v>0.800183</v>
+        <v>0.788524</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.04485</v>
+        <v>1.0322</v>
       </c>
       <c r="C133" t="n">
-        <v>0.790641</v>
+        <v>0.778733</v>
       </c>
       <c r="D133" t="n">
-        <v>0.805019</v>
+        <v>0.792736</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04246</v>
+        <v>1.03365</v>
       </c>
       <c r="C134" t="n">
-        <v>0.797219</v>
+        <v>0.785695</v>
       </c>
       <c r="D134" t="n">
-        <v>0.811894</v>
+        <v>0.8009269999999999</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.02743</v>
+        <v>1.03192</v>
       </c>
       <c r="C135" t="n">
-        <v>0.8041700000000001</v>
+        <v>0.790015</v>
       </c>
       <c r="D135" t="n">
-        <v>0.82221</v>
+        <v>0.807689</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.0253</v>
+        <v>1.03288</v>
       </c>
       <c r="C136" t="n">
-        <v>0.811628</v>
+        <v>0.798226</v>
       </c>
       <c r="D136" t="n">
-        <v>0.828323</v>
+        <v>0.821099</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04815</v>
+        <v>1.03532</v>
       </c>
       <c r="C137" t="n">
-        <v>0.817137</v>
+        <v>0.810653</v>
       </c>
       <c r="D137" t="n">
-        <v>0.826121</v>
+        <v>0.814683</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25398</v>
+        <v>1.2562</v>
       </c>
       <c r="C138" t="n">
-        <v>0.816119</v>
+        <v>0.803749</v>
       </c>
       <c r="D138" t="n">
-        <v>0.82702</v>
+        <v>0.817817</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.25176</v>
+        <v>1.25804</v>
       </c>
       <c r="C139" t="n">
-        <v>0.818001</v>
+        <v>0.804038</v>
       </c>
       <c r="D139" t="n">
-        <v>0.831761</v>
+        <v>0.818368</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26546</v>
+        <v>1.2548</v>
       </c>
       <c r="C140" t="n">
-        <v>0.820248</v>
+        <v>0.805015</v>
       </c>
       <c r="D140" t="n">
-        <v>0.830467</v>
+        <v>0.820202</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25223</v>
+        <v>1.25586</v>
       </c>
       <c r="C141" t="n">
-        <v>0.820012</v>
+        <v>0.807178</v>
       </c>
       <c r="D141" t="n">
-        <v>0.835641</v>
+        <v>0.822509</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26541</v>
+        <v>1.2555</v>
       </c>
       <c r="C142" t="n">
-        <v>0.82197</v>
+        <v>0.808621</v>
       </c>
       <c r="D142" t="n">
-        <v>0.83593</v>
+        <v>0.824188</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25226</v>
+        <v>1.25765</v>
       </c>
       <c r="C143" t="n">
-        <v>0.821922</v>
+        <v>0.811613</v>
       </c>
       <c r="D143" t="n">
-        <v>0.839541</v>
+        <v>0.826414</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175675</v>
+        <v>0.175156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.187294</v>
+        <v>0.184311</v>
       </c>
       <c r="D2" t="n">
-        <v>0.196809</v>
+        <v>0.194257</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175614</v>
+        <v>0.175547</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187559</v>
+        <v>0.184989</v>
       </c>
       <c r="D3" t="n">
-        <v>0.197251</v>
+        <v>0.19506</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176343</v>
+        <v>0.176477</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188534</v>
+        <v>0.185923</v>
       </c>
       <c r="D4" t="n">
-        <v>0.198512</v>
+        <v>0.196395</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177079</v>
+        <v>0.177031</v>
       </c>
       <c r="C5" t="n">
-        <v>0.190046</v>
+        <v>0.187435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.20019</v>
+        <v>0.198174</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177988</v>
+        <v>0.177956</v>
       </c>
       <c r="C6" t="n">
-        <v>0.191945</v>
+        <v>0.189254</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202297</v>
+        <v>0.200425</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.179574</v>
+        <v>0.179567</v>
       </c>
       <c r="C7" t="n">
-        <v>0.194284</v>
+        <v>0.191193</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205278</v>
+        <v>0.203894</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.181792</v>
+        <v>0.181982</v>
       </c>
       <c r="C8" t="n">
-        <v>0.196732</v>
+        <v>0.194134</v>
       </c>
       <c r="D8" t="n">
-        <v>0.209917</v>
+        <v>0.208379</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.185683</v>
+        <v>0.185708</v>
       </c>
       <c r="C9" t="n">
-        <v>0.200466</v>
+        <v>0.198395</v>
       </c>
       <c r="D9" t="n">
-        <v>0.193602</v>
+        <v>0.1915</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.183288</v>
+        <v>0.182088</v>
       </c>
       <c r="C10" t="n">
-        <v>0.18657</v>
+        <v>0.184597</v>
       </c>
       <c r="D10" t="n">
-        <v>0.194253</v>
+        <v>0.192067</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.182182</v>
+        <v>0.181225</v>
       </c>
       <c r="C11" t="n">
-        <v>0.187045</v>
+        <v>0.183969</v>
       </c>
       <c r="D11" t="n">
-        <v>0.194439</v>
+        <v>0.191829</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.18149</v>
+        <v>0.18315</v>
       </c>
       <c r="C12" t="n">
-        <v>0.18679</v>
+        <v>0.183977</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194218</v>
+        <v>0.192135</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.181494</v>
+        <v>0.182404</v>
       </c>
       <c r="C13" t="n">
-        <v>0.187182</v>
+        <v>0.185831</v>
       </c>
       <c r="D13" t="n">
-        <v>0.194511</v>
+        <v>0.193644</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.181798</v>
+        <v>0.182604</v>
       </c>
       <c r="C14" t="n">
-        <v>0.187543</v>
+        <v>0.185419</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194922</v>
+        <v>0.193042</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.18198</v>
+        <v>0.183825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.188188</v>
+        <v>0.185352</v>
       </c>
       <c r="D15" t="n">
-        <v>0.195589</v>
+        <v>0.193675</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.182296</v>
+        <v>0.182359</v>
       </c>
       <c r="C16" t="n">
-        <v>0.188971</v>
+        <v>0.185976</v>
       </c>
       <c r="D16" t="n">
-        <v>0.196302</v>
+        <v>0.194376</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.183221</v>
+        <v>0.184549</v>
       </c>
       <c r="C17" t="n">
-        <v>0.189663</v>
+        <v>0.187307</v>
       </c>
       <c r="D17" t="n">
-        <v>0.197149</v>
+        <v>0.195531</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.183018</v>
+        <v>0.185602</v>
       </c>
       <c r="C18" t="n">
-        <v>0.190745</v>
+        <v>0.188474</v>
       </c>
       <c r="D18" t="n">
-        <v>0.198231</v>
+        <v>0.19649</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.18408</v>
+        <v>0.184876</v>
       </c>
       <c r="C19" t="n">
-        <v>0.191803</v>
+        <v>0.189339</v>
       </c>
       <c r="D19" t="n">
-        <v>0.199945</v>
+        <v>0.198485</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18517</v>
+        <v>0.186011</v>
       </c>
       <c r="C20" t="n">
-        <v>0.193305</v>
+        <v>0.190495</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201767</v>
+        <v>0.200352</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.187501</v>
+        <v>0.187702</v>
       </c>
       <c r="C21" t="n">
-        <v>0.195933</v>
+        <v>0.192776</v>
       </c>
       <c r="D21" t="n">
-        <v>0.20512</v>
+        <v>0.20319</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.18966</v>
+        <v>0.192353</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197921</v>
+        <v>0.197031</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208479</v>
+        <v>0.208218</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.193092</v>
+        <v>0.192968</v>
       </c>
       <c r="C23" t="n">
-        <v>0.201642</v>
+        <v>0.199267</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201342</v>
+        <v>0.201844</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.201764</v>
+        <v>0.203212</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1897</v>
+        <v>0.188497</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201404</v>
+        <v>0.199512</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.201658</v>
+        <v>0.203711</v>
       </c>
       <c r="C25" t="n">
-        <v>0.191661</v>
+        <v>0.188932</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20164</v>
+        <v>0.19987</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.201256</v>
+        <v>0.202613</v>
       </c>
       <c r="C26" t="n">
-        <v>0.191777</v>
+        <v>0.189222</v>
       </c>
       <c r="D26" t="n">
-        <v>0.202871</v>
+        <v>0.201235</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.200475</v>
+        <v>0.20276</v>
       </c>
       <c r="C27" t="n">
-        <v>0.191686</v>
+        <v>0.189104</v>
       </c>
       <c r="D27" t="n">
-        <v>0.203629</v>
+        <v>0.20092</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.200909</v>
+        <v>0.202543</v>
       </c>
       <c r="C28" t="n">
-        <v>0.192763</v>
+        <v>0.188774</v>
       </c>
       <c r="D28" t="n">
-        <v>0.203672</v>
+        <v>0.201603</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.201349</v>
+        <v>0.202823</v>
       </c>
       <c r="C29" t="n">
-        <v>0.193087</v>
+        <v>0.19001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.203442</v>
+        <v>0.201541</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.201432</v>
+        <v>0.204206</v>
       </c>
       <c r="C30" t="n">
-        <v>0.194742</v>
+        <v>0.190608</v>
       </c>
       <c r="D30" t="n">
-        <v>0.206746</v>
+        <v>0.201955</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202566</v>
+        <v>0.204623</v>
       </c>
       <c r="C31" t="n">
-        <v>0.195305</v>
+        <v>0.191056</v>
       </c>
       <c r="D31" t="n">
-        <v>0.206119</v>
+        <v>0.203165</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.202684</v>
+        <v>0.204296</v>
       </c>
       <c r="C32" t="n">
-        <v>0.196537</v>
+        <v>0.192744</v>
       </c>
       <c r="D32" t="n">
-        <v>0.206728</v>
+        <v>0.204604</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.204345</v>
+        <v>0.2052</v>
       </c>
       <c r="C33" t="n">
-        <v>0.198455</v>
+        <v>0.193788</v>
       </c>
       <c r="D33" t="n">
-        <v>0.208427</v>
+        <v>0.20592</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.205012</v>
+        <v>0.206404</v>
       </c>
       <c r="C34" t="n">
-        <v>0.200508</v>
+        <v>0.195519</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2107</v>
+        <v>0.20741</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.207592</v>
+        <v>0.207006</v>
       </c>
       <c r="C35" t="n">
-        <v>0.202079</v>
+        <v>0.197859</v>
       </c>
       <c r="D35" t="n">
-        <v>0.214368</v>
+        <v>0.210492</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210081</v>
+        <v>0.209928</v>
       </c>
       <c r="C36" t="n">
-        <v>0.205985</v>
+        <v>0.201086</v>
       </c>
       <c r="D36" t="n">
-        <v>0.217867</v>
+        <v>0.215455</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.214328</v>
+        <v>0.214484</v>
       </c>
       <c r="C37" t="n">
-        <v>0.210359</v>
+        <v>0.20568</v>
       </c>
       <c r="D37" t="n">
-        <v>0.22053</v>
+        <v>0.219047</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.233023</v>
+        <v>0.232888</v>
       </c>
       <c r="C38" t="n">
-        <v>0.207793</v>
+        <v>0.207371</v>
       </c>
       <c r="D38" t="n">
-        <v>0.22009</v>
+        <v>0.219061</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.233773</v>
+        <v>0.230881</v>
       </c>
       <c r="C39" t="n">
-        <v>0.210213</v>
+        <v>0.20726</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220957</v>
+        <v>0.218379</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.234959</v>
+        <v>0.233787</v>
       </c>
       <c r="C40" t="n">
-        <v>0.209539</v>
+        <v>0.207168</v>
       </c>
       <c r="D40" t="n">
-        <v>0.222237</v>
+        <v>0.219121</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.234676</v>
+        <v>0.231176</v>
       </c>
       <c r="C41" t="n">
-        <v>0.211024</v>
+        <v>0.207879</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221354</v>
+        <v>0.219266</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.231993</v>
+        <v>0.234115</v>
       </c>
       <c r="C42" t="n">
-        <v>0.210795</v>
+        <v>0.209779</v>
       </c>
       <c r="D42" t="n">
-        <v>0.222636</v>
+        <v>0.22065</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.231742</v>
+        <v>0.232184</v>
       </c>
       <c r="C43" t="n">
-        <v>0.21203</v>
+        <v>0.210425</v>
       </c>
       <c r="D43" t="n">
-        <v>0.223269</v>
+        <v>0.221073</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.232987</v>
+        <v>0.23329</v>
       </c>
       <c r="C44" t="n">
-        <v>0.213551</v>
+        <v>0.212877</v>
       </c>
       <c r="D44" t="n">
-        <v>0.2242</v>
+        <v>0.223019</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.232758</v>
+        <v>0.231966</v>
       </c>
       <c r="C45" t="n">
-        <v>0.214585</v>
+        <v>0.212114</v>
       </c>
       <c r="D45" t="n">
-        <v>0.224757</v>
+        <v>0.222666</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.233946</v>
+        <v>0.233173</v>
       </c>
       <c r="C46" t="n">
-        <v>0.216255</v>
+        <v>0.21482</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225841</v>
+        <v>0.225016</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.235466</v>
+        <v>0.234632</v>
       </c>
       <c r="C47" t="n">
-        <v>0.218512</v>
+        <v>0.216125</v>
       </c>
       <c r="D47" t="n">
-        <v>0.228013</v>
+        <v>0.226599</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.236196</v>
+        <v>0.23496</v>
       </c>
       <c r="C48" t="n">
-        <v>0.220095</v>
+        <v>0.216215</v>
       </c>
       <c r="D48" t="n">
-        <v>0.230005</v>
+        <v>0.228035</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.236105</v>
+        <v>0.237442</v>
       </c>
       <c r="C49" t="n">
-        <v>0.222105</v>
+        <v>0.218883</v>
       </c>
       <c r="D49" t="n">
-        <v>0.233137</v>
+        <v>0.230589</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.238645</v>
+        <v>0.237966</v>
       </c>
       <c r="C50" t="n">
-        <v>0.224342</v>
+        <v>0.221243</v>
       </c>
       <c r="D50" t="n">
-        <v>0.236899</v>
+        <v>0.235732</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.241284</v>
+        <v>0.242082</v>
       </c>
       <c r="C51" t="n">
-        <v>0.229635</v>
+        <v>0.226517</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233239</v>
+        <v>0.231054</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.244712</v>
+        <v>0.244579</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235156</v>
+        <v>0.233071</v>
       </c>
       <c r="D52" t="n">
-        <v>0.233832</v>
+        <v>0.23157</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.252716</v>
+        <v>0.257261</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223883</v>
+        <v>0.222895</v>
       </c>
       <c r="D53" t="n">
-        <v>0.231927</v>
+        <v>0.230517</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.259096</v>
+        <v>0.257331</v>
       </c>
       <c r="C54" t="n">
-        <v>0.227901</v>
+        <v>0.223773</v>
       </c>
       <c r="D54" t="n">
-        <v>0.235532</v>
+        <v>0.231157</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259421</v>
+        <v>0.260734</v>
       </c>
       <c r="C55" t="n">
-        <v>0.228134</v>
+        <v>0.226255</v>
       </c>
       <c r="D55" t="n">
-        <v>0.23385</v>
+        <v>0.232415</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.262185</v>
+        <v>0.259173</v>
       </c>
       <c r="C56" t="n">
-        <v>0.227833</v>
+        <v>0.225702</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234143</v>
+        <v>0.232288</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.259632</v>
+        <v>0.258913</v>
       </c>
       <c r="C57" t="n">
-        <v>0.229047</v>
+        <v>0.227635</v>
       </c>
       <c r="D57" t="n">
-        <v>0.234819</v>
+        <v>0.233798</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.26028</v>
+        <v>0.258608</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230644</v>
+        <v>0.226431</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237303</v>
+        <v>0.234091</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260707</v>
+        <v>0.261004</v>
       </c>
       <c r="C59" t="n">
-        <v>0.232128</v>
+        <v>0.229594</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237519</v>
+        <v>0.235484</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.260251</v>
+        <v>0.262616</v>
       </c>
       <c r="C60" t="n">
-        <v>0.232797</v>
+        <v>0.229513</v>
       </c>
       <c r="D60" t="n">
-        <v>0.238526</v>
+        <v>0.236849</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.261904</v>
+        <v>0.260545</v>
       </c>
       <c r="C61" t="n">
-        <v>0.234959</v>
+        <v>0.23141</v>
       </c>
       <c r="D61" t="n">
-        <v>0.240675</v>
+        <v>0.239078</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262117</v>
+        <v>0.262041</v>
       </c>
       <c r="C62" t="n">
-        <v>0.236244</v>
+        <v>0.233968</v>
       </c>
       <c r="D62" t="n">
-        <v>0.242513</v>
+        <v>0.241066</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262096</v>
+        <v>0.262692</v>
       </c>
       <c r="C63" t="n">
-        <v>0.239399</v>
+        <v>0.236771</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246066</v>
+        <v>0.244368</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265615</v>
+        <v>0.265059</v>
       </c>
       <c r="C64" t="n">
-        <v>0.242466</v>
+        <v>0.239939</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25079</v>
+        <v>0.249143</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266977</v>
+        <v>0.268757</v>
       </c>
       <c r="C65" t="n">
-        <v>0.247028</v>
+        <v>0.244727</v>
       </c>
       <c r="D65" t="n">
-        <v>0.257353</v>
+        <v>0.256501</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.271782</v>
+        <v>0.27219</v>
       </c>
       <c r="C66" t="n">
-        <v>0.25333</v>
+        <v>0.251195</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241859</v>
+        <v>0.238296</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.277745</v>
+        <v>0.277388</v>
       </c>
       <c r="C67" t="n">
-        <v>0.236903</v>
+        <v>0.234746</v>
       </c>
       <c r="D67" t="n">
-        <v>0.240222</v>
+        <v>0.238315</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.277747</v>
+        <v>0.278346</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238981</v>
+        <v>0.234456</v>
       </c>
       <c r="D68" t="n">
-        <v>0.241099</v>
+        <v>0.238595</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.27863</v>
+        <v>0.27791</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238801</v>
+        <v>0.23493</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241448</v>
+        <v>0.239304</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278108</v>
+        <v>0.278361</v>
       </c>
       <c r="C70" t="n">
-        <v>0.240345</v>
+        <v>0.236613</v>
       </c>
       <c r="D70" t="n">
-        <v>0.242201</v>
+        <v>0.240058</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.278572</v>
+        <v>0.278454</v>
       </c>
       <c r="C71" t="n">
-        <v>0.241806</v>
+        <v>0.237257</v>
       </c>
       <c r="D71" t="n">
-        <v>0.243151</v>
+        <v>0.241471</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278335</v>
+        <v>0.279251</v>
       </c>
       <c r="C72" t="n">
-        <v>0.242799</v>
+        <v>0.238345</v>
       </c>
       <c r="D72" t="n">
-        <v>0.244566</v>
+        <v>0.241876</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.278696</v>
+        <v>0.27931</v>
       </c>
       <c r="C73" t="n">
-        <v>0.243699</v>
+        <v>0.239301</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24542</v>
+        <v>0.242795</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.278719</v>
+        <v>0.279202</v>
       </c>
       <c r="C74" t="n">
-        <v>0.245365</v>
+        <v>0.240036</v>
       </c>
       <c r="D74" t="n">
-        <v>0.246428</v>
+        <v>0.244105</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279889</v>
+        <v>0.280345</v>
       </c>
       <c r="C75" t="n">
-        <v>0.245237</v>
+        <v>0.241912</v>
       </c>
       <c r="D75" t="n">
-        <v>0.248207</v>
+        <v>0.246446</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280399</v>
+        <v>0.281187</v>
       </c>
       <c r="C76" t="n">
-        <v>0.247767</v>
+        <v>0.24293</v>
       </c>
       <c r="D76" t="n">
-        <v>0.250926</v>
+        <v>0.248861</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.281679</v>
+        <v>0.282549</v>
       </c>
       <c r="C77" t="n">
-        <v>0.250169</v>
+        <v>0.245799</v>
       </c>
       <c r="D77" t="n">
-        <v>0.253254</v>
+        <v>0.252919</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283423</v>
+        <v>0.283859</v>
       </c>
       <c r="C78" t="n">
-        <v>0.254345</v>
+        <v>0.248497</v>
       </c>
       <c r="D78" t="n">
-        <v>0.258968</v>
+        <v>0.25676</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.285847</v>
+        <v>0.286864</v>
       </c>
       <c r="C79" t="n">
-        <v>0.257973</v>
+        <v>0.252696</v>
       </c>
       <c r="D79" t="n">
-        <v>0.265212</v>
+        <v>0.263242</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290025</v>
+        <v>0.289842</v>
       </c>
       <c r="C80" t="n">
-        <v>0.26455</v>
+        <v>0.259755</v>
       </c>
       <c r="D80" t="n">
-        <v>0.250545</v>
+        <v>0.248801</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.299289</v>
+        <v>0.299498</v>
       </c>
       <c r="C81" t="n">
-        <v>0.239687</v>
+        <v>0.241911</v>
       </c>
       <c r="D81" t="n">
-        <v>0.251306</v>
+        <v>0.249739</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.299173</v>
+        <v>0.300585</v>
       </c>
       <c r="C82" t="n">
-        <v>0.241376</v>
+        <v>0.242571</v>
       </c>
       <c r="D82" t="n">
-        <v>0.252125</v>
+        <v>0.253143</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.2985</v>
+        <v>0.299915</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241387</v>
+        <v>0.241722</v>
       </c>
       <c r="D83" t="n">
-        <v>0.253148</v>
+        <v>0.251386</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298996</v>
+        <v>0.299424</v>
       </c>
       <c r="C84" t="n">
-        <v>0.24267</v>
+        <v>0.240911</v>
       </c>
       <c r="D84" t="n">
-        <v>0.253948</v>
+        <v>0.25155</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.300229</v>
+        <v>0.303966</v>
       </c>
       <c r="C85" t="n">
-        <v>0.244394</v>
+        <v>0.241018</v>
       </c>
       <c r="D85" t="n">
-        <v>0.254322</v>
+        <v>0.2528</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.302544</v>
+        <v>0.298906</v>
       </c>
       <c r="C86" t="n">
-        <v>0.246848</v>
+        <v>0.241911</v>
       </c>
       <c r="D86" t="n">
-        <v>0.256326</v>
+        <v>0.253199</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.302098</v>
+        <v>0.301816</v>
       </c>
       <c r="C87" t="n">
-        <v>0.245702</v>
+        <v>0.242904</v>
       </c>
       <c r="D87" t="n">
-        <v>0.25737</v>
+        <v>0.253905</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301705</v>
+        <v>0.301972</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246896</v>
+        <v>0.245202</v>
       </c>
       <c r="D88" t="n">
-        <v>0.258294</v>
+        <v>0.255273</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.302763</v>
+        <v>0.300598</v>
       </c>
       <c r="C89" t="n">
-        <v>0.246044</v>
+        <v>0.24843</v>
       </c>
       <c r="D89" t="n">
-        <v>0.259582</v>
+        <v>0.260648</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.301268</v>
+        <v>0.300822</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248818</v>
+        <v>0.248378</v>
       </c>
       <c r="D90" t="n">
-        <v>0.261385</v>
+        <v>0.260438</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.30239</v>
+        <v>0.304692</v>
       </c>
       <c r="C91" t="n">
-        <v>0.252409</v>
+        <v>0.251125</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264308</v>
+        <v>0.264867</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.303874</v>
+        <v>0.304056</v>
       </c>
       <c r="C92" t="n">
-        <v>0.252656</v>
+        <v>0.253238</v>
       </c>
       <c r="D92" t="n">
-        <v>0.268724</v>
+        <v>0.26974</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.308231</v>
+        <v>0.307007</v>
       </c>
       <c r="C93" t="n">
-        <v>0.257</v>
+        <v>0.259026</v>
       </c>
       <c r="D93" t="n">
-        <v>0.275333</v>
+        <v>0.275713</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.309588</v>
+        <v>0.310293</v>
       </c>
       <c r="C94" t="n">
-        <v>0.262711</v>
+        <v>0.261096</v>
       </c>
       <c r="D94" t="n">
-        <v>0.393471</v>
+        <v>0.400696</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.482687</v>
+        <v>0.493299</v>
       </c>
       <c r="C95" t="n">
-        <v>0.409726</v>
+        <v>0.414722</v>
       </c>
       <c r="D95" t="n">
-        <v>0.390971</v>
+        <v>0.400973</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.480455</v>
+        <v>0.494461</v>
       </c>
       <c r="C96" t="n">
-        <v>0.404635</v>
+        <v>0.40235</v>
       </c>
       <c r="D96" t="n">
-        <v>0.393039</v>
+        <v>0.396624</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.475657</v>
+        <v>0.48004</v>
       </c>
       <c r="C97" t="n">
-        <v>0.41117</v>
+        <v>0.414273</v>
       </c>
       <c r="D97" t="n">
-        <v>0.392926</v>
+        <v>0.401376</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.483072</v>
+        <v>0.494735</v>
       </c>
       <c r="C98" t="n">
-        <v>0.405489</v>
+        <v>0.405205</v>
       </c>
       <c r="D98" t="n">
-        <v>0.38893</v>
+        <v>0.397549</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.475003</v>
+        <v>0.480767</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4102</v>
+        <v>0.412463</v>
       </c>
       <c r="D99" t="n">
-        <v>0.394847</v>
+        <v>0.399923</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.483872</v>
+        <v>0.491845</v>
       </c>
       <c r="C100" t="n">
-        <v>0.408856</v>
+        <v>0.40489</v>
       </c>
       <c r="D100" t="n">
-        <v>0.393879</v>
+        <v>0.398892</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.477444</v>
+        <v>0.479108</v>
       </c>
       <c r="C101" t="n">
-        <v>0.412524</v>
+        <v>0.418385</v>
       </c>
       <c r="D101" t="n">
-        <v>0.398822</v>
+        <v>0.406542</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.480484</v>
+        <v>0.493054</v>
       </c>
       <c r="C102" t="n">
-        <v>0.40871</v>
+        <v>0.409308</v>
       </c>
       <c r="D102" t="n">
-        <v>0.395908</v>
+        <v>0.404125</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.478494</v>
+        <v>0.474462</v>
       </c>
       <c r="C103" t="n">
-        <v>0.412598</v>
+        <v>0.415429</v>
       </c>
       <c r="D103" t="n">
-        <v>0.397615</v>
+        <v>0.40973</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.480968</v>
+        <v>0.490156</v>
       </c>
       <c r="C104" t="n">
-        <v>0.409331</v>
+        <v>0.416288</v>
       </c>
       <c r="D104" t="n">
-        <v>0.398698</v>
+        <v>0.407653</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.475251</v>
+        <v>0.478443</v>
       </c>
       <c r="C105" t="n">
-        <v>0.421691</v>
+        <v>0.42076</v>
       </c>
       <c r="D105" t="n">
-        <v>0.409891</v>
+        <v>0.41378</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.483261</v>
+        <v>0.490498</v>
       </c>
       <c r="C106" t="n">
-        <v>0.414964</v>
+        <v>0.416695</v>
       </c>
       <c r="D106" t="n">
-        <v>0.406513</v>
+        <v>0.409898</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.478139</v>
+        <v>0.483584</v>
       </c>
       <c r="C107" t="n">
-        <v>0.426218</v>
+        <v>0.427055</v>
       </c>
       <c r="D107" t="n">
-        <v>0.419216</v>
+        <v>0.420863</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.488566</v>
+        <v>0.49037</v>
       </c>
       <c r="C108" t="n">
-        <v>0.430463</v>
+        <v>0.429139</v>
       </c>
       <c r="D108" t="n">
-        <v>0.661958</v>
+        <v>0.6620470000000001</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.48012</v>
+        <v>0.483108</v>
       </c>
       <c r="C109" t="n">
-        <v>0.438065</v>
+        <v>0.436526</v>
       </c>
       <c r="D109" t="n">
-        <v>0.663288</v>
+        <v>0.66344</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.774296</v>
+        <v>0.775953</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6603869999999999</v>
+        <v>0.658048</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6642439999999999</v>
+        <v>0.6639</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.777064</v>
+        <v>0.777284</v>
       </c>
       <c r="C111" t="n">
-        <v>0.660141</v>
+        <v>0.658115</v>
       </c>
       <c r="D111" t="n">
-        <v>0.665214</v>
+        <v>0.66471</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.778168</v>
+        <v>0.778722</v>
       </c>
       <c r="C112" t="n">
-        <v>0.661016</v>
+        <v>0.658588</v>
       </c>
       <c r="D112" t="n">
-        <v>0.665952</v>
+        <v>0.666867</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7769160000000001</v>
+        <v>0.776246</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6627459999999999</v>
+        <v>0.660532</v>
       </c>
       <c r="D113" t="n">
-        <v>0.667205</v>
+        <v>0.666784</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.776436</v>
+        <v>0.774847</v>
       </c>
       <c r="C114" t="n">
-        <v>0.663891</v>
+        <v>0.66123</v>
       </c>
       <c r="D114" t="n">
-        <v>0.667982</v>
+        <v>0.66853</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.775365</v>
+        <v>0.776275</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6660199999999999</v>
+        <v>0.661669</v>
       </c>
       <c r="D115" t="n">
-        <v>0.67018</v>
+        <v>0.670334</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.7756999999999999</v>
+        <v>0.774676</v>
       </c>
       <c r="C116" t="n">
-        <v>0.666199</v>
+        <v>0.664306</v>
       </c>
       <c r="D116" t="n">
-        <v>0.672051</v>
+        <v>0.671733</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.773299</v>
+        <v>0.774189</v>
       </c>
       <c r="C117" t="n">
-        <v>0.668212</v>
+        <v>0.665313</v>
       </c>
       <c r="D117" t="n">
-        <v>0.67356</v>
+        <v>0.674138</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.775343</v>
+        <v>0.775923</v>
       </c>
       <c r="C118" t="n">
-        <v>0.670282</v>
+        <v>0.667927</v>
       </c>
       <c r="D118" t="n">
-        <v>0.67639</v>
+        <v>0.676297</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.776506</v>
+        <v>0.77725</v>
       </c>
       <c r="C119" t="n">
-        <v>0.673412</v>
+        <v>0.67095</v>
       </c>
       <c r="D119" t="n">
-        <v>0.679603</v>
+        <v>0.680318</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.777647</v>
+        <v>0.775826</v>
       </c>
       <c r="C120" t="n">
-        <v>0.677363</v>
+        <v>0.674322</v>
       </c>
       <c r="D120" t="n">
-        <v>0.684199</v>
+        <v>0.684412</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.776757</v>
+        <v>0.776764</v>
       </c>
       <c r="C121" t="n">
-        <v>0.681979</v>
+        <v>0.679427</v>
       </c>
       <c r="D121" t="n">
-        <v>0.690715</v>
+        <v>0.691334</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.778185</v>
+        <v>0.7781670000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.688396</v>
+        <v>0.686093</v>
       </c>
       <c r="D122" t="n">
-        <v>0.698593</v>
+        <v>0.7004899999999999</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.780438</v>
+        <v>0.779961</v>
       </c>
       <c r="C123" t="n">
-        <v>0.698717</v>
+        <v>0.694786</v>
       </c>
       <c r="D123" t="n">
-        <v>0.769535</v>
+        <v>0.7700050000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.03222</v>
+        <v>1.03532</v>
       </c>
       <c r="C124" t="n">
-        <v>0.760866</v>
+        <v>0.758397</v>
       </c>
       <c r="D124" t="n">
-        <v>0.771385</v>
+        <v>0.771905</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03067</v>
+        <v>1.03517</v>
       </c>
       <c r="C125" t="n">
-        <v>0.762157</v>
+        <v>0.759947</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7721789999999999</v>
+        <v>0.7757230000000001</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03215</v>
+        <v>1.03881</v>
       </c>
       <c r="C126" t="n">
-        <v>0.761615</v>
+        <v>0.763794</v>
       </c>
       <c r="D126" t="n">
-        <v>0.772594</v>
+        <v>0.776329</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03261</v>
+        <v>1.03831</v>
       </c>
       <c r="C127" t="n">
-        <v>0.76361</v>
+        <v>0.765157</v>
       </c>
       <c r="D127" t="n">
-        <v>0.774566</v>
+        <v>0.778125</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03034</v>
+        <v>1.04168</v>
       </c>
       <c r="C128" t="n">
-        <v>0.765127</v>
+        <v>0.766229</v>
       </c>
       <c r="D128" t="n">
-        <v>0.776576</v>
+        <v>0.781204</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.02709</v>
+        <v>1.03719</v>
       </c>
       <c r="C129" t="n">
-        <v>0.766589</v>
+        <v>0.768172</v>
       </c>
       <c r="D129" t="n">
-        <v>0.778577</v>
+        <v>0.782014</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03197</v>
+        <v>1.03892</v>
       </c>
       <c r="C130" t="n">
-        <v>0.768792</v>
+        <v>0.769848</v>
       </c>
       <c r="D130" t="n">
-        <v>0.780745</v>
+        <v>0.784846</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02984</v>
+        <v>1.03681</v>
       </c>
       <c r="C131" t="n">
-        <v>0.772072</v>
+        <v>0.772544</v>
       </c>
       <c r="D131" t="n">
-        <v>0.784821</v>
+        <v>0.7876880000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03122</v>
+        <v>1.04069</v>
       </c>
       <c r="C132" t="n">
-        <v>0.776299</v>
+        <v>0.77601</v>
       </c>
       <c r="D132" t="n">
-        <v>0.788524</v>
+        <v>0.7921589999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.0322</v>
+        <v>1.03596</v>
       </c>
       <c r="C133" t="n">
-        <v>0.778733</v>
+        <v>0.778926</v>
       </c>
       <c r="D133" t="n">
-        <v>0.792736</v>
+        <v>0.795774</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.03365</v>
+        <v>1.04164</v>
       </c>
       <c r="C134" t="n">
-        <v>0.785695</v>
+        <v>0.78471</v>
       </c>
       <c r="D134" t="n">
-        <v>0.8009269999999999</v>
+        <v>0.802418</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.03192</v>
+        <v>1.04217</v>
       </c>
       <c r="C135" t="n">
-        <v>0.790015</v>
+        <v>0.7903250000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.807689</v>
+        <v>0.81118</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03288</v>
+        <v>1.04123</v>
       </c>
       <c r="C136" t="n">
-        <v>0.798226</v>
+        <v>0.799087</v>
       </c>
       <c r="D136" t="n">
-        <v>0.821099</v>
+        <v>0.824426</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.03532</v>
+        <v>1.04436</v>
       </c>
       <c r="C137" t="n">
-        <v>0.810653</v>
+        <v>0.810832</v>
       </c>
       <c r="D137" t="n">
-        <v>0.814683</v>
+        <v>0.8204129999999999</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.2562</v>
+        <v>1.26251</v>
       </c>
       <c r="C138" t="n">
-        <v>0.803749</v>
+        <v>0.804088</v>
       </c>
       <c r="D138" t="n">
-        <v>0.817817</v>
+        <v>0.822024</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.25804</v>
+        <v>1.26299</v>
       </c>
       <c r="C139" t="n">
-        <v>0.804038</v>
+        <v>0.804675</v>
       </c>
       <c r="D139" t="n">
-        <v>0.818368</v>
+        <v>0.822464</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.2548</v>
+        <v>1.26228</v>
       </c>
       <c r="C140" t="n">
-        <v>0.805015</v>
+        <v>0.807626</v>
       </c>
       <c r="D140" t="n">
-        <v>0.820202</v>
+        <v>0.823923</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25586</v>
+        <v>1.26327</v>
       </c>
       <c r="C141" t="n">
-        <v>0.807178</v>
+        <v>0.807957</v>
       </c>
       <c r="D141" t="n">
-        <v>0.822509</v>
+        <v>0.826057</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.2555</v>
+        <v>1.26401</v>
       </c>
       <c r="C142" t="n">
-        <v>0.808621</v>
+        <v>0.8096370000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.824188</v>
+        <v>0.828023</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25765</v>
+        <v>1.26175</v>
       </c>
       <c r="C143" t="n">
-        <v>0.811613</v>
+        <v>0.812563</v>
       </c>
       <c r="D143" t="n">
-        <v>0.826414</v>
+        <v>0.829949</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.175156</v>
+        <v>0.17549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184311</v>
+        <v>0.184833</v>
       </c>
       <c r="D2" t="n">
-        <v>0.194257</v>
+        <v>0.195083</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175547</v>
+        <v>0.176234</v>
       </c>
       <c r="C3" t="n">
-        <v>0.184989</v>
+        <v>0.185336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.19506</v>
+        <v>0.196612</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176477</v>
+        <v>0.176401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.185923</v>
+        <v>0.18596</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196395</v>
+        <v>0.19687</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177031</v>
+        <v>0.177168</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187435</v>
+        <v>0.187554</v>
       </c>
       <c r="D5" t="n">
-        <v>0.198174</v>
+        <v>0.198617</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177956</v>
+        <v>0.178152</v>
       </c>
       <c r="C6" t="n">
-        <v>0.189254</v>
+        <v>0.189377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200425</v>
+        <v>0.200762</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.179567</v>
+        <v>0.179745</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191193</v>
+        <v>0.191371</v>
       </c>
       <c r="D7" t="n">
-        <v>0.203894</v>
+        <v>0.203773</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.181982</v>
+        <v>0.181914</v>
       </c>
       <c r="C8" t="n">
-        <v>0.194134</v>
+        <v>0.194255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.208379</v>
+        <v>0.208402</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.185708</v>
+        <v>0.185667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198395</v>
+        <v>0.198212</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1915</v>
+        <v>0.192755</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.182088</v>
+        <v>0.184228</v>
       </c>
       <c r="C10" t="n">
-        <v>0.184597</v>
+        <v>0.184879</v>
       </c>
       <c r="D10" t="n">
-        <v>0.192067</v>
+        <v>0.193468</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181225</v>
+        <v>0.183565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.183969</v>
+        <v>0.186037</v>
       </c>
       <c r="D11" t="n">
-        <v>0.191829</v>
+        <v>0.193893</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.18315</v>
+        <v>0.184004</v>
       </c>
       <c r="C12" t="n">
-        <v>0.183977</v>
+        <v>0.185502</v>
       </c>
       <c r="D12" t="n">
-        <v>0.192135</v>
+        <v>0.194216</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.182404</v>
+        <v>0.182039</v>
       </c>
       <c r="C13" t="n">
-        <v>0.185831</v>
+        <v>0.185665</v>
       </c>
       <c r="D13" t="n">
-        <v>0.193644</v>
+        <v>0.193178</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.182604</v>
+        <v>0.181846</v>
       </c>
       <c r="C14" t="n">
-        <v>0.185419</v>
+        <v>0.18529</v>
       </c>
       <c r="D14" t="n">
-        <v>0.193042</v>
+        <v>0.194197</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.183825</v>
+        <v>0.185513</v>
       </c>
       <c r="C15" t="n">
-        <v>0.185352</v>
+        <v>0.185442</v>
       </c>
       <c r="D15" t="n">
-        <v>0.193675</v>
+        <v>0.194821</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.182359</v>
+        <v>0.187624</v>
       </c>
       <c r="C16" t="n">
-        <v>0.185976</v>
+        <v>0.188189</v>
       </c>
       <c r="D16" t="n">
-        <v>0.194376</v>
+        <v>0.197118</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.184549</v>
+        <v>0.182822</v>
       </c>
       <c r="C17" t="n">
-        <v>0.187307</v>
+        <v>0.187683</v>
       </c>
       <c r="D17" t="n">
-        <v>0.195531</v>
+        <v>0.195944</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.185602</v>
+        <v>0.1832</v>
       </c>
       <c r="C18" t="n">
-        <v>0.188474</v>
+        <v>0.188501</v>
       </c>
       <c r="D18" t="n">
-        <v>0.19649</v>
+        <v>0.197532</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.184876</v>
+        <v>0.186167</v>
       </c>
       <c r="C19" t="n">
-        <v>0.189339</v>
+        <v>0.190033</v>
       </c>
       <c r="D19" t="n">
-        <v>0.198485</v>
+        <v>0.200384</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.186011</v>
+        <v>0.18534</v>
       </c>
       <c r="C20" t="n">
-        <v>0.190495</v>
+        <v>0.191511</v>
       </c>
       <c r="D20" t="n">
-        <v>0.200352</v>
+        <v>0.201041</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.187702</v>
+        <v>0.189943</v>
       </c>
       <c r="C21" t="n">
-        <v>0.192776</v>
+        <v>0.194236</v>
       </c>
       <c r="D21" t="n">
-        <v>0.20319</v>
+        <v>0.204563</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.192353</v>
+        <v>0.192848</v>
       </c>
       <c r="C22" t="n">
-        <v>0.197031</v>
+        <v>0.196971</v>
       </c>
       <c r="D22" t="n">
-        <v>0.208218</v>
+        <v>0.210073</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.192968</v>
+        <v>0.197621</v>
       </c>
       <c r="C23" t="n">
-        <v>0.199267</v>
+        <v>0.202145</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201844</v>
+        <v>0.201427</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.203212</v>
+        <v>0.203242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.188497</v>
+        <v>0.188944</v>
       </c>
       <c r="D24" t="n">
-        <v>0.199512</v>
+        <v>0.201222</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.203711</v>
+        <v>0.203154</v>
       </c>
       <c r="C25" t="n">
-        <v>0.188932</v>
+        <v>0.188817</v>
       </c>
       <c r="D25" t="n">
-        <v>0.19987</v>
+        <v>0.201972</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.202613</v>
+        <v>0.203758</v>
       </c>
       <c r="C26" t="n">
-        <v>0.189222</v>
+        <v>0.18946</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201235</v>
+        <v>0.201655</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.20276</v>
+        <v>0.203021</v>
       </c>
       <c r="C27" t="n">
-        <v>0.189104</v>
+        <v>0.189596</v>
       </c>
       <c r="D27" t="n">
-        <v>0.20092</v>
+        <v>0.201564</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.202543</v>
+        <v>0.204716</v>
       </c>
       <c r="C28" t="n">
-        <v>0.188774</v>
+        <v>0.190194</v>
       </c>
       <c r="D28" t="n">
-        <v>0.201603</v>
+        <v>0.20272</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.202823</v>
+        <v>0.206521</v>
       </c>
       <c r="C29" t="n">
-        <v>0.19001</v>
+        <v>0.191721</v>
       </c>
       <c r="D29" t="n">
-        <v>0.201541</v>
+        <v>0.202724</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.204206</v>
+        <v>0.20513</v>
       </c>
       <c r="C30" t="n">
-        <v>0.190608</v>
+        <v>0.192891</v>
       </c>
       <c r="D30" t="n">
-        <v>0.201955</v>
+        <v>0.204619</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.204623</v>
+        <v>0.203598</v>
       </c>
       <c r="C31" t="n">
-        <v>0.191056</v>
+        <v>0.193944</v>
       </c>
       <c r="D31" t="n">
-        <v>0.203165</v>
+        <v>0.20605</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.204296</v>
+        <v>0.205313</v>
       </c>
       <c r="C32" t="n">
-        <v>0.192744</v>
+        <v>0.194416</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204604</v>
+        <v>0.207387</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2052</v>
+        <v>0.207107</v>
       </c>
       <c r="C33" t="n">
-        <v>0.193788</v>
+        <v>0.195843</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20592</v>
+        <v>0.20933</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.206404</v>
+        <v>0.208492</v>
       </c>
       <c r="C34" t="n">
-        <v>0.195519</v>
+        <v>0.197959</v>
       </c>
       <c r="D34" t="n">
-        <v>0.20741</v>
+        <v>0.210591</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.207006</v>
+        <v>0.209295</v>
       </c>
       <c r="C35" t="n">
-        <v>0.197859</v>
+        <v>0.201047</v>
       </c>
       <c r="D35" t="n">
-        <v>0.210492</v>
+        <v>0.213307</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.209928</v>
+        <v>0.210645</v>
       </c>
       <c r="C36" t="n">
-        <v>0.201086</v>
+        <v>0.20485</v>
       </c>
       <c r="D36" t="n">
-        <v>0.215455</v>
+        <v>0.218284</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.214484</v>
+        <v>0.212808</v>
       </c>
       <c r="C37" t="n">
-        <v>0.20568</v>
+        <v>0.207782</v>
       </c>
       <c r="D37" t="n">
-        <v>0.219047</v>
+        <v>0.219674</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.232888</v>
+        <v>0.236486</v>
       </c>
       <c r="C38" t="n">
-        <v>0.207371</v>
+        <v>0.205165</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219061</v>
+        <v>0.219003</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.230881</v>
+        <v>0.232506</v>
       </c>
       <c r="C39" t="n">
-        <v>0.20726</v>
+        <v>0.206138</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218379</v>
+        <v>0.220009</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.233787</v>
+        <v>0.230991</v>
       </c>
       <c r="C40" t="n">
-        <v>0.207168</v>
+        <v>0.206816</v>
       </c>
       <c r="D40" t="n">
-        <v>0.219121</v>
+        <v>0.219813</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231176</v>
+        <v>0.232232</v>
       </c>
       <c r="C41" t="n">
-        <v>0.207879</v>
+        <v>0.208822</v>
       </c>
       <c r="D41" t="n">
-        <v>0.219266</v>
+        <v>0.221125</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.234115</v>
+        <v>0.232343</v>
       </c>
       <c r="C42" t="n">
-        <v>0.209779</v>
+        <v>0.209544</v>
       </c>
       <c r="D42" t="n">
-        <v>0.22065</v>
+        <v>0.221193</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.232184</v>
+        <v>0.231544</v>
       </c>
       <c r="C43" t="n">
-        <v>0.210425</v>
+        <v>0.209668</v>
       </c>
       <c r="D43" t="n">
-        <v>0.221073</v>
+        <v>0.221727</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.23329</v>
+        <v>0.231212</v>
       </c>
       <c r="C44" t="n">
-        <v>0.212877</v>
+        <v>0.210348</v>
       </c>
       <c r="D44" t="n">
-        <v>0.223019</v>
+        <v>0.22244</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.231966</v>
+        <v>0.233546</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212114</v>
+        <v>0.212909</v>
       </c>
       <c r="D45" t="n">
-        <v>0.222666</v>
+        <v>0.224064</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.233173</v>
+        <v>0.235185</v>
       </c>
       <c r="C46" t="n">
-        <v>0.21482</v>
+        <v>0.214947</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225016</v>
+        <v>0.225583</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.234632</v>
+        <v>0.236826</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216125</v>
+        <v>0.21699</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226599</v>
+        <v>0.227807</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.23496</v>
+        <v>0.234845</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216215</v>
+        <v>0.217818</v>
       </c>
       <c r="D48" t="n">
-        <v>0.228035</v>
+        <v>0.229367</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237442</v>
+        <v>0.237384</v>
       </c>
       <c r="C49" t="n">
-        <v>0.218883</v>
+        <v>0.220049</v>
       </c>
       <c r="D49" t="n">
-        <v>0.230589</v>
+        <v>0.232738</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237966</v>
+        <v>0.237553</v>
       </c>
       <c r="C50" t="n">
-        <v>0.221243</v>
+        <v>0.222896</v>
       </c>
       <c r="D50" t="n">
-        <v>0.235732</v>
+        <v>0.237286</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.242082</v>
+        <v>0.24</v>
       </c>
       <c r="C51" t="n">
-        <v>0.226517</v>
+        <v>0.229701</v>
       </c>
       <c r="D51" t="n">
-        <v>0.231054</v>
+        <v>0.23235</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.244579</v>
+        <v>0.245521</v>
       </c>
       <c r="C52" t="n">
-        <v>0.233071</v>
+        <v>0.235489</v>
       </c>
       <c r="D52" t="n">
-        <v>0.23157</v>
+        <v>0.232866</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.257261</v>
+        <v>0.259718</v>
       </c>
       <c r="C53" t="n">
-        <v>0.222895</v>
+        <v>0.22169</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230517</v>
+        <v>0.230661</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.257331</v>
+        <v>0.260543</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223773</v>
+        <v>0.224476</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231157</v>
+        <v>0.231395</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.260734</v>
+        <v>0.259463</v>
       </c>
       <c r="C55" t="n">
-        <v>0.226255</v>
+        <v>0.224918</v>
       </c>
       <c r="D55" t="n">
-        <v>0.232415</v>
+        <v>0.232145</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259173</v>
+        <v>0.261657</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225702</v>
+        <v>0.225626</v>
       </c>
       <c r="D56" t="n">
-        <v>0.232288</v>
+        <v>0.232793</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.258913</v>
+        <v>0.260055</v>
       </c>
       <c r="C57" t="n">
-        <v>0.227635</v>
+        <v>0.225324</v>
       </c>
       <c r="D57" t="n">
-        <v>0.233798</v>
+        <v>0.233051</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.258608</v>
+        <v>0.261814</v>
       </c>
       <c r="C58" t="n">
-        <v>0.226431</v>
+        <v>0.227588</v>
       </c>
       <c r="D58" t="n">
-        <v>0.234091</v>
+        <v>0.234137</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.261004</v>
+        <v>0.261721</v>
       </c>
       <c r="C59" t="n">
-        <v>0.229594</v>
+        <v>0.227647</v>
       </c>
       <c r="D59" t="n">
-        <v>0.235484</v>
+        <v>0.235117</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.262616</v>
+        <v>0.261353</v>
       </c>
       <c r="C60" t="n">
-        <v>0.229513</v>
+        <v>0.230221</v>
       </c>
       <c r="D60" t="n">
-        <v>0.236849</v>
+        <v>0.237939</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260545</v>
+        <v>0.262202</v>
       </c>
       <c r="C61" t="n">
-        <v>0.23141</v>
+        <v>0.232968</v>
       </c>
       <c r="D61" t="n">
-        <v>0.239078</v>
+        <v>0.239792</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.262041</v>
+        <v>0.261455</v>
       </c>
       <c r="C62" t="n">
-        <v>0.233968</v>
+        <v>0.233925</v>
       </c>
       <c r="D62" t="n">
-        <v>0.241066</v>
+        <v>0.241497</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262692</v>
+        <v>0.264143</v>
       </c>
       <c r="C63" t="n">
-        <v>0.236771</v>
+        <v>0.236249</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244368</v>
+        <v>0.243866</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265059</v>
+        <v>0.265127</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239939</v>
+        <v>0.240017</v>
       </c>
       <c r="D64" t="n">
-        <v>0.249143</v>
+        <v>0.249159</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268757</v>
+        <v>0.270173</v>
       </c>
       <c r="C65" t="n">
-        <v>0.244727</v>
+        <v>0.244501</v>
       </c>
       <c r="D65" t="n">
-        <v>0.256501</v>
+        <v>0.255505</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.27219</v>
+        <v>0.272014</v>
       </c>
       <c r="C66" t="n">
-        <v>0.251195</v>
+        <v>0.250427</v>
       </c>
       <c r="D66" t="n">
-        <v>0.238296</v>
+        <v>0.240043</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.277388</v>
+        <v>0.279216</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234746</v>
+        <v>0.234312</v>
       </c>
       <c r="D67" t="n">
-        <v>0.238315</v>
+        <v>0.238464</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.278346</v>
+        <v>0.277781</v>
       </c>
       <c r="C68" t="n">
-        <v>0.234456</v>
+        <v>0.23548</v>
       </c>
       <c r="D68" t="n">
-        <v>0.238595</v>
+        <v>0.238928</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.27791</v>
+        <v>0.278021</v>
       </c>
       <c r="C69" t="n">
-        <v>0.23493</v>
+        <v>0.235274</v>
       </c>
       <c r="D69" t="n">
-        <v>0.239304</v>
+        <v>0.239055</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278361</v>
+        <v>0.278311</v>
       </c>
       <c r="C70" t="n">
-        <v>0.236613</v>
+        <v>0.237548</v>
       </c>
       <c r="D70" t="n">
-        <v>0.240058</v>
+        <v>0.240367</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.278454</v>
+        <v>0.278238</v>
       </c>
       <c r="C71" t="n">
-        <v>0.237257</v>
+        <v>0.238535</v>
       </c>
       <c r="D71" t="n">
-        <v>0.241471</v>
+        <v>0.241473</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.279251</v>
+        <v>0.278695</v>
       </c>
       <c r="C72" t="n">
-        <v>0.238345</v>
+        <v>0.239574</v>
       </c>
       <c r="D72" t="n">
-        <v>0.241876</v>
+        <v>0.241673</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.27931</v>
+        <v>0.278127</v>
       </c>
       <c r="C73" t="n">
-        <v>0.239301</v>
+        <v>0.240799</v>
       </c>
       <c r="D73" t="n">
-        <v>0.242795</v>
+        <v>0.242718</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279202</v>
+        <v>0.279009</v>
       </c>
       <c r="C74" t="n">
-        <v>0.240036</v>
+        <v>0.242236</v>
       </c>
       <c r="D74" t="n">
-        <v>0.244105</v>
+        <v>0.24428</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.280345</v>
+        <v>0.279841</v>
       </c>
       <c r="C75" t="n">
-        <v>0.241912</v>
+        <v>0.243979</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246446</v>
+        <v>0.246281</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.281187</v>
+        <v>0.280717</v>
       </c>
       <c r="C76" t="n">
-        <v>0.24293</v>
+        <v>0.245338</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248861</v>
+        <v>0.248537</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.282549</v>
+        <v>0.282452</v>
       </c>
       <c r="C77" t="n">
-        <v>0.245799</v>
+        <v>0.246646</v>
       </c>
       <c r="D77" t="n">
-        <v>0.252919</v>
+        <v>0.251532</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283859</v>
+        <v>0.283867</v>
       </c>
       <c r="C78" t="n">
-        <v>0.248497</v>
+        <v>0.250666</v>
       </c>
       <c r="D78" t="n">
-        <v>0.25676</v>
+        <v>0.255928</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.286864</v>
+        <v>0.286374</v>
       </c>
       <c r="C79" t="n">
-        <v>0.252696</v>
+        <v>0.255894</v>
       </c>
       <c r="D79" t="n">
-        <v>0.263242</v>
+        <v>0.262827</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.289842</v>
+        <v>0.290697</v>
       </c>
       <c r="C80" t="n">
-        <v>0.259755</v>
+        <v>0.261732</v>
       </c>
       <c r="D80" t="n">
-        <v>0.248801</v>
+        <v>0.249848</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.299498</v>
+        <v>0.302553</v>
       </c>
       <c r="C81" t="n">
-        <v>0.241911</v>
+        <v>0.241916</v>
       </c>
       <c r="D81" t="n">
-        <v>0.249739</v>
+        <v>0.25299</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.300585</v>
+        <v>0.301862</v>
       </c>
       <c r="C82" t="n">
-        <v>0.242571</v>
+        <v>0.238571</v>
       </c>
       <c r="D82" t="n">
-        <v>0.253143</v>
+        <v>0.250268</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.299915</v>
+        <v>0.300273</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241722</v>
+        <v>0.241405</v>
       </c>
       <c r="D83" t="n">
-        <v>0.251386</v>
+        <v>0.251735</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.299424</v>
+        <v>0.302228</v>
       </c>
       <c r="C84" t="n">
-        <v>0.240911</v>
+        <v>0.241523</v>
       </c>
       <c r="D84" t="n">
-        <v>0.25155</v>
+        <v>0.253715</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.303966</v>
+        <v>0.301213</v>
       </c>
       <c r="C85" t="n">
-        <v>0.241018</v>
+        <v>0.243307</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2528</v>
+        <v>0.257134</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.298906</v>
+        <v>0.30294</v>
       </c>
       <c r="C86" t="n">
-        <v>0.241911</v>
+        <v>0.241912</v>
       </c>
       <c r="D86" t="n">
-        <v>0.253199</v>
+        <v>0.254944</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.301816</v>
+        <v>0.302647</v>
       </c>
       <c r="C87" t="n">
-        <v>0.242904</v>
+        <v>0.244225</v>
       </c>
       <c r="D87" t="n">
-        <v>0.253905</v>
+        <v>0.255089</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301972</v>
+        <v>0.304545</v>
       </c>
       <c r="C88" t="n">
-        <v>0.245202</v>
+        <v>0.246162</v>
       </c>
       <c r="D88" t="n">
-        <v>0.255273</v>
+        <v>0.257698</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.300598</v>
+        <v>0.30381</v>
       </c>
       <c r="C89" t="n">
-        <v>0.24843</v>
+        <v>0.247164</v>
       </c>
       <c r="D89" t="n">
-        <v>0.260648</v>
+        <v>0.261167</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.300822</v>
+        <v>0.303649</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248378</v>
+        <v>0.247524</v>
       </c>
       <c r="D90" t="n">
-        <v>0.260438</v>
+        <v>0.259613</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.304692</v>
+        <v>0.306104</v>
       </c>
       <c r="C91" t="n">
-        <v>0.251125</v>
+        <v>0.251051</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264867</v>
+        <v>0.266649</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.304056</v>
+        <v>0.30513</v>
       </c>
       <c r="C92" t="n">
-        <v>0.253238</v>
+        <v>0.25074</v>
       </c>
       <c r="D92" t="n">
-        <v>0.26974</v>
+        <v>0.266125</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.307007</v>
+        <v>0.305989</v>
       </c>
       <c r="C93" t="n">
-        <v>0.259026</v>
+        <v>0.256145</v>
       </c>
       <c r="D93" t="n">
-        <v>0.275713</v>
+        <v>0.274897</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.310293</v>
+        <v>0.314149</v>
       </c>
       <c r="C94" t="n">
-        <v>0.261096</v>
+        <v>0.262567</v>
       </c>
       <c r="D94" t="n">
-        <v>0.400696</v>
+        <v>0.394287</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.493299</v>
+        <v>0.485295</v>
       </c>
       <c r="C95" t="n">
-        <v>0.414722</v>
+        <v>0.403973</v>
       </c>
       <c r="D95" t="n">
-        <v>0.400973</v>
+        <v>0.395282</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.494461</v>
+        <v>0.481664</v>
       </c>
       <c r="C96" t="n">
-        <v>0.40235</v>
+        <v>0.402923</v>
       </c>
       <c r="D96" t="n">
-        <v>0.396624</v>
+        <v>0.393415</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.48004</v>
+        <v>0.483193</v>
       </c>
       <c r="C97" t="n">
-        <v>0.414273</v>
+        <v>0.410676</v>
       </c>
       <c r="D97" t="n">
-        <v>0.401376</v>
+        <v>0.400308</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.494735</v>
+        <v>0.482317</v>
       </c>
       <c r="C98" t="n">
-        <v>0.405205</v>
+        <v>0.404276</v>
       </c>
       <c r="D98" t="n">
-        <v>0.397549</v>
+        <v>0.395404</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.480767</v>
+        <v>0.486152</v>
       </c>
       <c r="C99" t="n">
-        <v>0.412463</v>
+        <v>0.410739</v>
       </c>
       <c r="D99" t="n">
-        <v>0.399923</v>
+        <v>0.397359</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.491845</v>
+        <v>0.486256</v>
       </c>
       <c r="C100" t="n">
-        <v>0.40489</v>
+        <v>0.408406</v>
       </c>
       <c r="D100" t="n">
-        <v>0.398892</v>
+        <v>0.397966</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.479108</v>
+        <v>0.478027</v>
       </c>
       <c r="C101" t="n">
-        <v>0.418385</v>
+        <v>0.411582</v>
       </c>
       <c r="D101" t="n">
-        <v>0.406542</v>
+        <v>0.401529</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.493054</v>
+        <v>0.485312</v>
       </c>
       <c r="C102" t="n">
-        <v>0.409308</v>
+        <v>0.41233</v>
       </c>
       <c r="D102" t="n">
-        <v>0.404125</v>
+        <v>0.401036</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.474462</v>
+        <v>0.476733</v>
       </c>
       <c r="C103" t="n">
-        <v>0.415429</v>
+        <v>0.415408</v>
       </c>
       <c r="D103" t="n">
-        <v>0.40973</v>
+        <v>0.400164</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.490156</v>
+        <v>0.485773</v>
       </c>
       <c r="C104" t="n">
-        <v>0.416288</v>
+        <v>0.413952</v>
       </c>
       <c r="D104" t="n">
-        <v>0.407653</v>
+        <v>0.414691</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.478443</v>
+        <v>0.474633</v>
       </c>
       <c r="C105" t="n">
-        <v>0.42076</v>
+        <v>0.417302</v>
       </c>
       <c r="D105" t="n">
-        <v>0.41378</v>
+        <v>0.405824</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.490498</v>
+        <v>0.487276</v>
       </c>
       <c r="C106" t="n">
-        <v>0.416695</v>
+        <v>0.416147</v>
       </c>
       <c r="D106" t="n">
-        <v>0.409898</v>
+        <v>0.412201</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.483584</v>
+        <v>0.479264</v>
       </c>
       <c r="C107" t="n">
-        <v>0.427055</v>
+        <v>0.421769</v>
       </c>
       <c r="D107" t="n">
-        <v>0.420863</v>
+        <v>0.415047</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.49037</v>
+        <v>0.488849</v>
       </c>
       <c r="C108" t="n">
-        <v>0.429139</v>
+        <v>0.430211</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6620470000000001</v>
+        <v>0.662767</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.483108</v>
+        <v>0.489644</v>
       </c>
       <c r="C109" t="n">
-        <v>0.436526</v>
+        <v>0.437725</v>
       </c>
       <c r="D109" t="n">
-        <v>0.66344</v>
+        <v>0.662951</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.775953</v>
+        <v>0.778242</v>
       </c>
       <c r="C110" t="n">
-        <v>0.658048</v>
+        <v>0.656735</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6639</v>
+        <v>0.664914</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.777284</v>
+        <v>0.776967</v>
       </c>
       <c r="C111" t="n">
-        <v>0.658115</v>
+        <v>0.658018</v>
       </c>
       <c r="D111" t="n">
-        <v>0.66471</v>
+        <v>0.665733</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.778722</v>
+        <v>0.775631</v>
       </c>
       <c r="C112" t="n">
-        <v>0.658588</v>
+        <v>0.659735</v>
       </c>
       <c r="D112" t="n">
-        <v>0.666867</v>
+        <v>0.669284</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.776246</v>
+        <v>0.776443</v>
       </c>
       <c r="C113" t="n">
-        <v>0.660532</v>
+        <v>0.659528</v>
       </c>
       <c r="D113" t="n">
-        <v>0.666784</v>
+        <v>0.66747</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.774847</v>
+        <v>0.778977</v>
       </c>
       <c r="C114" t="n">
-        <v>0.66123</v>
+        <v>0.660358</v>
       </c>
       <c r="D114" t="n">
-        <v>0.66853</v>
+        <v>0.669207</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.776275</v>
+        <v>0.7749819999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>0.661669</v>
+        <v>0.662385</v>
       </c>
       <c r="D115" t="n">
-        <v>0.670334</v>
+        <v>0.670957</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.774676</v>
+        <v>0.774926</v>
       </c>
       <c r="C116" t="n">
-        <v>0.664306</v>
+        <v>0.662616</v>
       </c>
       <c r="D116" t="n">
-        <v>0.671733</v>
+        <v>0.6722860000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.774189</v>
+        <v>0.776094</v>
       </c>
       <c r="C117" t="n">
-        <v>0.665313</v>
+        <v>0.665239</v>
       </c>
       <c r="D117" t="n">
-        <v>0.674138</v>
+        <v>0.674328</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.775923</v>
+        <v>0.775242</v>
       </c>
       <c r="C118" t="n">
-        <v>0.667927</v>
+        <v>0.667791</v>
       </c>
       <c r="D118" t="n">
-        <v>0.676297</v>
+        <v>0.676509</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.77725</v>
+        <v>0.774881</v>
       </c>
       <c r="C119" t="n">
-        <v>0.67095</v>
+        <v>0.669722</v>
       </c>
       <c r="D119" t="n">
-        <v>0.680318</v>
+        <v>0.6799230000000001</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.775826</v>
+        <v>0.777597</v>
       </c>
       <c r="C120" t="n">
-        <v>0.674322</v>
+        <v>0.6734329999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.684412</v>
+        <v>0.68613</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.776764</v>
+        <v>0.778794</v>
       </c>
       <c r="C121" t="n">
-        <v>0.679427</v>
+        <v>0.678373</v>
       </c>
       <c r="D121" t="n">
-        <v>0.691334</v>
+        <v>0.691549</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7781670000000001</v>
+        <v>0.777919</v>
       </c>
       <c r="C122" t="n">
-        <v>0.686093</v>
+        <v>0.68543</v>
       </c>
       <c r="D122" t="n">
-        <v>0.7004899999999999</v>
+        <v>0.701309</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.779961</v>
+        <v>0.783832</v>
       </c>
       <c r="C123" t="n">
-        <v>0.694786</v>
+        <v>0.694005</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7700050000000001</v>
+        <v>0.770397</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.03532</v>
+        <v>1.03294</v>
       </c>
       <c r="C124" t="n">
-        <v>0.758397</v>
+        <v>0.757419</v>
       </c>
       <c r="D124" t="n">
-        <v>0.771905</v>
+        <v>0.770818</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03517</v>
+        <v>1.03048</v>
       </c>
       <c r="C125" t="n">
-        <v>0.759947</v>
+        <v>0.75789</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7757230000000001</v>
+        <v>0.773519</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03881</v>
+        <v>1.03474</v>
       </c>
       <c r="C126" t="n">
-        <v>0.763794</v>
+        <v>0.759997</v>
       </c>
       <c r="D126" t="n">
-        <v>0.776329</v>
+        <v>0.774674</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.03831</v>
+        <v>1.0325</v>
       </c>
       <c r="C127" t="n">
-        <v>0.765157</v>
+        <v>0.761513</v>
       </c>
       <c r="D127" t="n">
-        <v>0.778125</v>
+        <v>0.776342</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.04168</v>
+        <v>1.03677</v>
       </c>
       <c r="C128" t="n">
-        <v>0.766229</v>
+        <v>0.7628239999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>0.781204</v>
+        <v>0.7775879999999999</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03719</v>
+        <v>1.03101</v>
       </c>
       <c r="C129" t="n">
-        <v>0.768172</v>
+        <v>0.764178</v>
       </c>
       <c r="D129" t="n">
-        <v>0.782014</v>
+        <v>0.780108</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03892</v>
+        <v>1.03282</v>
       </c>
       <c r="C130" t="n">
-        <v>0.769848</v>
+        <v>0.766053</v>
       </c>
       <c r="D130" t="n">
-        <v>0.784846</v>
+        <v>0.782351</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03681</v>
+        <v>1.03408</v>
       </c>
       <c r="C131" t="n">
-        <v>0.772544</v>
+        <v>0.769102</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7876880000000001</v>
+        <v>0.7845800000000001</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.04069</v>
+        <v>1.03246</v>
       </c>
       <c r="C132" t="n">
-        <v>0.77601</v>
+        <v>0.772177</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7921589999999999</v>
+        <v>0.788207</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03596</v>
+        <v>1.03298</v>
       </c>
       <c r="C133" t="n">
-        <v>0.778926</v>
+        <v>0.775108</v>
       </c>
       <c r="D133" t="n">
-        <v>0.795774</v>
+        <v>0.792332</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.04164</v>
+        <v>1.03294</v>
       </c>
       <c r="C134" t="n">
-        <v>0.78471</v>
+        <v>0.780955</v>
       </c>
       <c r="D134" t="n">
-        <v>0.802418</v>
+        <v>0.799763</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.04217</v>
+        <v>1.03494</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7903250000000001</v>
+        <v>0.787486</v>
       </c>
       <c r="D135" t="n">
-        <v>0.81118</v>
+        <v>0.809225</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.04123</v>
+        <v>1.03534</v>
       </c>
       <c r="C136" t="n">
-        <v>0.799087</v>
+        <v>0.795563</v>
       </c>
       <c r="D136" t="n">
-        <v>0.824426</v>
+        <v>0.821809</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.04436</v>
+        <v>1.03721</v>
       </c>
       <c r="C137" t="n">
-        <v>0.810832</v>
+        <v>0.807091</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8204129999999999</v>
+        <v>0.815014</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.26251</v>
+        <v>1.25604</v>
       </c>
       <c r="C138" t="n">
-        <v>0.804088</v>
+        <v>0.799509</v>
       </c>
       <c r="D138" t="n">
-        <v>0.822024</v>
+        <v>0.816829</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.26299</v>
+        <v>1.25566</v>
       </c>
       <c r="C139" t="n">
-        <v>0.804675</v>
+        <v>0.800359</v>
       </c>
       <c r="D139" t="n">
-        <v>0.822464</v>
+        <v>0.818646</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.26228</v>
+        <v>1.25587</v>
       </c>
       <c r="C140" t="n">
-        <v>0.807626</v>
+        <v>0.801903</v>
       </c>
       <c r="D140" t="n">
-        <v>0.823923</v>
+        <v>0.819609</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.26327</v>
+        <v>1.25472</v>
       </c>
       <c r="C141" t="n">
-        <v>0.807957</v>
+        <v>0.804176</v>
       </c>
       <c r="D141" t="n">
-        <v>0.826057</v>
+        <v>0.822535</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.26401</v>
+        <v>1.25674</v>
       </c>
       <c r="C142" t="n">
-        <v>0.8096370000000001</v>
+        <v>0.806449</v>
       </c>
       <c r="D142" t="n">
-        <v>0.828023</v>
+        <v>0.824161</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.26175</v>
+        <v>1.25576</v>
       </c>
       <c r="C143" t="n">
-        <v>0.812563</v>
+        <v>0.808432</v>
       </c>
       <c r="D143" t="n">
-        <v>0.829949</v>
+        <v>0.827552</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.17549</v>
+        <v>0.174695</v>
       </c>
       <c r="C2" t="n">
-        <v>0.184833</v>
+        <v>0.180858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.195083</v>
+        <v>0.191548</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.176234</v>
+        <v>0.175133</v>
       </c>
       <c r="C3" t="n">
-        <v>0.185336</v>
+        <v>0.182154</v>
       </c>
       <c r="D3" t="n">
-        <v>0.196612</v>
+        <v>0.192614</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.176401</v>
+        <v>0.175829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18596</v>
+        <v>0.18312</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19687</v>
+        <v>0.193958</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.177168</v>
+        <v>0.176488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.187554</v>
+        <v>0.184761</v>
       </c>
       <c r="D5" t="n">
-        <v>0.198617</v>
+        <v>0.195799</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.178152</v>
+        <v>0.177113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.189377</v>
+        <v>0.185903</v>
       </c>
       <c r="D6" t="n">
-        <v>0.200762</v>
+        <v>0.197492</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.179745</v>
+        <v>0.178998</v>
       </c>
       <c r="C7" t="n">
-        <v>0.191371</v>
+        <v>0.188845</v>
       </c>
       <c r="D7" t="n">
-        <v>0.203773</v>
+        <v>0.201174</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.181914</v>
+        <v>0.181269</v>
       </c>
       <c r="C8" t="n">
-        <v>0.194255</v>
+        <v>0.191812</v>
       </c>
       <c r="D8" t="n">
-        <v>0.208402</v>
+        <v>0.20574</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.185667</v>
+        <v>0.1849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.198212</v>
+        <v>0.195843</v>
       </c>
       <c r="D9" t="n">
-        <v>0.192755</v>
+        <v>0.190636</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.184228</v>
+        <v>0.180905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.184879</v>
+        <v>0.181319</v>
       </c>
       <c r="D10" t="n">
-        <v>0.193468</v>
+        <v>0.18936</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.183565</v>
+        <v>0.181924</v>
       </c>
       <c r="C11" t="n">
-        <v>0.186037</v>
+        <v>0.182393</v>
       </c>
       <c r="D11" t="n">
-        <v>0.193893</v>
+        <v>0.189871</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.184004</v>
+        <v>0.183947</v>
       </c>
       <c r="C12" t="n">
-        <v>0.185502</v>
+        <v>0.182538</v>
       </c>
       <c r="D12" t="n">
-        <v>0.194216</v>
+        <v>0.190946</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.182039</v>
+        <v>0.181499</v>
       </c>
       <c r="C13" t="n">
-        <v>0.185665</v>
+        <v>0.183946</v>
       </c>
       <c r="D13" t="n">
-        <v>0.193178</v>
+        <v>0.190978</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.181846</v>
+        <v>0.182812</v>
       </c>
       <c r="C14" t="n">
-        <v>0.18529</v>
+        <v>0.186181</v>
       </c>
       <c r="D14" t="n">
-        <v>0.194197</v>
+        <v>0.191735</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.185513</v>
+        <v>0.182196</v>
       </c>
       <c r="C15" t="n">
-        <v>0.185442</v>
+        <v>0.184552</v>
       </c>
       <c r="D15" t="n">
-        <v>0.194821</v>
+        <v>0.192004</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.187624</v>
+        <v>0.181734</v>
       </c>
       <c r="C16" t="n">
-        <v>0.188189</v>
+        <v>0.1842</v>
       </c>
       <c r="D16" t="n">
-        <v>0.197118</v>
+        <v>0.192058</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.182822</v>
+        <v>0.183131</v>
       </c>
       <c r="C17" t="n">
-        <v>0.187683</v>
+        <v>0.18571</v>
       </c>
       <c r="D17" t="n">
-        <v>0.195944</v>
+        <v>0.19308</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1832</v>
+        <v>0.182656</v>
       </c>
       <c r="C18" t="n">
-        <v>0.188501</v>
+        <v>0.185533</v>
       </c>
       <c r="D18" t="n">
-        <v>0.197532</v>
+        <v>0.193896</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.186167</v>
+        <v>0.182908</v>
       </c>
       <c r="C19" t="n">
-        <v>0.190033</v>
+        <v>0.186894</v>
       </c>
       <c r="D19" t="n">
-        <v>0.200384</v>
+        <v>0.195735</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18534</v>
+        <v>0.185192</v>
       </c>
       <c r="C20" t="n">
-        <v>0.191511</v>
+        <v>0.188775</v>
       </c>
       <c r="D20" t="n">
-        <v>0.201041</v>
+        <v>0.198256</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.189943</v>
+        <v>0.189472</v>
       </c>
       <c r="C21" t="n">
-        <v>0.194236</v>
+        <v>0.193151</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204563</v>
+        <v>0.202141</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.192848</v>
+        <v>0.189672</v>
       </c>
       <c r="C22" t="n">
-        <v>0.196971</v>
+        <v>0.193312</v>
       </c>
       <c r="D22" t="n">
-        <v>0.210073</v>
+        <v>0.205072</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.197621</v>
+        <v>0.193023</v>
       </c>
       <c r="C23" t="n">
-        <v>0.202145</v>
+        <v>0.197471</v>
       </c>
       <c r="D23" t="n">
-        <v>0.201427</v>
+        <v>0.197176</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.203242</v>
+        <v>0.203111</v>
       </c>
       <c r="C24" t="n">
-        <v>0.188944</v>
+        <v>0.185124</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201222</v>
+        <v>0.199507</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.203154</v>
+        <v>0.20349</v>
       </c>
       <c r="C25" t="n">
-        <v>0.188817</v>
+        <v>0.186406</v>
       </c>
       <c r="D25" t="n">
-        <v>0.201972</v>
+        <v>0.198673</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203758</v>
+        <v>0.203825</v>
       </c>
       <c r="C26" t="n">
-        <v>0.18946</v>
+        <v>0.186398</v>
       </c>
       <c r="D26" t="n">
-        <v>0.201655</v>
+        <v>0.198525</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.203021</v>
+        <v>0.204812</v>
       </c>
       <c r="C27" t="n">
-        <v>0.189596</v>
+        <v>0.18747</v>
       </c>
       <c r="D27" t="n">
-        <v>0.201564</v>
+        <v>0.198133</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.204716</v>
+        <v>0.204844</v>
       </c>
       <c r="C28" t="n">
-        <v>0.190194</v>
+        <v>0.187884</v>
       </c>
       <c r="D28" t="n">
-        <v>0.20272</v>
+        <v>0.19967</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.206521</v>
+        <v>0.205006</v>
       </c>
       <c r="C29" t="n">
-        <v>0.191721</v>
+        <v>0.188749</v>
       </c>
       <c r="D29" t="n">
-        <v>0.202724</v>
+        <v>0.200374</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.20513</v>
+        <v>0.204399</v>
       </c>
       <c r="C30" t="n">
-        <v>0.192891</v>
+        <v>0.189699</v>
       </c>
       <c r="D30" t="n">
-        <v>0.204619</v>
+        <v>0.201788</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.203598</v>
+        <v>0.20372</v>
       </c>
       <c r="C31" t="n">
-        <v>0.193944</v>
+        <v>0.190191</v>
       </c>
       <c r="D31" t="n">
-        <v>0.20605</v>
+        <v>0.20219</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.205313</v>
+        <v>0.204094</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194416</v>
+        <v>0.191142</v>
       </c>
       <c r="D32" t="n">
-        <v>0.207387</v>
+        <v>0.202897</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.207107</v>
+        <v>0.204034</v>
       </c>
       <c r="C33" t="n">
-        <v>0.195843</v>
+        <v>0.193305</v>
       </c>
       <c r="D33" t="n">
-        <v>0.20933</v>
+        <v>0.205393</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.208492</v>
+        <v>0.206095</v>
       </c>
       <c r="C34" t="n">
-        <v>0.197959</v>
+        <v>0.194896</v>
       </c>
       <c r="D34" t="n">
-        <v>0.210591</v>
+        <v>0.208322</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.209295</v>
+        <v>0.206926</v>
       </c>
       <c r="C35" t="n">
-        <v>0.201047</v>
+        <v>0.196524</v>
       </c>
       <c r="D35" t="n">
-        <v>0.213307</v>
+        <v>0.21178</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.210645</v>
+        <v>0.209952</v>
       </c>
       <c r="C36" t="n">
-        <v>0.20485</v>
+        <v>0.200246</v>
       </c>
       <c r="D36" t="n">
-        <v>0.218284</v>
+        <v>0.21545</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212808</v>
+        <v>0.214885</v>
       </c>
       <c r="C37" t="n">
-        <v>0.207782</v>
+        <v>0.205611</v>
       </c>
       <c r="D37" t="n">
-        <v>0.219674</v>
+        <v>0.215406</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.236486</v>
+        <v>0.231572</v>
       </c>
       <c r="C38" t="n">
-        <v>0.205165</v>
+        <v>0.204842</v>
       </c>
       <c r="D38" t="n">
-        <v>0.219003</v>
+        <v>0.21717</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232506</v>
+        <v>0.231439</v>
       </c>
       <c r="C39" t="n">
-        <v>0.206138</v>
+        <v>0.206546</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220009</v>
+        <v>0.219063</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.230991</v>
+        <v>0.230366</v>
       </c>
       <c r="C40" t="n">
-        <v>0.206816</v>
+        <v>0.206373</v>
       </c>
       <c r="D40" t="n">
-        <v>0.219813</v>
+        <v>0.218765</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.232232</v>
+        <v>0.232717</v>
       </c>
       <c r="C41" t="n">
-        <v>0.208822</v>
+        <v>0.206738</v>
       </c>
       <c r="D41" t="n">
-        <v>0.221125</v>
+        <v>0.21853</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232343</v>
+        <v>0.232975</v>
       </c>
       <c r="C42" t="n">
-        <v>0.209544</v>
+        <v>0.208457</v>
       </c>
       <c r="D42" t="n">
-        <v>0.221193</v>
+        <v>0.219855</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.231544</v>
+        <v>0.233062</v>
       </c>
       <c r="C43" t="n">
-        <v>0.209668</v>
+        <v>0.208233</v>
       </c>
       <c r="D43" t="n">
-        <v>0.221727</v>
+        <v>0.219896</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.231212</v>
+        <v>0.23114</v>
       </c>
       <c r="C44" t="n">
-        <v>0.210348</v>
+        <v>0.210522</v>
       </c>
       <c r="D44" t="n">
-        <v>0.22244</v>
+        <v>0.221146</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.233546</v>
+        <v>0.23432</v>
       </c>
       <c r="C45" t="n">
-        <v>0.212909</v>
+        <v>0.211793</v>
       </c>
       <c r="D45" t="n">
-        <v>0.224064</v>
+        <v>0.2223</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.235185</v>
+        <v>0.233772</v>
       </c>
       <c r="C46" t="n">
-        <v>0.214947</v>
+        <v>0.212606</v>
       </c>
       <c r="D46" t="n">
-        <v>0.225583</v>
+        <v>0.223559</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.236826</v>
+        <v>0.2333</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21699</v>
+        <v>0.214526</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227807</v>
+        <v>0.225042</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.234845</v>
+        <v>0.234998</v>
       </c>
       <c r="C48" t="n">
-        <v>0.217818</v>
+        <v>0.215764</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229367</v>
+        <v>0.227855</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237384</v>
+        <v>0.237887</v>
       </c>
       <c r="C49" t="n">
-        <v>0.220049</v>
+        <v>0.21824</v>
       </c>
       <c r="D49" t="n">
-        <v>0.232738</v>
+        <v>0.230552</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237553</v>
+        <v>0.237808</v>
       </c>
       <c r="C50" t="n">
-        <v>0.222896</v>
+        <v>0.221821</v>
       </c>
       <c r="D50" t="n">
-        <v>0.237286</v>
+        <v>0.236218</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24</v>
+        <v>0.240014</v>
       </c>
       <c r="C51" t="n">
-        <v>0.229701</v>
+        <v>0.227074</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23235</v>
+        <v>0.230209</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.245521</v>
+        <v>0.245056</v>
       </c>
       <c r="C52" t="n">
-        <v>0.235489</v>
+        <v>0.232541</v>
       </c>
       <c r="D52" t="n">
-        <v>0.232866</v>
+        <v>0.231001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.259718</v>
+        <v>0.254883</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22169</v>
+        <v>0.222285</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230661</v>
+        <v>0.230511</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260543</v>
+        <v>0.260532</v>
       </c>
       <c r="C54" t="n">
-        <v>0.224476</v>
+        <v>0.222652</v>
       </c>
       <c r="D54" t="n">
-        <v>0.231395</v>
+        <v>0.229863</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.259463</v>
+        <v>0.257712</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224918</v>
+        <v>0.223914</v>
       </c>
       <c r="D55" t="n">
-        <v>0.232145</v>
+        <v>0.231073</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.261657</v>
+        <v>0.260401</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225626</v>
+        <v>0.22544</v>
       </c>
       <c r="D56" t="n">
-        <v>0.232793</v>
+        <v>0.232085</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.260055</v>
+        <v>0.259869</v>
       </c>
       <c r="C57" t="n">
-        <v>0.225324</v>
+        <v>0.226444</v>
       </c>
       <c r="D57" t="n">
-        <v>0.233051</v>
+        <v>0.233037</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.261814</v>
+        <v>0.259968</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227588</v>
+        <v>0.22742</v>
       </c>
       <c r="D58" t="n">
-        <v>0.234137</v>
+        <v>0.234453</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.261721</v>
+        <v>0.260563</v>
       </c>
       <c r="C59" t="n">
-        <v>0.227647</v>
+        <v>0.22782</v>
       </c>
       <c r="D59" t="n">
-        <v>0.235117</v>
+        <v>0.234298</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261353</v>
+        <v>0.259379</v>
       </c>
       <c r="C60" t="n">
-        <v>0.230221</v>
+        <v>0.228874</v>
       </c>
       <c r="D60" t="n">
-        <v>0.237939</v>
+        <v>0.235442</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.262202</v>
+        <v>0.260147</v>
       </c>
       <c r="C61" t="n">
-        <v>0.232968</v>
+        <v>0.230705</v>
       </c>
       <c r="D61" t="n">
-        <v>0.239792</v>
+        <v>0.237955</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.261455</v>
+        <v>0.264738</v>
       </c>
       <c r="C62" t="n">
-        <v>0.233925</v>
+        <v>0.23247</v>
       </c>
       <c r="D62" t="n">
-        <v>0.241497</v>
+        <v>0.241577</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264143</v>
+        <v>0.262533</v>
       </c>
       <c r="C63" t="n">
-        <v>0.236249</v>
+        <v>0.234749</v>
       </c>
       <c r="D63" t="n">
-        <v>0.243866</v>
+        <v>0.24264</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.265127</v>
+        <v>0.264742</v>
       </c>
       <c r="C64" t="n">
-        <v>0.240017</v>
+        <v>0.239258</v>
       </c>
       <c r="D64" t="n">
-        <v>0.249159</v>
+        <v>0.248631</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.270173</v>
+        <v>0.266326</v>
       </c>
       <c r="C65" t="n">
-        <v>0.244501</v>
+        <v>0.242836</v>
       </c>
       <c r="D65" t="n">
-        <v>0.255505</v>
+        <v>0.254391</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.272014</v>
+        <v>0.271099</v>
       </c>
       <c r="C66" t="n">
-        <v>0.250427</v>
+        <v>0.249059</v>
       </c>
       <c r="D66" t="n">
-        <v>0.240043</v>
+        <v>0.239441</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.279216</v>
+        <v>0.27719</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234312</v>
+        <v>0.233798</v>
       </c>
       <c r="D67" t="n">
-        <v>0.238464</v>
+        <v>0.237715</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.277781</v>
+        <v>0.276984</v>
       </c>
       <c r="C68" t="n">
-        <v>0.23548</v>
+        <v>0.233578</v>
       </c>
       <c r="D68" t="n">
-        <v>0.238928</v>
+        <v>0.23787</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.278021</v>
+        <v>0.276877</v>
       </c>
       <c r="C69" t="n">
-        <v>0.235274</v>
+        <v>0.235865</v>
       </c>
       <c r="D69" t="n">
-        <v>0.239055</v>
+        <v>0.239106</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.278311</v>
+        <v>0.277323</v>
       </c>
       <c r="C70" t="n">
-        <v>0.237548</v>
+        <v>0.235829</v>
       </c>
       <c r="D70" t="n">
-        <v>0.240367</v>
+        <v>0.239139</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.278238</v>
+        <v>0.277685</v>
       </c>
       <c r="C71" t="n">
-        <v>0.238535</v>
+        <v>0.237009</v>
       </c>
       <c r="D71" t="n">
-        <v>0.241473</v>
+        <v>0.23922</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278695</v>
+        <v>0.277465</v>
       </c>
       <c r="C72" t="n">
-        <v>0.239574</v>
+        <v>0.238322</v>
       </c>
       <c r="D72" t="n">
-        <v>0.241673</v>
+        <v>0.240736</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.278127</v>
+        <v>0.277772</v>
       </c>
       <c r="C73" t="n">
-        <v>0.240799</v>
+        <v>0.238934</v>
       </c>
       <c r="D73" t="n">
-        <v>0.242718</v>
+        <v>0.241575</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.279009</v>
+        <v>0.278401</v>
       </c>
       <c r="C74" t="n">
-        <v>0.242236</v>
+        <v>0.238983</v>
       </c>
       <c r="D74" t="n">
-        <v>0.24428</v>
+        <v>0.243147</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.279841</v>
+        <v>0.27896</v>
       </c>
       <c r="C75" t="n">
-        <v>0.243979</v>
+        <v>0.241861</v>
       </c>
       <c r="D75" t="n">
-        <v>0.246281</v>
+        <v>0.245284</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280717</v>
+        <v>0.27956</v>
       </c>
       <c r="C76" t="n">
-        <v>0.245338</v>
+        <v>0.243334</v>
       </c>
       <c r="D76" t="n">
-        <v>0.248537</v>
+        <v>0.247249</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.282452</v>
+        <v>0.280665</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246646</v>
+        <v>0.243294</v>
       </c>
       <c r="D77" t="n">
-        <v>0.251532</v>
+        <v>0.249944</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.283867</v>
+        <v>0.282053</v>
       </c>
       <c r="C78" t="n">
-        <v>0.250666</v>
+        <v>0.248661</v>
       </c>
       <c r="D78" t="n">
-        <v>0.255928</v>
+        <v>0.255286</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.286374</v>
+        <v>0.284632</v>
       </c>
       <c r="C79" t="n">
-        <v>0.255894</v>
+        <v>0.251828</v>
       </c>
       <c r="D79" t="n">
-        <v>0.262827</v>
+        <v>0.262662</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.290697</v>
+        <v>0.289142</v>
       </c>
       <c r="C80" t="n">
-        <v>0.261732</v>
+        <v>0.259658</v>
       </c>
       <c r="D80" t="n">
-        <v>0.249848</v>
+        <v>0.247734</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.302553</v>
+        <v>0.297703</v>
       </c>
       <c r="C81" t="n">
-        <v>0.241916</v>
+        <v>0.237827</v>
       </c>
       <c r="D81" t="n">
-        <v>0.25299</v>
+        <v>0.248111</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.301862</v>
+        <v>0.29784</v>
       </c>
       <c r="C82" t="n">
-        <v>0.238571</v>
+        <v>0.238514</v>
       </c>
       <c r="D82" t="n">
-        <v>0.250268</v>
+        <v>0.250994</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.300273</v>
+        <v>0.299687</v>
       </c>
       <c r="C83" t="n">
-        <v>0.241405</v>
+        <v>0.239295</v>
       </c>
       <c r="D83" t="n">
-        <v>0.251735</v>
+        <v>0.249626</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.302228</v>
+        <v>0.298313</v>
       </c>
       <c r="C84" t="n">
-        <v>0.241523</v>
+        <v>0.241413</v>
       </c>
       <c r="D84" t="n">
-        <v>0.253715</v>
+        <v>0.25424</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.301213</v>
+        <v>0.300424</v>
       </c>
       <c r="C85" t="n">
-        <v>0.243307</v>
+        <v>0.241454</v>
       </c>
       <c r="D85" t="n">
-        <v>0.257134</v>
+        <v>0.250805</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.30294</v>
+        <v>0.298985</v>
       </c>
       <c r="C86" t="n">
-        <v>0.241912</v>
+        <v>0.240308</v>
       </c>
       <c r="D86" t="n">
-        <v>0.254944</v>
+        <v>0.252368</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.302647</v>
+        <v>0.298455</v>
       </c>
       <c r="C87" t="n">
-        <v>0.244225</v>
+        <v>0.239447</v>
       </c>
       <c r="D87" t="n">
-        <v>0.255089</v>
+        <v>0.252587</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.304545</v>
+        <v>0.299619</v>
       </c>
       <c r="C88" t="n">
-        <v>0.246162</v>
+        <v>0.242611</v>
       </c>
       <c r="D88" t="n">
-        <v>0.257698</v>
+        <v>0.254745</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.30381</v>
+        <v>0.300444</v>
       </c>
       <c r="C89" t="n">
-        <v>0.247164</v>
+        <v>0.243747</v>
       </c>
       <c r="D89" t="n">
-        <v>0.261167</v>
+        <v>0.257211</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.303649</v>
+        <v>0.30194</v>
       </c>
       <c r="C90" t="n">
-        <v>0.247524</v>
+        <v>0.246374</v>
       </c>
       <c r="D90" t="n">
-        <v>0.259613</v>
+        <v>0.258394</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.306104</v>
+        <v>0.302086</v>
       </c>
       <c r="C91" t="n">
-        <v>0.251051</v>
+        <v>0.2487</v>
       </c>
       <c r="D91" t="n">
-        <v>0.266649</v>
+        <v>0.263368</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.30513</v>
+        <v>0.305678</v>
       </c>
       <c r="C92" t="n">
-        <v>0.25074</v>
+        <v>0.251125</v>
       </c>
       <c r="D92" t="n">
-        <v>0.266125</v>
+        <v>0.268836</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.305989</v>
+        <v>0.306901</v>
       </c>
       <c r="C93" t="n">
-        <v>0.256145</v>
+        <v>0.256179</v>
       </c>
       <c r="D93" t="n">
-        <v>0.274897</v>
+        <v>0.272866</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.314149</v>
+        <v>0.31023</v>
       </c>
       <c r="C94" t="n">
-        <v>0.262567</v>
+        <v>0.259966</v>
       </c>
       <c r="D94" t="n">
-        <v>0.394287</v>
+        <v>0.399285</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.485295</v>
+        <v>0.48402</v>
       </c>
       <c r="C95" t="n">
-        <v>0.403973</v>
+        <v>0.403947</v>
       </c>
       <c r="D95" t="n">
-        <v>0.395282</v>
+        <v>0.398282</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.481664</v>
+        <v>0.48183</v>
       </c>
       <c r="C96" t="n">
-        <v>0.402923</v>
+        <v>0.405385</v>
       </c>
       <c r="D96" t="n">
-        <v>0.393415</v>
+        <v>0.393622</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.483193</v>
+        <v>0.485566</v>
       </c>
       <c r="C97" t="n">
-        <v>0.410676</v>
+        <v>0.407748</v>
       </c>
       <c r="D97" t="n">
-        <v>0.400308</v>
+        <v>0.4021</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.482317</v>
+        <v>0.485781</v>
       </c>
       <c r="C98" t="n">
-        <v>0.404276</v>
+        <v>0.408206</v>
       </c>
       <c r="D98" t="n">
-        <v>0.395404</v>
+        <v>0.399583</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.486152</v>
+        <v>0.483034</v>
       </c>
       <c r="C99" t="n">
-        <v>0.410739</v>
+        <v>0.409303</v>
       </c>
       <c r="D99" t="n">
-        <v>0.397359</v>
+        <v>0.405837</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.486256</v>
+        <v>0.48455</v>
       </c>
       <c r="C100" t="n">
-        <v>0.408406</v>
+        <v>0.410151</v>
       </c>
       <c r="D100" t="n">
-        <v>0.397966</v>
+        <v>0.398309</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.478027</v>
+        <v>0.481943</v>
       </c>
       <c r="C101" t="n">
-        <v>0.411582</v>
+        <v>0.410972</v>
       </c>
       <c r="D101" t="n">
-        <v>0.401529</v>
+        <v>0.403755</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.485312</v>
+        <v>0.482232</v>
       </c>
       <c r="C102" t="n">
-        <v>0.41233</v>
+        <v>0.411768</v>
       </c>
       <c r="D102" t="n">
-        <v>0.401036</v>
+        <v>0.400426</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.476733</v>
+        <v>0.483994</v>
       </c>
       <c r="C103" t="n">
-        <v>0.415408</v>
+        <v>0.415237</v>
       </c>
       <c r="D103" t="n">
-        <v>0.400164</v>
+        <v>0.405582</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.485773</v>
+        <v>0.483775</v>
       </c>
       <c r="C104" t="n">
-        <v>0.413952</v>
+        <v>0.413401</v>
       </c>
       <c r="D104" t="n">
-        <v>0.414691</v>
+        <v>0.405849</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.474633</v>
+        <v>0.485633</v>
       </c>
       <c r="C105" t="n">
-        <v>0.417302</v>
+        <v>0.420216</v>
       </c>
       <c r="D105" t="n">
-        <v>0.405824</v>
+        <v>0.41426</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.487276</v>
+        <v>0.483867</v>
       </c>
       <c r="C106" t="n">
-        <v>0.416147</v>
+        <v>0.418905</v>
       </c>
       <c r="D106" t="n">
-        <v>0.412201</v>
+        <v>0.412186</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.479264</v>
+        <v>0.486623</v>
       </c>
       <c r="C107" t="n">
-        <v>0.421769</v>
+        <v>0.425804</v>
       </c>
       <c r="D107" t="n">
-        <v>0.415047</v>
+        <v>0.422231</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.488849</v>
+        <v>0.496097</v>
       </c>
       <c r="C108" t="n">
-        <v>0.430211</v>
+        <v>0.431456</v>
       </c>
       <c r="D108" t="n">
-        <v>0.662767</v>
+        <v>0.658481</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.489644</v>
+        <v>0.496308</v>
       </c>
       <c r="C109" t="n">
-        <v>0.437725</v>
+        <v>0.43901</v>
       </c>
       <c r="D109" t="n">
-        <v>0.662951</v>
+        <v>0.658933</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.778242</v>
+        <v>0.773002</v>
       </c>
       <c r="C110" t="n">
-        <v>0.656735</v>
+        <v>0.654177</v>
       </c>
       <c r="D110" t="n">
-        <v>0.664914</v>
+        <v>0.659263</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.776967</v>
+        <v>0.773125</v>
       </c>
       <c r="C111" t="n">
-        <v>0.658018</v>
+        <v>0.655277</v>
       </c>
       <c r="D111" t="n">
-        <v>0.665733</v>
+        <v>0.660727</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.775631</v>
+        <v>0.772756</v>
       </c>
       <c r="C112" t="n">
-        <v>0.659735</v>
+        <v>0.656033</v>
       </c>
       <c r="D112" t="n">
-        <v>0.669284</v>
+        <v>0.662104</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.776443</v>
+        <v>0.776749</v>
       </c>
       <c r="C113" t="n">
-        <v>0.659528</v>
+        <v>0.655679</v>
       </c>
       <c r="D113" t="n">
-        <v>0.66747</v>
+        <v>0.663694</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.778977</v>
+        <v>0.77543</v>
       </c>
       <c r="C114" t="n">
-        <v>0.660358</v>
+        <v>0.659422</v>
       </c>
       <c r="D114" t="n">
-        <v>0.669207</v>
+        <v>0.664195</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.7749819999999999</v>
+        <v>0.774755</v>
       </c>
       <c r="C115" t="n">
-        <v>0.662385</v>
+        <v>0.659137</v>
       </c>
       <c r="D115" t="n">
-        <v>0.670957</v>
+        <v>0.66557</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.774926</v>
+        <v>0.778103</v>
       </c>
       <c r="C116" t="n">
-        <v>0.662616</v>
+        <v>0.659525</v>
       </c>
       <c r="D116" t="n">
-        <v>0.6722860000000001</v>
+        <v>0.667907</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.776094</v>
+        <v>0.771529</v>
       </c>
       <c r="C117" t="n">
-        <v>0.665239</v>
+        <v>0.663982</v>
       </c>
       <c r="D117" t="n">
-        <v>0.674328</v>
+        <v>0.66945</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.775242</v>
+        <v>0.775819</v>
       </c>
       <c r="C118" t="n">
-        <v>0.667791</v>
+        <v>0.664373</v>
       </c>
       <c r="D118" t="n">
-        <v>0.676509</v>
+        <v>0.673795</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.774881</v>
+        <v>0.775495</v>
       </c>
       <c r="C119" t="n">
-        <v>0.669722</v>
+        <v>0.667435</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6799230000000001</v>
+        <v>0.67562</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.777597</v>
+        <v>0.773011</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6734329999999999</v>
+        <v>0.670926</v>
       </c>
       <c r="D120" t="n">
-        <v>0.68613</v>
+        <v>0.67997</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.778794</v>
+        <v>0.773469</v>
       </c>
       <c r="C121" t="n">
-        <v>0.678373</v>
+        <v>0.675142</v>
       </c>
       <c r="D121" t="n">
-        <v>0.691549</v>
+        <v>0.68693</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.777919</v>
+        <v>0.776292</v>
       </c>
       <c r="C122" t="n">
-        <v>0.68543</v>
+        <v>0.681444</v>
       </c>
       <c r="D122" t="n">
-        <v>0.701309</v>
+        <v>0.69642</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.783832</v>
+        <v>0.777313</v>
       </c>
       <c r="C123" t="n">
-        <v>0.694005</v>
+        <v>0.690574</v>
       </c>
       <c r="D123" t="n">
-        <v>0.770397</v>
+        <v>0.766312</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.03294</v>
+        <v>1.03078</v>
       </c>
       <c r="C124" t="n">
-        <v>0.757419</v>
+        <v>0.756016</v>
       </c>
       <c r="D124" t="n">
-        <v>0.770818</v>
+        <v>0.768343</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.03048</v>
+        <v>1.029</v>
       </c>
       <c r="C125" t="n">
-        <v>0.75789</v>
+        <v>0.756477</v>
       </c>
       <c r="D125" t="n">
-        <v>0.773519</v>
+        <v>0.768471</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.03474</v>
+        <v>1.02862</v>
       </c>
       <c r="C126" t="n">
-        <v>0.759997</v>
+        <v>0.756412</v>
       </c>
       <c r="D126" t="n">
-        <v>0.774674</v>
+        <v>0.769195</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.0325</v>
+        <v>1.02923</v>
       </c>
       <c r="C127" t="n">
-        <v>0.761513</v>
+        <v>0.7575539999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.776342</v>
+        <v>0.771107</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.03677</v>
+        <v>1.02774</v>
       </c>
       <c r="C128" t="n">
-        <v>0.7628239999999999</v>
+        <v>0.759193</v>
       </c>
       <c r="D128" t="n">
-        <v>0.7775879999999999</v>
+        <v>0.772124</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.03101</v>
+        <v>1.02628</v>
       </c>
       <c r="C129" t="n">
-        <v>0.764178</v>
+        <v>0.761584</v>
       </c>
       <c r="D129" t="n">
-        <v>0.780108</v>
+        <v>0.7755840000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03282</v>
+        <v>1.03309</v>
       </c>
       <c r="C130" t="n">
-        <v>0.766053</v>
+        <v>0.762982</v>
       </c>
       <c r="D130" t="n">
-        <v>0.782351</v>
+        <v>0.777425</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.03408</v>
+        <v>1.02692</v>
       </c>
       <c r="C131" t="n">
-        <v>0.769102</v>
+        <v>0.765147</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7845800000000001</v>
+        <v>0.77976</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.03246</v>
+        <v>1.02972</v>
       </c>
       <c r="C132" t="n">
-        <v>0.772177</v>
+        <v>0.769141</v>
       </c>
       <c r="D132" t="n">
-        <v>0.788207</v>
+        <v>0.784797</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03298</v>
+        <v>1.03233</v>
       </c>
       <c r="C133" t="n">
-        <v>0.775108</v>
+        <v>0.7730939999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>0.792332</v>
+        <v>0.789417</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.03294</v>
+        <v>1.02992</v>
       </c>
       <c r="C134" t="n">
-        <v>0.780955</v>
+        <v>0.777577</v>
       </c>
       <c r="D134" t="n">
-        <v>0.799763</v>
+        <v>0.795214</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.03494</v>
+        <v>1.03192</v>
       </c>
       <c r="C135" t="n">
-        <v>0.787486</v>
+        <v>0.7844370000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.809225</v>
+        <v>0.805217</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03534</v>
+        <v>1.03051</v>
       </c>
       <c r="C136" t="n">
-        <v>0.795563</v>
+        <v>0.790919</v>
       </c>
       <c r="D136" t="n">
-        <v>0.821809</v>
+        <v>0.817241</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.03721</v>
+        <v>1.0364</v>
       </c>
       <c r="C137" t="n">
-        <v>0.807091</v>
+        <v>0.803529</v>
       </c>
       <c r="D137" t="n">
-        <v>0.815014</v>
+        <v>0.809646</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.25604</v>
+        <v>1.24918</v>
       </c>
       <c r="C138" t="n">
-        <v>0.799509</v>
+        <v>0.793807</v>
       </c>
       <c r="D138" t="n">
-        <v>0.816829</v>
+        <v>0.810137</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.25566</v>
+        <v>1.24882</v>
       </c>
       <c r="C139" t="n">
-        <v>0.800359</v>
+        <v>0.796613</v>
       </c>
       <c r="D139" t="n">
-        <v>0.818646</v>
+        <v>0.812183</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.25587</v>
+        <v>1.24923</v>
       </c>
       <c r="C140" t="n">
-        <v>0.801903</v>
+        <v>0.796739</v>
       </c>
       <c r="D140" t="n">
-        <v>0.819609</v>
+        <v>0.813685</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.25472</v>
+        <v>1.24926</v>
       </c>
       <c r="C141" t="n">
-        <v>0.804176</v>
+        <v>0.798721</v>
       </c>
       <c r="D141" t="n">
-        <v>0.822535</v>
+        <v>0.815892</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.25674</v>
+        <v>1.24771</v>
       </c>
       <c r="C142" t="n">
-        <v>0.806449</v>
+        <v>0.800535</v>
       </c>
       <c r="D142" t="n">
-        <v>0.824161</v>
+        <v>0.817692</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.25576</v>
+        <v>1.24888</v>
       </c>
       <c r="C143" t="n">
-        <v>0.808432</v>
+        <v>0.802248</v>
       </c>
       <c r="D143" t="n">
-        <v>0.827552</v>
+        <v>0.819983</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.174695</v>
+        <v>0.17435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.180858</v>
+        <v>0.181407</v>
       </c>
       <c r="D2" t="n">
-        <v>0.191548</v>
+        <v>0.191492</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.175133</v>
+        <v>0.174452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.182154</v>
+        <v>0.181373</v>
       </c>
       <c r="D3" t="n">
-        <v>0.192614</v>
+        <v>0.192104</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.175829</v>
+        <v>0.175088</v>
       </c>
       <c r="C4" t="n">
-        <v>0.18312</v>
+        <v>0.182384</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193958</v>
+        <v>0.193507</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.176488</v>
+        <v>0.175825</v>
       </c>
       <c r="C5" t="n">
-        <v>0.184761</v>
+        <v>0.183928</v>
       </c>
       <c r="D5" t="n">
-        <v>0.195799</v>
+        <v>0.195213</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.177113</v>
+        <v>0.176708</v>
       </c>
       <c r="C6" t="n">
-        <v>0.185903</v>
+        <v>0.185779</v>
       </c>
       <c r="D6" t="n">
-        <v>0.197492</v>
+        <v>0.197417</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.178998</v>
+        <v>0.1785</v>
       </c>
       <c r="C7" t="n">
-        <v>0.188845</v>
+        <v>0.187849</v>
       </c>
       <c r="D7" t="n">
-        <v>0.201174</v>
+        <v>0.200583</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.181269</v>
+        <v>0.180578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191812</v>
+        <v>0.190683</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20574</v>
+        <v>0.205398</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1849</v>
+        <v>0.184526</v>
       </c>
       <c r="C9" t="n">
-        <v>0.195843</v>
+        <v>0.194731</v>
       </c>
       <c r="D9" t="n">
-        <v>0.190636</v>
+        <v>0.189505</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.180905</v>
+        <v>0.180229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181319</v>
+        <v>0.181576</v>
       </c>
       <c r="D10" t="n">
-        <v>0.18936</v>
+        <v>0.189213</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.181924</v>
+        <v>0.180204</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182393</v>
+        <v>0.181252</v>
       </c>
       <c r="D11" t="n">
-        <v>0.189871</v>
+        <v>0.189403</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.183947</v>
+        <v>0.181609</v>
       </c>
       <c r="C12" t="n">
-        <v>0.182538</v>
+        <v>0.181661</v>
       </c>
       <c r="D12" t="n">
-        <v>0.190946</v>
+        <v>0.189704</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.181499</v>
+        <v>0.183476</v>
       </c>
       <c r="C13" t="n">
-        <v>0.183946</v>
+        <v>0.183819</v>
       </c>
       <c r="D13" t="n">
-        <v>0.190978</v>
+        <v>0.190861</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.182812</v>
+        <v>0.180723</v>
       </c>
       <c r="C14" t="n">
-        <v>0.186181</v>
+        <v>0.182456</v>
       </c>
       <c r="D14" t="n">
-        <v>0.191735</v>
+        <v>0.190522</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.182196</v>
+        <v>0.180884</v>
       </c>
       <c r="C15" t="n">
-        <v>0.184552</v>
+        <v>0.183745</v>
       </c>
       <c r="D15" t="n">
-        <v>0.192004</v>
+        <v>0.191751</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.181734</v>
+        <v>0.182078</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1842</v>
+        <v>0.184782</v>
       </c>
       <c r="D16" t="n">
-        <v>0.192058</v>
+        <v>0.192544</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.183131</v>
+        <v>0.181557</v>
       </c>
       <c r="C17" t="n">
-        <v>0.18571</v>
+        <v>0.184655</v>
       </c>
       <c r="D17" t="n">
-        <v>0.19308</v>
+        <v>0.192842</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.182656</v>
+        <v>0.182844</v>
       </c>
       <c r="C18" t="n">
-        <v>0.185533</v>
+        <v>0.186395</v>
       </c>
       <c r="D18" t="n">
-        <v>0.193896</v>
+        <v>0.194145</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.182908</v>
+        <v>0.183875</v>
       </c>
       <c r="C19" t="n">
-        <v>0.186894</v>
+        <v>0.188537</v>
       </c>
       <c r="D19" t="n">
-        <v>0.195735</v>
+        <v>0.196368</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185192</v>
+        <v>0.186935</v>
       </c>
       <c r="C20" t="n">
-        <v>0.188775</v>
+        <v>0.191472</v>
       </c>
       <c r="D20" t="n">
-        <v>0.198256</v>
+        <v>0.200315</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.189472</v>
+        <v>0.188578</v>
       </c>
       <c r="C21" t="n">
-        <v>0.193151</v>
+        <v>0.192074</v>
       </c>
       <c r="D21" t="n">
-        <v>0.202141</v>
+        <v>0.201183</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.189672</v>
+        <v>0.188967</v>
       </c>
       <c r="C22" t="n">
-        <v>0.193312</v>
+        <v>0.193349</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205072</v>
+        <v>0.205071</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.193023</v>
+        <v>0.192003</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197471</v>
+        <v>0.197606</v>
       </c>
       <c r="D23" t="n">
-        <v>0.197176</v>
+        <v>0.197996</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.203111</v>
+        <v>0.201531</v>
       </c>
       <c r="C24" t="n">
-        <v>0.185124</v>
+        <v>0.185387</v>
       </c>
       <c r="D24" t="n">
-        <v>0.199507</v>
+        <v>0.198544</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.20349</v>
+        <v>0.201578</v>
       </c>
       <c r="C25" t="n">
-        <v>0.186406</v>
+        <v>0.185602</v>
       </c>
       <c r="D25" t="n">
-        <v>0.198673</v>
+        <v>0.198958</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.203825</v>
+        <v>0.202145</v>
       </c>
       <c r="C26" t="n">
-        <v>0.186398</v>
+        <v>0.186175</v>
       </c>
       <c r="D26" t="n">
-        <v>0.198525</v>
+        <v>0.198842</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.204812</v>
+        <v>0.201397</v>
       </c>
       <c r="C27" t="n">
-        <v>0.18747</v>
+        <v>0.187254</v>
       </c>
       <c r="D27" t="n">
-        <v>0.198133</v>
+        <v>0.199522</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.204844</v>
+        <v>0.202232</v>
       </c>
       <c r="C28" t="n">
-        <v>0.187884</v>
+        <v>0.187828</v>
       </c>
       <c r="D28" t="n">
-        <v>0.19967</v>
+        <v>0.199834</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.205006</v>
+        <v>0.203325</v>
       </c>
       <c r="C29" t="n">
-        <v>0.188749</v>
+        <v>0.18817</v>
       </c>
       <c r="D29" t="n">
-        <v>0.200374</v>
+        <v>0.20105</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.204399</v>
+        <v>0.202539</v>
       </c>
       <c r="C30" t="n">
-        <v>0.189699</v>
+        <v>0.189554</v>
       </c>
       <c r="D30" t="n">
-        <v>0.201788</v>
+        <v>0.202657</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.20372</v>
+        <v>0.202113</v>
       </c>
       <c r="C31" t="n">
-        <v>0.190191</v>
+        <v>0.190805</v>
       </c>
       <c r="D31" t="n">
-        <v>0.20219</v>
+        <v>0.203514</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.204094</v>
+        <v>0.203435</v>
       </c>
       <c r="C32" t="n">
-        <v>0.191142</v>
+        <v>0.191371</v>
       </c>
       <c r="D32" t="n">
-        <v>0.202897</v>
+        <v>0.204337</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.204034</v>
+        <v>0.205565</v>
       </c>
       <c r="C33" t="n">
-        <v>0.193305</v>
+        <v>0.194158</v>
       </c>
       <c r="D33" t="n">
-        <v>0.205393</v>
+        <v>0.205751</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.206095</v>
+        <v>0.207493</v>
       </c>
       <c r="C34" t="n">
-        <v>0.194896</v>
+        <v>0.19586</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208322</v>
+        <v>0.208673</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.206926</v>
+        <v>0.20814</v>
       </c>
       <c r="C35" t="n">
-        <v>0.196524</v>
+        <v>0.198205</v>
       </c>
       <c r="D35" t="n">
-        <v>0.21178</v>
+        <v>0.21148</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.209952</v>
+        <v>0.209166</v>
       </c>
       <c r="C36" t="n">
-        <v>0.200246</v>
+        <v>0.201439</v>
       </c>
       <c r="D36" t="n">
-        <v>0.21545</v>
+        <v>0.217057</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.214885</v>
+        <v>0.212437</v>
       </c>
       <c r="C37" t="n">
-        <v>0.205611</v>
+        <v>0.206138</v>
       </c>
       <c r="D37" t="n">
-        <v>0.215406</v>
+        <v>0.217512</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.231572</v>
+        <v>0.231808</v>
       </c>
       <c r="C38" t="n">
-        <v>0.204842</v>
+        <v>0.203962</v>
       </c>
       <c r="D38" t="n">
-        <v>0.21717</v>
+        <v>0.216892</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.231439</v>
+        <v>0.232225</v>
       </c>
       <c r="C39" t="n">
-        <v>0.206546</v>
+        <v>0.206036</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219063</v>
+        <v>0.217325</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.230366</v>
+        <v>0.232697</v>
       </c>
       <c r="C40" t="n">
-        <v>0.206373</v>
+        <v>0.207175</v>
       </c>
       <c r="D40" t="n">
-        <v>0.218765</v>
+        <v>0.217723</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.232717</v>
+        <v>0.231659</v>
       </c>
       <c r="C41" t="n">
-        <v>0.206738</v>
+        <v>0.208246</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21853</v>
+        <v>0.218378</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.232975</v>
+        <v>0.233454</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208457</v>
+        <v>0.208538</v>
       </c>
       <c r="D42" t="n">
-        <v>0.219855</v>
+        <v>0.218709</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.233062</v>
+        <v>0.23128</v>
       </c>
       <c r="C43" t="n">
-        <v>0.208233</v>
+        <v>0.207948</v>
       </c>
       <c r="D43" t="n">
-        <v>0.219896</v>
+        <v>0.21951</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.23114</v>
+        <v>0.231241</v>
       </c>
       <c r="C44" t="n">
-        <v>0.210522</v>
+        <v>0.210572</v>
       </c>
       <c r="D44" t="n">
-        <v>0.221146</v>
+        <v>0.22068</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.23432</v>
+        <v>0.232478</v>
       </c>
       <c r="C45" t="n">
-        <v>0.211793</v>
+        <v>0.211481</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2223</v>
+        <v>0.221488</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.233772</v>
+        <v>0.232461</v>
       </c>
       <c r="C46" t="n">
-        <v>0.212606</v>
+        <v>0.212579</v>
       </c>
       <c r="D46" t="n">
-        <v>0.223559</v>
+        <v>0.222889</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2333</v>
+        <v>0.232299</v>
       </c>
       <c r="C47" t="n">
-        <v>0.214526</v>
+        <v>0.213451</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225042</v>
+        <v>0.22433</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.234998</v>
+        <v>0.234124</v>
       </c>
       <c r="C48" t="n">
-        <v>0.215764</v>
+        <v>0.215851</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227855</v>
+        <v>0.227627</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237887</v>
+        <v>0.237735</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21824</v>
+        <v>0.21834</v>
       </c>
       <c r="D49" t="n">
-        <v>0.230552</v>
+        <v>0.229534</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237808</v>
+        <v>0.237515</v>
       </c>
       <c r="C50" t="n">
-        <v>0.221821</v>
+        <v>0.22213</v>
       </c>
       <c r="D50" t="n">
-        <v>0.236218</v>
+        <v>0.234516</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.240014</v>
+        <v>0.23875</v>
       </c>
       <c r="C51" t="n">
-        <v>0.227074</v>
+        <v>0.225637</v>
       </c>
       <c r="D51" t="n">
-        <v>0.230209</v>
+        <v>0.229611</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.245056</v>
+        <v>0.24489</v>
       </c>
       <c r="C52" t="n">
-        <v>0.232541</v>
+        <v>0.231399</v>
       </c>
       <c r="D52" t="n">
-        <v>0.231001</v>
+        <v>0.230905</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.254883</v>
+        <v>0.25876</v>
       </c>
       <c r="C53" t="n">
-        <v>0.222285</v>
+        <v>0.221622</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230511</v>
+        <v>0.229003</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.260532</v>
+        <v>0.258909</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222652</v>
+        <v>0.223573</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229863</v>
+        <v>0.230931</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.257712</v>
+        <v>0.258335</v>
       </c>
       <c r="C55" t="n">
-        <v>0.223914</v>
+        <v>0.223956</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231073</v>
+        <v>0.232763</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.260401</v>
+        <v>0.259432</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22544</v>
+        <v>0.225629</v>
       </c>
       <c r="D56" t="n">
-        <v>0.232085</v>
+        <v>0.232019</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.259869</v>
+        <v>0.259222</v>
       </c>
       <c r="C57" t="n">
-        <v>0.226444</v>
+        <v>0.226132</v>
       </c>
       <c r="D57" t="n">
-        <v>0.233037</v>
+        <v>0.232589</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.259968</v>
+        <v>0.261538</v>
       </c>
       <c r="C58" t="n">
-        <v>0.22742</v>
+        <v>0.226772</v>
       </c>
       <c r="D58" t="n">
-        <v>0.234453</v>
+        <v>0.233372</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.260563</v>
+        <v>0.259964</v>
       </c>
       <c r="C59" t="n">
-        <v>0.22782</v>
+        <v>0.230097</v>
       </c>
       <c r="D59" t="n">
-        <v>0.234298</v>
+        <v>0.237106</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.259379</v>
+        <v>0.261117</v>
       </c>
       <c r="C60" t="n">
-        <v>0.228874</v>
+        <v>0.229283</v>
       </c>
       <c r="D60" t="n">
-        <v>0.235442</v>
+        <v>0.235688</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260147</v>
+        <v>0.260332</v>
       </c>
       <c r="C61" t="n">
-        <v>0.230705</v>
+        <v>0.23129</v>
       </c>
       <c r="D61" t="n">
-        <v>0.237955</v>
+        <v>0.237712</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.264738</v>
+        <v>0.2628</v>
       </c>
       <c r="C62" t="n">
-        <v>0.23247</v>
+        <v>0.232695</v>
       </c>
       <c r="D62" t="n">
-        <v>0.241577</v>
+        <v>0.239695</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262533</v>
+        <v>0.262667</v>
       </c>
       <c r="C63" t="n">
-        <v>0.234749</v>
+        <v>0.23526</v>
       </c>
       <c r="D63" t="n">
-        <v>0.24264</v>
+        <v>0.242643</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.264742</v>
+        <v>0.263629</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239258</v>
+        <v>0.239264</v>
       </c>
       <c r="D64" t="n">
-        <v>0.248631</v>
+        <v>0.250361</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266326</v>
+        <v>0.266679</v>
       </c>
       <c r="C65" t="n">
-        <v>0.242836</v>
+        <v>0.243039</v>
       </c>
       <c r="D65" t="n">
-        <v>0.254391</v>
+        <v>0.254523</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.271099</v>
+        <v>0.269398</v>
       </c>
       <c r="C66" t="n">
-        <v>0.249059</v>
+        <v>0.250575</v>
       </c>
       <c r="D66" t="n">
-        <v>0.239441</v>
+        <v>0.237649</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.27719</v>
+        <v>0.277551</v>
       </c>
       <c r="C67" t="n">
-        <v>0.233798</v>
+        <v>0.233318</v>
       </c>
       <c r="D67" t="n">
-        <v>0.237715</v>
+        <v>0.236917</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.276984</v>
+        <v>0.276709</v>
       </c>
       <c r="C68" t="n">
-        <v>0.233578</v>
+        <v>0.234569</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23787</v>
+        <v>0.237907</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.276877</v>
+        <v>0.277925</v>
       </c>
       <c r="C69" t="n">
-        <v>0.235865</v>
+        <v>0.235833</v>
       </c>
       <c r="D69" t="n">
-        <v>0.239106</v>
+        <v>0.23862</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.277323</v>
+        <v>0.277618</v>
       </c>
       <c r="C70" t="n">
-        <v>0.235829</v>
+        <v>0.235399</v>
       </c>
       <c r="D70" t="n">
-        <v>0.239139</v>
+        <v>0.238896</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.277685</v>
+        <v>0.277169</v>
       </c>
       <c r="C71" t="n">
-        <v>0.237009</v>
+        <v>0.237129</v>
       </c>
       <c r="D71" t="n">
-        <v>0.23922</v>
+        <v>0.240425</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.277465</v>
+        <v>0.277401</v>
       </c>
       <c r="C72" t="n">
-        <v>0.238322</v>
+        <v>0.238688</v>
       </c>
       <c r="D72" t="n">
-        <v>0.240736</v>
+        <v>0.240865</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.277772</v>
+        <v>0.278275</v>
       </c>
       <c r="C73" t="n">
-        <v>0.238934</v>
+        <v>0.239638</v>
       </c>
       <c r="D73" t="n">
-        <v>0.241575</v>
+        <v>0.24271</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.278401</v>
+        <v>0.278078</v>
       </c>
       <c r="C74" t="n">
-        <v>0.238983</v>
+        <v>0.241273</v>
       </c>
       <c r="D74" t="n">
-        <v>0.243147</v>
+        <v>0.243299</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.27896</v>
+        <v>0.278653</v>
       </c>
       <c r="C75" t="n">
-        <v>0.241861</v>
+        <v>0.241536</v>
       </c>
       <c r="D75" t="n">
-        <v>0.245284</v>
+        <v>0.244491</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.27956</v>
+        <v>0.279572</v>
       </c>
       <c r="C76" t="n">
-        <v>0.243334</v>
+        <v>0.245068</v>
       </c>
       <c r="D76" t="n">
-        <v>0.247249</v>
+        <v>0.247941</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.280665</v>
+        <v>0.281361</v>
       </c>
       <c r="C77" t="n">
-        <v>0.243294</v>
+        <v>0.246602</v>
       </c>
       <c r="D77" t="n">
-        <v>0.249944</v>
+        <v>0.250939</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.282053</v>
+        <v>0.281717</v>
       </c>
       <c r="C78" t="n">
-        <v>0.248661</v>
+        <v>0.249223</v>
       </c>
       <c r="D78" t="n">
-        <v>0.255286</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.284632</v>
+        <v>0.285006</v>
       </c>
       <c r="C79" t="n">
-        <v>0.251828</v>
+        <v>0.254349</v>
       </c>
       <c r="D79" t="n">
-        <v>0.262662</v>
+        <v>0.26312</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.289142</v>
+        <v>0.289324</v>
       </c>
       <c r="C80" t="n">
-        <v>0.259658</v>
+        <v>0.260472</v>
       </c>
       <c r="D80" t="n">
-        <v>0.247734</v>
+        <v>0.249237</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.297703</v>
+        <v>0.29948</v>
       </c>
       <c r="C81" t="n">
-        <v>0.237827</v>
+        <v>0.236812</v>
       </c>
       <c r="D81" t="n">
-        <v>0.248111</v>
+        <v>0.24868</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.29784</v>
+        <v>0.30255</v>
       </c>
       <c r="C82" t="n">
-        <v>0.238514</v>
+        <v>0.23816</v>
       </c>
       <c r="D82" t="n">
-        <v>0.250994</v>
+        <v>0.250709</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.299687</v>
+        <v>0.298317</v>
       </c>
       <c r="C83" t="n">
-        <v>0.239295</v>
+        <v>0.238425</v>
       </c>
       <c r="D83" t="n">
-        <v>0.249626</v>
+        <v>0.249859</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298313</v>
+        <v>0.298671</v>
       </c>
       <c r="C84" t="n">
-        <v>0.241413</v>
+        <v>0.238373</v>
       </c>
       <c r="D84" t="n">
-        <v>0.25424</v>
+        <v>0.250627</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.300424</v>
+        <v>0.297933</v>
       </c>
       <c r="C85" t="n">
-        <v>0.241454</v>
+        <v>0.239576</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250805</v>
+        <v>0.252717</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.298985</v>
+        <v>0.298223</v>
       </c>
       <c r="C86" t="n">
-        <v>0.240308</v>
+        <v>0.23884</v>
       </c>
       <c r="D86" t="n">
-        <v>0.252368</v>
+        <v>0.251713</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.298455</v>
+        <v>0.299071</v>
       </c>
       <c r="C87" t="n">
-        <v>0.239447</v>
+        <v>0.242086</v>
       </c>
       <c r="D87" t="n">
-        <v>0.252587</v>
+        <v>0.254936</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299619</v>
+        <v>0.299465</v>
       </c>
       <c r="C88" t="n">
-        <v>0.242611</v>
+        <v>0.2405</v>
       </c>
       <c r="D88" t="n">
-        <v>0.254745</v>
+        <v>0.25383</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.300444</v>
+        <v>0.298752</v>
       </c>
       <c r="C89" t="n">
-        <v>0.243747</v>
+        <v>0.244034</v>
       </c>
       <c r="D89" t="n">
-        <v>0.257211</v>
+        <v>0.255842</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.30194</v>
+        <v>0.299576</v>
       </c>
       <c r="C90" t="n">
-        <v>0.246374</v>
+        <v>0.243918</v>
       </c>
       <c r="D90" t="n">
-        <v>0.258394</v>
+        <v>0.257775</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.302086</v>
+        <v>0.301245</v>
       </c>
       <c r="C91" t="n">
-        <v>0.2487</v>
+        <v>0.246787</v>
       </c>
       <c r="D91" t="n">
-        <v>0.263368</v>
+        <v>0.261679</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.305678</v>
+        <v>0.302675</v>
       </c>
       <c r="C92" t="n">
-        <v>0.251125</v>
+        <v>0.248134</v>
       </c>
       <c r="D92" t="n">
-        <v>0.268836</v>
+        <v>0.265242</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.306901</v>
+        <v>0.304937</v>
       </c>
       <c r="C93" t="n">
-        <v>0.256179</v>
+        <v>0.254202</v>
       </c>
       <c r="D93" t="n">
-        <v>0.272866</v>
+        <v>0.272138</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.31023</v>
+        <v>0.30887</v>
       </c>
       <c r="C94" t="n">
-        <v>0.259966</v>
+        <v>0.25851</v>
       </c>
       <c r="D94" t="n">
-        <v>0.399285</v>
+        <v>0.399928</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.48402</v>
+        <v>0.486433</v>
       </c>
       <c r="C95" t="n">
-        <v>0.403947</v>
+        <v>0.405279</v>
       </c>
       <c r="D95" t="n">
-        <v>0.398282</v>
+        <v>0.392256</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.48183</v>
+        <v>0.486064</v>
       </c>
       <c r="C96" t="n">
-        <v>0.405385</v>
+        <v>0.404318</v>
       </c>
       <c r="D96" t="n">
-        <v>0.393622</v>
+        <v>0.396188</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.485566</v>
+        <v>0.479491</v>
       </c>
       <c r="C97" t="n">
-        <v>0.407748</v>
+        <v>0.405102</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4021</v>
+        <v>0.397712</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.485781</v>
+        <v>0.483162</v>
       </c>
       <c r="C98" t="n">
-        <v>0.408206</v>
+        <v>0.410239</v>
       </c>
       <c r="D98" t="n">
-        <v>0.399583</v>
+        <v>0.397015</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.483034</v>
+        <v>0.485379</v>
       </c>
       <c r="C99" t="n">
-        <v>0.409303</v>
+        <v>0.40833</v>
       </c>
       <c r="D99" t="n">
-        <v>0.405837</v>
+        <v>0.399995</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.48455</v>
+        <v>0.482847</v>
       </c>
       <c r="C100" t="n">
-        <v>0.410151</v>
+        <v>0.406609</v>
       </c>
       <c r="D100" t="n">
-        <v>0.398309</v>
+        <v>0.399241</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.481943</v>
+        <v>0.484538</v>
       </c>
       <c r="C101" t="n">
-        <v>0.410972</v>
+        <v>0.40986</v>
       </c>
       <c r="D101" t="n">
-        <v>0.403755</v>
+        <v>0.395773</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.482232</v>
+        <v>0.482449</v>
       </c>
       <c r="C102" t="n">
-        <v>0.411768</v>
+        <v>0.409501</v>
       </c>
       <c r="D102" t="n">
-        <v>0.400426</v>
+        <v>0.400644</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.483994</v>
+        <v>0.484977</v>
       </c>
       <c r="C103" t="n">
-        <v>0.415237</v>
+        <v>0.412796</v>
       </c>
       <c r="D103" t="n">
-        <v>0.405582</v>
+        <v>0.406629</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.483775</v>
+        <v>0.485759</v>
       </c>
       <c r="C104" t="n">
-        <v>0.413401</v>
+        <v>0.407756</v>
       </c>
       <c r="D104" t="n">
-        <v>0.405849</v>
+        <v>0.40346</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.485633</v>
+        <v>0.481273</v>
       </c>
       <c r="C105" t="n">
-        <v>0.420216</v>
+        <v>0.418396</v>
       </c>
       <c r="D105" t="n">
-        <v>0.41426</v>
+        <v>0.403388</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.483867</v>
+        <v>0.483881</v>
       </c>
       <c r="C106" t="n">
-        <v>0.418905</v>
+        <v>0.412721</v>
       </c>
       <c r="D106" t="n">
-        <v>0.412186</v>
+        <v>0.416864</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.486623</v>
+        <v>0.483603</v>
       </c>
       <c r="C107" t="n">
-        <v>0.425804</v>
+        <v>0.422775</v>
       </c>
       <c r="D107" t="n">
-        <v>0.422231</v>
+        <v>0.410951</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.496097</v>
+        <v>0.491479</v>
       </c>
       <c r="C108" t="n">
-        <v>0.431456</v>
+        <v>0.423425</v>
       </c>
       <c r="D108" t="n">
-        <v>0.658481</v>
+        <v>0.6577539999999999</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.496308</v>
+        <v>0.489109</v>
       </c>
       <c r="C109" t="n">
-        <v>0.43901</v>
+        <v>0.431026</v>
       </c>
       <c r="D109" t="n">
-        <v>0.658933</v>
+        <v>0.659104</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.773002</v>
+        <v>0.772078</v>
       </c>
       <c r="C110" t="n">
-        <v>0.654177</v>
+        <v>0.653656</v>
       </c>
       <c r="D110" t="n">
-        <v>0.659263</v>
+        <v>0.6591</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.773125</v>
+        <v>0.7740089999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>0.655277</v>
+        <v>0.655443</v>
       </c>
       <c r="D111" t="n">
-        <v>0.660727</v>
+        <v>0.659732</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.772756</v>
+        <v>0.7718159999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>0.656033</v>
+        <v>0.654715</v>
       </c>
       <c r="D112" t="n">
-        <v>0.662104</v>
+        <v>0.661403</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.776749</v>
+        <v>0.7749</v>
       </c>
       <c r="C113" t="n">
-        <v>0.655679</v>
+        <v>0.6559</v>
       </c>
       <c r="D113" t="n">
-        <v>0.663694</v>
+        <v>0.663038</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.77543</v>
+        <v>0.776396</v>
       </c>
       <c r="C114" t="n">
-        <v>0.659422</v>
+        <v>0.657347</v>
       </c>
       <c r="D114" t="n">
-        <v>0.664195</v>
+        <v>0.664535</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.774755</v>
+        <v>0.771952</v>
       </c>
       <c r="C115" t="n">
-        <v>0.659137</v>
+        <v>0.658934</v>
       </c>
       <c r="D115" t="n">
-        <v>0.66557</v>
+        <v>0.665898</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.778103</v>
+        <v>0.769652</v>
       </c>
       <c r="C116" t="n">
-        <v>0.659525</v>
+        <v>0.660541</v>
       </c>
       <c r="D116" t="n">
-        <v>0.667907</v>
+        <v>0.667579</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.771529</v>
+        <v>0.772803</v>
       </c>
       <c r="C117" t="n">
-        <v>0.663982</v>
+        <v>0.662158</v>
       </c>
       <c r="D117" t="n">
-        <v>0.66945</v>
+        <v>0.6694099999999999</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.775819</v>
+        <v>0.770544</v>
       </c>
       <c r="C118" t="n">
-        <v>0.664373</v>
+        <v>0.663886</v>
       </c>
       <c r="D118" t="n">
-        <v>0.673795</v>
+        <v>0.672161</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.775495</v>
+        <v>0.765509</v>
       </c>
       <c r="C119" t="n">
-        <v>0.667435</v>
+        <v>0.660547</v>
       </c>
       <c r="D119" t="n">
-        <v>0.67562</v>
+        <v>0.6717649999999999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.773011</v>
+        <v>0.766679</v>
       </c>
       <c r="C120" t="n">
-        <v>0.670926</v>
+        <v>0.667669</v>
       </c>
       <c r="D120" t="n">
-        <v>0.67997</v>
+        <v>0.677864</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.773469</v>
+        <v>0.768674</v>
       </c>
       <c r="C121" t="n">
-        <v>0.675142</v>
+        <v>0.671154</v>
       </c>
       <c r="D121" t="n">
-        <v>0.68693</v>
+        <v>0.682887</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.776292</v>
+        <v>0.7723680000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.681444</v>
+        <v>0.67719</v>
       </c>
       <c r="D122" t="n">
-        <v>0.69642</v>
+        <v>0.691407</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.777313</v>
+        <v>0.771618</v>
       </c>
       <c r="C123" t="n">
-        <v>0.690574</v>
+        <v>0.68667</v>
       </c>
       <c r="D123" t="n">
-        <v>0.766312</v>
+        <v>0.765077</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.03078</v>
+        <v>1.02529</v>
       </c>
       <c r="C124" t="n">
-        <v>0.756016</v>
+        <v>0.753185</v>
       </c>
       <c r="D124" t="n">
-        <v>0.768343</v>
+        <v>0.765553</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.029</v>
+        <v>1.02576</v>
       </c>
       <c r="C125" t="n">
-        <v>0.756477</v>
+        <v>0.753623</v>
       </c>
       <c r="D125" t="n">
-        <v>0.768471</v>
+        <v>0.76649</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02862</v>
+        <v>1.02525</v>
       </c>
       <c r="C126" t="n">
-        <v>0.756412</v>
+        <v>0.754742</v>
       </c>
       <c r="D126" t="n">
-        <v>0.769195</v>
+        <v>0.767904</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.02923</v>
+        <v>1.02468</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7575539999999999</v>
+        <v>0.755779</v>
       </c>
       <c r="D127" t="n">
-        <v>0.771107</v>
+        <v>0.768754</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.02774</v>
+        <v>1.02622</v>
       </c>
       <c r="C128" t="n">
-        <v>0.759193</v>
+        <v>0.756665</v>
       </c>
       <c r="D128" t="n">
-        <v>0.772124</v>
+        <v>0.771566</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.02628</v>
+        <v>1.02604</v>
       </c>
       <c r="C129" t="n">
-        <v>0.761584</v>
+        <v>0.7597</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7755840000000001</v>
+        <v>0.773909</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.03309</v>
+        <v>1.02479</v>
       </c>
       <c r="C130" t="n">
-        <v>0.762982</v>
+        <v>0.762369</v>
       </c>
       <c r="D130" t="n">
-        <v>0.777425</v>
+        <v>0.775968</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02692</v>
+        <v>1.02615</v>
       </c>
       <c r="C131" t="n">
-        <v>0.765147</v>
+        <v>0.764608</v>
       </c>
       <c r="D131" t="n">
-        <v>0.77976</v>
+        <v>0.77876</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.02972</v>
+        <v>1.02515</v>
       </c>
       <c r="C132" t="n">
-        <v>0.769141</v>
+        <v>0.767653</v>
       </c>
       <c r="D132" t="n">
-        <v>0.784797</v>
+        <v>0.782393</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.03233</v>
+        <v>1.02962</v>
       </c>
       <c r="C133" t="n">
-        <v>0.7730939999999999</v>
+        <v>0.771595</v>
       </c>
       <c r="D133" t="n">
-        <v>0.789417</v>
+        <v>0.788053</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.02992</v>
+        <v>1.02885</v>
       </c>
       <c r="C134" t="n">
-        <v>0.777577</v>
+        <v>0.776362</v>
       </c>
       <c r="D134" t="n">
-        <v>0.795214</v>
+        <v>0.794397</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.03192</v>
+        <v>1.02962</v>
       </c>
       <c r="C135" t="n">
-        <v>0.7844370000000001</v>
+        <v>0.783104</v>
       </c>
       <c r="D135" t="n">
-        <v>0.805217</v>
+        <v>0.804288</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03051</v>
+        <v>1.03054</v>
       </c>
       <c r="C136" t="n">
-        <v>0.790919</v>
+        <v>0.791961</v>
       </c>
       <c r="D136" t="n">
-        <v>0.817241</v>
+        <v>0.816197</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.0364</v>
+        <v>1.03295</v>
       </c>
       <c r="C137" t="n">
-        <v>0.803529</v>
+        <v>0.803045</v>
       </c>
       <c r="D137" t="n">
-        <v>0.809646</v>
+        <v>0.8097800000000001</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.24918</v>
+        <v>1.24358</v>
       </c>
       <c r="C138" t="n">
-        <v>0.793807</v>
+        <v>0.794103</v>
       </c>
       <c r="D138" t="n">
-        <v>0.810137</v>
+        <v>0.810728</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.24882</v>
+        <v>1.24352</v>
       </c>
       <c r="C139" t="n">
-        <v>0.796613</v>
+        <v>0.7952979999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.812183</v>
+        <v>0.811558</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.24923</v>
+        <v>1.24525</v>
       </c>
       <c r="C140" t="n">
-        <v>0.796739</v>
+        <v>0.796119</v>
       </c>
       <c r="D140" t="n">
-        <v>0.813685</v>
+        <v>0.813465</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24926</v>
+        <v>1.24573</v>
       </c>
       <c r="C141" t="n">
-        <v>0.798721</v>
+        <v>0.798102</v>
       </c>
       <c r="D141" t="n">
-        <v>0.815892</v>
+        <v>0.8148840000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.24771</v>
+        <v>1.2453</v>
       </c>
       <c r="C142" t="n">
-        <v>0.800535</v>
+        <v>0.799692</v>
       </c>
       <c r="D142" t="n">
-        <v>0.817692</v>
+        <v>0.8172700000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24888</v>
+        <v>1.24633</v>
       </c>
       <c r="C143" t="n">
-        <v>0.802248</v>
+        <v>0.801904</v>
       </c>
       <c r="D143" t="n">
-        <v>0.819983</v>
+        <v>0.820044</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.17435</v>
+        <v>0.0891019</v>
       </c>
       <c r="C2" t="n">
-        <v>0.181407</v>
+        <v>0.100693</v>
       </c>
       <c r="D2" t="n">
-        <v>0.191492</v>
+        <v>0.110193</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.174452</v>
+        <v>0.08924749999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.181373</v>
+        <v>0.10144</v>
       </c>
       <c r="D3" t="n">
-        <v>0.192104</v>
+        <v>0.110679</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.175088</v>
+        <v>0.0897637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.182384</v>
+        <v>0.101988</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193507</v>
+        <v>0.111228</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.175825</v>
+        <v>0.0903557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.183928</v>
+        <v>0.102753</v>
       </c>
       <c r="D5" t="n">
-        <v>0.195213</v>
+        <v>0.111975</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.176708</v>
+        <v>0.0909311</v>
       </c>
       <c r="C6" t="n">
-        <v>0.185779</v>
+        <v>0.10311</v>
       </c>
       <c r="D6" t="n">
-        <v>0.197417</v>
+        <v>0.112722</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1785</v>
+        <v>0.0916414</v>
       </c>
       <c r="C7" t="n">
-        <v>0.187849</v>
+        <v>0.104157</v>
       </c>
       <c r="D7" t="n">
-        <v>0.200583</v>
+        <v>0.114292</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.180578</v>
+        <v>0.0927432</v>
       </c>
       <c r="C8" t="n">
-        <v>0.190683</v>
+        <v>0.105368</v>
       </c>
       <c r="D8" t="n">
-        <v>0.205398</v>
+        <v>0.116694</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.184526</v>
+        <v>0.09458999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.194731</v>
+        <v>0.108497</v>
       </c>
       <c r="D9" t="n">
-        <v>0.189505</v>
+        <v>0.108454</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.180229</v>
+        <v>0.093568</v>
       </c>
       <c r="C10" t="n">
-        <v>0.181576</v>
+        <v>0.102225</v>
       </c>
       <c r="D10" t="n">
-        <v>0.189213</v>
+        <v>0.109123</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.180204</v>
+        <v>0.0918781</v>
       </c>
       <c r="C11" t="n">
-        <v>0.181252</v>
+        <v>0.101999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.189403</v>
+        <v>0.109191</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.181609</v>
+        <v>0.0920358</v>
       </c>
       <c r="C12" t="n">
-        <v>0.181661</v>
+        <v>0.102318</v>
       </c>
       <c r="D12" t="n">
-        <v>0.189704</v>
+        <v>0.109133</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.183476</v>
+        <v>0.0920798</v>
       </c>
       <c r="C13" t="n">
-        <v>0.183819</v>
+        <v>0.102464</v>
       </c>
       <c r="D13" t="n">
-        <v>0.190861</v>
+        <v>0.109717</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.180723</v>
+        <v>0.09304</v>
       </c>
       <c r="C14" t="n">
-        <v>0.182456</v>
+        <v>0.103695</v>
       </c>
       <c r="D14" t="n">
-        <v>0.190522</v>
+        <v>0.112025</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.180884</v>
+        <v>0.0933568</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183745</v>
+        <v>0.103853</v>
       </c>
       <c r="D15" t="n">
-        <v>0.191751</v>
+        <v>0.110652</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.182078</v>
+        <v>0.0927029</v>
       </c>
       <c r="C16" t="n">
-        <v>0.184782</v>
+        <v>0.10417</v>
       </c>
       <c r="D16" t="n">
-        <v>0.192544</v>
+        <v>0.111023</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.181557</v>
+        <v>0.0939802</v>
       </c>
       <c r="C17" t="n">
-        <v>0.184655</v>
+        <v>0.104968</v>
       </c>
       <c r="D17" t="n">
-        <v>0.192842</v>
+        <v>0.111904</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.182844</v>
+        <v>0.0936912</v>
       </c>
       <c r="C18" t="n">
-        <v>0.186395</v>
+        <v>0.107096</v>
       </c>
       <c r="D18" t="n">
-        <v>0.194145</v>
+        <v>0.113877</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.183875</v>
+        <v>0.0952229</v>
       </c>
       <c r="C19" t="n">
-        <v>0.188537</v>
+        <v>0.106315</v>
       </c>
       <c r="D19" t="n">
-        <v>0.196368</v>
+        <v>0.114549</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.186935</v>
+        <v>0.09599340000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>0.191472</v>
+        <v>0.108365</v>
       </c>
       <c r="D20" t="n">
-        <v>0.200315</v>
+        <v>0.118247</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.188578</v>
+        <v>0.0976871</v>
       </c>
       <c r="C21" t="n">
-        <v>0.192074</v>
+        <v>0.109802</v>
       </c>
       <c r="D21" t="n">
-        <v>0.201183</v>
+        <v>0.119716</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.188967</v>
+        <v>0.0975738</v>
       </c>
       <c r="C22" t="n">
-        <v>0.193349</v>
+        <v>0.110607</v>
       </c>
       <c r="D22" t="n">
-        <v>0.205071</v>
+        <v>0.122108</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.192003</v>
+        <v>0.100858</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197606</v>
+        <v>0.115712</v>
       </c>
       <c r="D23" t="n">
-        <v>0.197996</v>
+        <v>0.117562</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.201531</v>
+        <v>0.106147</v>
       </c>
       <c r="C24" t="n">
-        <v>0.185387</v>
+        <v>0.106306</v>
       </c>
       <c r="D24" t="n">
-        <v>0.198544</v>
+        <v>0.116844</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.201578</v>
+        <v>0.106282</v>
       </c>
       <c r="C25" t="n">
-        <v>0.185602</v>
+        <v>0.106883</v>
       </c>
       <c r="D25" t="n">
-        <v>0.198958</v>
+        <v>0.116538</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.202145</v>
+        <v>0.106474</v>
       </c>
       <c r="C26" t="n">
-        <v>0.186175</v>
+        <v>0.10763</v>
       </c>
       <c r="D26" t="n">
-        <v>0.198842</v>
+        <v>0.118073</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.201397</v>
+        <v>0.106918</v>
       </c>
       <c r="C27" t="n">
-        <v>0.187254</v>
+        <v>0.108248</v>
       </c>
       <c r="D27" t="n">
-        <v>0.199522</v>
+        <v>0.118372</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.202232</v>
+        <v>0.106713</v>
       </c>
       <c r="C28" t="n">
-        <v>0.187828</v>
+        <v>0.109646</v>
       </c>
       <c r="D28" t="n">
-        <v>0.199834</v>
+        <v>0.119633</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.203325</v>
+        <v>0.108618</v>
       </c>
       <c r="C29" t="n">
-        <v>0.18817</v>
+        <v>0.110037</v>
       </c>
       <c r="D29" t="n">
-        <v>0.20105</v>
+        <v>0.122802</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.202539</v>
+        <v>0.107563</v>
       </c>
       <c r="C30" t="n">
-        <v>0.189554</v>
+        <v>0.11086</v>
       </c>
       <c r="D30" t="n">
-        <v>0.202657</v>
+        <v>0.122843</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.202113</v>
+        <v>0.108275</v>
       </c>
       <c r="C31" t="n">
-        <v>0.190805</v>
+        <v>0.111525</v>
       </c>
       <c r="D31" t="n">
-        <v>0.203514</v>
+        <v>0.123656</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.203435</v>
+        <v>0.10837</v>
       </c>
       <c r="C32" t="n">
-        <v>0.191371</v>
+        <v>0.112551</v>
       </c>
       <c r="D32" t="n">
-        <v>0.204337</v>
+        <v>0.123332</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.205565</v>
+        <v>0.10998</v>
       </c>
       <c r="C33" t="n">
-        <v>0.194158</v>
+        <v>0.113394</v>
       </c>
       <c r="D33" t="n">
-        <v>0.205751</v>
+        <v>0.125301</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.207493</v>
+        <v>0.110846</v>
       </c>
       <c r="C34" t="n">
-        <v>0.19586</v>
+        <v>0.114633</v>
       </c>
       <c r="D34" t="n">
-        <v>0.208673</v>
+        <v>0.127706</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.20814</v>
+        <v>0.112204</v>
       </c>
       <c r="C35" t="n">
-        <v>0.198205</v>
+        <v>0.116871</v>
       </c>
       <c r="D35" t="n">
-        <v>0.21148</v>
+        <v>0.130555</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.209166</v>
+        <v>0.113851</v>
       </c>
       <c r="C36" t="n">
-        <v>0.201439</v>
+        <v>0.119634</v>
       </c>
       <c r="D36" t="n">
-        <v>0.217057</v>
+        <v>0.136076</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.212437</v>
+        <v>0.116837</v>
       </c>
       <c r="C37" t="n">
-        <v>0.206138</v>
+        <v>0.125049</v>
       </c>
       <c r="D37" t="n">
-        <v>0.217512</v>
+        <v>0.131172</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.231808</v>
+        <v>0.121537</v>
       </c>
       <c r="C38" t="n">
-        <v>0.203962</v>
+        <v>0.121061</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216892</v>
+        <v>0.132945</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.232225</v>
+        <v>0.124422</v>
       </c>
       <c r="C39" t="n">
-        <v>0.206036</v>
+        <v>0.121437</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217325</v>
+        <v>0.135222</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.232697</v>
+        <v>0.124225</v>
       </c>
       <c r="C40" t="n">
-        <v>0.207175</v>
+        <v>0.122059</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217723</v>
+        <v>0.135933</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.231659</v>
+        <v>0.124391</v>
       </c>
       <c r="C41" t="n">
-        <v>0.208246</v>
+        <v>0.121694</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218378</v>
+        <v>0.135191</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.233454</v>
+        <v>0.124214</v>
       </c>
       <c r="C42" t="n">
-        <v>0.208538</v>
+        <v>0.12302</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218709</v>
+        <v>0.137229</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.23128</v>
+        <v>0.125274</v>
       </c>
       <c r="C43" t="n">
-        <v>0.207948</v>
+        <v>0.123499</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21951</v>
+        <v>0.136221</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.231241</v>
+        <v>0.125517</v>
       </c>
       <c r="C44" t="n">
-        <v>0.210572</v>
+        <v>0.124512</v>
       </c>
       <c r="D44" t="n">
-        <v>0.22068</v>
+        <v>0.137056</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.232478</v>
+        <v>0.124613</v>
       </c>
       <c r="C45" t="n">
-        <v>0.211481</v>
+        <v>0.124565</v>
       </c>
       <c r="D45" t="n">
-        <v>0.221488</v>
+        <v>0.13737</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.232461</v>
+        <v>0.126513</v>
       </c>
       <c r="C46" t="n">
-        <v>0.212579</v>
+        <v>0.125846</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222889</v>
+        <v>0.140287</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.232299</v>
+        <v>0.1261</v>
       </c>
       <c r="C47" t="n">
-        <v>0.213451</v>
+        <v>0.126625</v>
       </c>
       <c r="D47" t="n">
-        <v>0.22433</v>
+        <v>0.142767</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.234124</v>
+        <v>0.12821</v>
       </c>
       <c r="C48" t="n">
-        <v>0.215851</v>
+        <v>0.127836</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227627</v>
+        <v>0.142009</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.237735</v>
+        <v>0.129081</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21834</v>
+        <v>0.131021</v>
       </c>
       <c r="D49" t="n">
-        <v>0.229534</v>
+        <v>0.148483</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237515</v>
+        <v>0.129693</v>
       </c>
       <c r="C50" t="n">
-        <v>0.22213</v>
+        <v>0.134655</v>
       </c>
       <c r="D50" t="n">
-        <v>0.234516</v>
+        <v>0.153271</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.23875</v>
+        <v>0.132867</v>
       </c>
       <c r="C51" t="n">
-        <v>0.225637</v>
+        <v>0.138675</v>
       </c>
       <c r="D51" t="n">
-        <v>0.229611</v>
+        <v>0.142327</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.24489</v>
+        <v>0.138411</v>
       </c>
       <c r="C52" t="n">
-        <v>0.231399</v>
+        <v>0.145795</v>
       </c>
       <c r="D52" t="n">
-        <v>0.230905</v>
+        <v>0.142892</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.25876</v>
+        <v>0.1408</v>
       </c>
       <c r="C53" t="n">
-        <v>0.221622</v>
+        <v>0.130892</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229003</v>
+        <v>0.144991</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.258909</v>
+        <v>0.141206</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223573</v>
+        <v>0.130639</v>
       </c>
       <c r="D54" t="n">
-        <v>0.230931</v>
+        <v>0.144218</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.258335</v>
+        <v>0.139309</v>
       </c>
       <c r="C55" t="n">
-        <v>0.223956</v>
+        <v>0.131325</v>
       </c>
       <c r="D55" t="n">
-        <v>0.232763</v>
+        <v>0.14454</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259432</v>
+        <v>0.141182</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225629</v>
+        <v>0.131766</v>
       </c>
       <c r="D56" t="n">
-        <v>0.232019</v>
+        <v>0.144882</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.259222</v>
+        <v>0.141711</v>
       </c>
       <c r="C57" t="n">
-        <v>0.226132</v>
+        <v>0.133168</v>
       </c>
       <c r="D57" t="n">
-        <v>0.232589</v>
+        <v>0.145839</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.261538</v>
+        <v>0.141988</v>
       </c>
       <c r="C58" t="n">
-        <v>0.226772</v>
+        <v>0.133914</v>
       </c>
       <c r="D58" t="n">
-        <v>0.233372</v>
+        <v>0.147433</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.259964</v>
+        <v>0.141422</v>
       </c>
       <c r="C59" t="n">
-        <v>0.230097</v>
+        <v>0.134356</v>
       </c>
       <c r="D59" t="n">
-        <v>0.237106</v>
+        <v>0.148443</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.261117</v>
+        <v>0.142563</v>
       </c>
       <c r="C60" t="n">
-        <v>0.229283</v>
+        <v>0.136169</v>
       </c>
       <c r="D60" t="n">
-        <v>0.235688</v>
+        <v>0.149297</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.260332</v>
+        <v>0.142392</v>
       </c>
       <c r="C61" t="n">
-        <v>0.23129</v>
+        <v>0.137885</v>
       </c>
       <c r="D61" t="n">
-        <v>0.237712</v>
+        <v>0.151202</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2628</v>
+        <v>0.143834</v>
       </c>
       <c r="C62" t="n">
-        <v>0.232695</v>
+        <v>0.139248</v>
       </c>
       <c r="D62" t="n">
-        <v>0.239695</v>
+        <v>0.154434</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.262667</v>
+        <v>0.144265</v>
       </c>
       <c r="C63" t="n">
-        <v>0.23526</v>
+        <v>0.141979</v>
       </c>
       <c r="D63" t="n">
-        <v>0.242643</v>
+        <v>0.157101</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.263629</v>
+        <v>0.146996</v>
       </c>
       <c r="C64" t="n">
-        <v>0.239264</v>
+        <v>0.14457</v>
       </c>
       <c r="D64" t="n">
-        <v>0.250361</v>
+        <v>0.161816</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266679</v>
+        <v>0.148708</v>
       </c>
       <c r="C65" t="n">
-        <v>0.243039</v>
+        <v>0.149015</v>
       </c>
       <c r="D65" t="n">
-        <v>0.254523</v>
+        <v>0.169139</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.269398</v>
+        <v>0.154441</v>
       </c>
       <c r="C66" t="n">
-        <v>0.250575</v>
+        <v>0.155184</v>
       </c>
       <c r="D66" t="n">
-        <v>0.237649</v>
+        <v>0.14893</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.277551</v>
+        <v>0.149874</v>
       </c>
       <c r="C67" t="n">
-        <v>0.233318</v>
+        <v>0.137636</v>
       </c>
       <c r="D67" t="n">
-        <v>0.236917</v>
+        <v>0.148267</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.276709</v>
+        <v>0.15039</v>
       </c>
       <c r="C68" t="n">
-        <v>0.234569</v>
+        <v>0.137958</v>
       </c>
       <c r="D68" t="n">
-        <v>0.237907</v>
+        <v>0.149997</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.277925</v>
+        <v>0.150783</v>
       </c>
       <c r="C69" t="n">
-        <v>0.235833</v>
+        <v>0.13908</v>
       </c>
       <c r="D69" t="n">
-        <v>0.23862</v>
+        <v>0.149207</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.277618</v>
+        <v>0.150427</v>
       </c>
       <c r="C70" t="n">
-        <v>0.235399</v>
+        <v>0.139793</v>
       </c>
       <c r="D70" t="n">
-        <v>0.238896</v>
+        <v>0.151402</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.277169</v>
+        <v>0.151301</v>
       </c>
       <c r="C71" t="n">
-        <v>0.237129</v>
+        <v>0.140641</v>
       </c>
       <c r="D71" t="n">
-        <v>0.240425</v>
+        <v>0.150983</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.277401</v>
+        <v>0.150955</v>
       </c>
       <c r="C72" t="n">
-        <v>0.238688</v>
+        <v>0.141303</v>
       </c>
       <c r="D72" t="n">
-        <v>0.240865</v>
+        <v>0.152778</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.278275</v>
+        <v>0.150945</v>
       </c>
       <c r="C73" t="n">
-        <v>0.239638</v>
+        <v>0.143033</v>
       </c>
       <c r="D73" t="n">
-        <v>0.24271</v>
+        <v>0.154739</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.278078</v>
+        <v>0.151423</v>
       </c>
       <c r="C74" t="n">
-        <v>0.241273</v>
+        <v>0.143961</v>
       </c>
       <c r="D74" t="n">
-        <v>0.243299</v>
+        <v>0.154162</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.278653</v>
+        <v>0.151622</v>
       </c>
       <c r="C75" t="n">
-        <v>0.241536</v>
+        <v>0.146007</v>
       </c>
       <c r="D75" t="n">
-        <v>0.244491</v>
+        <v>0.156191</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.279572</v>
+        <v>0.152008</v>
       </c>
       <c r="C76" t="n">
-        <v>0.245068</v>
+        <v>0.146907</v>
       </c>
       <c r="D76" t="n">
-        <v>0.247941</v>
+        <v>0.158622</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.281361</v>
+        <v>0.153829</v>
       </c>
       <c r="C77" t="n">
-        <v>0.246602</v>
+        <v>0.150184</v>
       </c>
       <c r="D77" t="n">
-        <v>0.250939</v>
+        <v>0.163206</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.281717</v>
+        <v>0.155278</v>
       </c>
       <c r="C78" t="n">
-        <v>0.249223</v>
+        <v>0.152662</v>
       </c>
       <c r="D78" t="n">
-        <v>0.2555</v>
+        <v>0.166988</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.285006</v>
+        <v>0.158125</v>
       </c>
       <c r="C79" t="n">
-        <v>0.254349</v>
+        <v>0.156418</v>
       </c>
       <c r="D79" t="n">
-        <v>0.26312</v>
+        <v>0.174201</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.289324</v>
+        <v>0.161723</v>
       </c>
       <c r="C80" t="n">
-        <v>0.260472</v>
+        <v>0.162516</v>
       </c>
       <c r="D80" t="n">
-        <v>0.249237</v>
+        <v>0.165337</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.29948</v>
+        <v>0.172746</v>
       </c>
       <c r="C81" t="n">
-        <v>0.236812</v>
+        <v>0.146172</v>
       </c>
       <c r="D81" t="n">
-        <v>0.24868</v>
+        <v>0.160251</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.30255</v>
+        <v>0.167477</v>
       </c>
       <c r="C82" t="n">
-        <v>0.23816</v>
+        <v>0.145391</v>
       </c>
       <c r="D82" t="n">
-        <v>0.250709</v>
+        <v>0.162635</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.298317</v>
+        <v>0.168727</v>
       </c>
       <c r="C83" t="n">
-        <v>0.238425</v>
+        <v>0.145189</v>
       </c>
       <c r="D83" t="n">
-        <v>0.249859</v>
+        <v>0.162538</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.298671</v>
+        <v>0.167816</v>
       </c>
       <c r="C84" t="n">
-        <v>0.238373</v>
+        <v>0.144715</v>
       </c>
       <c r="D84" t="n">
-        <v>0.250627</v>
+        <v>0.162837</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.297933</v>
+        <v>0.165194</v>
       </c>
       <c r="C85" t="n">
-        <v>0.239576</v>
+        <v>0.144975</v>
       </c>
       <c r="D85" t="n">
-        <v>0.252717</v>
+        <v>0.163487</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.298223</v>
+        <v>0.173104</v>
       </c>
       <c r="C86" t="n">
-        <v>0.23884</v>
+        <v>0.145878</v>
       </c>
       <c r="D86" t="n">
-        <v>0.251713</v>
+        <v>0.161854</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.299071</v>
+        <v>0.170759</v>
       </c>
       <c r="C87" t="n">
-        <v>0.242086</v>
+        <v>0.146289</v>
       </c>
       <c r="D87" t="n">
-        <v>0.254936</v>
+        <v>0.166176</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.299465</v>
+        <v>0.167647</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2405</v>
+        <v>0.146887</v>
       </c>
       <c r="D88" t="n">
-        <v>0.25383</v>
+        <v>0.164848</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.298752</v>
+        <v>0.167863</v>
       </c>
       <c r="C89" t="n">
-        <v>0.244034</v>
+        <v>0.152578</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255842</v>
+        <v>0.166925</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.299576</v>
+        <v>0.171507</v>
       </c>
       <c r="C90" t="n">
-        <v>0.243918</v>
+        <v>0.150774</v>
       </c>
       <c r="D90" t="n">
-        <v>0.257775</v>
+        <v>0.173256</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.301245</v>
+        <v>0.17222</v>
       </c>
       <c r="C91" t="n">
-        <v>0.246787</v>
+        <v>0.153189</v>
       </c>
       <c r="D91" t="n">
-        <v>0.261679</v>
+        <v>0.172556</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.302675</v>
+        <v>0.171053</v>
       </c>
       <c r="C92" t="n">
-        <v>0.248134</v>
+        <v>0.156133</v>
       </c>
       <c r="D92" t="n">
-        <v>0.265242</v>
+        <v>0.177088</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.304937</v>
+        <v>0.173808</v>
       </c>
       <c r="C93" t="n">
-        <v>0.254202</v>
+        <v>0.15873</v>
       </c>
       <c r="D93" t="n">
-        <v>0.272138</v>
+        <v>0.18178</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.30887</v>
+        <v>0.177781</v>
       </c>
       <c r="C94" t="n">
-        <v>0.25851</v>
+        <v>0.16315</v>
       </c>
       <c r="D94" t="n">
-        <v>0.399928</v>
+        <v>0.328169</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.486433</v>
+        <v>0.343293</v>
       </c>
       <c r="C95" t="n">
-        <v>0.405279</v>
+        <v>0.305434</v>
       </c>
       <c r="D95" t="n">
-        <v>0.392256</v>
+        <v>0.325063</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.486064</v>
+        <v>0.342437</v>
       </c>
       <c r="C96" t="n">
-        <v>0.404318</v>
+        <v>0.301791</v>
       </c>
       <c r="D96" t="n">
-        <v>0.396188</v>
+        <v>0.322295</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.479491</v>
+        <v>0.34151</v>
       </c>
       <c r="C97" t="n">
-        <v>0.405102</v>
+        <v>0.307078</v>
       </c>
       <c r="D97" t="n">
-        <v>0.397712</v>
+        <v>0.330281</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.483162</v>
+        <v>0.342633</v>
       </c>
       <c r="C98" t="n">
-        <v>0.410239</v>
+        <v>0.300145</v>
       </c>
       <c r="D98" t="n">
-        <v>0.397015</v>
+        <v>0.324158</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.485379</v>
+        <v>0.33727</v>
       </c>
       <c r="C99" t="n">
-        <v>0.40833</v>
+        <v>0.309169</v>
       </c>
       <c r="D99" t="n">
-        <v>0.399995</v>
+        <v>0.328167</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.482847</v>
+        <v>0.342595</v>
       </c>
       <c r="C100" t="n">
-        <v>0.406609</v>
+        <v>0.30556</v>
       </c>
       <c r="D100" t="n">
-        <v>0.399241</v>
+        <v>0.328969</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.484538</v>
+        <v>0.336361</v>
       </c>
       <c r="C101" t="n">
-        <v>0.40986</v>
+        <v>0.31082</v>
       </c>
       <c r="D101" t="n">
-        <v>0.395773</v>
+        <v>0.329528</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.482449</v>
+        <v>0.341728</v>
       </c>
       <c r="C102" t="n">
-        <v>0.409501</v>
+        <v>0.307887</v>
       </c>
       <c r="D102" t="n">
-        <v>0.400644</v>
+        <v>0.334816</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.484977</v>
+        <v>0.340321</v>
       </c>
       <c r="C103" t="n">
-        <v>0.412796</v>
+        <v>0.312058</v>
       </c>
       <c r="D103" t="n">
-        <v>0.406629</v>
+        <v>0.330283</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.485759</v>
+        <v>0.341115</v>
       </c>
       <c r="C104" t="n">
-        <v>0.407756</v>
+        <v>0.313739</v>
       </c>
       <c r="D104" t="n">
-        <v>0.40346</v>
+        <v>0.335641</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.481273</v>
+        <v>0.337404</v>
       </c>
       <c r="C105" t="n">
-        <v>0.418396</v>
+        <v>0.316834</v>
       </c>
       <c r="D105" t="n">
-        <v>0.403388</v>
+        <v>0.341036</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.483881</v>
+        <v>0.345603</v>
       </c>
       <c r="C106" t="n">
-        <v>0.412721</v>
+        <v>0.314513</v>
       </c>
       <c r="D106" t="n">
-        <v>0.416864</v>
+        <v>0.340238</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.483603</v>
+        <v>0.337695</v>
       </c>
       <c r="C107" t="n">
-        <v>0.422775</v>
+        <v>0.321759</v>
       </c>
       <c r="D107" t="n">
-        <v>0.410951</v>
+        <v>0.344401</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.491479</v>
+        <v>0.347124</v>
       </c>
       <c r="C108" t="n">
-        <v>0.423425</v>
+        <v>0.324826</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6577539999999999</v>
+        <v>0.626063</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.489109</v>
+        <v>0.344327</v>
       </c>
       <c r="C109" t="n">
-        <v>0.431026</v>
+        <v>0.33193</v>
       </c>
       <c r="D109" t="n">
-        <v>0.659104</v>
+        <v>0.627274</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.772078</v>
+        <v>0.552693</v>
       </c>
       <c r="C110" t="n">
-        <v>0.653656</v>
+        <v>0.490334</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6591</v>
+        <v>0.628204</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.7740089999999999</v>
+        <v>0.552853</v>
       </c>
       <c r="C111" t="n">
-        <v>0.655443</v>
+        <v>0.490773</v>
       </c>
       <c r="D111" t="n">
-        <v>0.659732</v>
+        <v>0.62999</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.7718159999999999</v>
+        <v>0.553388</v>
       </c>
       <c r="C112" t="n">
-        <v>0.654715</v>
+        <v>0.491999</v>
       </c>
       <c r="D112" t="n">
-        <v>0.661403</v>
+        <v>0.629671</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.7749</v>
+        <v>0.552721</v>
       </c>
       <c r="C113" t="n">
-        <v>0.6559</v>
+        <v>0.494043</v>
       </c>
       <c r="D113" t="n">
-        <v>0.663038</v>
+        <v>0.630788</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.776396</v>
+        <v>0.552666</v>
       </c>
       <c r="C114" t="n">
-        <v>0.657347</v>
+        <v>0.494606</v>
       </c>
       <c r="D114" t="n">
-        <v>0.664535</v>
+        <v>0.633425</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.771952</v>
+        <v>0.552482</v>
       </c>
       <c r="C115" t="n">
-        <v>0.658934</v>
+        <v>0.496807</v>
       </c>
       <c r="D115" t="n">
-        <v>0.665898</v>
+        <v>0.634004</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.769652</v>
+        <v>0.549943</v>
       </c>
       <c r="C116" t="n">
-        <v>0.660541</v>
+        <v>0.498399</v>
       </c>
       <c r="D116" t="n">
-        <v>0.667579</v>
+        <v>0.636274</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.772803</v>
+        <v>0.550855</v>
       </c>
       <c r="C117" t="n">
-        <v>0.662158</v>
+        <v>0.500479</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6694099999999999</v>
+        <v>0.638764</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.770544</v>
+        <v>0.553705</v>
       </c>
       <c r="C118" t="n">
-        <v>0.663886</v>
+        <v>0.504304</v>
       </c>
       <c r="D118" t="n">
-        <v>0.672161</v>
+        <v>0.640292</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.765509</v>
+        <v>0.553125</v>
       </c>
       <c r="C119" t="n">
-        <v>0.660547</v>
+        <v>0.506849</v>
       </c>
       <c r="D119" t="n">
-        <v>0.6717649999999999</v>
+        <v>0.644014</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.766679</v>
+        <v>0.551802</v>
       </c>
       <c r="C120" t="n">
-        <v>0.667669</v>
+        <v>0.512496</v>
       </c>
       <c r="D120" t="n">
-        <v>0.677864</v>
+        <v>0.648447</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.768674</v>
+        <v>0.550971</v>
       </c>
       <c r="C121" t="n">
-        <v>0.671154</v>
+        <v>0.517283</v>
       </c>
       <c r="D121" t="n">
-        <v>0.682887</v>
+        <v>0.653825</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7723680000000001</v>
+        <v>0.555352</v>
       </c>
       <c r="C122" t="n">
-        <v>0.67719</v>
+        <v>0.524792</v>
       </c>
       <c r="D122" t="n">
-        <v>0.691407</v>
+        <v>0.659435</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.771618</v>
+        <v>0.554149</v>
       </c>
       <c r="C123" t="n">
-        <v>0.68667</v>
+        <v>0.535355</v>
       </c>
       <c r="D123" t="n">
-        <v>0.765077</v>
+        <v>0.745156</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>1.02529</v>
+        <v>0.7437550000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>0.753185</v>
+        <v>0.576611</v>
       </c>
       <c r="D124" t="n">
-        <v>0.765553</v>
+        <v>0.746084</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>1.02576</v>
+        <v>0.74254</v>
       </c>
       <c r="C125" t="n">
-        <v>0.753623</v>
+        <v>0.578206</v>
       </c>
       <c r="D125" t="n">
-        <v>0.76649</v>
+        <v>0.749411</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>1.02525</v>
+        <v>0.742404</v>
       </c>
       <c r="C126" t="n">
-        <v>0.754742</v>
+        <v>0.57942</v>
       </c>
       <c r="D126" t="n">
-        <v>0.767904</v>
+        <v>0.749095</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>1.02468</v>
+        <v>0.741909</v>
       </c>
       <c r="C127" t="n">
-        <v>0.755779</v>
+        <v>0.58024</v>
       </c>
       <c r="D127" t="n">
-        <v>0.768754</v>
+        <v>0.7503339999999999</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>1.02622</v>
+        <v>0.742536</v>
       </c>
       <c r="C128" t="n">
-        <v>0.756665</v>
+        <v>0.581551</v>
       </c>
       <c r="D128" t="n">
-        <v>0.771566</v>
+        <v>0.752406</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>1.02604</v>
+        <v>0.743555</v>
       </c>
       <c r="C129" t="n">
-        <v>0.7597</v>
+        <v>0.584663</v>
       </c>
       <c r="D129" t="n">
-        <v>0.773909</v>
+        <v>0.7546850000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>1.02479</v>
+        <v>0.742972</v>
       </c>
       <c r="C130" t="n">
-        <v>0.762369</v>
+        <v>0.587207</v>
       </c>
       <c r="D130" t="n">
-        <v>0.775968</v>
+        <v>0.7570170000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>1.02615</v>
+        <v>0.7442569999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>0.764608</v>
+        <v>0.5900030000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.77876</v>
+        <v>0.759368</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>1.02515</v>
+        <v>0.743749</v>
       </c>
       <c r="C132" t="n">
-        <v>0.767653</v>
+        <v>0.594099</v>
       </c>
       <c r="D132" t="n">
-        <v>0.782393</v>
+        <v>0.763839</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>1.02962</v>
+        <v>0.744771</v>
       </c>
       <c r="C133" t="n">
-        <v>0.771595</v>
+        <v>0.59834</v>
       </c>
       <c r="D133" t="n">
-        <v>0.788053</v>
+        <v>0.770408</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>1.02885</v>
+        <v>0.744584</v>
       </c>
       <c r="C134" t="n">
-        <v>0.776362</v>
+        <v>0.604344</v>
       </c>
       <c r="D134" t="n">
-        <v>0.794397</v>
+        <v>0.777298</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>1.02962</v>
+        <v>0.749633</v>
       </c>
       <c r="C135" t="n">
-        <v>0.783104</v>
+        <v>0.612285</v>
       </c>
       <c r="D135" t="n">
-        <v>0.804288</v>
+        <v>0.787669</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>1.03054</v>
+        <v>0.747699</v>
       </c>
       <c r="C136" t="n">
-        <v>0.791961</v>
+        <v>0.6222259999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.816197</v>
+        <v>0.800141</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>1.03295</v>
+        <v>0.750096</v>
       </c>
       <c r="C137" t="n">
-        <v>0.803045</v>
+        <v>0.636869</v>
       </c>
       <c r="D137" t="n">
-        <v>0.8097800000000001</v>
+        <v>0.79352</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>1.24358</v>
+        <v>0.895585</v>
       </c>
       <c r="C138" t="n">
-        <v>0.794103</v>
+        <v>0.624999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.810728</v>
+        <v>0.7939000000000001</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>1.24352</v>
+        <v>0.895593</v>
       </c>
       <c r="C139" t="n">
-        <v>0.7952979999999999</v>
+        <v>0.625646</v>
       </c>
       <c r="D139" t="n">
-        <v>0.811558</v>
+        <v>0.7947070000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>1.24525</v>
+        <v>0.894637</v>
       </c>
       <c r="C140" t="n">
-        <v>0.796119</v>
+        <v>0.628281</v>
       </c>
       <c r="D140" t="n">
-        <v>0.813465</v>
+        <v>0.798498</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>1.24573</v>
+        <v>0.89697</v>
       </c>
       <c r="C141" t="n">
-        <v>0.798102</v>
+        <v>0.6286659999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8148840000000001</v>
+        <v>0.798998</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>1.2453</v>
+        <v>0.896777</v>
       </c>
       <c r="C142" t="n">
-        <v>0.799692</v>
+        <v>0.630321</v>
       </c>
       <c r="D142" t="n">
-        <v>0.8172700000000001</v>
+        <v>0.80042</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>1.24633</v>
+        <v>0.897887</v>
       </c>
       <c r="C143" t="n">
-        <v>0.801904</v>
+        <v>0.632182</v>
       </c>
       <c r="D143" t="n">
-        <v>0.820044</v>
+        <v>0.8046450000000001</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0891019</v>
+        <v>0.0891412</v>
       </c>
       <c r="C2" t="n">
-        <v>0.100693</v>
+        <v>0.103575</v>
       </c>
       <c r="D2" t="n">
-        <v>0.110193</v>
+        <v>0.112916</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.08924749999999999</v>
+        <v>0.0893187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.10144</v>
+        <v>0.103861</v>
       </c>
       <c r="D3" t="n">
-        <v>0.110679</v>
+        <v>0.113257</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0897637</v>
+        <v>0.0897926</v>
       </c>
       <c r="C4" t="n">
-        <v>0.101988</v>
+        <v>0.104366</v>
       </c>
       <c r="D4" t="n">
-        <v>0.111228</v>
+        <v>0.113998</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0903557</v>
+        <v>0.0904764</v>
       </c>
       <c r="C5" t="n">
-        <v>0.102753</v>
+        <v>0.104752</v>
       </c>
       <c r="D5" t="n">
-        <v>0.111975</v>
+        <v>0.114553</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0909311</v>
+        <v>0.09098299999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.10311</v>
+        <v>0.105113</v>
       </c>
       <c r="D6" t="n">
-        <v>0.112722</v>
+        <v>0.115154</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0916414</v>
+        <v>0.0917429</v>
       </c>
       <c r="C7" t="n">
-        <v>0.104157</v>
+        <v>0.105943</v>
       </c>
       <c r="D7" t="n">
-        <v>0.114292</v>
+        <v>0.116546</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0927432</v>
+        <v>0.0927408</v>
       </c>
       <c r="C8" t="n">
-        <v>0.105368</v>
+        <v>0.10723</v>
       </c>
       <c r="D8" t="n">
-        <v>0.116694</v>
+        <v>0.118771</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.09458999999999999</v>
+        <v>0.0947339</v>
       </c>
       <c r="C9" t="n">
-        <v>0.108497</v>
+        <v>0.109466</v>
       </c>
       <c r="D9" t="n">
-        <v>0.108454</v>
+        <v>0.113996</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.093568</v>
+        <v>0.0917766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.102225</v>
+        <v>0.10722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.109123</v>
+        <v>0.114893</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0918781</v>
+        <v>0.0919586</v>
       </c>
       <c r="C11" t="n">
-        <v>0.101999</v>
+        <v>0.106506</v>
       </c>
       <c r="D11" t="n">
-        <v>0.109191</v>
+        <v>0.114366</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0920358</v>
+        <v>0.0941915</v>
       </c>
       <c r="C12" t="n">
-        <v>0.102318</v>
+        <v>0.107538</v>
       </c>
       <c r="D12" t="n">
-        <v>0.109133</v>
+        <v>0.114589</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0920798</v>
+        <v>0.0929889</v>
       </c>
       <c r="C13" t="n">
-        <v>0.102464</v>
+        <v>0.106734</v>
       </c>
       <c r="D13" t="n">
-        <v>0.109717</v>
+        <v>0.114535</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09304</v>
+        <v>0.09397179999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.103695</v>
+        <v>0.107209</v>
       </c>
       <c r="D14" t="n">
-        <v>0.112025</v>
+        <v>0.115014</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0933568</v>
+        <v>0.0934174</v>
       </c>
       <c r="C15" t="n">
-        <v>0.103853</v>
+        <v>0.107563</v>
       </c>
       <c r="D15" t="n">
-        <v>0.110652</v>
+        <v>0.115337</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0927029</v>
+        <v>0.0939985</v>
       </c>
       <c r="C16" t="n">
-        <v>0.10417</v>
+        <v>0.109187</v>
       </c>
       <c r="D16" t="n">
-        <v>0.111023</v>
+        <v>0.117183</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0939802</v>
+        <v>0.09411700000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>0.104968</v>
+        <v>0.11087</v>
       </c>
       <c r="D17" t="n">
-        <v>0.111904</v>
+        <v>0.118501</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0936912</v>
+        <v>0.0937361</v>
       </c>
       <c r="C18" t="n">
-        <v>0.107096</v>
+        <v>0.108949</v>
       </c>
       <c r="D18" t="n">
-        <v>0.113877</v>
+        <v>0.116925</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0952229</v>
+        <v>0.0953209</v>
       </c>
       <c r="C19" t="n">
-        <v>0.106315</v>
+        <v>0.109707</v>
       </c>
       <c r="D19" t="n">
-        <v>0.114549</v>
+        <v>0.11781</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.09599340000000001</v>
+        <v>0.0960435</v>
       </c>
       <c r="C20" t="n">
-        <v>0.108365</v>
+        <v>0.111943</v>
       </c>
       <c r="D20" t="n">
-        <v>0.118247</v>
+        <v>0.11968</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0976871</v>
+        <v>0.0972324</v>
       </c>
       <c r="C21" t="n">
-        <v>0.109802</v>
+        <v>0.111816</v>
       </c>
       <c r="D21" t="n">
-        <v>0.119716</v>
+        <v>0.121468</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0975738</v>
+        <v>0.0995786</v>
       </c>
       <c r="C22" t="n">
-        <v>0.110607</v>
+        <v>0.115056</v>
       </c>
       <c r="D22" t="n">
-        <v>0.122108</v>
+        <v>0.126268</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.100858</v>
+        <v>0.100043</v>
       </c>
       <c r="C23" t="n">
-        <v>0.115712</v>
+        <v>0.11921</v>
       </c>
       <c r="D23" t="n">
-        <v>0.117562</v>
+        <v>0.125531</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.106147</v>
+        <v>0.104598</v>
       </c>
       <c r="C24" t="n">
-        <v>0.106306</v>
+        <v>0.122072</v>
       </c>
       <c r="D24" t="n">
-        <v>0.116844</v>
+        <v>0.128071</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.106282</v>
+        <v>0.104999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.106883</v>
+        <v>0.120673</v>
       </c>
       <c r="D25" t="n">
-        <v>0.116538</v>
+        <v>0.128455</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.106474</v>
+        <v>0.105515</v>
       </c>
       <c r="C26" t="n">
-        <v>0.10763</v>
+        <v>0.121318</v>
       </c>
       <c r="D26" t="n">
-        <v>0.118073</v>
+        <v>0.127241</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.106918</v>
+        <v>0.105716</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108248</v>
+        <v>0.121511</v>
       </c>
       <c r="D27" t="n">
-        <v>0.118372</v>
+        <v>0.127533</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.106713</v>
+        <v>0.106951</v>
       </c>
       <c r="C28" t="n">
-        <v>0.109646</v>
+        <v>0.122236</v>
       </c>
       <c r="D28" t="n">
-        <v>0.119633</v>
+        <v>0.12744</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.108618</v>
+        <v>0.107437</v>
       </c>
       <c r="C29" t="n">
-        <v>0.110037</v>
+        <v>0.122177</v>
       </c>
       <c r="D29" t="n">
-        <v>0.122802</v>
+        <v>0.128879</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.107563</v>
+        <v>0.106874</v>
       </c>
       <c r="C30" t="n">
-        <v>0.11086</v>
+        <v>0.122724</v>
       </c>
       <c r="D30" t="n">
-        <v>0.122843</v>
+        <v>0.12881</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.108275</v>
+        <v>0.107068</v>
       </c>
       <c r="C31" t="n">
-        <v>0.111525</v>
+        <v>0.123118</v>
       </c>
       <c r="D31" t="n">
-        <v>0.123656</v>
+        <v>0.129814</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.10837</v>
+        <v>0.108471</v>
       </c>
       <c r="C32" t="n">
-        <v>0.112551</v>
+        <v>0.123748</v>
       </c>
       <c r="D32" t="n">
-        <v>0.123332</v>
+        <v>0.130075</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.10998</v>
+        <v>0.11002</v>
       </c>
       <c r="C33" t="n">
-        <v>0.113394</v>
+        <v>0.124954</v>
       </c>
       <c r="D33" t="n">
-        <v>0.125301</v>
+        <v>0.130979</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.110846</v>
+        <v>0.110189</v>
       </c>
       <c r="C34" t="n">
-        <v>0.114633</v>
+        <v>0.126001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.127706</v>
+        <v>0.133011</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.112204</v>
+        <v>0.112177</v>
       </c>
       <c r="C35" t="n">
-        <v>0.116871</v>
+        <v>0.127615</v>
       </c>
       <c r="D35" t="n">
-        <v>0.130555</v>
+        <v>0.135141</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.113851</v>
+        <v>0.113128</v>
       </c>
       <c r="C36" t="n">
-        <v>0.119634</v>
+        <v>0.130057</v>
       </c>
       <c r="D36" t="n">
-        <v>0.136076</v>
+        <v>0.139932</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.116837</v>
+        <v>0.116032</v>
       </c>
       <c r="C37" t="n">
-        <v>0.125049</v>
+        <v>0.134571</v>
       </c>
       <c r="D37" t="n">
-        <v>0.131172</v>
+        <v>0.153092</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.121537</v>
+        <v>0.123101</v>
       </c>
       <c r="C38" t="n">
-        <v>0.121061</v>
+        <v>0.140016</v>
       </c>
       <c r="D38" t="n">
-        <v>0.132945</v>
+        <v>0.153673</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.124422</v>
+        <v>0.123494</v>
       </c>
       <c r="C39" t="n">
-        <v>0.121437</v>
+        <v>0.141342</v>
       </c>
       <c r="D39" t="n">
-        <v>0.135222</v>
+        <v>0.152944</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.124225</v>
+        <v>0.122365</v>
       </c>
       <c r="C40" t="n">
-        <v>0.122059</v>
+        <v>0.143349</v>
       </c>
       <c r="D40" t="n">
-        <v>0.135933</v>
+        <v>0.155318</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.124391</v>
+        <v>0.122281</v>
       </c>
       <c r="C41" t="n">
-        <v>0.121694</v>
+        <v>0.143198</v>
       </c>
       <c r="D41" t="n">
-        <v>0.135191</v>
+        <v>0.155464</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.124214</v>
+        <v>0.125023</v>
       </c>
       <c r="C42" t="n">
-        <v>0.12302</v>
+        <v>0.143556</v>
       </c>
       <c r="D42" t="n">
-        <v>0.137229</v>
+        <v>0.154295</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.125274</v>
+        <v>0.122936</v>
       </c>
       <c r="C43" t="n">
-        <v>0.123499</v>
+        <v>0.143782</v>
       </c>
       <c r="D43" t="n">
-        <v>0.136221</v>
+        <v>0.155251</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.125517</v>
+        <v>0.12284</v>
       </c>
       <c r="C44" t="n">
-        <v>0.124512</v>
+        <v>0.145169</v>
       </c>
       <c r="D44" t="n">
-        <v>0.137056</v>
+        <v>0.157541</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.124613</v>
+        <v>0.124232</v>
       </c>
       <c r="C45" t="n">
-        <v>0.124565</v>
+        <v>0.143763</v>
       </c>
       <c r="D45" t="n">
-        <v>0.13737</v>
+        <v>0.154984</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.126513</v>
+        <v>0.124762</v>
       </c>
       <c r="C46" t="n">
-        <v>0.125846</v>
+        <v>0.144603</v>
       </c>
       <c r="D46" t="n">
-        <v>0.140287</v>
+        <v>0.156212</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1261</v>
+        <v>0.125787</v>
       </c>
       <c r="C47" t="n">
-        <v>0.126625</v>
+        <v>0.145851</v>
       </c>
       <c r="D47" t="n">
-        <v>0.142767</v>
+        <v>0.157132</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.12821</v>
+        <v>0.126622</v>
       </c>
       <c r="C48" t="n">
-        <v>0.127836</v>
+        <v>0.148875</v>
       </c>
       <c r="D48" t="n">
-        <v>0.142009</v>
+        <v>0.16167</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.129081</v>
+        <v>0.126721</v>
       </c>
       <c r="C49" t="n">
-        <v>0.131021</v>
+        <v>0.148712</v>
       </c>
       <c r="D49" t="n">
-        <v>0.148483</v>
+        <v>0.16214</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.129693</v>
+        <v>0.130991</v>
       </c>
       <c r="C50" t="n">
-        <v>0.134655</v>
+        <v>0.151663</v>
       </c>
       <c r="D50" t="n">
-        <v>0.153271</v>
+        <v>0.165635</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.132867</v>
+        <v>0.131411</v>
       </c>
       <c r="C51" t="n">
-        <v>0.138675</v>
+        <v>0.15695</v>
       </c>
       <c r="D51" t="n">
-        <v>0.142327</v>
+        <v>0.172877</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.138411</v>
+        <v>0.137363</v>
       </c>
       <c r="C52" t="n">
-        <v>0.145795</v>
+        <v>0.161898</v>
       </c>
       <c r="D52" t="n">
-        <v>0.142892</v>
+        <v>0.180055</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1408</v>
+        <v>0.13745</v>
       </c>
       <c r="C53" t="n">
-        <v>0.130892</v>
+        <v>0.160013</v>
       </c>
       <c r="D53" t="n">
-        <v>0.144991</v>
+        <v>0.178363</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.141206</v>
+        <v>0.140857</v>
       </c>
       <c r="C54" t="n">
-        <v>0.130639</v>
+        <v>0.160792</v>
       </c>
       <c r="D54" t="n">
-        <v>0.144218</v>
+        <v>0.178378</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.139309</v>
+        <v>0.141327</v>
       </c>
       <c r="C55" t="n">
-        <v>0.131325</v>
+        <v>0.160852</v>
       </c>
       <c r="D55" t="n">
-        <v>0.14454</v>
+        <v>0.178762</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.141182</v>
+        <v>0.141303</v>
       </c>
       <c r="C56" t="n">
-        <v>0.131766</v>
+        <v>0.161399</v>
       </c>
       <c r="D56" t="n">
-        <v>0.144882</v>
+        <v>0.178669</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.141711</v>
+        <v>0.141744</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133168</v>
+        <v>0.162</v>
       </c>
       <c r="D57" t="n">
-        <v>0.145839</v>
+        <v>0.179651</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.141988</v>
+        <v>0.141979</v>
       </c>
       <c r="C58" t="n">
-        <v>0.133914</v>
+        <v>0.162571</v>
       </c>
       <c r="D58" t="n">
-        <v>0.147433</v>
+        <v>0.179667</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.141422</v>
+        <v>0.141999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.134356</v>
+        <v>0.162915</v>
       </c>
       <c r="D59" t="n">
-        <v>0.148443</v>
+        <v>0.180118</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.142563</v>
+        <v>0.141999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.136169</v>
+        <v>0.16477</v>
       </c>
       <c r="D60" t="n">
-        <v>0.149297</v>
+        <v>0.181851</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.142392</v>
+        <v>0.142616</v>
       </c>
       <c r="C61" t="n">
-        <v>0.137885</v>
+        <v>0.164796</v>
       </c>
       <c r="D61" t="n">
-        <v>0.151202</v>
+        <v>0.182628</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.143834</v>
+        <v>0.143797</v>
       </c>
       <c r="C62" t="n">
-        <v>0.139248</v>
+        <v>0.166147</v>
       </c>
       <c r="D62" t="n">
-        <v>0.154434</v>
+        <v>0.183498</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.144265</v>
+        <v>0.145568</v>
       </c>
       <c r="C63" t="n">
-        <v>0.141979</v>
+        <v>0.16773</v>
       </c>
       <c r="D63" t="n">
-        <v>0.157101</v>
+        <v>0.186027</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.146996</v>
+        <v>0.146594</v>
       </c>
       <c r="C64" t="n">
-        <v>0.14457</v>
+        <v>0.169652</v>
       </c>
       <c r="D64" t="n">
-        <v>0.161816</v>
+        <v>0.18898</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.148708</v>
+        <v>0.150232</v>
       </c>
       <c r="C65" t="n">
-        <v>0.149015</v>
+        <v>0.173157</v>
       </c>
       <c r="D65" t="n">
-        <v>0.169139</v>
+        <v>0.196396</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.154441</v>
+        <v>0.153276</v>
       </c>
       <c r="C66" t="n">
-        <v>0.155184</v>
+        <v>0.178683</v>
       </c>
       <c r="D66" t="n">
-        <v>0.14893</v>
+        <v>0.195741</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.149874</v>
+        <v>0.15073</v>
       </c>
       <c r="C67" t="n">
-        <v>0.137636</v>
+        <v>0.172687</v>
       </c>
       <c r="D67" t="n">
-        <v>0.148267</v>
+        <v>0.195429</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.15039</v>
+        <v>0.150561</v>
       </c>
       <c r="C68" t="n">
-        <v>0.137958</v>
+        <v>0.173011</v>
       </c>
       <c r="D68" t="n">
-        <v>0.149997</v>
+        <v>0.19594</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.150783</v>
+        <v>0.151054</v>
       </c>
       <c r="C69" t="n">
-        <v>0.13908</v>
+        <v>0.173156</v>
       </c>
       <c r="D69" t="n">
-        <v>0.149207</v>
+        <v>0.195822</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.150427</v>
+        <v>0.151267</v>
       </c>
       <c r="C70" t="n">
-        <v>0.139793</v>
+        <v>0.173096</v>
       </c>
       <c r="D70" t="n">
-        <v>0.151402</v>
+        <v>0.195907</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.151301</v>
+        <v>0.150779</v>
       </c>
       <c r="C71" t="n">
-        <v>0.140641</v>
+        <v>0.174328</v>
       </c>
       <c r="D71" t="n">
-        <v>0.150983</v>
+        <v>0.196866</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.150955</v>
+        <v>0.151577</v>
       </c>
       <c r="C72" t="n">
-        <v>0.141303</v>
+        <v>0.174587</v>
       </c>
       <c r="D72" t="n">
-        <v>0.152778</v>
+        <v>0.19742</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.150945</v>
+        <v>0.151554</v>
       </c>
       <c r="C73" t="n">
-        <v>0.143033</v>
+        <v>0.174701</v>
       </c>
       <c r="D73" t="n">
-        <v>0.154739</v>
+        <v>0.197171</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.151423</v>
+        <v>0.152471</v>
       </c>
       <c r="C74" t="n">
-        <v>0.143961</v>
+        <v>0.175144</v>
       </c>
       <c r="D74" t="n">
-        <v>0.154162</v>
+        <v>0.197867</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.151622</v>
+        <v>0.152693</v>
       </c>
       <c r="C75" t="n">
-        <v>0.146007</v>
+        <v>0.176035</v>
       </c>
       <c r="D75" t="n">
-        <v>0.156191</v>
+        <v>0.199104</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.152008</v>
+        <v>0.153358</v>
       </c>
       <c r="C76" t="n">
-        <v>0.146907</v>
+        <v>0.177141</v>
       </c>
       <c r="D76" t="n">
-        <v>0.158622</v>
+        <v>0.200414</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.153829</v>
+        <v>0.154189</v>
       </c>
       <c r="C77" t="n">
-        <v>0.150184</v>
+        <v>0.178706</v>
       </c>
       <c r="D77" t="n">
-        <v>0.163206</v>
+        <v>0.203228</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.155278</v>
+        <v>0.15603</v>
       </c>
       <c r="C78" t="n">
-        <v>0.152662</v>
+        <v>0.180994</v>
       </c>
       <c r="D78" t="n">
-        <v>0.166988</v>
+        <v>0.20606</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.158125</v>
+        <v>0.159049</v>
       </c>
       <c r="C79" t="n">
-        <v>0.156418</v>
+        <v>0.184129</v>
       </c>
       <c r="D79" t="n">
-        <v>0.174201</v>
+        <v>0.211183</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.161723</v>
+        <v>0.162455</v>
       </c>
       <c r="C80" t="n">
-        <v>0.162516</v>
+        <v>0.188981</v>
       </c>
       <c r="D80" t="n">
-        <v>0.165337</v>
+        <v>0.213559</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.172746</v>
+        <v>0.165044</v>
       </c>
       <c r="C81" t="n">
-        <v>0.146172</v>
+        <v>0.187885</v>
       </c>
       <c r="D81" t="n">
-        <v>0.160251</v>
+        <v>0.214226</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.167477</v>
+        <v>0.165574</v>
       </c>
       <c r="C82" t="n">
-        <v>0.145391</v>
+        <v>0.188291</v>
       </c>
       <c r="D82" t="n">
-        <v>0.162635</v>
+        <v>0.214857</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.168727</v>
+        <v>0.165331</v>
       </c>
       <c r="C83" t="n">
-        <v>0.145189</v>
+        <v>0.187933</v>
       </c>
       <c r="D83" t="n">
-        <v>0.162538</v>
+        <v>0.215419</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.167816</v>
+        <v>0.166321</v>
       </c>
       <c r="C84" t="n">
-        <v>0.144715</v>
+        <v>0.188686</v>
       </c>
       <c r="D84" t="n">
-        <v>0.162837</v>
+        <v>0.215352</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.165194</v>
+        <v>0.166177</v>
       </c>
       <c r="C85" t="n">
-        <v>0.144975</v>
+        <v>0.1888</v>
       </c>
       <c r="D85" t="n">
-        <v>0.163487</v>
+        <v>0.215494</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.173104</v>
+        <v>0.166363</v>
       </c>
       <c r="C86" t="n">
-        <v>0.145878</v>
+        <v>0.189508</v>
       </c>
       <c r="D86" t="n">
-        <v>0.161854</v>
+        <v>0.215998</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.170759</v>
+        <v>0.165938</v>
       </c>
       <c r="C87" t="n">
-        <v>0.146289</v>
+        <v>0.189458</v>
       </c>
       <c r="D87" t="n">
-        <v>0.166176</v>
+        <v>0.216782</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.167647</v>
+        <v>0.166352</v>
       </c>
       <c r="C88" t="n">
-        <v>0.146887</v>
+        <v>0.189776</v>
       </c>
       <c r="D88" t="n">
-        <v>0.164848</v>
+        <v>0.216871</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.167863</v>
+        <v>0.166859</v>
       </c>
       <c r="C89" t="n">
-        <v>0.152578</v>
+        <v>0.190973</v>
       </c>
       <c r="D89" t="n">
-        <v>0.166925</v>
+        <v>0.218318</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.171507</v>
+        <v>0.167611</v>
       </c>
       <c r="C90" t="n">
-        <v>0.150774</v>
+        <v>0.192109</v>
       </c>
       <c r="D90" t="n">
-        <v>0.173256</v>
+        <v>0.219875</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.17222</v>
+        <v>0.168525</v>
       </c>
       <c r="C91" t="n">
-        <v>0.153189</v>
+        <v>0.194822</v>
       </c>
       <c r="D91" t="n">
-        <v>0.172556</v>
+        <v>0.222148</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.171053</v>
+        <v>0.171823</v>
       </c>
       <c r="C92" t="n">
-        <v>0.156133</v>
+        <v>0.195276</v>
       </c>
       <c r="D92" t="n">
-        <v>0.177088</v>
+        <v>0.224978</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.173808</v>
+        <v>0.174697</v>
       </c>
       <c r="C93" t="n">
-        <v>0.15873</v>
+        <v>0.199401</v>
       </c>
       <c r="D93" t="n">
-        <v>0.18178</v>
+        <v>0.229641</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.177781</v>
+        <v>0.17534</v>
       </c>
       <c r="C94" t="n">
-        <v>0.16315</v>
+        <v>0.203124</v>
       </c>
       <c r="D94" t="n">
-        <v>0.328169</v>
+        <v>0.361282</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.343293</v>
+        <v>0.31354</v>
       </c>
       <c r="C95" t="n">
-        <v>0.305434</v>
+        <v>0.34805</v>
       </c>
       <c r="D95" t="n">
-        <v>0.325063</v>
+        <v>0.361856</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.342437</v>
+        <v>0.314837</v>
       </c>
       <c r="C96" t="n">
-        <v>0.301791</v>
+        <v>0.342576</v>
       </c>
       <c r="D96" t="n">
-        <v>0.322295</v>
+        <v>0.359655</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34151</v>
+        <v>0.312884</v>
       </c>
       <c r="C97" t="n">
-        <v>0.307078</v>
+        <v>0.345089</v>
       </c>
       <c r="D97" t="n">
-        <v>0.330281</v>
+        <v>0.36217</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.342633</v>
+        <v>0.3164</v>
       </c>
       <c r="C98" t="n">
-        <v>0.300145</v>
+        <v>0.34392</v>
       </c>
       <c r="D98" t="n">
-        <v>0.324158</v>
+        <v>0.361485</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.33727</v>
+        <v>0.312566</v>
       </c>
       <c r="C99" t="n">
-        <v>0.309169</v>
+        <v>0.342465</v>
       </c>
       <c r="D99" t="n">
-        <v>0.328167</v>
+        <v>0.363432</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.342595</v>
+        <v>0.318811</v>
       </c>
       <c r="C100" t="n">
-        <v>0.30556</v>
+        <v>0.341695</v>
       </c>
       <c r="D100" t="n">
-        <v>0.328969</v>
+        <v>0.365035</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.336361</v>
+        <v>0.31176</v>
       </c>
       <c r="C101" t="n">
-        <v>0.31082</v>
+        <v>0.341131</v>
       </c>
       <c r="D101" t="n">
-        <v>0.329528</v>
+        <v>0.361559</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.341728</v>
+        <v>0.319034</v>
       </c>
       <c r="C102" t="n">
-        <v>0.307887</v>
+        <v>0.342748</v>
       </c>
       <c r="D102" t="n">
-        <v>0.334816</v>
+        <v>0.363067</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.340321</v>
+        <v>0.313891</v>
       </c>
       <c r="C103" t="n">
-        <v>0.312058</v>
+        <v>0.343036</v>
       </c>
       <c r="D103" t="n">
-        <v>0.330283</v>
+        <v>0.363929</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.341115</v>
+        <v>0.321251</v>
       </c>
       <c r="C104" t="n">
-        <v>0.313739</v>
+        <v>0.344454</v>
       </c>
       <c r="D104" t="n">
-        <v>0.335641</v>
+        <v>0.362103</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.337404</v>
+        <v>0.314782</v>
       </c>
       <c r="C105" t="n">
-        <v>0.316834</v>
+        <v>0.344742</v>
       </c>
       <c r="D105" t="n">
-        <v>0.341036</v>
+        <v>0.362071</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.345603</v>
+        <v>0.319188</v>
       </c>
       <c r="C106" t="n">
-        <v>0.314513</v>
+        <v>0.347328</v>
       </c>
       <c r="D106" t="n">
-        <v>0.340238</v>
+        <v>0.362874</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.337695</v>
+        <v>0.316786</v>
       </c>
       <c r="C107" t="n">
-        <v>0.321759</v>
+        <v>0.349184</v>
       </c>
       <c r="D107" t="n">
-        <v>0.344401</v>
+        <v>0.368323</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.347124</v>
+        <v>0.323496</v>
       </c>
       <c r="C108" t="n">
-        <v>0.324826</v>
+        <v>0.34695</v>
       </c>
       <c r="D108" t="n">
-        <v>0.626063</v>
+        <v>0.659188</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.344327</v>
+        <v>0.319587</v>
       </c>
       <c r="C109" t="n">
-        <v>0.33193</v>
+        <v>0.351937</v>
       </c>
       <c r="D109" t="n">
-        <v>0.627274</v>
+        <v>0.65883</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.552693</v>
+        <v>0.5024189999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>0.490334</v>
+        <v>0.592831</v>
       </c>
       <c r="D110" t="n">
-        <v>0.628204</v>
+        <v>0.65664</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.552853</v>
+        <v>0.504072</v>
       </c>
       <c r="C111" t="n">
-        <v>0.490773</v>
+        <v>0.592424</v>
       </c>
       <c r="D111" t="n">
-        <v>0.62999</v>
+        <v>0.656305</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.553388</v>
+        <v>0.504078</v>
       </c>
       <c r="C112" t="n">
-        <v>0.491999</v>
+        <v>0.593561</v>
       </c>
       <c r="D112" t="n">
-        <v>0.629671</v>
+        <v>0.658316</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.552721</v>
+        <v>0.505332</v>
       </c>
       <c r="C113" t="n">
-        <v>0.494043</v>
+        <v>0.595523</v>
       </c>
       <c r="D113" t="n">
-        <v>0.630788</v>
+        <v>0.65874</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.552666</v>
+        <v>0.502889</v>
       </c>
       <c r="C114" t="n">
-        <v>0.494606</v>
+        <v>0.591692</v>
       </c>
       <c r="D114" t="n">
-        <v>0.633425</v>
+        <v>0.655802</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.552482</v>
+        <v>0.505231</v>
       </c>
       <c r="C115" t="n">
-        <v>0.496807</v>
+        <v>0.592846</v>
       </c>
       <c r="D115" t="n">
-        <v>0.634004</v>
+        <v>0.656508</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.549943</v>
+        <v>0.503001</v>
       </c>
       <c r="C116" t="n">
-        <v>0.498399</v>
+        <v>0.593146</v>
       </c>
       <c r="D116" t="n">
-        <v>0.636274</v>
+        <v>0.658438</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.550855</v>
+        <v>0.5043029999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>0.500479</v>
+        <v>0.592628</v>
       </c>
       <c r="D117" t="n">
-        <v>0.638764</v>
+        <v>0.65616</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.553705</v>
+        <v>0.505497</v>
       </c>
       <c r="C118" t="n">
-        <v>0.504304</v>
+        <v>0.595212</v>
       </c>
       <c r="D118" t="n">
-        <v>0.640292</v>
+        <v>0.658794</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.553125</v>
+        <v>0.506688</v>
       </c>
       <c r="C119" t="n">
-        <v>0.506849</v>
+        <v>0.595784</v>
       </c>
       <c r="D119" t="n">
-        <v>0.644014</v>
+        <v>0.659402</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.551802</v>
+        <v>0.508031</v>
       </c>
       <c r="C120" t="n">
-        <v>0.512496</v>
+        <v>0.596195</v>
       </c>
       <c r="D120" t="n">
-        <v>0.648447</v>
+        <v>0.657236</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.550971</v>
+        <v>0.505865</v>
       </c>
       <c r="C121" t="n">
-        <v>0.517283</v>
+        <v>0.598491</v>
       </c>
       <c r="D121" t="n">
-        <v>0.653825</v>
+        <v>0.660264</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.555352</v>
+        <v>0.5064610000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.524792</v>
+        <v>0.601301</v>
       </c>
       <c r="D122" t="n">
-        <v>0.659435</v>
+        <v>0.663335</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.554149</v>
+        <v>0.5100749999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.535355</v>
+        <v>0.604845</v>
       </c>
       <c r="D123" t="n">
-        <v>0.745156</v>
+        <v>0.913114</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.7437550000000001</v>
+        <v>0.67479</v>
       </c>
       <c r="C124" t="n">
-        <v>0.576611</v>
+        <v>0.754922</v>
       </c>
       <c r="D124" t="n">
-        <v>0.746084</v>
+        <v>0.9116379999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.74254</v>
+        <v>0.674046</v>
       </c>
       <c r="C125" t="n">
-        <v>0.578206</v>
+        <v>0.7557120000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.749411</v>
+        <v>0.914456</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.742404</v>
+        <v>0.67692</v>
       </c>
       <c r="C126" t="n">
-        <v>0.57942</v>
+        <v>0.757334</v>
       </c>
       <c r="D126" t="n">
-        <v>0.749095</v>
+        <v>0.915627</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.741909</v>
+        <v>0.673959</v>
       </c>
       <c r="C127" t="n">
-        <v>0.58024</v>
+        <v>0.7576040000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7503339999999999</v>
+        <v>0.915662</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.742536</v>
+        <v>0.674275</v>
       </c>
       <c r="C128" t="n">
-        <v>0.581551</v>
+        <v>0.756285</v>
       </c>
       <c r="D128" t="n">
-        <v>0.752406</v>
+        <v>0.912354</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.743555</v>
+        <v>0.672552</v>
       </c>
       <c r="C129" t="n">
-        <v>0.584663</v>
+        <v>0.756439</v>
       </c>
       <c r="D129" t="n">
-        <v>0.7546850000000001</v>
+        <v>0.911679</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.742972</v>
+        <v>0.672009</v>
       </c>
       <c r="C130" t="n">
-        <v>0.587207</v>
+        <v>0.757977</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7570170000000001</v>
+        <v>0.916153</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.7442569999999999</v>
+        <v>0.672883</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5900030000000001</v>
+        <v>0.758279</v>
       </c>
       <c r="D131" t="n">
-        <v>0.759368</v>
+        <v>0.9160239999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.743749</v>
+        <v>0.673641</v>
       </c>
       <c r="C132" t="n">
-        <v>0.594099</v>
+        <v>0.760937</v>
       </c>
       <c r="D132" t="n">
-        <v>0.763839</v>
+        <v>0.918888</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.744771</v>
+        <v>0.673301</v>
       </c>
       <c r="C133" t="n">
-        <v>0.59834</v>
+        <v>0.761771</v>
       </c>
       <c r="D133" t="n">
-        <v>0.770408</v>
+        <v>0.919027</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.744584</v>
+        <v>0.676148</v>
       </c>
       <c r="C134" t="n">
-        <v>0.604344</v>
+        <v>0.762581</v>
       </c>
       <c r="D134" t="n">
-        <v>0.777298</v>
+        <v>0.919329</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.749633</v>
+        <v>0.675604</v>
       </c>
       <c r="C135" t="n">
-        <v>0.612285</v>
+        <v>0.765676</v>
       </c>
       <c r="D135" t="n">
-        <v>0.787669</v>
+        <v>0.923647</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.747699</v>
+        <v>0.6820040000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.6222259999999999</v>
+        <v>0.770322</v>
       </c>
       <c r="D136" t="n">
-        <v>0.800141</v>
+        <v>0.925602</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.750096</v>
+        <v>0.6781199999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.636869</v>
+        <v>0.774315</v>
       </c>
       <c r="D137" t="n">
-        <v>0.79352</v>
+        <v>1.13564</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.895585</v>
+        <v>0.810505</v>
       </c>
       <c r="C138" t="n">
-        <v>0.624999</v>
+        <v>0.86154</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7939000000000001</v>
+        <v>1.13503</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.895593</v>
+        <v>0.810391</v>
       </c>
       <c r="C139" t="n">
-        <v>0.625646</v>
+        <v>0.861303</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7947070000000001</v>
+        <v>1.13625</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.894637</v>
+        <v>0.810873</v>
       </c>
       <c r="C140" t="n">
-        <v>0.628281</v>
+        <v>0.86207</v>
       </c>
       <c r="D140" t="n">
-        <v>0.798498</v>
+        <v>1.13609</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.89697</v>
+        <v>0.81068</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6286659999999999</v>
+        <v>0.861108</v>
       </c>
       <c r="D141" t="n">
-        <v>0.798998</v>
+        <v>1.13572</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.896777</v>
+        <v>0.810584</v>
       </c>
       <c r="C142" t="n">
-        <v>0.630321</v>
+        <v>0.862326</v>
       </c>
       <c r="D142" t="n">
-        <v>0.80042</v>
+        <v>1.13657</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.897887</v>
+        <v>0.811132</v>
       </c>
       <c r="C143" t="n">
-        <v>0.632182</v>
+        <v>0.861571</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8046450000000001</v>
+        <v>1.13565</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0891412</v>
+        <v>0.0429147</v>
       </c>
       <c r="C2" t="n">
-        <v>0.103575</v>
+        <v>0.0441736</v>
       </c>
       <c r="D2" t="n">
-        <v>0.112916</v>
+        <v>0.0472477</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0893187</v>
+        <v>0.0430915</v>
       </c>
       <c r="C3" t="n">
-        <v>0.103861</v>
+        <v>0.0444092</v>
       </c>
       <c r="D3" t="n">
-        <v>0.113257</v>
+        <v>0.047341</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0897926</v>
+        <v>0.0435204</v>
       </c>
       <c r="C4" t="n">
-        <v>0.104366</v>
+        <v>0.0443325</v>
       </c>
       <c r="D4" t="n">
-        <v>0.113998</v>
+        <v>0.0475713</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0904764</v>
+        <v>0.0440819</v>
       </c>
       <c r="C5" t="n">
-        <v>0.104752</v>
+        <v>0.044442</v>
       </c>
       <c r="D5" t="n">
-        <v>0.114553</v>
+        <v>0.0479524</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09098299999999999</v>
+        <v>0.0444582</v>
       </c>
       <c r="C6" t="n">
-        <v>0.105113</v>
+        <v>0.0446082</v>
       </c>
       <c r="D6" t="n">
-        <v>0.115154</v>
+        <v>0.0486671</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0917429</v>
+        <v>0.0451956</v>
       </c>
       <c r="C7" t="n">
-        <v>0.105943</v>
+        <v>0.0450097</v>
       </c>
       <c r="D7" t="n">
-        <v>0.116546</v>
+        <v>0.0493428</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0927408</v>
+        <v>0.0460965</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10723</v>
+        <v>0.0462589</v>
       </c>
       <c r="D8" t="n">
-        <v>0.118771</v>
+        <v>0.051294</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0947339</v>
+        <v>0.047791</v>
       </c>
       <c r="C9" t="n">
-        <v>0.109466</v>
+        <v>0.0481247</v>
       </c>
       <c r="D9" t="n">
-        <v>0.113996</v>
+        <v>0.0499391</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0917766</v>
+        <v>0.0458114</v>
       </c>
       <c r="C10" t="n">
-        <v>0.10722</v>
+        <v>0.0443005</v>
       </c>
       <c r="D10" t="n">
-        <v>0.114893</v>
+        <v>0.0502282</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0919586</v>
+        <v>0.0458622</v>
       </c>
       <c r="C11" t="n">
-        <v>0.106506</v>
+        <v>0.0446277</v>
       </c>
       <c r="D11" t="n">
-        <v>0.114366</v>
+        <v>0.0504799</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0941915</v>
+        <v>0.045991</v>
       </c>
       <c r="C12" t="n">
-        <v>0.107538</v>
+        <v>0.0447735</v>
       </c>
       <c r="D12" t="n">
-        <v>0.114589</v>
+        <v>0.0506972</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0929889</v>
+        <v>0.0461357</v>
       </c>
       <c r="C13" t="n">
-        <v>0.106734</v>
+        <v>0.045005</v>
       </c>
       <c r="D13" t="n">
-        <v>0.114535</v>
+        <v>0.0510382</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09397179999999999</v>
+        <v>0.0462486</v>
       </c>
       <c r="C14" t="n">
-        <v>0.107209</v>
+        <v>0.0452274</v>
       </c>
       <c r="D14" t="n">
-        <v>0.115014</v>
+        <v>0.0513338</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0934174</v>
+        <v>0.0463676</v>
       </c>
       <c r="C15" t="n">
-        <v>0.107563</v>
+        <v>0.0454277</v>
       </c>
       <c r="D15" t="n">
-        <v>0.115337</v>
+        <v>0.0517144</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0939985</v>
+        <v>0.0465453</v>
       </c>
       <c r="C16" t="n">
-        <v>0.109187</v>
+        <v>0.0456549</v>
       </c>
       <c r="D16" t="n">
-        <v>0.117183</v>
+        <v>0.0518688</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09411700000000001</v>
+        <v>0.0468067</v>
       </c>
       <c r="C17" t="n">
-        <v>0.11087</v>
+        <v>0.0459136</v>
       </c>
       <c r="D17" t="n">
-        <v>0.118501</v>
+        <v>0.0521815</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0937361</v>
+        <v>0.0471323</v>
       </c>
       <c r="C18" t="n">
-        <v>0.108949</v>
+        <v>0.0461482</v>
       </c>
       <c r="D18" t="n">
-        <v>0.116925</v>
+        <v>0.0525682</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0953209</v>
+        <v>0.0475625</v>
       </c>
       <c r="C19" t="n">
-        <v>0.109707</v>
+        <v>0.0464521</v>
       </c>
       <c r="D19" t="n">
-        <v>0.11781</v>
+        <v>0.052941</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0960435</v>
+        <v>0.0481101</v>
       </c>
       <c r="C20" t="n">
-        <v>0.111943</v>
+        <v>0.0470937</v>
       </c>
       <c r="D20" t="n">
-        <v>0.11968</v>
+        <v>0.0537648</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0972324</v>
+        <v>0.0490852</v>
       </c>
       <c r="C21" t="n">
-        <v>0.111816</v>
+        <v>0.0478865</v>
       </c>
       <c r="D21" t="n">
-        <v>0.121468</v>
+        <v>0.0553759</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0995786</v>
+        <v>0.0506126</v>
       </c>
       <c r="C22" t="n">
-        <v>0.115056</v>
+        <v>0.0496284</v>
       </c>
       <c r="D22" t="n">
-        <v>0.126268</v>
+        <v>0.0592401</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.100043</v>
+        <v>0.053018</v>
       </c>
       <c r="C23" t="n">
-        <v>0.11921</v>
+        <v>0.0544768</v>
       </c>
       <c r="D23" t="n">
-        <v>0.125531</v>
+        <v>0.0555289</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.104598</v>
+        <v>0.0563666</v>
       </c>
       <c r="C24" t="n">
-        <v>0.122072</v>
+        <v>0.0487518</v>
       </c>
       <c r="D24" t="n">
-        <v>0.128071</v>
+        <v>0.0555122</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.104999</v>
+        <v>0.0563652</v>
       </c>
       <c r="C25" t="n">
-        <v>0.120673</v>
+        <v>0.0491437</v>
       </c>
       <c r="D25" t="n">
-        <v>0.128455</v>
+        <v>0.0557652</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.105515</v>
+        <v>0.0564522</v>
       </c>
       <c r="C26" t="n">
-        <v>0.121318</v>
+        <v>0.0495111</v>
       </c>
       <c r="D26" t="n">
-        <v>0.127241</v>
+        <v>0.0560629</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105716</v>
+        <v>0.0565684</v>
       </c>
       <c r="C27" t="n">
-        <v>0.121511</v>
+        <v>0.0497597</v>
       </c>
       <c r="D27" t="n">
-        <v>0.127533</v>
+        <v>0.0563449</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.106951</v>
+        <v>0.056798</v>
       </c>
       <c r="C28" t="n">
-        <v>0.122236</v>
+        <v>0.0502074</v>
       </c>
       <c r="D28" t="n">
-        <v>0.12744</v>
+        <v>0.0567026</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.107437</v>
+        <v>0.0568873</v>
       </c>
       <c r="C29" t="n">
-        <v>0.122177</v>
+        <v>0.0504979</v>
       </c>
       <c r="D29" t="n">
-        <v>0.128879</v>
+        <v>0.0570251</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.106874</v>
+        <v>0.0571454</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122724</v>
+        <v>0.0508343</v>
       </c>
       <c r="D30" t="n">
-        <v>0.12881</v>
+        <v>0.0574515</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.107068</v>
+        <v>0.0573354</v>
       </c>
       <c r="C31" t="n">
-        <v>0.123118</v>
+        <v>0.0512453</v>
       </c>
       <c r="D31" t="n">
-        <v>0.129814</v>
+        <v>0.0578271</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.108471</v>
+        <v>0.057687</v>
       </c>
       <c r="C32" t="n">
-        <v>0.123748</v>
+        <v>0.0518888</v>
       </c>
       <c r="D32" t="n">
-        <v>0.130075</v>
+        <v>0.0584348</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.11002</v>
+        <v>0.0581788</v>
       </c>
       <c r="C33" t="n">
-        <v>0.124954</v>
+        <v>0.052513</v>
       </c>
       <c r="D33" t="n">
-        <v>0.130979</v>
+        <v>0.0592327</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.110189</v>
+        <v>0.0588382</v>
       </c>
       <c r="C34" t="n">
-        <v>0.126001</v>
+        <v>0.0535105</v>
       </c>
       <c r="D34" t="n">
-        <v>0.133011</v>
+        <v>0.0609831</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.112177</v>
+        <v>0.060447</v>
       </c>
       <c r="C35" t="n">
-        <v>0.127615</v>
+        <v>0.0553963</v>
       </c>
       <c r="D35" t="n">
-        <v>0.135141</v>
+        <v>0.0645133</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.113128</v>
+        <v>0.0615599</v>
       </c>
       <c r="C36" t="n">
-        <v>0.130057</v>
+        <v>0.0594341</v>
       </c>
       <c r="D36" t="n">
-        <v>0.139932</v>
+        <v>0.0706417</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.116032</v>
+        <v>0.0638595</v>
       </c>
       <c r="C37" t="n">
-        <v>0.134571</v>
+        <v>0.0654435</v>
       </c>
       <c r="D37" t="n">
-        <v>0.153092</v>
+        <v>0.061183</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.123101</v>
+        <v>0.062532</v>
       </c>
       <c r="C38" t="n">
-        <v>0.140016</v>
+        <v>0.0540401</v>
       </c>
       <c r="D38" t="n">
-        <v>0.153673</v>
+        <v>0.0605023</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.123494</v>
+        <v>0.0612943</v>
       </c>
       <c r="C39" t="n">
-        <v>0.141342</v>
+        <v>0.054429</v>
       </c>
       <c r="D39" t="n">
-        <v>0.152944</v>
+        <v>0.0607767</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.122365</v>
+        <v>0.0613771</v>
       </c>
       <c r="C40" t="n">
-        <v>0.143349</v>
+        <v>0.0548332</v>
       </c>
       <c r="D40" t="n">
-        <v>0.155318</v>
+        <v>0.0610883</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.122281</v>
+        <v>0.0615233</v>
       </c>
       <c r="C41" t="n">
-        <v>0.143198</v>
+        <v>0.0552589</v>
       </c>
       <c r="D41" t="n">
-        <v>0.155464</v>
+        <v>0.0614442</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.125023</v>
+        <v>0.0616304</v>
       </c>
       <c r="C42" t="n">
-        <v>0.143556</v>
+        <v>0.0556759</v>
       </c>
       <c r="D42" t="n">
-        <v>0.154295</v>
+        <v>0.0617856</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.122936</v>
+        <v>0.0618149</v>
       </c>
       <c r="C43" t="n">
-        <v>0.143782</v>
+        <v>0.0561827</v>
       </c>
       <c r="D43" t="n">
-        <v>0.155251</v>
+        <v>0.0622205</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12284</v>
+        <v>0.0620202</v>
       </c>
       <c r="C44" t="n">
-        <v>0.145169</v>
+        <v>0.056618</v>
       </c>
       <c r="D44" t="n">
-        <v>0.157541</v>
+        <v>0.06267739999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.124232</v>
+        <v>0.0622039</v>
       </c>
       <c r="C45" t="n">
-        <v>0.143763</v>
+        <v>0.0572038</v>
       </c>
       <c r="D45" t="n">
-        <v>0.154984</v>
+        <v>0.0632573</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.124762</v>
+        <v>0.0625423</v>
       </c>
       <c r="C46" t="n">
-        <v>0.144603</v>
+        <v>0.0579873</v>
       </c>
       <c r="D46" t="n">
-        <v>0.156212</v>
+        <v>0.064108</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.125787</v>
+        <v>0.0630462</v>
       </c>
       <c r="C47" t="n">
-        <v>0.145851</v>
+        <v>0.0590259</v>
       </c>
       <c r="D47" t="n">
-        <v>0.157132</v>
+        <v>0.06567870000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.126622</v>
+        <v>0.0635471</v>
       </c>
       <c r="C48" t="n">
-        <v>0.148875</v>
+        <v>0.0607321</v>
       </c>
       <c r="D48" t="n">
-        <v>0.16167</v>
+        <v>0.06838710000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.126721</v>
+        <v>0.06438439999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.148712</v>
+        <v>0.06309140000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.16214</v>
+        <v>0.0719432</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.130991</v>
+        <v>0.065912</v>
       </c>
       <c r="C50" t="n">
-        <v>0.151663</v>
+        <v>0.0662288</v>
       </c>
       <c r="D50" t="n">
-        <v>0.165635</v>
+        <v>0.0768008</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.131411</v>
+        <v>0.0687479</v>
       </c>
       <c r="C51" t="n">
-        <v>0.15695</v>
+        <v>0.0706693</v>
       </c>
       <c r="D51" t="n">
-        <v>0.172877</v>
+        <v>0.0661713</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.137363</v>
+        <v>0.0733362</v>
       </c>
       <c r="C52" t="n">
-        <v>0.161898</v>
+        <v>0.07715320000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.180055</v>
+        <v>0.0651838</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.13745</v>
+        <v>0.06915259999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.160013</v>
+        <v>0.060748</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178363</v>
+        <v>0.0654815</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.140857</v>
+        <v>0.0684188</v>
       </c>
       <c r="C54" t="n">
-        <v>0.160792</v>
+        <v>0.0611171</v>
       </c>
       <c r="D54" t="n">
-        <v>0.178378</v>
+        <v>0.0658295</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.141327</v>
+        <v>0.0685143</v>
       </c>
       <c r="C55" t="n">
-        <v>0.160852</v>
+        <v>0.0615421</v>
       </c>
       <c r="D55" t="n">
-        <v>0.178762</v>
+        <v>0.0661398</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.141303</v>
+        <v>0.0686092</v>
       </c>
       <c r="C56" t="n">
-        <v>0.161399</v>
+        <v>0.061963</v>
       </c>
       <c r="D56" t="n">
-        <v>0.178669</v>
+        <v>0.0665366</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.141744</v>
+        <v>0.0688014</v>
       </c>
       <c r="C57" t="n">
-        <v>0.162</v>
+        <v>0.0623527</v>
       </c>
       <c r="D57" t="n">
-        <v>0.179651</v>
+        <v>0.0669193</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.141979</v>
+        <v>0.0689314</v>
       </c>
       <c r="C58" t="n">
-        <v>0.162571</v>
+        <v>0.0628861</v>
       </c>
       <c r="D58" t="n">
-        <v>0.179667</v>
+        <v>0.06749280000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.141999</v>
+        <v>0.06920800000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.162915</v>
+        <v>0.06347510000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.180118</v>
+        <v>0.06816510000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.141999</v>
+        <v>0.0694954</v>
       </c>
       <c r="C60" t="n">
-        <v>0.16477</v>
+        <v>0.0648629</v>
       </c>
       <c r="D60" t="n">
-        <v>0.181851</v>
+        <v>0.0693332</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.142616</v>
+        <v>0.0700013</v>
       </c>
       <c r="C61" t="n">
-        <v>0.164796</v>
+        <v>0.0657856</v>
       </c>
       <c r="D61" t="n">
-        <v>0.182628</v>
+        <v>0.0710911</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.143797</v>
+        <v>0.0706079</v>
       </c>
       <c r="C62" t="n">
-        <v>0.166147</v>
+        <v>0.067163</v>
       </c>
       <c r="D62" t="n">
-        <v>0.183498</v>
+        <v>0.07350669999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.145568</v>
+        <v>0.07156469999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.16773</v>
+        <v>0.06928040000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.186027</v>
+        <v>0.07670490000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.146594</v>
+        <v>0.0732564</v>
       </c>
       <c r="C64" t="n">
-        <v>0.169652</v>
+        <v>0.072114</v>
       </c>
       <c r="D64" t="n">
-        <v>0.18898</v>
+        <v>0.08111069999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.150232</v>
+        <v>0.07575750000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.173157</v>
+        <v>0.0758485</v>
       </c>
       <c r="D65" t="n">
-        <v>0.196396</v>
+        <v>0.0876991</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.153276</v>
+        <v>0.0802235</v>
       </c>
       <c r="C66" t="n">
-        <v>0.178683</v>
+        <v>0.08170819999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.195741</v>
+        <v>0.0678903</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.15073</v>
+        <v>0.0743438</v>
       </c>
       <c r="C67" t="n">
-        <v>0.172687</v>
+        <v>0.0601551</v>
       </c>
       <c r="D67" t="n">
-        <v>0.195429</v>
+        <v>0.067595</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.150561</v>
+        <v>0.0744054</v>
       </c>
       <c r="C68" t="n">
-        <v>0.173011</v>
+        <v>0.0604472</v>
       </c>
       <c r="D68" t="n">
-        <v>0.19594</v>
+        <v>0.0680037</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.151054</v>
+        <v>0.0744838</v>
       </c>
       <c r="C69" t="n">
-        <v>0.173156</v>
+        <v>0.0608175</v>
       </c>
       <c r="D69" t="n">
-        <v>0.195822</v>
+        <v>0.0683496</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.151267</v>
+        <v>0.0744715</v>
       </c>
       <c r="C70" t="n">
-        <v>0.173096</v>
+        <v>0.0613561</v>
       </c>
       <c r="D70" t="n">
-        <v>0.195907</v>
+        <v>0.06865549999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.150779</v>
+        <v>0.0747886</v>
       </c>
       <c r="C71" t="n">
-        <v>0.174328</v>
+        <v>0.061775</v>
       </c>
       <c r="D71" t="n">
-        <v>0.196866</v>
+        <v>0.0691643</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.151577</v>
+        <v>0.0749833</v>
       </c>
       <c r="C72" t="n">
-        <v>0.174587</v>
+        <v>0.0623327</v>
       </c>
       <c r="D72" t="n">
-        <v>0.19742</v>
+        <v>0.06980169999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.151554</v>
+        <v>0.0752835</v>
       </c>
       <c r="C73" t="n">
-        <v>0.174701</v>
+        <v>0.0630893</v>
       </c>
       <c r="D73" t="n">
-        <v>0.197171</v>
+        <v>0.0707269</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.152471</v>
+        <v>0.07566249999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.175144</v>
+        <v>0.0640602</v>
       </c>
       <c r="D74" t="n">
-        <v>0.197867</v>
+        <v>0.07208580000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.152693</v>
+        <v>0.0762063</v>
       </c>
       <c r="C75" t="n">
-        <v>0.176035</v>
+        <v>0.06523039999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.199104</v>
+        <v>0.07371080000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.153358</v>
+        <v>0.0767777</v>
       </c>
       <c r="C76" t="n">
-        <v>0.177141</v>
+        <v>0.06667960000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.200414</v>
+        <v>0.0758814</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.154189</v>
+        <v>0.0780213</v>
       </c>
       <c r="C77" t="n">
-        <v>0.178706</v>
+        <v>0.0685987</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203228</v>
+        <v>0.0786169</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.15603</v>
+        <v>0.079508</v>
       </c>
       <c r="C78" t="n">
-        <v>0.180994</v>
+        <v>0.0711953</v>
       </c>
       <c r="D78" t="n">
-        <v>0.20606</v>
+        <v>0.082568</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.159049</v>
+        <v>0.0819264</v>
       </c>
       <c r="C79" t="n">
-        <v>0.184129</v>
+        <v>0.0747434</v>
       </c>
       <c r="D79" t="n">
-        <v>0.211183</v>
+        <v>0.0886204</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.162455</v>
+        <v>0.08610279999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.188981</v>
+        <v>0.0798729</v>
       </c>
       <c r="D80" t="n">
-        <v>0.213559</v>
+        <v>0.0773206</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.165044</v>
+        <v>0.0897878</v>
       </c>
       <c r="C81" t="n">
-        <v>0.187885</v>
+        <v>0.07072829999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.214226</v>
+        <v>0.0776715</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.165574</v>
+        <v>0.0899529</v>
       </c>
       <c r="C82" t="n">
-        <v>0.188291</v>
+        <v>0.0710872</v>
       </c>
       <c r="D82" t="n">
-        <v>0.214857</v>
+        <v>0.0780343</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.165331</v>
+        <v>0.090255</v>
       </c>
       <c r="C83" t="n">
-        <v>0.187933</v>
+        <v>0.0715674</v>
       </c>
       <c r="D83" t="n">
-        <v>0.215419</v>
+        <v>0.07839169999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.166321</v>
+        <v>0.0910367</v>
       </c>
       <c r="C84" t="n">
-        <v>0.188686</v>
+        <v>0.0722164</v>
       </c>
       <c r="D84" t="n">
-        <v>0.215352</v>
+        <v>0.0788412</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.166177</v>
+        <v>0.0912515</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1888</v>
+        <v>0.0726932</v>
       </c>
       <c r="D85" t="n">
-        <v>0.215494</v>
+        <v>0.07943409999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.166363</v>
+        <v>0.0917061</v>
       </c>
       <c r="C86" t="n">
-        <v>0.189508</v>
+        <v>0.0733687</v>
       </c>
       <c r="D86" t="n">
-        <v>0.215998</v>
+        <v>0.0800782</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.165938</v>
+        <v>0.0919312</v>
       </c>
       <c r="C87" t="n">
-        <v>0.189458</v>
+        <v>0.0740856</v>
       </c>
       <c r="D87" t="n">
-        <v>0.216782</v>
+        <v>0.0809573</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.166352</v>
+        <v>0.09213449999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>0.189776</v>
+        <v>0.0749537</v>
       </c>
       <c r="D88" t="n">
-        <v>0.216871</v>
+        <v>0.0821441</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.166859</v>
+        <v>0.0928752</v>
       </c>
       <c r="C89" t="n">
-        <v>0.190973</v>
+        <v>0.0758822</v>
       </c>
       <c r="D89" t="n">
-        <v>0.218318</v>
+        <v>0.0835149</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.167611</v>
+        <v>0.0933141</v>
       </c>
       <c r="C90" t="n">
-        <v>0.192109</v>
+        <v>0.07729080000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.219875</v>
+        <v>0.08543770000000001</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.168525</v>
+        <v>0.0949299</v>
       </c>
       <c r="C91" t="n">
-        <v>0.194822</v>
+        <v>0.0794217</v>
       </c>
       <c r="D91" t="n">
-        <v>0.222148</v>
+        <v>0.088172</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.171823</v>
+        <v>0.09619709999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>0.195276</v>
+        <v>0.0816799</v>
       </c>
       <c r="D92" t="n">
-        <v>0.224978</v>
+        <v>0.0918221</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.174697</v>
+        <v>0.0980342</v>
       </c>
       <c r="C93" t="n">
-        <v>0.199401</v>
+        <v>0.0850817</v>
       </c>
       <c r="D93" t="n">
-        <v>0.229641</v>
+        <v>0.0974883</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17534</v>
+        <v>0.101521</v>
       </c>
       <c r="C94" t="n">
-        <v>0.203124</v>
+        <v>0.0901149</v>
       </c>
       <c r="D94" t="n">
-        <v>0.361282</v>
+        <v>0.180646</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.31354</v>
+        <v>0.202483</v>
       </c>
       <c r="C95" t="n">
-        <v>0.34805</v>
+        <v>0.173117</v>
       </c>
       <c r="D95" t="n">
-        <v>0.361856</v>
+        <v>0.180775</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.314837</v>
+        <v>0.202565</v>
       </c>
       <c r="C96" t="n">
-        <v>0.342576</v>
+        <v>0.176869</v>
       </c>
       <c r="D96" t="n">
-        <v>0.359655</v>
+        <v>0.184983</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.312884</v>
+        <v>0.204809</v>
       </c>
       <c r="C97" t="n">
-        <v>0.345089</v>
+        <v>0.175714</v>
       </c>
       <c r="D97" t="n">
-        <v>0.36217</v>
+        <v>0.185176</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.3164</v>
+        <v>0.203441</v>
       </c>
       <c r="C98" t="n">
-        <v>0.34392</v>
+        <v>0.177772</v>
       </c>
       <c r="D98" t="n">
-        <v>0.361485</v>
+        <v>0.186535</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.312566</v>
+        <v>0.203325</v>
       </c>
       <c r="C99" t="n">
-        <v>0.342465</v>
+        <v>0.176092</v>
       </c>
       <c r="D99" t="n">
-        <v>0.363432</v>
+        <v>0.185545</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.318811</v>
+        <v>0.204098</v>
       </c>
       <c r="C100" t="n">
-        <v>0.341695</v>
+        <v>0.178823</v>
       </c>
       <c r="D100" t="n">
-        <v>0.365035</v>
+        <v>0.188249</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31176</v>
+        <v>0.203975</v>
       </c>
       <c r="C101" t="n">
-        <v>0.341131</v>
+        <v>0.178113</v>
       </c>
       <c r="D101" t="n">
-        <v>0.361559</v>
+        <v>0.187359</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.319034</v>
+        <v>0.203772</v>
       </c>
       <c r="C102" t="n">
-        <v>0.342748</v>
+        <v>0.179733</v>
       </c>
       <c r="D102" t="n">
-        <v>0.363067</v>
+        <v>0.190729</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.313891</v>
+        <v>0.203726</v>
       </c>
       <c r="C103" t="n">
-        <v>0.343036</v>
+        <v>0.17928</v>
       </c>
       <c r="D103" t="n">
-        <v>0.363929</v>
+        <v>0.189049</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.321251</v>
+        <v>0.203913</v>
       </c>
       <c r="C104" t="n">
-        <v>0.344454</v>
+        <v>0.182544</v>
       </c>
       <c r="D104" t="n">
-        <v>0.362103</v>
+        <v>0.193442</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.314782</v>
+        <v>0.205184</v>
       </c>
       <c r="C105" t="n">
-        <v>0.344742</v>
+        <v>0.182993</v>
       </c>
       <c r="D105" t="n">
-        <v>0.362071</v>
+        <v>0.194163</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.319188</v>
+        <v>0.205174</v>
       </c>
       <c r="C106" t="n">
-        <v>0.347328</v>
+        <v>0.185743</v>
       </c>
       <c r="D106" t="n">
-        <v>0.362874</v>
+        <v>0.197968</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.316786</v>
+        <v>0.208312</v>
       </c>
       <c r="C107" t="n">
-        <v>0.349184</v>
+        <v>0.187214</v>
       </c>
       <c r="D107" t="n">
-        <v>0.368323</v>
+        <v>0.200259</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.323496</v>
+        <v>0.208363</v>
       </c>
       <c r="C108" t="n">
-        <v>0.34695</v>
+        <v>0.191859</v>
       </c>
       <c r="D108" t="n">
-        <v>0.659188</v>
+        <v>0.272073</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.319587</v>
+        <v>0.214589</v>
       </c>
       <c r="C109" t="n">
-        <v>0.351937</v>
+        <v>0.197636</v>
       </c>
       <c r="D109" t="n">
-        <v>0.65883</v>
+        <v>0.273162</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5024189999999999</v>
+        <v>0.276935</v>
       </c>
       <c r="C110" t="n">
-        <v>0.592831</v>
+        <v>0.235588</v>
       </c>
       <c r="D110" t="n">
-        <v>0.65664</v>
+        <v>0.273731</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.504072</v>
+        <v>0.277407</v>
       </c>
       <c r="C111" t="n">
-        <v>0.592424</v>
+        <v>0.236691</v>
       </c>
       <c r="D111" t="n">
-        <v>0.656305</v>
+        <v>0.274328</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.504078</v>
+        <v>0.276825</v>
       </c>
       <c r="C112" t="n">
-        <v>0.593561</v>
+        <v>0.237396</v>
       </c>
       <c r="D112" t="n">
-        <v>0.658316</v>
+        <v>0.275983</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.505332</v>
+        <v>0.277579</v>
       </c>
       <c r="C113" t="n">
-        <v>0.595523</v>
+        <v>0.238412</v>
       </c>
       <c r="D113" t="n">
-        <v>0.65874</v>
+        <v>0.276688</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.502889</v>
+        <v>0.276437</v>
       </c>
       <c r="C114" t="n">
-        <v>0.591692</v>
+        <v>0.239452</v>
       </c>
       <c r="D114" t="n">
-        <v>0.655802</v>
+        <v>0.278852</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.505231</v>
+        <v>0.275326</v>
       </c>
       <c r="C115" t="n">
-        <v>0.592846</v>
+        <v>0.241725</v>
       </c>
       <c r="D115" t="n">
-        <v>0.656508</v>
+        <v>0.279395</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.503001</v>
+        <v>0.279129</v>
       </c>
       <c r="C116" t="n">
-        <v>0.593146</v>
+        <v>0.242225</v>
       </c>
       <c r="D116" t="n">
-        <v>0.658438</v>
+        <v>0.281613</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5043029999999999</v>
+        <v>0.278683</v>
       </c>
       <c r="C117" t="n">
-        <v>0.592628</v>
+        <v>0.24376</v>
       </c>
       <c r="D117" t="n">
-        <v>0.65616</v>
+        <v>0.283955</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.505497</v>
+        <v>0.277451</v>
       </c>
       <c r="C118" t="n">
-        <v>0.595212</v>
+        <v>0.246221</v>
       </c>
       <c r="D118" t="n">
-        <v>0.658794</v>
+        <v>0.287386</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.506688</v>
+        <v>0.279606</v>
       </c>
       <c r="C119" t="n">
-        <v>0.595784</v>
+        <v>0.249369</v>
       </c>
       <c r="D119" t="n">
-        <v>0.659402</v>
+        <v>0.290566</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.508031</v>
+        <v>0.279602</v>
       </c>
       <c r="C120" t="n">
-        <v>0.596195</v>
+        <v>0.25291</v>
       </c>
       <c r="D120" t="n">
-        <v>0.657236</v>
+        <v>0.295255</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.505865</v>
+        <v>0.281802</v>
       </c>
       <c r="C121" t="n">
-        <v>0.598491</v>
+        <v>0.256546</v>
       </c>
       <c r="D121" t="n">
-        <v>0.660264</v>
+        <v>0.300254</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5064610000000001</v>
+        <v>0.283706</v>
       </c>
       <c r="C122" t="n">
-        <v>0.601301</v>
+        <v>0.26254</v>
       </c>
       <c r="D122" t="n">
-        <v>0.663335</v>
+        <v>0.30941</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5100749999999999</v>
+        <v>0.287194</v>
       </c>
       <c r="C123" t="n">
-        <v>0.604845</v>
+        <v>0.269903</v>
       </c>
       <c r="D123" t="n">
-        <v>0.913114</v>
+        <v>0.313002</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.67479</v>
+        <v>0.369638</v>
       </c>
       <c r="C124" t="n">
-        <v>0.754922</v>
+        <v>0.265304</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9116379999999999</v>
+        <v>0.314203</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.674046</v>
+        <v>0.368857</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7557120000000001</v>
+        <v>0.26584</v>
       </c>
       <c r="D125" t="n">
-        <v>0.914456</v>
+        <v>0.315161</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.67692</v>
+        <v>0.369168</v>
       </c>
       <c r="C126" t="n">
-        <v>0.757334</v>
+        <v>0.266656</v>
       </c>
       <c r="D126" t="n">
-        <v>0.915627</v>
+        <v>0.316511</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.673959</v>
+        <v>0.369046</v>
       </c>
       <c r="C127" t="n">
-        <v>0.7576040000000001</v>
+        <v>0.267929</v>
       </c>
       <c r="D127" t="n">
-        <v>0.915662</v>
+        <v>0.317529</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.674275</v>
+        <v>0.369704</v>
       </c>
       <c r="C128" t="n">
-        <v>0.756285</v>
+        <v>0.269438</v>
       </c>
       <c r="D128" t="n">
-        <v>0.912354</v>
+        <v>0.319114</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.672552</v>
+        <v>0.370364</v>
       </c>
       <c r="C129" t="n">
-        <v>0.756439</v>
+        <v>0.271242</v>
       </c>
       <c r="D129" t="n">
-        <v>0.911679</v>
+        <v>0.321066</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.672009</v>
+        <v>0.370755</v>
       </c>
       <c r="C130" t="n">
-        <v>0.757977</v>
+        <v>0.273231</v>
       </c>
       <c r="D130" t="n">
-        <v>0.916153</v>
+        <v>0.323355</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.672883</v>
+        <v>0.370699</v>
       </c>
       <c r="C131" t="n">
-        <v>0.758279</v>
+        <v>0.276084</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9160239999999999</v>
+        <v>0.326862</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.673641</v>
+        <v>0.369435</v>
       </c>
       <c r="C132" t="n">
-        <v>0.760937</v>
+        <v>0.278588</v>
       </c>
       <c r="D132" t="n">
-        <v>0.918888</v>
+        <v>0.329389</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.673301</v>
+        <v>0.371931</v>
       </c>
       <c r="C133" t="n">
-        <v>0.761771</v>
+        <v>0.281986</v>
       </c>
       <c r="D133" t="n">
-        <v>0.919027</v>
+        <v>0.333819</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.676148</v>
+        <v>0.37122</v>
       </c>
       <c r="C134" t="n">
-        <v>0.762581</v>
+        <v>0.286086</v>
       </c>
       <c r="D134" t="n">
-        <v>0.919329</v>
+        <v>0.339134</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.675604</v>
+        <v>0.373413</v>
       </c>
       <c r="C135" t="n">
-        <v>0.765676</v>
+        <v>0.286124</v>
       </c>
       <c r="D135" t="n">
-        <v>0.923647</v>
+        <v>0.346956</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.6820040000000001</v>
+        <v>0.375323</v>
       </c>
       <c r="C136" t="n">
-        <v>0.770322</v>
+        <v>0.294008</v>
       </c>
       <c r="D136" t="n">
-        <v>0.925602</v>
+        <v>0.353082</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6781199999999999</v>
+        <v>0.378423</v>
       </c>
       <c r="C137" t="n">
-        <v>0.774315</v>
+        <v>0.303754</v>
       </c>
       <c r="D137" t="n">
-        <v>1.13564</v>
+        <v>0.335242</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.810505</v>
+        <v>0.436196</v>
       </c>
       <c r="C138" t="n">
-        <v>0.86154</v>
+        <v>0.283139</v>
       </c>
       <c r="D138" t="n">
-        <v>1.13503</v>
+        <v>0.336341</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.810391</v>
+        <v>0.435939</v>
       </c>
       <c r="C139" t="n">
-        <v>0.861303</v>
+        <v>0.284188</v>
       </c>
       <c r="D139" t="n">
-        <v>1.13625</v>
+        <v>0.337623</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.810873</v>
+        <v>0.43592</v>
       </c>
       <c r="C140" t="n">
-        <v>0.86207</v>
+        <v>0.285356</v>
       </c>
       <c r="D140" t="n">
-        <v>1.13609</v>
+        <v>0.33891</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.81068</v>
+        <v>0.436447</v>
       </c>
       <c r="C141" t="n">
-        <v>0.861108</v>
+        <v>0.286726</v>
       </c>
       <c r="D141" t="n">
-        <v>1.13572</v>
+        <v>0.340304</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.810584</v>
+        <v>0.4366</v>
       </c>
       <c r="C142" t="n">
-        <v>0.862326</v>
+        <v>0.288168</v>
       </c>
       <c r="D142" t="n">
-        <v>1.13657</v>
+        <v>0.341834</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.811132</v>
+        <v>0.436409</v>
       </c>
       <c r="C143" t="n">
-        <v>0.861571</v>
+        <v>0.29027</v>
       </c>
       <c r="D143" t="n">
-        <v>1.13565</v>
+        <v>0.343736</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0429147</v>
+        <v>0.0467311</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0441736</v>
+        <v>0.0454069</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0472477</v>
+        <v>0.051671</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0430915</v>
+        <v>0.0468485</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0444092</v>
+        <v>0.0441307</v>
       </c>
       <c r="D3" t="n">
-        <v>0.047341</v>
+        <v>0.0520663</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0435204</v>
+        <v>0.0471828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0443325</v>
+        <v>0.0445938</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0475713</v>
+        <v>0.0524338</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0440819</v>
+        <v>0.0474669</v>
       </c>
       <c r="C5" t="n">
-        <v>0.044442</v>
+        <v>0.0447322</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0479524</v>
+        <v>0.0530454</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0444582</v>
+        <v>0.047608</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0446082</v>
+        <v>0.0448864</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0486671</v>
+        <v>0.05401</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0451956</v>
+        <v>0.047784</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0450097</v>
+        <v>0.0456935</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0493428</v>
+        <v>0.0550985</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0460965</v>
+        <v>0.0483527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0462589</v>
+        <v>0.0469612</v>
       </c>
       <c r="D8" t="n">
-        <v>0.051294</v>
+        <v>0.057792</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.047791</v>
+        <v>0.0491776</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0481247</v>
+        <v>0.0498901</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0499391</v>
+        <v>0.0522684</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0458114</v>
+        <v>0.0512293</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0443005</v>
+        <v>0.0456995</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0502282</v>
+        <v>0.0530036</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0458622</v>
+        <v>0.0510222</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0446277</v>
+        <v>0.047647</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0504799</v>
+        <v>0.0530759</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.045991</v>
+        <v>0.0512298</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0447735</v>
+        <v>0.0462172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0506972</v>
+        <v>0.053445</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0461357</v>
+        <v>0.0513909</v>
       </c>
       <c r="C13" t="n">
-        <v>0.045005</v>
+        <v>0.0485551</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0510382</v>
+        <v>0.0546035</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0462486</v>
+        <v>0.0514812</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0452274</v>
+        <v>0.0491311</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0513338</v>
+        <v>0.0544043</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0463676</v>
+        <v>0.0515468</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0454277</v>
+        <v>0.0494192</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0517144</v>
+        <v>0.0548439</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0465453</v>
+        <v>0.0516425</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0456549</v>
+        <v>0.0501272</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0518688</v>
+        <v>0.0553434</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0468067</v>
+        <v>0.0518411</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0459136</v>
+        <v>0.0495483</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0521815</v>
+        <v>0.0558681</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0471323</v>
+        <v>0.0520176</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0461482</v>
+        <v>0.0510806</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0525682</v>
+        <v>0.0563659</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0475625</v>
+        <v>0.0521635</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0464521</v>
+        <v>0.0517131</v>
       </c>
       <c r="D19" t="n">
-        <v>0.052941</v>
+        <v>0.0569081</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0481101</v>
+        <v>0.0524053</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0470937</v>
+        <v>0.0495977</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0537648</v>
+        <v>0.0592709</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0490852</v>
+        <v>0.052744</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0478865</v>
+        <v>0.053177</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0553759</v>
+        <v>0.0602277</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0506126</v>
+        <v>0.0532841</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0496284</v>
+        <v>0.0555824</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0592401</v>
+        <v>0.064508</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.053018</v>
+        <v>0.0544907</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0544768</v>
+        <v>0.060169</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0555289</v>
+        <v>0.0552597</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0563666</v>
+        <v>0.0575287</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0487518</v>
+        <v>0.0512576</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0555122</v>
+        <v>0.0562679</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0563652</v>
+        <v>0.0564172</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0491437</v>
+        <v>0.0503215</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0557652</v>
+        <v>0.0569649</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0564522</v>
+        <v>0.0564272</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0495111</v>
+        <v>0.0504347</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0560629</v>
+        <v>0.05716</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0565684</v>
+        <v>0.0565076</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0497597</v>
+        <v>0.0529424</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0563449</v>
+        <v>0.0575778</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.056798</v>
+        <v>0.0566677</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0502074</v>
+        <v>0.0521554</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0567026</v>
+        <v>0.0590037</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0568873</v>
+        <v>0.056776</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0504979</v>
+        <v>0.0519657</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0570251</v>
+        <v>0.0595951</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0571454</v>
+        <v>0.0572216</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0508343</v>
+        <v>0.0523868</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0574515</v>
+        <v>0.0592454</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0573354</v>
+        <v>0.0571047</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0512453</v>
+        <v>0.0530007</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0578271</v>
+        <v>0.0607619</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.057687</v>
+        <v>0.0573328</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0518888</v>
+        <v>0.0540372</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0584348</v>
+        <v>0.0617215</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0581788</v>
+        <v>0.0575494</v>
       </c>
       <c r="C33" t="n">
-        <v>0.052513</v>
+        <v>0.055969</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0592327</v>
+        <v>0.06078</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0588382</v>
+        <v>0.0581171</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0535105</v>
+        <v>0.0579706</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0609831</v>
+        <v>0.06352480000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.060447</v>
+        <v>0.0582932</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0553963</v>
+        <v>0.0595569</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0645133</v>
+        <v>0.06597459999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0615599</v>
+        <v>0.0596318</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0594341</v>
+        <v>0.0616065</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0706417</v>
+        <v>0.0729635</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0638595</v>
+        <v>0.061755</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0654435</v>
+        <v>0.0676036</v>
       </c>
       <c r="D37" t="n">
-        <v>0.061183</v>
+        <v>0.0609011</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.062532</v>
+        <v>0.0611776</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0540401</v>
+        <v>0.0580963</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0605023</v>
+        <v>0.0624501</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0612943</v>
+        <v>0.0609489</v>
       </c>
       <c r="C39" t="n">
-        <v>0.054429</v>
+        <v>0.0593204</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0607767</v>
+        <v>0.063139</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0613771</v>
+        <v>0.0609986</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0548332</v>
+        <v>0.0553686</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0610883</v>
+        <v>0.06317879999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0615233</v>
+        <v>0.0610995</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0552589</v>
+        <v>0.0606099</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0614442</v>
+        <v>0.0645126</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0616304</v>
+        <v>0.0611627</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0556759</v>
+        <v>0.0567309</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0617856</v>
+        <v>0.0647168</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0618149</v>
+        <v>0.0613244</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0561827</v>
+        <v>0.0575234</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0622205</v>
+        <v>0.06424920000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0620202</v>
+        <v>0.0615222</v>
       </c>
       <c r="C44" t="n">
-        <v>0.056618</v>
+        <v>0.0593223</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06267739999999999</v>
+        <v>0.0665631</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0622039</v>
+        <v>0.0616922</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0572038</v>
+        <v>0.0624831</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0632573</v>
+        <v>0.06702180000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0625423</v>
+        <v>0.061933</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0579873</v>
+        <v>0.0596168</v>
       </c>
       <c r="D46" t="n">
-        <v>0.064108</v>
+        <v>0.06765409999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0630462</v>
+        <v>0.0622545</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0590259</v>
+        <v>0.0647421</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06567870000000001</v>
+        <v>0.0701608</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0635471</v>
+        <v>0.0626009</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0607321</v>
+        <v>0.0659502</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06838710000000001</v>
+        <v>0.0727875</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06438439999999999</v>
+        <v>0.06323960000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06309140000000001</v>
+        <v>0.06792049999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0719432</v>
+        <v>0.0763913</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.065912</v>
+        <v>0.0647776</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0662288</v>
+        <v>0.0706903</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0768008</v>
+        <v>0.0813513</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0687479</v>
+        <v>0.0684029</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0706693</v>
+        <v>0.0744665</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0661713</v>
+        <v>0.068483</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0733362</v>
+        <v>0.0737604</v>
       </c>
       <c r="C52" t="n">
-        <v>0.07715320000000001</v>
+        <v>0.0811122</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0651838</v>
+        <v>0.0684516</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06915259999999999</v>
+        <v>0.0680253</v>
       </c>
       <c r="C53" t="n">
-        <v>0.060748</v>
+        <v>0.0592568</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0654815</v>
+        <v>0.0688743</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0684188</v>
+        <v>0.0676707</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0611171</v>
+        <v>0.0591668</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0658295</v>
+        <v>0.0683632</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0685143</v>
+        <v>0.0677329</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0615421</v>
+        <v>0.0610111</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0661398</v>
+        <v>0.0687281</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0686092</v>
+        <v>0.0678151</v>
       </c>
       <c r="C56" t="n">
-        <v>0.061963</v>
+        <v>0.0615989</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0665366</v>
+        <v>0.0693723</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0688014</v>
+        <v>0.0679181</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0623527</v>
+        <v>0.0627341</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0669193</v>
+        <v>0.0700933</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0689314</v>
+        <v>0.0681166</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0628861</v>
+        <v>0.0617316</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06749280000000001</v>
+        <v>0.0724243</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06920800000000001</v>
+        <v>0.06830319999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06347510000000001</v>
+        <v>0.0641637</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06816510000000001</v>
+        <v>0.0723485</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0694954</v>
+        <v>0.0686398</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0648629</v>
+        <v>0.0619306</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0693332</v>
+        <v>0.07474119999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0700013</v>
+        <v>0.0689549</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0657856</v>
+        <v>0.06344089999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0710911</v>
+        <v>0.0744524</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0706079</v>
+        <v>0.06948459999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.067163</v>
+        <v>0.0656403</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07350669999999999</v>
+        <v>0.07858030000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07156469999999999</v>
+        <v>0.07038469999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06928040000000001</v>
+        <v>0.070483</v>
       </c>
       <c r="D63" t="n">
-        <v>0.07670490000000001</v>
+        <v>0.0808701</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0732564</v>
+        <v>0.072245</v>
       </c>
       <c r="C64" t="n">
-        <v>0.072114</v>
+        <v>0.07448399999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08111069999999999</v>
+        <v>0.0876842</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07575750000000001</v>
+        <v>0.07497040000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0758485</v>
+        <v>0.07515579999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0876991</v>
+        <v>0.0937964</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0802235</v>
+        <v>0.07916430000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08170819999999999</v>
+        <v>0.083398</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0678903</v>
+        <v>0.07733859999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0743438</v>
+        <v>0.0775411</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0601551</v>
+        <v>0.07045949999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.067595</v>
+        <v>0.07789840000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0744054</v>
+        <v>0.0775776</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0604472</v>
+        <v>0.07106560000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0680037</v>
+        <v>0.078497</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0744838</v>
+        <v>0.07806689999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0608175</v>
+        <v>0.0717908</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0683496</v>
+        <v>0.07912379999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0744715</v>
+        <v>0.0780584</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0613561</v>
+        <v>0.07243719999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.06865549999999999</v>
+        <v>0.0797615</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0747886</v>
+        <v>0.0782505</v>
       </c>
       <c r="C71" t="n">
-        <v>0.061775</v>
+        <v>0.073214</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0691643</v>
+        <v>0.0803995</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0749833</v>
+        <v>0.0786002</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0623327</v>
+        <v>0.0740019</v>
       </c>
       <c r="D72" t="n">
-        <v>0.06980169999999999</v>
+        <v>0.0812427</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0752835</v>
+        <v>0.07918749999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0630893</v>
+        <v>0.0750841</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0707269</v>
+        <v>0.0823594</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07566249999999999</v>
+        <v>0.07933560000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0640602</v>
+        <v>0.0763336</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07208580000000001</v>
+        <v>0.08379880000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0762063</v>
+        <v>0.07981779999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06523039999999999</v>
+        <v>0.0776324</v>
       </c>
       <c r="D75" t="n">
-        <v>0.07371080000000001</v>
+        <v>0.0857262</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0767777</v>
+        <v>0.08033510000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.06667960000000001</v>
+        <v>0.0792698</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0758814</v>
+        <v>0.08790580000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0780213</v>
+        <v>0.0812243</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0685987</v>
+        <v>0.0812174</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0786169</v>
+        <v>0.09094869999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.079508</v>
+        <v>0.0828434</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0711953</v>
+        <v>0.08386879999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.082568</v>
+        <v>0.095017</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0819264</v>
+        <v>0.0852595</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0747434</v>
+        <v>0.0876021</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0886204</v>
+        <v>0.101219</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08610279999999999</v>
+        <v>0.0889567</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0798729</v>
+        <v>0.0929138</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0773206</v>
+        <v>0.136932</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0897878</v>
+        <v>0.18041</v>
       </c>
       <c r="C81" t="n">
-        <v>0.07072829999999999</v>
+        <v>0.156737</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0776715</v>
+        <v>0.138887</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0899529</v>
+        <v>0.182061</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0710872</v>
+        <v>0.156442</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0780343</v>
+        <v>0.139875</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.090255</v>
+        <v>0.183849</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0715674</v>
+        <v>0.159141</v>
       </c>
       <c r="D83" t="n">
-        <v>0.07839169999999999</v>
+        <v>0.14511</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0910367</v>
+        <v>0.183906</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0722164</v>
+        <v>0.162162</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0788412</v>
+        <v>0.148171</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.0912515</v>
+        <v>0.185151</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0726932</v>
+        <v>0.161294</v>
       </c>
       <c r="D85" t="n">
-        <v>0.07943409999999999</v>
+        <v>0.147109</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0917061</v>
+        <v>0.185746</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0733687</v>
+        <v>0.163715</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0800782</v>
+        <v>0.151536</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0919312</v>
+        <v>0.187133</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0740856</v>
+        <v>0.164739</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0809573</v>
+        <v>0.153999</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.09213449999999999</v>
+        <v>0.186245</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0749537</v>
+        <v>0.162904</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0821441</v>
+        <v>0.154004</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.0928752</v>
+        <v>0.186431</v>
       </c>
       <c r="C89" t="n">
-        <v>0.0758822</v>
+        <v>0.16507</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0835149</v>
+        <v>0.157581</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0933141</v>
+        <v>0.186094</v>
       </c>
       <c r="C90" t="n">
-        <v>0.07729080000000001</v>
+        <v>0.165288</v>
       </c>
       <c r="D90" t="n">
-        <v>0.08543770000000001</v>
+        <v>0.158429</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0949299</v>
+        <v>0.18701</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0794217</v>
+        <v>0.166369</v>
       </c>
       <c r="D91" t="n">
-        <v>0.088172</v>
+        <v>0.161872</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.09619709999999999</v>
+        <v>0.188303</v>
       </c>
       <c r="C92" t="n">
-        <v>0.0816799</v>
+        <v>0.168569</v>
       </c>
       <c r="D92" t="n">
-        <v>0.0918221</v>
+        <v>0.165133</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0980342</v>
+        <v>0.189558</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0850817</v>
+        <v>0.173261</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0974883</v>
+        <v>0.169758</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.101521</v>
+        <v>0.192422</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0901149</v>
+        <v>0.174997</v>
       </c>
       <c r="D94" t="n">
-        <v>0.180646</v>
+        <v>0.258732</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.202483</v>
+        <v>0.250754</v>
       </c>
       <c r="C95" t="n">
-        <v>0.173117</v>
+        <v>0.23275</v>
       </c>
       <c r="D95" t="n">
-        <v>0.180775</v>
+        <v>0.260449</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.202565</v>
+        <v>0.250501</v>
       </c>
       <c r="C96" t="n">
-        <v>0.176869</v>
+        <v>0.234894</v>
       </c>
       <c r="D96" t="n">
-        <v>0.184983</v>
+        <v>0.262768</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.204809</v>
+        <v>0.251271</v>
       </c>
       <c r="C97" t="n">
-        <v>0.175714</v>
+        <v>0.236391</v>
       </c>
       <c r="D97" t="n">
-        <v>0.185176</v>
+        <v>0.259258</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.203441</v>
+        <v>0.250597</v>
       </c>
       <c r="C98" t="n">
-        <v>0.177772</v>
+        <v>0.236825</v>
       </c>
       <c r="D98" t="n">
-        <v>0.186535</v>
+        <v>0.258191</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.203325</v>
+        <v>0.250889</v>
       </c>
       <c r="C99" t="n">
-        <v>0.176092</v>
+        <v>0.238801</v>
       </c>
       <c r="D99" t="n">
-        <v>0.185545</v>
+        <v>0.261507</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.204098</v>
+        <v>0.251797</v>
       </c>
       <c r="C100" t="n">
-        <v>0.178823</v>
+        <v>0.240804</v>
       </c>
       <c r="D100" t="n">
-        <v>0.188249</v>
+        <v>0.264031</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.203975</v>
+        <v>0.250638</v>
       </c>
       <c r="C101" t="n">
-        <v>0.178113</v>
+        <v>0.242643</v>
       </c>
       <c r="D101" t="n">
-        <v>0.187359</v>
+        <v>0.265972</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.203772</v>
+        <v>0.251461</v>
       </c>
       <c r="C102" t="n">
-        <v>0.179733</v>
+        <v>0.244439</v>
       </c>
       <c r="D102" t="n">
-        <v>0.190729</v>
+        <v>0.267849</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.203726</v>
+        <v>0.251625</v>
       </c>
       <c r="C103" t="n">
-        <v>0.17928</v>
+        <v>0.2461</v>
       </c>
       <c r="D103" t="n">
-        <v>0.189049</v>
+        <v>0.27108</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.203913</v>
+        <v>0.252049</v>
       </c>
       <c r="C104" t="n">
-        <v>0.182544</v>
+        <v>0.248226</v>
       </c>
       <c r="D104" t="n">
-        <v>0.193442</v>
+        <v>0.275218</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.205184</v>
+        <v>0.252911</v>
       </c>
       <c r="C105" t="n">
-        <v>0.182993</v>
+        <v>0.251536</v>
       </c>
       <c r="D105" t="n">
-        <v>0.194163</v>
+        <v>0.278468</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.205174</v>
+        <v>0.253755</v>
       </c>
       <c r="C106" t="n">
-        <v>0.185743</v>
+        <v>0.254402</v>
       </c>
       <c r="D106" t="n">
-        <v>0.197968</v>
+        <v>0.282163</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.208312</v>
+        <v>0.254992</v>
       </c>
       <c r="C107" t="n">
-        <v>0.187214</v>
+        <v>0.258673</v>
       </c>
       <c r="D107" t="n">
-        <v>0.200259</v>
+        <v>0.288646</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.208363</v>
+        <v>0.257889</v>
       </c>
       <c r="C108" t="n">
-        <v>0.191859</v>
+        <v>0.2635</v>
       </c>
       <c r="D108" t="n">
-        <v>0.272073</v>
+        <v>0.307552</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.214589</v>
+        <v>0.262674</v>
       </c>
       <c r="C109" t="n">
-        <v>0.197636</v>
+        <v>0.271145</v>
       </c>
       <c r="D109" t="n">
-        <v>0.273162</v>
+        <v>0.309758</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.276935</v>
+        <v>0.288249</v>
       </c>
       <c r="C110" t="n">
-        <v>0.235588</v>
+        <v>0.273365</v>
       </c>
       <c r="D110" t="n">
-        <v>0.273731</v>
+        <v>0.312309</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.277407</v>
+        <v>0.288496</v>
       </c>
       <c r="C111" t="n">
-        <v>0.236691</v>
+        <v>0.27623</v>
       </c>
       <c r="D111" t="n">
-        <v>0.274328</v>
+        <v>0.315244</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.276825</v>
+        <v>0.286123</v>
       </c>
       <c r="C112" t="n">
-        <v>0.237396</v>
+        <v>0.278828</v>
       </c>
       <c r="D112" t="n">
-        <v>0.275983</v>
+        <v>0.31708</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.277579</v>
+        <v>0.288051</v>
       </c>
       <c r="C113" t="n">
-        <v>0.238412</v>
+        <v>0.280656</v>
       </c>
       <c r="D113" t="n">
-        <v>0.276688</v>
+        <v>0.318524</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.276437</v>
+        <v>0.28933</v>
       </c>
       <c r="C114" t="n">
-        <v>0.239452</v>
+        <v>0.283481</v>
       </c>
       <c r="D114" t="n">
-        <v>0.278852</v>
+        <v>0.321617</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.275326</v>
+        <v>0.288508</v>
       </c>
       <c r="C115" t="n">
-        <v>0.241725</v>
+        <v>0.285457</v>
       </c>
       <c r="D115" t="n">
-        <v>0.279395</v>
+        <v>0.323708</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.279129</v>
+        <v>0.287121</v>
       </c>
       <c r="C116" t="n">
-        <v>0.242225</v>
+        <v>0.28781</v>
       </c>
       <c r="D116" t="n">
-        <v>0.281613</v>
+        <v>0.325764</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.278683</v>
+        <v>0.289274</v>
       </c>
       <c r="C117" t="n">
-        <v>0.24376</v>
+        <v>0.290618</v>
       </c>
       <c r="D117" t="n">
-        <v>0.283955</v>
+        <v>0.328898</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.277451</v>
+        <v>0.288955</v>
       </c>
       <c r="C118" t="n">
-        <v>0.246221</v>
+        <v>0.293875</v>
       </c>
       <c r="D118" t="n">
-        <v>0.287386</v>
+        <v>0.333105</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.279606</v>
+        <v>0.289592</v>
       </c>
       <c r="C119" t="n">
-        <v>0.249369</v>
+        <v>0.297314</v>
       </c>
       <c r="D119" t="n">
-        <v>0.290566</v>
+        <v>0.336771</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.279602</v>
+        <v>0.288753</v>
       </c>
       <c r="C120" t="n">
-        <v>0.25291</v>
+        <v>0.301755</v>
       </c>
       <c r="D120" t="n">
-        <v>0.295255</v>
+        <v>0.342684</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.281802</v>
+        <v>0.293675</v>
       </c>
       <c r="C121" t="n">
-        <v>0.256546</v>
+        <v>0.306666</v>
       </c>
       <c r="D121" t="n">
-        <v>0.300254</v>
+        <v>0.350772</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.283706</v>
+        <v>0.293634</v>
       </c>
       <c r="C122" t="n">
-        <v>0.26254</v>
+        <v>0.314136</v>
       </c>
       <c r="D122" t="n">
-        <v>0.30941</v>
+        <v>0.361037</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.287194</v>
+        <v>0.299285</v>
       </c>
       <c r="C123" t="n">
-        <v>0.269903</v>
+        <v>0.32448</v>
       </c>
       <c r="D123" t="n">
-        <v>0.313002</v>
+        <v>0.345047</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.369638</v>
+        <v>0.368167</v>
       </c>
       <c r="C124" t="n">
-        <v>0.265304</v>
+        <v>0.302946</v>
       </c>
       <c r="D124" t="n">
-        <v>0.314203</v>
+        <v>0.347188</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.368857</v>
+        <v>0.3671</v>
       </c>
       <c r="C125" t="n">
-        <v>0.26584</v>
+        <v>0.305688</v>
       </c>
       <c r="D125" t="n">
-        <v>0.315161</v>
+        <v>0.348922</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.369168</v>
+        <v>0.367984</v>
       </c>
       <c r="C126" t="n">
-        <v>0.266656</v>
+        <v>0.308254</v>
       </c>
       <c r="D126" t="n">
-        <v>0.316511</v>
+        <v>0.350804</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.369046</v>
+        <v>0.368312</v>
       </c>
       <c r="C127" t="n">
-        <v>0.267929</v>
+        <v>0.310245</v>
       </c>
       <c r="D127" t="n">
-        <v>0.317529</v>
+        <v>0.352362</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.369704</v>
+        <v>0.367907</v>
       </c>
       <c r="C128" t="n">
-        <v>0.269438</v>
+        <v>0.313014</v>
       </c>
       <c r="D128" t="n">
-        <v>0.319114</v>
+        <v>0.354995</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.370364</v>
+        <v>0.369597</v>
       </c>
       <c r="C129" t="n">
-        <v>0.271242</v>
+        <v>0.315627</v>
       </c>
       <c r="D129" t="n">
-        <v>0.321066</v>
+        <v>0.357165</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.370755</v>
+        <v>0.368224</v>
       </c>
       <c r="C130" t="n">
-        <v>0.273231</v>
+        <v>0.318194</v>
       </c>
       <c r="D130" t="n">
-        <v>0.323355</v>
+        <v>0.360162</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.370699</v>
+        <v>0.368205</v>
       </c>
       <c r="C131" t="n">
-        <v>0.276084</v>
+        <v>0.321218</v>
       </c>
       <c r="D131" t="n">
-        <v>0.326862</v>
+        <v>0.363229</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.369435</v>
+        <v>0.370286</v>
       </c>
       <c r="C132" t="n">
-        <v>0.278588</v>
+        <v>0.325062</v>
       </c>
       <c r="D132" t="n">
-        <v>0.329389</v>
+        <v>0.367647</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.371931</v>
+        <v>0.368451</v>
       </c>
       <c r="C133" t="n">
-        <v>0.281986</v>
+        <v>0.328214</v>
       </c>
       <c r="D133" t="n">
-        <v>0.333819</v>
+        <v>0.372103</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.37122</v>
+        <v>0.371074</v>
       </c>
       <c r="C134" t="n">
-        <v>0.286086</v>
+        <v>0.333187</v>
       </c>
       <c r="D134" t="n">
-        <v>0.339134</v>
+        <v>0.378703</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.373413</v>
+        <v>0.372423</v>
       </c>
       <c r="C135" t="n">
-        <v>0.286124</v>
+        <v>0.338698</v>
       </c>
       <c r="D135" t="n">
-        <v>0.346956</v>
+        <v>0.387012</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.375323</v>
+        <v>0.37254</v>
       </c>
       <c r="C136" t="n">
-        <v>0.294008</v>
+        <v>0.346658</v>
       </c>
       <c r="D136" t="n">
-        <v>0.353082</v>
+        <v>0.399317</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.378423</v>
+        <v>0.378558</v>
       </c>
       <c r="C137" t="n">
-        <v>0.303754</v>
+        <v>0.357316</v>
       </c>
       <c r="D137" t="n">
-        <v>0.335242</v>
+        <v>0.364532</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.436196</v>
+        <v>0.432142</v>
       </c>
       <c r="C138" t="n">
-        <v>0.283139</v>
+        <v>0.323542</v>
       </c>
       <c r="D138" t="n">
-        <v>0.336341</v>
+        <v>0.366302</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.435939</v>
+        <v>0.432447</v>
       </c>
       <c r="C139" t="n">
-        <v>0.284188</v>
+        <v>0.325483</v>
       </c>
       <c r="D139" t="n">
-        <v>0.337623</v>
+        <v>0.367786</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.43592</v>
+        <v>0.432335</v>
       </c>
       <c r="C140" t="n">
-        <v>0.285356</v>
+        <v>0.327786</v>
       </c>
       <c r="D140" t="n">
-        <v>0.33891</v>
+        <v>0.369922</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.436447</v>
+        <v>0.432268</v>
       </c>
       <c r="C141" t="n">
-        <v>0.286726</v>
+        <v>0.330062</v>
       </c>
       <c r="D141" t="n">
-        <v>0.340304</v>
+        <v>0.37187</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4366</v>
+        <v>0.432632</v>
       </c>
       <c r="C142" t="n">
-        <v>0.288168</v>
+        <v>0.333047</v>
       </c>
       <c r="D142" t="n">
-        <v>0.341834</v>
+        <v>0.374557</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.436409</v>
+        <v>0.432731</v>
       </c>
       <c r="C143" t="n">
-        <v>0.29027</v>
+        <v>0.335058</v>
       </c>
       <c r="D143" t="n">
-        <v>0.343736</v>
+        <v>0.376647</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0198274</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0198243</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0198059</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0199393</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0198465</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0200695</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0203167</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.0207984</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.019398</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0196474</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0198002</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0198351</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.020005</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.0201547</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0202387</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0202416</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0205515</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.020734</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0208632</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0212432</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.0218651</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.0253637</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0203899</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.0204771</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0206748</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.0207843</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.0210829</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0211716</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0214289</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0215001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0218002</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0221683</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0231472</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.0257742</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.0289348</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.0322824</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0214691</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0217903</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0219112</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0219809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0221479</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0224448</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.02262</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0231701</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0235929</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.024466</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0257139</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0282271</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0303257</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.0351291</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.0408898</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0231879</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0233257</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.0235135</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0237414</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0239179</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0244805</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0248999</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0254771</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.0265139</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0280363</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0300505</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0328613</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.036562</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.0420912</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0291857</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0293683</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0294951</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.029813</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0300128</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302796</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.030801</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.031446</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0324341</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0335695</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0353551</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0378182</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.0410501</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.0456478</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0552817</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0555326</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0556777</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0557553</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0559421</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0562511</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.056543</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.056954</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0573628</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0581532</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.0593444</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.0607396</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.06325</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.0670234</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.086252</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0863121</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.08631</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.08640920000000001</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0864456</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.08653959999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.0867363</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0870079</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0874346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0880908</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.08892</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.0899819</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.0920994</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.0950337</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.100164</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.113889</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.114021</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.114114</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.114157</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.114198</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.114387</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.114667</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.115047</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.115835</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.116215</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.117455</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.122216</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.130657</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.140904</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.140713</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.140603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.140544</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.140461</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.140955</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.142695</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.141111</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.141474</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.141584</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.144383</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.144338</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.146809</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.150574</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.157534</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.15768</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.157841</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.170985</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.158043</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.158496</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.01963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0195504</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0196026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0196237</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0194434</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.0196089</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0196438</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.019683</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0206908</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0208145</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0208233</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0208079</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0210678</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.0211339</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.021293</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0213755</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0214194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0216061</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0216834</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0216891</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.021814</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.02224</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0218223</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.021951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0222832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.0225478</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0226653</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0228678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0232795</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0234118</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0236239</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0237577</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0245297</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0248515</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0259781</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.028096</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0231379</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0235392</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0237383</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0240298</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0242845</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0248099</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0251381</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0255035</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.026017</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0265204</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0273233</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.0288886</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0309086</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.035125</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.0395813</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0250602</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0252618</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.0256001</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0259637</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0263006</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0266533</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.027142</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0277574</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0284471</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0293755</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.0310293</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0333401</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.0369138</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.0422301</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.027755</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.028318</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0282048</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0288949</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0291466</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0296631</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.0302154</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.0308858</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0317299</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.0327248</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0344036</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.0365419</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.0395077</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.0440142</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0384812</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0393181</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0400471</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0410283</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0422285</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0436636</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0450427</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0465122</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.048317</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0499665</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0516792</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.0540677</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.0567184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.0613213</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.07599069999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0765213</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0769676</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.07758429999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0782827</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0789179</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.07968980000000001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0805656</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0816693</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0863792</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.08411639999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.0859486</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.08840779999999999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.0922501</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.0984163</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0907982</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0916492</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.092555</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0937095</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.09565650000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.103513</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0973205</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0988463</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.100303</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.102148</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.104312</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.107029</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.111037</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.116985</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.102804</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.108721</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.105795</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.107499</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.109135</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.111421</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.113514</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.114964</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.116895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.119313</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.121782</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.124925</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.12911</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.135094</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.116615</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.118091</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.119623</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.121247</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.122801</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.12453</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0210661</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0210821</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0210432</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0210228</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0211017</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.021451</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0215967</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.021032</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.021237</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0214398</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0216389</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0217625</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0220811</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0221537</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0222621</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.022351</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0223659</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.0223994</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0224787</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0225969</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0229866</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0224424</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0227148</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0228976</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0231426</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0233641</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0236678</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0238622</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0240883</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0241209</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0243341</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249996</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0258005</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0317443</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0235387</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0237574</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0240607</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0243991</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0246515</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0249339</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0252916</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0255331</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0260222</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0266838</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0278203</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0305126</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0344632</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.0242031</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0243873</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0246308</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0248962</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0251551</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0255061</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.025758</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0261621</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0266822</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.027176</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0279736</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.0294383</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0324535</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0364486</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.042747</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.0261578</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0266345</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0270048</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0274462</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0276478</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0280925</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0295698</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.0301268</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0308125</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0310039</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0325978</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0358014</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.0390005</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0449875</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0407134</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0414223</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0420164</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0428758</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0435859</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.0441158</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0451214</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.045933</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0468684</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0477272</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0490508</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0513003</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0542639</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0587909</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.08060109999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.08116420000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0815678</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.08204690000000001</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.08264589999999999</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0832561</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0837205</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0845051</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.08527559999999999</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0864844</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0876881</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.08924799999999999</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.096528</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0955449</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0975452</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0983436</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0990383</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.09986689999999999</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.100985</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.101987</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.102746</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.10438</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.105384</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.106778</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.108591</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.110691</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.113494</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.117535</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.123795</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.115482</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.116645</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.1179</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.119136</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.12028</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.121788</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.123885</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.125833</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.1268</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.129052</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.132444</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.134565</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.138824</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.145371</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.129339</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.130682</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.131871</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.133153</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.134562</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.135784</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.137311</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0467311</v>
+        <v>0.0482504</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0454069</v>
+        <v>0.0456884</v>
       </c>
       <c r="D2" t="n">
-        <v>0.051671</v>
+        <v>0.0539505</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0468485</v>
+        <v>0.04834</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0441307</v>
+        <v>0.0460601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0520663</v>
+        <v>0.0542098</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0471828</v>
+        <v>0.0487418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0445938</v>
+        <v>0.0462292</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0524338</v>
+        <v>0.054481</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0474669</v>
+        <v>0.0488592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0447322</v>
+        <v>0.0464341</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0530454</v>
+        <v>0.0548142</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.047608</v>
+        <v>0.0488691</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0448864</v>
+        <v>0.0467434</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05401</v>
+        <v>0.0549031</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.047784</v>
+        <v>0.0489675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0456935</v>
+        <v>0.0475243</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0550985</v>
+        <v>0.0564505</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0483527</v>
+        <v>0.0497842</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0469612</v>
+        <v>0.0484785</v>
       </c>
       <c r="D8" t="n">
-        <v>0.057792</v>
+        <v>0.0588732</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0491776</v>
+        <v>0.0504687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0498901</v>
+        <v>0.0501683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0522684</v>
+        <v>0.0526248</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0512293</v>
+        <v>0.0496975</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0456995</v>
+        <v>0.0463867</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0530036</v>
+        <v>0.0531207</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0510222</v>
+        <v>0.0497799</v>
       </c>
       <c r="C11" t="n">
-        <v>0.047647</v>
+        <v>0.0466895</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0530759</v>
+        <v>0.0535371</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0512298</v>
+        <v>0.0496455</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0462172</v>
+        <v>0.0467681</v>
       </c>
       <c r="D12" t="n">
-        <v>0.053445</v>
+        <v>0.0539264</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0513909</v>
+        <v>0.0497442</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0485551</v>
+        <v>0.0471118</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0546035</v>
+        <v>0.0542913</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0514812</v>
+        <v>0.0498033</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0491311</v>
+        <v>0.0474101</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0544043</v>
+        <v>0.0547093</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0515468</v>
+        <v>0.0501649</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0494192</v>
+        <v>0.0477335</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0548439</v>
+        <v>0.0546411</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0516425</v>
+        <v>0.0502931</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0501272</v>
+        <v>0.048034</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0553434</v>
+        <v>0.0549737</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0518411</v>
+        <v>0.0506718</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0495483</v>
+        <v>0.0484139</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0558681</v>
+        <v>0.0553871</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0520176</v>
+        <v>0.0508343</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0510806</v>
+        <v>0.0486876</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0563659</v>
+        <v>0.0560535</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0521635</v>
+        <v>0.050962</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0517131</v>
+        <v>0.0491582</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0569081</v>
+        <v>0.0564831</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0524053</v>
+        <v>0.0510682</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0495977</v>
+        <v>0.0495644</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0592709</v>
+        <v>0.05724</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.052744</v>
+        <v>0.0514909</v>
       </c>
       <c r="C21" t="n">
-        <v>0.053177</v>
+        <v>0.0505143</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0602277</v>
+        <v>0.0587205</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0532841</v>
+        <v>0.0520518</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0555824</v>
+        <v>0.0524778</v>
       </c>
       <c r="D22" t="n">
-        <v>0.064508</v>
+        <v>0.0634234</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0544907</v>
+        <v>0.0533353</v>
       </c>
       <c r="C23" t="n">
-        <v>0.060169</v>
+        <v>0.057346</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0552597</v>
+        <v>0.0578246</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0575287</v>
+        <v>0.0560148</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0512576</v>
+        <v>0.052301</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0562679</v>
+        <v>0.0583948</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0564172</v>
+        <v>0.0552312</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0503215</v>
+        <v>0.0520688</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0569649</v>
+        <v>0.0587469</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0564272</v>
+        <v>0.0552803</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0504347</v>
+        <v>0.0529332</v>
       </c>
       <c r="D26" t="n">
-        <v>0.05716</v>
+        <v>0.0585719</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0565076</v>
+        <v>0.0553364</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0529424</v>
+        <v>0.053145</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0575778</v>
+        <v>0.0589185</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0566677</v>
+        <v>0.0554885</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0521554</v>
+        <v>0.0534821</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0590037</v>
+        <v>0.0593689</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.056776</v>
+        <v>0.0556114</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0519657</v>
+        <v>0.0536742</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0595951</v>
+        <v>0.0604262</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0572216</v>
+        <v>0.0557421</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0523868</v>
+        <v>0.0538299</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0592454</v>
+        <v>0.0608461</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0571047</v>
+        <v>0.055866</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0530007</v>
+        <v>0.0541491</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0607619</v>
+        <v>0.0612752</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0573328</v>
+        <v>0.0560976</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0540372</v>
+        <v>0.0547672</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0617215</v>
+        <v>0.0617575</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0575494</v>
+        <v>0.0562727</v>
       </c>
       <c r="C33" t="n">
-        <v>0.055969</v>
+        <v>0.0554481</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06078</v>
+        <v>0.0626336</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0581171</v>
+        <v>0.0565408</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0579706</v>
+        <v>0.0564646</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06352480000000001</v>
+        <v>0.0641849</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0582932</v>
+        <v>0.0570425</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0595569</v>
+        <v>0.0586273</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06597459999999999</v>
+        <v>0.0673025</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0596318</v>
+        <v>0.0578232</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0616065</v>
+        <v>0.0622465</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0729635</v>
+        <v>0.0737753</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.061755</v>
+        <v>0.0603327</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0676036</v>
+        <v>0.06829159999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0609011</v>
+        <v>0.06350840000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0611776</v>
+        <v>0.0607092</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0580963</v>
+        <v>0.0578036</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0624501</v>
+        <v>0.0642928</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0609489</v>
+        <v>0.0595507</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0593204</v>
+        <v>0.0579762</v>
       </c>
       <c r="D39" t="n">
-        <v>0.063139</v>
+        <v>0.0647221</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0609986</v>
+        <v>0.0596044</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0553686</v>
+        <v>0.0585985</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06317879999999999</v>
+        <v>0.0652687</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0610995</v>
+        <v>0.0597336</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0606099</v>
+        <v>0.0587591</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0645126</v>
+        <v>0.0650367</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0611627</v>
+        <v>0.0597942</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0567309</v>
+        <v>0.0594442</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0647168</v>
+        <v>0.0661578</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0613244</v>
+        <v>0.0599468</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0575234</v>
+        <v>0.0597296</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06424920000000001</v>
+        <v>0.06566909999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0615222</v>
+        <v>0.0601034</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0593223</v>
+        <v>0.0603793</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0665631</v>
+        <v>0.06713180000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0616922</v>
+        <v>0.0603016</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0624831</v>
+        <v>0.0605851</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06702180000000001</v>
+        <v>0.0681268</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.061933</v>
+        <v>0.0605346</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0596168</v>
+        <v>0.0613683</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06765409999999999</v>
+        <v>0.0679612</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0622545</v>
+        <v>0.0608563</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0647421</v>
+        <v>0.0625735</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0701608</v>
+        <v>0.0703992</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0626009</v>
+        <v>0.0612191</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0659502</v>
+        <v>0.06439739999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0727875</v>
+        <v>0.0717304</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06323960000000001</v>
+        <v>0.0619152</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06792049999999999</v>
+        <v>0.0667904</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0763913</v>
+        <v>0.0765875</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0647776</v>
+        <v>0.06334330000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0706903</v>
+        <v>0.0700021</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0813513</v>
+        <v>0.08118450000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0684029</v>
+        <v>0.06691220000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0744665</v>
+        <v>0.07463880000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.068483</v>
+        <v>0.0694507</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0737604</v>
+        <v>0.07230540000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0811122</v>
+        <v>0.0810995</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0684516</v>
+        <v>0.0692171</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0680253</v>
+        <v>0.068346</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0592568</v>
+        <v>0.0590103</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0688743</v>
+        <v>0.069454</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0676707</v>
+        <v>0.0677963</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0591668</v>
+        <v>0.0593632</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0683632</v>
+        <v>0.0698391</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0677329</v>
+        <v>0.067855</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0610111</v>
+        <v>0.0605258</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0687281</v>
+        <v>0.06893440000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0678151</v>
+        <v>0.0678556</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0615989</v>
+        <v>0.059955</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0693723</v>
+        <v>0.07085710000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0679181</v>
+        <v>0.0680246</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0627341</v>
+        <v>0.0613682</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0700933</v>
+        <v>0.07093389999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0681166</v>
+        <v>0.0682053</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0617316</v>
+        <v>0.0615143</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0724243</v>
+        <v>0.0697769</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06830319999999999</v>
+        <v>0.06840739999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0641637</v>
+        <v>0.06284480000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0723485</v>
+        <v>0.07332619999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0686398</v>
+        <v>0.0685996</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0619306</v>
+        <v>0.0635376</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07474119999999999</v>
+        <v>0.07396759999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0689549</v>
+        <v>0.0689298</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06344089999999999</v>
+        <v>0.06476999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0744524</v>
+        <v>0.07589170000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06948459999999999</v>
+        <v>0.0694206</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0656403</v>
+        <v>0.0669413</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07858030000000001</v>
+        <v>0.07647329999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07038469999999999</v>
+        <v>0.07046620000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.070483</v>
+        <v>0.0695895</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0808701</v>
+        <v>0.0808175</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.072245</v>
+        <v>0.0723009</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07448399999999999</v>
+        <v>0.0718589</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0876842</v>
+        <v>0.0854722</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07497040000000001</v>
+        <v>0.0749272</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07515579999999999</v>
+        <v>0.074832</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0937964</v>
+        <v>0.0915445</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07916430000000001</v>
+        <v>0.079086</v>
       </c>
       <c r="C66" t="n">
-        <v>0.083398</v>
+        <v>0.08067009999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07733859999999999</v>
+        <v>0.072002</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0775411</v>
+        <v>0.0797421</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07045949999999999</v>
+        <v>0.0642016</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07789840000000001</v>
+        <v>0.07239859999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0775776</v>
+        <v>0.080336</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07106560000000001</v>
+        <v>0.0649368</v>
       </c>
       <c r="D68" t="n">
-        <v>0.078497</v>
+        <v>0.0730214</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07806689999999999</v>
+        <v>0.0806042</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0717908</v>
+        <v>0.0654781</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07912379999999999</v>
+        <v>0.07339859999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0780584</v>
+        <v>0.08094519999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07243719999999999</v>
+        <v>0.0660483</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0797615</v>
+        <v>0.0739602</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0782505</v>
+        <v>0.08113960000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.073214</v>
+        <v>0.0665688</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0803995</v>
+        <v>0.07465189999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0786002</v>
+        <v>0.08136160000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0740019</v>
+        <v>0.067431</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0812427</v>
+        <v>0.0763991</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07918749999999999</v>
+        <v>0.0816298</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0750841</v>
+        <v>0.0684507</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0823594</v>
+        <v>0.0763607</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07933560000000001</v>
+        <v>0.0818318</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0763336</v>
+        <v>0.06968149999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08379880000000001</v>
+        <v>0.077746</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07981779999999999</v>
+        <v>0.0821279</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0776324</v>
+        <v>0.0708246</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0857262</v>
+        <v>0.0794574</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08033510000000001</v>
+        <v>0.0828859</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0792698</v>
+        <v>0.07261860000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08790580000000001</v>
+        <v>0.081523</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0812243</v>
+        <v>0.08377039999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0812174</v>
+        <v>0.0744114</v>
       </c>
       <c r="D77" t="n">
-        <v>0.09094869999999999</v>
+        <v>0.08437119999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0828434</v>
+        <v>0.0855273</v>
       </c>
       <c r="C78" t="n">
-        <v>0.08386879999999999</v>
+        <v>0.0771717</v>
       </c>
       <c r="D78" t="n">
-        <v>0.095017</v>
+        <v>0.0883451</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0852595</v>
+        <v>0.08787880000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0876021</v>
+        <v>0.0808513</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101219</v>
+        <v>0.0950196</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0889567</v>
+        <v>0.09145010000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0929138</v>
+        <v>0.0861929</v>
       </c>
       <c r="D80" t="n">
-        <v>0.136932</v>
+        <v>0.124552</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.18041</v>
+        <v>0.18343</v>
       </c>
       <c r="C81" t="n">
-        <v>0.156737</v>
+        <v>0.15755</v>
       </c>
       <c r="D81" t="n">
-        <v>0.138887</v>
+        <v>0.127044</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182061</v>
+        <v>0.182125</v>
       </c>
       <c r="C82" t="n">
-        <v>0.156442</v>
+        <v>0.155346</v>
       </c>
       <c r="D82" t="n">
-        <v>0.139875</v>
+        <v>0.124281</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183849</v>
+        <v>0.181519</v>
       </c>
       <c r="C83" t="n">
-        <v>0.159141</v>
+        <v>0.158972</v>
       </c>
       <c r="D83" t="n">
-        <v>0.14511</v>
+        <v>0.131193</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183906</v>
+        <v>0.184588</v>
       </c>
       <c r="C84" t="n">
-        <v>0.162162</v>
+        <v>0.15773</v>
       </c>
       <c r="D84" t="n">
-        <v>0.148171</v>
+        <v>0.134322</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.185151</v>
+        <v>0.181905</v>
       </c>
       <c r="C85" t="n">
-        <v>0.161294</v>
+        <v>0.158917</v>
       </c>
       <c r="D85" t="n">
-        <v>0.147109</v>
+        <v>0.134486</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185746</v>
+        <v>0.185474</v>
       </c>
       <c r="C86" t="n">
-        <v>0.163715</v>
+        <v>0.158441</v>
       </c>
       <c r="D86" t="n">
-        <v>0.151536</v>
+        <v>0.137684</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.187133</v>
+        <v>0.18241</v>
       </c>
       <c r="C87" t="n">
-        <v>0.164739</v>
+        <v>0.160863</v>
       </c>
       <c r="D87" t="n">
-        <v>0.153999</v>
+        <v>0.140945</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.186245</v>
+        <v>0.185611</v>
       </c>
       <c r="C88" t="n">
-        <v>0.162904</v>
+        <v>0.159618</v>
       </c>
       <c r="D88" t="n">
-        <v>0.154004</v>
+        <v>0.142833</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.186431</v>
+        <v>0.185374</v>
       </c>
       <c r="C89" t="n">
-        <v>0.16507</v>
+        <v>0.162905</v>
       </c>
       <c r="D89" t="n">
-        <v>0.157581</v>
+        <v>0.146812</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.186094</v>
+        <v>0.187025</v>
       </c>
       <c r="C90" t="n">
-        <v>0.165288</v>
+        <v>0.161234</v>
       </c>
       <c r="D90" t="n">
-        <v>0.158429</v>
+        <v>0.14718</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18701</v>
+        <v>0.185295</v>
       </c>
       <c r="C91" t="n">
-        <v>0.166369</v>
+        <v>0.165557</v>
       </c>
       <c r="D91" t="n">
-        <v>0.161872</v>
+        <v>0.152224</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188303</v>
+        <v>0.188165</v>
       </c>
       <c r="C92" t="n">
-        <v>0.168569</v>
+        <v>0.1671</v>
       </c>
       <c r="D92" t="n">
-        <v>0.165133</v>
+        <v>0.15498</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189558</v>
+        <v>0.189142</v>
       </c>
       <c r="C93" t="n">
-        <v>0.173261</v>
+        <v>0.169202</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169758</v>
+        <v>0.159582</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192422</v>
+        <v>0.191312</v>
       </c>
       <c r="C94" t="n">
-        <v>0.174997</v>
+        <v>0.176408</v>
       </c>
       <c r="D94" t="n">
-        <v>0.258732</v>
+        <v>0.240252</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250754</v>
+        <v>0.250161</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23275</v>
+        <v>0.229029</v>
       </c>
       <c r="D95" t="n">
-        <v>0.260449</v>
+        <v>0.242863</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250501</v>
+        <v>0.250016</v>
       </c>
       <c r="C96" t="n">
-        <v>0.234894</v>
+        <v>0.230281</v>
       </c>
       <c r="D96" t="n">
-        <v>0.262768</v>
+        <v>0.245217</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.251271</v>
+        <v>0.25035</v>
       </c>
       <c r="C97" t="n">
-        <v>0.236391</v>
+        <v>0.231807</v>
       </c>
       <c r="D97" t="n">
-        <v>0.259258</v>
+        <v>0.247462</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.250597</v>
+        <v>0.249716</v>
       </c>
       <c r="C98" t="n">
-        <v>0.236825</v>
+        <v>0.232845</v>
       </c>
       <c r="D98" t="n">
-        <v>0.258191</v>
+        <v>0.248992</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.250889</v>
+        <v>0.24998</v>
       </c>
       <c r="C99" t="n">
-        <v>0.238801</v>
+        <v>0.234076</v>
       </c>
       <c r="D99" t="n">
-        <v>0.261507</v>
+        <v>0.251277</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.251797</v>
+        <v>0.250132</v>
       </c>
       <c r="C100" t="n">
-        <v>0.240804</v>
+        <v>0.235608</v>
       </c>
       <c r="D100" t="n">
-        <v>0.264031</v>
+        <v>0.254057</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.250638</v>
+        <v>0.250025</v>
       </c>
       <c r="C101" t="n">
-        <v>0.242643</v>
+        <v>0.237151</v>
       </c>
       <c r="D101" t="n">
-        <v>0.265972</v>
+        <v>0.255393</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.251461</v>
+        <v>0.250173</v>
       </c>
       <c r="C102" t="n">
-        <v>0.244439</v>
+        <v>0.238408</v>
       </c>
       <c r="D102" t="n">
-        <v>0.267849</v>
+        <v>0.257696</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.251625</v>
+        <v>0.250516</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2461</v>
+        <v>0.240699</v>
       </c>
       <c r="D103" t="n">
-        <v>0.27108</v>
+        <v>0.260498</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.252049</v>
+        <v>0.25106</v>
       </c>
       <c r="C104" t="n">
-        <v>0.248226</v>
+        <v>0.24258</v>
       </c>
       <c r="D104" t="n">
-        <v>0.275218</v>
+        <v>0.263303</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.252911</v>
+        <v>0.251419</v>
       </c>
       <c r="C105" t="n">
-        <v>0.251536</v>
+        <v>0.244601</v>
       </c>
       <c r="D105" t="n">
-        <v>0.278468</v>
+        <v>0.266291</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.253755</v>
+        <v>0.252412</v>
       </c>
       <c r="C106" t="n">
-        <v>0.254402</v>
+        <v>0.247946</v>
       </c>
       <c r="D106" t="n">
-        <v>0.282163</v>
+        <v>0.270005</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254992</v>
+        <v>0.254791</v>
       </c>
       <c r="C107" t="n">
-        <v>0.258673</v>
+        <v>0.251092</v>
       </c>
       <c r="D107" t="n">
-        <v>0.288646</v>
+        <v>0.274391</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.257889</v>
+        <v>0.257059</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2635</v>
+        <v>0.256632</v>
       </c>
       <c r="D108" t="n">
-        <v>0.307552</v>
+        <v>0.30144</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.262674</v>
+        <v>0.261218</v>
       </c>
       <c r="C109" t="n">
-        <v>0.271145</v>
+        <v>0.263622</v>
       </c>
       <c r="D109" t="n">
-        <v>0.309758</v>
+        <v>0.303026</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.288249</v>
+        <v>0.287133</v>
       </c>
       <c r="C110" t="n">
-        <v>0.273365</v>
+        <v>0.257409</v>
       </c>
       <c r="D110" t="n">
-        <v>0.312309</v>
+        <v>0.304692</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.288496</v>
+        <v>0.286864</v>
       </c>
       <c r="C111" t="n">
-        <v>0.27623</v>
+        <v>0.259156</v>
       </c>
       <c r="D111" t="n">
-        <v>0.315244</v>
+        <v>0.306858</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286123</v>
+        <v>0.285111</v>
       </c>
       <c r="C112" t="n">
-        <v>0.278828</v>
+        <v>0.258645</v>
       </c>
       <c r="D112" t="n">
-        <v>0.31708</v>
+        <v>0.309235</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.288051</v>
+        <v>0.286843</v>
       </c>
       <c r="C113" t="n">
-        <v>0.280656</v>
+        <v>0.261536</v>
       </c>
       <c r="D113" t="n">
-        <v>0.318524</v>
+        <v>0.311309</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28933</v>
+        <v>0.28687</v>
       </c>
       <c r="C114" t="n">
-        <v>0.283481</v>
+        <v>0.263703</v>
       </c>
       <c r="D114" t="n">
-        <v>0.321617</v>
+        <v>0.313812</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.288508</v>
+        <v>0.285376</v>
       </c>
       <c r="C115" t="n">
-        <v>0.285457</v>
+        <v>0.266658</v>
       </c>
       <c r="D115" t="n">
-        <v>0.323708</v>
+        <v>0.31624</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.287121</v>
+        <v>0.28522</v>
       </c>
       <c r="C116" t="n">
-        <v>0.28781</v>
+        <v>0.26972</v>
       </c>
       <c r="D116" t="n">
-        <v>0.325764</v>
+        <v>0.318938</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.289274</v>
+        <v>0.287046</v>
       </c>
       <c r="C117" t="n">
-        <v>0.290618</v>
+        <v>0.273157</v>
       </c>
       <c r="D117" t="n">
-        <v>0.328898</v>
+        <v>0.322007</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.288955</v>
+        <v>0.287245</v>
       </c>
       <c r="C118" t="n">
-        <v>0.293875</v>
+        <v>0.275502</v>
       </c>
       <c r="D118" t="n">
-        <v>0.333105</v>
+        <v>0.325449</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.289592</v>
+        <v>0.287828</v>
       </c>
       <c r="C119" t="n">
-        <v>0.297314</v>
+        <v>0.278702</v>
       </c>
       <c r="D119" t="n">
-        <v>0.336771</v>
+        <v>0.327182</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288753</v>
+        <v>0.288765</v>
       </c>
       <c r="C120" t="n">
-        <v>0.301755</v>
+        <v>0.282372</v>
       </c>
       <c r="D120" t="n">
-        <v>0.342684</v>
+        <v>0.328143</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.293675</v>
+        <v>0.290681</v>
       </c>
       <c r="C121" t="n">
-        <v>0.306666</v>
+        <v>0.286271</v>
       </c>
       <c r="D121" t="n">
-        <v>0.350772</v>
+        <v>0.334237</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.293634</v>
+        <v>0.29263</v>
       </c>
       <c r="C122" t="n">
-        <v>0.314136</v>
+        <v>0.291775</v>
       </c>
       <c r="D122" t="n">
-        <v>0.361037</v>
+        <v>0.343111</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.299285</v>
+        <v>0.298669</v>
       </c>
       <c r="C123" t="n">
-        <v>0.32448</v>
+        <v>0.299483</v>
       </c>
       <c r="D123" t="n">
-        <v>0.345047</v>
+        <v>0.338108</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.368167</v>
+        <v>0.366516</v>
       </c>
       <c r="C124" t="n">
-        <v>0.302946</v>
+        <v>0.276896</v>
       </c>
       <c r="D124" t="n">
-        <v>0.347188</v>
+        <v>0.334404</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.3671</v>
+        <v>0.365888</v>
       </c>
       <c r="C125" t="n">
-        <v>0.305688</v>
+        <v>0.279547</v>
       </c>
       <c r="D125" t="n">
-        <v>0.348922</v>
+        <v>0.333086</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.367984</v>
+        <v>0.366432</v>
       </c>
       <c r="C126" t="n">
-        <v>0.308254</v>
+        <v>0.282423</v>
       </c>
       <c r="D126" t="n">
-        <v>0.350804</v>
+        <v>0.335286</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368312</v>
+        <v>0.366684</v>
       </c>
       <c r="C127" t="n">
-        <v>0.310245</v>
+        <v>0.285246</v>
       </c>
       <c r="D127" t="n">
-        <v>0.352362</v>
+        <v>0.338167</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.367907</v>
+        <v>0.366658</v>
       </c>
       <c r="C128" t="n">
-        <v>0.313014</v>
+        <v>0.288688</v>
       </c>
       <c r="D128" t="n">
-        <v>0.354995</v>
+        <v>0.341216</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.369597</v>
+        <v>0.365785</v>
       </c>
       <c r="C129" t="n">
-        <v>0.315627</v>
+        <v>0.291856</v>
       </c>
       <c r="D129" t="n">
-        <v>0.357165</v>
+        <v>0.343999</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.368224</v>
+        <v>0.367355</v>
       </c>
       <c r="C130" t="n">
-        <v>0.318194</v>
+        <v>0.295221</v>
       </c>
       <c r="D130" t="n">
-        <v>0.360162</v>
+        <v>0.347397</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.368205</v>
+        <v>0.367486</v>
       </c>
       <c r="C131" t="n">
-        <v>0.321218</v>
+        <v>0.298647</v>
       </c>
       <c r="D131" t="n">
-        <v>0.363229</v>
+        <v>0.350449</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.370286</v>
+        <v>0.368254</v>
       </c>
       <c r="C132" t="n">
-        <v>0.325062</v>
+        <v>0.302893</v>
       </c>
       <c r="D132" t="n">
-        <v>0.367647</v>
+        <v>0.355382</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.368451</v>
+        <v>0.368747</v>
       </c>
       <c r="C133" t="n">
-        <v>0.328214</v>
+        <v>0.306752</v>
       </c>
       <c r="D133" t="n">
-        <v>0.372103</v>
+        <v>0.359563</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.371074</v>
+        <v>0.370122</v>
       </c>
       <c r="C134" t="n">
-        <v>0.333187</v>
+        <v>0.311568</v>
       </c>
       <c r="D134" t="n">
-        <v>0.378703</v>
+        <v>0.366401</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.372423</v>
+        <v>0.370277</v>
       </c>
       <c r="C135" t="n">
-        <v>0.338698</v>
+        <v>0.316652</v>
       </c>
       <c r="D135" t="n">
-        <v>0.387012</v>
+        <v>0.372913</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.37254</v>
+        <v>0.372028</v>
       </c>
       <c r="C136" t="n">
-        <v>0.346658</v>
+        <v>0.323516</v>
       </c>
       <c r="D136" t="n">
-        <v>0.399317</v>
+        <v>0.377768</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.378558</v>
+        <v>0.375144</v>
       </c>
       <c r="C137" t="n">
-        <v>0.357316</v>
+        <v>0.333147</v>
       </c>
       <c r="D137" t="n">
-        <v>0.364532</v>
+        <v>0.352579</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.432142</v>
+        <v>0.430423</v>
       </c>
       <c r="C138" t="n">
-        <v>0.323542</v>
+        <v>0.298753</v>
       </c>
       <c r="D138" t="n">
-        <v>0.366302</v>
+        <v>0.354829</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.432447</v>
+        <v>0.430767</v>
       </c>
       <c r="C139" t="n">
-        <v>0.325483</v>
+        <v>0.301231</v>
       </c>
       <c r="D139" t="n">
-        <v>0.367786</v>
+        <v>0.356871</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.432335</v>
+        <v>0.430574</v>
       </c>
       <c r="C140" t="n">
-        <v>0.327786</v>
+        <v>0.303983</v>
       </c>
       <c r="D140" t="n">
-        <v>0.369922</v>
+        <v>0.358983</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.432268</v>
+        <v>0.430703</v>
       </c>
       <c r="C141" t="n">
-        <v>0.330062</v>
+        <v>0.30613</v>
       </c>
       <c r="D141" t="n">
-        <v>0.37187</v>
+        <v>0.361501</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.432632</v>
+        <v>0.430587</v>
       </c>
       <c r="C142" t="n">
-        <v>0.333047</v>
+        <v>0.308608</v>
       </c>
       <c r="D142" t="n">
-        <v>0.374557</v>
+        <v>0.363991</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.432731</v>
+        <v>0.430819</v>
       </c>
       <c r="C143" t="n">
-        <v>0.335058</v>
+        <v>0.310831</v>
       </c>
       <c r="D143" t="n">
-        <v>0.376647</v>
+        <v>0.36562</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0482504</v>
+        <v>0.0467884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0456884</v>
+        <v>0.0452031</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0539505</v>
+        <v>0.0513064</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.04834</v>
+        <v>0.047305</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0460601</v>
+        <v>0.0453983</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0542098</v>
+        <v>0.0515466</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0487418</v>
+        <v>0.0472622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0462292</v>
+        <v>0.0456295</v>
       </c>
       <c r="D4" t="n">
-        <v>0.054481</v>
+        <v>0.0517858</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0488592</v>
+        <v>0.0473518</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0464341</v>
+        <v>0.0459643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0548142</v>
+        <v>0.0520718</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0488691</v>
+        <v>0.0474724</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0467434</v>
+        <v>0.0463072</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0549031</v>
+        <v>0.0524066</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0489675</v>
+        <v>0.0477106</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0475243</v>
+        <v>0.0468781</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0564505</v>
+        <v>0.0536437</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0497842</v>
+        <v>0.0480448</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0484785</v>
+        <v>0.0480982</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0588732</v>
+        <v>0.0558854</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0504687</v>
+        <v>0.0491958</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0501683</v>
+        <v>0.04975</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0526248</v>
+        <v>0.0543018</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0496975</v>
+        <v>0.0509195</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0463867</v>
+        <v>0.0474556</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0531207</v>
+        <v>0.0546443</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0497799</v>
+        <v>0.0506867</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0466895</v>
+        <v>0.0477602</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0535371</v>
+        <v>0.055037</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0496455</v>
+        <v>0.0508339</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0467681</v>
+        <v>0.0480143</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0539264</v>
+        <v>0.0554198</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0497442</v>
+        <v>0.0513293</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0471118</v>
+        <v>0.0483103</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0542913</v>
+        <v>0.0557374</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0498033</v>
+        <v>0.0511226</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0474101</v>
+        <v>0.0488637</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0547093</v>
+        <v>0.0561957</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0501649</v>
+        <v>0.0514298</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0477335</v>
+        <v>0.0491455</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0546411</v>
+        <v>0.056516</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0502931</v>
+        <v>0.0514112</v>
       </c>
       <c r="C16" t="n">
-        <v>0.048034</v>
+        <v>0.049378</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0549737</v>
+        <v>0.0568189</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0506718</v>
+        <v>0.0515706</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0484139</v>
+        <v>0.0497811</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0553871</v>
+        <v>0.0572149</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0508343</v>
+        <v>0.0517935</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0486876</v>
+        <v>0.0501835</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0560535</v>
+        <v>0.0577263</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.050962</v>
+        <v>0.0519352</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0491582</v>
+        <v>0.0505599</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0564831</v>
+        <v>0.0582447</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0510682</v>
+        <v>0.0521091</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0495644</v>
+        <v>0.0509404</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05724</v>
+        <v>0.0589617</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0514909</v>
+        <v>0.0524995</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0505143</v>
+        <v>0.0518418</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0587205</v>
+        <v>0.0605679</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0520518</v>
+        <v>0.0533226</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0524778</v>
+        <v>0.0533679</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0634234</v>
+        <v>0.0650573</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0533353</v>
+        <v>0.0545919</v>
       </c>
       <c r="C23" t="n">
-        <v>0.057346</v>
+        <v>0.058169</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0578246</v>
+        <v>0.0600207</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0560148</v>
+        <v>0.0561657</v>
       </c>
       <c r="C24" t="n">
-        <v>0.052301</v>
+        <v>0.0540349</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0583948</v>
+        <v>0.0607627</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0552312</v>
+        <v>0.0557153</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0520688</v>
+        <v>0.0544653</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0587469</v>
+        <v>0.0606118</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0552803</v>
+        <v>0.0558578</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0529332</v>
+        <v>0.0547134</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0585719</v>
+        <v>0.0611667</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0553364</v>
+        <v>0.0559397</v>
       </c>
       <c r="C27" t="n">
-        <v>0.053145</v>
+        <v>0.0547393</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0589185</v>
+        <v>0.0618739</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0554885</v>
+        <v>0.0561563</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0534821</v>
+        <v>0.0553574</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0593689</v>
+        <v>0.0623743</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0556114</v>
+        <v>0.0562405</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0536742</v>
+        <v>0.0555691</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0604262</v>
+        <v>0.0622371</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0557421</v>
+        <v>0.0566103</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0538299</v>
+        <v>0.055954</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0608461</v>
+        <v>0.0626621</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.055866</v>
+        <v>0.0565939</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0541491</v>
+        <v>0.056383</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0612752</v>
+        <v>0.0631012</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0560976</v>
+        <v>0.0569739</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0547672</v>
+        <v>0.0569196</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0617575</v>
+        <v>0.06371060000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562727</v>
+        <v>0.0574807</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0554481</v>
+        <v>0.0575293</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0626336</v>
+        <v>0.0650969</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0565408</v>
+        <v>0.0574149</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0564646</v>
+        <v>0.0586405</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0641849</v>
+        <v>0.0668835</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0570425</v>
+        <v>0.0578537</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0586273</v>
+        <v>0.0605244</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0673025</v>
+        <v>0.06988419999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0578232</v>
+        <v>0.0589692</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0622465</v>
+        <v>0.06451320000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0737753</v>
+        <v>0.075778</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0603327</v>
+        <v>0.0618832</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06829159999999999</v>
+        <v>0.0705779</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06350840000000001</v>
+        <v>0.06422079999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0607092</v>
+        <v>0.0611213</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0578036</v>
+        <v>0.0578396</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0642928</v>
+        <v>0.06448520000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0595507</v>
+        <v>0.0605686</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0579762</v>
+        <v>0.0580729</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0647221</v>
+        <v>0.0645651</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0596044</v>
+        <v>0.0606768</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0585985</v>
+        <v>0.0590855</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0652687</v>
+        <v>0.0648957</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0597336</v>
+        <v>0.0608096</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0587591</v>
+        <v>0.0589786</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0650367</v>
+        <v>0.0652017</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0597942</v>
+        <v>0.060912</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0594442</v>
+        <v>0.0595588</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0661578</v>
+        <v>0.06637510000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0599468</v>
+        <v>0.0610772</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0597296</v>
+        <v>0.0600961</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06566909999999999</v>
+        <v>0.06725009999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0601034</v>
+        <v>0.0612856</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0603793</v>
+        <v>0.0609671</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06713180000000001</v>
+        <v>0.0670959</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0603016</v>
+        <v>0.061472</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0605851</v>
+        <v>0.0617207</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0681268</v>
+        <v>0.06840259999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0605346</v>
+        <v>0.0617168</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0613683</v>
+        <v>0.0620833</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0679612</v>
+        <v>0.0694367</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0608563</v>
+        <v>0.0620187</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0625735</v>
+        <v>0.0632629</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0703992</v>
+        <v>0.07029879999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0612191</v>
+        <v>0.0624084</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06439739999999999</v>
+        <v>0.06520629999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0717304</v>
+        <v>0.0722978</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0619152</v>
+        <v>0.0630904</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0667904</v>
+        <v>0.06705220000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0765875</v>
+        <v>0.0758839</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06334330000000001</v>
+        <v>0.06459239999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0700021</v>
+        <v>0.0704396</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08118450000000001</v>
+        <v>0.0806312</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06691220000000001</v>
+        <v>0.06807050000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07463880000000001</v>
+        <v>0.07489990000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0694507</v>
+        <v>0.0684303</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07230540000000001</v>
+        <v>0.0734388</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0810995</v>
+        <v>0.0822412</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0692171</v>
+        <v>0.0700398</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.068346</v>
+        <v>0.0679709</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0590103</v>
+        <v>0.0588461</v>
       </c>
       <c r="D53" t="n">
-        <v>0.069454</v>
+        <v>0.0681224</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0677963</v>
+        <v>0.0677358</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0593632</v>
+        <v>0.059526</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0698391</v>
+        <v>0.0693831</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.067855</v>
+        <v>0.0677712</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0605258</v>
+        <v>0.059401</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06893440000000001</v>
+        <v>0.070742</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0678556</v>
+        <v>0.0678744</v>
       </c>
       <c r="C56" t="n">
-        <v>0.059955</v>
+        <v>0.0603388</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07085710000000001</v>
+        <v>0.07087069999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0680246</v>
+        <v>0.0680465</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0613682</v>
+        <v>0.0608892</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07093389999999999</v>
+        <v>0.0697564</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0682053</v>
+        <v>0.06824379999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0615143</v>
+        <v>0.0612967</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0697769</v>
+        <v>0.0713247</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06840739999999999</v>
+        <v>0.0684593</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06284480000000001</v>
+        <v>0.0618153</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07332619999999999</v>
+        <v>0.0717407</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0685996</v>
+        <v>0.0687369</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0635376</v>
+        <v>0.0629661</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07396759999999999</v>
+        <v>0.073056</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0689298</v>
+        <v>0.0691363</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06476999999999999</v>
+        <v>0.0645883</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07589170000000001</v>
+        <v>0.0750791</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0694206</v>
+        <v>0.06966120000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0669413</v>
+        <v>0.0659392</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07647329999999999</v>
+        <v>0.0764128</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07046620000000001</v>
+        <v>0.0705998</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0695895</v>
+        <v>0.0688986</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0808175</v>
+        <v>0.0820309</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0723009</v>
+        <v>0.0726478</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0718589</v>
+        <v>0.0721875</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0854722</v>
+        <v>0.0841891</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0749272</v>
+        <v>0.0751959</v>
       </c>
       <c r="C65" t="n">
-        <v>0.074832</v>
+        <v>0.07518329999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0915445</v>
+        <v>0.09170010000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.079086</v>
+        <v>0.0792915</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08067009999999999</v>
+        <v>0.08135000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>0.072002</v>
+        <v>0.0719455</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0797421</v>
+        <v>0.07790329999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0642016</v>
+        <v>0.06459189999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07239859999999999</v>
+        <v>0.0723434</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.080336</v>
+        <v>0.07837909999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0649368</v>
+        <v>0.06401229999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0730214</v>
+        <v>0.07289900000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0806042</v>
+        <v>0.078593</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0654781</v>
+        <v>0.06452289999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07339859999999999</v>
+        <v>0.0733485</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08094519999999999</v>
+        <v>0.07868410000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0660483</v>
+        <v>0.06510920000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0739602</v>
+        <v>0.0736387</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08113960000000001</v>
+        <v>0.0787759</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0665688</v>
+        <v>0.06577040000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07465189999999999</v>
+        <v>0.0743318</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08136160000000001</v>
+        <v>0.0790907</v>
       </c>
       <c r="C72" t="n">
-        <v>0.067431</v>
+        <v>0.0665208</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0763991</v>
+        <v>0.07517210000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0816298</v>
+        <v>0.0793746</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0684507</v>
+        <v>0.0674651</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0763607</v>
+        <v>0.0761724</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0818318</v>
+        <v>0.0795685</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06968149999999999</v>
+        <v>0.06859319999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.077746</v>
+        <v>0.0773131</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0821279</v>
+        <v>0.07993980000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0708246</v>
+        <v>0.06986970000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0794574</v>
+        <v>0.0789994</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0828859</v>
+        <v>0.080526</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07261860000000001</v>
+        <v>0.0714272</v>
       </c>
       <c r="D76" t="n">
-        <v>0.081523</v>
+        <v>0.0811022</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08377039999999999</v>
+        <v>0.0817286</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0744114</v>
+        <v>0.0734438</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08437119999999999</v>
+        <v>0.0837876</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0855273</v>
+        <v>0.0831353</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0771717</v>
+        <v>0.0760594</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0883451</v>
+        <v>0.0877901</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08787880000000001</v>
+        <v>0.0852265</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0808513</v>
+        <v>0.0796688</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0950196</v>
+        <v>0.09401470000000001</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09145010000000001</v>
+        <v>0.0886868</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0861929</v>
+        <v>0.0849282</v>
       </c>
       <c r="D80" t="n">
-        <v>0.124552</v>
+        <v>0.12893</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.18343</v>
+        <v>0.182535</v>
       </c>
       <c r="C81" t="n">
-        <v>0.15755</v>
+        <v>0.160494</v>
       </c>
       <c r="D81" t="n">
-        <v>0.127044</v>
+        <v>0.131311</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182125</v>
+        <v>0.183792</v>
       </c>
       <c r="C82" t="n">
-        <v>0.155346</v>
+        <v>0.158568</v>
       </c>
       <c r="D82" t="n">
-        <v>0.124281</v>
+        <v>0.12905</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.181519</v>
+        <v>0.183574</v>
       </c>
       <c r="C83" t="n">
-        <v>0.158972</v>
+        <v>0.159002</v>
       </c>
       <c r="D83" t="n">
-        <v>0.131193</v>
+        <v>0.134938</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.184588</v>
+        <v>0.185445</v>
       </c>
       <c r="C84" t="n">
-        <v>0.15773</v>
+        <v>0.159185</v>
       </c>
       <c r="D84" t="n">
-        <v>0.134322</v>
+        <v>0.131715</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.181905</v>
+        <v>0.184799</v>
       </c>
       <c r="C85" t="n">
-        <v>0.158917</v>
+        <v>0.160436</v>
       </c>
       <c r="D85" t="n">
-        <v>0.134486</v>
+        <v>0.138883</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185474</v>
+        <v>0.185762</v>
       </c>
       <c r="C86" t="n">
-        <v>0.158441</v>
+        <v>0.158968</v>
       </c>
       <c r="D86" t="n">
-        <v>0.137684</v>
+        <v>0.139162</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.18241</v>
+        <v>0.186028</v>
       </c>
       <c r="C87" t="n">
-        <v>0.160863</v>
+        <v>0.162875</v>
       </c>
       <c r="D87" t="n">
-        <v>0.140945</v>
+        <v>0.142094</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.185611</v>
+        <v>0.187189</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159618</v>
+        <v>0.162239</v>
       </c>
       <c r="D88" t="n">
-        <v>0.142833</v>
+        <v>0.1437</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.185374</v>
+        <v>0.186592</v>
       </c>
       <c r="C89" t="n">
-        <v>0.162905</v>
+        <v>0.164579</v>
       </c>
       <c r="D89" t="n">
-        <v>0.146812</v>
+        <v>0.147425</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.187025</v>
+        <v>0.189493</v>
       </c>
       <c r="C90" t="n">
-        <v>0.161234</v>
+        <v>0.165971</v>
       </c>
       <c r="D90" t="n">
-        <v>0.14718</v>
+        <v>0.149611</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.185295</v>
+        <v>0.18802</v>
       </c>
       <c r="C91" t="n">
-        <v>0.165557</v>
+        <v>0.167229</v>
       </c>
       <c r="D91" t="n">
-        <v>0.152224</v>
+        <v>0.15307</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188165</v>
+        <v>0.190013</v>
       </c>
       <c r="C92" t="n">
-        <v>0.1671</v>
+        <v>0.169299</v>
       </c>
       <c r="D92" t="n">
-        <v>0.15498</v>
+        <v>0.157609</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189142</v>
+        <v>0.190398</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169202</v>
+        <v>0.172712</v>
       </c>
       <c r="D93" t="n">
-        <v>0.159582</v>
+        <v>0.162921</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.191312</v>
+        <v>0.19367</v>
       </c>
       <c r="C94" t="n">
-        <v>0.176408</v>
+        <v>0.17637</v>
       </c>
       <c r="D94" t="n">
-        <v>0.240252</v>
+        <v>0.239752</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250161</v>
+        <v>0.248866</v>
       </c>
       <c r="C95" t="n">
-        <v>0.229029</v>
+        <v>0.228944</v>
       </c>
       <c r="D95" t="n">
-        <v>0.242863</v>
+        <v>0.243151</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.250016</v>
+        <v>0.249116</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230281</v>
+        <v>0.229817</v>
       </c>
       <c r="D96" t="n">
-        <v>0.245217</v>
+        <v>0.2446</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25035</v>
+        <v>0.249026</v>
       </c>
       <c r="C97" t="n">
-        <v>0.231807</v>
+        <v>0.231018</v>
       </c>
       <c r="D97" t="n">
-        <v>0.247462</v>
+        <v>0.246439</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249716</v>
+        <v>0.249587</v>
       </c>
       <c r="C98" t="n">
-        <v>0.232845</v>
+        <v>0.23243</v>
       </c>
       <c r="D98" t="n">
-        <v>0.248992</v>
+        <v>0.249065</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.24998</v>
+        <v>0.249534</v>
       </c>
       <c r="C99" t="n">
-        <v>0.234076</v>
+        <v>0.233676</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251277</v>
+        <v>0.251332</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.250132</v>
+        <v>0.249196</v>
       </c>
       <c r="C100" t="n">
-        <v>0.235608</v>
+        <v>0.236062</v>
       </c>
       <c r="D100" t="n">
-        <v>0.254057</v>
+        <v>0.253743</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.250025</v>
+        <v>0.249898</v>
       </c>
       <c r="C101" t="n">
-        <v>0.237151</v>
+        <v>0.23702</v>
       </c>
       <c r="D101" t="n">
-        <v>0.255393</v>
+        <v>0.255721</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250173</v>
+        <v>0.250708</v>
       </c>
       <c r="C102" t="n">
-        <v>0.238408</v>
+        <v>0.238341</v>
       </c>
       <c r="D102" t="n">
-        <v>0.257696</v>
+        <v>0.258298</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.250516</v>
+        <v>0.250839</v>
       </c>
       <c r="C103" t="n">
-        <v>0.240699</v>
+        <v>0.240206</v>
       </c>
       <c r="D103" t="n">
-        <v>0.260498</v>
+        <v>0.261134</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.25106</v>
+        <v>0.250633</v>
       </c>
       <c r="C104" t="n">
-        <v>0.24258</v>
+        <v>0.242629</v>
       </c>
       <c r="D104" t="n">
-        <v>0.263303</v>
+        <v>0.262822</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251419</v>
+        <v>0.251299</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244601</v>
+        <v>0.244724</v>
       </c>
       <c r="D105" t="n">
-        <v>0.266291</v>
+        <v>0.266186</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252412</v>
+        <v>0.252342</v>
       </c>
       <c r="C106" t="n">
-        <v>0.247946</v>
+        <v>0.247798</v>
       </c>
       <c r="D106" t="n">
-        <v>0.270005</v>
+        <v>0.270633</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.254791</v>
+        <v>0.253518</v>
       </c>
       <c r="C107" t="n">
-        <v>0.251092</v>
+        <v>0.251688</v>
       </c>
       <c r="D107" t="n">
-        <v>0.274391</v>
+        <v>0.274712</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.257059</v>
+        <v>0.257006</v>
       </c>
       <c r="C108" t="n">
-        <v>0.256632</v>
+        <v>0.256835</v>
       </c>
       <c r="D108" t="n">
-        <v>0.30144</v>
+        <v>0.300414</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.261218</v>
+        <v>0.261119</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263622</v>
+        <v>0.264378</v>
       </c>
       <c r="D109" t="n">
-        <v>0.303026</v>
+        <v>0.301908</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.287133</v>
+        <v>0.287211</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257409</v>
+        <v>0.257385</v>
       </c>
       <c r="D110" t="n">
-        <v>0.304692</v>
+        <v>0.304953</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.286864</v>
+        <v>0.283786</v>
       </c>
       <c r="C111" t="n">
-        <v>0.259156</v>
+        <v>0.258704</v>
       </c>
       <c r="D111" t="n">
-        <v>0.306858</v>
+        <v>0.306368</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.285111</v>
+        <v>0.284318</v>
       </c>
       <c r="C112" t="n">
-        <v>0.258645</v>
+        <v>0.258256</v>
       </c>
       <c r="D112" t="n">
-        <v>0.309235</v>
+        <v>0.308831</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.286843</v>
+        <v>0.284431</v>
       </c>
       <c r="C113" t="n">
-        <v>0.261536</v>
+        <v>0.260907</v>
       </c>
       <c r="D113" t="n">
-        <v>0.311309</v>
+        <v>0.310646</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28687</v>
+        <v>0.285407</v>
       </c>
       <c r="C114" t="n">
-        <v>0.263703</v>
+        <v>0.264115</v>
       </c>
       <c r="D114" t="n">
-        <v>0.313812</v>
+        <v>0.313843</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.285376</v>
+        <v>0.286166</v>
       </c>
       <c r="C115" t="n">
-        <v>0.266658</v>
+        <v>0.26636</v>
       </c>
       <c r="D115" t="n">
-        <v>0.31624</v>
+        <v>0.315657</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.28522</v>
+        <v>0.285589</v>
       </c>
       <c r="C116" t="n">
-        <v>0.26972</v>
+        <v>0.269547</v>
       </c>
       <c r="D116" t="n">
-        <v>0.318938</v>
+        <v>0.318619</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287046</v>
+        <v>0.287393</v>
       </c>
       <c r="C117" t="n">
-        <v>0.273157</v>
+        <v>0.273069</v>
       </c>
       <c r="D117" t="n">
-        <v>0.322007</v>
+        <v>0.32223</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.287245</v>
+        <v>0.286608</v>
       </c>
       <c r="C118" t="n">
-        <v>0.275502</v>
+        <v>0.275626</v>
       </c>
       <c r="D118" t="n">
-        <v>0.325449</v>
+        <v>0.325009</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.287828</v>
+        <v>0.288136</v>
       </c>
       <c r="C119" t="n">
-        <v>0.278702</v>
+        <v>0.278574</v>
       </c>
       <c r="D119" t="n">
-        <v>0.327182</v>
+        <v>0.323132</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288765</v>
+        <v>0.288306</v>
       </c>
       <c r="C120" t="n">
-        <v>0.282372</v>
+        <v>0.282259</v>
       </c>
       <c r="D120" t="n">
-        <v>0.328143</v>
+        <v>0.327764</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.290681</v>
+        <v>0.291962</v>
       </c>
       <c r="C121" t="n">
-        <v>0.286271</v>
+        <v>0.286231</v>
       </c>
       <c r="D121" t="n">
-        <v>0.334237</v>
+        <v>0.334396</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.29263</v>
+        <v>0.295127</v>
       </c>
       <c r="C122" t="n">
-        <v>0.291775</v>
+        <v>0.292335</v>
       </c>
       <c r="D122" t="n">
-        <v>0.343111</v>
+        <v>0.348629</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.298669</v>
+        <v>0.297319</v>
       </c>
       <c r="C123" t="n">
-        <v>0.299483</v>
+        <v>0.299932</v>
       </c>
       <c r="D123" t="n">
-        <v>0.338108</v>
+        <v>0.337467</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.366516</v>
+        <v>0.366288</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276896</v>
+        <v>0.276663</v>
       </c>
       <c r="D124" t="n">
-        <v>0.334404</v>
+        <v>0.333371</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.365888</v>
+        <v>0.367469</v>
       </c>
       <c r="C125" t="n">
-        <v>0.279547</v>
+        <v>0.278999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.333086</v>
+        <v>0.332487</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.366432</v>
+        <v>0.36618</v>
       </c>
       <c r="C126" t="n">
-        <v>0.282423</v>
+        <v>0.281957</v>
       </c>
       <c r="D126" t="n">
-        <v>0.335286</v>
+        <v>0.335121</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.366684</v>
+        <v>0.366473</v>
       </c>
       <c r="C127" t="n">
-        <v>0.285246</v>
+        <v>0.284823</v>
       </c>
       <c r="D127" t="n">
-        <v>0.338167</v>
+        <v>0.337428</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.366658</v>
+        <v>0.365904</v>
       </c>
       <c r="C128" t="n">
-        <v>0.288688</v>
+        <v>0.28786</v>
       </c>
       <c r="D128" t="n">
-        <v>0.341216</v>
+        <v>0.340235</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.365785</v>
+        <v>0.366351</v>
       </c>
       <c r="C129" t="n">
-        <v>0.291856</v>
+        <v>0.291496</v>
       </c>
       <c r="D129" t="n">
-        <v>0.343999</v>
+        <v>0.343566</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.367355</v>
+        <v>0.366438</v>
       </c>
       <c r="C130" t="n">
-        <v>0.295221</v>
+        <v>0.294947</v>
       </c>
       <c r="D130" t="n">
-        <v>0.347397</v>
+        <v>0.346706</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.367486</v>
+        <v>0.366354</v>
       </c>
       <c r="C131" t="n">
-        <v>0.298647</v>
+        <v>0.298657</v>
       </c>
       <c r="D131" t="n">
-        <v>0.350449</v>
+        <v>0.350457</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.368254</v>
+        <v>0.366375</v>
       </c>
       <c r="C132" t="n">
-        <v>0.302893</v>
+        <v>0.302357</v>
       </c>
       <c r="D132" t="n">
-        <v>0.355382</v>
+        <v>0.354361</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.368747</v>
+        <v>0.367242</v>
       </c>
       <c r="C133" t="n">
-        <v>0.306752</v>
+        <v>0.30659</v>
       </c>
       <c r="D133" t="n">
-        <v>0.359563</v>
+        <v>0.35915</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.370122</v>
+        <v>0.367904</v>
       </c>
       <c r="C134" t="n">
-        <v>0.311568</v>
+        <v>0.310979</v>
       </c>
       <c r="D134" t="n">
-        <v>0.366401</v>
+        <v>0.365349</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.370277</v>
+        <v>0.368402</v>
       </c>
       <c r="C135" t="n">
-        <v>0.316652</v>
+        <v>0.316626</v>
       </c>
       <c r="D135" t="n">
-        <v>0.372913</v>
+        <v>0.372255</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.372028</v>
+        <v>0.372077</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323516</v>
+        <v>0.323418</v>
       </c>
       <c r="D136" t="n">
-        <v>0.377768</v>
+        <v>0.377599</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.375144</v>
+        <v>0.375358</v>
       </c>
       <c r="C137" t="n">
-        <v>0.333147</v>
+        <v>0.332978</v>
       </c>
       <c r="D137" t="n">
-        <v>0.352579</v>
+        <v>0.352392</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.430423</v>
+        <v>0.429337</v>
       </c>
       <c r="C138" t="n">
-        <v>0.298753</v>
+        <v>0.298188</v>
       </c>
       <c r="D138" t="n">
-        <v>0.354829</v>
+        <v>0.354321</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.430767</v>
+        <v>0.429674</v>
       </c>
       <c r="C139" t="n">
-        <v>0.301231</v>
+        <v>0.300843</v>
       </c>
       <c r="D139" t="n">
-        <v>0.356871</v>
+        <v>0.356421</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.430574</v>
+        <v>0.4298</v>
       </c>
       <c r="C140" t="n">
-        <v>0.303983</v>
+        <v>0.303489</v>
       </c>
       <c r="D140" t="n">
-        <v>0.358983</v>
+        <v>0.358921</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.430703</v>
+        <v>0.429728</v>
       </c>
       <c r="C141" t="n">
-        <v>0.30613</v>
+        <v>0.305791</v>
       </c>
       <c r="D141" t="n">
-        <v>0.361501</v>
+        <v>0.361052</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.430587</v>
+        <v>0.430412</v>
       </c>
       <c r="C142" t="n">
-        <v>0.308608</v>
+        <v>0.308769</v>
       </c>
       <c r="D142" t="n">
-        <v>0.363991</v>
+        <v>0.364246</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.430819</v>
+        <v>0.430383</v>
       </c>
       <c r="C143" t="n">
-        <v>0.310831</v>
+        <v>0.310641</v>
       </c>
       <c r="D143" t="n">
-        <v>0.36562</v>
+        <v>0.365509</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0467884</v>
+        <v>0.0472482</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0452031</v>
+        <v>0.0456982</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0513064</v>
+        <v>0.0529546</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.047305</v>
+        <v>0.0479125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0453983</v>
+        <v>0.0458913</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0515466</v>
+        <v>0.0532303</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0472622</v>
+        <v>0.0478136</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0456295</v>
+        <v>0.0460215</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0517858</v>
+        <v>0.0535176</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0473518</v>
+        <v>0.0478691</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0459643</v>
+        <v>0.0462467</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0520718</v>
+        <v>0.0538981</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0474724</v>
+        <v>0.0480173</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0463072</v>
+        <v>0.0466558</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0524066</v>
+        <v>0.0543696</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0477106</v>
+        <v>0.0482668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0468781</v>
+        <v>0.0472708</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0536437</v>
+        <v>0.0550177</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0480448</v>
+        <v>0.0482582</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0480982</v>
+        <v>0.0481685</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0558854</v>
+        <v>0.0573352</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0491958</v>
+        <v>0.0491709</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04975</v>
+        <v>0.0501173</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0543018</v>
+        <v>0.0555675</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0509195</v>
+        <v>0.0523084</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0474556</v>
+        <v>0.0486048</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0546443</v>
+        <v>0.0560656</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0506867</v>
+        <v>0.052248</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0477602</v>
+        <v>0.0490545</v>
       </c>
       <c r="D11" t="n">
-        <v>0.055037</v>
+        <v>0.0562982</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0508339</v>
+        <v>0.0523284</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0480143</v>
+        <v>0.0492148</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0554198</v>
+        <v>0.0567959</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0513293</v>
+        <v>0.0526614</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0483103</v>
+        <v>0.0495821</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0557374</v>
+        <v>0.0569114</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0511226</v>
+        <v>0.0526391</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0488637</v>
+        <v>0.0498785</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0561957</v>
+        <v>0.0573972</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0514298</v>
+        <v>0.052651</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0491455</v>
+        <v>0.050164</v>
       </c>
       <c r="D15" t="n">
-        <v>0.056516</v>
+        <v>0.0579158</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0514112</v>
+        <v>0.0527296</v>
       </c>
       <c r="C16" t="n">
-        <v>0.049378</v>
+        <v>0.0504072</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0568189</v>
+        <v>0.0581804</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0515706</v>
+        <v>0.0528335</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0497811</v>
+        <v>0.0507604</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0572149</v>
+        <v>0.0586405</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0517935</v>
+        <v>0.0528042</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0501835</v>
+        <v>0.0514051</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0577263</v>
+        <v>0.0590753</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0519352</v>
+        <v>0.0530997</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0505599</v>
+        <v>0.0515193</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0582447</v>
+        <v>0.0595428</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0521091</v>
+        <v>0.053165</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0509404</v>
+        <v>0.0521989</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0589617</v>
+        <v>0.060358</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0524995</v>
+        <v>0.05373</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0518418</v>
+        <v>0.0528666</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0605679</v>
+        <v>0.0617633</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0533226</v>
+        <v>0.054303</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0533679</v>
+        <v>0.0549154</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0650573</v>
+        <v>0.0663469</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0545919</v>
+        <v>0.0557051</v>
       </c>
       <c r="C23" t="n">
-        <v>0.058169</v>
+        <v>0.0595952</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0600207</v>
+        <v>0.0584745</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0561657</v>
+        <v>0.0550462</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0540349</v>
+        <v>0.0526375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0607627</v>
+        <v>0.0584089</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0557153</v>
+        <v>0.0548882</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0544653</v>
+        <v>0.0530163</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0606118</v>
+        <v>0.0587245</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0558578</v>
+        <v>0.054987</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0547134</v>
+        <v>0.053188</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0611667</v>
+        <v>0.0595223</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0559397</v>
+        <v>0.0550746</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0547393</v>
+        <v>0.0536474</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0618739</v>
+        <v>0.0598435</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0561563</v>
+        <v>0.0552301</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0553574</v>
+        <v>0.0538436</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0623743</v>
+        <v>0.0598507</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0562405</v>
+        <v>0.0554321</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0555691</v>
+        <v>0.0542822</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0622371</v>
+        <v>0.0603334</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0566103</v>
+        <v>0.0556647</v>
       </c>
       <c r="C30" t="n">
-        <v>0.055954</v>
+        <v>0.0545864</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0626621</v>
+        <v>0.0607865</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0565939</v>
+        <v>0.0558296</v>
       </c>
       <c r="C31" t="n">
-        <v>0.056383</v>
+        <v>0.055126</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0631012</v>
+        <v>0.0612312</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0569739</v>
+        <v>0.0560519</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0569196</v>
+        <v>0.0554542</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06371060000000001</v>
+        <v>0.0618352</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0574807</v>
+        <v>0.056377</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0575293</v>
+        <v>0.0559962</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0650969</v>
+        <v>0.0629677</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0574149</v>
+        <v>0.0565199</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0586405</v>
+        <v>0.0570941</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0668835</v>
+        <v>0.064696</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0578537</v>
+        <v>0.0570269</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0605244</v>
+        <v>0.0589516</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06988419999999999</v>
+        <v>0.0677898</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0589692</v>
+        <v>0.0579347</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06451320000000001</v>
+        <v>0.06291389999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.075778</v>
+        <v>0.0739365</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0618832</v>
+        <v>0.0608798</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0705779</v>
+        <v>0.0690173</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06422079999999999</v>
+        <v>0.0650115</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0611213</v>
+        <v>0.0643565</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0578396</v>
+        <v>0.0586982</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06448520000000001</v>
+        <v>0.0647277</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0605686</v>
+        <v>0.06293310000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0580729</v>
+        <v>0.0582601</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0645651</v>
+        <v>0.0646528</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0606768</v>
+        <v>0.0630187</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0590855</v>
+        <v>0.0587648</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0648957</v>
+        <v>0.0661933</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0608096</v>
+        <v>0.063148</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0589786</v>
+        <v>0.0597069</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0652017</v>
+        <v>0.0663402</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.060912</v>
+        <v>0.0632349</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0595588</v>
+        <v>0.0604457</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06637510000000001</v>
+        <v>0.06617770000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0610772</v>
+        <v>0.0633977</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0600961</v>
+        <v>0.0603316</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06725009999999999</v>
+        <v>0.0673903</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0612856</v>
+        <v>0.0635759</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0609671</v>
+        <v>0.0615965</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0670959</v>
+        <v>0.0679439</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.061472</v>
+        <v>0.0637558</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0617207</v>
+        <v>0.0618919</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06840259999999999</v>
+        <v>0.0677603</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0617168</v>
+        <v>0.0639913</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0620833</v>
+        <v>0.0625497</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0694367</v>
+        <v>0.0695221</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0620187</v>
+        <v>0.0642939</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0632629</v>
+        <v>0.06350450000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07029879999999999</v>
+        <v>0.0707507</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0624084</v>
+        <v>0.0646983</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06520629999999999</v>
+        <v>0.0651404</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0722978</v>
+        <v>0.07443</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0630904</v>
+        <v>0.06532689999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06705220000000001</v>
+        <v>0.0676467</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0758839</v>
+        <v>0.0770684</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06459239999999999</v>
+        <v>0.06679259999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0704396</v>
+        <v>0.0706084</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0806312</v>
+        <v>0.0819223</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06807050000000001</v>
+        <v>0.07025240000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07489990000000001</v>
+        <v>0.0752338</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0684303</v>
+        <v>0.0690359</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0734388</v>
+        <v>0.07551380000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0822412</v>
+        <v>0.08210919999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0700398</v>
+        <v>0.06849860000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0679709</v>
+        <v>0.06766519999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0588461</v>
+        <v>0.0586105</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0681224</v>
+        <v>0.0691822</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0677358</v>
+        <v>0.0674384</v>
       </c>
       <c r="C54" t="n">
-        <v>0.059526</v>
+        <v>0.0590759</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0693831</v>
+        <v>0.06858209999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0677712</v>
+        <v>0.0674317</v>
       </c>
       <c r="C55" t="n">
-        <v>0.059401</v>
+        <v>0.0597567</v>
       </c>
       <c r="D55" t="n">
-        <v>0.070742</v>
+        <v>0.068895</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0678744</v>
+        <v>0.0675606</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0603388</v>
+        <v>0.0598564</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07087069999999999</v>
+        <v>0.07002029999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0680465</v>
+        <v>0.0677267</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0608892</v>
+        <v>0.0602699</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0697564</v>
+        <v>0.07151680000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06824379999999999</v>
+        <v>0.0678995</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0612967</v>
+        <v>0.0614317</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0713247</v>
+        <v>0.0729115</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0684593</v>
+        <v>0.0681488</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0618153</v>
+        <v>0.0622444</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0717407</v>
+        <v>0.0727093</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0687369</v>
+        <v>0.06839430000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0629661</v>
+        <v>0.06390129999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.073056</v>
+        <v>0.0734988</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0691363</v>
+        <v>0.0687541</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0645883</v>
+        <v>0.06487809999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0750791</v>
+        <v>0.0744412</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06966120000000001</v>
+        <v>0.0692704</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0659392</v>
+        <v>0.06665459999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0764128</v>
+        <v>0.07744040000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0705998</v>
+        <v>0.0702653</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0688986</v>
+        <v>0.0686952</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0820309</v>
+        <v>0.0808064</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0726478</v>
+        <v>0.0721306</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0721875</v>
+        <v>0.0711651</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0841891</v>
+        <v>0.08515159999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0751959</v>
+        <v>0.07469430000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07518329999999999</v>
+        <v>0.0752597</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09170010000000001</v>
+        <v>0.0910609</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0792915</v>
+        <v>0.07877820000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08135000000000001</v>
+        <v>0.0817773</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0719455</v>
+        <v>0.07354620000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07790329999999999</v>
+        <v>0.0795107</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06459189999999999</v>
+        <v>0.0694934</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0723434</v>
+        <v>0.0740155</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07837909999999999</v>
+        <v>0.079704</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06401229999999999</v>
+        <v>0.06991790000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07289900000000001</v>
+        <v>0.074504</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.078593</v>
+        <v>0.0800005</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06452289999999999</v>
+        <v>0.070344</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0733485</v>
+        <v>0.0751935</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07868410000000001</v>
+        <v>0.0803084</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06510920000000001</v>
+        <v>0.07094110000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0736387</v>
+        <v>0.0757944</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0787759</v>
+        <v>0.0803553</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06577040000000001</v>
+        <v>0.07145849999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0743318</v>
+        <v>0.0765203</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0790907</v>
+        <v>0.0805584</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0665208</v>
+        <v>0.07218040000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07517210000000001</v>
+        <v>0.0774526</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0793746</v>
+        <v>0.08071209999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0674651</v>
+        <v>0.0732116</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0761724</v>
+        <v>0.0785824</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0795685</v>
+        <v>0.08105</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06859319999999999</v>
+        <v>0.0743346</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0773131</v>
+        <v>0.07987379999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.07993980000000001</v>
+        <v>0.0815034</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06986970000000001</v>
+        <v>0.0755941</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0789994</v>
+        <v>0.0817145</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.080526</v>
+        <v>0.08215509999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0714272</v>
+        <v>0.0771332</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0811022</v>
+        <v>0.08385280000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0817286</v>
+        <v>0.0835157</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0734438</v>
+        <v>0.07931870000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0837876</v>
+        <v>0.08683109999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0831353</v>
+        <v>0.0850974</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0760594</v>
+        <v>0.0819952</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0877901</v>
+        <v>0.0908587</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0852265</v>
+        <v>0.0872058</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0796688</v>
+        <v>0.0854511</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09401470000000001</v>
+        <v>0.0968103</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0886868</v>
+        <v>0.09067749999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0849282</v>
+        <v>0.09054810000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.12893</v>
+        <v>0.122434</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.182535</v>
+        <v>0.180496</v>
       </c>
       <c r="C81" t="n">
-        <v>0.160494</v>
+        <v>0.156939</v>
       </c>
       <c r="D81" t="n">
-        <v>0.131311</v>
+        <v>0.12482</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.183792</v>
+        <v>0.182637</v>
       </c>
       <c r="C82" t="n">
-        <v>0.158568</v>
+        <v>0.157379</v>
       </c>
       <c r="D82" t="n">
-        <v>0.12905</v>
+        <v>0.128287</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183574</v>
+        <v>0.18275</v>
       </c>
       <c r="C83" t="n">
-        <v>0.159002</v>
+        <v>0.158341</v>
       </c>
       <c r="D83" t="n">
-        <v>0.134938</v>
+        <v>0.1313</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.185445</v>
+        <v>0.183183</v>
       </c>
       <c r="C84" t="n">
-        <v>0.159185</v>
+        <v>0.15742</v>
       </c>
       <c r="D84" t="n">
-        <v>0.131715</v>
+        <v>0.130494</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184799</v>
+        <v>0.183112</v>
       </c>
       <c r="C85" t="n">
-        <v>0.160436</v>
+        <v>0.159083</v>
       </c>
       <c r="D85" t="n">
-        <v>0.138883</v>
+        <v>0.133173</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185762</v>
+        <v>0.184454</v>
       </c>
       <c r="C86" t="n">
-        <v>0.158968</v>
+        <v>0.15912</v>
       </c>
       <c r="D86" t="n">
-        <v>0.139162</v>
+        <v>0.137705</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.186028</v>
+        <v>0.184006</v>
       </c>
       <c r="C87" t="n">
-        <v>0.162875</v>
+        <v>0.160766</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142094</v>
+        <v>0.138224</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.187189</v>
+        <v>0.185436</v>
       </c>
       <c r="C88" t="n">
-        <v>0.162239</v>
+        <v>0.160971</v>
       </c>
       <c r="D88" t="n">
-        <v>0.1437</v>
+        <v>0.143017</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.186592</v>
+        <v>0.185161</v>
       </c>
       <c r="C89" t="n">
-        <v>0.164579</v>
+        <v>0.161317</v>
       </c>
       <c r="D89" t="n">
-        <v>0.147425</v>
+        <v>0.146255</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.189493</v>
+        <v>0.185448</v>
       </c>
       <c r="C90" t="n">
-        <v>0.165971</v>
+        <v>0.163724</v>
       </c>
       <c r="D90" t="n">
-        <v>0.149611</v>
+        <v>0.146101</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18802</v>
+        <v>0.186428</v>
       </c>
       <c r="C91" t="n">
-        <v>0.167229</v>
+        <v>0.163183</v>
       </c>
       <c r="D91" t="n">
-        <v>0.15307</v>
+        <v>0.150049</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190013</v>
+        <v>0.188007</v>
       </c>
       <c r="C92" t="n">
-        <v>0.169299</v>
+        <v>0.166689</v>
       </c>
       <c r="D92" t="n">
-        <v>0.157609</v>
+        <v>0.153639</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190398</v>
+        <v>0.188178</v>
       </c>
       <c r="C93" t="n">
-        <v>0.172712</v>
+        <v>0.169204</v>
       </c>
       <c r="D93" t="n">
-        <v>0.162921</v>
+        <v>0.161063</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.19367</v>
+        <v>0.190763</v>
       </c>
       <c r="C94" t="n">
-        <v>0.17637</v>
+        <v>0.171582</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239752</v>
+        <v>0.240471</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.248866</v>
+        <v>0.249221</v>
       </c>
       <c r="C95" t="n">
-        <v>0.228944</v>
+        <v>0.229048</v>
       </c>
       <c r="D95" t="n">
-        <v>0.243151</v>
+        <v>0.242771</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.249116</v>
+        <v>0.249198</v>
       </c>
       <c r="C96" t="n">
-        <v>0.229817</v>
+        <v>0.230258</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2446</v>
+        <v>0.244839</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.249026</v>
+        <v>0.249641</v>
       </c>
       <c r="C97" t="n">
-        <v>0.231018</v>
+        <v>0.231608</v>
       </c>
       <c r="D97" t="n">
-        <v>0.246439</v>
+        <v>0.248518</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249587</v>
+        <v>0.249405</v>
       </c>
       <c r="C98" t="n">
-        <v>0.23243</v>
+        <v>0.232754</v>
       </c>
       <c r="D98" t="n">
-        <v>0.249065</v>
+        <v>0.249497</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.249534</v>
+        <v>0.249377</v>
       </c>
       <c r="C99" t="n">
-        <v>0.233676</v>
+        <v>0.234491</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251332</v>
+        <v>0.251536</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.249196</v>
+        <v>0.249508</v>
       </c>
       <c r="C100" t="n">
-        <v>0.236062</v>
+        <v>0.235226</v>
       </c>
       <c r="D100" t="n">
-        <v>0.253743</v>
+        <v>0.253441</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.249898</v>
+        <v>0.250045</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23702</v>
+        <v>0.237147</v>
       </c>
       <c r="D101" t="n">
-        <v>0.255721</v>
+        <v>0.256783</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250708</v>
+        <v>0.250202</v>
       </c>
       <c r="C102" t="n">
-        <v>0.238341</v>
+        <v>0.23892</v>
       </c>
       <c r="D102" t="n">
-        <v>0.258298</v>
+        <v>0.25775</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.250839</v>
+        <v>0.250125</v>
       </c>
       <c r="C103" t="n">
-        <v>0.240206</v>
+        <v>0.240623</v>
       </c>
       <c r="D103" t="n">
-        <v>0.261134</v>
+        <v>0.260805</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.250633</v>
+        <v>0.250689</v>
       </c>
       <c r="C104" t="n">
-        <v>0.242629</v>
+        <v>0.242226</v>
       </c>
       <c r="D104" t="n">
-        <v>0.262822</v>
+        <v>0.262923</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251299</v>
+        <v>0.251103</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244724</v>
+        <v>0.245145</v>
       </c>
       <c r="D105" t="n">
-        <v>0.266186</v>
+        <v>0.266145</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252342</v>
+        <v>0.252705</v>
       </c>
       <c r="C106" t="n">
-        <v>0.247798</v>
+        <v>0.247888</v>
       </c>
       <c r="D106" t="n">
-        <v>0.270633</v>
+        <v>0.26977</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.253518</v>
+        <v>0.253693</v>
       </c>
       <c r="C107" t="n">
-        <v>0.251688</v>
+        <v>0.251598</v>
       </c>
       <c r="D107" t="n">
-        <v>0.274712</v>
+        <v>0.275235</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.257006</v>
+        <v>0.256448</v>
       </c>
       <c r="C108" t="n">
-        <v>0.256835</v>
+        <v>0.257073</v>
       </c>
       <c r="D108" t="n">
-        <v>0.300414</v>
+        <v>0.301368</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.261119</v>
+        <v>0.26093</v>
       </c>
       <c r="C109" t="n">
-        <v>0.264378</v>
+        <v>0.26423</v>
       </c>
       <c r="D109" t="n">
-        <v>0.301908</v>
+        <v>0.303093</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.287211</v>
+        <v>0.285852</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257385</v>
+        <v>0.257459</v>
       </c>
       <c r="D110" t="n">
-        <v>0.304953</v>
+        <v>0.305561</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.283786</v>
+        <v>0.285197</v>
       </c>
       <c r="C111" t="n">
-        <v>0.258704</v>
+        <v>0.258754</v>
       </c>
       <c r="D111" t="n">
-        <v>0.306368</v>
+        <v>0.306743</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.284318</v>
+        <v>0.28648</v>
       </c>
       <c r="C112" t="n">
-        <v>0.258256</v>
+        <v>0.258409</v>
       </c>
       <c r="D112" t="n">
-        <v>0.308831</v>
+        <v>0.30911</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.284431</v>
+        <v>0.284346</v>
       </c>
       <c r="C113" t="n">
-        <v>0.260907</v>
+        <v>0.260962</v>
       </c>
       <c r="D113" t="n">
-        <v>0.310646</v>
+        <v>0.31154</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.285407</v>
+        <v>0.285326</v>
       </c>
       <c r="C114" t="n">
-        <v>0.264115</v>
+        <v>0.263911</v>
       </c>
       <c r="D114" t="n">
-        <v>0.313843</v>
+        <v>0.313776</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286166</v>
+        <v>0.285208</v>
       </c>
       <c r="C115" t="n">
-        <v>0.26636</v>
+        <v>0.266919</v>
       </c>
       <c r="D115" t="n">
-        <v>0.315657</v>
+        <v>0.316769</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.285589</v>
+        <v>0.285861</v>
       </c>
       <c r="C116" t="n">
-        <v>0.269547</v>
+        <v>0.269681</v>
       </c>
       <c r="D116" t="n">
-        <v>0.318619</v>
+        <v>0.319225</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287393</v>
+        <v>0.285922</v>
       </c>
       <c r="C117" t="n">
-        <v>0.273069</v>
+        <v>0.273357</v>
       </c>
       <c r="D117" t="n">
-        <v>0.32223</v>
+        <v>0.32255</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286608</v>
+        <v>0.286866</v>
       </c>
       <c r="C118" t="n">
-        <v>0.275626</v>
+        <v>0.275854</v>
       </c>
       <c r="D118" t="n">
-        <v>0.325009</v>
+        <v>0.325128</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.288136</v>
+        <v>0.287448</v>
       </c>
       <c r="C119" t="n">
-        <v>0.278574</v>
+        <v>0.279001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.323132</v>
+        <v>0.323929</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288306</v>
+        <v>0.288504</v>
       </c>
       <c r="C120" t="n">
-        <v>0.282259</v>
+        <v>0.282767</v>
       </c>
       <c r="D120" t="n">
-        <v>0.327764</v>
+        <v>0.329077</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.291962</v>
+        <v>0.29051</v>
       </c>
       <c r="C121" t="n">
-        <v>0.286231</v>
+        <v>0.286839</v>
       </c>
       <c r="D121" t="n">
-        <v>0.334396</v>
+        <v>0.335046</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.295127</v>
+        <v>0.294005</v>
       </c>
       <c r="C122" t="n">
-        <v>0.292335</v>
+        <v>0.292494</v>
       </c>
       <c r="D122" t="n">
-        <v>0.348629</v>
+        <v>0.343934</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.297319</v>
+        <v>0.297043</v>
       </c>
       <c r="C123" t="n">
-        <v>0.299932</v>
+        <v>0.300256</v>
       </c>
       <c r="D123" t="n">
-        <v>0.337467</v>
+        <v>0.337279</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.366288</v>
+        <v>0.365236</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276663</v>
+        <v>0.276476</v>
       </c>
       <c r="D124" t="n">
-        <v>0.333371</v>
+        <v>0.333827</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.367469</v>
+        <v>0.365651</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278999</v>
+        <v>0.278929</v>
       </c>
       <c r="D125" t="n">
-        <v>0.332487</v>
+        <v>0.332385</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.36618</v>
+        <v>0.365621</v>
       </c>
       <c r="C126" t="n">
-        <v>0.281957</v>
+        <v>0.282085</v>
       </c>
       <c r="D126" t="n">
-        <v>0.335121</v>
+        <v>0.335176</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.366473</v>
+        <v>0.364572</v>
       </c>
       <c r="C127" t="n">
-        <v>0.284823</v>
+        <v>0.284951</v>
       </c>
       <c r="D127" t="n">
-        <v>0.337428</v>
+        <v>0.337862</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.365904</v>
+        <v>0.365422</v>
       </c>
       <c r="C128" t="n">
-        <v>0.28786</v>
+        <v>0.288145</v>
       </c>
       <c r="D128" t="n">
-        <v>0.340235</v>
+        <v>0.340359</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.366351</v>
+        <v>0.365645</v>
       </c>
       <c r="C129" t="n">
-        <v>0.291496</v>
+        <v>0.29145</v>
       </c>
       <c r="D129" t="n">
-        <v>0.343566</v>
+        <v>0.343575</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.366438</v>
+        <v>0.365596</v>
       </c>
       <c r="C130" t="n">
-        <v>0.294947</v>
+        <v>0.294982</v>
       </c>
       <c r="D130" t="n">
-        <v>0.346706</v>
+        <v>0.34665</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.366354</v>
+        <v>0.367058</v>
       </c>
       <c r="C131" t="n">
-        <v>0.298657</v>
+        <v>0.298302</v>
       </c>
       <c r="D131" t="n">
-        <v>0.350457</v>
+        <v>0.350084</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.366375</v>
+        <v>0.366778</v>
       </c>
       <c r="C132" t="n">
-        <v>0.302357</v>
+        <v>0.302299</v>
       </c>
       <c r="D132" t="n">
-        <v>0.354361</v>
+        <v>0.354327</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.367242</v>
+        <v>0.36748</v>
       </c>
       <c r="C133" t="n">
-        <v>0.30659</v>
+        <v>0.306519</v>
       </c>
       <c r="D133" t="n">
-        <v>0.35915</v>
+        <v>0.359025</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.367904</v>
+        <v>0.367775</v>
       </c>
       <c r="C134" t="n">
-        <v>0.310979</v>
+        <v>0.311129</v>
       </c>
       <c r="D134" t="n">
-        <v>0.365349</v>
+        <v>0.365411</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.368402</v>
+        <v>0.369659</v>
       </c>
       <c r="C135" t="n">
-        <v>0.316626</v>
+        <v>0.316381</v>
       </c>
       <c r="D135" t="n">
-        <v>0.372255</v>
+        <v>0.372177</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.372077</v>
+        <v>0.371275</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323418</v>
+        <v>0.323368</v>
       </c>
       <c r="D136" t="n">
-        <v>0.377599</v>
+        <v>0.377173</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.375358</v>
+        <v>0.374783</v>
       </c>
       <c r="C137" t="n">
-        <v>0.332978</v>
+        <v>0.333019</v>
       </c>
       <c r="D137" t="n">
-        <v>0.352392</v>
+        <v>0.352419</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.429337</v>
+        <v>0.42988</v>
       </c>
       <c r="C138" t="n">
-        <v>0.298188</v>
+        <v>0.298176</v>
       </c>
       <c r="D138" t="n">
-        <v>0.354321</v>
+        <v>0.354239</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.429674</v>
+        <v>0.429789</v>
       </c>
       <c r="C139" t="n">
-        <v>0.300843</v>
+        <v>0.300434</v>
       </c>
       <c r="D139" t="n">
-        <v>0.356421</v>
+        <v>0.35617</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.4298</v>
+        <v>0.430024</v>
       </c>
       <c r="C140" t="n">
-        <v>0.303489</v>
+        <v>0.30341</v>
       </c>
       <c r="D140" t="n">
-        <v>0.358921</v>
+        <v>0.358667</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.429728</v>
+        <v>0.429795</v>
       </c>
       <c r="C141" t="n">
-        <v>0.305791</v>
+        <v>0.30546</v>
       </c>
       <c r="D141" t="n">
-        <v>0.361052</v>
+        <v>0.36085</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.430412</v>
+        <v>0.43014</v>
       </c>
       <c r="C142" t="n">
-        <v>0.308769</v>
+        <v>0.308023</v>
       </c>
       <c r="D142" t="n">
-        <v>0.364246</v>
+        <v>0.363399</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.430383</v>
+        <v>0.430632</v>
       </c>
       <c r="C143" t="n">
-        <v>0.310641</v>
+        <v>0.310557</v>
       </c>
       <c r="D143" t="n">
-        <v>0.365509</v>
+        <v>0.365467</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0472482</v>
+        <v>0.0521243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0456982</v>
+        <v>0.0494763</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0529546</v>
+        <v>0.0574714</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0479125</v>
+        <v>0.0520965</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0458913</v>
+        <v>0.0491343</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0532303</v>
+        <v>0.0568965</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0478136</v>
+        <v>0.0519592</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0460215</v>
+        <v>0.0493894</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0535176</v>
+        <v>0.0572736</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0478691</v>
+        <v>0.0519137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0462467</v>
+        <v>0.0497212</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0538981</v>
+        <v>0.0577832</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0480173</v>
+        <v>0.0520677</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0466558</v>
+        <v>0.0501106</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0543696</v>
+        <v>0.0582815</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0482668</v>
+        <v>0.0521946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0472708</v>
+        <v>0.050841</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0550177</v>
+        <v>0.0593664</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0482582</v>
+        <v>0.0526694</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0481685</v>
+        <v>0.0516505</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0573352</v>
+        <v>0.0616564</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0491709</v>
+        <v>0.0538176</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0501173</v>
+        <v>0.0533421</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0555675</v>
+        <v>0.0534043</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0523084</v>
+        <v>0.0495215</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0486048</v>
+        <v>0.0461337</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0560656</v>
+        <v>0.0536796</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.052248</v>
+        <v>0.0494624</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0490545</v>
+        <v>0.0464869</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0562982</v>
+        <v>0.0540415</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0523284</v>
+        <v>0.0496375</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0492148</v>
+        <v>0.0468901</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0567959</v>
+        <v>0.0543059</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0526614</v>
+        <v>0.0497782</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0495821</v>
+        <v>0.0472004</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0569114</v>
+        <v>0.0546489</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0526391</v>
+        <v>0.0499954</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0498785</v>
+        <v>0.0475523</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0573972</v>
+        <v>0.0550327</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.052651</v>
+        <v>0.0501884</v>
       </c>
       <c r="C15" t="n">
-        <v>0.050164</v>
+        <v>0.0479559</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0579158</v>
+        <v>0.0553977</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0527296</v>
+        <v>0.0503224</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0504072</v>
+        <v>0.0482199</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0581804</v>
+        <v>0.0558068</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0528335</v>
+        <v>0.0505693</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0507604</v>
+        <v>0.0485314</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0586405</v>
+        <v>0.0561327</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0528042</v>
+        <v>0.0507017</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0514051</v>
+        <v>0.0488001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0590753</v>
+        <v>0.0565546</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0530997</v>
+        <v>0.050911</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0515193</v>
+        <v>0.0493027</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0595428</v>
+        <v>0.057085</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.053165</v>
+        <v>0.0511717</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0521989</v>
+        <v>0.0497722</v>
       </c>
       <c r="D20" t="n">
-        <v>0.060358</v>
+        <v>0.0579174</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05373</v>
+        <v>0.0516314</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0528666</v>
+        <v>0.0508356</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0617633</v>
+        <v>0.0595013</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.054303</v>
+        <v>0.0521847</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0549154</v>
+        <v>0.0526755</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0663469</v>
+        <v>0.064119</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0557051</v>
+        <v>0.0534838</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0595952</v>
+        <v>0.0574542</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0584745</v>
+        <v>0.0577924</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0550462</v>
+        <v>0.0553907</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0526375</v>
+        <v>0.0516357</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0584089</v>
+        <v>0.0577034</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0548882</v>
+        <v>0.055039</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0530163</v>
+        <v>0.0520185</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0587245</v>
+        <v>0.0580873</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.054987</v>
+        <v>0.055176</v>
       </c>
       <c r="C26" t="n">
-        <v>0.053188</v>
+        <v>0.052313</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0595223</v>
+        <v>0.0584257</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0550746</v>
+        <v>0.0552166</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0536474</v>
+        <v>0.0526272</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0598435</v>
+        <v>0.0587513</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0552301</v>
+        <v>0.0554216</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0538436</v>
+        <v>0.0529759</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0598507</v>
+        <v>0.0592421</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0554321</v>
+        <v>0.05558</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0542822</v>
+        <v>0.0534032</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0603334</v>
+        <v>0.0596913</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0556647</v>
+        <v>0.0557966</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0545864</v>
+        <v>0.0537258</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0607865</v>
+        <v>0.0601198</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0558296</v>
+        <v>0.0559186</v>
       </c>
       <c r="C31" t="n">
-        <v>0.055126</v>
+        <v>0.0541923</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0612312</v>
+        <v>0.0605911</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0560519</v>
+        <v>0.0561663</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0554542</v>
+        <v>0.0547365</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0618352</v>
+        <v>0.0611556</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.056377</v>
+        <v>0.0564498</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0559962</v>
+        <v>0.0552234</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0629677</v>
+        <v>0.0620061</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0565199</v>
+        <v>0.0566798</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0570941</v>
+        <v>0.0564536</v>
       </c>
       <c r="D34" t="n">
-        <v>0.064696</v>
+        <v>0.0639146</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0570269</v>
+        <v>0.0571376</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0589516</v>
+        <v>0.0582653</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0677898</v>
+        <v>0.0671707</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0579347</v>
+        <v>0.057911</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06291389999999999</v>
+        <v>0.0620979</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0739365</v>
+        <v>0.0732283</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0608798</v>
+        <v>0.0608635</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0690173</v>
+        <v>0.0680027</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0650115</v>
+        <v>0.0638664</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0643565</v>
+        <v>0.063817</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0586982</v>
+        <v>0.0578858</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0647277</v>
+        <v>0.064625</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06293310000000001</v>
+        <v>0.06292739999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0582601</v>
+        <v>0.0582233</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0646528</v>
+        <v>0.06347999999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0630187</v>
+        <v>0.06304070000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0587648</v>
+        <v>0.0586967</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0661933</v>
+        <v>0.0646371</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.063148</v>
+        <v>0.06314400000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0597069</v>
+        <v>0.0579529</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0663402</v>
+        <v>0.0659975</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0632349</v>
+        <v>0.063233</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0604457</v>
+        <v>0.0593589</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06617770000000001</v>
+        <v>0.0642345</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0633977</v>
+        <v>0.06340220000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0603316</v>
+        <v>0.0601664</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0673903</v>
+        <v>0.06640160000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0635759</v>
+        <v>0.0635831</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0615965</v>
+        <v>0.0602698</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0679439</v>
+        <v>0.0669821</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0637558</v>
+        <v>0.06378010000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0618919</v>
+        <v>0.060889</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0677603</v>
+        <v>0.06701650000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0639913</v>
+        <v>0.063999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0625497</v>
+        <v>0.0619675</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0695221</v>
+        <v>0.0684043</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0642939</v>
+        <v>0.0642899</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06350450000000001</v>
+        <v>0.0623837</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0707507</v>
+        <v>0.0684434</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0646983</v>
+        <v>0.06468839999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0651404</v>
+        <v>0.0643174</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07443</v>
+        <v>0.0726972</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06532689999999999</v>
+        <v>0.065376</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0676467</v>
+        <v>0.06729499999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0770684</v>
+        <v>0.074487</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06679259999999999</v>
+        <v>0.0677349</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0706084</v>
+        <v>0.0699975</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0819223</v>
+        <v>0.08135009999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07025240000000001</v>
+        <v>0.0703675</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0752338</v>
+        <v>0.074762</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0690359</v>
+        <v>0.06785380000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07551380000000001</v>
+        <v>0.0756809</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08210919999999999</v>
+        <v>0.08123809999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06849860000000001</v>
+        <v>0.0692818</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06766519999999999</v>
+        <v>0.06778729999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0586105</v>
+        <v>0.0592302</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0691822</v>
+        <v>0.0697121</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0674384</v>
+        <v>0.0676172</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0590759</v>
+        <v>0.0597887</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06858209999999999</v>
+        <v>0.0697929</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0674317</v>
+        <v>0.067653</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0597567</v>
+        <v>0.0600929</v>
       </c>
       <c r="D55" t="n">
-        <v>0.068895</v>
+        <v>0.06998409999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0675606</v>
+        <v>0.0677854</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0598564</v>
+        <v>0.060891</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07002029999999999</v>
+        <v>0.0705889</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0677267</v>
+        <v>0.0679548</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0602699</v>
+        <v>0.0609967</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07151680000000001</v>
+        <v>0.0714236</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0678995</v>
+        <v>0.0681283</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0614317</v>
+        <v>0.061775</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0729115</v>
+        <v>0.0720148</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0681488</v>
+        <v>0.0683795</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0622444</v>
+        <v>0.0624937</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0727093</v>
+        <v>0.0727541</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06839430000000001</v>
+        <v>0.0686161</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06390129999999999</v>
+        <v>0.0633536</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0734988</v>
+        <v>0.0734209</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0687541</v>
+        <v>0.0690125</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06487809999999999</v>
+        <v>0.0652343</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0744412</v>
+        <v>0.0749524</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0692704</v>
+        <v>0.06945850000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06665459999999999</v>
+        <v>0.0667876</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07744040000000001</v>
+        <v>0.0779084</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0702653</v>
+        <v>0.070525</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0686952</v>
+        <v>0.068716</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0808064</v>
+        <v>0.0804926</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0721306</v>
+        <v>0.0723654</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0711651</v>
+        <v>0.0717703</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08515159999999999</v>
+        <v>0.0851582</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07469430000000001</v>
+        <v>0.0749103</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0752597</v>
+        <v>0.0760768</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0910609</v>
+        <v>0.09114220000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.07877820000000001</v>
+        <v>0.0790249</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0817773</v>
+        <v>0.0817263</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07354620000000001</v>
+        <v>0.075267</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0795107</v>
+        <v>0.09736789999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0694934</v>
+        <v>0.080208</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0740155</v>
+        <v>0.07606350000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.079704</v>
+        <v>0.09772069999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06991790000000001</v>
+        <v>0.0804541</v>
       </c>
       <c r="D68" t="n">
-        <v>0.074504</v>
+        <v>0.0769619</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0800005</v>
+        <v>0.09834950000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.070344</v>
+        <v>0.0812398</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0751935</v>
+        <v>0.07760980000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0803084</v>
+        <v>0.0992835</v>
       </c>
       <c r="C70" t="n">
-        <v>0.07094110000000001</v>
+        <v>0.0821006</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0757944</v>
+        <v>0.0788879</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0803553</v>
+        <v>0.0992764</v>
       </c>
       <c r="C71" t="n">
-        <v>0.07145849999999999</v>
+        <v>0.0824705</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0765203</v>
+        <v>0.07967870000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0805584</v>
+        <v>0.0998343</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07218040000000001</v>
+        <v>0.0832465</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0774526</v>
+        <v>0.0809092</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08071209999999999</v>
+        <v>0.100334</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0732116</v>
+        <v>0.0839003</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0785824</v>
+        <v>0.0822229</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08105</v>
+        <v>0.100874</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0743346</v>
+        <v>0.0849529</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07987379999999999</v>
+        <v>0.08392239999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0815034</v>
+        <v>0.101632</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0755941</v>
+        <v>0.08626979999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0817145</v>
+        <v>0.08562699999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08215509999999999</v>
+        <v>0.102311</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0771332</v>
+        <v>0.0875901</v>
       </c>
       <c r="D76" t="n">
-        <v>0.08385280000000001</v>
+        <v>0.0879745</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0835157</v>
+        <v>0.103331</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07931870000000001</v>
+        <v>0.0895155</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08683109999999999</v>
+        <v>0.0910171</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0850974</v>
+        <v>0.104742</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0819952</v>
+        <v>0.0921468</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0908587</v>
+        <v>0.09500400000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0872058</v>
+        <v>0.106645</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0854511</v>
+        <v>0.095086</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0968103</v>
+        <v>0.101068</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09067749999999999</v>
+        <v>0.109665</v>
       </c>
       <c r="C80" t="n">
-        <v>0.09054810000000001</v>
+        <v>0.100377</v>
       </c>
       <c r="D80" t="n">
-        <v>0.122434</v>
+        <v>0.122357</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.180496</v>
+        <v>0.193935</v>
       </c>
       <c r="C81" t="n">
-        <v>0.156939</v>
+        <v>0.161788</v>
       </c>
       <c r="D81" t="n">
-        <v>0.12482</v>
+        <v>0.124784</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182637</v>
+        <v>0.189609</v>
       </c>
       <c r="C82" t="n">
-        <v>0.157379</v>
+        <v>0.158826</v>
       </c>
       <c r="D82" t="n">
-        <v>0.128287</v>
+        <v>0.123997</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.18275</v>
+        <v>0.182018</v>
       </c>
       <c r="C83" t="n">
-        <v>0.158341</v>
+        <v>0.159235</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1313</v>
+        <v>0.132238</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183183</v>
+        <v>0.185957</v>
       </c>
       <c r="C84" t="n">
-        <v>0.15742</v>
+        <v>0.15956</v>
       </c>
       <c r="D84" t="n">
-        <v>0.130494</v>
+        <v>0.129779</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.183112</v>
+        <v>0.186494</v>
       </c>
       <c r="C85" t="n">
-        <v>0.159083</v>
+        <v>0.160904</v>
       </c>
       <c r="D85" t="n">
-        <v>0.133173</v>
+        <v>0.135176</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.184454</v>
+        <v>0.1866</v>
       </c>
       <c r="C86" t="n">
-        <v>0.15912</v>
+        <v>0.164031</v>
       </c>
       <c r="D86" t="n">
-        <v>0.137705</v>
+        <v>0.136146</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.184006</v>
+        <v>0.190628</v>
       </c>
       <c r="C87" t="n">
-        <v>0.160766</v>
+        <v>0.162368</v>
       </c>
       <c r="D87" t="n">
-        <v>0.138224</v>
+        <v>0.140947</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.185436</v>
+        <v>0.187328</v>
       </c>
       <c r="C88" t="n">
-        <v>0.160971</v>
+        <v>0.15526</v>
       </c>
       <c r="D88" t="n">
-        <v>0.143017</v>
+        <v>0.130563</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.185161</v>
+        <v>0.179622</v>
       </c>
       <c r="C89" t="n">
-        <v>0.161317</v>
+        <v>0.158063</v>
       </c>
       <c r="D89" t="n">
-        <v>0.146255</v>
+        <v>0.13846</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.185448</v>
+        <v>0.180541</v>
       </c>
       <c r="C90" t="n">
-        <v>0.163724</v>
+        <v>0.165797</v>
       </c>
       <c r="D90" t="n">
-        <v>0.146101</v>
+        <v>0.150562</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186428</v>
+        <v>0.189956</v>
       </c>
       <c r="C91" t="n">
-        <v>0.163183</v>
+        <v>0.169417</v>
       </c>
       <c r="D91" t="n">
-        <v>0.150049</v>
+        <v>0.15158</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188007</v>
+        <v>0.192276</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166689</v>
+        <v>0.172246</v>
       </c>
       <c r="D92" t="n">
-        <v>0.153639</v>
+        <v>0.159494</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188178</v>
+        <v>0.193869</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169204</v>
+        <v>0.173479</v>
       </c>
       <c r="D93" t="n">
-        <v>0.161063</v>
+        <v>0.161187</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190763</v>
+        <v>0.194417</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171582</v>
+        <v>0.177551</v>
       </c>
       <c r="D94" t="n">
-        <v>0.240471</v>
+        <v>0.234716</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.249221</v>
+        <v>0.255713</v>
       </c>
       <c r="C95" t="n">
-        <v>0.229048</v>
+        <v>0.229672</v>
       </c>
       <c r="D95" t="n">
-        <v>0.242771</v>
+        <v>0.249342</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.249198</v>
+        <v>0.255727</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230258</v>
+        <v>0.239649</v>
       </c>
       <c r="D96" t="n">
-        <v>0.244839</v>
+        <v>0.253068</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.249641</v>
+        <v>0.253934</v>
       </c>
       <c r="C97" t="n">
-        <v>0.231608</v>
+        <v>0.239684</v>
       </c>
       <c r="D97" t="n">
-        <v>0.248518</v>
+        <v>0.254212</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249405</v>
+        <v>0.25635</v>
       </c>
       <c r="C98" t="n">
-        <v>0.232754</v>
+        <v>0.233252</v>
       </c>
       <c r="D98" t="n">
-        <v>0.249497</v>
+        <v>0.24871</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.249377</v>
+        <v>0.256014</v>
       </c>
       <c r="C99" t="n">
-        <v>0.234491</v>
+        <v>0.235612</v>
       </c>
       <c r="D99" t="n">
-        <v>0.251536</v>
+        <v>0.2508</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.249508</v>
+        <v>0.256527</v>
       </c>
       <c r="C100" t="n">
-        <v>0.235226</v>
+        <v>0.244155</v>
       </c>
       <c r="D100" t="n">
-        <v>0.253441</v>
+        <v>0.260667</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.250045</v>
+        <v>0.254128</v>
       </c>
       <c r="C101" t="n">
-        <v>0.237147</v>
+        <v>0.245826</v>
       </c>
       <c r="D101" t="n">
-        <v>0.256783</v>
+        <v>0.262731</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.250202</v>
+        <v>0.256604</v>
       </c>
       <c r="C102" t="n">
-        <v>0.23892</v>
+        <v>0.240506</v>
       </c>
       <c r="D102" t="n">
-        <v>0.25775</v>
+        <v>0.266052</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.250125</v>
+        <v>0.257047</v>
       </c>
       <c r="C103" t="n">
-        <v>0.240623</v>
+        <v>0.249478</v>
       </c>
       <c r="D103" t="n">
-        <v>0.260805</v>
+        <v>0.268047</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.250689</v>
+        <v>0.254641</v>
       </c>
       <c r="C104" t="n">
-        <v>0.242226</v>
+        <v>0.251897</v>
       </c>
       <c r="D104" t="n">
-        <v>0.262923</v>
+        <v>0.271743</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251103</v>
+        <v>0.257787</v>
       </c>
       <c r="C105" t="n">
-        <v>0.245145</v>
+        <v>0.254606</v>
       </c>
       <c r="D105" t="n">
-        <v>0.266145</v>
+        <v>0.27501</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252705</v>
+        <v>0.259018</v>
       </c>
       <c r="C106" t="n">
-        <v>0.247888</v>
+        <v>0.257332</v>
       </c>
       <c r="D106" t="n">
-        <v>0.26977</v>
+        <v>0.277653</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.253693</v>
+        <v>0.260705</v>
       </c>
       <c r="C107" t="n">
-        <v>0.251598</v>
+        <v>0.261431</v>
       </c>
       <c r="D107" t="n">
-        <v>0.275235</v>
+        <v>0.276252</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256448</v>
+        <v>0.263099</v>
       </c>
       <c r="C108" t="n">
-        <v>0.257073</v>
+        <v>0.266134</v>
       </c>
       <c r="D108" t="n">
-        <v>0.301368</v>
+        <v>0.310789</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.26093</v>
+        <v>0.26542</v>
       </c>
       <c r="C109" t="n">
-        <v>0.26423</v>
+        <v>0.273255</v>
       </c>
       <c r="D109" t="n">
-        <v>0.303093</v>
+        <v>0.312943</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285852</v>
+        <v>0.290046</v>
       </c>
       <c r="C110" t="n">
-        <v>0.257459</v>
+        <v>0.273044</v>
       </c>
       <c r="D110" t="n">
-        <v>0.305561</v>
+        <v>0.312366</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.285197</v>
+        <v>0.293248</v>
       </c>
       <c r="C111" t="n">
-        <v>0.258754</v>
+        <v>0.271751</v>
       </c>
       <c r="D111" t="n">
-        <v>0.306743</v>
+        <v>0.314448</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.28648</v>
+        <v>0.291042</v>
       </c>
       <c r="C112" t="n">
-        <v>0.258409</v>
+        <v>0.269876</v>
       </c>
       <c r="D112" t="n">
-        <v>0.30911</v>
+        <v>0.319872</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.284346</v>
+        <v>0.291019</v>
       </c>
       <c r="C113" t="n">
-        <v>0.260962</v>
+        <v>0.271873</v>
       </c>
       <c r="D113" t="n">
-        <v>0.31154</v>
+        <v>0.322241</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.285326</v>
+        <v>0.291684</v>
       </c>
       <c r="C114" t="n">
-        <v>0.263911</v>
+        <v>0.275303</v>
       </c>
       <c r="D114" t="n">
-        <v>0.313776</v>
+        <v>0.322029</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.285208</v>
+        <v>0.291604</v>
       </c>
       <c r="C115" t="n">
-        <v>0.266919</v>
+        <v>0.276461</v>
       </c>
       <c r="D115" t="n">
-        <v>0.316769</v>
+        <v>0.327437</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.285861</v>
+        <v>0.294428</v>
       </c>
       <c r="C116" t="n">
-        <v>0.269681</v>
+        <v>0.279376</v>
       </c>
       <c r="D116" t="n">
-        <v>0.319225</v>
+        <v>0.326054</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.285922</v>
+        <v>0.288292</v>
       </c>
       <c r="C117" t="n">
-        <v>0.273357</v>
+        <v>0.282802</v>
       </c>
       <c r="D117" t="n">
-        <v>0.32255</v>
+        <v>0.333332</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286866</v>
+        <v>0.289056</v>
       </c>
       <c r="C118" t="n">
-        <v>0.275854</v>
+        <v>0.285666</v>
       </c>
       <c r="D118" t="n">
-        <v>0.325128</v>
+        <v>0.331812</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.287448</v>
+        <v>0.296232</v>
       </c>
       <c r="C119" t="n">
-        <v>0.279001</v>
+        <v>0.290505</v>
       </c>
       <c r="D119" t="n">
-        <v>0.323929</v>
+        <v>0.33925</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288504</v>
+        <v>0.293242</v>
       </c>
       <c r="C120" t="n">
-        <v>0.282767</v>
+        <v>0.294255</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329077</v>
+        <v>0.34458</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.29051</v>
+        <v>0.293603</v>
       </c>
       <c r="C121" t="n">
-        <v>0.286839</v>
+        <v>0.299062</v>
       </c>
       <c r="D121" t="n">
-        <v>0.335046</v>
+        <v>0.352738</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.294005</v>
+        <v>0.299896</v>
       </c>
       <c r="C122" t="n">
-        <v>0.292494</v>
+        <v>0.302801</v>
       </c>
       <c r="D122" t="n">
-        <v>0.343934</v>
+        <v>0.361414</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.297043</v>
+        <v>0.305086</v>
       </c>
       <c r="C123" t="n">
-        <v>0.300256</v>
+        <v>0.311677</v>
       </c>
       <c r="D123" t="n">
-        <v>0.337279</v>
+        <v>0.347505</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.365236</v>
+        <v>0.372987</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276476</v>
+        <v>0.288238</v>
       </c>
       <c r="D124" t="n">
-        <v>0.333827</v>
+        <v>0.35113</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.365651</v>
+        <v>0.372798</v>
       </c>
       <c r="C125" t="n">
-        <v>0.278929</v>
+        <v>0.291809</v>
       </c>
       <c r="D125" t="n">
-        <v>0.332385</v>
+        <v>0.353021</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.365621</v>
+        <v>0.376915</v>
       </c>
       <c r="C126" t="n">
-        <v>0.282085</v>
+        <v>0.294314</v>
       </c>
       <c r="D126" t="n">
-        <v>0.335176</v>
+        <v>0.347115</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.364572</v>
+        <v>0.37897</v>
       </c>
       <c r="C127" t="n">
-        <v>0.284951</v>
+        <v>0.298051</v>
       </c>
       <c r="D127" t="n">
-        <v>0.337862</v>
+        <v>0.35056</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.365422</v>
+        <v>0.379675</v>
       </c>
       <c r="C128" t="n">
-        <v>0.288145</v>
+        <v>0.301055</v>
       </c>
       <c r="D128" t="n">
-        <v>0.340359</v>
+        <v>0.353615</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.365645</v>
+        <v>0.374555</v>
       </c>
       <c r="C129" t="n">
-        <v>0.29145</v>
+        <v>0.305089</v>
       </c>
       <c r="D129" t="n">
-        <v>0.343575</v>
+        <v>0.357016</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.365596</v>
+        <v>0.377539</v>
       </c>
       <c r="C130" t="n">
-        <v>0.294982</v>
+        <v>0.308035</v>
       </c>
       <c r="D130" t="n">
-        <v>0.34665</v>
+        <v>0.360576</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.367058</v>
+        <v>0.378639</v>
       </c>
       <c r="C131" t="n">
-        <v>0.298302</v>
+        <v>0.312411</v>
       </c>
       <c r="D131" t="n">
-        <v>0.350084</v>
+        <v>0.364053</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.366778</v>
+        <v>0.378962</v>
       </c>
       <c r="C132" t="n">
-        <v>0.302299</v>
+        <v>0.31664</v>
       </c>
       <c r="D132" t="n">
-        <v>0.354327</v>
+        <v>0.368831</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.36748</v>
+        <v>0.380563</v>
       </c>
       <c r="C133" t="n">
-        <v>0.306519</v>
+        <v>0.321267</v>
       </c>
       <c r="D133" t="n">
-        <v>0.359025</v>
+        <v>0.373436</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.367775</v>
+        <v>0.375327</v>
       </c>
       <c r="C134" t="n">
-        <v>0.311129</v>
+        <v>0.32535</v>
       </c>
       <c r="D134" t="n">
-        <v>0.365411</v>
+        <v>0.376184</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.369659</v>
+        <v>0.383</v>
       </c>
       <c r="C135" t="n">
-        <v>0.316381</v>
+        <v>0.331118</v>
       </c>
       <c r="D135" t="n">
-        <v>0.372177</v>
+        <v>0.385445</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.371275</v>
+        <v>0.379731</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323368</v>
+        <v>0.338626</v>
       </c>
       <c r="D136" t="n">
-        <v>0.377173</v>
+        <v>0.394974</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.374783</v>
+        <v>0.382701</v>
       </c>
       <c r="C137" t="n">
-        <v>0.333019</v>
+        <v>0.348711</v>
       </c>
       <c r="D137" t="n">
-        <v>0.352419</v>
+        <v>0.367183</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.42988</v>
+        <v>0.443299</v>
       </c>
       <c r="C138" t="n">
-        <v>0.298176</v>
+        <v>0.312283</v>
       </c>
       <c r="D138" t="n">
-        <v>0.354239</v>
+        <v>0.36873</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.429789</v>
+        <v>0.44419</v>
       </c>
       <c r="C139" t="n">
-        <v>0.300434</v>
+        <v>0.315141</v>
       </c>
       <c r="D139" t="n">
-        <v>0.35617</v>
+        <v>0.371261</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.430024</v>
+        <v>0.438905</v>
       </c>
       <c r="C140" t="n">
-        <v>0.30341</v>
+        <v>0.31762</v>
       </c>
       <c r="D140" t="n">
-        <v>0.358667</v>
+        <v>0.373524</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.429795</v>
+        <v>0.444688</v>
       </c>
       <c r="C141" t="n">
-        <v>0.30546</v>
+        <v>0.320675</v>
       </c>
       <c r="D141" t="n">
-        <v>0.36085</v>
+        <v>0.376296</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.43014</v>
+        <v>0.444175</v>
       </c>
       <c r="C142" t="n">
-        <v>0.308023</v>
+        <v>0.323752</v>
       </c>
       <c r="D142" t="n">
-        <v>0.363399</v>
+        <v>0.379329</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.430632</v>
+        <v>0.444333</v>
       </c>
       <c r="C143" t="n">
-        <v>0.310557</v>
+        <v>0.326059</v>
       </c>
       <c r="D143" t="n">
-        <v>0.365467</v>
+        <v>0.381191</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0521243</v>
+        <v>0.0465589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0494763</v>
+        <v>0.0441789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0574714</v>
+        <v>0.0515364</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0520965</v>
+        <v>0.0470655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0491343</v>
+        <v>0.0442908</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0568965</v>
+        <v>0.0517591</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0519592</v>
+        <v>0.0472472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0493894</v>
+        <v>0.0446219</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0572736</v>
+        <v>0.0520097</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0519137</v>
+        <v>0.0472894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0497212</v>
+        <v>0.0448678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0577832</v>
+        <v>0.0523417</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0520677</v>
+        <v>0.0474149</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0501106</v>
+        <v>0.045368</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0582815</v>
+        <v>0.0523308</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0521946</v>
+        <v>0.047386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.050841</v>
+        <v>0.045775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0593664</v>
+        <v>0.0534254</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0526694</v>
+        <v>0.0479968</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0516505</v>
+        <v>0.0468604</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0616564</v>
+        <v>0.0562203</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0538176</v>
+        <v>0.0488061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0533421</v>
+        <v>0.0486693</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0534043</v>
+        <v>0.0535274</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0495215</v>
+        <v>0.0513434</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0461337</v>
+        <v>0.0474481</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0536796</v>
+        <v>0.0540467</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0494624</v>
+        <v>0.0513512</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0464869</v>
+        <v>0.0476215</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0540415</v>
+        <v>0.0543388</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0496375</v>
+        <v>0.0514939</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0468901</v>
+        <v>0.0479365</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0543059</v>
+        <v>0.0549213</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0497782</v>
+        <v>0.0515221</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0472004</v>
+        <v>0.0482017</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0546489</v>
+        <v>0.0552682</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0499954</v>
+        <v>0.0518339</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0475523</v>
+        <v>0.0486458</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0550327</v>
+        <v>0.0553281</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0501884</v>
+        <v>0.0519739</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0479559</v>
+        <v>0.0488441</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0553977</v>
+        <v>0.0560375</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0503224</v>
+        <v>0.051932</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0482199</v>
+        <v>0.0493088</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0558068</v>
+        <v>0.0564085</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0505693</v>
+        <v>0.0521581</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0485314</v>
+        <v>0.0495839</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0561327</v>
+        <v>0.0565895</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0507017</v>
+        <v>0.0525248</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0488001</v>
+        <v>0.0499244</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0565546</v>
+        <v>0.0572734</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.050911</v>
+        <v>0.0524978</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0493027</v>
+        <v>0.0503583</v>
       </c>
       <c r="D19" t="n">
-        <v>0.057085</v>
+        <v>0.057776</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0511717</v>
+        <v>0.0528384</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0497722</v>
+        <v>0.0508232</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0579174</v>
+        <v>0.0585363</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0516314</v>
+        <v>0.0529536</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0508356</v>
+        <v>0.0517592</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0595013</v>
+        <v>0.0601775</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0521847</v>
+        <v>0.0538181</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0526755</v>
+        <v>0.0535949</v>
       </c>
       <c r="D22" t="n">
-        <v>0.064119</v>
+        <v>0.0649281</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0534838</v>
+        <v>0.0547154</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0574542</v>
+        <v>0.0581307</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0577924</v>
+        <v>0.0584046</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0553907</v>
+        <v>0.055354</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0516357</v>
+        <v>0.0524223</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0577034</v>
+        <v>0.0589836</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.055039</v>
+        <v>0.0554222</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0520185</v>
+        <v>0.0528928</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0580873</v>
+        <v>0.058807</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.055176</v>
+        <v>0.0555893</v>
       </c>
       <c r="C26" t="n">
-        <v>0.052313</v>
+        <v>0.0527995</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0584257</v>
+        <v>0.0596747</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0552166</v>
+        <v>0.0556263</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0526272</v>
+        <v>0.0532673</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0587513</v>
+        <v>0.0600522</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0554216</v>
+        <v>0.0558368</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0529759</v>
+        <v>0.0537736</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0592421</v>
+        <v>0.0605224</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.05558</v>
+        <v>0.0560336</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0534032</v>
+        <v>0.0540998</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0596913</v>
+        <v>0.0602904</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0557966</v>
+        <v>0.0561932</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0537258</v>
+        <v>0.0544768</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0601198</v>
+        <v>0.0614262</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0559186</v>
+        <v>0.0563691</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0541923</v>
+        <v>0.0546332</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0605911</v>
+        <v>0.0618422</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0561663</v>
+        <v>0.0573981</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0547365</v>
+        <v>0.0553862</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0611556</v>
+        <v>0.0623907</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0564498</v>
+        <v>0.0568772</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0552234</v>
+        <v>0.0559268</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0620061</v>
+        <v>0.063041</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0566798</v>
+        <v>0.057073</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0564536</v>
+        <v>0.0569536</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0639146</v>
+        <v>0.065065</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0571376</v>
+        <v>0.0576067</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0582653</v>
+        <v>0.0589388</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0671707</v>
+        <v>0.06797540000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.057911</v>
+        <v>0.0584217</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0620979</v>
+        <v>0.0626284</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0732283</v>
+        <v>0.0743144</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0608635</v>
+        <v>0.0613632</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0680027</v>
+        <v>0.0688911</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0638664</v>
+        <v>0.06352339999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.063817</v>
+        <v>0.06348810000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0578858</v>
+        <v>0.0576909</v>
       </c>
       <c r="D38" t="n">
-        <v>0.064625</v>
+        <v>0.0641934</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06292739999999999</v>
+        <v>0.06249</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0582233</v>
+        <v>0.0576542</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06347999999999999</v>
+        <v>0.064609</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06304070000000001</v>
+        <v>0.0626068</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0586967</v>
+        <v>0.0584381</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0646371</v>
+        <v>0.0643672</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06314400000000001</v>
+        <v>0.06272800000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0579529</v>
+        <v>0.0584527</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0659975</v>
+        <v>0.06510630000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.063233</v>
+        <v>0.06280669999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0593589</v>
+        <v>0.05904</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0642345</v>
+        <v>0.0661841</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06340220000000001</v>
+        <v>0.06300169999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0601664</v>
+        <v>0.0593062</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06640160000000001</v>
+        <v>0.0662389</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0635831</v>
+        <v>0.0632009</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0602698</v>
+        <v>0.0601205</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0669821</v>
+        <v>0.06670760000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.06378010000000001</v>
+        <v>0.06339789999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.060889</v>
+        <v>0.0610576</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06701650000000001</v>
+        <v>0.06724529999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.063999</v>
+        <v>0.06364209999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0619675</v>
+        <v>0.0614513</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0684043</v>
+        <v>0.0687812</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0642899</v>
+        <v>0.06395199999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0623837</v>
+        <v>0.0626664</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0684434</v>
+        <v>0.0704021</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.06468839999999999</v>
+        <v>0.0643336</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0643174</v>
+        <v>0.0646381</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0726972</v>
+        <v>0.07150430000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.065376</v>
+        <v>0.0650178</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06729499999999999</v>
+        <v>0.0669479</v>
       </c>
       <c r="D49" t="n">
-        <v>0.074487</v>
+        <v>0.07626670000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0677349</v>
+        <v>0.06646249999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0699975</v>
+        <v>0.06992180000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08135009999999999</v>
+        <v>0.08104989999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0703675</v>
+        <v>0.0699594</v>
       </c>
       <c r="C51" t="n">
-        <v>0.074762</v>
+        <v>0.0744698</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06785380000000001</v>
+        <v>0.0690901</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0756809</v>
+        <v>0.07524980000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08123809999999999</v>
+        <v>0.0805067</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0692818</v>
+        <v>0.0682228</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06778729999999999</v>
+        <v>0.0676128</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0592302</v>
+        <v>0.0590251</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0697121</v>
+        <v>0.0682306</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0676172</v>
+        <v>0.0672889</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0597887</v>
+        <v>0.0588294</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0697929</v>
+        <v>0.069063</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.067653</v>
+        <v>0.0673079</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0600929</v>
+        <v>0.0601771</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06998409999999999</v>
+        <v>0.07101449999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0677854</v>
+        <v>0.0674297</v>
       </c>
       <c r="C56" t="n">
-        <v>0.060891</v>
+        <v>0.0605719</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0705889</v>
+        <v>0.07120799999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0679548</v>
+        <v>0.0675694</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0609967</v>
+        <v>0.0615122</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0714236</v>
+        <v>0.072409</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0681283</v>
+        <v>0.0678023</v>
       </c>
       <c r="C58" t="n">
-        <v>0.061775</v>
+        <v>0.0621819</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0720148</v>
+        <v>0.0724938</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0683795</v>
+        <v>0.06801889999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0624937</v>
+        <v>0.0631034</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0727541</v>
+        <v>0.07404769999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0686161</v>
+        <v>0.06831139999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0633536</v>
+        <v>0.0632567</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0734209</v>
+        <v>0.07421899999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0690125</v>
+        <v>0.06866319999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0652343</v>
+        <v>0.0645386</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0749524</v>
+        <v>0.0759946</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06945850000000001</v>
+        <v>0.0690834</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0667876</v>
+        <v>0.06663189999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0779084</v>
+        <v>0.07877489999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.070525</v>
+        <v>0.07014289999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>0.068716</v>
+        <v>0.0687522</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0804926</v>
+        <v>0.0816506</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0723654</v>
+        <v>0.0720384</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0717703</v>
+        <v>0.0710602</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0851582</v>
+        <v>0.0848187</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0749103</v>
+        <v>0.0745508</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0760768</v>
+        <v>0.0754759</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09114220000000001</v>
+        <v>0.0921362</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0790249</v>
+        <v>0.0786526</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0817263</v>
+        <v>0.0814067</v>
       </c>
       <c r="D66" t="n">
-        <v>0.075267</v>
+        <v>0.07209790000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.09736789999999999</v>
+        <v>0.0796207</v>
       </c>
       <c r="C67" t="n">
-        <v>0.080208</v>
+        <v>0.0639879</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07606350000000001</v>
+        <v>0.072675</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.09772069999999999</v>
+        <v>0.07974680000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0804541</v>
+        <v>0.0644566</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0769619</v>
+        <v>0.073097</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.09834950000000001</v>
+        <v>0.0797702</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0812398</v>
+        <v>0.06483369999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07760980000000001</v>
+        <v>0.0736329</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0992835</v>
+        <v>0.0798666</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0821006</v>
+        <v>0.0654199</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0788879</v>
+        <v>0.0739295</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0992764</v>
+        <v>0.0798889</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0824705</v>
+        <v>0.06598080000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07967870000000001</v>
+        <v>0.0747447</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0998343</v>
+        <v>0.0801858</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0832465</v>
+        <v>0.06680800000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0809092</v>
+        <v>0.0754929</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.100334</v>
+        <v>0.0808097</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0839003</v>
+        <v>0.0677869</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0822229</v>
+        <v>0.076492</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.100874</v>
+        <v>0.08133550000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0849529</v>
+        <v>0.0689138</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08392239999999999</v>
+        <v>0.07768369999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.101632</v>
+        <v>0.081997</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08626979999999999</v>
+        <v>0.0702531</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08562699999999999</v>
+        <v>0.07940460000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.102311</v>
+        <v>0.08236350000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0875901</v>
+        <v>0.0717754</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0879745</v>
+        <v>0.081479</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.103331</v>
+        <v>0.083491</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0895155</v>
+        <v>0.07389279999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0910171</v>
+        <v>0.0843168</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.104742</v>
+        <v>0.08478040000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0921468</v>
+        <v>0.0766033</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09500400000000001</v>
+        <v>0.0883316</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.106645</v>
+        <v>0.0869081</v>
       </c>
       <c r="C79" t="n">
-        <v>0.095086</v>
+        <v>0.0801427</v>
       </c>
       <c r="D79" t="n">
-        <v>0.101068</v>
+        <v>0.0950231</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.109665</v>
+        <v>0.0901343</v>
       </c>
       <c r="C80" t="n">
-        <v>0.100377</v>
+        <v>0.0854519</v>
       </c>
       <c r="D80" t="n">
-        <v>0.122357</v>
+        <v>0.121619</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.193935</v>
+        <v>0.181298</v>
       </c>
       <c r="C81" t="n">
-        <v>0.161788</v>
+        <v>0.154056</v>
       </c>
       <c r="D81" t="n">
-        <v>0.124784</v>
+        <v>0.124042</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.189609</v>
+        <v>0.180032</v>
       </c>
       <c r="C82" t="n">
-        <v>0.158826</v>
+        <v>0.158769</v>
       </c>
       <c r="D82" t="n">
-        <v>0.123997</v>
+        <v>0.128836</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182018</v>
+        <v>0.184377</v>
       </c>
       <c r="C83" t="n">
-        <v>0.159235</v>
+        <v>0.157354</v>
       </c>
       <c r="D83" t="n">
-        <v>0.132238</v>
+        <v>0.130789</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.185957</v>
+        <v>0.182499</v>
       </c>
       <c r="C84" t="n">
-        <v>0.15956</v>
+        <v>0.157749</v>
       </c>
       <c r="D84" t="n">
-        <v>0.129779</v>
+        <v>0.134127</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.186494</v>
+        <v>0.184003</v>
       </c>
       <c r="C85" t="n">
-        <v>0.160904</v>
+        <v>0.158233</v>
       </c>
       <c r="D85" t="n">
-        <v>0.135176</v>
+        <v>0.136823</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1866</v>
+        <v>0.183876</v>
       </c>
       <c r="C86" t="n">
-        <v>0.164031</v>
+        <v>0.159701</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136146</v>
+        <v>0.139931</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.190628</v>
+        <v>0.184652</v>
       </c>
       <c r="C87" t="n">
-        <v>0.162368</v>
+        <v>0.159394</v>
       </c>
       <c r="D87" t="n">
-        <v>0.140947</v>
+        <v>0.141663</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.187328</v>
+        <v>0.185032</v>
       </c>
       <c r="C88" t="n">
-        <v>0.15526</v>
+        <v>0.161157</v>
       </c>
       <c r="D88" t="n">
-        <v>0.130563</v>
+        <v>0.142585</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179622</v>
+        <v>0.185061</v>
       </c>
       <c r="C89" t="n">
-        <v>0.158063</v>
+        <v>0.159801</v>
       </c>
       <c r="D89" t="n">
-        <v>0.13846</v>
+        <v>0.143515</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.180541</v>
+        <v>0.185881</v>
       </c>
       <c r="C90" t="n">
-        <v>0.165797</v>
+        <v>0.1633</v>
       </c>
       <c r="D90" t="n">
-        <v>0.150562</v>
+        <v>0.146991</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189956</v>
+        <v>0.186118</v>
       </c>
       <c r="C91" t="n">
-        <v>0.169417</v>
+        <v>0.163518</v>
       </c>
       <c r="D91" t="n">
-        <v>0.15158</v>
+        <v>0.150862</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.192276</v>
+        <v>0.186764</v>
       </c>
       <c r="C92" t="n">
-        <v>0.172246</v>
+        <v>0.165653</v>
       </c>
       <c r="D92" t="n">
-        <v>0.159494</v>
+        <v>0.151998</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.193869</v>
+        <v>0.188463</v>
       </c>
       <c r="C93" t="n">
-        <v>0.173479</v>
+        <v>0.167749</v>
       </c>
       <c r="D93" t="n">
-        <v>0.161187</v>
+        <v>0.157405</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194417</v>
+        <v>0.189513</v>
       </c>
       <c r="C94" t="n">
-        <v>0.177551</v>
+        <v>0.174461</v>
       </c>
       <c r="D94" t="n">
-        <v>0.234716</v>
+        <v>0.245127</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.255713</v>
+        <v>0.25444</v>
       </c>
       <c r="C95" t="n">
-        <v>0.229672</v>
+        <v>0.23449</v>
       </c>
       <c r="D95" t="n">
-        <v>0.249342</v>
+        <v>0.246514</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.255727</v>
+        <v>0.254185</v>
       </c>
       <c r="C96" t="n">
-        <v>0.239649</v>
+        <v>0.235188</v>
       </c>
       <c r="D96" t="n">
-        <v>0.253068</v>
+        <v>0.248397</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.253934</v>
+        <v>0.254448</v>
       </c>
       <c r="C97" t="n">
-        <v>0.239684</v>
+        <v>0.236591</v>
       </c>
       <c r="D97" t="n">
-        <v>0.254212</v>
+        <v>0.25042</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25635</v>
+        <v>0.254289</v>
       </c>
       <c r="C98" t="n">
-        <v>0.233252</v>
+        <v>0.238117</v>
       </c>
       <c r="D98" t="n">
-        <v>0.24871</v>
+        <v>0.251582</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.256014</v>
+        <v>0.253893</v>
       </c>
       <c r="C99" t="n">
-        <v>0.235612</v>
+        <v>0.232229</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2508</v>
+        <v>0.254281</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.256527</v>
+        <v>0.253953</v>
       </c>
       <c r="C100" t="n">
-        <v>0.244155</v>
+        <v>0.240107</v>
       </c>
       <c r="D100" t="n">
-        <v>0.260667</v>
+        <v>0.256179</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.254128</v>
+        <v>0.254429</v>
       </c>
       <c r="C101" t="n">
-        <v>0.245826</v>
+        <v>0.241724</v>
       </c>
       <c r="D101" t="n">
-        <v>0.262731</v>
+        <v>0.258634</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.256604</v>
+        <v>0.254645</v>
       </c>
       <c r="C102" t="n">
-        <v>0.240506</v>
+        <v>0.243574</v>
       </c>
       <c r="D102" t="n">
-        <v>0.266052</v>
+        <v>0.26131</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.257047</v>
+        <v>0.254791</v>
       </c>
       <c r="C103" t="n">
-        <v>0.249478</v>
+        <v>0.244958</v>
       </c>
       <c r="D103" t="n">
-        <v>0.268047</v>
+        <v>0.262834</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.254641</v>
+        <v>0.254999</v>
       </c>
       <c r="C104" t="n">
-        <v>0.251897</v>
+        <v>0.247798</v>
       </c>
       <c r="D104" t="n">
-        <v>0.271743</v>
+        <v>0.265898</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.257787</v>
+        <v>0.25559</v>
       </c>
       <c r="C105" t="n">
-        <v>0.254606</v>
+        <v>0.249637</v>
       </c>
       <c r="D105" t="n">
-        <v>0.27501</v>
+        <v>0.263175</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259018</v>
+        <v>0.256622</v>
       </c>
       <c r="C106" t="n">
-        <v>0.257332</v>
+        <v>0.252627</v>
       </c>
       <c r="D106" t="n">
-        <v>0.277653</v>
+        <v>0.273641</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.260705</v>
+        <v>0.258026</v>
       </c>
       <c r="C107" t="n">
-        <v>0.261431</v>
+        <v>0.24989</v>
       </c>
       <c r="D107" t="n">
-        <v>0.276252</v>
+        <v>0.272056</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263099</v>
+        <v>0.260703</v>
       </c>
       <c r="C108" t="n">
-        <v>0.266134</v>
+        <v>0.261075</v>
       </c>
       <c r="D108" t="n">
-        <v>0.310789</v>
+        <v>0.304019</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.26542</v>
+        <v>0.265337</v>
       </c>
       <c r="C109" t="n">
-        <v>0.273255</v>
+        <v>0.262157</v>
       </c>
       <c r="D109" t="n">
-        <v>0.312943</v>
+        <v>0.305738</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.290046</v>
+        <v>0.293272</v>
       </c>
       <c r="C110" t="n">
-        <v>0.273044</v>
+        <v>0.268694</v>
       </c>
       <c r="D110" t="n">
-        <v>0.312366</v>
+        <v>0.307363</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.293248</v>
+        <v>0.292633</v>
       </c>
       <c r="C111" t="n">
-        <v>0.271751</v>
+        <v>0.264724</v>
       </c>
       <c r="D111" t="n">
-        <v>0.314448</v>
+        <v>0.312892</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.291042</v>
+        <v>0.292126</v>
       </c>
       <c r="C112" t="n">
-        <v>0.269876</v>
+        <v>0.263328</v>
       </c>
       <c r="D112" t="n">
-        <v>0.319872</v>
+        <v>0.311968</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.291019</v>
+        <v>0.293075</v>
       </c>
       <c r="C113" t="n">
-        <v>0.271873</v>
+        <v>0.267766</v>
       </c>
       <c r="D113" t="n">
-        <v>0.322241</v>
+        <v>0.317868</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.291684</v>
+        <v>0.294076</v>
       </c>
       <c r="C114" t="n">
-        <v>0.275303</v>
+        <v>0.270256</v>
       </c>
       <c r="D114" t="n">
-        <v>0.322029</v>
+        <v>0.320167</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.291604</v>
+        <v>0.294024</v>
       </c>
       <c r="C115" t="n">
-        <v>0.276461</v>
+        <v>0.270972</v>
       </c>
       <c r="D115" t="n">
-        <v>0.327437</v>
+        <v>0.322916</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.294428</v>
+        <v>0.29199</v>
       </c>
       <c r="C116" t="n">
-        <v>0.279376</v>
+        <v>0.274112</v>
       </c>
       <c r="D116" t="n">
-        <v>0.326054</v>
+        <v>0.325278</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.288292</v>
+        <v>0.293946</v>
       </c>
       <c r="C117" t="n">
-        <v>0.282802</v>
+        <v>0.277552</v>
       </c>
       <c r="D117" t="n">
-        <v>0.333332</v>
+        <v>0.324454</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289056</v>
+        <v>0.289561</v>
       </c>
       <c r="C118" t="n">
-        <v>0.285666</v>
+        <v>0.282475</v>
       </c>
       <c r="D118" t="n">
-        <v>0.331812</v>
+        <v>0.329662</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.296232</v>
+        <v>0.296797</v>
       </c>
       <c r="C119" t="n">
-        <v>0.290505</v>
+        <v>0.285611</v>
       </c>
       <c r="D119" t="n">
-        <v>0.33925</v>
+        <v>0.335298</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.293242</v>
+        <v>0.295008</v>
       </c>
       <c r="C120" t="n">
-        <v>0.294255</v>
+        <v>0.288779</v>
       </c>
       <c r="D120" t="n">
-        <v>0.34458</v>
+        <v>0.337188</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.293603</v>
+        <v>0.293263</v>
       </c>
       <c r="C121" t="n">
-        <v>0.299062</v>
+        <v>0.293957</v>
       </c>
       <c r="D121" t="n">
-        <v>0.352738</v>
+        <v>0.348043</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.299896</v>
+        <v>0.300603</v>
       </c>
       <c r="C122" t="n">
-        <v>0.302801</v>
+        <v>0.298466</v>
       </c>
       <c r="D122" t="n">
-        <v>0.361414</v>
+        <v>0.353307</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.305086</v>
+        <v>0.303851</v>
       </c>
       <c r="C123" t="n">
-        <v>0.311677</v>
+        <v>0.307804</v>
       </c>
       <c r="D123" t="n">
-        <v>0.347505</v>
+        <v>0.343383</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.372987</v>
+        <v>0.372419</v>
       </c>
       <c r="C124" t="n">
-        <v>0.288238</v>
+        <v>0.281572</v>
       </c>
       <c r="D124" t="n">
-        <v>0.35113</v>
+        <v>0.343837</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.372798</v>
+        <v>0.370482</v>
       </c>
       <c r="C125" t="n">
-        <v>0.291809</v>
+        <v>0.284133</v>
       </c>
       <c r="D125" t="n">
-        <v>0.353021</v>
+        <v>0.337543</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.376915</v>
+        <v>0.37089</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294314</v>
+        <v>0.288252</v>
       </c>
       <c r="D126" t="n">
-        <v>0.347115</v>
+        <v>0.341423</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.37897</v>
+        <v>0.369818</v>
       </c>
       <c r="C127" t="n">
-        <v>0.298051</v>
+        <v>0.290109</v>
       </c>
       <c r="D127" t="n">
-        <v>0.35056</v>
+        <v>0.34336</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.379675</v>
+        <v>0.370326</v>
       </c>
       <c r="C128" t="n">
-        <v>0.301055</v>
+        <v>0.293856</v>
       </c>
       <c r="D128" t="n">
-        <v>0.353615</v>
+        <v>0.345717</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.374555</v>
+        <v>0.369654</v>
       </c>
       <c r="C129" t="n">
-        <v>0.305089</v>
+        <v>0.296613</v>
       </c>
       <c r="D129" t="n">
-        <v>0.357016</v>
+        <v>0.349472</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.377539</v>
+        <v>0.371226</v>
       </c>
       <c r="C130" t="n">
-        <v>0.308035</v>
+        <v>0.301073</v>
       </c>
       <c r="D130" t="n">
-        <v>0.360576</v>
+        <v>0.353263</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.378639</v>
+        <v>0.370481</v>
       </c>
       <c r="C131" t="n">
-        <v>0.312411</v>
+        <v>0.304087</v>
       </c>
       <c r="D131" t="n">
-        <v>0.364053</v>
+        <v>0.356212</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.378962</v>
+        <v>0.37234</v>
       </c>
       <c r="C132" t="n">
-        <v>0.31664</v>
+        <v>0.308725</v>
       </c>
       <c r="D132" t="n">
-        <v>0.368831</v>
+        <v>0.361386</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.380563</v>
+        <v>0.37224</v>
       </c>
       <c r="C133" t="n">
-        <v>0.321267</v>
+        <v>0.312909</v>
       </c>
       <c r="D133" t="n">
-        <v>0.373436</v>
+        <v>0.366273</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.375327</v>
+        <v>0.375251</v>
       </c>
       <c r="C134" t="n">
-        <v>0.32535</v>
+        <v>0.317834</v>
       </c>
       <c r="D134" t="n">
-        <v>0.376184</v>
+        <v>0.372585</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.383</v>
+        <v>0.373222</v>
       </c>
       <c r="C135" t="n">
-        <v>0.331118</v>
+        <v>0.322761</v>
       </c>
       <c r="D135" t="n">
-        <v>0.385445</v>
+        <v>0.373945</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.379731</v>
+        <v>0.376145</v>
       </c>
       <c r="C136" t="n">
-        <v>0.338626</v>
+        <v>0.330905</v>
       </c>
       <c r="D136" t="n">
-        <v>0.394974</v>
+        <v>0.385938</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.382701</v>
+        <v>0.379478</v>
       </c>
       <c r="C137" t="n">
-        <v>0.348711</v>
+        <v>0.339748</v>
       </c>
       <c r="D137" t="n">
-        <v>0.367183</v>
+        <v>0.359099</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.443299</v>
+        <v>0.43797</v>
       </c>
       <c r="C138" t="n">
-        <v>0.312283</v>
+        <v>0.3049</v>
       </c>
       <c r="D138" t="n">
-        <v>0.36873</v>
+        <v>0.360777</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.44419</v>
+        <v>0.443166</v>
       </c>
       <c r="C139" t="n">
-        <v>0.315141</v>
+        <v>0.307273</v>
       </c>
       <c r="D139" t="n">
-        <v>0.371261</v>
+        <v>0.363247</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.438905</v>
+        <v>0.443119</v>
       </c>
       <c r="C140" t="n">
-        <v>0.31762</v>
+        <v>0.310082</v>
       </c>
       <c r="D140" t="n">
-        <v>0.373524</v>
+        <v>0.364944</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.444688</v>
+        <v>0.443245</v>
       </c>
       <c r="C141" t="n">
-        <v>0.320675</v>
+        <v>0.312646</v>
       </c>
       <c r="D141" t="n">
-        <v>0.376296</v>
+        <v>0.367917</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.444175</v>
+        <v>0.442778</v>
       </c>
       <c r="C142" t="n">
-        <v>0.323752</v>
+        <v>0.315604</v>
       </c>
       <c r="D142" t="n">
-        <v>0.379329</v>
+        <v>0.370213</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.444333</v>
+        <v>0.438669</v>
       </c>
       <c r="C143" t="n">
-        <v>0.326059</v>
+        <v>0.317646</v>
       </c>
       <c r="D143" t="n">
-        <v>0.381191</v>
+        <v>0.37246</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0465589</v>
+        <v>0.0464689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0441789</v>
+        <v>0.0440064</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0515364</v>
+        <v>0.0494665</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0470655</v>
+        <v>0.0470491</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0442908</v>
+        <v>0.0440363</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0517591</v>
+        <v>0.0498419</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0472472</v>
+        <v>0.0470981</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0446219</v>
+        <v>0.0443512</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0520097</v>
+        <v>0.0501076</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0472894</v>
+        <v>0.0472005</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0448678</v>
+        <v>0.0447974</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0523417</v>
+        <v>0.0506512</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0474149</v>
+        <v>0.0473809</v>
       </c>
       <c r="C6" t="n">
-        <v>0.045368</v>
+        <v>0.045056</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0523308</v>
+        <v>0.0510901</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.047386</v>
+        <v>0.0475994</v>
       </c>
       <c r="C7" t="n">
-        <v>0.045775</v>
+        <v>0.0456966</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0534254</v>
+        <v>0.0524468</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0479968</v>
+        <v>0.0479512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0468604</v>
+        <v>0.0466527</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0562203</v>
+        <v>0.0544167</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0488061</v>
+        <v>0.0484912</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0486693</v>
+        <v>0.0483186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0535274</v>
+        <v>0.0516039</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0513434</v>
+        <v>0.0503754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0474481</v>
+        <v>0.0459418</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0540467</v>
+        <v>0.0527236</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0513512</v>
+        <v>0.050431</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0476215</v>
+        <v>0.0463922</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0543388</v>
+        <v>0.0531613</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0514939</v>
+        <v>0.0504635</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0479365</v>
+        <v>0.0467759</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0549213</v>
+        <v>0.0535153</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0515221</v>
+        <v>0.0507196</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0482017</v>
+        <v>0.0470536</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0552682</v>
+        <v>0.0533836</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0518339</v>
+        <v>0.0507774</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0486458</v>
+        <v>0.047402</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0553281</v>
+        <v>0.053901</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0519739</v>
+        <v>0.0510192</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0488441</v>
+        <v>0.0477139</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0560375</v>
+        <v>0.0546601</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.051932</v>
+        <v>0.05113</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0493088</v>
+        <v>0.0480408</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0564085</v>
+        <v>0.055009</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0521581</v>
+        <v>0.0513322</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0495839</v>
+        <v>0.0483698</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0565895</v>
+        <v>0.0552535</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0525248</v>
+        <v>0.0515595</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0499244</v>
+        <v>0.0487329</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0572734</v>
+        <v>0.0558834</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0524978</v>
+        <v>0.0517212</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0503583</v>
+        <v>0.0490996</v>
       </c>
       <c r="D19" t="n">
-        <v>0.057776</v>
+        <v>0.0563605</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0528384</v>
+        <v>0.0519525</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0508232</v>
+        <v>0.0494498</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0585363</v>
+        <v>0.057202</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0529536</v>
+        <v>0.0523307</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0517592</v>
+        <v>0.050317</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0601775</v>
+        <v>0.0589309</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0538181</v>
+        <v>0.0527862</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0535949</v>
+        <v>0.0521801</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0649281</v>
+        <v>0.06303549999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0547154</v>
+        <v>0.0541375</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0581307</v>
+        <v>0.0568988</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0584046</v>
+        <v>0.0578803</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.055354</v>
+        <v>0.0548269</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0524223</v>
+        <v>0.0521944</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0589836</v>
+        <v>0.0587188</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0554222</v>
+        <v>0.0550982</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0528928</v>
+        <v>0.0526376</v>
       </c>
       <c r="D25" t="n">
-        <v>0.058807</v>
+        <v>0.0590946</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0555893</v>
+        <v>0.0552594</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0527995</v>
+        <v>0.052919</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0596747</v>
+        <v>0.0594422</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0556263</v>
+        <v>0.0552864</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0532673</v>
+        <v>0.0533074</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0600522</v>
+        <v>0.0594645</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0558368</v>
+        <v>0.0554649</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0537736</v>
+        <v>0.0537985</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0605224</v>
+        <v>0.0603724</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0560336</v>
+        <v>0.0556141</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0540998</v>
+        <v>0.053952</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0602904</v>
+        <v>0.0608369</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0561932</v>
+        <v>0.0558158</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0544768</v>
+        <v>0.0543162</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0614262</v>
+        <v>0.0613193</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0563691</v>
+        <v>0.0559868</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0546332</v>
+        <v>0.0548563</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0618422</v>
+        <v>0.0610604</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0573981</v>
+        <v>0.0562432</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0553862</v>
+        <v>0.0552945</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0623907</v>
+        <v>0.0623332</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0568772</v>
+        <v>0.0564385</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0559268</v>
+        <v>0.0559319</v>
       </c>
       <c r="D33" t="n">
-        <v>0.063041</v>
+        <v>0.0631396</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.057073</v>
+        <v>0.0566408</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0569536</v>
+        <v>0.056914</v>
       </c>
       <c r="D34" t="n">
-        <v>0.065065</v>
+        <v>0.0649695</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0576067</v>
+        <v>0.0571332</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0589388</v>
+        <v>0.0589836</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06797540000000001</v>
+        <v>0.0681363</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0584217</v>
+        <v>0.0580296</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0626284</v>
+        <v>0.06266679999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0743144</v>
+        <v>0.0741696</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0613632</v>
+        <v>0.0607204</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0688911</v>
+        <v>0.0687757</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06352339999999999</v>
+        <v>0.06326089999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06348810000000001</v>
+        <v>0.0587716</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0576909</v>
+        <v>0.0573887</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0641934</v>
+        <v>0.0637523</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06249</v>
+        <v>0.0603018</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0576542</v>
+        <v>0.0577636</v>
       </c>
       <c r="D39" t="n">
-        <v>0.064609</v>
+        <v>0.0646061</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0626068</v>
+        <v>0.0603851</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0584381</v>
+        <v>0.0581587</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0643672</v>
+        <v>0.0650939</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06272800000000001</v>
+        <v>0.0605484</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0584527</v>
+        <v>0.0585874</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06510630000000001</v>
+        <v>0.0656586</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06280669999999999</v>
+        <v>0.060644</v>
       </c>
       <c r="C42" t="n">
-        <v>0.05904</v>
+        <v>0.0590365</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0661841</v>
+        <v>0.0660543</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.06300169999999999</v>
+        <v>0.0608028</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0593062</v>
+        <v>0.0596922</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0662389</v>
+        <v>0.0662022</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0632009</v>
+        <v>0.0610018</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0601205</v>
+        <v>0.0601451</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06670760000000001</v>
+        <v>0.06717960000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.06339789999999999</v>
+        <v>0.0611702</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0610576</v>
+        <v>0.0607759</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06724529999999999</v>
+        <v>0.0678718</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06364209999999999</v>
+        <v>0.0614066</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0614513</v>
+        <v>0.061684</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0687812</v>
+        <v>0.0688477</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.06395199999999999</v>
+        <v>0.061714</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0626664</v>
+        <v>0.0629382</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0704021</v>
+        <v>0.0704909</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0643336</v>
+        <v>0.062048</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0646381</v>
+        <v>0.06450500000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.07150430000000001</v>
+        <v>0.0726382</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0650178</v>
+        <v>0.06269180000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0669479</v>
+        <v>0.0666476</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07626670000000001</v>
+        <v>0.07632890000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06646249999999999</v>
+        <v>0.0642953</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06992180000000001</v>
+        <v>0.0701137</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08104989999999999</v>
+        <v>0.0810582</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0699594</v>
+        <v>0.0678021</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0744698</v>
+        <v>0.0745692</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0690901</v>
+        <v>0.0694795</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07524980000000001</v>
+        <v>0.07265489999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0805067</v>
+        <v>0.081507</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0682228</v>
+        <v>0.06992279999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0676128</v>
+        <v>0.06752569999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0590251</v>
+        <v>0.059116</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0682306</v>
+        <v>0.0703534</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0672889</v>
+        <v>0.0683063</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0588294</v>
+        <v>0.0595374</v>
       </c>
       <c r="D54" t="n">
-        <v>0.069063</v>
+        <v>0.07086489999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0673079</v>
+        <v>0.0683362</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0601771</v>
+        <v>0.060195</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07101449999999999</v>
+        <v>0.0714268</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0674297</v>
+        <v>0.06848750000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0605719</v>
+        <v>0.0607304</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07120799999999999</v>
+        <v>0.07190390000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0675694</v>
+        <v>0.068631</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0615122</v>
+        <v>0.0614277</v>
       </c>
       <c r="D57" t="n">
-        <v>0.072409</v>
+        <v>0.0724752</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0678023</v>
+        <v>0.0688059</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0621819</v>
+        <v>0.0622438</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0724938</v>
+        <v>0.073198</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06801889999999999</v>
+        <v>0.06897739999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0631034</v>
+        <v>0.0630265</v>
       </c>
       <c r="D59" t="n">
-        <v>0.07404769999999999</v>
+        <v>0.0740094</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06831139999999999</v>
+        <v>0.0693078</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0632567</v>
+        <v>0.0641481</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07421899999999999</v>
+        <v>0.0751797</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06866319999999999</v>
+        <v>0.0696127</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0645386</v>
+        <v>0.0653826</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0759946</v>
+        <v>0.0767689</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0690834</v>
+        <v>0.0701384</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06663189999999999</v>
+        <v>0.06721149999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07877489999999999</v>
+        <v>0.0791765</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07014289999999999</v>
+        <v>0.07116400000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0687522</v>
+        <v>0.0694765</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0816506</v>
+        <v>0.082389</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0720384</v>
+        <v>0.07301920000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0710602</v>
+        <v>0.07237300000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0848187</v>
+        <v>0.08677459999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0745508</v>
+        <v>0.0756802</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0754759</v>
+        <v>0.07638300000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0921362</v>
+        <v>0.09384290000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0786526</v>
+        <v>0.0798469</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0814067</v>
+        <v>0.08268159999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07209790000000001</v>
+        <v>0.0746487</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0796207</v>
+        <v>0.08458839999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0639879</v>
+        <v>0.0717217</v>
       </c>
       <c r="D67" t="n">
-        <v>0.072675</v>
+        <v>0.0751844</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07974680000000001</v>
+        <v>0.0846872</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0644566</v>
+        <v>0.0721542</v>
       </c>
       <c r="D68" t="n">
-        <v>0.073097</v>
+        <v>0.0758851</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0797702</v>
+        <v>0.08526499999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06483369999999999</v>
+        <v>0.0728145</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0736329</v>
+        <v>0.0768556</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0798666</v>
+        <v>0.08573409999999999</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0654199</v>
+        <v>0.073653</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0739295</v>
+        <v>0.0776328</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0798889</v>
+        <v>0.08583880000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06598080000000001</v>
+        <v>0.0739129</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0747447</v>
+        <v>0.0785898</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0801858</v>
+        <v>0.08605699999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.06680800000000001</v>
+        <v>0.0745334</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0754929</v>
+        <v>0.0798417</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0808097</v>
+        <v>0.0863078</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0677869</v>
+        <v>0.0754773</v>
       </c>
       <c r="D73" t="n">
-        <v>0.076492</v>
+        <v>0.08090120000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08133550000000001</v>
+        <v>0.0864153</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0689138</v>
+        <v>0.0765502</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07768369999999999</v>
+        <v>0.0822918</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.081997</v>
+        <v>0.0867084</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0702531</v>
+        <v>0.0775623</v>
       </c>
       <c r="D75" t="n">
-        <v>0.07940460000000001</v>
+        <v>0.0838907</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08236350000000001</v>
+        <v>0.087321</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0717754</v>
+        <v>0.07918989999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.081479</v>
+        <v>0.0855404</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.083491</v>
+        <v>0.0881369</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07389279999999999</v>
+        <v>0.08087800000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0843168</v>
+        <v>0.0878348</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08478040000000001</v>
+        <v>0.0896222</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0766033</v>
+        <v>0.0837944</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0883316</v>
+        <v>0.0918498</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0869081</v>
+        <v>0.0918292</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0801427</v>
+        <v>0.08727169999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0950231</v>
+        <v>0.0978672</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0901343</v>
+        <v>0.095221</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0854519</v>
+        <v>0.0925001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.121619</v>
+        <v>0.130262</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.181298</v>
+        <v>0.199265</v>
       </c>
       <c r="C81" t="n">
-        <v>0.154056</v>
+        <v>0.170747</v>
       </c>
       <c r="D81" t="n">
-        <v>0.124042</v>
+        <v>0.133094</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.180032</v>
+        <v>0.196097</v>
       </c>
       <c r="C82" t="n">
-        <v>0.158769</v>
+        <v>0.16831</v>
       </c>
       <c r="D82" t="n">
-        <v>0.128836</v>
+        <v>0.130188</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.184377</v>
+        <v>0.195248</v>
       </c>
       <c r="C83" t="n">
-        <v>0.157354</v>
+        <v>0.16966</v>
       </c>
       <c r="D83" t="n">
-        <v>0.130789</v>
+        <v>0.135523</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.182499</v>
+        <v>0.198273</v>
       </c>
       <c r="C84" t="n">
-        <v>0.157749</v>
+        <v>0.169593</v>
       </c>
       <c r="D84" t="n">
-        <v>0.134127</v>
+        <v>0.13538</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184003</v>
+        <v>0.197509</v>
       </c>
       <c r="C85" t="n">
-        <v>0.158233</v>
+        <v>0.167718</v>
       </c>
       <c r="D85" t="n">
-        <v>0.136823</v>
+        <v>0.138409</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.183876</v>
+        <v>0.199176</v>
       </c>
       <c r="C86" t="n">
-        <v>0.159701</v>
+        <v>0.171452</v>
       </c>
       <c r="D86" t="n">
-        <v>0.139931</v>
+        <v>0.141156</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.184652</v>
+        <v>0.198915</v>
       </c>
       <c r="C87" t="n">
-        <v>0.159394</v>
+        <v>0.16833</v>
       </c>
       <c r="D87" t="n">
-        <v>0.141663</v>
+        <v>0.142505</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.185032</v>
+        <v>0.19822</v>
       </c>
       <c r="C88" t="n">
-        <v>0.161157</v>
+        <v>0.171971</v>
       </c>
       <c r="D88" t="n">
-        <v>0.142585</v>
+        <v>0.144844</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.185061</v>
+        <v>0.201089</v>
       </c>
       <c r="C89" t="n">
-        <v>0.159801</v>
+        <v>0.171173</v>
       </c>
       <c r="D89" t="n">
-        <v>0.143515</v>
+        <v>0.148522</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.185881</v>
+        <v>0.198941</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1633</v>
+        <v>0.174589</v>
       </c>
       <c r="D90" t="n">
-        <v>0.146991</v>
+        <v>0.152359</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186118</v>
+        <v>0.201826</v>
       </c>
       <c r="C91" t="n">
-        <v>0.163518</v>
+        <v>0.173529</v>
       </c>
       <c r="D91" t="n">
-        <v>0.150862</v>
+        <v>0.154984</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.186764</v>
+        <v>0.20046</v>
       </c>
       <c r="C92" t="n">
-        <v>0.165653</v>
+        <v>0.178317</v>
       </c>
       <c r="D92" t="n">
-        <v>0.151998</v>
+        <v>0.159873</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188463</v>
+        <v>0.203771</v>
       </c>
       <c r="C93" t="n">
-        <v>0.167749</v>
+        <v>0.180201</v>
       </c>
       <c r="D93" t="n">
-        <v>0.157405</v>
+        <v>0.16701</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189513</v>
+        <v>0.205803</v>
       </c>
       <c r="C94" t="n">
-        <v>0.174461</v>
+        <v>0.186331</v>
       </c>
       <c r="D94" t="n">
-        <v>0.245127</v>
+        <v>0.263008</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.25444</v>
+        <v>0.277878</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23449</v>
+        <v>0.257437</v>
       </c>
       <c r="D95" t="n">
-        <v>0.246514</v>
+        <v>0.258789</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.254185</v>
+        <v>0.277879</v>
       </c>
       <c r="C96" t="n">
-        <v>0.235188</v>
+        <v>0.258715</v>
       </c>
       <c r="D96" t="n">
-        <v>0.248397</v>
+        <v>0.267155</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.254448</v>
+        <v>0.278042</v>
       </c>
       <c r="C97" t="n">
-        <v>0.236591</v>
+        <v>0.25312</v>
       </c>
       <c r="D97" t="n">
-        <v>0.25042</v>
+        <v>0.262202</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.254289</v>
+        <v>0.278583</v>
       </c>
       <c r="C98" t="n">
-        <v>0.238117</v>
+        <v>0.260973</v>
       </c>
       <c r="D98" t="n">
-        <v>0.251582</v>
+        <v>0.271781</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.253893</v>
+        <v>0.27829</v>
       </c>
       <c r="C99" t="n">
-        <v>0.232229</v>
+        <v>0.262481</v>
       </c>
       <c r="D99" t="n">
-        <v>0.254281</v>
+        <v>0.274206</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.253953</v>
+        <v>0.278411</v>
       </c>
       <c r="C100" t="n">
-        <v>0.240107</v>
+        <v>0.263652</v>
       </c>
       <c r="D100" t="n">
-        <v>0.256179</v>
+        <v>0.275666</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.254429</v>
+        <v>0.278788</v>
       </c>
       <c r="C101" t="n">
-        <v>0.241724</v>
+        <v>0.264687</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258634</v>
+        <v>0.27759</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.254645</v>
+        <v>0.279323</v>
       </c>
       <c r="C102" t="n">
-        <v>0.243574</v>
+        <v>0.266234</v>
       </c>
       <c r="D102" t="n">
-        <v>0.26131</v>
+        <v>0.281062</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.254791</v>
+        <v>0.279211</v>
       </c>
       <c r="C103" t="n">
-        <v>0.244958</v>
+        <v>0.268164</v>
       </c>
       <c r="D103" t="n">
-        <v>0.262834</v>
+        <v>0.27729</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.254999</v>
+        <v>0.279521</v>
       </c>
       <c r="C104" t="n">
-        <v>0.247798</v>
+        <v>0.269912</v>
       </c>
       <c r="D104" t="n">
-        <v>0.265898</v>
+        <v>0.284916</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25559</v>
+        <v>0.280476</v>
       </c>
       <c r="C105" t="n">
-        <v>0.249637</v>
+        <v>0.271954</v>
       </c>
       <c r="D105" t="n">
-        <v>0.263175</v>
+        <v>0.287946</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.256622</v>
+        <v>0.281307</v>
       </c>
       <c r="C106" t="n">
-        <v>0.252627</v>
+        <v>0.274862</v>
       </c>
       <c r="D106" t="n">
-        <v>0.273641</v>
+        <v>0.29214</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258026</v>
+        <v>0.283167</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24989</v>
+        <v>0.279031</v>
       </c>
       <c r="D107" t="n">
-        <v>0.272056</v>
+        <v>0.292568</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.260703</v>
+        <v>0.285545</v>
       </c>
       <c r="C108" t="n">
-        <v>0.261075</v>
+        <v>0.284159</v>
       </c>
       <c r="D108" t="n">
-        <v>0.304019</v>
+        <v>0.342733</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265337</v>
+        <v>0.290253</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262157</v>
+        <v>0.292395</v>
       </c>
       <c r="D109" t="n">
-        <v>0.305738</v>
+        <v>0.341112</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.293272</v>
+        <v>0.316702</v>
       </c>
       <c r="C110" t="n">
-        <v>0.268694</v>
+        <v>0.301217</v>
       </c>
       <c r="D110" t="n">
-        <v>0.307363</v>
+        <v>0.343772</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.292633</v>
+        <v>0.32559</v>
       </c>
       <c r="C111" t="n">
-        <v>0.264724</v>
+        <v>0.307147</v>
       </c>
       <c r="D111" t="n">
-        <v>0.312892</v>
+        <v>0.350141</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.292126</v>
+        <v>0.319831</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263328</v>
+        <v>0.30754</v>
       </c>
       <c r="D112" t="n">
-        <v>0.311968</v>
+        <v>0.353494</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.293075</v>
+        <v>0.321914</v>
       </c>
       <c r="C113" t="n">
-        <v>0.267766</v>
+        <v>0.311729</v>
       </c>
       <c r="D113" t="n">
-        <v>0.317868</v>
+        <v>0.354942</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.294076</v>
+        <v>0.321092</v>
       </c>
       <c r="C114" t="n">
-        <v>0.270256</v>
+        <v>0.314972</v>
       </c>
       <c r="D114" t="n">
-        <v>0.320167</v>
+        <v>0.358771</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.294024</v>
+        <v>0.322376</v>
       </c>
       <c r="C115" t="n">
-        <v>0.270972</v>
+        <v>0.316926</v>
       </c>
       <c r="D115" t="n">
-        <v>0.322916</v>
+        <v>0.358191</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.29199</v>
+        <v>0.321865</v>
       </c>
       <c r="C116" t="n">
-        <v>0.274112</v>
+        <v>0.320515</v>
       </c>
       <c r="D116" t="n">
-        <v>0.325278</v>
+        <v>0.36495</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293946</v>
+        <v>0.322569</v>
       </c>
       <c r="C117" t="n">
-        <v>0.277552</v>
+        <v>0.323543</v>
       </c>
       <c r="D117" t="n">
-        <v>0.324454</v>
+        <v>0.368326</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.289561</v>
+        <v>0.318059</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282475</v>
+        <v>0.327716</v>
       </c>
       <c r="D118" t="n">
-        <v>0.329662</v>
+        <v>0.372882</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.296797</v>
+        <v>0.325143</v>
       </c>
       <c r="C119" t="n">
-        <v>0.285611</v>
+        <v>0.329345</v>
       </c>
       <c r="D119" t="n">
-        <v>0.335298</v>
+        <v>0.374672</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.295008</v>
+        <v>0.32459</v>
       </c>
       <c r="C120" t="n">
-        <v>0.288779</v>
+        <v>0.334608</v>
       </c>
       <c r="D120" t="n">
-        <v>0.337188</v>
+        <v>0.380814</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.293263</v>
+        <v>0.318355</v>
       </c>
       <c r="C121" t="n">
-        <v>0.293957</v>
+        <v>0.33913</v>
       </c>
       <c r="D121" t="n">
-        <v>0.348043</v>
+        <v>0.387462</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.300603</v>
+        <v>0.328941</v>
       </c>
       <c r="C122" t="n">
-        <v>0.298466</v>
+        <v>0.344988</v>
       </c>
       <c r="D122" t="n">
-        <v>0.353307</v>
+        <v>0.397536</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.303851</v>
+        <v>0.32866</v>
       </c>
       <c r="C123" t="n">
-        <v>0.307804</v>
+        <v>0.355847</v>
       </c>
       <c r="D123" t="n">
-        <v>0.343383</v>
+        <v>0.404704</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.372419</v>
+        <v>0.412458</v>
       </c>
       <c r="C124" t="n">
-        <v>0.281572</v>
+        <v>0.339784</v>
       </c>
       <c r="D124" t="n">
-        <v>0.343837</v>
+        <v>0.404983</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.370482</v>
+        <v>0.411431</v>
       </c>
       <c r="C125" t="n">
-        <v>0.284133</v>
+        <v>0.343899</v>
       </c>
       <c r="D125" t="n">
-        <v>0.337543</v>
+        <v>0.412117</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.37089</v>
+        <v>0.411796</v>
       </c>
       <c r="C126" t="n">
-        <v>0.288252</v>
+        <v>0.347204</v>
       </c>
       <c r="D126" t="n">
-        <v>0.341423</v>
+        <v>0.41319</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.369818</v>
+        <v>0.411585</v>
       </c>
       <c r="C127" t="n">
-        <v>0.290109</v>
+        <v>0.351118</v>
       </c>
       <c r="D127" t="n">
-        <v>0.34336</v>
+        <v>0.417846</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.370326</v>
+        <v>0.411619</v>
       </c>
       <c r="C128" t="n">
-        <v>0.293856</v>
+        <v>0.355046</v>
       </c>
       <c r="D128" t="n">
-        <v>0.345717</v>
+        <v>0.419794</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.369654</v>
+        <v>0.411719</v>
       </c>
       <c r="C129" t="n">
-        <v>0.296613</v>
+        <v>0.359095</v>
       </c>
       <c r="D129" t="n">
-        <v>0.349472</v>
+        <v>0.42691</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.371226</v>
+        <v>0.411381</v>
       </c>
       <c r="C130" t="n">
-        <v>0.301073</v>
+        <v>0.362525</v>
       </c>
       <c r="D130" t="n">
-        <v>0.353263</v>
+        <v>0.430008</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.370481</v>
+        <v>0.41126</v>
       </c>
       <c r="C131" t="n">
-        <v>0.304087</v>
+        <v>0.366954</v>
       </c>
       <c r="D131" t="n">
-        <v>0.356212</v>
+        <v>0.434879</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.37234</v>
+        <v>0.411233</v>
       </c>
       <c r="C132" t="n">
-        <v>0.308725</v>
+        <v>0.371296</v>
       </c>
       <c r="D132" t="n">
-        <v>0.361386</v>
+        <v>0.437486</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.37224</v>
+        <v>0.411363</v>
       </c>
       <c r="C133" t="n">
-        <v>0.312909</v>
+        <v>0.375741</v>
       </c>
       <c r="D133" t="n">
-        <v>0.366273</v>
+        <v>0.444507</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.375251</v>
+        <v>0.411766</v>
       </c>
       <c r="C134" t="n">
-        <v>0.317834</v>
+        <v>0.381085</v>
       </c>
       <c r="D134" t="n">
-        <v>0.372585</v>
+        <v>0.449711</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.373222</v>
+        <v>0.414917</v>
       </c>
       <c r="C135" t="n">
-        <v>0.322761</v>
+        <v>0.387788</v>
       </c>
       <c r="D135" t="n">
-        <v>0.373945</v>
+        <v>0.459399</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.376145</v>
+        <v>0.416177</v>
       </c>
       <c r="C136" t="n">
-        <v>0.330905</v>
+        <v>0.39618</v>
       </c>
       <c r="D136" t="n">
-        <v>0.385938</v>
+        <v>0.46962</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.379478</v>
+        <v>0.420383</v>
       </c>
       <c r="C137" t="n">
-        <v>0.339748</v>
+        <v>0.406569</v>
       </c>
       <c r="D137" t="n">
-        <v>0.359099</v>
+        <v>0.438494</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.43797</v>
+        <v>0.49013</v>
       </c>
       <c r="C138" t="n">
-        <v>0.3049</v>
+        <v>0.36872</v>
       </c>
       <c r="D138" t="n">
-        <v>0.360777</v>
+        <v>0.441592</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.443166</v>
+        <v>0.489666</v>
       </c>
       <c r="C139" t="n">
-        <v>0.307273</v>
+        <v>0.372215</v>
       </c>
       <c r="D139" t="n">
-        <v>0.363247</v>
+        <v>0.446782</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.443119</v>
+        <v>0.489527</v>
       </c>
       <c r="C140" t="n">
-        <v>0.310082</v>
+        <v>0.376779</v>
       </c>
       <c r="D140" t="n">
-        <v>0.364944</v>
+        <v>0.448447</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.443245</v>
+        <v>0.485437</v>
       </c>
       <c r="C141" t="n">
-        <v>0.312646</v>
+        <v>0.379393</v>
       </c>
       <c r="D141" t="n">
-        <v>0.367917</v>
+        <v>0.453398</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.442778</v>
+        <v>0.489646</v>
       </c>
       <c r="C142" t="n">
-        <v>0.315604</v>
+        <v>0.384443</v>
       </c>
       <c r="D142" t="n">
-        <v>0.370213</v>
+        <v>0.455757</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.438669</v>
+        <v>0.490573</v>
       </c>
       <c r="C143" t="n">
-        <v>0.317646</v>
+        <v>0.388037</v>
       </c>
       <c r="D143" t="n">
-        <v>0.37246</v>
+        <v>0.461636</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0464689</v>
+        <v>0.0448048</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0440064</v>
+        <v>0.0441249</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0494665</v>
+        <v>0.0495998</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0470491</v>
+        <v>0.0449949</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0440363</v>
+        <v>0.0443438</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0498419</v>
+        <v>0.0498417</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0470981</v>
+        <v>0.0453525</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0443512</v>
+        <v>0.0445593</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0501076</v>
+        <v>0.0502028</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0472005</v>
+        <v>0.0454274</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0447974</v>
+        <v>0.0447564</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0506512</v>
+        <v>0.050482</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0473809</v>
+        <v>0.0455356</v>
       </c>
       <c r="C6" t="n">
-        <v>0.045056</v>
+        <v>0.0452908</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0510901</v>
+        <v>0.0508478</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0475994</v>
+        <v>0.0456833</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0456966</v>
+        <v>0.0457879</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0524468</v>
+        <v>0.0519829</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0479512</v>
+        <v>0.0461048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0466527</v>
+        <v>0.0468001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0544167</v>
+        <v>0.0538564</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0484912</v>
+        <v>0.0468703</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0483186</v>
+        <v>0.0490384</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0516039</v>
+        <v>0.0529098</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0503754</v>
+        <v>0.0505591</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0459418</v>
+        <v>0.0464827</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0527236</v>
+        <v>0.053209</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.050431</v>
+        <v>0.0505075</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0463922</v>
+        <v>0.0468059</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0531613</v>
+        <v>0.0535748</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0504635</v>
+        <v>0.0506041</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0467759</v>
+        <v>0.0470128</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0535153</v>
+        <v>0.0539556</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0507196</v>
+        <v>0.0507951</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0470536</v>
+        <v>0.0473483</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0533836</v>
+        <v>0.0542526</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0507774</v>
+        <v>0.0509471</v>
       </c>
       <c r="C14" t="n">
-        <v>0.047402</v>
+        <v>0.0478182</v>
       </c>
       <c r="D14" t="n">
-        <v>0.053901</v>
+        <v>0.0546898</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0510192</v>
+        <v>0.0510922</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0477139</v>
+        <v>0.0480924</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0546601</v>
+        <v>0.0550601</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05113</v>
+        <v>0.0512499</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0480408</v>
+        <v>0.0484924</v>
       </c>
       <c r="D16" t="n">
-        <v>0.055009</v>
+        <v>0.0553601</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0513322</v>
+        <v>0.0515503</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0483698</v>
+        <v>0.0487902</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0552535</v>
+        <v>0.0557367</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0515595</v>
+        <v>0.0516513</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0487329</v>
+        <v>0.0490683</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0558834</v>
+        <v>0.056288</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0517212</v>
+        <v>0.0518129</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0490996</v>
+        <v>0.0496503</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0563605</v>
+        <v>0.0568351</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0519525</v>
+        <v>0.0520177</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0494498</v>
+        <v>0.0499928</v>
       </c>
       <c r="D20" t="n">
-        <v>0.057202</v>
+        <v>0.0575531</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0523307</v>
+        <v>0.0523048</v>
       </c>
       <c r="C21" t="n">
-        <v>0.050317</v>
+        <v>0.0512147</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0589309</v>
+        <v>0.059035</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0527862</v>
+        <v>0.0527851</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0521801</v>
+        <v>0.0529665</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06303549999999999</v>
+        <v>0.0638412</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0541375</v>
+        <v>0.0541354</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0568988</v>
+        <v>0.0577603</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0578803</v>
+        <v>0.0580707</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0548269</v>
+        <v>0.0550097</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0521944</v>
+        <v>0.0523173</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0587188</v>
+        <v>0.0581801</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0550982</v>
+        <v>0.0548976</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0526376</v>
+        <v>0.052655</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0590946</v>
+        <v>0.0582557</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0552594</v>
+        <v>0.0550576</v>
       </c>
       <c r="C26" t="n">
-        <v>0.052919</v>
+        <v>0.0528722</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0594422</v>
+        <v>0.0585898</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0552864</v>
+        <v>0.0550941</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0533074</v>
+        <v>0.05315</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0594645</v>
+        <v>0.0589164</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0554649</v>
+        <v>0.0552691</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0537985</v>
+        <v>0.0534752</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0603724</v>
+        <v>0.0593807</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0556141</v>
+        <v>0.0554447</v>
       </c>
       <c r="C29" t="n">
-        <v>0.053952</v>
+        <v>0.0534122</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0608369</v>
+        <v>0.0605682</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0558158</v>
+        <v>0.0556724</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0543162</v>
+        <v>0.0538092</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0613193</v>
+        <v>0.0607971</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0559868</v>
+        <v>0.0558712</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0548563</v>
+        <v>0.0545669</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0610604</v>
+        <v>0.0611683</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0562432</v>
+        <v>0.0561047</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0552945</v>
+        <v>0.0550946</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0623332</v>
+        <v>0.061294</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0564385</v>
+        <v>0.0563055</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0559319</v>
+        <v>0.0556319</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0631396</v>
+        <v>0.06276619999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0566408</v>
+        <v>0.0565908</v>
       </c>
       <c r="C34" t="n">
-        <v>0.056914</v>
+        <v>0.0566492</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0649695</v>
+        <v>0.0638119</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0571332</v>
+        <v>0.0570373</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0589836</v>
+        <v>0.0585935</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0681363</v>
+        <v>0.06707689999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0580296</v>
+        <v>0.0579388</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06266679999999999</v>
+        <v>0.0623457</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0741696</v>
+        <v>0.07330589999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0607204</v>
+        <v>0.0609305</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0687757</v>
+        <v>0.06805070000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06326089999999999</v>
+        <v>0.0636613</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0587716</v>
+        <v>0.0646418</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0573887</v>
+        <v>0.0564272</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0637523</v>
+        <v>0.0632103</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0603018</v>
+        <v>0.0632813</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0577636</v>
+        <v>0.0574331</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0646061</v>
+        <v>0.06351800000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0603851</v>
+        <v>0.0633754</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0581587</v>
+        <v>0.0572808</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0650939</v>
+        <v>0.0635341</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0605484</v>
+        <v>0.06349970000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0585874</v>
+        <v>0.0581324</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0656586</v>
+        <v>0.0648185</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.060644</v>
+        <v>0.0635903</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0590365</v>
+        <v>0.0582313</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0660543</v>
+        <v>0.0649812</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0608028</v>
+        <v>0.0637831</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0596922</v>
+        <v>0.059015</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0662022</v>
+        <v>0.0656405</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0610018</v>
+        <v>0.06397650000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0601451</v>
+        <v>0.0600622</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06717960000000001</v>
+        <v>0.06561409999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0611702</v>
+        <v>0.06418459999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0607759</v>
+        <v>0.0598063</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0678718</v>
+        <v>0.06699339999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0614066</v>
+        <v>0.06443649999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.061684</v>
+        <v>0.0609914</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0688477</v>
+        <v>0.0679565</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.061714</v>
+        <v>0.0647428</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0629382</v>
+        <v>0.0620017</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0704909</v>
+        <v>0.0699413</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.062048</v>
+        <v>0.0651345</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06450500000000001</v>
+        <v>0.0634218</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0726382</v>
+        <v>0.0710129</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06269180000000001</v>
+        <v>0.065758</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0666476</v>
+        <v>0.06596630000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07632890000000001</v>
+        <v>0.0751636</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0642953</v>
+        <v>0.0672379</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0701137</v>
+        <v>0.0689482</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0810582</v>
+        <v>0.079231</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0678021</v>
+        <v>0.07070650000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0745692</v>
+        <v>0.07328460000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0694795</v>
+        <v>0.06685199999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07265489999999999</v>
+        <v>0.07597470000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.081507</v>
+        <v>0.08034330000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06992279999999999</v>
+        <v>0.0683198</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06752569999999999</v>
+        <v>0.06967909999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.059116</v>
+        <v>0.058266</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0703534</v>
+        <v>0.0675002</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0683063</v>
+        <v>0.0694346</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0595374</v>
+        <v>0.0579244</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07086489999999999</v>
+        <v>0.0689872</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0683362</v>
+        <v>0.06948</v>
       </c>
       <c r="C55" t="n">
-        <v>0.060195</v>
+        <v>0.0588853</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0714268</v>
+        <v>0.06879929999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06848750000000001</v>
+        <v>0.0695843</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0607304</v>
+        <v>0.0598409</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07190390000000001</v>
+        <v>0.06902469999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.068631</v>
+        <v>0.0697961</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0614277</v>
+        <v>0.0598882</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0724752</v>
+        <v>0.0687094</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0688059</v>
+        <v>0.0699384</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0622438</v>
+        <v>0.0609317</v>
       </c>
       <c r="D58" t="n">
-        <v>0.073198</v>
+        <v>0.0695385</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06897739999999999</v>
+        <v>0.0702512</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0630265</v>
+        <v>0.0617246</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0740094</v>
+        <v>0.0704352</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0693078</v>
+        <v>0.07048310000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0641481</v>
+        <v>0.0625597</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0751797</v>
+        <v>0.0727778</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0696127</v>
+        <v>0.0708961</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0653826</v>
+        <v>0.06332260000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0767689</v>
+        <v>0.073382</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0701384</v>
+        <v>0.0713519</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06721149999999999</v>
+        <v>0.0654309</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0791765</v>
+        <v>0.0764748</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07116400000000001</v>
+        <v>0.072323</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0694765</v>
+        <v>0.0677171</v>
       </c>
       <c r="D63" t="n">
-        <v>0.082389</v>
+        <v>0.0785406</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07301920000000001</v>
+        <v>0.0742535</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07237300000000001</v>
+        <v>0.0706223</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08677459999999999</v>
+        <v>0.0833798</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0756802</v>
+        <v>0.0768438</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07638300000000001</v>
+        <v>0.0746531</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09384290000000001</v>
+        <v>0.0914523</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0798469</v>
+        <v>0.08105320000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08268159999999999</v>
+        <v>0.0803357</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0746487</v>
+        <v>0.0715705</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08458839999999999</v>
+        <v>0.0791868</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0717217</v>
+        <v>0.0635845</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0751844</v>
+        <v>0.07385799999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0846872</v>
+        <v>0.0793224</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0721542</v>
+        <v>0.0641403</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0758851</v>
+        <v>0.0745103</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08526499999999999</v>
+        <v>0.07942680000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0728145</v>
+        <v>0.0646346</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0768556</v>
+        <v>0.074891</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08573409999999999</v>
+        <v>0.0801222</v>
       </c>
       <c r="C70" t="n">
-        <v>0.073653</v>
+        <v>0.0653118</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0776328</v>
+        <v>0.0750181</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08583880000000001</v>
+        <v>0.080397</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0739129</v>
+        <v>0.06594709999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0785898</v>
+        <v>0.0740968</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08605699999999999</v>
+        <v>0.08091669999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0745334</v>
+        <v>0.0668059</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0798417</v>
+        <v>0.0749698</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0863078</v>
+        <v>0.08101510000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0754773</v>
+        <v>0.0675268</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08090120000000001</v>
+        <v>0.0758127</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0864153</v>
+        <v>0.08147450000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0765502</v>
+        <v>0.0687352</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0822918</v>
+        <v>0.0776524</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0867084</v>
+        <v>0.0818024</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0775623</v>
+        <v>0.07001599999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0838907</v>
+        <v>0.0789454</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.087321</v>
+        <v>0.08230419999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07918989999999999</v>
+        <v>0.0715763</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0855404</v>
+        <v>0.0809271</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0881369</v>
+        <v>0.0837768</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08087800000000001</v>
+        <v>0.0735649</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0878348</v>
+        <v>0.083899</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0896222</v>
+        <v>0.0851818</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0837944</v>
+        <v>0.0764421</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0918498</v>
+        <v>0.0884209</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0918292</v>
+        <v>0.0872059</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08727169999999999</v>
+        <v>0.0800394</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0978672</v>
+        <v>0.0943693</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.095221</v>
+        <v>0.0904997</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0925001</v>
+        <v>0.08544980000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.130262</v>
+        <v>0.117757</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.199265</v>
+        <v>0.183784</v>
       </c>
       <c r="C81" t="n">
-        <v>0.170747</v>
+        <v>0.154665</v>
       </c>
       <c r="D81" t="n">
-        <v>0.133094</v>
+        <v>0.120344</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.196097</v>
+        <v>0.181371</v>
       </c>
       <c r="C82" t="n">
-        <v>0.16831</v>
+        <v>0.157609</v>
       </c>
       <c r="D82" t="n">
-        <v>0.130188</v>
+        <v>0.127227</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.195248</v>
+        <v>0.182232</v>
       </c>
       <c r="C83" t="n">
-        <v>0.16966</v>
+        <v>0.154212</v>
       </c>
       <c r="D83" t="n">
-        <v>0.135523</v>
+        <v>0.126577</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.198273</v>
+        <v>0.182034</v>
       </c>
       <c r="C84" t="n">
-        <v>0.169593</v>
+        <v>0.157849</v>
       </c>
       <c r="D84" t="n">
-        <v>0.13538</v>
+        <v>0.131259</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.197509</v>
+        <v>0.18447</v>
       </c>
       <c r="C85" t="n">
-        <v>0.167718</v>
+        <v>0.156686</v>
       </c>
       <c r="D85" t="n">
-        <v>0.138409</v>
+        <v>0.132168</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.199176</v>
+        <v>0.18269</v>
       </c>
       <c r="C86" t="n">
-        <v>0.171452</v>
+        <v>0.15897</v>
       </c>
       <c r="D86" t="n">
-        <v>0.141156</v>
+        <v>0.134541</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.198915</v>
+        <v>0.184286</v>
       </c>
       <c r="C87" t="n">
-        <v>0.16833</v>
+        <v>0.157565</v>
       </c>
       <c r="D87" t="n">
-        <v>0.142505</v>
+        <v>0.136774</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.19822</v>
+        <v>0.183285</v>
       </c>
       <c r="C88" t="n">
-        <v>0.171971</v>
+        <v>0.159</v>
       </c>
       <c r="D88" t="n">
-        <v>0.144844</v>
+        <v>0.137745</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.201089</v>
+        <v>0.185312</v>
       </c>
       <c r="C89" t="n">
-        <v>0.171173</v>
+        <v>0.159111</v>
       </c>
       <c r="D89" t="n">
-        <v>0.148522</v>
+        <v>0.14127</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.198941</v>
+        <v>0.185126</v>
       </c>
       <c r="C90" t="n">
-        <v>0.174589</v>
+        <v>0.161771</v>
       </c>
       <c r="D90" t="n">
-        <v>0.152359</v>
+        <v>0.143279</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.201826</v>
+        <v>0.186664</v>
       </c>
       <c r="C91" t="n">
-        <v>0.173529</v>
+        <v>0.162598</v>
       </c>
       <c r="D91" t="n">
-        <v>0.154984</v>
+        <v>0.147093</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.20046</v>
+        <v>0.186215</v>
       </c>
       <c r="C92" t="n">
-        <v>0.178317</v>
+        <v>0.166557</v>
       </c>
       <c r="D92" t="n">
-        <v>0.159873</v>
+        <v>0.152579</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.203771</v>
+        <v>0.189333</v>
       </c>
       <c r="C93" t="n">
-        <v>0.180201</v>
+        <v>0.16844</v>
       </c>
       <c r="D93" t="n">
-        <v>0.16701</v>
+        <v>0.156931</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.205803</v>
+        <v>0.190316</v>
       </c>
       <c r="C94" t="n">
-        <v>0.186331</v>
+        <v>0.172732</v>
       </c>
       <c r="D94" t="n">
-        <v>0.263008</v>
+        <v>0.245043</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.277878</v>
+        <v>0.25435</v>
       </c>
       <c r="C95" t="n">
-        <v>0.257437</v>
+        <v>0.234347</v>
       </c>
       <c r="D95" t="n">
-        <v>0.258789</v>
+        <v>0.246734</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.277879</v>
+        <v>0.254389</v>
       </c>
       <c r="C96" t="n">
-        <v>0.258715</v>
+        <v>0.235891</v>
       </c>
       <c r="D96" t="n">
-        <v>0.267155</v>
+        <v>0.248135</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.278042</v>
+        <v>0.25438</v>
       </c>
       <c r="C97" t="n">
-        <v>0.25312</v>
+        <v>0.236674</v>
       </c>
       <c r="D97" t="n">
-        <v>0.262202</v>
+        <v>0.250553</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.278583</v>
+        <v>0.25385</v>
       </c>
       <c r="C98" t="n">
-        <v>0.260973</v>
+        <v>0.23</v>
       </c>
       <c r="D98" t="n">
-        <v>0.271781</v>
+        <v>0.24457</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.27829</v>
+        <v>0.255234</v>
       </c>
       <c r="C99" t="n">
-        <v>0.262481</v>
+        <v>0.239251</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274206</v>
+        <v>0.254402</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.278411</v>
+        <v>0.254494</v>
       </c>
       <c r="C100" t="n">
-        <v>0.263652</v>
+        <v>0.24097</v>
       </c>
       <c r="D100" t="n">
-        <v>0.275666</v>
+        <v>0.256871</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.278788</v>
+        <v>0.254454</v>
       </c>
       <c r="C101" t="n">
-        <v>0.264687</v>
+        <v>0.2421</v>
       </c>
       <c r="D101" t="n">
-        <v>0.27759</v>
+        <v>0.258874</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.279323</v>
+        <v>0.255093</v>
       </c>
       <c r="C102" t="n">
-        <v>0.266234</v>
+        <v>0.243587</v>
       </c>
       <c r="D102" t="n">
-        <v>0.281062</v>
+        <v>0.260975</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.279211</v>
+        <v>0.254835</v>
       </c>
       <c r="C103" t="n">
-        <v>0.268164</v>
+        <v>0.245444</v>
       </c>
       <c r="D103" t="n">
-        <v>0.27729</v>
+        <v>0.262275</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.279521</v>
+        <v>0.25564</v>
       </c>
       <c r="C104" t="n">
-        <v>0.269912</v>
+        <v>0.240975</v>
       </c>
       <c r="D104" t="n">
-        <v>0.284916</v>
+        <v>0.259667</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.280476</v>
+        <v>0.255975</v>
       </c>
       <c r="C105" t="n">
-        <v>0.271954</v>
+        <v>0.243388</v>
       </c>
       <c r="D105" t="n">
-        <v>0.287946</v>
+        <v>0.262627</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.281307</v>
+        <v>0.257157</v>
       </c>
       <c r="C106" t="n">
-        <v>0.274862</v>
+        <v>0.246264</v>
       </c>
       <c r="D106" t="n">
-        <v>0.29214</v>
+        <v>0.273699</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.283167</v>
+        <v>0.25853</v>
       </c>
       <c r="C107" t="n">
-        <v>0.279031</v>
+        <v>0.25685</v>
       </c>
       <c r="D107" t="n">
-        <v>0.292568</v>
+        <v>0.278018</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.285545</v>
+        <v>0.260891</v>
       </c>
       <c r="C108" t="n">
-        <v>0.284159</v>
+        <v>0.261485</v>
       </c>
       <c r="D108" t="n">
-        <v>0.342733</v>
+        <v>0.307096</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.290253</v>
+        <v>0.266037</v>
       </c>
       <c r="C109" t="n">
-        <v>0.292395</v>
+        <v>0.269096</v>
       </c>
       <c r="D109" t="n">
-        <v>0.341112</v>
+        <v>0.308361</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.316702</v>
+        <v>0.294011</v>
       </c>
       <c r="C110" t="n">
-        <v>0.301217</v>
+        <v>0.265095</v>
       </c>
       <c r="D110" t="n">
-        <v>0.343772</v>
+        <v>0.307606</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.32559</v>
+        <v>0.29222</v>
       </c>
       <c r="C111" t="n">
-        <v>0.307147</v>
+        <v>0.265191</v>
       </c>
       <c r="D111" t="n">
-        <v>0.350141</v>
+        <v>0.310259</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.319831</v>
+        <v>0.2939</v>
       </c>
       <c r="C112" t="n">
-        <v>0.30754</v>
+        <v>0.262381</v>
       </c>
       <c r="D112" t="n">
-        <v>0.353494</v>
+        <v>0.312209</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.321914</v>
+        <v>0.292051</v>
       </c>
       <c r="C113" t="n">
-        <v>0.311729</v>
+        <v>0.265144</v>
       </c>
       <c r="D113" t="n">
-        <v>0.354942</v>
+        <v>0.317756</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321092</v>
+        <v>0.287578</v>
       </c>
       <c r="C114" t="n">
-        <v>0.314972</v>
+        <v>0.270355</v>
       </c>
       <c r="D114" t="n">
-        <v>0.358771</v>
+        <v>0.320486</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.322376</v>
+        <v>0.287337</v>
       </c>
       <c r="C115" t="n">
-        <v>0.316926</v>
+        <v>0.273335</v>
       </c>
       <c r="D115" t="n">
-        <v>0.358191</v>
+        <v>0.323277</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.321865</v>
+        <v>0.287832</v>
       </c>
       <c r="C116" t="n">
-        <v>0.320515</v>
+        <v>0.276224</v>
       </c>
       <c r="D116" t="n">
-        <v>0.36495</v>
+        <v>0.325372</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.322569</v>
+        <v>0.294363</v>
       </c>
       <c r="C117" t="n">
-        <v>0.323543</v>
+        <v>0.277649</v>
       </c>
       <c r="D117" t="n">
-        <v>0.368326</v>
+        <v>0.329178</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.318059</v>
+        <v>0.293714</v>
       </c>
       <c r="C118" t="n">
-        <v>0.327716</v>
+        <v>0.282685</v>
       </c>
       <c r="D118" t="n">
-        <v>0.372882</v>
+        <v>0.329445</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.325143</v>
+        <v>0.294572</v>
       </c>
       <c r="C119" t="n">
-        <v>0.329345</v>
+        <v>0.28605</v>
       </c>
       <c r="D119" t="n">
-        <v>0.374672</v>
+        <v>0.334322</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.32459</v>
+        <v>0.296274</v>
       </c>
       <c r="C120" t="n">
-        <v>0.334608</v>
+        <v>0.287363</v>
       </c>
       <c r="D120" t="n">
-        <v>0.380814</v>
+        <v>0.341975</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.318355</v>
+        <v>0.298181</v>
       </c>
       <c r="C121" t="n">
-        <v>0.33913</v>
+        <v>0.293943</v>
       </c>
       <c r="D121" t="n">
-        <v>0.387462</v>
+        <v>0.347981</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.328941</v>
+        <v>0.299972</v>
       </c>
       <c r="C122" t="n">
-        <v>0.344988</v>
+        <v>0.2969</v>
       </c>
       <c r="D122" t="n">
-        <v>0.397536</v>
+        <v>0.356471</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.32866</v>
+        <v>0.299704</v>
       </c>
       <c r="C123" t="n">
-        <v>0.355847</v>
+        <v>0.308194</v>
       </c>
       <c r="D123" t="n">
-        <v>0.404704</v>
+        <v>0.344214</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.412458</v>
+        <v>0.373352</v>
       </c>
       <c r="C124" t="n">
-        <v>0.339784</v>
+        <v>0.282177</v>
       </c>
       <c r="D124" t="n">
-        <v>0.404983</v>
+        <v>0.345543</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.411431</v>
+        <v>0.37371</v>
       </c>
       <c r="C125" t="n">
-        <v>0.343899</v>
+        <v>0.284954</v>
       </c>
       <c r="D125" t="n">
-        <v>0.412117</v>
+        <v>0.338997</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.411796</v>
+        <v>0.372211</v>
       </c>
       <c r="C126" t="n">
-        <v>0.347204</v>
+        <v>0.288387</v>
       </c>
       <c r="D126" t="n">
-        <v>0.41319</v>
+        <v>0.341722</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.411585</v>
+        <v>0.373606</v>
       </c>
       <c r="C127" t="n">
-        <v>0.351118</v>
+        <v>0.291657</v>
       </c>
       <c r="D127" t="n">
-        <v>0.417846</v>
+        <v>0.344687</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.411619</v>
+        <v>0.373203</v>
       </c>
       <c r="C128" t="n">
-        <v>0.355046</v>
+        <v>0.294602</v>
       </c>
       <c r="D128" t="n">
-        <v>0.419794</v>
+        <v>0.346476</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.411719</v>
+        <v>0.372994</v>
       </c>
       <c r="C129" t="n">
-        <v>0.359095</v>
+        <v>0.298209</v>
       </c>
       <c r="D129" t="n">
-        <v>0.42691</v>
+        <v>0.350078</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.411381</v>
+        <v>0.373275</v>
       </c>
       <c r="C130" t="n">
-        <v>0.362525</v>
+        <v>0.30166</v>
       </c>
       <c r="D130" t="n">
-        <v>0.430008</v>
+        <v>0.353052</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.41126</v>
+        <v>0.373656</v>
       </c>
       <c r="C131" t="n">
-        <v>0.366954</v>
+        <v>0.305679</v>
       </c>
       <c r="D131" t="n">
-        <v>0.434879</v>
+        <v>0.358076</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.411233</v>
+        <v>0.373223</v>
       </c>
       <c r="C132" t="n">
-        <v>0.371296</v>
+        <v>0.309135</v>
       </c>
       <c r="D132" t="n">
-        <v>0.437486</v>
+        <v>0.361895</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.411363</v>
+        <v>0.372881</v>
       </c>
       <c r="C133" t="n">
-        <v>0.375741</v>
+        <v>0.314422</v>
       </c>
       <c r="D133" t="n">
-        <v>0.444507</v>
+        <v>0.367491</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.411766</v>
+        <v>0.374656</v>
       </c>
       <c r="C134" t="n">
-        <v>0.381085</v>
+        <v>0.31829</v>
       </c>
       <c r="D134" t="n">
-        <v>0.449711</v>
+        <v>0.373128</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.414917</v>
+        <v>0.375519</v>
       </c>
       <c r="C135" t="n">
-        <v>0.387788</v>
+        <v>0.323651</v>
       </c>
       <c r="D135" t="n">
-        <v>0.459399</v>
+        <v>0.375926</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.416177</v>
+        <v>0.377735</v>
       </c>
       <c r="C136" t="n">
-        <v>0.39618</v>
+        <v>0.331074</v>
       </c>
       <c r="D136" t="n">
-        <v>0.46962</v>
+        <v>0.386662</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.420383</v>
+        <v>0.380357</v>
       </c>
       <c r="C137" t="n">
-        <v>0.406569</v>
+        <v>0.340581</v>
       </c>
       <c r="D137" t="n">
-        <v>0.438494</v>
+        <v>0.359217</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.49013</v>
+        <v>0.443008</v>
       </c>
       <c r="C138" t="n">
-        <v>0.36872</v>
+        <v>0.304735</v>
       </c>
       <c r="D138" t="n">
-        <v>0.441592</v>
+        <v>0.361007</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.489666</v>
+        <v>0.443705</v>
       </c>
       <c r="C139" t="n">
-        <v>0.372215</v>
+        <v>0.307812</v>
       </c>
       <c r="D139" t="n">
-        <v>0.446782</v>
+        <v>0.363788</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.489527</v>
+        <v>0.443491</v>
       </c>
       <c r="C140" t="n">
-        <v>0.376779</v>
+        <v>0.309534</v>
       </c>
       <c r="D140" t="n">
-        <v>0.448447</v>
+        <v>0.364796</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.485437</v>
+        <v>0.438443</v>
       </c>
       <c r="C141" t="n">
-        <v>0.379393</v>
+        <v>0.312592</v>
       </c>
       <c r="D141" t="n">
-        <v>0.453398</v>
+        <v>0.368236</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.489646</v>
+        <v>0.443655</v>
       </c>
       <c r="C142" t="n">
-        <v>0.384443</v>
+        <v>0.314956</v>
       </c>
       <c r="D142" t="n">
-        <v>0.455757</v>
+        <v>0.369903</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.490573</v>
+        <v>0.444079</v>
       </c>
       <c r="C143" t="n">
-        <v>0.388037</v>
+        <v>0.318593</v>
       </c>
       <c r="D143" t="n">
-        <v>0.461636</v>
+        <v>0.373873</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0448048</v>
+        <v>0.0469311</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0441249</v>
+        <v>0.0436328</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0495998</v>
+        <v>0.0528666</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0449949</v>
+        <v>0.0472302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0443438</v>
+        <v>0.0439373</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0498417</v>
+        <v>0.052758</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0453525</v>
+        <v>0.0474978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0445593</v>
+        <v>0.0441148</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0502028</v>
+        <v>0.0526061</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0454274</v>
+        <v>0.0474174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0447564</v>
+        <v>0.0441764</v>
       </c>
       <c r="D5" t="n">
-        <v>0.050482</v>
+        <v>0.0533995</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0455356</v>
+        <v>0.047747</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0452908</v>
+        <v>0.0446279</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0508478</v>
+        <v>0.0532383</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0456833</v>
+        <v>0.0477158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0457879</v>
+        <v>0.0452229</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0519829</v>
+        <v>0.0540565</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0461048</v>
+        <v>0.0484155</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0468001</v>
+        <v>0.0463859</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0538564</v>
+        <v>0.0566553</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0468703</v>
+        <v>0.0494607</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0490384</v>
+        <v>0.0480821</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0529098</v>
+        <v>0.0552606</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0505591</v>
+        <v>0.052112</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0464827</v>
+        <v>0.0472562</v>
       </c>
       <c r="D10" t="n">
-        <v>0.053209</v>
+        <v>0.0555591</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0505075</v>
+        <v>0.0520725</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0468059</v>
+        <v>0.0475707</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0535748</v>
+        <v>0.0561031</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0506041</v>
+        <v>0.0516743</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0470128</v>
+        <v>0.0477673</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0539556</v>
+        <v>0.0565072</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0507951</v>
+        <v>0.0520412</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0473483</v>
+        <v>0.0481722</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0542526</v>
+        <v>0.057019</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0509471</v>
+        <v>0.0518877</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0478182</v>
+        <v>0.0484712</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0546898</v>
+        <v>0.057494</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0510922</v>
+        <v>0.052394</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0480924</v>
+        <v>0.0489508</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0550601</v>
+        <v>0.0576763</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0512499</v>
+        <v>0.0520481</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0484924</v>
+        <v>0.0491345</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0553601</v>
+        <v>0.0579642</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0515503</v>
+        <v>0.0522787</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0487902</v>
+        <v>0.0493436</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0557367</v>
+        <v>0.0578565</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0516513</v>
+        <v>0.0525279</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0490683</v>
+        <v>0.0497283</v>
       </c>
       <c r="D18" t="n">
-        <v>0.056288</v>
+        <v>0.0586689</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0518129</v>
+        <v>0.0527631</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0496503</v>
+        <v>0.0501303</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0568351</v>
+        <v>0.0586126</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0520177</v>
+        <v>0.0530197</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0499928</v>
+        <v>0.0506293</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0575531</v>
+        <v>0.0599538</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0523048</v>
+        <v>0.0536035</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0512147</v>
+        <v>0.051672</v>
       </c>
       <c r="D21" t="n">
-        <v>0.059035</v>
+        <v>0.0610882</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0527851</v>
+        <v>0.0538808</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0529665</v>
+        <v>0.0537699</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0638412</v>
+        <v>0.0647162</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0541354</v>
+        <v>0.055136</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0577603</v>
+        <v>0.0584979</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0580707</v>
+        <v>0.0589304</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0550097</v>
+        <v>0.0553837</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0523173</v>
+        <v>0.0519568</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0581801</v>
+        <v>0.0586561</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0548976</v>
+        <v>0.0550562</v>
       </c>
       <c r="C25" t="n">
-        <v>0.052655</v>
+        <v>0.0520511</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0582557</v>
+        <v>0.0599326</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0550576</v>
+        <v>0.0550764</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0528722</v>
+        <v>0.0527611</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0585898</v>
+        <v>0.0598357</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0550941</v>
+        <v>0.0551199</v>
       </c>
       <c r="C27" t="n">
-        <v>0.05315</v>
+        <v>0.0530698</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0589164</v>
+        <v>0.059873</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0552691</v>
+        <v>0.0552819</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0534752</v>
+        <v>0.0532107</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0593807</v>
+        <v>0.0611749</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0554447</v>
+        <v>0.0553984</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0534122</v>
+        <v>0.0532654</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0605682</v>
+        <v>0.0612188</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0556724</v>
+        <v>0.0555443</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0538092</v>
+        <v>0.0540598</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0607971</v>
+        <v>0.0612544</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0558712</v>
+        <v>0.0557306</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0545669</v>
+        <v>0.0543222</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0611683</v>
+        <v>0.06256390000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0561047</v>
+        <v>0.0559935</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0550946</v>
+        <v>0.0545816</v>
       </c>
       <c r="D32" t="n">
-        <v>0.061294</v>
+        <v>0.06315560000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0563055</v>
+        <v>0.0562175</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0556319</v>
+        <v>0.0552434</v>
       </c>
       <c r="D33" t="n">
-        <v>0.06276619999999999</v>
+        <v>0.0638355</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0565908</v>
+        <v>0.0564781</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0566492</v>
+        <v>0.0564181</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0638119</v>
+        <v>0.06532449999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0570373</v>
+        <v>0.0569438</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0585935</v>
+        <v>0.0584156</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06707689999999999</v>
+        <v>0.06829590000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0579388</v>
+        <v>0.0579567</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0623457</v>
+        <v>0.0624331</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07330589999999999</v>
+        <v>0.0743746</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0609305</v>
+        <v>0.0605609</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06805070000000001</v>
+        <v>0.06860140000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0636613</v>
+        <v>0.0648601</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0646418</v>
+        <v>0.0613121</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0564272</v>
+        <v>0.0570704</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0632103</v>
+        <v>0.0651915</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0632813</v>
+        <v>0.0607663</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0574331</v>
+        <v>0.0574798</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06351800000000001</v>
+        <v>0.0656298</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0633754</v>
+        <v>0.060798</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0572808</v>
+        <v>0.0578528</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0635341</v>
+        <v>0.0656569</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06349970000000001</v>
+        <v>0.0608892</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0581324</v>
+        <v>0.0588681</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0648185</v>
+        <v>0.0671566</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0635903</v>
+        <v>0.0609555</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0582313</v>
+        <v>0.058475</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0649812</v>
+        <v>0.0678598</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0637831</v>
+        <v>0.0610974</v>
       </c>
       <c r="C43" t="n">
-        <v>0.059015</v>
+        <v>0.0600256</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0656405</v>
+        <v>0.0673951</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.06397650000000001</v>
+        <v>0.0612775</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0600622</v>
+        <v>0.06052</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06561409999999999</v>
+        <v>0.0689133</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.06418459999999999</v>
+        <v>0.0614584</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0598063</v>
+        <v>0.0611306</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06699339999999999</v>
+        <v>0.0677856</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06443649999999999</v>
+        <v>0.0616869</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0609914</v>
+        <v>0.0618727</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0679565</v>
+        <v>0.0695928</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0647428</v>
+        <v>0.0620211</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0620017</v>
+        <v>0.063095</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0699413</v>
+        <v>0.0720306</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0651345</v>
+        <v>0.0624449</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0634218</v>
+        <v>0.06416520000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0710129</v>
+        <v>0.073391</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.065758</v>
+        <v>0.0630228</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06596630000000001</v>
+        <v>0.0670511</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0751636</v>
+        <v>0.0778604</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0672379</v>
+        <v>0.0645163</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0689482</v>
+        <v>0.0693559</v>
       </c>
       <c r="D50" t="n">
-        <v>0.079231</v>
+        <v>0.080771</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07070650000000001</v>
+        <v>0.06804640000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07328460000000001</v>
+        <v>0.0737853</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06685199999999999</v>
+        <v>0.0704608</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07597470000000001</v>
+        <v>0.07340679999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08034330000000001</v>
+        <v>0.081496</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0683198</v>
+        <v>0.0703293</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06967909999999999</v>
+        <v>0.0677463</v>
       </c>
       <c r="C53" t="n">
-        <v>0.058266</v>
+        <v>0.0584533</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0675002</v>
+        <v>0.0702933</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0694346</v>
+        <v>0.06743929999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0579244</v>
+        <v>0.0590242</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0689872</v>
+        <v>0.0698048</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06948</v>
+        <v>0.0674983</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0588853</v>
+        <v>0.0594592</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06879929999999999</v>
+        <v>0.0709776</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0695843</v>
+        <v>0.0675423</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0598409</v>
+        <v>0.0604066</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06902469999999999</v>
+        <v>0.0705746</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0697961</v>
+        <v>0.06774230000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0598882</v>
+        <v>0.0608601</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0687094</v>
+        <v>0.07100910000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0699384</v>
+        <v>0.0678851</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0609317</v>
+        <v>0.0613667</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0695385</v>
+        <v>0.0719943</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0702512</v>
+        <v>0.0680587</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0617246</v>
+        <v>0.0624528</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0704352</v>
+        <v>0.0743611</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07048310000000001</v>
+        <v>0.068386</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0625597</v>
+        <v>0.062597</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0727778</v>
+        <v>0.0738481</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0708961</v>
+        <v>0.06870800000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06332260000000001</v>
+        <v>0.0646241</v>
       </c>
       <c r="D61" t="n">
-        <v>0.073382</v>
+        <v>0.07505290000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0713519</v>
+        <v>0.0693226</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0654309</v>
+        <v>0.0661962</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0764748</v>
+        <v>0.0774681</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.072323</v>
+        <v>0.0701517</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0677171</v>
+        <v>0.06871190000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0785406</v>
+        <v>0.0805958</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0742535</v>
+        <v>0.07208580000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0706223</v>
+        <v>0.07148549999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0833798</v>
+        <v>0.08670029999999999</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0768438</v>
+        <v>0.074832</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0746531</v>
+        <v>0.0748572</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0914523</v>
+        <v>0.0922075</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.08105320000000001</v>
+        <v>0.078851</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0803357</v>
+        <v>0.08138919999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0715705</v>
+        <v>0.0754866</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0791868</v>
+        <v>0.0780537</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0635845</v>
+        <v>0.06332599999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07385799999999999</v>
+        <v>0.0759823</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0793224</v>
+        <v>0.0780371</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0641403</v>
+        <v>0.0636992</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0745103</v>
+        <v>0.0764899</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.07942680000000001</v>
+        <v>0.0780897</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0646346</v>
+        <v>0.0642238</v>
       </c>
       <c r="D69" t="n">
-        <v>0.074891</v>
+        <v>0.0744369</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0801222</v>
+        <v>0.0783478</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0653118</v>
+        <v>0.06472600000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0750181</v>
+        <v>0.07510020000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.080397</v>
+        <v>0.0786999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06594709999999999</v>
+        <v>0.0653847</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0740968</v>
+        <v>0.07564079999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08091669999999999</v>
+        <v>0.0788262</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0668059</v>
+        <v>0.0661144</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0749698</v>
+        <v>0.07632799999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08101510000000001</v>
+        <v>0.079476</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0675268</v>
+        <v>0.0671717</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0758127</v>
+        <v>0.0772463</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08147450000000001</v>
+        <v>0.0795709</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0687352</v>
+        <v>0.0682582</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0776524</v>
+        <v>0.07845580000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0818024</v>
+        <v>0.0798797</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07001599999999999</v>
+        <v>0.06959609999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0789454</v>
+        <v>0.08003349999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08230419999999999</v>
+        <v>0.0802886</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0715763</v>
+        <v>0.07117080000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0809271</v>
+        <v>0.0820478</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0837768</v>
+        <v>0.08132300000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0735649</v>
+        <v>0.0731844</v>
       </c>
       <c r="D77" t="n">
-        <v>0.083899</v>
+        <v>0.0846992</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0851818</v>
+        <v>0.08289390000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0764421</v>
+        <v>0.075873</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0884209</v>
+        <v>0.088654</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0872059</v>
+        <v>0.0851746</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0800394</v>
+        <v>0.0795573</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0943693</v>
+        <v>0.0943234</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0904997</v>
+        <v>0.08870020000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08544980000000001</v>
+        <v>0.08498550000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.117757</v>
+        <v>0.119329</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.183784</v>
+        <v>0.183319</v>
       </c>
       <c r="C81" t="n">
-        <v>0.154665</v>
+        <v>0.153149</v>
       </c>
       <c r="D81" t="n">
-        <v>0.120344</v>
+        <v>0.121221</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.181371</v>
+        <v>0.182448</v>
       </c>
       <c r="C82" t="n">
-        <v>0.157609</v>
+        <v>0.152113</v>
       </c>
       <c r="D82" t="n">
-        <v>0.127227</v>
+        <v>0.12235</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182232</v>
+        <v>0.180499</v>
       </c>
       <c r="C83" t="n">
-        <v>0.154212</v>
+        <v>0.155184</v>
       </c>
       <c r="D83" t="n">
-        <v>0.126577</v>
+        <v>0.1254</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.182034</v>
+        <v>0.181154</v>
       </c>
       <c r="C84" t="n">
-        <v>0.157849</v>
+        <v>0.154826</v>
       </c>
       <c r="D84" t="n">
-        <v>0.131259</v>
+        <v>0.128789</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18447</v>
+        <v>0.181065</v>
       </c>
       <c r="C85" t="n">
-        <v>0.156686</v>
+        <v>0.155574</v>
       </c>
       <c r="D85" t="n">
-        <v>0.132168</v>
+        <v>0.128689</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.18269</v>
+        <v>0.182921</v>
       </c>
       <c r="C86" t="n">
-        <v>0.15897</v>
+        <v>0.15555</v>
       </c>
       <c r="D86" t="n">
-        <v>0.134541</v>
+        <v>0.136014</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.184286</v>
+        <v>0.183198</v>
       </c>
       <c r="C87" t="n">
-        <v>0.157565</v>
+        <v>0.156744</v>
       </c>
       <c r="D87" t="n">
-        <v>0.136774</v>
+        <v>0.13602</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.183285</v>
+        <v>0.18347</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159</v>
+        <v>0.15764</v>
       </c>
       <c r="D88" t="n">
-        <v>0.137745</v>
+        <v>0.138562</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.185312</v>
+        <v>0.183361</v>
       </c>
       <c r="C89" t="n">
-        <v>0.159111</v>
+        <v>0.158914</v>
       </c>
       <c r="D89" t="n">
-        <v>0.14127</v>
+        <v>0.139033</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.185126</v>
+        <v>0.184682</v>
       </c>
       <c r="C90" t="n">
-        <v>0.161771</v>
+        <v>0.158589</v>
       </c>
       <c r="D90" t="n">
-        <v>0.143279</v>
+        <v>0.142853</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186664</v>
+        <v>0.185381</v>
       </c>
       <c r="C91" t="n">
-        <v>0.162598</v>
+        <v>0.161252</v>
       </c>
       <c r="D91" t="n">
-        <v>0.147093</v>
+        <v>0.145015</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.186215</v>
+        <v>0.186934</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166557</v>
+        <v>0.16326</v>
       </c>
       <c r="D92" t="n">
-        <v>0.152579</v>
+        <v>0.151876</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189333</v>
+        <v>0.188247</v>
       </c>
       <c r="C93" t="n">
-        <v>0.16844</v>
+        <v>0.165181</v>
       </c>
       <c r="D93" t="n">
-        <v>0.156931</v>
+        <v>0.153532</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190316</v>
+        <v>0.192505</v>
       </c>
       <c r="C94" t="n">
-        <v>0.172732</v>
+        <v>0.170672</v>
       </c>
       <c r="D94" t="n">
-        <v>0.245043</v>
+        <v>0.240891</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.25435</v>
+        <v>0.25325</v>
       </c>
       <c r="C95" t="n">
-        <v>0.234347</v>
+        <v>0.22967</v>
       </c>
       <c r="D95" t="n">
-        <v>0.246734</v>
+        <v>0.242931</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.254389</v>
+        <v>0.252239</v>
       </c>
       <c r="C96" t="n">
-        <v>0.235891</v>
+        <v>0.230944</v>
       </c>
       <c r="D96" t="n">
-        <v>0.248135</v>
+        <v>0.244412</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25438</v>
+        <v>0.253351</v>
       </c>
       <c r="C97" t="n">
-        <v>0.236674</v>
+        <v>0.231271</v>
       </c>
       <c r="D97" t="n">
-        <v>0.250553</v>
+        <v>0.24642</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25385</v>
+        <v>0.252632</v>
       </c>
       <c r="C98" t="n">
-        <v>0.23</v>
+        <v>0.232722</v>
       </c>
       <c r="D98" t="n">
-        <v>0.24457</v>
+        <v>0.248075</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.255234</v>
+        <v>0.25221</v>
       </c>
       <c r="C99" t="n">
-        <v>0.239251</v>
+        <v>0.233822</v>
       </c>
       <c r="D99" t="n">
-        <v>0.254402</v>
+        <v>0.250332</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.254494</v>
+        <v>0.252914</v>
       </c>
       <c r="C100" t="n">
-        <v>0.24097</v>
+        <v>0.23495</v>
       </c>
       <c r="D100" t="n">
-        <v>0.256871</v>
+        <v>0.252463</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.254454</v>
+        <v>0.252507</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2421</v>
+        <v>0.236666</v>
       </c>
       <c r="D101" t="n">
-        <v>0.258874</v>
+        <v>0.254453</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.255093</v>
+        <v>0.252204</v>
       </c>
       <c r="C102" t="n">
-        <v>0.243587</v>
+        <v>0.238178</v>
       </c>
       <c r="D102" t="n">
-        <v>0.260975</v>
+        <v>0.256088</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.254835</v>
+        <v>0.252972</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245444</v>
+        <v>0.240286</v>
       </c>
       <c r="D103" t="n">
-        <v>0.262275</v>
+        <v>0.259556</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.25564</v>
+        <v>0.253233</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240975</v>
+        <v>0.241942</v>
       </c>
       <c r="D104" t="n">
-        <v>0.259667</v>
+        <v>0.261482</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255975</v>
+        <v>0.253386</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243388</v>
+        <v>0.244011</v>
       </c>
       <c r="D105" t="n">
-        <v>0.262627</v>
+        <v>0.264253</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.257157</v>
+        <v>0.254467</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246264</v>
+        <v>0.247135</v>
       </c>
       <c r="D106" t="n">
-        <v>0.273699</v>
+        <v>0.267209</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25853</v>
+        <v>0.25595</v>
       </c>
       <c r="C107" t="n">
-        <v>0.25685</v>
+        <v>0.250562</v>
       </c>
       <c r="D107" t="n">
-        <v>0.278018</v>
+        <v>0.272267</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.260891</v>
+        <v>0.259171</v>
       </c>
       <c r="C108" t="n">
-        <v>0.261485</v>
+        <v>0.25528</v>
       </c>
       <c r="D108" t="n">
-        <v>0.307096</v>
+        <v>0.302181</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.266037</v>
+        <v>0.263362</v>
       </c>
       <c r="C109" t="n">
-        <v>0.269096</v>
+        <v>0.262346</v>
       </c>
       <c r="D109" t="n">
-        <v>0.308361</v>
+        <v>0.30365</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.294011</v>
+        <v>0.293404</v>
       </c>
       <c r="C110" t="n">
-        <v>0.265095</v>
+        <v>0.264376</v>
       </c>
       <c r="D110" t="n">
-        <v>0.307606</v>
+        <v>0.305481</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.29222</v>
+        <v>0.293747</v>
       </c>
       <c r="C111" t="n">
-        <v>0.265191</v>
+        <v>0.264973</v>
       </c>
       <c r="D111" t="n">
-        <v>0.310259</v>
+        <v>0.307233</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.2939</v>
+        <v>0.291118</v>
       </c>
       <c r="C112" t="n">
-        <v>0.262381</v>
+        <v>0.261177</v>
       </c>
       <c r="D112" t="n">
-        <v>0.312209</v>
+        <v>0.310147</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.292051</v>
+        <v>0.287916</v>
       </c>
       <c r="C113" t="n">
-        <v>0.265144</v>
+        <v>0.262603</v>
       </c>
       <c r="D113" t="n">
-        <v>0.317756</v>
+        <v>0.312143</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.287578</v>
+        <v>0.29135</v>
       </c>
       <c r="C114" t="n">
-        <v>0.270355</v>
+        <v>0.265657</v>
       </c>
       <c r="D114" t="n">
-        <v>0.320486</v>
+        <v>0.314876</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.287337</v>
+        <v>0.292824</v>
       </c>
       <c r="C115" t="n">
-        <v>0.273335</v>
+        <v>0.268765</v>
       </c>
       <c r="D115" t="n">
-        <v>0.323277</v>
+        <v>0.317824</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.287832</v>
+        <v>0.287819</v>
       </c>
       <c r="C116" t="n">
-        <v>0.276224</v>
+        <v>0.272178</v>
       </c>
       <c r="D116" t="n">
-        <v>0.325372</v>
+        <v>0.311564</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.294363</v>
+        <v>0.292768</v>
       </c>
       <c r="C117" t="n">
-        <v>0.277649</v>
+        <v>0.274454</v>
       </c>
       <c r="D117" t="n">
-        <v>0.329178</v>
+        <v>0.316417</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293714</v>
+        <v>0.293939</v>
       </c>
       <c r="C118" t="n">
-        <v>0.282685</v>
+        <v>0.278697</v>
       </c>
       <c r="D118" t="n">
-        <v>0.329445</v>
+        <v>0.319342</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.294572</v>
+        <v>0.292711</v>
       </c>
       <c r="C119" t="n">
-        <v>0.28605</v>
+        <v>0.281527</v>
       </c>
       <c r="D119" t="n">
-        <v>0.334322</v>
+        <v>0.324768</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.296274</v>
+        <v>0.296079</v>
       </c>
       <c r="C120" t="n">
-        <v>0.287363</v>
+        <v>0.285861</v>
       </c>
       <c r="D120" t="n">
-        <v>0.341975</v>
+        <v>0.329173</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.298181</v>
+        <v>0.296513</v>
       </c>
       <c r="C121" t="n">
-        <v>0.293943</v>
+        <v>0.289256</v>
       </c>
       <c r="D121" t="n">
-        <v>0.347981</v>
+        <v>0.331835</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.299972</v>
+        <v>0.299698</v>
       </c>
       <c r="C122" t="n">
-        <v>0.2969</v>
+        <v>0.294472</v>
       </c>
       <c r="D122" t="n">
-        <v>0.356471</v>
+        <v>0.337578</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.299704</v>
+        <v>0.303784</v>
       </c>
       <c r="C123" t="n">
-        <v>0.308194</v>
+        <v>0.302888</v>
       </c>
       <c r="D123" t="n">
-        <v>0.344214</v>
+        <v>0.336568</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.373352</v>
+        <v>0.36964</v>
       </c>
       <c r="C124" t="n">
-        <v>0.282177</v>
+        <v>0.276934</v>
       </c>
       <c r="D124" t="n">
-        <v>0.345543</v>
+        <v>0.334166</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.37371</v>
+        <v>0.369991</v>
       </c>
       <c r="C125" t="n">
-        <v>0.284954</v>
+        <v>0.279882</v>
       </c>
       <c r="D125" t="n">
-        <v>0.338997</v>
+        <v>0.332235</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.372211</v>
+        <v>0.368941</v>
       </c>
       <c r="C126" t="n">
-        <v>0.288387</v>
+        <v>0.283627</v>
       </c>
       <c r="D126" t="n">
-        <v>0.341722</v>
+        <v>0.334972</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.373606</v>
+        <v>0.370468</v>
       </c>
       <c r="C127" t="n">
-        <v>0.291657</v>
+        <v>0.286307</v>
       </c>
       <c r="D127" t="n">
-        <v>0.344687</v>
+        <v>0.33815</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.373203</v>
+        <v>0.369694</v>
       </c>
       <c r="C128" t="n">
-        <v>0.294602</v>
+        <v>0.289782</v>
       </c>
       <c r="D128" t="n">
-        <v>0.346476</v>
+        <v>0.341191</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.372994</v>
+        <v>0.370244</v>
       </c>
       <c r="C129" t="n">
-        <v>0.298209</v>
+        <v>0.293321</v>
       </c>
       <c r="D129" t="n">
-        <v>0.350078</v>
+        <v>0.344218</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.373275</v>
+        <v>0.370827</v>
       </c>
       <c r="C130" t="n">
-        <v>0.30166</v>
+        <v>0.297637</v>
       </c>
       <c r="D130" t="n">
-        <v>0.353052</v>
+        <v>0.348325</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.373656</v>
+        <v>0.372796</v>
       </c>
       <c r="C131" t="n">
-        <v>0.305679</v>
+        <v>0.300786</v>
       </c>
       <c r="D131" t="n">
-        <v>0.358076</v>
+        <v>0.351545</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.373223</v>
+        <v>0.371897</v>
       </c>
       <c r="C132" t="n">
-        <v>0.309135</v>
+        <v>0.305919</v>
       </c>
       <c r="D132" t="n">
-        <v>0.361895</v>
+        <v>0.356256</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.372881</v>
+        <v>0.372313</v>
       </c>
       <c r="C133" t="n">
-        <v>0.314422</v>
+        <v>0.309793</v>
       </c>
       <c r="D133" t="n">
-        <v>0.367491</v>
+        <v>0.361269</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.374656</v>
+        <v>0.372757</v>
       </c>
       <c r="C134" t="n">
-        <v>0.31829</v>
+        <v>0.315373</v>
       </c>
       <c r="D134" t="n">
-        <v>0.373128</v>
+        <v>0.367005</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.375519</v>
+        <v>0.37486</v>
       </c>
       <c r="C135" t="n">
-        <v>0.323651</v>
+        <v>0.320022</v>
       </c>
       <c r="D135" t="n">
-        <v>0.375926</v>
+        <v>0.373438</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.377735</v>
+        <v>0.375236</v>
       </c>
       <c r="C136" t="n">
-        <v>0.331074</v>
+        <v>0.327717</v>
       </c>
       <c r="D136" t="n">
-        <v>0.386662</v>
+        <v>0.37901</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.380357</v>
+        <v>0.380082</v>
       </c>
       <c r="C137" t="n">
-        <v>0.340581</v>
+        <v>0.336954</v>
       </c>
       <c r="D137" t="n">
-        <v>0.359217</v>
+        <v>0.347839</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.443008</v>
+        <v>0.441608</v>
       </c>
       <c r="C138" t="n">
-        <v>0.304735</v>
+        <v>0.298361</v>
       </c>
       <c r="D138" t="n">
-        <v>0.361007</v>
+        <v>0.349847</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.443705</v>
+        <v>0.441259</v>
       </c>
       <c r="C139" t="n">
-        <v>0.307812</v>
+        <v>0.300847</v>
       </c>
       <c r="D139" t="n">
-        <v>0.363788</v>
+        <v>0.351836</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.443491</v>
+        <v>0.44204</v>
       </c>
       <c r="C140" t="n">
-        <v>0.309534</v>
+        <v>0.30399</v>
       </c>
       <c r="D140" t="n">
-        <v>0.364796</v>
+        <v>0.354724</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.438443</v>
+        <v>0.441608</v>
       </c>
       <c r="C141" t="n">
-        <v>0.312592</v>
+        <v>0.307016</v>
       </c>
       <c r="D141" t="n">
-        <v>0.368236</v>
+        <v>0.357568</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.443655</v>
+        <v>0.4421</v>
       </c>
       <c r="C142" t="n">
-        <v>0.314956</v>
+        <v>0.30966</v>
       </c>
       <c r="D142" t="n">
-        <v>0.369903</v>
+        <v>0.359552</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.444079</v>
+        <v>0.442357</v>
       </c>
       <c r="C143" t="n">
-        <v>0.318593</v>
+        <v>0.312846</v>
       </c>
       <c r="D143" t="n">
-        <v>0.373873</v>
+        <v>0.36276</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0469311</v>
+        <v>0.0472455</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0436328</v>
+        <v>0.0444243</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0528666</v>
+        <v>0.052533</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0472302</v>
+        <v>0.0474841</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0439373</v>
+        <v>0.045148</v>
       </c>
       <c r="D3" t="n">
-        <v>0.052758</v>
+        <v>0.0521467</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0474978</v>
+        <v>0.0473458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0441148</v>
+        <v>0.0453653</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0526061</v>
+        <v>0.0525513</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0474174</v>
+        <v>0.0472934</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0441764</v>
+        <v>0.045515</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0533995</v>
+        <v>0.0527299</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.047747</v>
+        <v>0.0474159</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0446279</v>
+        <v>0.0456863</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0532383</v>
+        <v>0.053146</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0477158</v>
+        <v>0.0476102</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0452229</v>
+        <v>0.0462521</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0540565</v>
+        <v>0.0540591</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0484155</v>
+        <v>0.0479886</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0463859</v>
+        <v>0.0467184</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0566553</v>
+        <v>0.0555704</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0494607</v>
+        <v>0.0487236</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0480821</v>
+        <v>0.0483889</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0552606</v>
+        <v>0.0568176</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.052112</v>
+        <v>0.0518792</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0472562</v>
+        <v>0.0489044</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0555591</v>
+        <v>0.0566837</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0520725</v>
+        <v>0.0518864</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0475707</v>
+        <v>0.0492523</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0561031</v>
+        <v>0.0569416</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0516743</v>
+        <v>0.0519759</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0477673</v>
+        <v>0.0495666</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0565072</v>
+        <v>0.0572439</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0520412</v>
+        <v>0.0521933</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0481722</v>
+        <v>0.0501153</v>
       </c>
       <c r="D13" t="n">
-        <v>0.057019</v>
+        <v>0.0578894</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0518877</v>
+        <v>0.0523446</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0484712</v>
+        <v>0.0503749</v>
       </c>
       <c r="D14" t="n">
-        <v>0.057494</v>
+        <v>0.0581061</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.052394</v>
+        <v>0.0524203</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0489508</v>
+        <v>0.0505868</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0576763</v>
+        <v>0.058498</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0520481</v>
+        <v>0.0525462</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0491345</v>
+        <v>0.0509588</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0579642</v>
+        <v>0.0588092</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0522787</v>
+        <v>0.0528362</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0493436</v>
+        <v>0.0511655</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0578565</v>
+        <v>0.0590086</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0525279</v>
+        <v>0.0529517</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0497283</v>
+        <v>0.0516523</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0586689</v>
+        <v>0.0592961</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0527631</v>
+        <v>0.0531125</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0501303</v>
+        <v>0.0517996</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0586126</v>
+        <v>0.0598073</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0530197</v>
+        <v>0.0533362</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0506293</v>
+        <v>0.0521508</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0599538</v>
+        <v>0.0605683</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0536035</v>
+        <v>0.0536</v>
       </c>
       <c r="C21" t="n">
-        <v>0.051672</v>
+        <v>0.0531426</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0610882</v>
+        <v>0.0623234</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0538808</v>
+        <v>0.0543269</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0537699</v>
+        <v>0.0549975</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0647162</v>
+        <v>0.06583749999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.055136</v>
+        <v>0.0554151</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0584979</v>
+        <v>0.0593788</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0589304</v>
+        <v>0.0589989</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0553837</v>
+        <v>0.0552802</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0519568</v>
+        <v>0.0519882</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0586561</v>
+        <v>0.0588281</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0550562</v>
+        <v>0.0548616</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0520511</v>
+        <v>0.0525953</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0599326</v>
+        <v>0.0592113</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0550764</v>
+        <v>0.0549489</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0527611</v>
+        <v>0.0529288</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0598357</v>
+        <v>0.0602988</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0551199</v>
+        <v>0.0550696</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0530698</v>
+        <v>0.0531235</v>
       </c>
       <c r="D27" t="n">
-        <v>0.059873</v>
+        <v>0.0598962</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0552819</v>
+        <v>0.0552435</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0532107</v>
+        <v>0.0528548</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0611749</v>
+        <v>0.060354</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0553984</v>
+        <v>0.0553601</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0532654</v>
+        <v>0.0531955</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0612188</v>
+        <v>0.061578</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0555443</v>
+        <v>0.0556442</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0540598</v>
+        <v>0.0537548</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0612544</v>
+        <v>0.0621279</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557306</v>
+        <v>0.0557079</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0543222</v>
+        <v>0.0547345</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06256390000000001</v>
+        <v>0.0623875</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0559935</v>
+        <v>0.0560231</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0545816</v>
+        <v>0.0545267</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06315560000000001</v>
+        <v>0.06299879999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562175</v>
+        <v>0.0562143</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0552434</v>
+        <v>0.0556032</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0638355</v>
+        <v>0.0636514</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0564781</v>
+        <v>0.0565392</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0564181</v>
+        <v>0.0570502</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06532449999999999</v>
+        <v>0.06493930000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0569438</v>
+        <v>0.0569987</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0584156</v>
+        <v>0.0583788</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06829590000000001</v>
+        <v>0.0682758</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0579567</v>
+        <v>0.0578988</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0624331</v>
+        <v>0.0620455</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0743746</v>
+        <v>0.0736677</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605609</v>
+        <v>0.0605136</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06860140000000001</v>
+        <v>0.0684242</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0648601</v>
+        <v>0.06446789999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0613121</v>
+        <v>0.0611814</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0570704</v>
+        <v>0.0582577</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0651915</v>
+        <v>0.06526079999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0607663</v>
+        <v>0.0597787</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0574798</v>
+        <v>0.0581882</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0656298</v>
+        <v>0.0643789</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.060798</v>
+        <v>0.059923</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0578528</v>
+        <v>0.0585686</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0656569</v>
+        <v>0.06547550000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0608892</v>
+        <v>0.060028</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0588681</v>
+        <v>0.0591297</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0671566</v>
+        <v>0.06596109999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0609555</v>
+        <v>0.0601317</v>
       </c>
       <c r="C42" t="n">
-        <v>0.058475</v>
+        <v>0.0595889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0678598</v>
+        <v>0.0667174</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0610974</v>
+        <v>0.0603275</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0600256</v>
+        <v>0.0597635</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0673951</v>
+        <v>0.0673821</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0612775</v>
+        <v>0.0605426</v>
       </c>
       <c r="C44" t="n">
-        <v>0.06052</v>
+        <v>0.0610684</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0689133</v>
+        <v>0.0686843</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0614584</v>
+        <v>0.0607387</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0611306</v>
+        <v>0.0609325</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0677856</v>
+        <v>0.0678219</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0616869</v>
+        <v>0.0609833</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0618727</v>
+        <v>0.0614385</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0695928</v>
+        <v>0.06970229999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0620211</v>
+        <v>0.0612794</v>
       </c>
       <c r="C47" t="n">
-        <v>0.063095</v>
+        <v>0.0634825</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0720306</v>
+        <v>0.07035329999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0624449</v>
+        <v>0.0616464</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06416520000000001</v>
+        <v>0.06447559999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.073391</v>
+        <v>0.0728732</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0630228</v>
+        <v>0.0623335</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0670511</v>
+        <v>0.0669492</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0778604</v>
+        <v>0.0758582</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0645163</v>
+        <v>0.06379170000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0693559</v>
+        <v>0.0700669</v>
       </c>
       <c r="D50" t="n">
-        <v>0.080771</v>
+        <v>0.08023710000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06804640000000001</v>
+        <v>0.0672755</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0737853</v>
+        <v>0.07457809999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0704608</v>
+        <v>0.0706046</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07340679999999999</v>
+        <v>0.07266060000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.081496</v>
+        <v>0.0808943</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0703293</v>
+        <v>0.0701519</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0677463</v>
+        <v>0.06836449999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0584533</v>
+        <v>0.0595444</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0702933</v>
+        <v>0.0704738</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06743929999999999</v>
+        <v>0.0681529</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0590242</v>
+        <v>0.0589604</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0698048</v>
+        <v>0.0701991</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0674983</v>
+        <v>0.0682078</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0594592</v>
+        <v>0.0603193</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0709776</v>
+        <v>0.07255010000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0675423</v>
+        <v>0.0683599</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0604066</v>
+        <v>0.0604517</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0705746</v>
+        <v>0.0715206</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06774230000000001</v>
+        <v>0.0685124</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0608601</v>
+        <v>0.0610935</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07100910000000001</v>
+        <v>0.0717346</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0678851</v>
+        <v>0.0686436</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0613667</v>
+        <v>0.0619724</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0719943</v>
+        <v>0.07305929999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0680587</v>
+        <v>0.06884270000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0624528</v>
+        <v>0.0625923</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0743611</v>
+        <v>0.0733379</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.068386</v>
+        <v>0.06920469999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>0.062597</v>
+        <v>0.06493169999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0738481</v>
+        <v>0.0728775</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06870800000000001</v>
+        <v>0.069438</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0646241</v>
+        <v>0.0662968</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07505290000000001</v>
+        <v>0.07679320000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0693226</v>
+        <v>0.0700094</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0661962</v>
+        <v>0.0679886</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0774681</v>
+        <v>0.076742</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0701517</v>
+        <v>0.07087980000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06871190000000001</v>
+        <v>0.0700047</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0805958</v>
+        <v>0.0815825</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07208580000000001</v>
+        <v>0.07295359999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07148549999999999</v>
+        <v>0.0730191</v>
       </c>
       <c r="D64" t="n">
-        <v>0.08670029999999999</v>
+        <v>0.0847902</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.074832</v>
+        <v>0.0755165</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0748572</v>
+        <v>0.0767502</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0922075</v>
+        <v>0.091034</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.078851</v>
+        <v>0.079753</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08138919999999999</v>
+        <v>0.08303439999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0754866</v>
+        <v>0.0737394</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0780537</v>
+        <v>0.0813905</v>
       </c>
       <c r="C67" t="n">
-        <v>0.06332599999999999</v>
+        <v>0.0699302</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0759823</v>
+        <v>0.07409499999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0780371</v>
+        <v>0.08142779999999999</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0636992</v>
+        <v>0.0703814</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0764899</v>
+        <v>0.0745894</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0780897</v>
+        <v>0.0815222</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0642238</v>
+        <v>0.07084169999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0744369</v>
+        <v>0.07510600000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0783478</v>
+        <v>0.0816438</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06472600000000001</v>
+        <v>0.0714344</v>
       </c>
       <c r="D70" t="n">
-        <v>0.07510020000000001</v>
+        <v>0.0757027</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0786999</v>
+        <v>0.0817687</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0653847</v>
+        <v>0.0719709</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07564079999999999</v>
+        <v>0.07628210000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0788262</v>
+        <v>0.08218</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0661144</v>
+        <v>0.07275810000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07632799999999999</v>
+        <v>0.0770093</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.079476</v>
+        <v>0.08239290000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0671717</v>
+        <v>0.0736171</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0772463</v>
+        <v>0.0781018</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0795709</v>
+        <v>0.08277039999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0682582</v>
+        <v>0.07476049999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>0.07845580000000001</v>
+        <v>0.0792282</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0798797</v>
+        <v>0.08331089999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06959609999999999</v>
+        <v>0.0761568</v>
       </c>
       <c r="D75" t="n">
-        <v>0.08003349999999999</v>
+        <v>0.0811002</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0802886</v>
+        <v>0.083978</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07117080000000001</v>
+        <v>0.0775909</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0820478</v>
+        <v>0.0830616</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08132300000000001</v>
+        <v>0.08493879999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0731844</v>
+        <v>0.0795119</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0846992</v>
+        <v>0.0857792</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08289390000000001</v>
+        <v>0.0864171</v>
       </c>
       <c r="C78" t="n">
-        <v>0.075873</v>
+        <v>0.0821066</v>
       </c>
       <c r="D78" t="n">
-        <v>0.088654</v>
+        <v>0.08960079999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0851746</v>
+        <v>0.0886212</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0795573</v>
+        <v>0.08560769999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0943234</v>
+        <v>0.0954132</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.08870020000000001</v>
+        <v>0.0923626</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08498550000000001</v>
+        <v>0.09081500000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.119329</v>
+        <v>0.123159</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.183319</v>
+        <v>0.180969</v>
       </c>
       <c r="C81" t="n">
-        <v>0.153149</v>
+        <v>0.159069</v>
       </c>
       <c r="D81" t="n">
-        <v>0.121221</v>
+        <v>0.12571</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182448</v>
+        <v>0.185295</v>
       </c>
       <c r="C82" t="n">
-        <v>0.152113</v>
+        <v>0.156082</v>
       </c>
       <c r="D82" t="n">
-        <v>0.12235</v>
+        <v>0.126964</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.180499</v>
+        <v>0.183444</v>
       </c>
       <c r="C83" t="n">
-        <v>0.155184</v>
+        <v>0.157647</v>
       </c>
       <c r="D83" t="n">
-        <v>0.1254</v>
+        <v>0.132396</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.181154</v>
+        <v>0.185851</v>
       </c>
       <c r="C84" t="n">
-        <v>0.154826</v>
+        <v>0.15742</v>
       </c>
       <c r="D84" t="n">
-        <v>0.128789</v>
+        <v>0.132877</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.181065</v>
+        <v>0.183931</v>
       </c>
       <c r="C85" t="n">
-        <v>0.155574</v>
+        <v>0.160146</v>
       </c>
       <c r="D85" t="n">
-        <v>0.128689</v>
+        <v>0.136241</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.182921</v>
+        <v>0.185258</v>
       </c>
       <c r="C86" t="n">
-        <v>0.15555</v>
+        <v>0.159278</v>
       </c>
       <c r="D86" t="n">
-        <v>0.136014</v>
+        <v>0.138058</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.183198</v>
+        <v>0.185529</v>
       </c>
       <c r="C87" t="n">
-        <v>0.156744</v>
+        <v>0.160866</v>
       </c>
       <c r="D87" t="n">
-        <v>0.13602</v>
+        <v>0.141862</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.18347</v>
+        <v>0.186701</v>
       </c>
       <c r="C88" t="n">
-        <v>0.15764</v>
+        <v>0.161207</v>
       </c>
       <c r="D88" t="n">
-        <v>0.138562</v>
+        <v>0.139782</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.183361</v>
+        <v>0.187955</v>
       </c>
       <c r="C89" t="n">
-        <v>0.158914</v>
+        <v>0.163558</v>
       </c>
       <c r="D89" t="n">
-        <v>0.139033</v>
+        <v>0.146153</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.184682</v>
+        <v>0.188421</v>
       </c>
       <c r="C90" t="n">
-        <v>0.158589</v>
+        <v>0.163613</v>
       </c>
       <c r="D90" t="n">
-        <v>0.142853</v>
+        <v>0.149941</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.185381</v>
+        <v>0.188091</v>
       </c>
       <c r="C91" t="n">
-        <v>0.161252</v>
+        <v>0.165729</v>
       </c>
       <c r="D91" t="n">
-        <v>0.145015</v>
+        <v>0.151795</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.186934</v>
+        <v>0.188335</v>
       </c>
       <c r="C92" t="n">
-        <v>0.16326</v>
+        <v>0.166139</v>
       </c>
       <c r="D92" t="n">
-        <v>0.151876</v>
+        <v>0.155245</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188247</v>
+        <v>0.190292</v>
       </c>
       <c r="C93" t="n">
-        <v>0.165181</v>
+        <v>0.168918</v>
       </c>
       <c r="D93" t="n">
-        <v>0.153532</v>
+        <v>0.159973</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192505</v>
+        <v>0.194088</v>
       </c>
       <c r="C94" t="n">
-        <v>0.170672</v>
+        <v>0.173227</v>
       </c>
       <c r="D94" t="n">
-        <v>0.240891</v>
+        <v>0.233441</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.25325</v>
+        <v>0.254428</v>
       </c>
       <c r="C95" t="n">
-        <v>0.22967</v>
+        <v>0.23204</v>
       </c>
       <c r="D95" t="n">
-        <v>0.242931</v>
+        <v>0.24473</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.252239</v>
+        <v>0.252932</v>
       </c>
       <c r="C96" t="n">
-        <v>0.230944</v>
+        <v>0.233002</v>
       </c>
       <c r="D96" t="n">
-        <v>0.244412</v>
+        <v>0.247074</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.253351</v>
+        <v>0.254283</v>
       </c>
       <c r="C97" t="n">
-        <v>0.231271</v>
+        <v>0.233832</v>
       </c>
       <c r="D97" t="n">
-        <v>0.24642</v>
+        <v>0.248215</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.252632</v>
+        <v>0.254571</v>
       </c>
       <c r="C98" t="n">
-        <v>0.232722</v>
+        <v>0.235667</v>
       </c>
       <c r="D98" t="n">
-        <v>0.248075</v>
+        <v>0.242979</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.25221</v>
+        <v>0.254504</v>
       </c>
       <c r="C99" t="n">
-        <v>0.233822</v>
+        <v>0.229995</v>
       </c>
       <c r="D99" t="n">
-        <v>0.250332</v>
+        <v>0.244636</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.252914</v>
+        <v>0.254726</v>
       </c>
       <c r="C100" t="n">
-        <v>0.23495</v>
+        <v>0.231471</v>
       </c>
       <c r="D100" t="n">
-        <v>0.252463</v>
+        <v>0.247874</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.252507</v>
+        <v>0.254694</v>
       </c>
       <c r="C101" t="n">
-        <v>0.236666</v>
+        <v>0.233556</v>
       </c>
       <c r="D101" t="n">
-        <v>0.254453</v>
+        <v>0.250218</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.252204</v>
+        <v>0.255151</v>
       </c>
       <c r="C102" t="n">
-        <v>0.238178</v>
+        <v>0.241695</v>
       </c>
       <c r="D102" t="n">
-        <v>0.256088</v>
+        <v>0.259428</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.252972</v>
+        <v>0.255314</v>
       </c>
       <c r="C103" t="n">
-        <v>0.240286</v>
+        <v>0.243389</v>
       </c>
       <c r="D103" t="n">
-        <v>0.259556</v>
+        <v>0.261798</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.253233</v>
+        <v>0.255783</v>
       </c>
       <c r="C104" t="n">
-        <v>0.241942</v>
+        <v>0.245841</v>
       </c>
       <c r="D104" t="n">
-        <v>0.261482</v>
+        <v>0.26541</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.253386</v>
+        <v>0.255514</v>
       </c>
       <c r="C105" t="n">
-        <v>0.244011</v>
+        <v>0.248061</v>
       </c>
       <c r="D105" t="n">
-        <v>0.264253</v>
+        <v>0.267185</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.254467</v>
+        <v>0.257304</v>
       </c>
       <c r="C106" t="n">
-        <v>0.247135</v>
+        <v>0.250446</v>
       </c>
       <c r="D106" t="n">
-        <v>0.267209</v>
+        <v>0.270839</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25595</v>
+        <v>0.258536</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250562</v>
+        <v>0.254118</v>
       </c>
       <c r="D107" t="n">
-        <v>0.272267</v>
+        <v>0.274671</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.259171</v>
+        <v>0.260995</v>
       </c>
       <c r="C108" t="n">
-        <v>0.25528</v>
+        <v>0.258446</v>
       </c>
       <c r="D108" t="n">
-        <v>0.302181</v>
+        <v>0.302028</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.263362</v>
+        <v>0.265598</v>
       </c>
       <c r="C109" t="n">
-        <v>0.262346</v>
+        <v>0.264767</v>
       </c>
       <c r="D109" t="n">
-        <v>0.30365</v>
+        <v>0.303663</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.293404</v>
+        <v>0.291129</v>
       </c>
       <c r="C110" t="n">
-        <v>0.264376</v>
+        <v>0.263378</v>
       </c>
       <c r="D110" t="n">
-        <v>0.305481</v>
+        <v>0.305721</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.293747</v>
+        <v>0.292274</v>
       </c>
       <c r="C111" t="n">
-        <v>0.264973</v>
+        <v>0.265605</v>
       </c>
       <c r="D111" t="n">
-        <v>0.307233</v>
+        <v>0.308123</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.291118</v>
+        <v>0.291686</v>
       </c>
       <c r="C112" t="n">
-        <v>0.261177</v>
+        <v>0.263003</v>
       </c>
       <c r="D112" t="n">
-        <v>0.310147</v>
+        <v>0.310642</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.287916</v>
+        <v>0.292388</v>
       </c>
       <c r="C113" t="n">
-        <v>0.262603</v>
+        <v>0.262155</v>
       </c>
       <c r="D113" t="n">
-        <v>0.312143</v>
+        <v>0.310335</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.29135</v>
+        <v>0.28564</v>
       </c>
       <c r="C114" t="n">
-        <v>0.265657</v>
+        <v>0.266251</v>
       </c>
       <c r="D114" t="n">
-        <v>0.314876</v>
+        <v>0.312636</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.292824</v>
+        <v>0.285846</v>
       </c>
       <c r="C115" t="n">
-        <v>0.268765</v>
+        <v>0.262532</v>
       </c>
       <c r="D115" t="n">
-        <v>0.317824</v>
+        <v>0.30361</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.287819</v>
+        <v>0.28732</v>
       </c>
       <c r="C116" t="n">
-        <v>0.272178</v>
+        <v>0.265121</v>
       </c>
       <c r="D116" t="n">
-        <v>0.311564</v>
+        <v>0.30556</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.292768</v>
+        <v>0.287729</v>
       </c>
       <c r="C117" t="n">
-        <v>0.274454</v>
+        <v>0.268703</v>
       </c>
       <c r="D117" t="n">
-        <v>0.316417</v>
+        <v>0.309436</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293939</v>
+        <v>0.287528</v>
       </c>
       <c r="C118" t="n">
-        <v>0.278697</v>
+        <v>0.271277</v>
       </c>
       <c r="D118" t="n">
-        <v>0.319342</v>
+        <v>0.312258</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.292711</v>
+        <v>0.288868</v>
       </c>
       <c r="C119" t="n">
-        <v>0.281527</v>
+        <v>0.274892</v>
       </c>
       <c r="D119" t="n">
-        <v>0.324768</v>
+        <v>0.315162</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.296079</v>
+        <v>0.289273</v>
       </c>
       <c r="C120" t="n">
-        <v>0.285861</v>
+        <v>0.278753</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329173</v>
+        <v>0.320122</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.296513</v>
+        <v>0.292903</v>
       </c>
       <c r="C121" t="n">
-        <v>0.289256</v>
+        <v>0.283461</v>
       </c>
       <c r="D121" t="n">
-        <v>0.331835</v>
+        <v>0.322981</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.299698</v>
+        <v>0.294774</v>
       </c>
       <c r="C122" t="n">
-        <v>0.294472</v>
+        <v>0.288398</v>
       </c>
       <c r="D122" t="n">
-        <v>0.337578</v>
+        <v>0.330356</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.303784</v>
+        <v>0.297894</v>
       </c>
       <c r="C123" t="n">
-        <v>0.302888</v>
+        <v>0.294938</v>
       </c>
       <c r="D123" t="n">
-        <v>0.336568</v>
+        <v>0.333215</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.36964</v>
+        <v>0.366626</v>
       </c>
       <c r="C124" t="n">
-        <v>0.276934</v>
+        <v>0.272801</v>
       </c>
       <c r="D124" t="n">
-        <v>0.334166</v>
+        <v>0.324043</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.369991</v>
+        <v>0.367555</v>
       </c>
       <c r="C125" t="n">
-        <v>0.279882</v>
+        <v>0.275359</v>
       </c>
       <c r="D125" t="n">
-        <v>0.332235</v>
+        <v>0.327707</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368941</v>
+        <v>0.367515</v>
       </c>
       <c r="C126" t="n">
-        <v>0.283627</v>
+        <v>0.278265</v>
       </c>
       <c r="D126" t="n">
-        <v>0.334972</v>
+        <v>0.330348</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.370468</v>
+        <v>0.368181</v>
       </c>
       <c r="C127" t="n">
-        <v>0.286307</v>
+        <v>0.281513</v>
       </c>
       <c r="D127" t="n">
-        <v>0.33815</v>
+        <v>0.332352</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.369694</v>
+        <v>0.368819</v>
       </c>
       <c r="C128" t="n">
-        <v>0.289782</v>
+        <v>0.284902</v>
       </c>
       <c r="D128" t="n">
-        <v>0.341191</v>
+        <v>0.336099</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.370244</v>
+        <v>0.3683</v>
       </c>
       <c r="C129" t="n">
-        <v>0.293321</v>
+        <v>0.288647</v>
       </c>
       <c r="D129" t="n">
-        <v>0.344218</v>
+        <v>0.339709</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.370827</v>
+        <v>0.368474</v>
       </c>
       <c r="C130" t="n">
-        <v>0.297637</v>
+        <v>0.291816</v>
       </c>
       <c r="D130" t="n">
-        <v>0.348325</v>
+        <v>0.342417</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.372796</v>
+        <v>0.368826</v>
       </c>
       <c r="C131" t="n">
-        <v>0.300786</v>
+        <v>0.296105</v>
       </c>
       <c r="D131" t="n">
-        <v>0.351545</v>
+        <v>0.34679</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.371897</v>
+        <v>0.368973</v>
       </c>
       <c r="C132" t="n">
-        <v>0.305919</v>
+        <v>0.29986</v>
       </c>
       <c r="D132" t="n">
-        <v>0.356256</v>
+        <v>0.350623</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.372313</v>
+        <v>0.36875</v>
       </c>
       <c r="C133" t="n">
-        <v>0.309793</v>
+        <v>0.304312</v>
       </c>
       <c r="D133" t="n">
-        <v>0.361269</v>
+        <v>0.355415</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.372757</v>
+        <v>0.369663</v>
       </c>
       <c r="C134" t="n">
-        <v>0.315373</v>
+        <v>0.309282</v>
       </c>
       <c r="D134" t="n">
-        <v>0.367005</v>
+        <v>0.361215</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.37486</v>
+        <v>0.371794</v>
       </c>
       <c r="C135" t="n">
-        <v>0.320022</v>
+        <v>0.314327</v>
       </c>
       <c r="D135" t="n">
-        <v>0.373438</v>
+        <v>0.368074</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.375236</v>
+        <v>0.373835</v>
       </c>
       <c r="C136" t="n">
-        <v>0.327717</v>
+        <v>0.321194</v>
       </c>
       <c r="D136" t="n">
-        <v>0.37901</v>
+        <v>0.376823</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.380082</v>
+        <v>0.376498</v>
       </c>
       <c r="C137" t="n">
-        <v>0.336954</v>
+        <v>0.330497</v>
       </c>
       <c r="D137" t="n">
-        <v>0.347839</v>
+        <v>0.343461</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.441608</v>
+        <v>0.433946</v>
       </c>
       <c r="C138" t="n">
-        <v>0.298361</v>
+        <v>0.295325</v>
       </c>
       <c r="D138" t="n">
-        <v>0.349847</v>
+        <v>0.345763</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.441259</v>
+        <v>0.434431</v>
       </c>
       <c r="C139" t="n">
-        <v>0.300847</v>
+        <v>0.297491</v>
       </c>
       <c r="D139" t="n">
-        <v>0.351836</v>
+        <v>0.347948</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.44204</v>
+        <v>0.434362</v>
       </c>
       <c r="C140" t="n">
-        <v>0.30399</v>
+        <v>0.300785</v>
       </c>
       <c r="D140" t="n">
-        <v>0.354724</v>
+        <v>0.35078</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.441608</v>
+        <v>0.435005</v>
       </c>
       <c r="C141" t="n">
-        <v>0.307016</v>
+        <v>0.303293</v>
       </c>
       <c r="D141" t="n">
-        <v>0.357568</v>
+        <v>0.352826</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.4421</v>
+        <v>0.435125</v>
       </c>
       <c r="C142" t="n">
-        <v>0.30966</v>
+        <v>0.306</v>
       </c>
       <c r="D142" t="n">
-        <v>0.359552</v>
+        <v>0.355002</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.442357</v>
+        <v>0.434879</v>
       </c>
       <c r="C143" t="n">
-        <v>0.312846</v>
+        <v>0.308772</v>
       </c>
       <c r="D143" t="n">
-        <v>0.36276</v>
+        <v>0.358248</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0472455</v>
+        <v>0.0518347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0444243</v>
+        <v>0.102314</v>
       </c>
       <c r="D2" t="n">
-        <v>0.052533</v>
+        <v>0.0631765</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0474841</v>
+        <v>0.0522835</v>
       </c>
       <c r="C3" t="n">
-        <v>0.045148</v>
+        <v>0.11551</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0521467</v>
+        <v>0.06337859999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0473458</v>
+        <v>0.0523829</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0453653</v>
+        <v>0.127926</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0525513</v>
+        <v>0.0622391</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0472934</v>
+        <v>0.0520397</v>
       </c>
       <c r="C5" t="n">
-        <v>0.045515</v>
+        <v>0.14232</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0527299</v>
+        <v>0.0639652</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0474159</v>
+        <v>0.0525306</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0456863</v>
+        <v>0.152866</v>
       </c>
       <c r="D6" t="n">
-        <v>0.053146</v>
+        <v>0.06325699999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0476102</v>
+        <v>0.0527189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0462521</v>
+        <v>0.164359</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0540591</v>
+        <v>0.06502230000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0479886</v>
+        <v>0.0531067</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0467184</v>
+        <v>0.0567057</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0555704</v>
+        <v>0.0658535</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0487236</v>
+        <v>0.0540145</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0483889</v>
+        <v>0.0623767</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0568176</v>
+        <v>0.0614745</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0518792</v>
+        <v>0.0530033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0489044</v>
+        <v>0.06684809999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0566837</v>
+        <v>0.0616015</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0518864</v>
+        <v>0.0525757</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0492523</v>
+        <v>0.0744573</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0569416</v>
+        <v>0.0617741</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0519759</v>
+        <v>0.0530192</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0495666</v>
+        <v>0.0802081</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0572439</v>
+        <v>0.0621376</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0521933</v>
+        <v>0.0529069</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0501153</v>
+        <v>0.0888375</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0578894</v>
+        <v>0.062778</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0523446</v>
+        <v>0.0531742</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0503749</v>
+        <v>0.0985688</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0581061</v>
+        <v>0.06308370000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0524203</v>
+        <v>0.0532966</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0505868</v>
+        <v>0.108855</v>
       </c>
       <c r="D15" t="n">
-        <v>0.058498</v>
+        <v>0.06343790000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0525462</v>
+        <v>0.0533385</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0509588</v>
+        <v>0.120918</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0588092</v>
+        <v>0.0646843</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0528362</v>
+        <v>0.0536066</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0511655</v>
+        <v>0.134191</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0590086</v>
+        <v>0.06425649999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0529517</v>
+        <v>0.0537034</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0516523</v>
+        <v>0.145994</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0592961</v>
+        <v>0.0645565</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0531125</v>
+        <v>0.0539596</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0517996</v>
+        <v>0.157064</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0598073</v>
+        <v>0.0650477</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0533362</v>
+        <v>0.054374</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0521508</v>
+        <v>0.169603</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0605683</v>
+        <v>0.065384</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0536</v>
+        <v>0.0546978</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0531426</v>
+        <v>0.176012</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0623234</v>
+        <v>0.0667754</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0543269</v>
+        <v>0.0549917</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0549975</v>
+        <v>0.0722329</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06583749999999999</v>
+        <v>0.0717875</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0554151</v>
+        <v>0.0565034</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0593788</v>
+        <v>0.07677290000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0589989</v>
+        <v>0.0654768</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0552802</v>
+        <v>0.0558897</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0519882</v>
+        <v>0.0812203</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0588281</v>
+        <v>0.0655044</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0548616</v>
+        <v>0.055463</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0525953</v>
+        <v>0.0866063</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0592113</v>
+        <v>0.06559760000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0549489</v>
+        <v>0.0555596</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0529288</v>
+        <v>0.0924717</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0602988</v>
+        <v>0.06603489999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0550696</v>
+        <v>0.0556724</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0531235</v>
+        <v>0.0991916</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0598962</v>
+        <v>0.06732349999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0552435</v>
+        <v>0.0558507</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0528548</v>
+        <v>0.107685</v>
       </c>
       <c r="D28" t="n">
-        <v>0.060354</v>
+        <v>0.0677451</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0553601</v>
+        <v>0.0560363</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0531955</v>
+        <v>0.116244</v>
       </c>
       <c r="D29" t="n">
-        <v>0.061578</v>
+        <v>0.0678385</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0556442</v>
+        <v>0.0562022</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0537548</v>
+        <v>0.128325</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0621279</v>
+        <v>0.067721</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557079</v>
+        <v>0.0564222</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0547345</v>
+        <v>0.140579</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0623875</v>
+        <v>0.0681099</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0560231</v>
+        <v>0.0566944</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0545267</v>
+        <v>0.152617</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06299879999999999</v>
+        <v>0.06922780000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562143</v>
+        <v>0.0569739</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0556032</v>
+        <v>0.163087</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0636514</v>
+        <v>0.07006950000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0565392</v>
+        <v>0.0572359</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0570502</v>
+        <v>0.17632</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06493930000000001</v>
+        <v>0.0714433</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0569987</v>
+        <v>0.0577909</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0583788</v>
+        <v>0.188189</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0682758</v>
+        <v>0.07415389999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0578988</v>
+        <v>0.0586991</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0620455</v>
+        <v>0.202575</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0736677</v>
+        <v>0.0807365</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605136</v>
+        <v>0.0611293</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0684242</v>
+        <v>0.0758451</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06446789999999999</v>
+        <v>0.07034940000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0611814</v>
+        <v>0.0599226</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0582577</v>
+        <v>0.07965510000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06526079999999999</v>
+        <v>0.070758</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0597787</v>
+        <v>0.0595516</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0581882</v>
+        <v>0.0846034</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0643789</v>
+        <v>0.0694669</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.059923</v>
+        <v>0.0596311</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0585686</v>
+        <v>0.0902538</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06547550000000001</v>
+        <v>0.0703606</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.060028</v>
+        <v>0.0597583</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0591297</v>
+        <v>0.09687369999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06596109999999999</v>
+        <v>0.0705551</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0601317</v>
+        <v>0.0598805</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0595889</v>
+        <v>0.104504</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0667174</v>
+        <v>0.07071570000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0603275</v>
+        <v>0.0600539</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0597635</v>
+        <v>0.114651</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0673821</v>
+        <v>0.0729361</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0605426</v>
+        <v>0.0603094</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0610684</v>
+        <v>0.125153</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0686843</v>
+        <v>0.0718355</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0607387</v>
+        <v>0.0605169</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0609325</v>
+        <v>0.137788</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0678219</v>
+        <v>0.0737298</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0609833</v>
+        <v>0.0607964</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0614385</v>
+        <v>0.150623</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06970229999999999</v>
+        <v>0.0735835</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0612794</v>
+        <v>0.061145</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0634825</v>
+        <v>0.164158</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07035329999999999</v>
+        <v>0.0752483</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0616464</v>
+        <v>0.061524</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06447559999999999</v>
+        <v>0.177324</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0728732</v>
+        <v>0.0769975</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0623335</v>
+        <v>0.0621802</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0669492</v>
+        <v>0.190677</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0758582</v>
+        <v>0.0812751</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06379170000000001</v>
+        <v>0.06355669999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0700669</v>
+        <v>0.204982</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08023710000000001</v>
+        <v>0.0858775</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0672755</v>
+        <v>0.0670999</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07457809999999999</v>
+        <v>0.075529</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0706046</v>
+        <v>0.07525660000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07266060000000001</v>
+        <v>0.0724779</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0808943</v>
+        <v>0.07996929999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0701519</v>
+        <v>0.0741998</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06836449999999999</v>
+        <v>0.0691698</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0595444</v>
+        <v>0.0854144</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0704738</v>
+        <v>0.07494729999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0681529</v>
+        <v>0.0691225</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0589604</v>
+        <v>0.0907081</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0701991</v>
+        <v>0.0759138</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0682078</v>
+        <v>0.06916899999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0603193</v>
+        <v>0.0976688</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07255010000000001</v>
+        <v>0.0768915</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0683599</v>
+        <v>0.0692605</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0604517</v>
+        <v>0.105145</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0715206</v>
+        <v>0.076733</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0685124</v>
+        <v>0.06942950000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0610935</v>
+        <v>0.114584</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0717346</v>
+        <v>0.0765121</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0686436</v>
+        <v>0.06966020000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0619724</v>
+        <v>0.125767</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07305929999999999</v>
+        <v>0.07720539999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06884270000000001</v>
+        <v>0.0698346</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0625923</v>
+        <v>0.138022</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0733379</v>
+        <v>0.0794883</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06920469999999999</v>
+        <v>0.0701502</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06493169999999999</v>
+        <v>0.151573</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0728775</v>
+        <v>0.0795839</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.069438</v>
+        <v>0.07054299999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0662968</v>
+        <v>0.164762</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07679320000000001</v>
+        <v>0.0808957</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0700094</v>
+        <v>0.070979</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0679886</v>
+        <v>0.178476</v>
       </c>
       <c r="D62" t="n">
-        <v>0.076742</v>
+        <v>0.0836549</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07087980000000001</v>
+        <v>0.07199560000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0700047</v>
+        <v>0.192405</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0815825</v>
+        <v>0.08700860000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07295359999999999</v>
+        <v>0.0739076</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0730191</v>
+        <v>0.209913</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0847902</v>
+        <v>0.0917944</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0755165</v>
+        <v>0.0765513</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0767502</v>
+        <v>0.0778392</v>
       </c>
       <c r="D65" t="n">
-        <v>0.091034</v>
+        <v>0.0979168</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.079753</v>
+        <v>0.0807591</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08303439999999999</v>
+        <v>0.0810912</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0737394</v>
+        <v>0.0796158</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0813905</v>
+        <v>0.0932032</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0699302</v>
+        <v>0.0850321</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07409499999999999</v>
+        <v>0.0802823</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08142779999999999</v>
+        <v>0.0933948</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0703814</v>
+        <v>0.0900943</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0745894</v>
+        <v>0.0808305</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0815222</v>
+        <v>0.0939774</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07084169999999999</v>
+        <v>0.09518</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07510600000000001</v>
+        <v>0.0814025</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0816438</v>
+        <v>0.0948058</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0714344</v>
+        <v>0.103344</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0757027</v>
+        <v>0.08226799999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0817687</v>
+        <v>0.0952929</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0719709</v>
+        <v>0.114534</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07628210000000001</v>
+        <v>0.08297740000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08218</v>
+        <v>0.0963001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07275810000000001</v>
+        <v>0.125457</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0770093</v>
+        <v>0.08409</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08239290000000001</v>
+        <v>0.09696920000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0736171</v>
+        <v>0.137248</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0781018</v>
+        <v>0.08510860000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08277039999999999</v>
+        <v>0.09715260000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07476049999999999</v>
+        <v>0.151152</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0792282</v>
+        <v>0.0864755</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08331089999999999</v>
+        <v>0.0981562</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0761568</v>
+        <v>0.165407</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0811002</v>
+        <v>0.08824129999999999</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.083978</v>
+        <v>0.0988169</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0775909</v>
+        <v>0.179828</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0830616</v>
+        <v>0.0904157</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08493879999999999</v>
+        <v>0.0996399</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0795119</v>
+        <v>0.193148</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0857792</v>
+        <v>0.0933418</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0864171</v>
+        <v>0.100977</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0821066</v>
+        <v>0.211286</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08960079999999999</v>
+        <v>0.09702959999999999</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0886212</v>
+        <v>0.103032</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08560769999999999</v>
+        <v>0.103182</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0954132</v>
+        <v>0.103124</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0923626</v>
+        <v>0.10629</v>
       </c>
       <c r="C80" t="n">
-        <v>0.09081500000000001</v>
+        <v>0.107484</v>
       </c>
       <c r="D80" t="n">
-        <v>0.123159</v>
+        <v>0.116681</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.180969</v>
+        <v>0.184173</v>
       </c>
       <c r="C81" t="n">
-        <v>0.159069</v>
+        <v>0.111292</v>
       </c>
       <c r="D81" t="n">
-        <v>0.12571</v>
+        <v>0.119216</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.185295</v>
+        <v>0.17139</v>
       </c>
       <c r="C82" t="n">
-        <v>0.156082</v>
+        <v>0.124868</v>
       </c>
       <c r="D82" t="n">
-        <v>0.126964</v>
+        <v>0.130801</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183444</v>
+        <v>0.183844</v>
       </c>
       <c r="C83" t="n">
-        <v>0.157647</v>
+        <v>0.126059</v>
       </c>
       <c r="D83" t="n">
-        <v>0.132396</v>
+        <v>0.131745</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.185851</v>
+        <v>0.183508</v>
       </c>
       <c r="C84" t="n">
-        <v>0.15742</v>
+        <v>0.137843</v>
       </c>
       <c r="D84" t="n">
-        <v>0.132877</v>
+        <v>0.132698</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.183931</v>
+        <v>0.179091</v>
       </c>
       <c r="C85" t="n">
-        <v>0.160146</v>
+        <v>0.143706</v>
       </c>
       <c r="D85" t="n">
-        <v>0.136241</v>
+        <v>0.145319</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185258</v>
+        <v>0.1884</v>
       </c>
       <c r="C86" t="n">
-        <v>0.159278</v>
+        <v>0.153375</v>
       </c>
       <c r="D86" t="n">
-        <v>0.138058</v>
+        <v>0.130976</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185529</v>
+        <v>0.180442</v>
       </c>
       <c r="C87" t="n">
-        <v>0.160866</v>
+        <v>0.16586</v>
       </c>
       <c r="D87" t="n">
-        <v>0.141862</v>
+        <v>0.15169</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.186701</v>
+        <v>0.18929</v>
       </c>
       <c r="C88" t="n">
-        <v>0.161207</v>
+        <v>0.180076</v>
       </c>
       <c r="D88" t="n">
-        <v>0.139782</v>
+        <v>0.145141</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.187955</v>
+        <v>0.184025</v>
       </c>
       <c r="C89" t="n">
-        <v>0.163558</v>
+        <v>0.192504</v>
       </c>
       <c r="D89" t="n">
-        <v>0.146153</v>
+        <v>0.154298</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.188421</v>
+        <v>0.189305</v>
       </c>
       <c r="C90" t="n">
-        <v>0.163613</v>
+        <v>0.205977</v>
       </c>
       <c r="D90" t="n">
-        <v>0.149941</v>
+        <v>0.152832</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188091</v>
+        <v>0.189316</v>
       </c>
       <c r="C91" t="n">
-        <v>0.165729</v>
+        <v>0.219242</v>
       </c>
       <c r="D91" t="n">
-        <v>0.151795</v>
+        <v>0.164731</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188335</v>
+        <v>0.192333</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166139</v>
+        <v>0.233763</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155245</v>
+        <v>0.163691</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190292</v>
+        <v>0.193915</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168918</v>
+        <v>0.253354</v>
       </c>
       <c r="D93" t="n">
-        <v>0.159973</v>
+        <v>0.174391</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194088</v>
+        <v>0.195097</v>
       </c>
       <c r="C94" t="n">
-        <v>0.173227</v>
+        <v>0.182863</v>
       </c>
       <c r="D94" t="n">
-        <v>0.233441</v>
+        <v>0.253378</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.254428</v>
+        <v>0.256392</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23204</v>
+        <v>0.188554</v>
       </c>
       <c r="D95" t="n">
-        <v>0.24473</v>
+        <v>0.256121</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.252932</v>
+        <v>0.253663</v>
       </c>
       <c r="C96" t="n">
-        <v>0.233002</v>
+        <v>0.193058</v>
       </c>
       <c r="D96" t="n">
-        <v>0.247074</v>
+        <v>0.250846</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.254283</v>
+        <v>0.253916</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233832</v>
+        <v>0.20102</v>
       </c>
       <c r="D97" t="n">
-        <v>0.248215</v>
+        <v>0.260308</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.254571</v>
+        <v>0.254246</v>
       </c>
       <c r="C98" t="n">
-        <v>0.235667</v>
+        <v>0.209296</v>
       </c>
       <c r="D98" t="n">
-        <v>0.242979</v>
+        <v>0.261671</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.254504</v>
+        <v>0.256945</v>
       </c>
       <c r="C99" t="n">
-        <v>0.229995</v>
+        <v>0.219921</v>
       </c>
       <c r="D99" t="n">
-        <v>0.244636</v>
+        <v>0.264771</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.254726</v>
+        <v>0.256878</v>
       </c>
       <c r="C100" t="n">
-        <v>0.231471</v>
+        <v>0.231135</v>
       </c>
       <c r="D100" t="n">
-        <v>0.247874</v>
+        <v>0.266711</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.254694</v>
+        <v>0.254171</v>
       </c>
       <c r="C101" t="n">
-        <v>0.233556</v>
+        <v>0.243706</v>
       </c>
       <c r="D101" t="n">
-        <v>0.250218</v>
+        <v>0.270012</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.255151</v>
+        <v>0.25696</v>
       </c>
       <c r="C102" t="n">
-        <v>0.241695</v>
+        <v>0.256595</v>
       </c>
       <c r="D102" t="n">
-        <v>0.259428</v>
+        <v>0.271568</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.255314</v>
+        <v>0.257369</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243389</v>
+        <v>0.27123</v>
       </c>
       <c r="D103" t="n">
-        <v>0.261798</v>
+        <v>0.275049</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.255783</v>
+        <v>0.257532</v>
       </c>
       <c r="C104" t="n">
-        <v>0.245841</v>
+        <v>0.284619</v>
       </c>
       <c r="D104" t="n">
-        <v>0.26541</v>
+        <v>0.278242</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255514</v>
+        <v>0.257884</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248061</v>
+        <v>0.301305</v>
       </c>
       <c r="D105" t="n">
-        <v>0.267185</v>
+        <v>0.281212</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.257304</v>
+        <v>0.259529</v>
       </c>
       <c r="C106" t="n">
-        <v>0.250446</v>
+        <v>0.317794</v>
       </c>
       <c r="D106" t="n">
-        <v>0.270839</v>
+        <v>0.284313</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258536</v>
+        <v>0.261206</v>
       </c>
       <c r="C107" t="n">
-        <v>0.254118</v>
+        <v>0.342964</v>
       </c>
       <c r="D107" t="n">
-        <v>0.274671</v>
+        <v>0.289765</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.260995</v>
+        <v>0.26059</v>
       </c>
       <c r="C108" t="n">
-        <v>0.258446</v>
+        <v>0.214143</v>
       </c>
       <c r="D108" t="n">
-        <v>0.302028</v>
+        <v>0.316077</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265598</v>
+        <v>0.26802</v>
       </c>
       <c r="C109" t="n">
-        <v>0.264767</v>
+        <v>0.218647</v>
       </c>
       <c r="D109" t="n">
-        <v>0.303663</v>
+        <v>0.320144</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.291129</v>
+        <v>0.286687</v>
       </c>
       <c r="C110" t="n">
-        <v>0.263378</v>
+        <v>0.224365</v>
       </c>
       <c r="D110" t="n">
-        <v>0.305721</v>
+        <v>0.320395</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.292274</v>
+        <v>0.293744</v>
       </c>
       <c r="C111" t="n">
-        <v>0.265605</v>
+        <v>0.231249</v>
       </c>
       <c r="D111" t="n">
-        <v>0.308123</v>
+        <v>0.32521</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.291686</v>
+        <v>0.289092</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263003</v>
+        <v>0.239658</v>
       </c>
       <c r="D112" t="n">
-        <v>0.310642</v>
+        <v>0.325825</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.292388</v>
+        <v>0.294402</v>
       </c>
       <c r="C113" t="n">
-        <v>0.262155</v>
+        <v>0.249907</v>
       </c>
       <c r="D113" t="n">
-        <v>0.310335</v>
+        <v>0.329626</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28564</v>
+        <v>0.288722</v>
       </c>
       <c r="C114" t="n">
-        <v>0.266251</v>
+        <v>0.262024</v>
       </c>
       <c r="D114" t="n">
-        <v>0.312636</v>
+        <v>0.332924</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.285846</v>
+        <v>0.295394</v>
       </c>
       <c r="C115" t="n">
-        <v>0.262532</v>
+        <v>0.275895</v>
       </c>
       <c r="D115" t="n">
-        <v>0.30361</v>
+        <v>0.333959</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.28732</v>
+        <v>0.300202</v>
       </c>
       <c r="C116" t="n">
-        <v>0.265121</v>
+        <v>0.291765</v>
       </c>
       <c r="D116" t="n">
-        <v>0.30556</v>
+        <v>0.336668</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287729</v>
+        <v>0.296672</v>
       </c>
       <c r="C117" t="n">
-        <v>0.268703</v>
+        <v>0.309541</v>
       </c>
       <c r="D117" t="n">
-        <v>0.309436</v>
+        <v>0.342584</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.287528</v>
+        <v>0.297375</v>
       </c>
       <c r="C118" t="n">
-        <v>0.271277</v>
+        <v>0.328353</v>
       </c>
       <c r="D118" t="n">
-        <v>0.312258</v>
+        <v>0.345764</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.288868</v>
+        <v>0.304523</v>
       </c>
       <c r="C119" t="n">
-        <v>0.274892</v>
+        <v>0.349446</v>
       </c>
       <c r="D119" t="n">
-        <v>0.315162</v>
+        <v>0.349059</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.289273</v>
+        <v>0.294705</v>
       </c>
       <c r="C120" t="n">
-        <v>0.278753</v>
+        <v>0.378634</v>
       </c>
       <c r="D120" t="n">
-        <v>0.320122</v>
+        <v>0.354275</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.292903</v>
+        <v>0.291657</v>
       </c>
       <c r="C121" t="n">
-        <v>0.283461</v>
+        <v>0.427988</v>
       </c>
       <c r="D121" t="n">
-        <v>0.322981</v>
+        <v>0.360362</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.294774</v>
+        <v>0.304775</v>
       </c>
       <c r="C122" t="n">
-        <v>0.288398</v>
+        <v>0.229227</v>
       </c>
       <c r="D122" t="n">
-        <v>0.330356</v>
+        <v>0.367633</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.297894</v>
+        <v>0.313316</v>
       </c>
       <c r="C123" t="n">
-        <v>0.294938</v>
+        <v>0.233662</v>
       </c>
       <c r="D123" t="n">
-        <v>0.333215</v>
+        <v>0.358864</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.366626</v>
+        <v>0.377214</v>
       </c>
       <c r="C124" t="n">
-        <v>0.272801</v>
+        <v>0.238706</v>
       </c>
       <c r="D124" t="n">
-        <v>0.324043</v>
+        <v>0.35952</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.367555</v>
+        <v>0.376808</v>
       </c>
       <c r="C125" t="n">
-        <v>0.275359</v>
+        <v>0.244829</v>
       </c>
       <c r="D125" t="n">
-        <v>0.327707</v>
+        <v>0.363931</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.367515</v>
+        <v>0.377593</v>
       </c>
       <c r="C126" t="n">
-        <v>0.278265</v>
+        <v>0.251111</v>
       </c>
       <c r="D126" t="n">
-        <v>0.330348</v>
+        <v>0.357411</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368181</v>
+        <v>0.373294</v>
       </c>
       <c r="C127" t="n">
-        <v>0.281513</v>
+        <v>0.262536</v>
       </c>
       <c r="D127" t="n">
-        <v>0.332352</v>
+        <v>0.360472</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.368819</v>
+        <v>0.371686</v>
       </c>
       <c r="C128" t="n">
-        <v>0.284902</v>
+        <v>0.274036</v>
       </c>
       <c r="D128" t="n">
-        <v>0.336099</v>
+        <v>0.363218</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3683</v>
+        <v>0.376656</v>
       </c>
       <c r="C129" t="n">
-        <v>0.288647</v>
+        <v>0.287974</v>
       </c>
       <c r="D129" t="n">
-        <v>0.339709</v>
+        <v>0.366477</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.368474</v>
+        <v>0.375401</v>
       </c>
       <c r="C130" t="n">
-        <v>0.291816</v>
+        <v>0.304603</v>
       </c>
       <c r="D130" t="n">
-        <v>0.342417</v>
+        <v>0.370278</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.368826</v>
+        <v>0.37702</v>
       </c>
       <c r="C131" t="n">
-        <v>0.296105</v>
+        <v>0.324003</v>
       </c>
       <c r="D131" t="n">
-        <v>0.34679</v>
+        <v>0.374203</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.368973</v>
+        <v>0.380949</v>
       </c>
       <c r="C132" t="n">
-        <v>0.29986</v>
+        <v>0.346168</v>
       </c>
       <c r="D132" t="n">
-        <v>0.350623</v>
+        <v>0.37813</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.36875</v>
+        <v>0.379159</v>
       </c>
       <c r="C133" t="n">
-        <v>0.304312</v>
+        <v>0.371864</v>
       </c>
       <c r="D133" t="n">
-        <v>0.355415</v>
+        <v>0.383914</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.369663</v>
+        <v>0.37866</v>
       </c>
       <c r="C134" t="n">
-        <v>0.309282</v>
+        <v>0.404406</v>
       </c>
       <c r="D134" t="n">
-        <v>0.361215</v>
+        <v>0.389881</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.371794</v>
+        <v>0.380393</v>
       </c>
       <c r="C135" t="n">
-        <v>0.314327</v>
+        <v>0.475866</v>
       </c>
       <c r="D135" t="n">
-        <v>0.368074</v>
+        <v>0.394873</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.373835</v>
+        <v>0.376843</v>
       </c>
       <c r="C136" t="n">
-        <v>0.321194</v>
+        <v>0.237348</v>
       </c>
       <c r="D136" t="n">
-        <v>0.376823</v>
+        <v>0.402534</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.376498</v>
+        <v>0.385837</v>
       </c>
       <c r="C137" t="n">
-        <v>0.330497</v>
+        <v>0.241081</v>
       </c>
       <c r="D137" t="n">
-        <v>0.343461</v>
+        <v>0.380032</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.433946</v>
+        <v>0.442901</v>
       </c>
       <c r="C138" t="n">
-        <v>0.295325</v>
+        <v>0.245917</v>
       </c>
       <c r="D138" t="n">
-        <v>0.345763</v>
+        <v>0.377705</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.434431</v>
+        <v>0.442735</v>
       </c>
       <c r="C139" t="n">
-        <v>0.297491</v>
+        <v>0.250735</v>
       </c>
       <c r="D139" t="n">
-        <v>0.347948</v>
+        <v>0.379449</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.434362</v>
+        <v>0.441991</v>
       </c>
       <c r="C140" t="n">
-        <v>0.300785</v>
+        <v>0.258275</v>
       </c>
       <c r="D140" t="n">
-        <v>0.35078</v>
+        <v>0.381895</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.435005</v>
+        <v>0.437504</v>
       </c>
       <c r="C141" t="n">
-        <v>0.303293</v>
+        <v>0.265977</v>
       </c>
       <c r="D141" t="n">
-        <v>0.352826</v>
+        <v>0.384226</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.435125</v>
+        <v>0.43774</v>
       </c>
       <c r="C142" t="n">
-        <v>0.306</v>
+        <v>0.279178</v>
       </c>
       <c r="D142" t="n">
-        <v>0.355002</v>
+        <v>0.387084</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.434879</v>
+        <v>0.442901</v>
       </c>
       <c r="C143" t="n">
-        <v>0.308772</v>
+        <v>0.29322</v>
       </c>
       <c r="D143" t="n">
-        <v>0.358248</v>
+        <v>0.39011</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0198274</v>
+                  <v>0.0196963</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0198243</v>
+                  <v>0.0197664</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0198059</v>
+                  <v>0.0200026</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0199393</v>
+                  <v>0.0201517</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0198465</v>
+                  <v>0.0201028</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0200695</v>
+                  <v>0.0204562</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0203167</v>
+                  <v>0.0206393</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0207984</v>
+                  <v>0.0210339</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.019398</v>
+                  <v>0.0194206</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0196474</v>
+                  <v>0.0195253</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198002</v>
+                  <v>0.0197643</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0198351</v>
+                  <v>0.019862</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.020005</v>
+                  <v>0.0200936</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201547</v>
+                  <v>0.0201485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0202387</v>
+                  <v>0.0204092</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0202416</v>
+                  <v>0.0204507</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0205515</v>
+                  <v>0.0206229</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.020734</v>
+                  <v>0.0210343</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0208632</v>
+                  <v>0.0211918</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0212432</v>
+                  <v>0.0215584</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0218651</v>
+                  <v>0.0226513</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0253637</v>
+                  <v>0.0258862</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0203899</v>
+                  <v>0.020452</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0204771</v>
+                  <v>0.0206124</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0206748</v>
+                  <v>0.0207985</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0207843</v>
+                  <v>0.0209652</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0210829</v>
+                  <v>0.0211055</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0211716</v>
+                  <v>0.0213203</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214289</v>
+                  <v>0.0217535</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0215001</v>
+                  <v>0.0218513</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0218002</v>
+                  <v>0.0222928</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0221683</v>
+                  <v>0.0226911</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0231472</v>
+                  <v>0.0235535</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0257742</v>
+                  <v>0.0253242</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0289348</v>
+                  <v>0.0277768</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0322824</v>
+                  <v>0.0318669</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214691</v>
+                  <v>0.0214937</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217903</v>
+                  <v>0.0216708</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0219112</v>
+                  <v>0.0218145</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0219809</v>
+                  <v>0.0221247</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0221479</v>
+                  <v>0.0222181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0224448</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.02262</v>
+                  <v>0.022927</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231701</v>
+                  <v>0.0232657</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0235929</v>
+                  <v>0.0238669</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.024466</v>
+                  <v>0.0247955</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0257139</v>
+                  <v>0.0260839</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0282271</v>
+                  <v>0.0280282</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0303257</v>
+                  <v>0.0309436</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0351291</v>
+                  <v>0.0352915</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0408898</v>
+                  <v>0.0413191</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0231879</v>
+                  <v>0.0232368</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233257</v>
+                  <v>0.0234077</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0235135</v>
+                  <v>0.0234742</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0237414</v>
+                  <v>0.0236931</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0239179</v>
+                  <v>0.0240065</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0244805</v>
+                  <v>0.0243635</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0248999</v>
+                  <v>0.024742</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0254771</v>
+                  <v>0.0254421</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0265139</v>
+                  <v>0.0265507</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0280363</v>
+                  <v>0.0278997</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0300505</v>
+                  <v>0.0300643</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0328613</v>
+                  <v>0.0326618</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.036562</v>
+                  <v>0.0366612</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0420912</v>
+                  <v>0.0418935</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0291857</v>
+                  <v>0.0281649</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0293683</v>
+                  <v>0.0283172</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0294951</v>
+                  <v>0.028481</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.029813</v>
+                  <v>0.0286097</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0300128</v>
+                  <v>0.0290029</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302796</v>
+                  <v>0.0293089</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030801</v>
+                  <v>0.0298234</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.031446</v>
+                  <v>0.0304538</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0324341</v>
+                  <v>0.0316262</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0335695</v>
+                  <v>0.0328268</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0353551</v>
+                  <v>0.034701</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0378182</v>
+                  <v>0.0373006</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0410501</v>
+                  <v>0.0405111</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0456478</v>
+                  <v>0.0453079</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0552817</v>
+                  <v>0.0556282</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0555326</v>
+                  <v>0.0556663</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0556777</v>
+                  <v>0.0556563</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0557553</v>
+                  <v>0.0557576</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0559421</v>
+                  <v>0.0561199</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0562511</v>
+                  <v>0.0563284</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.056543</v>
+                  <v>0.0566175</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.056954</v>
+                  <v>0.0569801</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0573628</v>
+                  <v>0.0575295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0581532</v>
+                  <v>0.0584884</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0593444</v>
+                  <v>0.059328</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0607396</v>
+                  <v>0.0609849</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.06325</v>
+                  <v>0.06332119999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0670234</v>
+                  <v>0.06701559999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.086252</v>
+                  <v>0.08579050000000001</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0863121</v>
+                  <v>0.085844</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08631</v>
+                  <v>0.0859253</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08640920000000001</v>
+                  <v>0.0859871</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0864456</v>
+                  <v>0.0861041</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.08653959999999999</v>
+                  <v>0.08631809999999999</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0867363</v>
+                  <v>0.0864688</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0870079</v>
+                  <v>0.087584</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0874346</v>
+                  <v>0.0871972</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0880908</v>
+                  <v>0.08776539999999999</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08892</v>
+                  <v>0.0885425</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0899819</v>
+                  <v>0.0897765</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0920994</v>
+                  <v>0.0918954</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0950337</v>
+                  <v>0.0951462</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.100164</v>
+                  <v>0.100134</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.113889</v>
+                  <v>0.107276</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.114021</v>
+                  <v>0.107381</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.114114</v>
+                  <v>0.10763</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.114157</v>
+                  <v>0.10747</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.114198</v>
+                  <v>0.107654</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.114387</v>
+                  <v>0.108084</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.114667</v>
+                  <v>0.108774</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.115047</v>
+                  <v>0.109483</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.115835</v>
+                  <v>0.110216</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.116215</v>
+                  <v>0.111529</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.117455</v>
+                  <v>0.123333</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.119136</v>
+                  <v>0.114818</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122216</v>
+                  <v>0.117767</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.130657</v>
+                  <v>0.122643</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.140904</v>
+                  <v>0.140956</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.140713</v>
+                  <v>0.141254</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.140603</v>
+                  <v>0.141098</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.140544</v>
+                  <v>0.141288</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.140461</v>
+                  <v>0.136251</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.140955</v>
+                  <v>0.1347</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.142695</v>
+                  <v>0.134998</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.141111</v>
+                  <v>0.135211</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.141474</v>
+                  <v>0.135722</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.141584</v>
+                  <v>0.136719</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.144383</v>
+                  <v>0.138058</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.144338</v>
+                  <v>0.138669</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.146809</v>
+                  <v>0.146036</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.150574</v>
+                  <v>0.147156</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.157534</v>
+                  <v>0.159468</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.15768</v>
+                  <v>0.157919</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.157841</v>
+                  <v>0.157814</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.170985</v>
+                  <v>0.158306</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.158043</v>
+                  <v>0.158314</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.158496</v>
+                  <v>0.158718</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.01963</v>
+                  <v>0.0370058</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0195504</v>
+                  <v>0.0418052</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0196026</v>
+                  <v>0.0487309</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0196237</v>
+                  <v>0.057161</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0194434</v>
+                  <v>0.0638789</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0196089</v>
+                  <v>0.07558529999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0196438</v>
+                  <v>0.0263746</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.019683</v>
+                  <v>0.0290195</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206908</v>
+                  <v>0.0319614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0208145</v>
+                  <v>0.0351258</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0208233</v>
+                  <v>0.0398863</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0208079</v>
+                  <v>0.0439152</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0210678</v>
+                  <v>0.0487144</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211339</v>
+                  <v>0.0551437</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021293</v>
+                  <v>0.0637769</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0213755</v>
+                  <v>0.0718377</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0214194</v>
+                  <v>0.081882</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0216061</v>
+                  <v>0.09108090000000001</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0216834</v>
+                  <v>0.0974773</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0216891</v>
+                  <v>0.106323</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.021814</v>
+                  <v>0.0397852</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.02224</v>
+                  <v>0.0423426</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0218223</v>
+                  <v>0.0452109</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.021951</v>
+                  <v>0.0487996</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0222832</v>
+                  <v>0.0527075</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0225478</v>
+                  <v>0.0566831</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0226653</v>
+                  <v>0.06295779999999999</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0228678</v>
+                  <v>0.0682238</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0232795</v>
+                  <v>0.0771483</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0234118</v>
+                  <v>0.08561050000000001</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0236239</v>
+                  <v>0.0935257</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0237577</v>
+                  <v>0.103656</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0245297</v>
+                  <v>0.113227</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0248515</v>
+                  <v>0.123492</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0259781</v>
+                  <v>0.13034</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.028096</v>
+                  <v>0.0509253</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0231379</v>
+                  <v>0.0528575</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0235392</v>
+                  <v>0.0577256</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0237383</v>
+                  <v>0.0607325</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0240298</v>
+                  <v>0.0659752</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0242845</v>
+                  <v>0.0703324</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0248099</v>
+                  <v>0.0767769</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0251381</v>
+                  <v>0.08390450000000001</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255035</v>
+                  <v>0.0925863</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026017</v>
+                  <v>0.101274</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0265204</v>
+                  <v>0.11083</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0273233</v>
+                  <v>0.118478</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0288886</v>
+                  <v>0.125043</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0309086</v>
+                  <v>0.133906</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.035125</v>
+                  <v>0.0529698</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0395813</v>
+                  <v>0.0564495</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0250602</v>
+                  <v>0.0593078</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0252618</v>
+                  <v>0.0635886</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0256001</v>
+                  <v>0.0686663</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0259637</v>
+                  <v>0.07259549999999999</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0263006</v>
+                  <v>0.07936020000000001</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0266533</v>
+                  <v>0.08643149999999999</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.027142</v>
+                  <v>0.09494660000000001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277574</v>
+                  <v>0.104919</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0284471</v>
+                  <v>0.114287</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0293755</v>
+                  <v>0.122709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0310293</v>
+                  <v>0.129562</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0333401</v>
+                  <v>0.137533</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0369138</v>
+                  <v>0.0546936</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0422301</v>
+                  <v>0.0582601</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.027755</v>
+                  <v>0.0617354</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.028318</v>
+                  <v>0.0656432</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0282048</v>
+                  <v>0.07027899999999999</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0288949</v>
+                  <v>0.07689410000000001</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291466</v>
+                  <v>0.0822326</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0296631</v>
+                  <v>0.0895243</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0302154</v>
+                  <v>0.097702</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308858</v>
+                  <v>0.107574</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0317299</v>
+                  <v>0.117728</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0327248</v>
+                  <v>0.127246</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0344036</v>
+                  <v>0.134567</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0365419</v>
+                  <v>0.142834</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0395077</v>
+                  <v>0.064026</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0440142</v>
+                  <v>0.0678048</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0384812</v>
+                  <v>0.0717135</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0393181</v>
+                  <v>0.0761748</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0400471</v>
+                  <v>0.0812459</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0410283</v>
+                  <v>0.0872613</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0422285</v>
+                  <v>0.0936657</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0436636</v>
+                  <v>0.101731</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0450427</v>
+                  <v>0.111373</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0465122</v>
+                  <v>0.122588</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.048317</v>
+                  <v>0.133557</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0499665</v>
+                  <v>0.145035</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0516792</v>
+                  <v>0.154768</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0540677</v>
+                  <v>0.165492</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0567184</v>
+                  <v>0.17807</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0613213</v>
+                  <v>0.08862009999999999</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.07599069999999999</v>
+                  <v>0.0928022</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0765213</v>
+                  <v>0.0974573</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0769676</v>
+                  <v>0.102899</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.07758429999999999</v>
+                  <v>0.109426</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0782827</v>
+                  <v>0.117126</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0789179</v>
+                  <v>0.126086</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.07968980000000001</v>
+                  <v>0.137067</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0805656</v>
+                  <v>0.149677</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0816693</v>
+                  <v>0.163346</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0863792</v>
+                  <v>0.177727</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08411639999999999</v>
+                  <v>0.192176</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0859486</v>
+                  <v>0.209788</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.08840779999999999</v>
+                  <v>0.241063</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0922501</v>
+                  <v>0.111904</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0984163</v>
+                  <v>0.106764</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0907982</v>
+                  <v>0.110996</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0916492</v>
+                  <v>0.116155</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.092555</v>
+                  <v>0.123372</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0937095</v>
+                  <v>0.12867</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.09565650000000001</v>
+                  <v>0.138409</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.103513</v>
+                  <v>0.146729</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0973205</v>
+                  <v>0.159703</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0988463</v>
+                  <v>0.171725</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.100303</v>
+                  <v>0.189215</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.102148</v>
+                  <v>0.206254</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.104312</v>
+                  <v>0.232862</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.107029</v>
+                  <v>0.300725</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.111037</v>
+                  <v>0.111313</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.116985</v>
+                  <v>0.114762</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.102804</v>
+                  <v>0.118709</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.108721</v>
+                  <v>0.123239</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.105795</v>
+                  <v>0.128603</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.107499</v>
+                  <v>0.134652</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.109135</v>
+                  <v>0.144169</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.111421</v>
+                  <v>0.150707</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.113514</v>
+                  <v>0.163675</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.114964</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.116895</v>
+                  <v>0.19273</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.119313</v>
+                  <v>0.211146</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.121782</v>
+                  <v>0.248366</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.124925</v>
+                  <v>0.325236</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12911</v>
+                  <v>0.115816</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.135094</v>
+                  <v>0.119248</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.116615</v>
+                  <v>0.123083</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.118091</v>
+                  <v>0.127447</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.119623</v>
+                  <v>0.132918</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.121247</v>
+                  <v>0.139793</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.122801</v>
+                  <v>0.146881</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.12453</v>
+                  <v>0.154942</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0210661</v>
+                  <v>0.0228125</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0210821</v>
+                  <v>0.0226735</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0210432</v>
+                  <v>0.022881</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0210228</v>
+                  <v>0.0228038</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0211017</v>
+                  <v>0.0230981</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.021451</v>
+                  <v>0.0232579</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0215967</v>
+                  <v>0.0235219</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.021032</v>
+                  <v>0.0223514</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.021237</v>
+                  <v>0.0232438</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0214398</v>
+                  <v>0.0227364</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0216389</v>
+                  <v>0.0231432</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0217625</v>
+                  <v>0.0234719</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0220811</v>
+                  <v>0.0235736</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0221537</v>
+                  <v>0.0239307</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0222621</v>
+                  <v>0.0240582</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022351</v>
+                  <v>0.0241979</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0223659</v>
+                  <v>0.0242753</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0223994</v>
+                  <v>0.0244821</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0224787</v>
+                  <v>0.0247755</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0225969</v>
+                  <v>0.0250051</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0229866</v>
+                  <v>0.0262359</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0222081</v>
+                  <v>0.0230816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0224424</v>
+                  <v>0.0233082</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0227148</v>
+                  <v>0.0236264</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0228976</v>
+                  <v>0.0238223</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0231426</v>
+                  <v>0.0242118</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0233641</v>
+                  <v>0.0245034</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0236678</v>
+                  <v>0.0247956</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0238622</v>
+                  <v>0.0251358</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0240883</v>
+                  <v>0.0254192</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0241209</v>
+                  <v>0.025719</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0243341</v>
+                  <v>0.0260563</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249996</v>
+                  <v>0.0271309</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0258005</v>
+                  <v>0.0289687</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0317443</v>
+                  <v>0.0327012</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0233782</v>
+                  <v>0.0240634</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0235387</v>
+                  <v>0.0243796</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0237574</v>
+                  <v>0.0245387</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0240607</v>
+                  <v>0.0247873</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0243991</v>
+                  <v>0.0250755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0246515</v>
+                  <v>0.0252754</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0249339</v>
+                  <v>0.0257843</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0252916</v>
+                  <v>0.0261995</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0255331</v>
+                  <v>0.0266811</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0260222</v>
+                  <v>0.0271738</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0266838</v>
+                  <v>0.0278438</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0278203</v>
+                  <v>0.0291553</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0305126</v>
+                  <v>0.0325561</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0344632</v>
+                  <v>0.0358238</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0242031</v>
+                  <v>0.0243208</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0243873</v>
+                  <v>0.0245637</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0246308</v>
+                  <v>0.0248053</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248962</v>
+                  <v>0.0250541</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0251551</v>
+                  <v>0.0253017</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0255061</v>
+                  <v>0.0258172</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.025758</v>
+                  <v>0.0261726</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0261621</v>
+                  <v>0.0266081</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0266822</v>
+                  <v>0.0271423</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.027176</v>
+                  <v>0.0280035</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0279736</v>
+                  <v>0.02913</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0294383</v>
+                  <v>0.0307407</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0324535</v>
+                  <v>0.0332634</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0364486</v>
+                  <v>0.0376615</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.042747</v>
+                  <v>0.0436362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0261578</v>
+                  <v>0.0266204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0266345</v>
+                  <v>0.0269618</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0270048</v>
+                  <v>0.0273013</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0274462</v>
+                  <v>0.0276864</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276478</v>
+                  <v>0.0282598</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0280925</v>
+                  <v>0.0286701</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0295698</v>
+                  <v>0.0289658</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0301268</v>
+                  <v>0.0296943</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0308125</v>
+                  <v>0.0308191</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0310039</v>
+                  <v>0.0320137</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0325978</v>
+                  <v>0.0337115</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0358014</v>
+                  <v>0.0362699</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0390005</v>
+                  <v>0.0399167</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0449875</v>
+                  <v>0.0449066</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0407134</v>
+                  <v>0.0395087</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0414223</v>
+                  <v>0.0404645</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0420164</v>
+                  <v>0.0415858</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0428758</v>
+                  <v>0.0423343</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0435859</v>
+                  <v>0.0424792</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0441158</v>
+                  <v>0.043633</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0451214</v>
+                  <v>0.0447561</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.045933</v>
+                  <v>0.0453725</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0468684</v>
+                  <v>0.0460016</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0477272</v>
+                  <v>0.0469517</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0490508</v>
+                  <v>0.0487554</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0513003</v>
+                  <v>0.0506627</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0542639</v>
+                  <v>0.0536386</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0587909</v>
+                  <v>0.058453</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.08060109999999999</v>
+                  <v>0.0785825</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.08116420000000001</v>
+                  <v>0.0789784</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0815678</v>
+                  <v>0.07963629999999999</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.08204690000000001</v>
+                  <v>0.0799203</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.08264589999999999</v>
+                  <v>0.0804226</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0832561</v>
+                  <v>0.0810888</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0837205</v>
+                  <v>0.0818702</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0845051</v>
+                  <v>0.0822594</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.08527559999999999</v>
+                  <v>0.0861224</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0864844</v>
+                  <v>0.08439530000000001</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0876881</v>
+                  <v>0.0860368</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.08924799999999999</v>
+                  <v>0.0872131</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.096528</v>
+                  <v>0.0897109</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0955449</v>
+                  <v>0.0933244</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0975452</v>
+                  <v>0.09642630000000001</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0983436</v>
+                  <v>0.0977301</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0990383</v>
+                  <v>0.0987176</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.09986689999999999</v>
+                  <v>0.0995547</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.100985</v>
+                  <v>0.100355</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.101987</v>
+                  <v>0.101544</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.102746</v>
+                  <v>0.102478</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.10438</v>
+                  <v>0.103852</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.105384</v>
+                  <v>0.10514</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.106778</v>
+                  <v>0.106707</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.108591</v>
+                  <v>0.107111</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.110691</v>
+                  <v>0.110501</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.113494</v>
+                  <v>0.113388</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.117535</v>
+                  <v>0.117326</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.123795</v>
+                  <v>0.123656</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.115482</v>
+                  <v>0.113449</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.116645</v>
+                  <v>0.114553</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.1179</v>
+                  <v>0.115303</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.119136</v>
+                  <v>0.116783</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.12028</v>
+                  <v>0.11776</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.121788</v>
+                  <v>0.11949</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.123885</v>
+                  <v>0.120603</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.125833</v>
+                  <v>0.122672</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.1268</v>
+                  <v>0.124019</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.129052</v>
+                  <v>0.126</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.132444</v>
+                  <v>0.128612</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.134565</v>
+                  <v>0.131664</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.138824</v>
+                  <v>0.135936</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.145371</v>
+                  <v>0.14231</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.129339</v>
+                  <v>0.125329</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.130682</v>
+                  <v>0.126594</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.131871</v>
+                  <v>0.127683</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.133153</v>
+                  <v>0.128925</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.134562</v>
+                  <v>0.130349</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.135784</v>
+                  <v>0.131775</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.137311</v>
+                  <v>0.133565</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0472455</v>
+        <v>0.0461931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0444243</v>
+        <v>0.0450414</v>
       </c>
       <c r="D2" t="n">
-        <v>0.052533</v>
+        <v>0.050473</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0474841</v>
+        <v>0.0462685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.045148</v>
+        <v>0.0452971</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0521467</v>
+        <v>0.0504022</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0473458</v>
+        <v>0.0465425</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0453653</v>
+        <v>0.0453087</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0525513</v>
+        <v>0.050484</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0472934</v>
+        <v>0.0470377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.045515</v>
+        <v>0.0454483</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0527299</v>
+        <v>0.05099</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0474159</v>
+        <v>0.0469962</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0456863</v>
+        <v>0.0458332</v>
       </c>
       <c r="D6" t="n">
-        <v>0.053146</v>
+        <v>0.0512897</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0476102</v>
+        <v>0.0472093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0462521</v>
+        <v>0.0463726</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0540591</v>
+        <v>0.0520317</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0479886</v>
+        <v>0.0474825</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0467184</v>
+        <v>0.0471052</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0555704</v>
+        <v>0.0539647</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0487236</v>
+        <v>0.0486229</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0483889</v>
+        <v>0.048556</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0568176</v>
+        <v>0.0523422</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0518792</v>
+        <v>0.0516371</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0489044</v>
+        <v>0.0473737</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0566837</v>
+        <v>0.0523677</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0518864</v>
+        <v>0.0511672</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0492523</v>
+        <v>0.0477119</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0569416</v>
+        <v>0.0531777</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0519759</v>
+        <v>0.0512498</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0495666</v>
+        <v>0.0480278</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0572439</v>
+        <v>0.0529857</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0521933</v>
+        <v>0.0513639</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0501153</v>
+        <v>0.0483872</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0578894</v>
+        <v>0.0533899</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0523446</v>
+        <v>0.0515125</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0503749</v>
+        <v>0.048807</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0581061</v>
+        <v>0.053788</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0524203</v>
+        <v>0.0516086</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0505868</v>
+        <v>0.0491343</v>
       </c>
       <c r="D15" t="n">
-        <v>0.058498</v>
+        <v>0.0542238</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0525462</v>
+        <v>0.0517506</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0509588</v>
+        <v>0.0495074</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0588092</v>
+        <v>0.0546515</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0528362</v>
+        <v>0.0520379</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0511655</v>
+        <v>0.0496908</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0590086</v>
+        <v>0.0550467</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0529517</v>
+        <v>0.0522121</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0516523</v>
+        <v>0.0500641</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0592961</v>
+        <v>0.0555422</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0531125</v>
+        <v>0.052495</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0517996</v>
+        <v>0.0503715</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0598073</v>
+        <v>0.0558776</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0533362</v>
+        <v>0.0527806</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0521508</v>
+        <v>0.0507799</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0605683</v>
+        <v>0.0567422</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0536</v>
+        <v>0.0531297</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0531426</v>
+        <v>0.0517128</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0623234</v>
+        <v>0.0582059</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0543269</v>
+        <v>0.0537065</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0549975</v>
+        <v>0.0535814</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06583749999999999</v>
+        <v>0.0612279</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0554151</v>
+        <v>0.0552001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0593788</v>
+        <v>0.0581487</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0589989</v>
+        <v>0.0567031</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0552802</v>
+        <v>0.0553065</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0519882</v>
+        <v>0.0510634</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0588281</v>
+        <v>0.0559073</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0548616</v>
+        <v>0.0551128</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0525953</v>
+        <v>0.051443</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0592113</v>
+        <v>0.056269</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0549489</v>
+        <v>0.05513</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0529288</v>
+        <v>0.0518009</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0602988</v>
+        <v>0.0567048</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0550696</v>
+        <v>0.0552145</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0531235</v>
+        <v>0.0520946</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0598962</v>
+        <v>0.0572453</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0552435</v>
+        <v>0.0553639</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0528548</v>
+        <v>0.0525489</v>
       </c>
       <c r="D28" t="n">
-        <v>0.060354</v>
+        <v>0.0576149</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0553601</v>
+        <v>0.0554785</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0531955</v>
+        <v>0.0529937</v>
       </c>
       <c r="D29" t="n">
-        <v>0.061578</v>
+        <v>0.0581156</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0556442</v>
+        <v>0.0556555</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0537548</v>
+        <v>0.0534048</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0621279</v>
+        <v>0.0584962</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557079</v>
+        <v>0.0558008</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0547345</v>
+        <v>0.0538356</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0623875</v>
+        <v>0.0588669</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0560231</v>
+        <v>0.0561186</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0545267</v>
+        <v>0.0543737</v>
       </c>
       <c r="D32" t="n">
-        <v>0.06299879999999999</v>
+        <v>0.0595083</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562143</v>
+        <v>0.0563363</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0556032</v>
+        <v>0.0560101</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0636514</v>
+        <v>0.0601859</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0565392</v>
+        <v>0.0566824</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0570502</v>
+        <v>0.0563109</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06493930000000001</v>
+        <v>0.0617716</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0569987</v>
+        <v>0.0571967</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0583788</v>
+        <v>0.0588595</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0682758</v>
+        <v>0.0648146</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0578988</v>
+        <v>0.0581387</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0620455</v>
+        <v>0.0616464</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0736677</v>
+        <v>0.0709626</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0605136</v>
+        <v>0.0609923</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0684242</v>
+        <v>0.0677562</v>
       </c>
       <c r="D37" t="n">
-        <v>0.06446789999999999</v>
+        <v>0.0618063</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0611814</v>
+        <v>0.06338480000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0582577</v>
+        <v>0.0565553</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06526079999999999</v>
+        <v>0.0607675</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0597787</v>
+        <v>0.0620639</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0581882</v>
+        <v>0.0568865</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0643789</v>
+        <v>0.0632052</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.059923</v>
+        <v>0.0621257</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0585686</v>
+        <v>0.057748</v>
       </c>
       <c r="D40" t="n">
-        <v>0.06547550000000001</v>
+        <v>0.0615137</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.060028</v>
+        <v>0.0622159</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0591297</v>
+        <v>0.0583486</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06596109999999999</v>
+        <v>0.0640275</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0601317</v>
+        <v>0.0622859</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0595889</v>
+        <v>0.0584081</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0667174</v>
+        <v>0.06444229999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0603275</v>
+        <v>0.0624198</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0597635</v>
+        <v>0.059134</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0673821</v>
+        <v>0.0631861</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0605426</v>
+        <v>0.0625923</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0610684</v>
+        <v>0.0596803</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0686843</v>
+        <v>0.0653193</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0607387</v>
+        <v>0.0627943</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0609325</v>
+        <v>0.0598485</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0678219</v>
+        <v>0.0657896</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0609833</v>
+        <v>0.06305189999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0614385</v>
+        <v>0.0606413</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06970229999999999</v>
+        <v>0.0669247</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0612794</v>
+        <v>0.0634112</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0634825</v>
+        <v>0.0616955</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07035329999999999</v>
+        <v>0.0683434</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0616464</v>
+        <v>0.0637894</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06447559999999999</v>
+        <v>0.06329319999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0728732</v>
+        <v>0.0700896</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0623335</v>
+        <v>0.0644426</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0669492</v>
+        <v>0.0660727</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0758582</v>
+        <v>0.07255590000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06379170000000001</v>
+        <v>0.0658643</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0700669</v>
+        <v>0.0692921</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08023710000000001</v>
+        <v>0.0788826</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0672755</v>
+        <v>0.0693464</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07457809999999999</v>
+        <v>0.074236</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0706046</v>
+        <v>0.0679334</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07266060000000001</v>
+        <v>0.0748573</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0808943</v>
+        <v>0.08048660000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0701519</v>
+        <v>0.06746829999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06836449999999999</v>
+        <v>0.0682522</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0595444</v>
+        <v>0.0582012</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0704738</v>
+        <v>0.06829060000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0681529</v>
+        <v>0.06760629999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0589604</v>
+        <v>0.0587376</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0701991</v>
+        <v>0.0684854</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0682078</v>
+        <v>0.0676172</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0603193</v>
+        <v>0.0586344</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07255010000000001</v>
+        <v>0.0686606</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0683599</v>
+        <v>0.0676967</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0604517</v>
+        <v>0.0599693</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0715206</v>
+        <v>0.06979879999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0685124</v>
+        <v>0.06782059999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0610935</v>
+        <v>0.0599147</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0717346</v>
+        <v>0.0708159</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0686436</v>
+        <v>0.0680231</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0619724</v>
+        <v>0.0614038</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07305929999999999</v>
+        <v>0.0704838</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06884270000000001</v>
+        <v>0.0682526</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0625923</v>
+        <v>0.0614426</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0733379</v>
+        <v>0.0710146</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06920469999999999</v>
+        <v>0.0685158</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06493169999999999</v>
+        <v>0.0631987</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0728775</v>
+        <v>0.0726503</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.069438</v>
+        <v>0.0689018</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0662968</v>
+        <v>0.0644633</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07679320000000001</v>
+        <v>0.0730698</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0700094</v>
+        <v>0.0693979</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0679886</v>
+        <v>0.0659435</v>
       </c>
       <c r="D62" t="n">
-        <v>0.076742</v>
+        <v>0.07735060000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07087980000000001</v>
+        <v>0.07028860000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0700047</v>
+        <v>0.06773700000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0815825</v>
+        <v>0.0785587</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07295359999999999</v>
+        <v>0.0722003</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0730191</v>
+        <v>0.0703061</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0847902</v>
+        <v>0.0837421</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0755165</v>
+        <v>0.074921</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0767502</v>
+        <v>0.0752866</v>
       </c>
       <c r="D65" t="n">
-        <v>0.091034</v>
+        <v>0.09057800000000001</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.079753</v>
+        <v>0.0791806</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08303439999999999</v>
+        <v>0.0801939</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0737394</v>
+        <v>0.0715517</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0813905</v>
+        <v>0.0799617</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0699302</v>
+        <v>0.0671885</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07409499999999999</v>
+        <v>0.07211099999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.08142779999999999</v>
+        <v>0.0803154</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0703814</v>
+        <v>0.0677545</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0745894</v>
+        <v>0.0725817</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0815222</v>
+        <v>0.080343</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07084169999999999</v>
+        <v>0.0681884</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07510600000000001</v>
+        <v>0.0731043</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0816438</v>
+        <v>0.08066810000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0714344</v>
+        <v>0.0687934</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0757027</v>
+        <v>0.07382900000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0817687</v>
+        <v>0.0810333</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0719709</v>
+        <v>0.06951930000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07628210000000001</v>
+        <v>0.0744341</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08218</v>
+        <v>0.0814375</v>
       </c>
       <c r="C72" t="n">
-        <v>0.07275810000000001</v>
+        <v>0.0703139</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0770093</v>
+        <v>0.0753979</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.08239290000000001</v>
+        <v>0.0814957</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0736171</v>
+        <v>0.07109219999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0781018</v>
+        <v>0.0762719</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08277039999999999</v>
+        <v>0.08194510000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07476049999999999</v>
+        <v>0.0722517</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0792282</v>
+        <v>0.0776077</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.08331089999999999</v>
+        <v>0.0823362</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0761568</v>
+        <v>0.073505</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0811002</v>
+        <v>0.0792498</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.083978</v>
+        <v>0.0828005</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0775909</v>
+        <v>0.0750482</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0830616</v>
+        <v>0.0812242</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08493879999999999</v>
+        <v>0.0837347</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0795119</v>
+        <v>0.0770658</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0857792</v>
+        <v>0.0841305</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0864171</v>
+        <v>0.0855736</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0821066</v>
+        <v>0.0795993</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08960079999999999</v>
+        <v>0.08792220000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0886212</v>
+        <v>0.08782769999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.08560769999999999</v>
+        <v>0.0831913</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0954132</v>
+        <v>0.09380189999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0923626</v>
+        <v>0.0913977</v>
       </c>
       <c r="C80" t="n">
-        <v>0.09081500000000001</v>
+        <v>0.088286</v>
       </c>
       <c r="D80" t="n">
-        <v>0.123159</v>
+        <v>0.120813</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.180969</v>
+        <v>0.18349</v>
       </c>
       <c r="C81" t="n">
-        <v>0.159069</v>
+        <v>0.156641</v>
       </c>
       <c r="D81" t="n">
-        <v>0.12571</v>
+        <v>0.123212</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.185295</v>
+        <v>0.183853</v>
       </c>
       <c r="C82" t="n">
-        <v>0.156082</v>
+        <v>0.155991</v>
       </c>
       <c r="D82" t="n">
-        <v>0.126964</v>
+        <v>0.125312</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183444</v>
+        <v>0.182554</v>
       </c>
       <c r="C83" t="n">
-        <v>0.157647</v>
+        <v>0.156916</v>
       </c>
       <c r="D83" t="n">
-        <v>0.132396</v>
+        <v>0.127263</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.185851</v>
+        <v>0.18525</v>
       </c>
       <c r="C84" t="n">
-        <v>0.15742</v>
+        <v>0.155178</v>
       </c>
       <c r="D84" t="n">
-        <v>0.132877</v>
+        <v>0.128164</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.183931</v>
+        <v>0.184261</v>
       </c>
       <c r="C85" t="n">
-        <v>0.160146</v>
+        <v>0.156531</v>
       </c>
       <c r="D85" t="n">
-        <v>0.136241</v>
+        <v>0.12911</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185258</v>
+        <v>0.185832</v>
       </c>
       <c r="C86" t="n">
-        <v>0.159278</v>
+        <v>0.157147</v>
       </c>
       <c r="D86" t="n">
-        <v>0.138058</v>
+        <v>0.131019</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185529</v>
+        <v>0.186883</v>
       </c>
       <c r="C87" t="n">
-        <v>0.160866</v>
+        <v>0.160269</v>
       </c>
       <c r="D87" t="n">
-        <v>0.141862</v>
+        <v>0.136982</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.186701</v>
+        <v>0.186898</v>
       </c>
       <c r="C88" t="n">
-        <v>0.161207</v>
+        <v>0.159725</v>
       </c>
       <c r="D88" t="n">
-        <v>0.139782</v>
+        <v>0.137965</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.187955</v>
+        <v>0.186185</v>
       </c>
       <c r="C89" t="n">
-        <v>0.163558</v>
+        <v>0.162103</v>
       </c>
       <c r="D89" t="n">
-        <v>0.146153</v>
+        <v>0.14219</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.188421</v>
+        <v>0.185782</v>
       </c>
       <c r="C90" t="n">
-        <v>0.163613</v>
+        <v>0.159294</v>
       </c>
       <c r="D90" t="n">
-        <v>0.149941</v>
+        <v>0.141827</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188091</v>
+        <v>0.18753</v>
       </c>
       <c r="C91" t="n">
-        <v>0.165729</v>
+        <v>0.163942</v>
       </c>
       <c r="D91" t="n">
-        <v>0.151795</v>
+        <v>0.144565</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188335</v>
+        <v>0.188703</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166139</v>
+        <v>0.164341</v>
       </c>
       <c r="D92" t="n">
-        <v>0.155245</v>
+        <v>0.145429</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190292</v>
+        <v>0.190487</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168918</v>
+        <v>0.168813</v>
       </c>
       <c r="D93" t="n">
-        <v>0.159973</v>
+        <v>0.151935</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194088</v>
+        <v>0.193879</v>
       </c>
       <c r="C94" t="n">
-        <v>0.173227</v>
+        <v>0.172347</v>
       </c>
       <c r="D94" t="n">
-        <v>0.233441</v>
+        <v>0.230055</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.254428</v>
+        <v>0.252753</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23204</v>
+        <v>0.233483</v>
       </c>
       <c r="D95" t="n">
-        <v>0.24473</v>
+        <v>0.241331</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.252932</v>
+        <v>0.255399</v>
       </c>
       <c r="C96" t="n">
-        <v>0.233002</v>
+        <v>0.234695</v>
       </c>
       <c r="D96" t="n">
-        <v>0.247074</v>
+        <v>0.236121</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.254283</v>
+        <v>0.255016</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233832</v>
+        <v>0.235583</v>
       </c>
       <c r="D97" t="n">
-        <v>0.248215</v>
+        <v>0.245947</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.254571</v>
+        <v>0.257019</v>
       </c>
       <c r="C98" t="n">
-        <v>0.235667</v>
+        <v>0.230647</v>
       </c>
       <c r="D98" t="n">
-        <v>0.242979</v>
+        <v>0.242617</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.254504</v>
+        <v>0.255122</v>
       </c>
       <c r="C99" t="n">
-        <v>0.229995</v>
+        <v>0.237451</v>
       </c>
       <c r="D99" t="n">
-        <v>0.244636</v>
+        <v>0.249627</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.254726</v>
+        <v>0.254828</v>
       </c>
       <c r="C100" t="n">
-        <v>0.231471</v>
+        <v>0.239809</v>
       </c>
       <c r="D100" t="n">
-        <v>0.247874</v>
+        <v>0.25209</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.254694</v>
+        <v>0.254784</v>
       </c>
       <c r="C101" t="n">
-        <v>0.233556</v>
+        <v>0.240545</v>
       </c>
       <c r="D101" t="n">
-        <v>0.250218</v>
+        <v>0.253661</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.255151</v>
+        <v>0.255358</v>
       </c>
       <c r="C102" t="n">
-        <v>0.241695</v>
+        <v>0.242844</v>
       </c>
       <c r="D102" t="n">
-        <v>0.259428</v>
+        <v>0.256638</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.255314</v>
+        <v>0.255231</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243389</v>
+        <v>0.243762</v>
       </c>
       <c r="D103" t="n">
-        <v>0.261798</v>
+        <v>0.258885</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.255783</v>
+        <v>0.255717</v>
       </c>
       <c r="C104" t="n">
-        <v>0.245841</v>
+        <v>0.246623</v>
       </c>
       <c r="D104" t="n">
-        <v>0.26541</v>
+        <v>0.261878</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255514</v>
+        <v>0.255693</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248061</v>
+        <v>0.248084</v>
       </c>
       <c r="D105" t="n">
-        <v>0.267185</v>
+        <v>0.263708</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.257304</v>
+        <v>0.257171</v>
       </c>
       <c r="C106" t="n">
-        <v>0.250446</v>
+        <v>0.251117</v>
       </c>
       <c r="D106" t="n">
-        <v>0.270839</v>
+        <v>0.268342</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258536</v>
+        <v>0.258706</v>
       </c>
       <c r="C107" t="n">
-        <v>0.254118</v>
+        <v>0.248848</v>
       </c>
       <c r="D107" t="n">
-        <v>0.274671</v>
+        <v>0.266524</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.260995</v>
+        <v>0.262114</v>
       </c>
       <c r="C108" t="n">
-        <v>0.258446</v>
+        <v>0.259596</v>
       </c>
       <c r="D108" t="n">
-        <v>0.302028</v>
+        <v>0.298602</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265598</v>
+        <v>0.266174</v>
       </c>
       <c r="C109" t="n">
-        <v>0.264767</v>
+        <v>0.265658</v>
       </c>
       <c r="D109" t="n">
-        <v>0.303663</v>
+        <v>0.297649</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.291129</v>
+        <v>0.289762</v>
       </c>
       <c r="C110" t="n">
-        <v>0.263378</v>
+        <v>0.265863</v>
       </c>
       <c r="D110" t="n">
-        <v>0.305721</v>
+        <v>0.302371</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.292274</v>
+        <v>0.28446</v>
       </c>
       <c r="C111" t="n">
-        <v>0.265605</v>
+        <v>0.267673</v>
       </c>
       <c r="D111" t="n">
-        <v>0.308123</v>
+        <v>0.304526</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.291686</v>
+        <v>0.292009</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263003</v>
+        <v>0.263814</v>
       </c>
       <c r="D112" t="n">
-        <v>0.310642</v>
+        <v>0.30646</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.292388</v>
+        <v>0.286531</v>
       </c>
       <c r="C113" t="n">
-        <v>0.262155</v>
+        <v>0.264351</v>
       </c>
       <c r="D113" t="n">
-        <v>0.310335</v>
+        <v>0.308723</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.28564</v>
+        <v>0.292077</v>
       </c>
       <c r="C114" t="n">
-        <v>0.266251</v>
+        <v>0.265819</v>
       </c>
       <c r="D114" t="n">
-        <v>0.312636</v>
+        <v>0.311401</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.285846</v>
+        <v>0.290008</v>
       </c>
       <c r="C115" t="n">
-        <v>0.262532</v>
+        <v>0.269909</v>
       </c>
       <c r="D115" t="n">
-        <v>0.30361</v>
+        <v>0.313607</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.28732</v>
+        <v>0.290052</v>
       </c>
       <c r="C116" t="n">
-        <v>0.265121</v>
+        <v>0.273646</v>
       </c>
       <c r="D116" t="n">
-        <v>0.30556</v>
+        <v>0.309276</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287729</v>
+        <v>0.293557</v>
       </c>
       <c r="C117" t="n">
-        <v>0.268703</v>
+        <v>0.276107</v>
       </c>
       <c r="D117" t="n">
-        <v>0.309436</v>
+        <v>0.312308</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.287528</v>
+        <v>0.295776</v>
       </c>
       <c r="C118" t="n">
-        <v>0.271277</v>
+        <v>0.279759</v>
       </c>
       <c r="D118" t="n">
-        <v>0.312258</v>
+        <v>0.314263</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.288868</v>
+        <v>0.288529</v>
       </c>
       <c r="C119" t="n">
-        <v>0.274892</v>
+        <v>0.282855</v>
       </c>
       <c r="D119" t="n">
-        <v>0.315162</v>
+        <v>0.318862</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.289273</v>
+        <v>0.28947</v>
       </c>
       <c r="C120" t="n">
-        <v>0.278753</v>
+        <v>0.287078</v>
       </c>
       <c r="D120" t="n">
-        <v>0.320122</v>
+        <v>0.323924</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.292903</v>
+        <v>0.294586</v>
       </c>
       <c r="C121" t="n">
-        <v>0.283461</v>
+        <v>0.289549</v>
       </c>
       <c r="D121" t="n">
-        <v>0.322981</v>
+        <v>0.327516</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.294774</v>
+        <v>0.29326</v>
       </c>
       <c r="C122" t="n">
-        <v>0.288398</v>
+        <v>0.294432</v>
       </c>
       <c r="D122" t="n">
-        <v>0.330356</v>
+        <v>0.333438</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.297894</v>
+        <v>0.302744</v>
       </c>
       <c r="C123" t="n">
-        <v>0.294938</v>
+        <v>0.302939</v>
       </c>
       <c r="D123" t="n">
-        <v>0.333215</v>
+        <v>0.332607</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.366626</v>
+        <v>0.373522</v>
       </c>
       <c r="C124" t="n">
-        <v>0.272801</v>
+        <v>0.279318</v>
       </c>
       <c r="D124" t="n">
-        <v>0.324043</v>
+        <v>0.324423</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.367555</v>
+        <v>0.373114</v>
       </c>
       <c r="C125" t="n">
-        <v>0.275359</v>
+        <v>0.282241</v>
       </c>
       <c r="D125" t="n">
-        <v>0.327707</v>
+        <v>0.328</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.367515</v>
+        <v>0.374475</v>
       </c>
       <c r="C126" t="n">
-        <v>0.278265</v>
+        <v>0.284884</v>
       </c>
       <c r="D126" t="n">
-        <v>0.330348</v>
+        <v>0.330475</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.368181</v>
+        <v>0.374801</v>
       </c>
       <c r="C127" t="n">
-        <v>0.281513</v>
+        <v>0.288447</v>
       </c>
       <c r="D127" t="n">
-        <v>0.332352</v>
+        <v>0.332983</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.368819</v>
+        <v>0.374078</v>
       </c>
       <c r="C128" t="n">
-        <v>0.284902</v>
+        <v>0.291734</v>
       </c>
       <c r="D128" t="n">
-        <v>0.336099</v>
+        <v>0.336159</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3683</v>
+        <v>0.374638</v>
       </c>
       <c r="C129" t="n">
-        <v>0.288647</v>
+        <v>0.29531</v>
       </c>
       <c r="D129" t="n">
-        <v>0.339709</v>
+        <v>0.339415</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.368474</v>
+        <v>0.375162</v>
       </c>
       <c r="C130" t="n">
-        <v>0.291816</v>
+        <v>0.298748</v>
       </c>
       <c r="D130" t="n">
-        <v>0.342417</v>
+        <v>0.343344</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.368826</v>
+        <v>0.375063</v>
       </c>
       <c r="C131" t="n">
-        <v>0.296105</v>
+        <v>0.302495</v>
       </c>
       <c r="D131" t="n">
-        <v>0.34679</v>
+        <v>0.3465</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.368973</v>
+        <v>0.376221</v>
       </c>
       <c r="C132" t="n">
-        <v>0.29986</v>
+        <v>0.30637</v>
       </c>
       <c r="D132" t="n">
-        <v>0.350623</v>
+        <v>0.350553</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.36875</v>
+        <v>0.374822</v>
       </c>
       <c r="C133" t="n">
-        <v>0.304312</v>
+        <v>0.31173</v>
       </c>
       <c r="D133" t="n">
-        <v>0.355415</v>
+        <v>0.356053</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.369663</v>
+        <v>0.376972</v>
       </c>
       <c r="C134" t="n">
-        <v>0.309282</v>
+        <v>0.316109</v>
       </c>
       <c r="D134" t="n">
-        <v>0.361215</v>
+        <v>0.361926</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.371794</v>
+        <v>0.378603</v>
       </c>
       <c r="C135" t="n">
-        <v>0.314327</v>
+        <v>0.321984</v>
       </c>
       <c r="D135" t="n">
-        <v>0.368074</v>
+        <v>0.369056</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.373835</v>
+        <v>0.37985</v>
       </c>
       <c r="C136" t="n">
-        <v>0.321194</v>
+        <v>0.328393</v>
       </c>
       <c r="D136" t="n">
-        <v>0.376823</v>
+        <v>0.377712</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.376498</v>
+        <v>0.383527</v>
       </c>
       <c r="C137" t="n">
-        <v>0.330497</v>
+        <v>0.338197</v>
       </c>
       <c r="D137" t="n">
-        <v>0.343461</v>
+        <v>0.34664</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.433946</v>
+        <v>0.442312</v>
       </c>
       <c r="C138" t="n">
-        <v>0.295325</v>
+        <v>0.30209</v>
       </c>
       <c r="D138" t="n">
-        <v>0.345763</v>
+        <v>0.348635</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.434431</v>
+        <v>0.442078</v>
       </c>
       <c r="C139" t="n">
-        <v>0.297491</v>
+        <v>0.305068</v>
       </c>
       <c r="D139" t="n">
-        <v>0.347948</v>
+        <v>0.351654</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.434362</v>
+        <v>0.442694</v>
       </c>
       <c r="C140" t="n">
-        <v>0.300785</v>
+        <v>0.308278</v>
       </c>
       <c r="D140" t="n">
-        <v>0.35078</v>
+        <v>0.354489</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.435005</v>
+        <v>0.442189</v>
       </c>
       <c r="C141" t="n">
-        <v>0.303293</v>
+        <v>0.311077</v>
       </c>
       <c r="D141" t="n">
-        <v>0.352826</v>
+        <v>0.356959</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.435125</v>
+        <v>0.442332</v>
       </c>
       <c r="C142" t="n">
-        <v>0.306</v>
+        <v>0.314325</v>
       </c>
       <c r="D142" t="n">
-        <v>0.355002</v>
+        <v>0.359983</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.434879</v>
+        <v>0.443116</v>
       </c>
       <c r="C143" t="n">
-        <v>0.308772</v>
+        <v>0.31671</v>
       </c>
       <c r="D143" t="n">
-        <v>0.358248</v>
+        <v>0.362086</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0461931</v>
+        <v>0.0469594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0450414</v>
+        <v>0.044429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.050473</v>
+        <v>0.0507996</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0462685</v>
+        <v>0.0469811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0452971</v>
+        <v>0.0446935</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0504022</v>
+        <v>0.0512176</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0465425</v>
+        <v>0.0472293</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0453087</v>
+        <v>0.044845</v>
       </c>
       <c r="D4" t="n">
-        <v>0.050484</v>
+        <v>0.0512568</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0470377</v>
+        <v>0.0472151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0454483</v>
+        <v>0.0451467</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05099</v>
+        <v>0.0514898</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0469962</v>
+        <v>0.047324</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0458332</v>
+        <v>0.0453026</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0512897</v>
+        <v>0.0517164</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0472093</v>
+        <v>0.0474227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0463726</v>
+        <v>0.046003</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0520317</v>
+        <v>0.0523131</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0474825</v>
+        <v>0.0477146</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0471052</v>
+        <v>0.0469422</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0539647</v>
+        <v>0.0534986</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0486229</v>
+        <v>0.0486292</v>
       </c>
       <c r="C9" t="n">
-        <v>0.048556</v>
+        <v>0.0485754</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0523422</v>
+        <v>0.0533538</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0516371</v>
+        <v>0.0524549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0473737</v>
+        <v>0.0479647</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0523677</v>
+        <v>0.0538135</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0511672</v>
+        <v>0.0524186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0477119</v>
+        <v>0.0480587</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0531777</v>
+        <v>0.0539375</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0512498</v>
+        <v>0.0522435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0480278</v>
+        <v>0.0483423</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0529857</v>
+        <v>0.0544852</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0513639</v>
+        <v>0.0523628</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0483872</v>
+        <v>0.0488077</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0533899</v>
+        <v>0.0546063</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0515125</v>
+        <v>0.0526106</v>
       </c>
       <c r="C14" t="n">
-        <v>0.048807</v>
+        <v>0.0491284</v>
       </c>
       <c r="D14" t="n">
-        <v>0.053788</v>
+        <v>0.0551074</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0516086</v>
+        <v>0.0526</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0491343</v>
+        <v>0.0496692</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0542238</v>
+        <v>0.0554841</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0517506</v>
+        <v>0.0527458</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0495074</v>
+        <v>0.0496686</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0546515</v>
+        <v>0.0558108</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0520379</v>
+        <v>0.0528784</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0496908</v>
+        <v>0.0501026</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0550467</v>
+        <v>0.0562425</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0522121</v>
+        <v>0.0531168</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0500641</v>
+        <v>0.0504551</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0555422</v>
+        <v>0.0564903</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.052495</v>
+        <v>0.0532472</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0503715</v>
+        <v>0.0507734</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0558776</v>
+        <v>0.0569088</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0527806</v>
+        <v>0.0534541</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0507799</v>
+        <v>0.0514121</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0567422</v>
+        <v>0.0578626</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0531297</v>
+        <v>0.0538099</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0517128</v>
+        <v>0.0521799</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0582059</v>
+        <v>0.0589565</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0537065</v>
+        <v>0.0544585</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0535814</v>
+        <v>0.0545785</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0612279</v>
+        <v>0.062041</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0552001</v>
+        <v>0.0558321</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0581487</v>
+        <v>0.0592791</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0567031</v>
+        <v>0.0573078</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0553065</v>
+        <v>0.0565709</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0510634</v>
+        <v>0.0517678</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0559073</v>
+        <v>0.0576356</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0551128</v>
+        <v>0.0556081</v>
       </c>
       <c r="C25" t="n">
-        <v>0.051443</v>
+        <v>0.0528888</v>
       </c>
       <c r="D25" t="n">
-        <v>0.056269</v>
+        <v>0.0575901</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05513</v>
+        <v>0.0556693</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0518009</v>
+        <v>0.0526856</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0567048</v>
+        <v>0.0588236</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0552145</v>
+        <v>0.0557482</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0520946</v>
+        <v>0.0534202</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0572453</v>
+        <v>0.0582654</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0553639</v>
+        <v>0.0559233</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0525489</v>
+        <v>0.0531322</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0576149</v>
+        <v>0.0597547</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0554785</v>
+        <v>0.0560969</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0529937</v>
+        <v>0.053549</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0581156</v>
+        <v>0.0599297</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0556555</v>
+        <v>0.0562469</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0534048</v>
+        <v>0.0544567</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0584962</v>
+        <v>0.0595414</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0558008</v>
+        <v>0.0563683</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0538356</v>
+        <v>0.0548826</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0588669</v>
+        <v>0.0604958</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0561186</v>
+        <v>0.0565996</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0543737</v>
+        <v>0.0549042</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0595083</v>
+        <v>0.0612768</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0563363</v>
+        <v>0.0568382</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0560101</v>
+        <v>0.0559164</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0601859</v>
+        <v>0.0612098</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0566824</v>
+        <v>0.0571271</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0563109</v>
+        <v>0.0572584</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0617716</v>
+        <v>0.0632731</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0571967</v>
+        <v>0.0576407</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0588595</v>
+        <v>0.0586879</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0648146</v>
+        <v>0.0670806</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0581387</v>
+        <v>0.0585927</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0616464</v>
+        <v>0.0624311</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0709626</v>
+        <v>0.07280250000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0609923</v>
+        <v>0.0609796</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0677562</v>
+        <v>0.0685588</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0618063</v>
+        <v>0.061982</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06338480000000001</v>
+        <v>0.0610084</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0565553</v>
+        <v>0.0577</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0607675</v>
+        <v>0.0629039</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0620639</v>
+        <v>0.0596078</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0568865</v>
+        <v>0.0580521</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0632052</v>
+        <v>0.0635988</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0621257</v>
+        <v>0.0596508</v>
       </c>
       <c r="C40" t="n">
-        <v>0.057748</v>
+        <v>0.0584836</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0615137</v>
+        <v>0.0640423</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0622159</v>
+        <v>0.0598773</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0583486</v>
+        <v>0.0582461</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0640275</v>
+        <v>0.0645027</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0622859</v>
+        <v>0.0600023</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0584081</v>
+        <v>0.059087</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06444229999999999</v>
+        <v>0.0641776</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0624198</v>
+        <v>0.060086</v>
       </c>
       <c r="C43" t="n">
-        <v>0.059134</v>
+        <v>0.0597533</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0631861</v>
+        <v>0.0655611</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0625923</v>
+        <v>0.0602818</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0596803</v>
+        <v>0.0604663</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0653193</v>
+        <v>0.06520529999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0627943</v>
+        <v>0.0604594</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0598485</v>
+        <v>0.0610077</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0657896</v>
+        <v>0.06669940000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06305189999999999</v>
+        <v>0.0607045</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0606413</v>
+        <v>0.0616547</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0669247</v>
+        <v>0.0667696</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0634112</v>
+        <v>0.0610325</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0616955</v>
+        <v>0.0624833</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0683434</v>
+        <v>0.0687803</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0637894</v>
+        <v>0.0614398</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06329319999999999</v>
+        <v>0.0644943</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0700896</v>
+        <v>0.0714321</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0644426</v>
+        <v>0.0621266</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0660727</v>
+        <v>0.0668142</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07255590000000001</v>
+        <v>0.07513739999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0658643</v>
+        <v>0.06351619999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0692921</v>
+        <v>0.0700474</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0788826</v>
+        <v>0.0796486</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0693464</v>
+        <v>0.06706910000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.074236</v>
+        <v>0.0743798</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0679334</v>
+        <v>0.06852179999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0748573</v>
+        <v>0.07243040000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08048660000000001</v>
+        <v>0.08142969999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06746829999999999</v>
+        <v>0.06891369999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0682522</v>
+        <v>0.0681746</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0582012</v>
+        <v>0.0591551</v>
       </c>
       <c r="D53" t="n">
-        <v>0.06829060000000001</v>
+        <v>0.0693936</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06760629999999999</v>
+        <v>0.0672953</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0587376</v>
+        <v>0.059652</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0684854</v>
+        <v>0.0697803</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0676172</v>
+        <v>0.06734329999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0586344</v>
+        <v>0.0601059</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0686606</v>
+        <v>0.07031419999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0676967</v>
+        <v>0.0674478</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0599693</v>
+        <v>0.0608416</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06979879999999999</v>
+        <v>0.0707431</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06782059999999999</v>
+        <v>0.0676355</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0599147</v>
+        <v>0.0614351</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0708159</v>
+        <v>0.0712593</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0680231</v>
+        <v>0.0677257</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0614038</v>
+        <v>0.0621751</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0704838</v>
+        <v>0.0719649</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0682526</v>
+        <v>0.06793879999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0614426</v>
+        <v>0.063012</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0710146</v>
+        <v>0.0728371</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0685158</v>
+        <v>0.0682446</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0631987</v>
+        <v>0.0640106</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0726503</v>
+        <v>0.0738978</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0689018</v>
+        <v>0.0685344</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0644633</v>
+        <v>0.0652967</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0730698</v>
+        <v>0.0755171</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0693979</v>
+        <v>0.0690784</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0659435</v>
+        <v>0.06703629999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07735060000000001</v>
+        <v>0.0779531</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.07028860000000001</v>
+        <v>0.0700244</v>
       </c>
       <c r="C63" t="n">
-        <v>0.06773700000000001</v>
+        <v>0.0692986</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0785587</v>
+        <v>0.0811332</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0722003</v>
+        <v>0.07183920000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0703061</v>
+        <v>0.0723071</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0837421</v>
+        <v>0.085378</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.074921</v>
+        <v>0.0744957</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0752866</v>
+        <v>0.07630290000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.09057800000000001</v>
+        <v>0.0920541</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0791806</v>
+        <v>0.0786647</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0801939</v>
+        <v>0.0824556</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0715517</v>
+        <v>0.0715812</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0799617</v>
+        <v>0.0764451</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0671885</v>
+        <v>0.0628121</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07211099999999999</v>
+        <v>0.0710221</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0803154</v>
+        <v>0.0765029</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0677545</v>
+        <v>0.0631871</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0725817</v>
+        <v>0.0697869</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.080343</v>
+        <v>0.0766289</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0681884</v>
+        <v>0.0637722</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0731043</v>
+        <v>0.0702373</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08066810000000001</v>
+        <v>0.077098</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0687934</v>
+        <v>0.0644835</v>
       </c>
       <c r="D70" t="n">
-        <v>0.07382900000000001</v>
+        <v>0.0707825</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0810333</v>
+        <v>0.077638</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06951930000000001</v>
+        <v>0.065201</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0744341</v>
+        <v>0.07145749999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0814375</v>
+        <v>0.0777263</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0703139</v>
+        <v>0.0657179</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0753979</v>
+        <v>0.07217700000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0814957</v>
+        <v>0.07821690000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>0.07109219999999999</v>
+        <v>0.066776</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0762719</v>
+        <v>0.07320550000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08194510000000001</v>
+        <v>0.0784527</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0722517</v>
+        <v>0.0679596</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0776077</v>
+        <v>0.0746261</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0823362</v>
+        <v>0.0789511</v>
       </c>
       <c r="C75" t="n">
-        <v>0.073505</v>
+        <v>0.0692479</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0792498</v>
+        <v>0.0762742</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0828005</v>
+        <v>0.0796888</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0750482</v>
+        <v>0.0709822</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0812242</v>
+        <v>0.0783872</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0837347</v>
+        <v>0.08066520000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0770658</v>
+        <v>0.07308240000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0841305</v>
+        <v>0.0812668</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0855736</v>
+        <v>0.0823074</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0795993</v>
+        <v>0.075735</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08792220000000001</v>
+        <v>0.0850622</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.08782769999999999</v>
+        <v>0.0844746</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0831913</v>
+        <v>0.0793063</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09380189999999999</v>
+        <v>0.09114369999999999</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0913977</v>
+        <v>0.0882631</v>
       </c>
       <c r="C80" t="n">
-        <v>0.088286</v>
+        <v>0.0845689</v>
       </c>
       <c r="D80" t="n">
-        <v>0.120813</v>
+        <v>0.114342</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.18349</v>
+        <v>0.181588</v>
       </c>
       <c r="C81" t="n">
-        <v>0.156641</v>
+        <v>0.153664</v>
       </c>
       <c r="D81" t="n">
-        <v>0.123212</v>
+        <v>0.11631</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.183853</v>
+        <v>0.181413</v>
       </c>
       <c r="C82" t="n">
-        <v>0.155991</v>
+        <v>0.157382</v>
       </c>
       <c r="D82" t="n">
-        <v>0.125312</v>
+        <v>0.122877</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.182554</v>
+        <v>0.183961</v>
       </c>
       <c r="C83" t="n">
-        <v>0.156916</v>
+        <v>0.152274</v>
       </c>
       <c r="D83" t="n">
-        <v>0.127263</v>
+        <v>0.119384</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.18525</v>
+        <v>0.183109</v>
       </c>
       <c r="C84" t="n">
-        <v>0.155178</v>
+        <v>0.15866</v>
       </c>
       <c r="D84" t="n">
-        <v>0.128164</v>
+        <v>0.12985</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184261</v>
+        <v>0.18523</v>
       </c>
       <c r="C85" t="n">
-        <v>0.156531</v>
+        <v>0.155292</v>
       </c>
       <c r="D85" t="n">
-        <v>0.12911</v>
+        <v>0.127218</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.185832</v>
+        <v>0.182305</v>
       </c>
       <c r="C86" t="n">
-        <v>0.157147</v>
+        <v>0.159665</v>
       </c>
       <c r="D86" t="n">
-        <v>0.131019</v>
+        <v>0.133575</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.186883</v>
+        <v>0.188121</v>
       </c>
       <c r="C87" t="n">
-        <v>0.160269</v>
+        <v>0.156425</v>
       </c>
       <c r="D87" t="n">
-        <v>0.136982</v>
+        <v>0.13213</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.186898</v>
+        <v>0.184974</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159725</v>
+        <v>0.160167</v>
       </c>
       <c r="D88" t="n">
-        <v>0.137965</v>
+        <v>0.135305</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.186185</v>
+        <v>0.187941</v>
       </c>
       <c r="C89" t="n">
-        <v>0.162103</v>
+        <v>0.159569</v>
       </c>
       <c r="D89" t="n">
-        <v>0.14219</v>
+        <v>0.136368</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.185782</v>
+        <v>0.186045</v>
       </c>
       <c r="C90" t="n">
-        <v>0.159294</v>
+        <v>0.162047</v>
       </c>
       <c r="D90" t="n">
-        <v>0.141827</v>
+        <v>0.140641</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18753</v>
+        <v>0.189762</v>
       </c>
       <c r="C91" t="n">
-        <v>0.163942</v>
+        <v>0.161716</v>
       </c>
       <c r="D91" t="n">
-        <v>0.144565</v>
+        <v>0.144591</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188703</v>
+        <v>0.185935</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164341</v>
+        <v>0.164545</v>
       </c>
       <c r="D92" t="n">
-        <v>0.145429</v>
+        <v>0.148309</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190487</v>
+        <v>0.190368</v>
       </c>
       <c r="C93" t="n">
-        <v>0.168813</v>
+        <v>0.167521</v>
       </c>
       <c r="D93" t="n">
-        <v>0.151935</v>
+        <v>0.155392</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.193879</v>
+        <v>0.190699</v>
       </c>
       <c r="C94" t="n">
-        <v>0.172347</v>
+        <v>0.171718</v>
       </c>
       <c r="D94" t="n">
-        <v>0.230055</v>
+        <v>0.239306</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.252753</v>
+        <v>0.254042</v>
       </c>
       <c r="C95" t="n">
-        <v>0.233483</v>
+        <v>0.230871</v>
       </c>
       <c r="D95" t="n">
-        <v>0.241331</v>
+        <v>0.242945</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.255399</v>
+        <v>0.25101</v>
       </c>
       <c r="C96" t="n">
-        <v>0.234695</v>
+        <v>0.232923</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236121</v>
+        <v>0.24333</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.255016</v>
+        <v>0.25378</v>
       </c>
       <c r="C97" t="n">
-        <v>0.235583</v>
+        <v>0.22511</v>
       </c>
       <c r="D97" t="n">
-        <v>0.245947</v>
+        <v>0.237635</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.257019</v>
+        <v>0.254718</v>
       </c>
       <c r="C98" t="n">
-        <v>0.230647</v>
+        <v>0.227171</v>
       </c>
       <c r="D98" t="n">
-        <v>0.242617</v>
+        <v>0.239826</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.255122</v>
+        <v>0.25419</v>
       </c>
       <c r="C99" t="n">
-        <v>0.237451</v>
+        <v>0.236607</v>
       </c>
       <c r="D99" t="n">
-        <v>0.249627</v>
+        <v>0.250577</v>
       </c>
     </row>
     <row r="100">
@@ -4620,10 +4620,10 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.254828</v>
+        <v>0.254343</v>
       </c>
       <c r="C100" t="n">
-        <v>0.239809</v>
+        <v>0.237928</v>
       </c>
       <c r="D100" t="n">
         <v>0.25209</v>
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.254784</v>
+        <v>0.252076</v>
       </c>
       <c r="C101" t="n">
-        <v>0.240545</v>
+        <v>0.239336</v>
       </c>
       <c r="D101" t="n">
-        <v>0.253661</v>
+        <v>0.255748</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.255358</v>
+        <v>0.254631</v>
       </c>
       <c r="C102" t="n">
-        <v>0.242844</v>
+        <v>0.241323</v>
       </c>
       <c r="D102" t="n">
-        <v>0.256638</v>
+        <v>0.247777</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.255231</v>
+        <v>0.252338</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243762</v>
+        <v>0.243382</v>
       </c>
       <c r="D103" t="n">
-        <v>0.258885</v>
+        <v>0.251911</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.255717</v>
+        <v>0.255323</v>
       </c>
       <c r="C104" t="n">
-        <v>0.246623</v>
+        <v>0.245644</v>
       </c>
       <c r="D104" t="n">
-        <v>0.261878</v>
+        <v>0.261995</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255693</v>
+        <v>0.255753</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248084</v>
+        <v>0.240639</v>
       </c>
       <c r="D105" t="n">
-        <v>0.263708</v>
+        <v>0.265286</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.257171</v>
+        <v>0.255056</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251117</v>
+        <v>0.24497</v>
       </c>
       <c r="D106" t="n">
-        <v>0.268342</v>
+        <v>0.26105</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258706</v>
+        <v>0.259268</v>
       </c>
       <c r="C107" t="n">
-        <v>0.248848</v>
+        <v>0.247864</v>
       </c>
       <c r="D107" t="n">
-        <v>0.266524</v>
+        <v>0.264706</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.262114</v>
+        <v>0.260976</v>
       </c>
       <c r="C108" t="n">
-        <v>0.259596</v>
+        <v>0.252321</v>
       </c>
       <c r="D108" t="n">
-        <v>0.298602</v>
+        <v>0.297561</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.266174</v>
+        <v>0.265894</v>
       </c>
       <c r="C109" t="n">
-        <v>0.265658</v>
+        <v>0.26</v>
       </c>
       <c r="D109" t="n">
-        <v>0.297649</v>
+        <v>0.296515</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.289762</v>
+        <v>0.285839</v>
       </c>
       <c r="C110" t="n">
-        <v>0.265863</v>
+        <v>0.263528</v>
       </c>
       <c r="D110" t="n">
-        <v>0.302371</v>
+        <v>0.301146</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.28446</v>
+        <v>0.291643</v>
       </c>
       <c r="C111" t="n">
-        <v>0.267673</v>
+        <v>0.265511</v>
       </c>
       <c r="D111" t="n">
-        <v>0.304526</v>
+        <v>0.300343</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.292009</v>
+        <v>0.29103</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263814</v>
+        <v>0.261155</v>
       </c>
       <c r="D112" t="n">
-        <v>0.30646</v>
+        <v>0.303022</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.286531</v>
+        <v>0.291886</v>
       </c>
       <c r="C113" t="n">
-        <v>0.264351</v>
+        <v>0.262062</v>
       </c>
       <c r="D113" t="n">
-        <v>0.308723</v>
+        <v>0.305572</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.292077</v>
+        <v>0.285468</v>
       </c>
       <c r="C114" t="n">
-        <v>0.265819</v>
+        <v>0.26539</v>
       </c>
       <c r="D114" t="n">
-        <v>0.311401</v>
+        <v>0.308069</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.290008</v>
+        <v>0.292569</v>
       </c>
       <c r="C115" t="n">
-        <v>0.269909</v>
+        <v>0.268009</v>
       </c>
       <c r="D115" t="n">
-        <v>0.313607</v>
+        <v>0.30546</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.290052</v>
+        <v>0.285422</v>
       </c>
       <c r="C116" t="n">
-        <v>0.273646</v>
+        <v>0.27146</v>
       </c>
       <c r="D116" t="n">
-        <v>0.309276</v>
+        <v>0.308681</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.293557</v>
+        <v>0.284916</v>
       </c>
       <c r="C117" t="n">
-        <v>0.276107</v>
+        <v>0.274377</v>
       </c>
       <c r="D117" t="n">
-        <v>0.312308</v>
+        <v>0.311353</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.295776</v>
+        <v>0.287505</v>
       </c>
       <c r="C118" t="n">
-        <v>0.279759</v>
+        <v>0.278409</v>
       </c>
       <c r="D118" t="n">
-        <v>0.314263</v>
+        <v>0.315174</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.288529</v>
+        <v>0.286716</v>
       </c>
       <c r="C119" t="n">
-        <v>0.282855</v>
+        <v>0.281487</v>
       </c>
       <c r="D119" t="n">
-        <v>0.318862</v>
+        <v>0.317756</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.28947</v>
+        <v>0.293424</v>
       </c>
       <c r="C120" t="n">
-        <v>0.287078</v>
+        <v>0.28509</v>
       </c>
       <c r="D120" t="n">
-        <v>0.323924</v>
+        <v>0.322585</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.294586</v>
+        <v>0.294968</v>
       </c>
       <c r="C121" t="n">
-        <v>0.289549</v>
+        <v>0.288575</v>
       </c>
       <c r="D121" t="n">
-        <v>0.327516</v>
+        <v>0.325355</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.29326</v>
+        <v>0.296489</v>
       </c>
       <c r="C122" t="n">
-        <v>0.294432</v>
+        <v>0.293714</v>
       </c>
       <c r="D122" t="n">
-        <v>0.333438</v>
+        <v>0.332279</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.302744</v>
+        <v>0.30465</v>
       </c>
       <c r="C123" t="n">
-        <v>0.302939</v>
+        <v>0.301667</v>
       </c>
       <c r="D123" t="n">
-        <v>0.332607</v>
+        <v>0.332012</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.373522</v>
+        <v>0.374031</v>
       </c>
       <c r="C124" t="n">
-        <v>0.279318</v>
+        <v>0.277855</v>
       </c>
       <c r="D124" t="n">
-        <v>0.324423</v>
+        <v>0.324852</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.373114</v>
+        <v>0.37392</v>
       </c>
       <c r="C125" t="n">
-        <v>0.282241</v>
+        <v>0.280886</v>
       </c>
       <c r="D125" t="n">
-        <v>0.328</v>
+        <v>0.327465</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.374475</v>
+        <v>0.373336</v>
       </c>
       <c r="C126" t="n">
-        <v>0.284884</v>
+        <v>0.284211</v>
       </c>
       <c r="D126" t="n">
-        <v>0.330475</v>
+        <v>0.330746</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.374801</v>
+        <v>0.375226</v>
       </c>
       <c r="C127" t="n">
-        <v>0.288447</v>
+        <v>0.287579</v>
       </c>
       <c r="D127" t="n">
-        <v>0.332983</v>
+        <v>0.333508</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.374078</v>
+        <v>0.37339</v>
       </c>
       <c r="C128" t="n">
-        <v>0.291734</v>
+        <v>0.29141</v>
       </c>
       <c r="D128" t="n">
-        <v>0.336159</v>
+        <v>0.337018</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.374638</v>
+        <v>0.373894</v>
       </c>
       <c r="C129" t="n">
-        <v>0.29531</v>
+        <v>0.294497</v>
       </c>
       <c r="D129" t="n">
-        <v>0.339415</v>
+        <v>0.340011</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.375162</v>
+        <v>0.374312</v>
       </c>
       <c r="C130" t="n">
-        <v>0.298748</v>
+        <v>0.298721</v>
       </c>
       <c r="D130" t="n">
-        <v>0.343344</v>
+        <v>0.343481</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.375063</v>
+        <v>0.372953</v>
       </c>
       <c r="C131" t="n">
-        <v>0.302495</v>
+        <v>0.302207</v>
       </c>
       <c r="D131" t="n">
-        <v>0.3465</v>
+        <v>0.346976</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.376221</v>
+        <v>0.374306</v>
       </c>
       <c r="C132" t="n">
-        <v>0.30637</v>
+        <v>0.307093</v>
       </c>
       <c r="D132" t="n">
-        <v>0.350553</v>
+        <v>0.352231</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.374822</v>
+        <v>0.373372</v>
       </c>
       <c r="C133" t="n">
-        <v>0.31173</v>
+        <v>0.311495</v>
       </c>
       <c r="D133" t="n">
-        <v>0.356053</v>
+        <v>0.356656</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.376972</v>
+        <v>0.37611</v>
       </c>
       <c r="C134" t="n">
-        <v>0.316109</v>
+        <v>0.316587</v>
       </c>
       <c r="D134" t="n">
-        <v>0.361926</v>
+        <v>0.363285</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.378603</v>
+        <v>0.375559</v>
       </c>
       <c r="C135" t="n">
-        <v>0.321984</v>
+        <v>0.322194</v>
       </c>
       <c r="D135" t="n">
-        <v>0.369056</v>
+        <v>0.369278</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.37985</v>
+        <v>0.38028</v>
       </c>
       <c r="C136" t="n">
-        <v>0.328393</v>
+        <v>0.329</v>
       </c>
       <c r="D136" t="n">
-        <v>0.377712</v>
+        <v>0.378289</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.383527</v>
+        <v>0.379623</v>
       </c>
       <c r="C137" t="n">
-        <v>0.338197</v>
+        <v>0.338611</v>
       </c>
       <c r="D137" t="n">
-        <v>0.34664</v>
+        <v>0.345715</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.442312</v>
+        <v>0.44005</v>
       </c>
       <c r="C138" t="n">
-        <v>0.30209</v>
+        <v>0.300569</v>
       </c>
       <c r="D138" t="n">
-        <v>0.348635</v>
+        <v>0.348589</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.442078</v>
+        <v>0.440047</v>
       </c>
       <c r="C139" t="n">
-        <v>0.305068</v>
+        <v>0.303121</v>
       </c>
       <c r="D139" t="n">
-        <v>0.351654</v>
+        <v>0.350349</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.442694</v>
+        <v>0.440281</v>
       </c>
       <c r="C140" t="n">
-        <v>0.308278</v>
+        <v>0.306603</v>
       </c>
       <c r="D140" t="n">
-        <v>0.354489</v>
+        <v>0.353899</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.442189</v>
+        <v>0.440424</v>
       </c>
       <c r="C141" t="n">
-        <v>0.311077</v>
+        <v>0.309369</v>
       </c>
       <c r="D141" t="n">
-        <v>0.356959</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.442332</v>
+        <v>0.435567</v>
       </c>
       <c r="C142" t="n">
-        <v>0.314325</v>
+        <v>0.312652</v>
       </c>
       <c r="D142" t="n">
-        <v>0.359983</v>
+        <v>0.359261</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.443116</v>
+        <v>0.441132</v>
       </c>
       <c r="C143" t="n">
-        <v>0.31671</v>
+        <v>0.315428</v>
       </c>
       <c r="D143" t="n">
-        <v>0.362086</v>
+        <v>0.361278</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0469594</v>
+        <v>0.046392</v>
       </c>
       <c r="C2" t="n">
-        <v>0.044429</v>
+        <v>0.0448327</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0507996</v>
+        <v>0.0495257</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0469811</v>
+        <v>0.0465358</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0446935</v>
+        <v>0.0451889</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0512176</v>
+        <v>0.0498648</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0472293</v>
+        <v>0.0467531</v>
       </c>
       <c r="C4" t="n">
-        <v>0.044845</v>
+        <v>0.045604</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0512568</v>
+        <v>0.0500284</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0472151</v>
+        <v>0.0468099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0451467</v>
+        <v>0.0460705</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0514898</v>
+        <v>0.05043</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.047324</v>
+        <v>0.0469633</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0453026</v>
+        <v>0.0466823</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0517164</v>
+        <v>0.0508428</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0474227</v>
+        <v>0.0471523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.046003</v>
+        <v>0.0473461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0523131</v>
+        <v>0.0516086</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0477146</v>
+        <v>0.0476554</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0469422</v>
+        <v>0.0485644</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0534986</v>
+        <v>0.0537001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0486292</v>
+        <v>0.0483152</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0485754</v>
+        <v>0.0511766</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0533538</v>
+        <v>0.0527045</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0524549</v>
+        <v>0.05058</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0479647</v>
+        <v>0.0476042</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0538135</v>
+        <v>0.0529965</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0524186</v>
+        <v>0.0506221</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0480587</v>
+        <v>0.0479478</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0539375</v>
+        <v>0.0532862</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0522435</v>
+        <v>0.0506822</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0483423</v>
+        <v>0.0482918</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0544852</v>
+        <v>0.0535891</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0523628</v>
+        <v>0.0506928</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0488077</v>
+        <v>0.0486426</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0546063</v>
+        <v>0.0538455</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0526106</v>
+        <v>0.050968</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0491284</v>
+        <v>0.0491191</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0551074</v>
+        <v>0.054285</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0526</v>
+        <v>0.0511032</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0496692</v>
+        <v>0.0495473</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0554841</v>
+        <v>0.054688</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0527458</v>
+        <v>0.0511527</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0496686</v>
+        <v>0.0498965</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0558108</v>
+        <v>0.0550175</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0528784</v>
+        <v>0.0513981</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0501026</v>
+        <v>0.0503086</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0562425</v>
+        <v>0.0553464</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0531168</v>
+        <v>0.0516551</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0504551</v>
+        <v>0.0507959</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0564903</v>
+        <v>0.0556575</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0532472</v>
+        <v>0.0518159</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0507734</v>
+        <v>0.0512765</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0569088</v>
+        <v>0.0561593</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0534541</v>
+        <v>0.0520503</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0514121</v>
+        <v>0.052026</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0578626</v>
+        <v>0.0568945</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0538099</v>
+        <v>0.0527284</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0521799</v>
+        <v>0.0534564</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0589565</v>
+        <v>0.0582923</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0544585</v>
+        <v>0.0531399</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0545785</v>
+        <v>0.0554594</v>
       </c>
       <c r="D22" t="n">
-        <v>0.062041</v>
+        <v>0.0620633</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0558321</v>
+        <v>0.0543453</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0592791</v>
+        <v>0.0597651</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0573078</v>
+        <v>0.0560903</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0565709</v>
+        <v>0.0551757</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0517678</v>
+        <v>0.0516097</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0576356</v>
+        <v>0.056193</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0556081</v>
+        <v>0.0549606</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0528888</v>
+        <v>0.0519339</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0575901</v>
+        <v>0.0565243</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0556693</v>
+        <v>0.0549652</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0526856</v>
+        <v>0.0528701</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0588236</v>
+        <v>0.0568556</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0557482</v>
+        <v>0.0550892</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0534202</v>
+        <v>0.0532189</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0582654</v>
+        <v>0.0573459</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0559233</v>
+        <v>0.0552307</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0531322</v>
+        <v>0.0530373</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0597547</v>
+        <v>0.0577422</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0560969</v>
+        <v>0.0553965</v>
       </c>
       <c r="C29" t="n">
-        <v>0.053549</v>
+        <v>0.0535736</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0599297</v>
+        <v>0.0589624</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0562469</v>
+        <v>0.05555</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0544567</v>
+        <v>0.0542014</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0595414</v>
+        <v>0.0586183</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0563683</v>
+        <v>0.0557113</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0548826</v>
+        <v>0.0548983</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0604958</v>
+        <v>0.0590415</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0565996</v>
+        <v>0.0559296</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0549042</v>
+        <v>0.0555761</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0612768</v>
+        <v>0.0595629</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0568382</v>
+        <v>0.0561522</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0559164</v>
+        <v>0.0559934</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0612098</v>
+        <v>0.0603582</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0571271</v>
+        <v>0.0564423</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0572584</v>
+        <v>0.0572462</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0632731</v>
+        <v>0.0620991</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0576407</v>
+        <v>0.0569132</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0586879</v>
+        <v>0.0594435</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0670806</v>
+        <v>0.06504550000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0585927</v>
+        <v>0.057939</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0624311</v>
+        <v>0.0624152</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07280250000000001</v>
+        <v>0.0719095</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0609796</v>
+        <v>0.0602924</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0685588</v>
+        <v>0.0678535</v>
       </c>
       <c r="D37" t="n">
-        <v>0.061982</v>
+        <v>0.0620107</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0610084</v>
+        <v>0.0619893</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0577</v>
+        <v>0.0576309</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0629039</v>
+        <v>0.0623058</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0596078</v>
+        <v>0.0604918</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0580521</v>
+        <v>0.0584456</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0635988</v>
+        <v>0.0633818</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0596508</v>
+        <v>0.0606161</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0584836</v>
+        <v>0.0585638</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0640423</v>
+        <v>0.0639005</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0598773</v>
+        <v>0.0607438</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0582461</v>
+        <v>0.05924</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0645027</v>
+        <v>0.0633333</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0600023</v>
+        <v>0.0608635</v>
       </c>
       <c r="C42" t="n">
-        <v>0.059087</v>
+        <v>0.0595689</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0641776</v>
+        <v>0.0637018</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.060086</v>
+        <v>0.0610784</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0597533</v>
+        <v>0.0601156</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0655611</v>
+        <v>0.06544270000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0602818</v>
+        <v>0.0612339</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0604663</v>
+        <v>0.0606412</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06520529999999999</v>
+        <v>0.065524</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0604594</v>
+        <v>0.0614024</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0610077</v>
+        <v>0.060968</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06669940000000001</v>
+        <v>0.06584230000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0607045</v>
+        <v>0.0616337</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0616547</v>
+        <v>0.0621654</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0667696</v>
+        <v>0.0666359</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0610325</v>
+        <v>0.0619272</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0624833</v>
+        <v>0.0634079</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0687803</v>
+        <v>0.0686937</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0614398</v>
+        <v>0.0623322</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0644943</v>
+        <v>0.064663</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0714321</v>
+        <v>0.0709732</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0621266</v>
+        <v>0.0629637</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0668142</v>
+        <v>0.06707929999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07513739999999999</v>
+        <v>0.07484010000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06351619999999999</v>
+        <v>0.0645898</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0700474</v>
+        <v>0.0701798</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0796486</v>
+        <v>0.078968</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06706910000000001</v>
+        <v>0.0680485</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0743798</v>
+        <v>0.073682</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06852179999999999</v>
+        <v>0.06835579999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07243040000000001</v>
+        <v>0.0735522</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08142969999999999</v>
+        <v>0.08102470000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.06891369999999999</v>
+        <v>0.0662843</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0681746</v>
+        <v>0.0671877</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0591551</v>
+        <v>0.0590362</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0693936</v>
+        <v>0.069149</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0672953</v>
+        <v>0.06722640000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>0.059652</v>
+        <v>0.0602222</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0697803</v>
+        <v>0.06917180000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.06734329999999999</v>
+        <v>0.0673077</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0601059</v>
+        <v>0.0604952</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07031419999999999</v>
+        <v>0.06929009999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0674478</v>
+        <v>0.06741220000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0608416</v>
+        <v>0.0606059</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0707431</v>
+        <v>0.0703881</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0676355</v>
+        <v>0.06756</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0614351</v>
+        <v>0.0615495</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0712593</v>
+        <v>0.07039289999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0677257</v>
+        <v>0.0677275</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0621751</v>
+        <v>0.0623418</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0719649</v>
+        <v>0.0717735</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06793879999999999</v>
+        <v>0.06790889999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.063012</v>
+        <v>0.06276710000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0728371</v>
+        <v>0.0723922</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0682446</v>
+        <v>0.06815690000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0640106</v>
+        <v>0.0642025</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0738978</v>
+        <v>0.07373250000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0685344</v>
+        <v>0.06851359999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0652967</v>
+        <v>0.0647474</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0755171</v>
+        <v>0.0753434</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0690784</v>
+        <v>0.0690289</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06703629999999999</v>
+        <v>0.0669481</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0779531</v>
+        <v>0.0776018</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0700244</v>
+        <v>0.0700339</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0692986</v>
+        <v>0.0697776</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0811332</v>
+        <v>0.0809994</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07183920000000001</v>
+        <v>0.07199700000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0723071</v>
+        <v>0.07273060000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.085378</v>
+        <v>0.0852439</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0744957</v>
+        <v>0.07461619999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07630290000000001</v>
+        <v>0.0767287</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0920541</v>
+        <v>0.0916371</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0786647</v>
+        <v>0.0789695</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0824556</v>
+        <v>0.08289059999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0715812</v>
+        <v>0.07264900000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0764451</v>
+        <v>0.0770492</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0628121</v>
+        <v>0.0651722</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0710221</v>
+        <v>0.0730572</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0765029</v>
+        <v>0.0771968</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0631871</v>
+        <v>0.06571589999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0697869</v>
+        <v>0.07361470000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0766289</v>
+        <v>0.0774236</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0637722</v>
+        <v>0.0663502</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0702373</v>
+        <v>0.0742992</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.077098</v>
+        <v>0.07751470000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0644835</v>
+        <v>0.0669459</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0707825</v>
+        <v>0.0748129</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.077638</v>
+        <v>0.077596</v>
       </c>
       <c r="C71" t="n">
-        <v>0.065201</v>
+        <v>0.067605</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07145749999999999</v>
+        <v>0.0754557</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0777263</v>
+        <v>0.0778011</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0657179</v>
+        <v>0.0682912</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07217700000000001</v>
+        <v>0.0761233</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.07821690000000001</v>
+        <v>0.078072</v>
       </c>
       <c r="C73" t="n">
-        <v>0.066776</v>
+        <v>0.0691822</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07320550000000001</v>
+        <v>0.07716099999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0784527</v>
+        <v>0.07850459999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0679596</v>
+        <v>0.0694475</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0746261</v>
+        <v>0.0784977</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0789511</v>
+        <v>0.0790686</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0692479</v>
+        <v>0.06987019999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0762742</v>
+        <v>0.080217</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0796888</v>
+        <v>0.0797544</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0709822</v>
+        <v>0.0713526</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0783872</v>
+        <v>0.081856</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08066520000000001</v>
+        <v>0.0807906</v>
       </c>
       <c r="C77" t="n">
-        <v>0.07308240000000001</v>
+        <v>0.0733558</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0812668</v>
+        <v>0.0845993</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0823074</v>
+        <v>0.08233699999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.075735</v>
+        <v>0.0761956</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0850622</v>
+        <v>0.08851050000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0844746</v>
+        <v>0.0847255</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0793063</v>
+        <v>0.0800632</v>
       </c>
       <c r="D79" t="n">
-        <v>0.09114369999999999</v>
+        <v>0.0943403</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0882631</v>
+        <v>0.0883401</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0845689</v>
+        <v>0.08507579999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.114342</v>
+        <v>0.117108</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.181588</v>
+        <v>0.183272</v>
       </c>
       <c r="C81" t="n">
-        <v>0.153664</v>
+        <v>0.157441</v>
       </c>
       <c r="D81" t="n">
-        <v>0.11631</v>
+        <v>0.119879</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.181413</v>
+        <v>0.184396</v>
       </c>
       <c r="C82" t="n">
-        <v>0.157382</v>
+        <v>0.156242</v>
       </c>
       <c r="D82" t="n">
-        <v>0.122877</v>
+        <v>0.119998</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183961</v>
+        <v>0.183577</v>
       </c>
       <c r="C83" t="n">
-        <v>0.152274</v>
+        <v>0.157753</v>
       </c>
       <c r="D83" t="n">
-        <v>0.119384</v>
+        <v>0.125326</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183109</v>
+        <v>0.184859</v>
       </c>
       <c r="C84" t="n">
-        <v>0.15866</v>
+        <v>0.155877</v>
       </c>
       <c r="D84" t="n">
-        <v>0.12985</v>
+        <v>0.127136</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18523</v>
+        <v>0.18324</v>
       </c>
       <c r="C85" t="n">
-        <v>0.155292</v>
+        <v>0.161077</v>
       </c>
       <c r="D85" t="n">
-        <v>0.127218</v>
+        <v>0.129607</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.182305</v>
+        <v>0.187258</v>
       </c>
       <c r="C86" t="n">
-        <v>0.159665</v>
+        <v>0.15832</v>
       </c>
       <c r="D86" t="n">
-        <v>0.133575</v>
+        <v>0.132452</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.188121</v>
+        <v>0.185565</v>
       </c>
       <c r="C87" t="n">
-        <v>0.156425</v>
+        <v>0.161092</v>
       </c>
       <c r="D87" t="n">
-        <v>0.13213</v>
+        <v>0.136107</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.184974</v>
+        <v>0.185959</v>
       </c>
       <c r="C88" t="n">
-        <v>0.160167</v>
+        <v>0.159458</v>
       </c>
       <c r="D88" t="n">
-        <v>0.135305</v>
+        <v>0.138026</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.187941</v>
+        <v>0.184588</v>
       </c>
       <c r="C89" t="n">
-        <v>0.159569</v>
+        <v>0.161775</v>
       </c>
       <c r="D89" t="n">
-        <v>0.136368</v>
+        <v>0.141031</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.186045</v>
+        <v>0.18719</v>
       </c>
       <c r="C90" t="n">
-        <v>0.162047</v>
+        <v>0.163512</v>
       </c>
       <c r="D90" t="n">
-        <v>0.140641</v>
+        <v>0.144264</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.189762</v>
+        <v>0.187497</v>
       </c>
       <c r="C91" t="n">
-        <v>0.161716</v>
+        <v>0.165136</v>
       </c>
       <c r="D91" t="n">
-        <v>0.144591</v>
+        <v>0.145009</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.185935</v>
+        <v>0.188951</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164545</v>
+        <v>0.165614</v>
       </c>
       <c r="D92" t="n">
-        <v>0.148309</v>
+        <v>0.146773</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190368</v>
+        <v>0.190172</v>
       </c>
       <c r="C93" t="n">
-        <v>0.167521</v>
+        <v>0.169837</v>
       </c>
       <c r="D93" t="n">
-        <v>0.155392</v>
+        <v>0.154258</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190699</v>
+        <v>0.194013</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171718</v>
+        <v>0.169768</v>
       </c>
       <c r="D94" t="n">
-        <v>0.239306</v>
+        <v>0.238471</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.254042</v>
+        <v>0.254017</v>
       </c>
       <c r="C95" t="n">
-        <v>0.230871</v>
+        <v>0.231309</v>
       </c>
       <c r="D95" t="n">
-        <v>0.242945</v>
+        <v>0.241193</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.25101</v>
+        <v>0.253877</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232923</v>
+        <v>0.232242</v>
       </c>
       <c r="D96" t="n">
-        <v>0.24333</v>
+        <v>0.242655</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.25378</v>
+        <v>0.254411</v>
       </c>
       <c r="C97" t="n">
-        <v>0.22511</v>
+        <v>0.233069</v>
       </c>
       <c r="D97" t="n">
-        <v>0.237635</v>
+        <v>0.238346</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.254718</v>
+        <v>0.253966</v>
       </c>
       <c r="C98" t="n">
-        <v>0.227171</v>
+        <v>0.234691</v>
       </c>
       <c r="D98" t="n">
-        <v>0.239826</v>
+        <v>0.240303</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.25419</v>
+        <v>0.253816</v>
       </c>
       <c r="C99" t="n">
-        <v>0.236607</v>
+        <v>0.229545</v>
       </c>
       <c r="D99" t="n">
-        <v>0.250577</v>
+        <v>0.248744</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.254343</v>
+        <v>0.254079</v>
       </c>
       <c r="C100" t="n">
-        <v>0.237928</v>
+        <v>0.237544</v>
       </c>
       <c r="D100" t="n">
-        <v>0.25209</v>
+        <v>0.245482</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.252076</v>
+        <v>0.25458</v>
       </c>
       <c r="C101" t="n">
-        <v>0.239336</v>
+        <v>0.23881</v>
       </c>
       <c r="D101" t="n">
-        <v>0.255748</v>
+        <v>0.248161</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.254631</v>
+        <v>0.254326</v>
       </c>
       <c r="C102" t="n">
-        <v>0.241323</v>
+        <v>0.234555</v>
       </c>
       <c r="D102" t="n">
-        <v>0.247777</v>
+        <v>0.250025</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.252338</v>
+        <v>0.25441</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243382</v>
+        <v>0.242569</v>
       </c>
       <c r="D103" t="n">
-        <v>0.251911</v>
+        <v>0.257972</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.255323</v>
+        <v>0.254752</v>
       </c>
       <c r="C104" t="n">
-        <v>0.245644</v>
+        <v>0.244557</v>
       </c>
       <c r="D104" t="n">
-        <v>0.261995</v>
+        <v>0.260797</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255753</v>
+        <v>0.255461</v>
       </c>
       <c r="C105" t="n">
-        <v>0.240639</v>
+        <v>0.241577</v>
       </c>
       <c r="D105" t="n">
-        <v>0.265286</v>
+        <v>0.262646</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255056</v>
+        <v>0.256136</v>
       </c>
       <c r="C106" t="n">
-        <v>0.24497</v>
+        <v>0.244592</v>
       </c>
       <c r="D106" t="n">
-        <v>0.26105</v>
+        <v>0.266906</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.259268</v>
+        <v>0.258038</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247864</v>
+        <v>0.247993</v>
       </c>
       <c r="D107" t="n">
-        <v>0.264706</v>
+        <v>0.269799</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.260976</v>
+        <v>0.260328</v>
       </c>
       <c r="C108" t="n">
-        <v>0.252321</v>
+        <v>0.257739</v>
       </c>
       <c r="D108" t="n">
-        <v>0.297561</v>
+        <v>0.29772</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265894</v>
+        <v>0.265237</v>
       </c>
       <c r="C109" t="n">
-        <v>0.26</v>
+        <v>0.259577</v>
       </c>
       <c r="D109" t="n">
-        <v>0.296515</v>
+        <v>0.299602</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.285839</v>
+        <v>0.284356</v>
       </c>
       <c r="C110" t="n">
-        <v>0.263528</v>
+        <v>0.264535</v>
       </c>
       <c r="D110" t="n">
-        <v>0.301146</v>
+        <v>0.302004</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.291643</v>
+        <v>0.28581</v>
       </c>
       <c r="C111" t="n">
-        <v>0.265511</v>
+        <v>0.265998</v>
       </c>
       <c r="D111" t="n">
-        <v>0.300343</v>
+        <v>0.304249</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.29103</v>
+        <v>0.284413</v>
       </c>
       <c r="C112" t="n">
-        <v>0.261155</v>
+        <v>0.261766</v>
       </c>
       <c r="D112" t="n">
-        <v>0.303022</v>
+        <v>0.3064</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.291886</v>
+        <v>0.285905</v>
       </c>
       <c r="C113" t="n">
-        <v>0.262062</v>
+        <v>0.262268</v>
       </c>
       <c r="D113" t="n">
-        <v>0.305572</v>
+        <v>0.308509</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.285468</v>
+        <v>0.284574</v>
       </c>
       <c r="C114" t="n">
-        <v>0.26539</v>
+        <v>0.263986</v>
       </c>
       <c r="D114" t="n">
-        <v>0.308069</v>
+        <v>0.308465</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.292569</v>
+        <v>0.29127</v>
       </c>
       <c r="C115" t="n">
-        <v>0.268009</v>
+        <v>0.268379</v>
       </c>
       <c r="D115" t="n">
-        <v>0.30546</v>
+        <v>0.313708</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.285422</v>
+        <v>0.28437</v>
       </c>
       <c r="C116" t="n">
-        <v>0.27146</v>
+        <v>0.270689</v>
       </c>
       <c r="D116" t="n">
-        <v>0.308681</v>
+        <v>0.309405</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.284916</v>
+        <v>0.291376</v>
       </c>
       <c r="C117" t="n">
-        <v>0.274377</v>
+        <v>0.273821</v>
       </c>
       <c r="D117" t="n">
-        <v>0.311353</v>
+        <v>0.31223</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.287505</v>
+        <v>0.294734</v>
       </c>
       <c r="C118" t="n">
-        <v>0.278409</v>
+        <v>0.27731</v>
       </c>
       <c r="D118" t="n">
-        <v>0.315174</v>
+        <v>0.316086</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.286716</v>
+        <v>0.286334</v>
       </c>
       <c r="C119" t="n">
-        <v>0.281487</v>
+        <v>0.281543</v>
       </c>
       <c r="D119" t="n">
-        <v>0.317756</v>
+        <v>0.317889</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.293424</v>
+        <v>0.28919</v>
       </c>
       <c r="C120" t="n">
-        <v>0.28509</v>
+        <v>0.284998</v>
       </c>
       <c r="D120" t="n">
-        <v>0.322585</v>
+        <v>0.322554</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.294968</v>
+        <v>0.296311</v>
       </c>
       <c r="C121" t="n">
-        <v>0.288575</v>
+        <v>0.288686</v>
       </c>
       <c r="D121" t="n">
-        <v>0.325355</v>
+        <v>0.326354</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.296489</v>
+        <v>0.30186</v>
       </c>
       <c r="C122" t="n">
-        <v>0.293714</v>
+        <v>0.294349</v>
       </c>
       <c r="D122" t="n">
-        <v>0.332279</v>
+        <v>0.330797</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.30465</v>
+        <v>0.295754</v>
       </c>
       <c r="C123" t="n">
-        <v>0.301667</v>
+        <v>0.302123</v>
       </c>
       <c r="D123" t="n">
-        <v>0.332012</v>
+        <v>0.331382</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.374031</v>
+        <v>0.371097</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277855</v>
+        <v>0.277067</v>
       </c>
       <c r="D124" t="n">
-        <v>0.324852</v>
+        <v>0.324591</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.37392</v>
+        <v>0.370722</v>
       </c>
       <c r="C125" t="n">
-        <v>0.280886</v>
+        <v>0.279989</v>
       </c>
       <c r="D125" t="n">
-        <v>0.327465</v>
+        <v>0.327231</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.373336</v>
+        <v>0.371174</v>
       </c>
       <c r="C126" t="n">
-        <v>0.284211</v>
+        <v>0.283509</v>
       </c>
       <c r="D126" t="n">
-        <v>0.330746</v>
+        <v>0.329904</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.375226</v>
+        <v>0.370297</v>
       </c>
       <c r="C127" t="n">
-        <v>0.287579</v>
+        <v>0.28642</v>
       </c>
       <c r="D127" t="n">
-        <v>0.333508</v>
+        <v>0.333119</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.37339</v>
+        <v>0.371574</v>
       </c>
       <c r="C128" t="n">
-        <v>0.29141</v>
+        <v>0.289958</v>
       </c>
       <c r="D128" t="n">
-        <v>0.337018</v>
+        <v>0.335736</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.373894</v>
+        <v>0.371861</v>
       </c>
       <c r="C129" t="n">
-        <v>0.294497</v>
+        <v>0.293604</v>
       </c>
       <c r="D129" t="n">
-        <v>0.340011</v>
+        <v>0.339055</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.374312</v>
+        <v>0.371314</v>
       </c>
       <c r="C130" t="n">
-        <v>0.298721</v>
+        <v>0.297117</v>
       </c>
       <c r="D130" t="n">
-        <v>0.343481</v>
+        <v>0.341827</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.372953</v>
+        <v>0.372793</v>
       </c>
       <c r="C131" t="n">
-        <v>0.302207</v>
+        <v>0.301016</v>
       </c>
       <c r="D131" t="n">
-        <v>0.346976</v>
+        <v>0.346423</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.374306</v>
+        <v>0.37157</v>
       </c>
       <c r="C132" t="n">
-        <v>0.307093</v>
+        <v>0.305157</v>
       </c>
       <c r="D132" t="n">
-        <v>0.352231</v>
+        <v>0.350464</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.373372</v>
+        <v>0.372863</v>
       </c>
       <c r="C133" t="n">
-        <v>0.311495</v>
+        <v>0.309832</v>
       </c>
       <c r="D133" t="n">
-        <v>0.356656</v>
+        <v>0.355956</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.37611</v>
+        <v>0.373288</v>
       </c>
       <c r="C134" t="n">
-        <v>0.316587</v>
+        <v>0.314813</v>
       </c>
       <c r="D134" t="n">
-        <v>0.363285</v>
+        <v>0.361574</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.375559</v>
+        <v>0.375537</v>
       </c>
       <c r="C135" t="n">
-        <v>0.322194</v>
+        <v>0.320522</v>
       </c>
       <c r="D135" t="n">
-        <v>0.369278</v>
+        <v>0.368154</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.38028</v>
+        <v>0.376374</v>
       </c>
       <c r="C136" t="n">
-        <v>0.329</v>
+        <v>0.327271</v>
       </c>
       <c r="D136" t="n">
-        <v>0.378289</v>
+        <v>0.3767</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.379623</v>
+        <v>0.380492</v>
       </c>
       <c r="C137" t="n">
-        <v>0.338611</v>
+        <v>0.336473</v>
       </c>
       <c r="D137" t="n">
-        <v>0.345715</v>
+        <v>0.345279</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.44005</v>
+        <v>0.44024</v>
       </c>
       <c r="C138" t="n">
-        <v>0.300569</v>
+        <v>0.299659</v>
       </c>
       <c r="D138" t="n">
-        <v>0.348589</v>
+        <v>0.347661</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.440047</v>
+        <v>0.440039</v>
       </c>
       <c r="C139" t="n">
-        <v>0.303121</v>
+        <v>0.302239</v>
       </c>
       <c r="D139" t="n">
-        <v>0.350349</v>
+        <v>0.349935</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.440281</v>
+        <v>0.435817</v>
       </c>
       <c r="C140" t="n">
-        <v>0.306603</v>
+        <v>0.305662</v>
       </c>
       <c r="D140" t="n">
-        <v>0.353899</v>
+        <v>0.352574</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.440424</v>
+        <v>0.435883</v>
       </c>
       <c r="C141" t="n">
-        <v>0.309369</v>
+        <v>0.308579</v>
       </c>
       <c r="D141" t="n">
-        <v>0.356</v>
+        <v>0.355472</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.435567</v>
+        <v>0.440499</v>
       </c>
       <c r="C142" t="n">
-        <v>0.312652</v>
+        <v>0.311365</v>
       </c>
       <c r="D142" t="n">
-        <v>0.359261</v>
+        <v>0.357943</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.441132</v>
+        <v>0.441306</v>
       </c>
       <c r="C143" t="n">
-        <v>0.315428</v>
+        <v>0.313863</v>
       </c>
       <c r="D143" t="n">
-        <v>0.361278</v>
+        <v>0.360579</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.046392</v>
+        <v>0.0424459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0448327</v>
+        <v>0.0425386</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0495257</v>
+        <v>0.0457802</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0465358</v>
+        <v>0.0427063</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0451889</v>
+        <v>0.0426677</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0498648</v>
+        <v>0.0457021</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0467531</v>
+        <v>0.0430111</v>
       </c>
       <c r="C4" t="n">
-        <v>0.045604</v>
+        <v>0.0427717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0500284</v>
+        <v>0.0458984</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0468099</v>
+        <v>0.0431888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0460705</v>
+        <v>0.0428982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05043</v>
+        <v>0.0463495</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0469633</v>
+        <v>0.043257</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0466823</v>
+        <v>0.0429825</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0508428</v>
+        <v>0.046723</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0471523</v>
+        <v>0.043448</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0473461</v>
+        <v>0.0436576</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0516086</v>
+        <v>0.047886</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0476554</v>
+        <v>0.0437879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0485644</v>
+        <v>0.0449637</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0537001</v>
+        <v>0.0494005</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0483152</v>
+        <v>0.0449774</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0511766</v>
+        <v>0.0460296</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0527045</v>
+        <v>0.0494751</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05058</v>
+        <v>0.0501834</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0476042</v>
+        <v>0.0469976</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0529965</v>
+        <v>0.0498625</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0506221</v>
+        <v>0.0501407</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0479478</v>
+        <v>0.0471584</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0532862</v>
+        <v>0.0501173</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0506822</v>
+        <v>0.0505148</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0482918</v>
+        <v>0.0473855</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0535891</v>
+        <v>0.0504821</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0506928</v>
+        <v>0.0505372</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0486426</v>
+        <v>0.0476754</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0538455</v>
+        <v>0.0508721</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.050968</v>
+        <v>0.0505836</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0491191</v>
+        <v>0.048134</v>
       </c>
       <c r="D14" t="n">
-        <v>0.054285</v>
+        <v>0.0511872</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0511032</v>
+        <v>0.0505594</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0495473</v>
+        <v>0.0484626</v>
       </c>
       <c r="D15" t="n">
-        <v>0.054688</v>
+        <v>0.0514905</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0511527</v>
+        <v>0.0508633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0498965</v>
+        <v>0.048771</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0550175</v>
+        <v>0.0518878</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0513981</v>
+        <v>0.0510744</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0503086</v>
+        <v>0.049</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0553464</v>
+        <v>0.0522322</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0516551</v>
+        <v>0.0511902</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0507959</v>
+        <v>0.0494707</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0556575</v>
+        <v>0.0525018</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0518159</v>
+        <v>0.0512075</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0512765</v>
+        <v>0.0497542</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0561593</v>
+        <v>0.0528954</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0520503</v>
+        <v>0.0514952</v>
       </c>
       <c r="C20" t="n">
-        <v>0.052026</v>
+        <v>0.0501057</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0568945</v>
+        <v>0.0535964</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0527284</v>
+        <v>0.0519606</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0534564</v>
+        <v>0.0508969</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0582923</v>
+        <v>0.0551418</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0531399</v>
+        <v>0.0524625</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0554594</v>
+        <v>0.0530351</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0620633</v>
+        <v>0.0586432</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0543453</v>
+        <v>0.0536849</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0597651</v>
+        <v>0.0575869</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0560903</v>
+        <v>0.0545933</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0551757</v>
+        <v>0.0551394</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0516097</v>
+        <v>0.0525647</v>
       </c>
       <c r="D24" t="n">
-        <v>0.056193</v>
+        <v>0.0545149</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0549606</v>
+        <v>0.054908</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0519339</v>
+        <v>0.0528659</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0565243</v>
+        <v>0.0548133</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0549652</v>
+        <v>0.0549704</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0528701</v>
+        <v>0.0531126</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0568556</v>
+        <v>0.0558696</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0550892</v>
+        <v>0.0550827</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0532189</v>
+        <v>0.053313</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0573459</v>
+        <v>0.0563153</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0552307</v>
+        <v>0.055271</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0530373</v>
+        <v>0.0534706</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0577422</v>
+        <v>0.0567563</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0553965</v>
+        <v>0.0554103</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0535736</v>
+        <v>0.0542933</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0589624</v>
+        <v>0.0571592</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.05555</v>
+        <v>0.0555518</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0542014</v>
+        <v>0.0545846</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0586183</v>
+        <v>0.0575165</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557113</v>
+        <v>0.0557257</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0548983</v>
+        <v>0.0547227</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0590415</v>
+        <v>0.0579288</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0559296</v>
+        <v>0.0560071</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0555761</v>
+        <v>0.0551611</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0595629</v>
+        <v>0.0584947</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0561522</v>
+        <v>0.0562083</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0559934</v>
+        <v>0.0559436</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0603582</v>
+        <v>0.0592503</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0564423</v>
+        <v>0.0565415</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0572462</v>
+        <v>0.057273</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0620991</v>
+        <v>0.0607215</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0569132</v>
+        <v>0.0571922</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0594435</v>
+        <v>0.0589148</v>
       </c>
       <c r="D35" t="n">
-        <v>0.06504550000000001</v>
+        <v>0.0640376</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.057939</v>
+        <v>0.0578009</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0624152</v>
+        <v>0.0628967</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0719095</v>
+        <v>0.0703758</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0602924</v>
+        <v>0.0603253</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0678535</v>
+        <v>0.0690887</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0620107</v>
+        <v>0.0601381</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0619893</v>
+        <v>0.0617969</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0576309</v>
+        <v>0.0584877</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0623058</v>
+        <v>0.0611229</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0604918</v>
+        <v>0.0604393</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0584456</v>
+        <v>0.0582302</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0633818</v>
+        <v>0.0613793</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0606161</v>
+        <v>0.0605612</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0585638</v>
+        <v>0.0584286</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0639005</v>
+        <v>0.0606498</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0607438</v>
+        <v>0.0607063</v>
       </c>
       <c r="C41" t="n">
-        <v>0.05924</v>
+        <v>0.0596742</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0633333</v>
+        <v>0.0614403</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0608635</v>
+        <v>0.0608154</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0595689</v>
+        <v>0.0601526</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0637018</v>
+        <v>0.0628575</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0610784</v>
+        <v>0.0609866</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0601156</v>
+        <v>0.0603551</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06544270000000001</v>
+        <v>0.0628431</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0612339</v>
+        <v>0.0612266</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0606412</v>
+        <v>0.0612242</v>
       </c>
       <c r="D44" t="n">
-        <v>0.065524</v>
+        <v>0.06264980000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0614024</v>
+        <v>0.0614017</v>
       </c>
       <c r="C45" t="n">
-        <v>0.060968</v>
+        <v>0.0610075</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06584230000000001</v>
+        <v>0.0644552</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0616337</v>
+        <v>0.0616753</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0621654</v>
+        <v>0.06251900000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0666359</v>
+        <v>0.06465319999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0619272</v>
+        <v>0.0620197</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0634079</v>
+        <v>0.0634348</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0686937</v>
+        <v>0.06605519999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0623322</v>
+        <v>0.0623724</v>
       </c>
       <c r="C48" t="n">
-        <v>0.064663</v>
+        <v>0.06472849999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0709732</v>
+        <v>0.06941319999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0629637</v>
+        <v>0.06294710000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06707929999999999</v>
+        <v>0.0676226</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07484010000000001</v>
+        <v>0.0729619</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0645898</v>
+        <v>0.0645046</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0701798</v>
+        <v>0.0700707</v>
       </c>
       <c r="D50" t="n">
-        <v>0.078968</v>
+        <v>0.0775404</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0680485</v>
+        <v>0.06784370000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.073682</v>
+        <v>0.07425669999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06835579999999999</v>
+        <v>0.06522559999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0735522</v>
+        <v>0.0733574</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08102470000000001</v>
+        <v>0.081203</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0662843</v>
+        <v>0.0650749</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0671877</v>
+        <v>0.0681451</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0590362</v>
+        <v>0.058542</v>
       </c>
       <c r="D53" t="n">
-        <v>0.069149</v>
+        <v>0.0653273</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.06722640000000001</v>
+        <v>0.0677637</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0602222</v>
+        <v>0.0597063</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06917180000000001</v>
+        <v>0.06554260000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0673077</v>
+        <v>0.0678388</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0604952</v>
+        <v>0.0600266</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06929009999999999</v>
+        <v>0.0653531</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06741220000000001</v>
+        <v>0.0678911</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0606059</v>
+        <v>0.0603049</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0703881</v>
+        <v>0.066423</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06756</v>
+        <v>0.0680554</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0615495</v>
+        <v>0.0608158</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07039289999999999</v>
+        <v>0.066273</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0677275</v>
+        <v>0.0681905</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0623418</v>
+        <v>0.0613686</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0717735</v>
+        <v>0.06758459999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06790889999999999</v>
+        <v>0.06840739999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>0.06276710000000001</v>
+        <v>0.0626246</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0723922</v>
+        <v>0.06844119999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06815690000000001</v>
+        <v>0.0687087</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0642025</v>
+        <v>0.0634223</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07373250000000001</v>
+        <v>0.0698778</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06851359999999999</v>
+        <v>0.0690404</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0647474</v>
+        <v>0.06414209999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0753434</v>
+        <v>0.07110669999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0690289</v>
+        <v>0.06959360000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0669481</v>
+        <v>0.0667634</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0776018</v>
+        <v>0.07344920000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0700339</v>
+        <v>0.070537</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0697776</v>
+        <v>0.0687048</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0809994</v>
+        <v>0.076179</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07199700000000001</v>
+        <v>0.07249709999999999</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07273060000000001</v>
+        <v>0.07083830000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0852439</v>
+        <v>0.0809814</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07461619999999999</v>
+        <v>0.0751019</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0767287</v>
+        <v>0.0747575</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0916371</v>
+        <v>0.0867634</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0789695</v>
+        <v>0.0792899</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08289059999999999</v>
+        <v>0.08143309999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07264900000000001</v>
+        <v>0.0692289</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0770492</v>
+        <v>0.08267819999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0651722</v>
+        <v>0.0703022</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0730572</v>
+        <v>0.06961050000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0771968</v>
+        <v>0.0831003</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06571589999999999</v>
+        <v>0.0708165</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07361470000000001</v>
+        <v>0.0701283</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0774236</v>
+        <v>0.0832128</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0663502</v>
+        <v>0.0712378</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0742992</v>
+        <v>0.07061770000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.07751470000000001</v>
+        <v>0.0837464</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0669459</v>
+        <v>0.0718295</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0748129</v>
+        <v>0.0711437</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.077596</v>
+        <v>0.08397300000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.067605</v>
+        <v>0.0725272</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0754557</v>
+        <v>0.0718264</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0778011</v>
+        <v>0.08429970000000001</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0682912</v>
+        <v>0.0731429</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0761233</v>
+        <v>0.0725927</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.078072</v>
+        <v>0.0843163</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0691822</v>
+        <v>0.0738639</v>
       </c>
       <c r="D73" t="n">
-        <v>0.07716099999999999</v>
+        <v>0.0735441</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.07850459999999999</v>
+        <v>0.0846107</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0694475</v>
+        <v>0.07485360000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0784977</v>
+        <v>0.074808</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0790686</v>
+        <v>0.0851447</v>
       </c>
       <c r="C75" t="n">
-        <v>0.06987019999999999</v>
+        <v>0.0762462</v>
       </c>
       <c r="D75" t="n">
-        <v>0.080217</v>
+        <v>0.076659</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0797544</v>
+        <v>0.0858942</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0713526</v>
+        <v>0.0778595</v>
       </c>
       <c r="D76" t="n">
-        <v>0.081856</v>
+        <v>0.0786876</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0807906</v>
+        <v>0.087086</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0733558</v>
+        <v>0.0798172</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0845993</v>
+        <v>0.08151600000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08233699999999999</v>
+        <v>0.0884857</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0761956</v>
+        <v>0.0824221</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08851050000000001</v>
+        <v>0.08529490000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0847255</v>
+        <v>0.09049069999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0800632</v>
+        <v>0.0858739</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0943403</v>
+        <v>0.091057</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0883401</v>
+        <v>0.0937272</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08507579999999999</v>
+        <v>0.0908419</v>
       </c>
       <c r="D80" t="n">
-        <v>0.117108</v>
+        <v>0.118682</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.183272</v>
+        <v>0.183341</v>
       </c>
       <c r="C81" t="n">
-        <v>0.157441</v>
+        <v>0.157592</v>
       </c>
       <c r="D81" t="n">
-        <v>0.119879</v>
+        <v>0.121214</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.184396</v>
+        <v>0.184802</v>
       </c>
       <c r="C82" t="n">
-        <v>0.156242</v>
+        <v>0.156913</v>
       </c>
       <c r="D82" t="n">
-        <v>0.119998</v>
+        <v>0.121695</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183577</v>
+        <v>0.183166</v>
       </c>
       <c r="C83" t="n">
-        <v>0.157753</v>
+        <v>0.157097</v>
       </c>
       <c r="D83" t="n">
-        <v>0.125326</v>
+        <v>0.126224</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.184859</v>
+        <v>0.18393</v>
       </c>
       <c r="C84" t="n">
-        <v>0.155877</v>
+        <v>0.158228</v>
       </c>
       <c r="D84" t="n">
-        <v>0.127136</v>
+        <v>0.12662</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18324</v>
+        <v>0.18472</v>
       </c>
       <c r="C85" t="n">
-        <v>0.161077</v>
+        <v>0.159654</v>
       </c>
       <c r="D85" t="n">
-        <v>0.129607</v>
+        <v>0.131598</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.187258</v>
+        <v>0.183758</v>
       </c>
       <c r="C86" t="n">
-        <v>0.15832</v>
+        <v>0.15801</v>
       </c>
       <c r="D86" t="n">
-        <v>0.132452</v>
+        <v>0.132604</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185565</v>
+        <v>0.185727</v>
       </c>
       <c r="C87" t="n">
-        <v>0.161092</v>
+        <v>0.158189</v>
       </c>
       <c r="D87" t="n">
-        <v>0.136107</v>
+        <v>0.13215</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.185959</v>
+        <v>0.185357</v>
       </c>
       <c r="C88" t="n">
-        <v>0.159458</v>
+        <v>0.15992</v>
       </c>
       <c r="D88" t="n">
-        <v>0.138026</v>
+        <v>0.133979</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.184588</v>
+        <v>0.185947</v>
       </c>
       <c r="C89" t="n">
-        <v>0.161775</v>
+        <v>0.160284</v>
       </c>
       <c r="D89" t="n">
-        <v>0.141031</v>
+        <v>0.137804</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.18719</v>
+        <v>0.185978</v>
       </c>
       <c r="C90" t="n">
-        <v>0.163512</v>
+        <v>0.159517</v>
       </c>
       <c r="D90" t="n">
-        <v>0.144264</v>
+        <v>0.136575</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.187497</v>
+        <v>0.186157</v>
       </c>
       <c r="C91" t="n">
-        <v>0.165136</v>
+        <v>0.162033</v>
       </c>
       <c r="D91" t="n">
-        <v>0.145009</v>
+        <v>0.140595</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.188951</v>
+        <v>0.187461</v>
       </c>
       <c r="C92" t="n">
-        <v>0.165614</v>
+        <v>0.16283</v>
       </c>
       <c r="D92" t="n">
-        <v>0.146773</v>
+        <v>0.144745</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190172</v>
+        <v>0.188274</v>
       </c>
       <c r="C93" t="n">
-        <v>0.169837</v>
+        <v>0.166269</v>
       </c>
       <c r="D93" t="n">
-        <v>0.154258</v>
+        <v>0.148239</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.194013</v>
+        <v>0.189706</v>
       </c>
       <c r="C94" t="n">
-        <v>0.169768</v>
+        <v>0.1687</v>
       </c>
       <c r="D94" t="n">
-        <v>0.238471</v>
+        <v>0.237376</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.254017</v>
+        <v>0.253336</v>
       </c>
       <c r="C95" t="n">
-        <v>0.231309</v>
+        <v>0.225061</v>
       </c>
       <c r="D95" t="n">
-        <v>0.241193</v>
+        <v>0.239526</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.253877</v>
+        <v>0.253307</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232242</v>
+        <v>0.232679</v>
       </c>
       <c r="D96" t="n">
-        <v>0.242655</v>
+        <v>0.239892</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.254411</v>
+        <v>0.253553</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233069</v>
+        <v>0.233469</v>
       </c>
       <c r="D97" t="n">
-        <v>0.238346</v>
+        <v>0.24303</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.253966</v>
+        <v>0.25397</v>
       </c>
       <c r="C98" t="n">
-        <v>0.234691</v>
+        <v>0.228591</v>
       </c>
       <c r="D98" t="n">
-        <v>0.240303</v>
+        <v>0.243899</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.253816</v>
+        <v>0.253612</v>
       </c>
       <c r="C99" t="n">
-        <v>0.229545</v>
+        <v>0.235747</v>
       </c>
       <c r="D99" t="n">
-        <v>0.248744</v>
+        <v>0.242373</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.254079</v>
+        <v>0.253575</v>
       </c>
       <c r="C100" t="n">
-        <v>0.237544</v>
+        <v>0.236893</v>
       </c>
       <c r="D100" t="n">
-        <v>0.245482</v>
+        <v>0.247405</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.25458</v>
+        <v>0.2536</v>
       </c>
       <c r="C101" t="n">
-        <v>0.23881</v>
+        <v>0.238812</v>
       </c>
       <c r="D101" t="n">
-        <v>0.248161</v>
+        <v>0.246141</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.254326</v>
+        <v>0.253951</v>
       </c>
       <c r="C102" t="n">
-        <v>0.234555</v>
+        <v>0.240903</v>
       </c>
       <c r="D102" t="n">
-        <v>0.250025</v>
+        <v>0.252358</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.25441</v>
+        <v>0.253799</v>
       </c>
       <c r="C103" t="n">
-        <v>0.242569</v>
+        <v>0.242055</v>
       </c>
       <c r="D103" t="n">
-        <v>0.257972</v>
+        <v>0.253552</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.254752</v>
+        <v>0.254785</v>
       </c>
       <c r="C104" t="n">
-        <v>0.244557</v>
+        <v>0.241408</v>
       </c>
       <c r="D104" t="n">
-        <v>0.260797</v>
+        <v>0.256226</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255461</v>
+        <v>0.25515</v>
       </c>
       <c r="C105" t="n">
-        <v>0.241577</v>
+        <v>0.243105</v>
       </c>
       <c r="D105" t="n">
-        <v>0.262646</v>
+        <v>0.258058</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.256136</v>
+        <v>0.25593</v>
       </c>
       <c r="C106" t="n">
-        <v>0.244592</v>
+        <v>0.246665</v>
       </c>
       <c r="D106" t="n">
-        <v>0.266906</v>
+        <v>0.261406</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258038</v>
+        <v>0.25753</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247993</v>
+        <v>0.253193</v>
       </c>
       <c r="D107" t="n">
-        <v>0.269799</v>
+        <v>0.265618</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.260328</v>
+        <v>0.260779</v>
       </c>
       <c r="C108" t="n">
-        <v>0.257739</v>
+        <v>0.25548</v>
       </c>
       <c r="D108" t="n">
-        <v>0.29772</v>
+        <v>0.293087</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265237</v>
+        <v>0.264507</v>
       </c>
       <c r="C109" t="n">
-        <v>0.259577</v>
+        <v>0.263967</v>
       </c>
       <c r="D109" t="n">
-        <v>0.299602</v>
+        <v>0.294751</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.284356</v>
+        <v>0.291432</v>
       </c>
       <c r="C110" t="n">
-        <v>0.264535</v>
+        <v>0.263743</v>
       </c>
       <c r="D110" t="n">
-        <v>0.302004</v>
+        <v>0.293261</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.28581</v>
+        <v>0.290392</v>
       </c>
       <c r="C111" t="n">
-        <v>0.265998</v>
+        <v>0.266416</v>
       </c>
       <c r="D111" t="n">
-        <v>0.304249</v>
+        <v>0.295551</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.284413</v>
+        <v>0.289861</v>
       </c>
       <c r="C112" t="n">
-        <v>0.261766</v>
+        <v>0.261254</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3064</v>
+        <v>0.300499</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.285905</v>
+        <v>0.289774</v>
       </c>
       <c r="C113" t="n">
-        <v>0.262268</v>
+        <v>0.262805</v>
       </c>
       <c r="D113" t="n">
-        <v>0.308509</v>
+        <v>0.299151</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.284574</v>
+        <v>0.289997</v>
       </c>
       <c r="C114" t="n">
-        <v>0.263986</v>
+        <v>0.265933</v>
       </c>
       <c r="D114" t="n">
-        <v>0.308465</v>
+        <v>0.305311</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.29127</v>
+        <v>0.290874</v>
       </c>
       <c r="C115" t="n">
-        <v>0.268379</v>
+        <v>0.268938</v>
       </c>
       <c r="D115" t="n">
-        <v>0.313708</v>
+        <v>0.30725</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.28437</v>
+        <v>0.283725</v>
       </c>
       <c r="C116" t="n">
-        <v>0.270689</v>
+        <v>0.272184</v>
       </c>
       <c r="D116" t="n">
-        <v>0.309405</v>
+        <v>0.302154</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.291376</v>
+        <v>0.292967</v>
       </c>
       <c r="C117" t="n">
-        <v>0.273821</v>
+        <v>0.27527</v>
       </c>
       <c r="D117" t="n">
-        <v>0.31223</v>
+        <v>0.304998</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294734</v>
+        <v>0.292248</v>
       </c>
       <c r="C118" t="n">
-        <v>0.27731</v>
+        <v>0.278029</v>
       </c>
       <c r="D118" t="n">
-        <v>0.316086</v>
+        <v>0.308431</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.286334</v>
+        <v>0.293488</v>
       </c>
       <c r="C119" t="n">
-        <v>0.281543</v>
+        <v>0.281671</v>
       </c>
       <c r="D119" t="n">
-        <v>0.317889</v>
+        <v>0.310757</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.28919</v>
+        <v>0.294382</v>
       </c>
       <c r="C120" t="n">
-        <v>0.284998</v>
+        <v>0.284935</v>
       </c>
       <c r="D120" t="n">
-        <v>0.322554</v>
+        <v>0.314864</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.296311</v>
+        <v>0.295335</v>
       </c>
       <c r="C121" t="n">
-        <v>0.288686</v>
+        <v>0.288671</v>
       </c>
       <c r="D121" t="n">
-        <v>0.326354</v>
+        <v>0.315459</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.30186</v>
+        <v>0.296585</v>
       </c>
       <c r="C122" t="n">
-        <v>0.294349</v>
+        <v>0.294898</v>
       </c>
       <c r="D122" t="n">
-        <v>0.330797</v>
+        <v>0.322179</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.295754</v>
+        <v>0.30352</v>
       </c>
       <c r="C123" t="n">
-        <v>0.302123</v>
+        <v>0.302217</v>
       </c>
       <c r="D123" t="n">
-        <v>0.331382</v>
+        <v>0.314784</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.371097</v>
+        <v>0.370575</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277067</v>
+        <v>0.277379</v>
       </c>
       <c r="D124" t="n">
-        <v>0.324591</v>
+        <v>0.314907</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.370722</v>
+        <v>0.370098</v>
       </c>
       <c r="C125" t="n">
-        <v>0.279989</v>
+        <v>0.279745</v>
       </c>
       <c r="D125" t="n">
-        <v>0.327231</v>
+        <v>0.317607</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.371174</v>
+        <v>0.371713</v>
       </c>
       <c r="C126" t="n">
-        <v>0.283509</v>
+        <v>0.283274</v>
       </c>
       <c r="D126" t="n">
-        <v>0.329904</v>
+        <v>0.319952</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.370297</v>
+        <v>0.37064</v>
       </c>
       <c r="C127" t="n">
-        <v>0.28642</v>
+        <v>0.286086</v>
       </c>
       <c r="D127" t="n">
-        <v>0.333119</v>
+        <v>0.321502</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.371574</v>
+        <v>0.37171</v>
       </c>
       <c r="C128" t="n">
-        <v>0.289958</v>
+        <v>0.289897</v>
       </c>
       <c r="D128" t="n">
-        <v>0.335736</v>
+        <v>0.325353</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.371861</v>
+        <v>0.371161</v>
       </c>
       <c r="C129" t="n">
-        <v>0.293604</v>
+        <v>0.293548</v>
       </c>
       <c r="D129" t="n">
-        <v>0.339055</v>
+        <v>0.328277</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.371314</v>
+        <v>0.372215</v>
       </c>
       <c r="C130" t="n">
-        <v>0.297117</v>
+        <v>0.297371</v>
       </c>
       <c r="D130" t="n">
-        <v>0.341827</v>
+        <v>0.331591</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.372793</v>
+        <v>0.370961</v>
       </c>
       <c r="C131" t="n">
-        <v>0.301016</v>
+        <v>0.301245</v>
       </c>
       <c r="D131" t="n">
-        <v>0.346423</v>
+        <v>0.334169</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.37157</v>
+        <v>0.372985</v>
       </c>
       <c r="C132" t="n">
-        <v>0.305157</v>
+        <v>0.305684</v>
       </c>
       <c r="D132" t="n">
-        <v>0.350464</v>
+        <v>0.339207</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.372863</v>
+        <v>0.372487</v>
       </c>
       <c r="C133" t="n">
-        <v>0.309832</v>
+        <v>0.310284</v>
       </c>
       <c r="D133" t="n">
-        <v>0.355956</v>
+        <v>0.343849</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.373288</v>
+        <v>0.37401</v>
       </c>
       <c r="C134" t="n">
-        <v>0.314813</v>
+        <v>0.31549</v>
       </c>
       <c r="D134" t="n">
-        <v>0.361574</v>
+        <v>0.349009</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.375537</v>
+        <v>0.374168</v>
       </c>
       <c r="C135" t="n">
-        <v>0.320522</v>
+        <v>0.320628</v>
       </c>
       <c r="D135" t="n">
-        <v>0.368154</v>
+        <v>0.355602</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.376374</v>
+        <v>0.376595</v>
       </c>
       <c r="C136" t="n">
-        <v>0.327271</v>
+        <v>0.327907</v>
       </c>
       <c r="D136" t="n">
-        <v>0.3767</v>
+        <v>0.364677</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.380492</v>
+        <v>0.37969</v>
       </c>
       <c r="C137" t="n">
-        <v>0.336473</v>
+        <v>0.337241</v>
       </c>
       <c r="D137" t="n">
-        <v>0.345279</v>
+        <v>0.333863</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.44024</v>
+        <v>0.434415</v>
       </c>
       <c r="C138" t="n">
-        <v>0.299659</v>
+        <v>0.300034</v>
       </c>
       <c r="D138" t="n">
-        <v>0.347661</v>
+        <v>0.336043</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.440039</v>
+        <v>0.434848</v>
       </c>
       <c r="C139" t="n">
-        <v>0.302239</v>
+        <v>0.302932</v>
       </c>
       <c r="D139" t="n">
-        <v>0.349935</v>
+        <v>0.337898</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.435817</v>
+        <v>0.440121</v>
       </c>
       <c r="C140" t="n">
-        <v>0.305662</v>
+        <v>0.306597</v>
       </c>
       <c r="D140" t="n">
-        <v>0.352574</v>
+        <v>0.340794</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.435883</v>
+        <v>0.43976</v>
       </c>
       <c r="C141" t="n">
-        <v>0.308579</v>
+        <v>0.309183</v>
       </c>
       <c r="D141" t="n">
-        <v>0.355472</v>
+        <v>0.342335</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.440499</v>
+        <v>0.435613</v>
       </c>
       <c r="C142" t="n">
-        <v>0.311365</v>
+        <v>0.312164</v>
       </c>
       <c r="D142" t="n">
-        <v>0.357943</v>
+        <v>0.345151</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.441306</v>
+        <v>0.440153</v>
       </c>
       <c r="C143" t="n">
-        <v>0.313863</v>
+        <v>0.314963</v>
       </c>
       <c r="D143" t="n">
-        <v>0.360579</v>
+        <v>0.347122</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0424459</v>
+        <v>0.0424522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0425386</v>
+        <v>0.0427289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0457802</v>
+        <v>0.0454179</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0427063</v>
+        <v>0.0427312</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0426677</v>
+        <v>0.0427937</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0457021</v>
+        <v>0.0456681</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0430111</v>
+        <v>0.0429264</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0427717</v>
+        <v>0.0427515</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0458984</v>
+        <v>0.0455349</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0431888</v>
+        <v>0.0432057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0428982</v>
+        <v>0.0429172</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0463495</v>
+        <v>0.0457986</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.043257</v>
+        <v>0.0432889</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0429825</v>
+        <v>0.0431899</v>
       </c>
       <c r="D6" t="n">
-        <v>0.046723</v>
+        <v>0.046132</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.043448</v>
+        <v>0.0435194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0436576</v>
+        <v>0.0438155</v>
       </c>
       <c r="D7" t="n">
-        <v>0.047886</v>
+        <v>0.0471854</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0437879</v>
+        <v>0.0439584</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0449637</v>
+        <v>0.044685</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0494005</v>
+        <v>0.0494891</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0449774</v>
+        <v>0.0447561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0460296</v>
+        <v>0.0466845</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0494751</v>
+        <v>0.0527588</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0501834</v>
+        <v>0.0499166</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0469976</v>
+        <v>0.0462671</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0498625</v>
+        <v>0.0496567</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0501407</v>
+        <v>0.0498468</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0471584</v>
+        <v>0.0465839</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0501173</v>
+        <v>0.050025</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0505148</v>
+        <v>0.0500946</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0473855</v>
+        <v>0.0469945</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0504821</v>
+        <v>0.0503771</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0505372</v>
+        <v>0.0502105</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0476754</v>
+        <v>0.0473693</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0508721</v>
+        <v>0.0505783</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0505836</v>
+        <v>0.0503128</v>
       </c>
       <c r="C14" t="n">
-        <v>0.048134</v>
+        <v>0.0478317</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0511872</v>
+        <v>0.051226</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0505594</v>
+        <v>0.0503994</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0484626</v>
+        <v>0.0480553</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0514905</v>
+        <v>0.051567</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0508633</v>
+        <v>0.0506253</v>
       </c>
       <c r="C16" t="n">
-        <v>0.048771</v>
+        <v>0.0483965</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0518878</v>
+        <v>0.0519669</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0510744</v>
+        <v>0.0509474</v>
       </c>
       <c r="C17" t="n">
-        <v>0.049</v>
+        <v>0.0486011</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0522322</v>
+        <v>0.0523232</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0511902</v>
+        <v>0.0511162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0494707</v>
+        <v>0.0490939</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0525018</v>
+        <v>0.0523952</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0512075</v>
+        <v>0.0513471</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0497542</v>
+        <v>0.0492924</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0528954</v>
+        <v>0.052741</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0514952</v>
+        <v>0.0513326</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0501057</v>
+        <v>0.0497494</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0535964</v>
+        <v>0.0534593</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0519606</v>
+        <v>0.0516269</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0508969</v>
+        <v>0.0504117</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0551418</v>
+        <v>0.0547885</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0524625</v>
+        <v>0.0523975</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0530351</v>
+        <v>0.0522761</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0586432</v>
+        <v>0.0587625</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0536849</v>
+        <v>0.0532479</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0575869</v>
+        <v>0.0572115</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0545933</v>
+        <v>0.0686404</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0551394</v>
+        <v>0.0571889</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0525647</v>
+        <v>0.0529043</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0545149</v>
+        <v>0.0572875</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.054908</v>
+        <v>0.0561183</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0528659</v>
+        <v>0.0534771</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0548133</v>
+        <v>0.057446</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0549704</v>
+        <v>0.0561341</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0531126</v>
+        <v>0.0540248</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0558696</v>
+        <v>0.0567054</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0550827</v>
+        <v>0.0562583</v>
       </c>
       <c r="C27" t="n">
-        <v>0.053313</v>
+        <v>0.0543596</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0563153</v>
+        <v>0.0576404</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.055271</v>
+        <v>0.0564863</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0534706</v>
+        <v>0.0547445</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0567563</v>
+        <v>0.0585097</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0554103</v>
+        <v>0.0566042</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0542933</v>
+        <v>0.054702</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0571592</v>
+        <v>0.0589599</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0555518</v>
+        <v>0.0567252</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0545846</v>
+        <v>0.0551169</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0575165</v>
+        <v>0.0581981</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557257</v>
+        <v>0.0569259</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0547227</v>
+        <v>0.0551089</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0579288</v>
+        <v>0.0596049</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0560071</v>
+        <v>0.0571711</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0551611</v>
+        <v>0.0559512</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0584947</v>
+        <v>0.0590709</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562083</v>
+        <v>0.0573783</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0559436</v>
+        <v>0.0568064</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0592503</v>
+        <v>0.0604149</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0565415</v>
+        <v>0.057717</v>
       </c>
       <c r="C34" t="n">
-        <v>0.057273</v>
+        <v>0.0573704</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0607215</v>
+        <v>0.0624209</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0571922</v>
+        <v>0.0583739</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0589148</v>
+        <v>0.0597472</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0640376</v>
+        <v>0.0654173</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0578009</v>
+        <v>0.0589597</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0628967</v>
+        <v>0.06319900000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0703758</v>
+        <v>0.0715271</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0603253</v>
+        <v>0.0615736</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0690887</v>
+        <v>0.069714</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0601381</v>
+        <v>0.0806626</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0617969</v>
+        <v>0.0614533</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0584877</v>
+        <v>0.0578619</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0611229</v>
+        <v>0.0630698</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0604393</v>
+        <v>0.0601937</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0582302</v>
+        <v>0.0587398</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0613793</v>
+        <v>0.0629594</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0605612</v>
+        <v>0.0602982</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0584286</v>
+        <v>0.0591641</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0606498</v>
+        <v>0.0632626</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0607063</v>
+        <v>0.0604347</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0596742</v>
+        <v>0.05863</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0614403</v>
+        <v>0.0636631</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0608154</v>
+        <v>0.0605553</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0601526</v>
+        <v>0.0593571</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0628575</v>
+        <v>0.06360739999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0609866</v>
+        <v>0.0607397</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0603551</v>
+        <v>0.0605428</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0628431</v>
+        <v>0.06458419999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0612266</v>
+        <v>0.0609501</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0612242</v>
+        <v>0.0607176</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06264980000000001</v>
+        <v>0.06448660000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0614017</v>
+        <v>0.0611409</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0610075</v>
+        <v>0.0614133</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0644552</v>
+        <v>0.0658596</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0616753</v>
+        <v>0.0614075</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06251900000000001</v>
+        <v>0.0622027</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06465319999999999</v>
+        <v>0.0669255</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0620197</v>
+        <v>0.0617406</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0634348</v>
+        <v>0.06326610000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06605519999999999</v>
+        <v>0.067936</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0623724</v>
+        <v>0.0621269</v>
       </c>
       <c r="C48" t="n">
-        <v>0.06472849999999999</v>
+        <v>0.0647836</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06941319999999999</v>
+        <v>0.0703173</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06294710000000001</v>
+        <v>0.0626842</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0676226</v>
+        <v>0.0675022</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0729619</v>
+        <v>0.07363459999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0645046</v>
+        <v>0.06423</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0700707</v>
+        <v>0.0699279</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0775404</v>
+        <v>0.0781389</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06784370000000001</v>
+        <v>0.06768150000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07425669999999999</v>
+        <v>0.0745775</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06522559999999999</v>
+        <v>0.0850539</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0733574</v>
+        <v>0.0731106</v>
       </c>
       <c r="C52" t="n">
-        <v>0.081203</v>
+        <v>0.08135100000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0650749</v>
+        <v>0.0947568</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0681451</v>
+        <v>0.0679106</v>
       </c>
       <c r="C53" t="n">
-        <v>0.058542</v>
+        <v>0.0585336</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0653273</v>
+        <v>0.0628319</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0677637</v>
+        <v>0.0676958</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0597063</v>
+        <v>0.0590669</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06554260000000001</v>
+        <v>0.06331299999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0678388</v>
+        <v>0.0677976</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0600266</v>
+        <v>0.059887</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0653531</v>
+        <v>0.06366239999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0678911</v>
+        <v>0.06786979999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0603049</v>
+        <v>0.060959</v>
       </c>
       <c r="D56" t="n">
-        <v>0.066423</v>
+        <v>0.0651128</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0680554</v>
+        <v>0.0680283</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0608158</v>
+        <v>0.0615091</v>
       </c>
       <c r="D57" t="n">
-        <v>0.066273</v>
+        <v>0.0655974</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0681905</v>
+        <v>0.0681846</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0613686</v>
+        <v>0.0623803</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06758459999999999</v>
+        <v>0.06628489999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06840739999999999</v>
+        <v>0.0684362</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0626246</v>
+        <v>0.0631671</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06844119999999999</v>
+        <v>0.067064</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0687087</v>
+        <v>0.0687035</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0634223</v>
+        <v>0.0642123</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0698778</v>
+        <v>0.0682735</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0690404</v>
+        <v>0.06908259999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06414209999999999</v>
+        <v>0.06550499999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.07110669999999999</v>
+        <v>0.06985130000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06959360000000001</v>
+        <v>0.06956320000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0667634</v>
+        <v>0.0673093</v>
       </c>
       <c r="D62" t="n">
-        <v>0.07344920000000001</v>
+        <v>0.0722298</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.070537</v>
+        <v>0.0705566</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0687048</v>
+        <v>0.0694668</v>
       </c>
       <c r="D63" t="n">
-        <v>0.076179</v>
+        <v>0.0753568</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07249709999999999</v>
+        <v>0.0725146</v>
       </c>
       <c r="C64" t="n">
-        <v>0.07083830000000001</v>
+        <v>0.0722962</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0809814</v>
+        <v>0.07963720000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0751019</v>
+        <v>0.07428750000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0747575</v>
+        <v>0.07622230000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0867634</v>
+        <v>0.0860624</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0792899</v>
+        <v>0.0798632</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08143309999999999</v>
+        <v>0.0824066</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0692289</v>
+        <v>0.0956259</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08267819999999999</v>
+        <v>0.08010109999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0703022</v>
+        <v>0.065874</v>
       </c>
       <c r="D67" t="n">
-        <v>0.06961050000000001</v>
+        <v>0.07054100000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0831003</v>
+        <v>0.0800419</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0708165</v>
+        <v>0.0664845</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0701283</v>
+        <v>0.0709655</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0832128</v>
+        <v>0.08014259999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0712378</v>
+        <v>0.0669361</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07061770000000001</v>
+        <v>0.0713849</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0837464</v>
+        <v>0.08022260000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0718295</v>
+        <v>0.0675255</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0711437</v>
+        <v>0.07172249999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08397300000000001</v>
+        <v>0.08065369999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0725272</v>
+        <v>0.06818059999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0718264</v>
+        <v>0.07232329999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.08429970000000001</v>
+        <v>0.0812191</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0731429</v>
+        <v>0.06903570000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0725927</v>
+        <v>0.07310850000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0843163</v>
+        <v>0.0816707</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0738639</v>
+        <v>0.06993969999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0735441</v>
+        <v>0.0741053</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.0846107</v>
+        <v>0.08211839999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>0.07485360000000001</v>
+        <v>0.0710992</v>
       </c>
       <c r="D74" t="n">
-        <v>0.074808</v>
+        <v>0.0753746</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0851447</v>
+        <v>0.0824062</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0762462</v>
+        <v>0.07229579999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.076659</v>
+        <v>0.0769967</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0858942</v>
+        <v>0.08305360000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0778595</v>
+        <v>0.07382130000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0786876</v>
+        <v>0.078928</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.087086</v>
+        <v>0.08425340000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0798172</v>
+        <v>0.0758047</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08151600000000001</v>
+        <v>0.0816781</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0884857</v>
+        <v>0.08592379999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0824221</v>
+        <v>0.07852480000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.08529490000000001</v>
+        <v>0.085508</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.09049069999999999</v>
+        <v>0.0882773</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0858739</v>
+        <v>0.0821479</v>
       </c>
       <c r="D79" t="n">
-        <v>0.091057</v>
+        <v>0.0912742</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0937272</v>
+        <v>0.09163789999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0908419</v>
+        <v>0.0871893</v>
       </c>
       <c r="D80" t="n">
-        <v>0.118682</v>
+        <v>0.0998139</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.183341</v>
+        <v>0.179879</v>
       </c>
       <c r="C81" t="n">
-        <v>0.157592</v>
+        <v>0.154101</v>
       </c>
       <c r="D81" t="n">
-        <v>0.121214</v>
+        <v>0.167093</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.184802</v>
+        <v>0.180825</v>
       </c>
       <c r="C82" t="n">
-        <v>0.156913</v>
+        <v>0.154348</v>
       </c>
       <c r="D82" t="n">
-        <v>0.121695</v>
+        <v>0.167141</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183166</v>
+        <v>0.181954</v>
       </c>
       <c r="C83" t="n">
-        <v>0.157097</v>
+        <v>0.154576</v>
       </c>
       <c r="D83" t="n">
-        <v>0.126224</v>
+        <v>0.167077</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.18393</v>
+        <v>0.18267</v>
       </c>
       <c r="C84" t="n">
-        <v>0.158228</v>
+        <v>0.155811</v>
       </c>
       <c r="D84" t="n">
-        <v>0.12662</v>
+        <v>0.16827</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18472</v>
+        <v>0.182549</v>
       </c>
       <c r="C85" t="n">
-        <v>0.159654</v>
+        <v>0.155515</v>
       </c>
       <c r="D85" t="n">
-        <v>0.131598</v>
+        <v>0.167955</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.183758</v>
+        <v>0.1848</v>
       </c>
       <c r="C86" t="n">
-        <v>0.15801</v>
+        <v>0.158188</v>
       </c>
       <c r="D86" t="n">
-        <v>0.132604</v>
+        <v>0.17072</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.185727</v>
+        <v>0.183806</v>
       </c>
       <c r="C87" t="n">
-        <v>0.158189</v>
+        <v>0.158639</v>
       </c>
       <c r="D87" t="n">
-        <v>0.13215</v>
+        <v>0.171002</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.185357</v>
+        <v>0.185383</v>
       </c>
       <c r="C88" t="n">
-        <v>0.15992</v>
+        <v>0.160095</v>
       </c>
       <c r="D88" t="n">
-        <v>0.133979</v>
+        <v>0.172847</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.185947</v>
+        <v>0.184877</v>
       </c>
       <c r="C89" t="n">
-        <v>0.160284</v>
+        <v>0.159124</v>
       </c>
       <c r="D89" t="n">
-        <v>0.137804</v>
+        <v>0.171262</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.185978</v>
+        <v>0.185652</v>
       </c>
       <c r="C90" t="n">
-        <v>0.159517</v>
+        <v>0.159521</v>
       </c>
       <c r="D90" t="n">
-        <v>0.136575</v>
+        <v>0.171879</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186157</v>
+        <v>0.186306</v>
       </c>
       <c r="C91" t="n">
-        <v>0.162033</v>
+        <v>0.163999</v>
       </c>
       <c r="D91" t="n">
-        <v>0.140595</v>
+        <v>0.176922</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187461</v>
+        <v>0.187456</v>
       </c>
       <c r="C92" t="n">
-        <v>0.16283</v>
+        <v>0.164131</v>
       </c>
       <c r="D92" t="n">
-        <v>0.144745</v>
+        <v>0.177614</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.188274</v>
+        <v>0.189706</v>
       </c>
       <c r="C93" t="n">
-        <v>0.166269</v>
+        <v>0.166835</v>
       </c>
       <c r="D93" t="n">
-        <v>0.148239</v>
+        <v>0.181689</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.189706</v>
+        <v>0.190913</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1687</v>
+        <v>0.171262</v>
       </c>
       <c r="D94" t="n">
-        <v>0.237376</v>
+        <v>0.189154</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.253336</v>
+        <v>0.250549</v>
       </c>
       <c r="C95" t="n">
-        <v>0.225061</v>
+        <v>0.226616</v>
       </c>
       <c r="D95" t="n">
-        <v>0.239526</v>
+        <v>0.255814</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.253307</v>
+        <v>0.249063</v>
       </c>
       <c r="C96" t="n">
-        <v>0.232679</v>
+        <v>0.228311</v>
       </c>
       <c r="D96" t="n">
-        <v>0.239892</v>
+        <v>0.256906</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.253553</v>
+        <v>0.250814</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233469</v>
+        <v>0.229664</v>
       </c>
       <c r="D97" t="n">
-        <v>0.24303</v>
+        <v>0.257672</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.25397</v>
+        <v>0.249958</v>
       </c>
       <c r="C98" t="n">
-        <v>0.228591</v>
+        <v>0.230461</v>
       </c>
       <c r="D98" t="n">
-        <v>0.243899</v>
+        <v>0.258892</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.253612</v>
+        <v>0.249841</v>
       </c>
       <c r="C99" t="n">
-        <v>0.235747</v>
+        <v>0.231447</v>
       </c>
       <c r="D99" t="n">
-        <v>0.242373</v>
+        <v>0.259742</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.253575</v>
+        <v>0.249398</v>
       </c>
       <c r="C100" t="n">
-        <v>0.236893</v>
+        <v>0.233159</v>
       </c>
       <c r="D100" t="n">
-        <v>0.247405</v>
+        <v>0.261141</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.2536</v>
+        <v>0.249881</v>
       </c>
       <c r="C101" t="n">
-        <v>0.238812</v>
+        <v>0.234626</v>
       </c>
       <c r="D101" t="n">
-        <v>0.246141</v>
+        <v>0.262447</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.253951</v>
+        <v>0.2499</v>
       </c>
       <c r="C102" t="n">
-        <v>0.240903</v>
+        <v>0.236702</v>
       </c>
       <c r="D102" t="n">
-        <v>0.252358</v>
+        <v>0.264209</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.253799</v>
+        <v>0.250424</v>
       </c>
       <c r="C103" t="n">
-        <v>0.242055</v>
+        <v>0.238884</v>
       </c>
       <c r="D103" t="n">
-        <v>0.253552</v>
+        <v>0.265862</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.254785</v>
+        <v>0.250744</v>
       </c>
       <c r="C104" t="n">
-        <v>0.241408</v>
+        <v>0.240802</v>
       </c>
       <c r="D104" t="n">
-        <v>0.256226</v>
+        <v>0.267827</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.25515</v>
+        <v>0.251432</v>
       </c>
       <c r="C105" t="n">
-        <v>0.243105</v>
+        <v>0.242872</v>
       </c>
       <c r="D105" t="n">
-        <v>0.258058</v>
+        <v>0.269663</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.25593</v>
+        <v>0.252381</v>
       </c>
       <c r="C106" t="n">
-        <v>0.246665</v>
+        <v>0.245887</v>
       </c>
       <c r="D106" t="n">
-        <v>0.261406</v>
+        <v>0.272824</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25753</v>
+        <v>0.253519</v>
       </c>
       <c r="C107" t="n">
-        <v>0.253193</v>
+        <v>0.24893</v>
       </c>
       <c r="D107" t="n">
-        <v>0.265618</v>
+        <v>0.276552</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.260779</v>
+        <v>0.256424</v>
       </c>
       <c r="C108" t="n">
-        <v>0.25548</v>
+        <v>0.253529</v>
       </c>
       <c r="D108" t="n">
-        <v>0.293087</v>
+        <v>0.283165</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.264507</v>
+        <v>0.260754</v>
       </c>
       <c r="C109" t="n">
-        <v>0.263967</v>
+        <v>0.260097</v>
       </c>
       <c r="D109" t="n">
-        <v>0.294751</v>
+        <v>0.293554</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.291432</v>
+        <v>0.287364</v>
       </c>
       <c r="C110" t="n">
-        <v>0.263743</v>
+        <v>0.261181</v>
       </c>
       <c r="D110" t="n">
-        <v>0.293261</v>
+        <v>0.293618</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.290392</v>
+        <v>0.287686</v>
       </c>
       <c r="C111" t="n">
-        <v>0.266416</v>
+        <v>0.257208</v>
       </c>
       <c r="D111" t="n">
-        <v>0.295551</v>
+        <v>0.294769</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.289861</v>
+        <v>0.286626</v>
       </c>
       <c r="C112" t="n">
-        <v>0.261254</v>
+        <v>0.257694</v>
       </c>
       <c r="D112" t="n">
-        <v>0.300499</v>
+        <v>0.296621</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.289774</v>
+        <v>0.2873</v>
       </c>
       <c r="C113" t="n">
-        <v>0.262805</v>
+        <v>0.259773</v>
       </c>
       <c r="D113" t="n">
-        <v>0.299151</v>
+        <v>0.299121</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.289997</v>
+        <v>0.286163</v>
       </c>
       <c r="C114" t="n">
-        <v>0.265933</v>
+        <v>0.262543</v>
       </c>
       <c r="D114" t="n">
-        <v>0.305311</v>
+        <v>0.29309</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.290874</v>
+        <v>0.286651</v>
       </c>
       <c r="C115" t="n">
-        <v>0.268938</v>
+        <v>0.265576</v>
       </c>
       <c r="D115" t="n">
-        <v>0.30725</v>
+        <v>0.295935</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.283725</v>
+        <v>0.288277</v>
       </c>
       <c r="C116" t="n">
-        <v>0.272184</v>
+        <v>0.268466</v>
       </c>
       <c r="D116" t="n">
-        <v>0.302154</v>
+        <v>0.298447</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.292967</v>
+        <v>0.287638</v>
       </c>
       <c r="C117" t="n">
-        <v>0.27527</v>
+        <v>0.271469</v>
       </c>
       <c r="D117" t="n">
-        <v>0.304998</v>
+        <v>0.300909</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.292248</v>
+        <v>0.288806</v>
       </c>
       <c r="C118" t="n">
-        <v>0.278029</v>
+        <v>0.275423</v>
       </c>
       <c r="D118" t="n">
-        <v>0.308431</v>
+        <v>0.303049</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.293488</v>
+        <v>0.288957</v>
       </c>
       <c r="C119" t="n">
-        <v>0.281671</v>
+        <v>0.278013</v>
       </c>
       <c r="D119" t="n">
-        <v>0.310757</v>
+        <v>0.306189</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.294382</v>
+        <v>0.289511</v>
       </c>
       <c r="C120" t="n">
-        <v>0.284935</v>
+        <v>0.281793</v>
       </c>
       <c r="D120" t="n">
-        <v>0.314864</v>
+        <v>0.309888</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.295335</v>
+        <v>0.292469</v>
       </c>
       <c r="C121" t="n">
-        <v>0.288671</v>
+        <v>0.286268</v>
       </c>
       <c r="D121" t="n">
-        <v>0.315459</v>
+        <v>0.313359</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.296585</v>
+        <v>0.296505</v>
       </c>
       <c r="C122" t="n">
-        <v>0.294898</v>
+        <v>0.29101</v>
       </c>
       <c r="D122" t="n">
-        <v>0.322179</v>
+        <v>0.320667</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.30352</v>
+        <v>0.299305</v>
       </c>
       <c r="C123" t="n">
-        <v>0.302217</v>
+        <v>0.298073</v>
       </c>
       <c r="D123" t="n">
-        <v>0.314784</v>
+        <v>0.3322</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.370575</v>
+        <v>0.368655</v>
       </c>
       <c r="C124" t="n">
-        <v>0.277379</v>
+        <v>0.274139</v>
       </c>
       <c r="D124" t="n">
-        <v>0.314907</v>
+        <v>0.305342</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.370098</v>
+        <v>0.368445</v>
       </c>
       <c r="C125" t="n">
-        <v>0.279745</v>
+        <v>0.276888</v>
       </c>
       <c r="D125" t="n">
-        <v>0.317607</v>
+        <v>0.30699</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.371713</v>
+        <v>0.368394</v>
       </c>
       <c r="C126" t="n">
-        <v>0.283274</v>
+        <v>0.280177</v>
       </c>
       <c r="D126" t="n">
-        <v>0.319952</v>
+        <v>0.31061</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.37064</v>
+        <v>0.369025</v>
       </c>
       <c r="C127" t="n">
-        <v>0.286086</v>
+        <v>0.283301</v>
       </c>
       <c r="D127" t="n">
-        <v>0.321502</v>
+        <v>0.313132</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.37171</v>
+        <v>0.368214</v>
       </c>
       <c r="C128" t="n">
-        <v>0.289897</v>
+        <v>0.286695</v>
       </c>
       <c r="D128" t="n">
-        <v>0.325353</v>
+        <v>0.316177</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.371161</v>
+        <v>0.368893</v>
       </c>
       <c r="C129" t="n">
-        <v>0.293548</v>
+        <v>0.290146</v>
       </c>
       <c r="D129" t="n">
-        <v>0.328277</v>
+        <v>0.318966</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.372215</v>
+        <v>0.36927</v>
       </c>
       <c r="C130" t="n">
-        <v>0.297371</v>
+        <v>0.294829</v>
       </c>
       <c r="D130" t="n">
-        <v>0.331591</v>
+        <v>0.323373</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.370961</v>
+        <v>0.37012</v>
       </c>
       <c r="C131" t="n">
-        <v>0.301245</v>
+        <v>0.298673</v>
       </c>
       <c r="D131" t="n">
-        <v>0.334169</v>
+        <v>0.326765</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.372985</v>
+        <v>0.370188</v>
       </c>
       <c r="C132" t="n">
-        <v>0.305684</v>
+        <v>0.303046</v>
       </c>
       <c r="D132" t="n">
-        <v>0.339207</v>
+        <v>0.331302</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.372487</v>
+        <v>0.37068</v>
       </c>
       <c r="C133" t="n">
-        <v>0.310284</v>
+        <v>0.307341</v>
       </c>
       <c r="D133" t="n">
-        <v>0.343849</v>
+        <v>0.33557</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.37401</v>
+        <v>0.371067</v>
       </c>
       <c r="C134" t="n">
-        <v>0.31549</v>
+        <v>0.312273</v>
       </c>
       <c r="D134" t="n">
-        <v>0.349009</v>
+        <v>0.341868</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.374168</v>
+        <v>0.371808</v>
       </c>
       <c r="C135" t="n">
-        <v>0.320628</v>
+        <v>0.317544</v>
       </c>
       <c r="D135" t="n">
-        <v>0.355602</v>
+        <v>0.348618</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.376595</v>
+        <v>0.375178</v>
       </c>
       <c r="C136" t="n">
-        <v>0.327907</v>
+        <v>0.324996</v>
       </c>
       <c r="D136" t="n">
-        <v>0.364677</v>
+        <v>0.358568</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.37969</v>
+        <v>0.377834</v>
       </c>
       <c r="C137" t="n">
-        <v>0.337241</v>
+        <v>0.333827</v>
       </c>
       <c r="D137" t="n">
-        <v>0.333863</v>
+        <v>0.370513</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.434415</v>
+        <v>0.433949</v>
       </c>
       <c r="C138" t="n">
-        <v>0.300034</v>
+        <v>0.297551</v>
       </c>
       <c r="D138" t="n">
-        <v>0.336043</v>
+        <v>0.32635</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.434848</v>
+        <v>0.434317</v>
       </c>
       <c r="C139" t="n">
-        <v>0.302932</v>
+        <v>0.300121</v>
       </c>
       <c r="D139" t="n">
-        <v>0.337898</v>
+        <v>0.32863</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.440121</v>
+        <v>0.434229</v>
       </c>
       <c r="C140" t="n">
-        <v>0.306597</v>
+        <v>0.303245</v>
       </c>
       <c r="D140" t="n">
-        <v>0.340794</v>
+        <v>0.331153</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.43976</v>
+        <v>0.434216</v>
       </c>
       <c r="C141" t="n">
-        <v>0.309183</v>
+        <v>0.306378</v>
       </c>
       <c r="D141" t="n">
-        <v>0.342335</v>
+        <v>0.333891</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.435613</v>
+        <v>0.434161</v>
       </c>
       <c r="C142" t="n">
-        <v>0.312164</v>
+        <v>0.308972</v>
       </c>
       <c r="D142" t="n">
-        <v>0.345151</v>
+        <v>0.337064</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.440153</v>
+        <v>0.434451</v>
       </c>
       <c r="C143" t="n">
-        <v>0.314963</v>
+        <v>0.313073</v>
       </c>
       <c r="D143" t="n">
-        <v>0.347122</v>
+        <v>0.340278</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0424522</v>
+        <v>0.0422315</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0427289</v>
+        <v>0.0421602</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0454179</v>
+        <v>0.0484526</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0427312</v>
+        <v>0.0429181</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0427937</v>
+        <v>0.0424149</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0456681</v>
+        <v>0.0486844</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0429264</v>
+        <v>0.0430334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0427515</v>
+        <v>0.0422973</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0455349</v>
+        <v>0.0487439</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0432057</v>
+        <v>0.0431097</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0429172</v>
+        <v>0.0423944</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0457986</v>
+        <v>0.0492712</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0432889</v>
+        <v>0.0432065</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0431899</v>
+        <v>0.0425923</v>
       </c>
       <c r="D6" t="n">
-        <v>0.046132</v>
+        <v>0.0494507</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0435194</v>
+        <v>0.0434935</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0438155</v>
+        <v>0.0429238</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0471854</v>
+        <v>0.0505056</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0439584</v>
+        <v>0.0437684</v>
       </c>
       <c r="C8" t="n">
-        <v>0.044685</v>
+        <v>0.0441003</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0494891</v>
+        <v>0.0528416</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0447561</v>
+        <v>0.0446636</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0466845</v>
+        <v>0.0455043</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0527588</v>
+        <v>0.0589498</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0499166</v>
+        <v>0.0499188</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0462671</v>
+        <v>0.0462765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0496567</v>
+        <v>0.0528963</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0498468</v>
+        <v>0.0497321</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0465839</v>
+        <v>0.0465567</v>
       </c>
       <c r="D11" t="n">
-        <v>0.050025</v>
+        <v>0.0532523</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0500946</v>
+        <v>0.049979</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0469945</v>
+        <v>0.046851</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0503771</v>
+        <v>0.0532177</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0502105</v>
+        <v>0.0502877</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0473693</v>
+        <v>0.0472955</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0505783</v>
+        <v>0.0539594</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0503128</v>
+        <v>0.0505117</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0478317</v>
+        <v>0.0476151</v>
       </c>
       <c r="D14" t="n">
-        <v>0.051226</v>
+        <v>0.0540586</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0503994</v>
+        <v>0.0505586</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0480553</v>
+        <v>0.0477816</v>
       </c>
       <c r="D15" t="n">
-        <v>0.051567</v>
+        <v>0.0545898</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0506253</v>
+        <v>0.0504909</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0483965</v>
+        <v>0.0480781</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0519669</v>
+        <v>0.0542273</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0509474</v>
+        <v>0.0509117</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0486011</v>
+        <v>0.0483452</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0523232</v>
+        <v>0.0550016</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0511162</v>
+        <v>0.0509989</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0490939</v>
+        <v>0.0487849</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0523952</v>
+        <v>0.0555776</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0513471</v>
+        <v>0.0509237</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0492924</v>
+        <v>0.0490698</v>
       </c>
       <c r="D19" t="n">
-        <v>0.052741</v>
+        <v>0.0563824</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0513326</v>
+        <v>0.0514765</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0497494</v>
+        <v>0.0497769</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0534593</v>
+        <v>0.0575712</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0516269</v>
+        <v>0.0515124</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0504117</v>
+        <v>0.0504939</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0547885</v>
+        <v>0.0599765</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0523975</v>
+        <v>0.0526967</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0522761</v>
+        <v>0.0528523</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0587625</v>
+        <v>0.06624289999999999</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0532479</v>
+        <v>0.0533935</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0572115</v>
+        <v>0.057254</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0686404</v>
+        <v>0.0779039</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0571889</v>
+        <v>0.0550501</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0529043</v>
+        <v>0.0516281</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0572875</v>
+        <v>0.0597502</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0561183</v>
+        <v>0.0548064</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0534771</v>
+        <v>0.0521747</v>
       </c>
       <c r="D25" t="n">
-        <v>0.057446</v>
+        <v>0.0600898</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0561341</v>
+        <v>0.0549375</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0540248</v>
+        <v>0.0524628</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0567054</v>
+        <v>0.0599068</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0562583</v>
+        <v>0.0550246</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0543596</v>
+        <v>0.0527636</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0576404</v>
+        <v>0.06015</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0564863</v>
+        <v>0.0552456</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0547445</v>
+        <v>0.0528865</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0585097</v>
+        <v>0.0601649</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0566042</v>
+        <v>0.0553771</v>
       </c>
       <c r="C29" t="n">
-        <v>0.054702</v>
+        <v>0.0535841</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0589599</v>
+        <v>0.0616413</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0567252</v>
+        <v>0.0555525</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0551169</v>
+        <v>0.0540945</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0581981</v>
+        <v>0.0610038</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0569259</v>
+        <v>0.0557238</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0551089</v>
+        <v>0.0541443</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0596049</v>
+        <v>0.06268650000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0571711</v>
+        <v>0.05602</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0559512</v>
+        <v>0.0545187</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0590709</v>
+        <v>0.0636765</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0573783</v>
+        <v>0.0562042</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0568064</v>
+        <v>0.0556896</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0604149</v>
+        <v>0.064406</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.057717</v>
+        <v>0.0564923</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0573704</v>
+        <v>0.0568595</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0624209</v>
+        <v>0.0665307</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0583739</v>
+        <v>0.0569932</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0597472</v>
+        <v>0.0586599</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0654173</v>
+        <v>0.0711335</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0589597</v>
+        <v>0.0578065</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06319900000000001</v>
+        <v>0.06261170000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0715271</v>
+        <v>0.07818659999999999</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0615736</v>
+        <v>0.0602933</v>
       </c>
       <c r="C37" t="n">
-        <v>0.069714</v>
+        <v>0.068721</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0806626</v>
+        <v>0.0874219</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0614533</v>
+        <v>0.0612929</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0578619</v>
+        <v>0.0557185</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0630698</v>
+        <v>0.0640869</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0601937</v>
+        <v>0.0600061</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0587398</v>
+        <v>0.0563491</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0629594</v>
+        <v>0.0647392</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0602982</v>
+        <v>0.0601287</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0591641</v>
+        <v>0.0571287</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0632626</v>
+        <v>0.0652288</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0604347</v>
+        <v>0.0602822</v>
       </c>
       <c r="C41" t="n">
-        <v>0.05863</v>
+        <v>0.0574579</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0636631</v>
+        <v>0.0659144</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0605553</v>
+        <v>0.0603783</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0593571</v>
+        <v>0.0582595</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06360739999999999</v>
+        <v>0.0666071</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0607397</v>
+        <v>0.0605805</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0605428</v>
+        <v>0.0588672</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06458419999999999</v>
+        <v>0.06740309999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0609501</v>
+        <v>0.0607841</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0607176</v>
+        <v>0.0597101</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06448660000000001</v>
+        <v>0.0673704</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0611409</v>
+        <v>0.0609654</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0614133</v>
+        <v>0.059618</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0658596</v>
+        <v>0.068248</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0614075</v>
+        <v>0.0612177</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0622027</v>
+        <v>0.0612004</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0669255</v>
+        <v>0.0689345</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0617406</v>
+        <v>0.061557</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06326610000000001</v>
+        <v>0.0620206</v>
       </c>
       <c r="D47" t="n">
-        <v>0.067936</v>
+        <v>0.0725267</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0621269</v>
+        <v>0.0619349</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0647836</v>
+        <v>0.0639</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0703173</v>
+        <v>0.0745276</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0626842</v>
+        <v>0.06264160000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0675022</v>
+        <v>0.06646249999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07363459999999999</v>
+        <v>0.0779276</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06423</v>
+        <v>0.06408419999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0699279</v>
+        <v>0.06936299999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0781389</v>
+        <v>0.0829187</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06768150000000001</v>
+        <v>0.067483</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0745775</v>
+        <v>0.0739659</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0850539</v>
+        <v>0.0907477</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0731106</v>
+        <v>0.0729316</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08135100000000001</v>
+        <v>0.0806769</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0947568</v>
+        <v>0.102844</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0679106</v>
+        <v>0.0685144</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0585336</v>
+        <v>0.0572775</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0628319</v>
+        <v>0.0651331</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0676958</v>
+        <v>0.0684052</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0590669</v>
+        <v>0.0578257</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06331299999999999</v>
+        <v>0.06653199999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0677976</v>
+        <v>0.0684212</v>
       </c>
       <c r="C55" t="n">
-        <v>0.059887</v>
+        <v>0.0584251</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06366239999999999</v>
+        <v>0.0667133</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.06786979999999999</v>
+        <v>0.0685323</v>
       </c>
       <c r="C56" t="n">
-        <v>0.060959</v>
+        <v>0.0587994</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0651128</v>
+        <v>0.0666993</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0680283</v>
+        <v>0.0687193</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0615091</v>
+        <v>0.0587741</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0655974</v>
+        <v>0.0682416</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0681846</v>
+        <v>0.06890209999999999</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0623803</v>
+        <v>0.0602267</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06628489999999999</v>
+        <v>0.06945369999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0684362</v>
+        <v>0.0691552</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0631671</v>
+        <v>0.0605529</v>
       </c>
       <c r="D59" t="n">
-        <v>0.067064</v>
+        <v>0.0702038</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0687035</v>
+        <v>0.0693627</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0642123</v>
+        <v>0.062196</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0682735</v>
+        <v>0.0716644</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06908259999999999</v>
+        <v>0.06970079999999999</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06550499999999999</v>
+        <v>0.0636061</v>
       </c>
       <c r="D61" t="n">
-        <v>0.06985130000000001</v>
+        <v>0.0741704</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06956320000000001</v>
+        <v>0.07024179999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0673093</v>
+        <v>0.0653251</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0722298</v>
+        <v>0.0769661</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0705566</v>
+        <v>0.0711073</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0694668</v>
+        <v>0.0677369</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0753568</v>
+        <v>0.0794246</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0725146</v>
+        <v>0.0730939</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0722962</v>
+        <v>0.0703738</v>
       </c>
       <c r="D64" t="n">
-        <v>0.07963720000000001</v>
+        <v>0.0848747</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.07428750000000001</v>
+        <v>0.0756653</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07622230000000001</v>
+        <v>0.0740456</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0860624</v>
+        <v>0.0907854</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0798632</v>
+        <v>0.0798128</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0824066</v>
+        <v>0.0802387</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0956259</v>
+        <v>0.10142</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.08010109999999999</v>
+        <v>0.0786572</v>
       </c>
       <c r="C67" t="n">
-        <v>0.065874</v>
+        <v>0.0632699</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07054100000000001</v>
+        <v>0.0721034</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0800419</v>
+        <v>0.0786839</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0664845</v>
+        <v>0.0637197</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0709655</v>
+        <v>0.07264370000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.08014259999999999</v>
+        <v>0.0790291</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0669361</v>
+        <v>0.06439739999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0713849</v>
+        <v>0.0733733</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.08022260000000001</v>
+        <v>0.0793678</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0675255</v>
+        <v>0.0652563</v>
       </c>
       <c r="D70" t="n">
-        <v>0.07172249999999999</v>
+        <v>0.0742931</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.08065369999999999</v>
+        <v>0.0796994</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06818059999999999</v>
+        <v>0.0657847</v>
       </c>
       <c r="D71" t="n">
-        <v>0.07232329999999999</v>
+        <v>0.0749196</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0812191</v>
+        <v>0.0804025</v>
       </c>
       <c r="C72" t="n">
-        <v>0.06903570000000001</v>
+        <v>0.0665847</v>
       </c>
       <c r="D72" t="n">
-        <v>0.07310850000000001</v>
+        <v>0.0758988</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0816707</v>
+        <v>0.0809443</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06993969999999999</v>
+        <v>0.0676324</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0741053</v>
+        <v>0.0772766</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08211839999999999</v>
+        <v>0.08115020000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0710992</v>
+        <v>0.0688619</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0753746</v>
+        <v>0.0787928</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0824062</v>
+        <v>0.081525</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07229579999999999</v>
+        <v>0.0701273</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0769967</v>
+        <v>0.0805105</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08305360000000001</v>
+        <v>0.08225979999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07382130000000001</v>
+        <v>0.0716987</v>
       </c>
       <c r="D76" t="n">
-        <v>0.078928</v>
+        <v>0.0828159</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08425340000000001</v>
+        <v>0.08323700000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0758047</v>
+        <v>0.0737042</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0816781</v>
+        <v>0.08584360000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08592379999999999</v>
+        <v>0.08480169999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>0.07852480000000001</v>
+        <v>0.0764302</v>
       </c>
       <c r="D78" t="n">
-        <v>0.085508</v>
+        <v>0.090049</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0882773</v>
+        <v>0.0870756</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0821479</v>
+        <v>0.0801197</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0912742</v>
+        <v>0.0965076</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.09163789999999999</v>
+        <v>0.090526</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0871893</v>
+        <v>0.08534609999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0998139</v>
+        <v>0.106081</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.179879</v>
+        <v>0.18209</v>
       </c>
       <c r="C81" t="n">
-        <v>0.154101</v>
+        <v>0.154367</v>
       </c>
       <c r="D81" t="n">
-        <v>0.167093</v>
+        <v>0.172039</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.180825</v>
+        <v>0.182679</v>
       </c>
       <c r="C82" t="n">
-        <v>0.154348</v>
+        <v>0.155682</v>
       </c>
       <c r="D82" t="n">
-        <v>0.167141</v>
+        <v>0.173414</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.181954</v>
+        <v>0.183173</v>
       </c>
       <c r="C83" t="n">
-        <v>0.154576</v>
+        <v>0.154994</v>
       </c>
       <c r="D83" t="n">
-        <v>0.167077</v>
+        <v>0.172652</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.18267</v>
+        <v>0.183944</v>
       </c>
       <c r="C84" t="n">
-        <v>0.155811</v>
+        <v>0.157921</v>
       </c>
       <c r="D84" t="n">
-        <v>0.16827</v>
+        <v>0.175986</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.182549</v>
+        <v>0.18645</v>
       </c>
       <c r="C85" t="n">
-        <v>0.155515</v>
+        <v>0.159345</v>
       </c>
       <c r="D85" t="n">
-        <v>0.167955</v>
+        <v>0.177724</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1848</v>
+        <v>0.1862</v>
       </c>
       <c r="C86" t="n">
-        <v>0.158188</v>
+        <v>0.157277</v>
       </c>
       <c r="D86" t="n">
-        <v>0.17072</v>
+        <v>0.175065</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.183806</v>
+        <v>0.18673</v>
       </c>
       <c r="C87" t="n">
-        <v>0.158639</v>
+        <v>0.160302</v>
       </c>
       <c r="D87" t="n">
-        <v>0.171002</v>
+        <v>0.178826</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.185383</v>
+        <v>0.187378</v>
       </c>
       <c r="C88" t="n">
-        <v>0.160095</v>
+        <v>0.158828</v>
       </c>
       <c r="D88" t="n">
-        <v>0.172847</v>
+        <v>0.177451</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.184877</v>
+        <v>0.187175</v>
       </c>
       <c r="C89" t="n">
-        <v>0.159124</v>
+        <v>0.163345</v>
       </c>
       <c r="D89" t="n">
-        <v>0.171262</v>
+        <v>0.182757</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.185652</v>
+        <v>0.187816</v>
       </c>
       <c r="C90" t="n">
-        <v>0.159521</v>
+        <v>0.162951</v>
       </c>
       <c r="D90" t="n">
-        <v>0.171879</v>
+        <v>0.18279</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.186306</v>
+        <v>0.18873</v>
       </c>
       <c r="C91" t="n">
-        <v>0.163999</v>
+        <v>0.164443</v>
       </c>
       <c r="D91" t="n">
-        <v>0.176922</v>
+        <v>0.185135</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.187456</v>
+        <v>0.190643</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164131</v>
+        <v>0.165252</v>
       </c>
       <c r="D92" t="n">
-        <v>0.177614</v>
+        <v>0.186629</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.189706</v>
+        <v>0.190934</v>
       </c>
       <c r="C93" t="n">
-        <v>0.166835</v>
+        <v>0.167469</v>
       </c>
       <c r="D93" t="n">
-        <v>0.181689</v>
+        <v>0.191171</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.190913</v>
+        <v>0.192651</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171262</v>
+        <v>0.171811</v>
       </c>
       <c r="D94" t="n">
-        <v>0.189154</v>
+        <v>0.199281</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.250549</v>
+        <v>0.254477</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226616</v>
+        <v>0.232868</v>
       </c>
       <c r="D95" t="n">
-        <v>0.255814</v>
+        <v>0.268432</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.249063</v>
+        <v>0.254151</v>
       </c>
       <c r="C96" t="n">
-        <v>0.228311</v>
+        <v>0.233846</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256906</v>
+        <v>0.269226</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.250814</v>
+        <v>0.254697</v>
       </c>
       <c r="C97" t="n">
-        <v>0.229664</v>
+        <v>0.234838</v>
       </c>
       <c r="D97" t="n">
-        <v>0.257672</v>
+        <v>0.270332</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.249958</v>
+        <v>0.254499</v>
       </c>
       <c r="C98" t="n">
-        <v>0.230461</v>
+        <v>0.236792</v>
       </c>
       <c r="D98" t="n">
-        <v>0.258892</v>
+        <v>0.271894</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.249841</v>
+        <v>0.25447</v>
       </c>
       <c r="C99" t="n">
-        <v>0.231447</v>
+        <v>0.237553</v>
       </c>
       <c r="D99" t="n">
-        <v>0.259742</v>
+        <v>0.27339</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.249398</v>
+        <v>0.254575</v>
       </c>
       <c r="C100" t="n">
-        <v>0.233159</v>
+        <v>0.239214</v>
       </c>
       <c r="D100" t="n">
-        <v>0.261141</v>
+        <v>0.274565</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.249881</v>
+        <v>0.254648</v>
       </c>
       <c r="C101" t="n">
-        <v>0.234626</v>
+        <v>0.241059</v>
       </c>
       <c r="D101" t="n">
-        <v>0.262447</v>
+        <v>0.276552</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.2499</v>
+        <v>0.255459</v>
       </c>
       <c r="C102" t="n">
-        <v>0.236702</v>
+        <v>0.241545</v>
       </c>
       <c r="D102" t="n">
-        <v>0.264209</v>
+        <v>0.278126</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.250424</v>
+        <v>0.255023</v>
       </c>
       <c r="C103" t="n">
-        <v>0.238884</v>
+        <v>0.243216</v>
       </c>
       <c r="D103" t="n">
-        <v>0.265862</v>
+        <v>0.28041</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.250744</v>
+        <v>0.255978</v>
       </c>
       <c r="C104" t="n">
-        <v>0.240802</v>
+        <v>0.246034</v>
       </c>
       <c r="D104" t="n">
-        <v>0.267827</v>
+        <v>0.282264</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251432</v>
+        <v>0.256396</v>
       </c>
       <c r="C105" t="n">
-        <v>0.242872</v>
+        <v>0.248274</v>
       </c>
       <c r="D105" t="n">
-        <v>0.269663</v>
+        <v>0.284794</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.252381</v>
+        <v>0.256911</v>
       </c>
       <c r="C106" t="n">
-        <v>0.245887</v>
+        <v>0.251171</v>
       </c>
       <c r="D106" t="n">
-        <v>0.272824</v>
+        <v>0.289389</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.253519</v>
+        <v>0.258882</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24893</v>
+        <v>0.253056</v>
       </c>
       <c r="D107" t="n">
-        <v>0.276552</v>
+        <v>0.292665</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.256424</v>
+        <v>0.260624</v>
       </c>
       <c r="C108" t="n">
-        <v>0.253529</v>
+        <v>0.258636</v>
       </c>
       <c r="D108" t="n">
-        <v>0.283165</v>
+        <v>0.301163</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.260754</v>
+        <v>0.265881</v>
       </c>
       <c r="C109" t="n">
-        <v>0.260097</v>
+        <v>0.265279</v>
       </c>
       <c r="D109" t="n">
-        <v>0.293554</v>
+        <v>0.313909</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.287364</v>
+        <v>0.290912</v>
       </c>
       <c r="C110" t="n">
-        <v>0.261181</v>
+        <v>0.266739</v>
       </c>
       <c r="D110" t="n">
-        <v>0.293618</v>
+        <v>0.306928</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.287686</v>
+        <v>0.291035</v>
       </c>
       <c r="C111" t="n">
-        <v>0.257208</v>
+        <v>0.266602</v>
       </c>
       <c r="D111" t="n">
-        <v>0.294769</v>
+        <v>0.308674</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.286626</v>
+        <v>0.289693</v>
       </c>
       <c r="C112" t="n">
-        <v>0.257694</v>
+        <v>0.264911</v>
       </c>
       <c r="D112" t="n">
-        <v>0.296621</v>
+        <v>0.310943</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.2873</v>
+        <v>0.290299</v>
       </c>
       <c r="C113" t="n">
-        <v>0.259773</v>
+        <v>0.264734</v>
       </c>
       <c r="D113" t="n">
-        <v>0.299121</v>
+        <v>0.312987</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.286163</v>
+        <v>0.290629</v>
       </c>
       <c r="C114" t="n">
-        <v>0.262543</v>
+        <v>0.26742</v>
       </c>
       <c r="D114" t="n">
-        <v>0.29309</v>
+        <v>0.313646</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.286651</v>
+        <v>0.290972</v>
       </c>
       <c r="C115" t="n">
-        <v>0.265576</v>
+        <v>0.269259</v>
       </c>
       <c r="D115" t="n">
-        <v>0.295935</v>
+        <v>0.30876</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.288277</v>
+        <v>0.290838</v>
       </c>
       <c r="C116" t="n">
-        <v>0.268466</v>
+        <v>0.273374</v>
       </c>
       <c r="D116" t="n">
-        <v>0.298447</v>
+        <v>0.313893</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.287638</v>
+        <v>0.291474</v>
       </c>
       <c r="C117" t="n">
-        <v>0.271469</v>
+        <v>0.277083</v>
       </c>
       <c r="D117" t="n">
-        <v>0.300909</v>
+        <v>0.317748</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.288806</v>
+        <v>0.292023</v>
       </c>
       <c r="C118" t="n">
-        <v>0.275423</v>
+        <v>0.278866</v>
       </c>
       <c r="D118" t="n">
-        <v>0.303049</v>
+        <v>0.319752</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.288957</v>
+        <v>0.292501</v>
       </c>
       <c r="C119" t="n">
-        <v>0.278013</v>
+        <v>0.283567</v>
       </c>
       <c r="D119" t="n">
-        <v>0.306189</v>
+        <v>0.324605</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.289511</v>
+        <v>0.294668</v>
       </c>
       <c r="C120" t="n">
-        <v>0.281793</v>
+        <v>0.286849</v>
       </c>
       <c r="D120" t="n">
-        <v>0.309888</v>
+        <v>0.327116</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.292469</v>
+        <v>0.294387</v>
       </c>
       <c r="C121" t="n">
-        <v>0.286268</v>
+        <v>0.290414</v>
       </c>
       <c r="D121" t="n">
-        <v>0.313359</v>
+        <v>0.333903</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.296505</v>
+        <v>0.2994</v>
       </c>
       <c r="C122" t="n">
-        <v>0.29101</v>
+        <v>0.295723</v>
       </c>
       <c r="D122" t="n">
-        <v>0.320667</v>
+        <v>0.344389</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.299305</v>
+        <v>0.301145</v>
       </c>
       <c r="C123" t="n">
-        <v>0.298073</v>
+        <v>0.303421</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3322</v>
+        <v>0.358271</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.368655</v>
+        <v>0.373756</v>
       </c>
       <c r="C124" t="n">
-        <v>0.274139</v>
+        <v>0.278943</v>
       </c>
       <c r="D124" t="n">
-        <v>0.305342</v>
+        <v>0.329731</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.368445</v>
+        <v>0.372077</v>
       </c>
       <c r="C125" t="n">
-        <v>0.276888</v>
+        <v>0.282011</v>
       </c>
       <c r="D125" t="n">
-        <v>0.30699</v>
+        <v>0.323411</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.368394</v>
+        <v>0.372446</v>
       </c>
       <c r="C126" t="n">
-        <v>0.280177</v>
+        <v>0.284995</v>
       </c>
       <c r="D126" t="n">
-        <v>0.31061</v>
+        <v>0.326372</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.369025</v>
+        <v>0.373615</v>
       </c>
       <c r="C127" t="n">
-        <v>0.283301</v>
+        <v>0.288211</v>
       </c>
       <c r="D127" t="n">
-        <v>0.313132</v>
+        <v>0.329474</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.368214</v>
+        <v>0.374642</v>
       </c>
       <c r="C128" t="n">
-        <v>0.286695</v>
+        <v>0.291604</v>
       </c>
       <c r="D128" t="n">
-        <v>0.316177</v>
+        <v>0.333138</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.368893</v>
+        <v>0.373816</v>
       </c>
       <c r="C129" t="n">
-        <v>0.290146</v>
+        <v>0.295227</v>
       </c>
       <c r="D129" t="n">
-        <v>0.318966</v>
+        <v>0.336804</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.36927</v>
+        <v>0.372873</v>
       </c>
       <c r="C130" t="n">
-        <v>0.294829</v>
+        <v>0.299607</v>
       </c>
       <c r="D130" t="n">
-        <v>0.323373</v>
+        <v>0.341716</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.37012</v>
+        <v>0.373776</v>
       </c>
       <c r="C131" t="n">
-        <v>0.298673</v>
+        <v>0.305046</v>
       </c>
       <c r="D131" t="n">
-        <v>0.326765</v>
+        <v>0.347544</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.370188</v>
+        <v>0.375247</v>
       </c>
       <c r="C132" t="n">
-        <v>0.303046</v>
+        <v>0.307571</v>
       </c>
       <c r="D132" t="n">
-        <v>0.331302</v>
+        <v>0.351072</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.37068</v>
+        <v>0.374896</v>
       </c>
       <c r="C133" t="n">
-        <v>0.307341</v>
+        <v>0.311511</v>
       </c>
       <c r="D133" t="n">
-        <v>0.33557</v>
+        <v>0.355476</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.371067</v>
+        <v>0.374006</v>
       </c>
       <c r="C134" t="n">
-        <v>0.312273</v>
+        <v>0.316487</v>
       </c>
       <c r="D134" t="n">
-        <v>0.341868</v>
+        <v>0.363084</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.371808</v>
+        <v>0.376493</v>
       </c>
       <c r="C135" t="n">
-        <v>0.317544</v>
+        <v>0.321909</v>
       </c>
       <c r="D135" t="n">
-        <v>0.348618</v>
+        <v>0.370901</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.375178</v>
+        <v>0.378861</v>
       </c>
       <c r="C136" t="n">
-        <v>0.324996</v>
+        <v>0.32838</v>
       </c>
       <c r="D136" t="n">
-        <v>0.358568</v>
+        <v>0.381597</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.377834</v>
+        <v>0.383213</v>
       </c>
       <c r="C137" t="n">
-        <v>0.333827</v>
+        <v>0.340478</v>
       </c>
       <c r="D137" t="n">
-        <v>0.370513</v>
+        <v>0.398822</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.433949</v>
+        <v>0.439683</v>
       </c>
       <c r="C138" t="n">
-        <v>0.297551</v>
+        <v>0.302447</v>
       </c>
       <c r="D138" t="n">
-        <v>0.32635</v>
+        <v>0.344256</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.434317</v>
+        <v>0.439927</v>
       </c>
       <c r="C139" t="n">
-        <v>0.300121</v>
+        <v>0.305186</v>
       </c>
       <c r="D139" t="n">
-        <v>0.32863</v>
+        <v>0.347216</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.434229</v>
+        <v>0.439101</v>
       </c>
       <c r="C140" t="n">
-        <v>0.303245</v>
+        <v>0.308294</v>
       </c>
       <c r="D140" t="n">
-        <v>0.331153</v>
+        <v>0.349832</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.434216</v>
+        <v>0.439489</v>
       </c>
       <c r="C141" t="n">
-        <v>0.306378</v>
+        <v>0.311227</v>
       </c>
       <c r="D141" t="n">
-        <v>0.333891</v>
+        <v>0.353124</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.434161</v>
+        <v>0.439581</v>
       </c>
       <c r="C142" t="n">
-        <v>0.308972</v>
+        <v>0.315003</v>
       </c>
       <c r="D142" t="n">
-        <v>0.337064</v>
+        <v>0.357383</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.434451</v>
+        <v>0.439393</v>
       </c>
       <c r="C143" t="n">
-        <v>0.313073</v>
+        <v>0.317292</v>
       </c>
       <c r="D143" t="n">
-        <v>0.340278</v>
+        <v>0.360613</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0422315</v>
+        <v>0.0451147</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0421602</v>
+        <v>0.0426789</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0484526</v>
+        <v>0.049545</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0429181</v>
+        <v>0.045054</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0424149</v>
+        <v>0.0427481</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0486844</v>
+        <v>0.0498894</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0430334</v>
+        <v>0.0452356</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0422973</v>
+        <v>0.0429122</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0487439</v>
+        <v>0.0502255</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0431097</v>
+        <v>0.0452685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0423944</v>
+        <v>0.0431085</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0492712</v>
+        <v>0.0505344</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0432065</v>
+        <v>0.0456223</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0425923</v>
+        <v>0.043507</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0494507</v>
+        <v>0.0507768</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0434935</v>
+        <v>0.0455813</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0429238</v>
+        <v>0.0438461</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0505056</v>
+        <v>0.0521648</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0437684</v>
+        <v>0.0461941</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0441003</v>
+        <v>0.0455639</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0528416</v>
+        <v>0.0553085</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0446636</v>
+        <v>0.047075</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0455043</v>
+        <v>0.0465692</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0589498</v>
+        <v>0.0609457</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0499188</v>
+        <v>0.0502113</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0462765</v>
+        <v>0.0458595</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0528963</v>
+        <v>0.0533389</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0497321</v>
+        <v>0.050135</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0465567</v>
+        <v>0.0463938</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0532523</v>
+        <v>0.0534462</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.049979</v>
+        <v>0.0501924</v>
       </c>
       <c r="C12" t="n">
-        <v>0.046851</v>
+        <v>0.046606</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0532177</v>
+        <v>0.0541017</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0502877</v>
+        <v>0.0504527</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0472955</v>
+        <v>0.0469406</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0539594</v>
+        <v>0.0539459</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0505117</v>
+        <v>0.0505867</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0476151</v>
+        <v>0.0472112</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0540586</v>
+        <v>0.0542654</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0505586</v>
+        <v>0.0506926</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0477816</v>
+        <v>0.0475703</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0545898</v>
+        <v>0.05455</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0504909</v>
+        <v>0.0508318</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0480781</v>
+        <v>0.0480385</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0542273</v>
+        <v>0.0549563</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0509117</v>
+        <v>0.0510443</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0483452</v>
+        <v>0.0483211</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0550016</v>
+        <v>0.0557156</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0509989</v>
+        <v>0.0512674</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0487849</v>
+        <v>0.0488185</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0555776</v>
+        <v>0.0558133</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0509237</v>
+        <v>0.0514288</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0490698</v>
+        <v>0.0492004</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0563824</v>
+        <v>0.0563991</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0514765</v>
+        <v>0.0517967</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0497769</v>
+        <v>0.0496234</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0575712</v>
+        <v>0.0576211</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0515124</v>
+        <v>0.0521659</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0504939</v>
+        <v>0.050762</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0599765</v>
+        <v>0.0603885</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0526967</v>
+        <v>0.0525968</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0528523</v>
+        <v>0.0526878</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06624289999999999</v>
+        <v>0.0664194</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0533935</v>
+        <v>0.053804</v>
       </c>
       <c r="C23" t="n">
-        <v>0.057254</v>
+        <v>0.0574723</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0779039</v>
+        <v>0.0788543</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0550501</v>
+        <v>0.055811</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0516281</v>
+        <v>0.0503144</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0597502</v>
+        <v>0.0580256</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0548064</v>
+        <v>0.0551335</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0521747</v>
+        <v>0.050537</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0600898</v>
+        <v>0.0590797</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0549375</v>
+        <v>0.0552091</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0524628</v>
+        <v>0.0505928</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0599068</v>
+        <v>0.0588027</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0550246</v>
+        <v>0.0553531</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0527636</v>
+        <v>0.0513786</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06015</v>
+        <v>0.0591668</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0552456</v>
+        <v>0.0554994</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0528865</v>
+        <v>0.0514822</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0601649</v>
+        <v>0.0597249</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0553771</v>
+        <v>0.0556565</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0535841</v>
+        <v>0.0516581</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0616413</v>
+        <v>0.0600263</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0555525</v>
+        <v>0.055869</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0540945</v>
+        <v>0.0520876</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0610038</v>
+        <v>0.0604665</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0557238</v>
+        <v>0.0560071</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0541443</v>
+        <v>0.0527825</v>
       </c>
       <c r="D31" t="n">
-        <v>0.06268650000000001</v>
+        <v>0.0612622</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.05602</v>
+        <v>0.0562539</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0545187</v>
+        <v>0.0531359</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0636765</v>
+        <v>0.0617154</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0562042</v>
+        <v>0.0564778</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0556896</v>
+        <v>0.053899</v>
       </c>
       <c r="D33" t="n">
-        <v>0.064406</v>
+        <v>0.0631588</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0564923</v>
+        <v>0.0567924</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0568595</v>
+        <v>0.0554056</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0665307</v>
+        <v>0.065902</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0569932</v>
+        <v>0.0572403</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0586599</v>
+        <v>0.0571825</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0711335</v>
+        <v>0.0707647</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0578065</v>
+        <v>0.0580533</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06261170000000001</v>
+        <v>0.0609136</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07818659999999999</v>
+        <v>0.07738970000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0602933</v>
+        <v>0.0608072</v>
       </c>
       <c r="C37" t="n">
-        <v>0.068721</v>
+        <v>0.0667913</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0874219</v>
+        <v>0.0863577</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0612929</v>
+        <v>0.0593398</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0557185</v>
+        <v>0.0553167</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0640869</v>
+        <v>0.06531099999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0600061</v>
+        <v>0.059697</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0563491</v>
+        <v>0.0559602</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0647392</v>
+        <v>0.06577</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0601287</v>
+        <v>0.0598064</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0571287</v>
+        <v>0.0564262</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0652288</v>
+        <v>0.0663796</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0602822</v>
+        <v>0.0599307</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0574579</v>
+        <v>0.0569525</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0659144</v>
+        <v>0.0667872</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0603783</v>
+        <v>0.0600143</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0582595</v>
+        <v>0.0563997</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0666071</v>
+        <v>0.0658338</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0605805</v>
+        <v>0.0602056</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0588672</v>
+        <v>0.057682</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06740309999999999</v>
+        <v>0.0680679</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0607841</v>
+        <v>0.0603933</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0597101</v>
+        <v>0.0584231</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0673704</v>
+        <v>0.0684157</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0609654</v>
+        <v>0.0606188</v>
       </c>
       <c r="C45" t="n">
-        <v>0.059618</v>
+        <v>0.0593518</v>
       </c>
       <c r="D45" t="n">
-        <v>0.068248</v>
+        <v>0.0699193</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0612177</v>
+        <v>0.06082</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0612004</v>
+        <v>0.0600319</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0689345</v>
+        <v>0.0710456</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.061557</v>
+        <v>0.0611435</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0620206</v>
+        <v>0.0611578</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0725267</v>
+        <v>0.07187200000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0619349</v>
+        <v>0.0615392</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0639</v>
+        <v>0.0629818</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0745276</v>
+        <v>0.0768223</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.06264160000000001</v>
+        <v>0.0621737</v>
       </c>
       <c r="C49" t="n">
-        <v>0.06646249999999999</v>
+        <v>0.0655872</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0779276</v>
+        <v>0.08037270000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06408419999999999</v>
+        <v>0.0636589</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06936299999999999</v>
+        <v>0.06890309999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0829187</v>
+        <v>0.0853314</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.067483</v>
+        <v>0.0671696</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0739659</v>
+        <v>0.07325950000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0907477</v>
+        <v>0.0933238</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0729316</v>
+        <v>0.0726002</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0806769</v>
+        <v>0.0792558</v>
       </c>
       <c r="D52" t="n">
-        <v>0.102844</v>
+        <v>0.104244</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0685144</v>
+        <v>0.06817479999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0572775</v>
+        <v>0.056848</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0651331</v>
+        <v>0.0649055</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0684052</v>
+        <v>0.0674976</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0578257</v>
+        <v>0.0575361</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06653199999999999</v>
+        <v>0.0673203</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0684212</v>
+        <v>0.0675171</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0584251</v>
+        <v>0.0579035</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0667133</v>
+        <v>0.06676020000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0685323</v>
+        <v>0.0676244</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0587994</v>
+        <v>0.0584729</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0666993</v>
+        <v>0.06867330000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0687193</v>
+        <v>0.06776840000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0587741</v>
+        <v>0.0591542</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0682416</v>
+        <v>0.0695404</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06890209999999999</v>
+        <v>0.06796870000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0602267</v>
+        <v>0.0598916</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06945369999999999</v>
+        <v>0.070537</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0691552</v>
+        <v>0.0681874</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0605529</v>
+        <v>0.0607556</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0702038</v>
+        <v>0.0717525</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0693627</v>
+        <v>0.06844450000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>0.062196</v>
+        <v>0.0620296</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0716644</v>
+        <v>0.0735215</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06970079999999999</v>
+        <v>0.0687871</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0636061</v>
+        <v>0.0626647</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0741704</v>
+        <v>0.0751124</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.07024179999999999</v>
+        <v>0.06929100000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0653251</v>
+        <v>0.06508559999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0769661</v>
+        <v>0.0782635</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0711073</v>
+        <v>0.0702507</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0677369</v>
+        <v>0.067451</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0794246</v>
+        <v>0.08175739999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0730939</v>
+        <v>0.07216980000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0703738</v>
+        <v>0.0704346</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0848747</v>
+        <v>0.086461</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0756653</v>
+        <v>0.0747478</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0740456</v>
+        <v>0.07417120000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0907854</v>
+        <v>0.0929695</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0798128</v>
+        <v>0.0788901</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0802387</v>
+        <v>0.08037519999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.10142</v>
+        <v>0.103354</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0786572</v>
+        <v>0.0837117</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0632699</v>
+        <v>0.0658759</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0721034</v>
+        <v>0.0761111</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0786839</v>
+        <v>0.0840746</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0637197</v>
+        <v>0.06647599999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07264370000000001</v>
+        <v>0.07670399999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0790291</v>
+        <v>0.0842806</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06439739999999999</v>
+        <v>0.06685240000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0733733</v>
+        <v>0.07726329999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0793678</v>
+        <v>0.0846713</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0652563</v>
+        <v>0.0675475</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0742931</v>
+        <v>0.0780626</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0796994</v>
+        <v>0.0847464</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0657847</v>
+        <v>0.0681185</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0749196</v>
+        <v>0.0787928</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0804025</v>
+        <v>0.0855158</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0665847</v>
+        <v>0.0691175</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0758988</v>
+        <v>0.0800824</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0809443</v>
+        <v>0.085565</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0676324</v>
+        <v>0.06993870000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0772766</v>
+        <v>0.08118259999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08115020000000001</v>
+        <v>0.08605690000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0688619</v>
+        <v>0.0712124</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0787928</v>
+        <v>0.0827681</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.081525</v>
+        <v>0.0865754</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0701273</v>
+        <v>0.07260179999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0805105</v>
+        <v>0.084698</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08225979999999999</v>
+        <v>0.08700040000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0716987</v>
+        <v>0.0741965</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0828159</v>
+        <v>0.0869679</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.08323700000000001</v>
+        <v>0.0879972</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0737042</v>
+        <v>0.0761566</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08584360000000001</v>
+        <v>0.08986860000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.08480169999999999</v>
+        <v>0.0898743</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0764302</v>
+        <v>0.0790087</v>
       </c>
       <c r="D78" t="n">
-        <v>0.090049</v>
+        <v>0.09430620000000001</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0870756</v>
+        <v>0.0921799</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0801197</v>
+        <v>0.0826311</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0965076</v>
+        <v>0.100584</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.090526</v>
+        <v>0.0953002</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08534609999999999</v>
+        <v>0.08774700000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.106081</v>
+        <v>0.10996</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.18209</v>
+        <v>0.18414</v>
       </c>
       <c r="C81" t="n">
-        <v>0.154367</v>
+        <v>0.153452</v>
       </c>
       <c r="D81" t="n">
-        <v>0.172039</v>
+        <v>0.172783</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182679</v>
+        <v>0.182113</v>
       </c>
       <c r="C82" t="n">
-        <v>0.155682</v>
+        <v>0.148639</v>
       </c>
       <c r="D82" t="n">
-        <v>0.173414</v>
+        <v>0.167798</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.183173</v>
+        <v>0.177795</v>
       </c>
       <c r="C83" t="n">
-        <v>0.154994</v>
+        <v>0.153733</v>
       </c>
       <c r="D83" t="n">
-        <v>0.172652</v>
+        <v>0.172967</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183944</v>
+        <v>0.183713</v>
       </c>
       <c r="C84" t="n">
-        <v>0.157921</v>
+        <v>0.153907</v>
       </c>
       <c r="D84" t="n">
-        <v>0.175986</v>
+        <v>0.173286</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.18645</v>
+        <v>0.184083</v>
       </c>
       <c r="C85" t="n">
-        <v>0.159345</v>
+        <v>0.15607</v>
       </c>
       <c r="D85" t="n">
-        <v>0.177724</v>
+        <v>0.175869</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.1862</v>
+        <v>0.187997</v>
       </c>
       <c r="C86" t="n">
-        <v>0.157277</v>
+        <v>0.157361</v>
       </c>
       <c r="D86" t="n">
-        <v>0.175065</v>
+        <v>0.177339</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.18673</v>
+        <v>0.18704</v>
       </c>
       <c r="C87" t="n">
-        <v>0.160302</v>
+        <v>0.159581</v>
       </c>
       <c r="D87" t="n">
-        <v>0.178826</v>
+        <v>0.179781</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.187378</v>
+        <v>0.187717</v>
       </c>
       <c r="C88" t="n">
-        <v>0.158828</v>
+        <v>0.158246</v>
       </c>
       <c r="D88" t="n">
-        <v>0.177451</v>
+        <v>0.178848</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.187175</v>
+        <v>0.187725</v>
       </c>
       <c r="C89" t="n">
-        <v>0.163345</v>
+        <v>0.160907</v>
       </c>
       <c r="D89" t="n">
-        <v>0.182757</v>
+        <v>0.182108</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.187816</v>
+        <v>0.189234</v>
       </c>
       <c r="C90" t="n">
-        <v>0.162951</v>
+        <v>0.160206</v>
       </c>
       <c r="D90" t="n">
-        <v>0.18279</v>
+        <v>0.18178</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.18873</v>
+        <v>0.188015</v>
       </c>
       <c r="C91" t="n">
-        <v>0.164443</v>
+        <v>0.161247</v>
       </c>
       <c r="D91" t="n">
-        <v>0.185135</v>
+        <v>0.183417</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190643</v>
+        <v>0.190548</v>
       </c>
       <c r="C92" t="n">
-        <v>0.165252</v>
+        <v>0.163159</v>
       </c>
       <c r="D92" t="n">
-        <v>0.186629</v>
+        <v>0.186608</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190934</v>
+        <v>0.190603</v>
       </c>
       <c r="C93" t="n">
-        <v>0.167469</v>
+        <v>0.167593</v>
       </c>
       <c r="D93" t="n">
-        <v>0.191171</v>
+        <v>0.193704</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.192651</v>
+        <v>0.195706</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171811</v>
+        <v>0.171409</v>
       </c>
       <c r="D94" t="n">
-        <v>0.199281</v>
+        <v>0.200951</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.254477</v>
+        <v>0.252148</v>
       </c>
       <c r="C95" t="n">
-        <v>0.232868</v>
+        <v>0.23227</v>
       </c>
       <c r="D95" t="n">
-        <v>0.268432</v>
+        <v>0.269118</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.254151</v>
+        <v>0.254616</v>
       </c>
       <c r="C96" t="n">
-        <v>0.233846</v>
+        <v>0.233467</v>
       </c>
       <c r="D96" t="n">
-        <v>0.269226</v>
+        <v>0.27035</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.254697</v>
+        <v>0.255324</v>
       </c>
       <c r="C97" t="n">
-        <v>0.234838</v>
+        <v>0.234551</v>
       </c>
       <c r="D97" t="n">
-        <v>0.270332</v>
+        <v>0.271625</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.254499</v>
+        <v>0.255223</v>
       </c>
       <c r="C98" t="n">
-        <v>0.236792</v>
+        <v>0.235584</v>
       </c>
       <c r="D98" t="n">
-        <v>0.271894</v>
+        <v>0.272505</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.25447</v>
+        <v>0.255337</v>
       </c>
       <c r="C99" t="n">
-        <v>0.237553</v>
+        <v>0.237044</v>
       </c>
       <c r="D99" t="n">
-        <v>0.27339</v>
+        <v>0.274015</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.254575</v>
+        <v>0.255317</v>
       </c>
       <c r="C100" t="n">
-        <v>0.239214</v>
+        <v>0.239053</v>
       </c>
       <c r="D100" t="n">
-        <v>0.274565</v>
+        <v>0.275598</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.254648</v>
+        <v>0.255412</v>
       </c>
       <c r="C101" t="n">
-        <v>0.241059</v>
+        <v>0.24077</v>
       </c>
       <c r="D101" t="n">
-        <v>0.276552</v>
+        <v>0.277852</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.255459</v>
+        <v>0.255805</v>
       </c>
       <c r="C102" t="n">
-        <v>0.241545</v>
+        <v>0.242529</v>
       </c>
       <c r="D102" t="n">
-        <v>0.278126</v>
+        <v>0.27924</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.255023</v>
+        <v>0.256536</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243216</v>
+        <v>0.244202</v>
       </c>
       <c r="D103" t="n">
-        <v>0.28041</v>
+        <v>0.281962</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.255978</v>
+        <v>0.256453</v>
       </c>
       <c r="C104" t="n">
-        <v>0.246034</v>
+        <v>0.246104</v>
       </c>
       <c r="D104" t="n">
-        <v>0.282264</v>
+        <v>0.284424</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.256396</v>
+        <v>0.256694</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248274</v>
+        <v>0.24835</v>
       </c>
       <c r="D105" t="n">
-        <v>0.284794</v>
+        <v>0.287318</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.256911</v>
+        <v>0.258317</v>
       </c>
       <c r="C106" t="n">
-        <v>0.251171</v>
+        <v>0.250964</v>
       </c>
       <c r="D106" t="n">
-        <v>0.289389</v>
+        <v>0.290883</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258882</v>
+        <v>0.259127</v>
       </c>
       <c r="C107" t="n">
-        <v>0.253056</v>
+        <v>0.254403</v>
       </c>
       <c r="D107" t="n">
-        <v>0.292665</v>
+        <v>0.296021</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.260624</v>
+        <v>0.263131</v>
       </c>
       <c r="C108" t="n">
-        <v>0.258636</v>
+        <v>0.259439</v>
       </c>
       <c r="D108" t="n">
-        <v>0.301163</v>
+        <v>0.298024</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265881</v>
+        <v>0.267042</v>
       </c>
       <c r="C109" t="n">
-        <v>0.265279</v>
+        <v>0.265548</v>
       </c>
       <c r="D109" t="n">
-        <v>0.313909</v>
+        <v>0.316977</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.290912</v>
+        <v>0.292166</v>
       </c>
       <c r="C110" t="n">
-        <v>0.266739</v>
+        <v>0.265455</v>
       </c>
       <c r="D110" t="n">
-        <v>0.306928</v>
+        <v>0.30775</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.291035</v>
+        <v>0.291106</v>
       </c>
       <c r="C111" t="n">
-        <v>0.266602</v>
+        <v>0.266128</v>
       </c>
       <c r="D111" t="n">
-        <v>0.308674</v>
+        <v>0.309771</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.289693</v>
+        <v>0.292014</v>
       </c>
       <c r="C112" t="n">
-        <v>0.264911</v>
+        <v>0.263876</v>
       </c>
       <c r="D112" t="n">
-        <v>0.310943</v>
+        <v>0.312474</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.290299</v>
+        <v>0.292595</v>
       </c>
       <c r="C113" t="n">
-        <v>0.264734</v>
+        <v>0.263972</v>
       </c>
       <c r="D113" t="n">
-        <v>0.312987</v>
+        <v>0.314377</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.290629</v>
+        <v>0.29125</v>
       </c>
       <c r="C114" t="n">
-        <v>0.26742</v>
+        <v>0.267498</v>
       </c>
       <c r="D114" t="n">
-        <v>0.313646</v>
+        <v>0.317114</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.290972</v>
+        <v>0.2912</v>
       </c>
       <c r="C115" t="n">
-        <v>0.269259</v>
+        <v>0.269961</v>
       </c>
       <c r="D115" t="n">
-        <v>0.30876</v>
+        <v>0.312239</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.290838</v>
+        <v>0.290957</v>
       </c>
       <c r="C116" t="n">
-        <v>0.273374</v>
+        <v>0.272955</v>
       </c>
       <c r="D116" t="n">
-        <v>0.313893</v>
+        <v>0.315919</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.291474</v>
+        <v>0.291538</v>
       </c>
       <c r="C117" t="n">
-        <v>0.277083</v>
+        <v>0.27512</v>
       </c>
       <c r="D117" t="n">
-        <v>0.317748</v>
+        <v>0.317565</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.292023</v>
+        <v>0.293064</v>
       </c>
       <c r="C118" t="n">
-        <v>0.278866</v>
+        <v>0.278639</v>
       </c>
       <c r="D118" t="n">
-        <v>0.319752</v>
+        <v>0.322907</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.292501</v>
+        <v>0.294622</v>
       </c>
       <c r="C119" t="n">
-        <v>0.283567</v>
+        <v>0.282185</v>
       </c>
       <c r="D119" t="n">
-        <v>0.324605</v>
+        <v>0.325932</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.294668</v>
+        <v>0.294868</v>
       </c>
       <c r="C120" t="n">
-        <v>0.286849</v>
+        <v>0.286828</v>
       </c>
       <c r="D120" t="n">
-        <v>0.327116</v>
+        <v>0.329732</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.294387</v>
+        <v>0.296746</v>
       </c>
       <c r="C121" t="n">
-        <v>0.290414</v>
+        <v>0.289923</v>
       </c>
       <c r="D121" t="n">
-        <v>0.333903</v>
+        <v>0.336367</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.2994</v>
+        <v>0.298659</v>
       </c>
       <c r="C122" t="n">
-        <v>0.295723</v>
+        <v>0.295148</v>
       </c>
       <c r="D122" t="n">
-        <v>0.344389</v>
+        <v>0.346089</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.301145</v>
+        <v>0.30284</v>
       </c>
       <c r="C123" t="n">
-        <v>0.303421</v>
+        <v>0.303155</v>
       </c>
       <c r="D123" t="n">
-        <v>0.358271</v>
+        <v>0.360066</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.373756</v>
+        <v>0.373778</v>
       </c>
       <c r="C124" t="n">
-        <v>0.278943</v>
+        <v>0.278249</v>
       </c>
       <c r="D124" t="n">
-        <v>0.329731</v>
+        <v>0.330862</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.372077</v>
+        <v>0.372176</v>
       </c>
       <c r="C125" t="n">
-        <v>0.282011</v>
+        <v>0.281507</v>
       </c>
       <c r="D125" t="n">
-        <v>0.323411</v>
+        <v>0.324668</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.372446</v>
+        <v>0.374884</v>
       </c>
       <c r="C126" t="n">
-        <v>0.284995</v>
+        <v>0.284634</v>
       </c>
       <c r="D126" t="n">
-        <v>0.326372</v>
+        <v>0.328486</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.373615</v>
+        <v>0.374132</v>
       </c>
       <c r="C127" t="n">
-        <v>0.288211</v>
+        <v>0.288133</v>
       </c>
       <c r="D127" t="n">
-        <v>0.329474</v>
+        <v>0.331751</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.374642</v>
+        <v>0.373715</v>
       </c>
       <c r="C128" t="n">
-        <v>0.291604</v>
+        <v>0.29098</v>
       </c>
       <c r="D128" t="n">
-        <v>0.333138</v>
+        <v>0.33487</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.373816</v>
+        <v>0.373245</v>
       </c>
       <c r="C129" t="n">
-        <v>0.295227</v>
+        <v>0.295008</v>
       </c>
       <c r="D129" t="n">
-        <v>0.336804</v>
+        <v>0.338736</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.372873</v>
+        <v>0.375063</v>
       </c>
       <c r="C130" t="n">
-        <v>0.299607</v>
+        <v>0.298475</v>
       </c>
       <c r="D130" t="n">
-        <v>0.341716</v>
+        <v>0.34263</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.373776</v>
+        <v>0.373928</v>
       </c>
       <c r="C131" t="n">
-        <v>0.305046</v>
+        <v>0.302702</v>
       </c>
       <c r="D131" t="n">
-        <v>0.347544</v>
+        <v>0.347345</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.375247</v>
+        <v>0.376762</v>
       </c>
       <c r="C132" t="n">
-        <v>0.307571</v>
+        <v>0.306937</v>
       </c>
       <c r="D132" t="n">
-        <v>0.351072</v>
+        <v>0.352443</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.374896</v>
+        <v>0.375836</v>
       </c>
       <c r="C133" t="n">
-        <v>0.311511</v>
+        <v>0.311554</v>
       </c>
       <c r="D133" t="n">
-        <v>0.355476</v>
+        <v>0.358089</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.374006</v>
+        <v>0.376329</v>
       </c>
       <c r="C134" t="n">
-        <v>0.316487</v>
+        <v>0.316166</v>
       </c>
       <c r="D134" t="n">
-        <v>0.363084</v>
+        <v>0.365036</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.376493</v>
+        <v>0.378865</v>
       </c>
       <c r="C135" t="n">
-        <v>0.321909</v>
+        <v>0.321283</v>
       </c>
       <c r="D135" t="n">
-        <v>0.370901</v>
+        <v>0.373109</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.378861</v>
+        <v>0.378819</v>
       </c>
       <c r="C136" t="n">
-        <v>0.32838</v>
+        <v>0.329161</v>
       </c>
       <c r="D136" t="n">
-        <v>0.381597</v>
+        <v>0.384325</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.383213</v>
+        <v>0.382649</v>
       </c>
       <c r="C137" t="n">
-        <v>0.340478</v>
+        <v>0.337774</v>
       </c>
       <c r="D137" t="n">
-        <v>0.398822</v>
+        <v>0.397869</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.439683</v>
+        <v>0.440474</v>
       </c>
       <c r="C138" t="n">
-        <v>0.302447</v>
+        <v>0.300513</v>
       </c>
       <c r="D138" t="n">
-        <v>0.344256</v>
+        <v>0.344894</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.439927</v>
+        <v>0.440038</v>
       </c>
       <c r="C139" t="n">
-        <v>0.305186</v>
+        <v>0.30338</v>
       </c>
       <c r="D139" t="n">
-        <v>0.347216</v>
+        <v>0.347804</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.439101</v>
+        <v>0.440168</v>
       </c>
       <c r="C140" t="n">
-        <v>0.308294</v>
+        <v>0.306818</v>
       </c>
       <c r="D140" t="n">
-        <v>0.349832</v>
+        <v>0.350693</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.439489</v>
+        <v>0.440542</v>
       </c>
       <c r="C141" t="n">
-        <v>0.311227</v>
+        <v>0.309663</v>
       </c>
       <c r="D141" t="n">
-        <v>0.353124</v>
+        <v>0.353577</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.439581</v>
+        <v>0.440561</v>
       </c>
       <c r="C142" t="n">
-        <v>0.315003</v>
+        <v>0.312616</v>
       </c>
       <c r="D142" t="n">
-        <v>0.357383</v>
+        <v>0.35752</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.439393</v>
+        <v>0.441212</v>
       </c>
       <c r="C143" t="n">
-        <v>0.317292</v>
+        <v>0.315591</v>
       </c>
       <c r="D143" t="n">
-        <v>0.360613</v>
+        <v>0.361299</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0451147</v>
+        <v>0.0526248</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0426789</v>
+        <v>0.0473969</v>
       </c>
       <c r="D2" t="n">
-        <v>0.049545</v>
+        <v>0.0494695</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.045054</v>
+        <v>0.0528243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0427481</v>
+        <v>0.0473228</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0498894</v>
+        <v>0.0492145</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0452356</v>
+        <v>0.0525093</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0429122</v>
+        <v>0.0474859</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0502255</v>
+        <v>0.0498896</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0452685</v>
+        <v>0.0528457</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0431085</v>
+        <v>0.0476978</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0505344</v>
+        <v>0.0504785</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0456223</v>
+        <v>0.0533289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.043507</v>
+        <v>0.0479981</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0507768</v>
+        <v>0.0504601</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0455813</v>
+        <v>0.0529965</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0438461</v>
+        <v>0.0485349</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0521648</v>
+        <v>0.0517202</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0461941</v>
+        <v>0.0540761</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0455639</v>
+        <v>0.0494737</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0553085</v>
+        <v>0.0535116</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.047075</v>
+        <v>0.0546767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0465692</v>
+        <v>0.0514556</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0609457</v>
+        <v>0.0585862</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0502113</v>
+        <v>0.0527443</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0458595</v>
+        <v>0.0478931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0533389</v>
+        <v>0.0504914</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.050135</v>
+        <v>0.0525862</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0463938</v>
+        <v>0.0481714</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0534462</v>
+        <v>0.050872</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0501924</v>
+        <v>0.0522011</v>
       </c>
       <c r="C12" t="n">
-        <v>0.046606</v>
+        <v>0.0482106</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0541017</v>
+        <v>0.0512432</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0504527</v>
+        <v>0.0524934</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0469406</v>
+        <v>0.048793</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0539459</v>
+        <v>0.0515862</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0505867</v>
+        <v>0.0524433</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0472112</v>
+        <v>0.0488977</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0542654</v>
+        <v>0.0513466</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0506926</v>
+        <v>0.0524827</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0475703</v>
+        <v>0.0493459</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05455</v>
+        <v>0.0521789</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0508318</v>
+        <v>0.0526402</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0480385</v>
+        <v>0.0495566</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0549563</v>
+        <v>0.0524632</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0510443</v>
+        <v>0.0529127</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0483211</v>
+        <v>0.049836</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0557156</v>
+        <v>0.0521219</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0512674</v>
+        <v>0.0531826</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0488185</v>
+        <v>0.0503071</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0558133</v>
+        <v>0.0530558</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0514288</v>
+        <v>0.0532478</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0492004</v>
+        <v>0.0505469</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0563991</v>
+        <v>0.0533239</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0517967</v>
+        <v>0.0534669</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0496234</v>
+        <v>0.0511212</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0576211</v>
+        <v>0.0547005</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0521659</v>
+        <v>0.0538195</v>
       </c>
       <c r="C21" t="n">
-        <v>0.050762</v>
+        <v>0.0521369</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0603885</v>
+        <v>0.057081</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0525968</v>
+        <v>0.0545776</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0526878</v>
+        <v>0.0536041</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0664194</v>
+        <v>0.0623608</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.053804</v>
+        <v>0.0559164</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0574723</v>
+        <v>0.0590667</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0788543</v>
+        <v>0.07488160000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.055811</v>
+        <v>0.0571534</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0503144</v>
+        <v>0.0519765</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0580256</v>
+        <v>0.0551544</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0551335</v>
+        <v>0.0560903</v>
       </c>
       <c r="C25" t="n">
-        <v>0.050537</v>
+        <v>0.0523032</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0590797</v>
+        <v>0.0556033</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0552091</v>
+        <v>0.0561061</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0505928</v>
+        <v>0.0524821</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0588027</v>
+        <v>0.0558924</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0553531</v>
+        <v>0.0561774</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0513786</v>
+        <v>0.0529323</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0591668</v>
+        <v>0.0562042</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0554994</v>
+        <v>0.0563497</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0514822</v>
+        <v>0.0533519</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0597249</v>
+        <v>0.0563692</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0556565</v>
+        <v>0.0564583</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0516581</v>
+        <v>0.0531688</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0600263</v>
+        <v>0.0566265</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.055869</v>
+        <v>0.0566594</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0520876</v>
+        <v>0.0539895</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0604665</v>
+        <v>0.0570512</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0560071</v>
+        <v>0.056778</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0527825</v>
+        <v>0.0541906</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0612622</v>
+        <v>0.0578185</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0562539</v>
+        <v>0.0570284</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0531359</v>
+        <v>0.0546457</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0617154</v>
+        <v>0.0583957</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0564778</v>
+        <v>0.0573088</v>
       </c>
       <c r="C33" t="n">
-        <v>0.053899</v>
+        <v>0.0551087</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0631588</v>
+        <v>0.0596907</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0567924</v>
+        <v>0.0576003</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0554056</v>
+        <v>0.0562926</v>
       </c>
       <c r="D34" t="n">
-        <v>0.065902</v>
+        <v>0.0614814</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0572403</v>
+        <v>0.0580707</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0571825</v>
+        <v>0.0583699</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0707647</v>
+        <v>0.0666433</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0580533</v>
+        <v>0.0588116</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0609136</v>
+        <v>0.0624821</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07738970000000001</v>
+        <v>0.0733008</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0608072</v>
+        <v>0.0614669</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0667913</v>
+        <v>0.06853339999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0863577</v>
+        <v>0.0820714</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0593398</v>
+        <v>0.0615429</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0553167</v>
+        <v>0.0568649</v>
       </c>
       <c r="D38" t="n">
-        <v>0.06531099999999999</v>
+        <v>0.0603955</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.059697</v>
+        <v>0.0603223</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0559602</v>
+        <v>0.0572505</v>
       </c>
       <c r="D39" t="n">
-        <v>0.06577</v>
+        <v>0.0602032</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0598064</v>
+        <v>0.0604083</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0564262</v>
+        <v>0.0578906</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0663796</v>
+        <v>0.0612042</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0599307</v>
+        <v>0.0605593</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0569525</v>
+        <v>0.0580772</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0667872</v>
+        <v>0.0618936</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0600143</v>
+        <v>0.0606342</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0563997</v>
+        <v>0.0584163</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0658338</v>
+        <v>0.062366</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0602056</v>
+        <v>0.0607848</v>
       </c>
       <c r="C43" t="n">
-        <v>0.057682</v>
+        <v>0.059287</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0680679</v>
+        <v>0.06290419999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0603933</v>
+        <v>0.0609761</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0584231</v>
+        <v>0.05967</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0684157</v>
+        <v>0.0633406</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0606188</v>
+        <v>0.0611495</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0593518</v>
+        <v>0.0600529</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0699193</v>
+        <v>0.0643864</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06082</v>
+        <v>0.0613377</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0600319</v>
+        <v>0.0609418</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0710456</v>
+        <v>0.0648741</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0611435</v>
+        <v>0.0616935</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0611578</v>
+        <v>0.0621397</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07187200000000001</v>
+        <v>0.06770569999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0615392</v>
+        <v>0.0620217</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0629818</v>
+        <v>0.0636679</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0768223</v>
+        <v>0.0707462</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0621737</v>
+        <v>0.0626924</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0655872</v>
+        <v>0.065932</v>
       </c>
       <c r="D49" t="n">
-        <v>0.08037270000000001</v>
+        <v>0.0741478</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0636589</v>
+        <v>0.06421930000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06890309999999999</v>
+        <v>0.0688638</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0853314</v>
+        <v>0.07880669999999999</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0671696</v>
+        <v>0.0678151</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07325950000000001</v>
+        <v>0.0740021</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0933238</v>
+        <v>0.0858014</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0726002</v>
+        <v>0.0731511</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0792558</v>
+        <v>0.0804111</v>
       </c>
       <c r="D52" t="n">
-        <v>0.104244</v>
+        <v>0.09723619999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06817479999999999</v>
+        <v>0.0666996</v>
       </c>
       <c r="C53" t="n">
-        <v>0.056848</v>
+        <v>0.0584305</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0649055</v>
+        <v>0.0621989</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0674976</v>
+        <v>0.0667007</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0575361</v>
+        <v>0.05886</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0673203</v>
+        <v>0.0646065</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0675171</v>
+        <v>0.0666776</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0579035</v>
+        <v>0.0612762</v>
       </c>
       <c r="D55" t="n">
-        <v>0.06676020000000001</v>
+        <v>0.0652544</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0676244</v>
+        <v>0.0667193</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0584729</v>
+        <v>0.0618381</v>
       </c>
       <c r="D56" t="n">
-        <v>0.06867330000000001</v>
+        <v>0.0658995</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.06776840000000001</v>
+        <v>0.0669102</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0591542</v>
+        <v>0.0624622</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0695404</v>
+        <v>0.0666897</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06796870000000001</v>
+        <v>0.06703050000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0598916</v>
+        <v>0.06309149999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.070537</v>
+        <v>0.067589</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0681874</v>
+        <v>0.0674169</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0607556</v>
+        <v>0.0640729</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0717525</v>
+        <v>0.06882580000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.06844450000000001</v>
+        <v>0.0676914</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0620296</v>
+        <v>0.06509520000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0735215</v>
+        <v>0.0703531</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0687871</v>
+        <v>0.0680026</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0626647</v>
+        <v>0.0665666</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0751124</v>
+        <v>0.0724134</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.06929100000000001</v>
+        <v>0.0685902</v>
       </c>
       <c r="C62" t="n">
-        <v>0.06508559999999999</v>
+        <v>0.0682591</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0782635</v>
+        <v>0.0748716</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0702507</v>
+        <v>0.0694246</v>
       </c>
       <c r="C63" t="n">
-        <v>0.067451</v>
+        <v>0.0705329</v>
       </c>
       <c r="D63" t="n">
-        <v>0.08175739999999999</v>
+        <v>0.0782957</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.07216980000000001</v>
+        <v>0.0713356</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0704346</v>
+        <v>0.0735082</v>
       </c>
       <c r="D64" t="n">
-        <v>0.086461</v>
+        <v>0.0828221</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0747478</v>
+        <v>0.0740102</v>
       </c>
       <c r="C65" t="n">
-        <v>0.07417120000000001</v>
+        <v>0.0774458</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0929695</v>
+        <v>0.0899182</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0788901</v>
+        <v>0.0783648</v>
       </c>
       <c r="C66" t="n">
-        <v>0.08037519999999999</v>
+        <v>0.0838453</v>
       </c>
       <c r="D66" t="n">
-        <v>0.103354</v>
+        <v>0.100947</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0837117</v>
+        <v>0.122741</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0658759</v>
+        <v>0.0885251</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0761111</v>
+        <v>0.0928653</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0840746</v>
+        <v>0.123173</v>
       </c>
       <c r="C68" t="n">
-        <v>0.06647599999999999</v>
+        <v>0.0886062</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07670399999999999</v>
+        <v>0.0931115</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0842806</v>
+        <v>0.124086</v>
       </c>
       <c r="C69" t="n">
-        <v>0.06685240000000001</v>
+        <v>0.0893747</v>
       </c>
       <c r="D69" t="n">
-        <v>0.07726329999999999</v>
+        <v>0.0939579</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0846713</v>
+        <v>0.124531</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0675475</v>
+        <v>0.0897276</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0780626</v>
+        <v>0.0943503</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0847464</v>
+        <v>0.125012</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0681185</v>
+        <v>0.0900039</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0787928</v>
+        <v>0.0947335</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.0855158</v>
+        <v>0.125485</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0691175</v>
+        <v>0.0902829</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0800824</v>
+        <v>0.09525459999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.085565</v>
+        <v>0.125784</v>
       </c>
       <c r="C73" t="n">
-        <v>0.06993870000000001</v>
+        <v>0.09098630000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08118259999999999</v>
+        <v>0.0961436</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.08605690000000001</v>
+        <v>0.126199</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0712124</v>
+        <v>0.0918807</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0827681</v>
+        <v>0.0973627</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.0865754</v>
+        <v>0.126549</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07260179999999999</v>
+        <v>0.09304179999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.084698</v>
+        <v>0.09886730000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.08700040000000001</v>
+        <v>0.127415</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0741965</v>
+        <v>0.0942491</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0869679</v>
+        <v>0.100738</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0879972</v>
+        <v>0.128252</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0761566</v>
+        <v>0.0959132</v>
       </c>
       <c r="D77" t="n">
-        <v>0.08986860000000001</v>
+        <v>0.103269</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.0898743</v>
+        <v>0.129257</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0790087</v>
+        <v>0.0981392</v>
       </c>
       <c r="D78" t="n">
-        <v>0.09430620000000001</v>
+        <v>0.106937</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.0921799</v>
+        <v>0.130966</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0826311</v>
+        <v>0.10132</v>
       </c>
       <c r="D79" t="n">
-        <v>0.100584</v>
+        <v>0.112666</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0953002</v>
+        <v>0.133669</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08774700000000001</v>
+        <v>0.106229</v>
       </c>
       <c r="D80" t="n">
-        <v>0.10996</v>
+        <v>0.121734</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.18414</v>
+        <v>0.181107</v>
       </c>
       <c r="C81" t="n">
-        <v>0.153452</v>
+        <v>0.15865</v>
       </c>
       <c r="D81" t="n">
-        <v>0.172783</v>
+        <v>0.162592</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.182113</v>
+        <v>0.186092</v>
       </c>
       <c r="C82" t="n">
-        <v>0.148639</v>
+        <v>0.157071</v>
       </c>
       <c r="D82" t="n">
-        <v>0.167798</v>
+        <v>0.161029</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.177795</v>
+        <v>0.187154</v>
       </c>
       <c r="C83" t="n">
-        <v>0.153733</v>
+        <v>0.151691</v>
       </c>
       <c r="D83" t="n">
-        <v>0.172967</v>
+        <v>0.155862</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.183713</v>
+        <v>0.17851</v>
       </c>
       <c r="C84" t="n">
-        <v>0.153907</v>
+        <v>0.152048</v>
       </c>
       <c r="D84" t="n">
-        <v>0.173286</v>
+        <v>0.156178</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.184083</v>
+        <v>0.180049</v>
       </c>
       <c r="C85" t="n">
-        <v>0.15607</v>
+        <v>0.166907</v>
       </c>
       <c r="D85" t="n">
-        <v>0.175869</v>
+        <v>0.171283</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.187997</v>
+        <v>0.193638</v>
       </c>
       <c r="C86" t="n">
-        <v>0.157361</v>
+        <v>0.162428</v>
       </c>
       <c r="D86" t="n">
-        <v>0.177339</v>
+        <v>0.166641</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.18704</v>
+        <v>0.18842</v>
       </c>
       <c r="C87" t="n">
-        <v>0.159581</v>
+        <v>0.169841</v>
       </c>
       <c r="D87" t="n">
-        <v>0.179781</v>
+        <v>0.174446</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.187717</v>
+        <v>0.192766</v>
       </c>
       <c r="C88" t="n">
-        <v>0.158246</v>
+        <v>0.160102</v>
       </c>
       <c r="D88" t="n">
-        <v>0.178848</v>
+        <v>0.165038</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.187725</v>
+        <v>0.184959</v>
       </c>
       <c r="C89" t="n">
-        <v>0.160907</v>
+        <v>0.17346</v>
       </c>
       <c r="D89" t="n">
-        <v>0.182108</v>
+        <v>0.178741</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.189234</v>
+        <v>0.196061</v>
       </c>
       <c r="C90" t="n">
-        <v>0.160206</v>
+        <v>0.171553</v>
       </c>
       <c r="D90" t="n">
-        <v>0.18178</v>
+        <v>0.17727</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.188015</v>
+        <v>0.193043</v>
       </c>
       <c r="C91" t="n">
-        <v>0.161247</v>
+        <v>0.170652</v>
       </c>
       <c r="D91" t="n">
-        <v>0.183417</v>
+        <v>0.177277</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190548</v>
+        <v>0.190242</v>
       </c>
       <c r="C92" t="n">
-        <v>0.163159</v>
+        <v>0.174571</v>
       </c>
       <c r="D92" t="n">
-        <v>0.186608</v>
+        <v>0.182329</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.190603</v>
+        <v>0.195498</v>
       </c>
       <c r="C93" t="n">
-        <v>0.167593</v>
+        <v>0.18433</v>
       </c>
       <c r="D93" t="n">
-        <v>0.193704</v>
+        <v>0.194271</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.195706</v>
+        <v>0.204256</v>
       </c>
       <c r="C94" t="n">
-        <v>0.171409</v>
+        <v>0.181131</v>
       </c>
       <c r="D94" t="n">
-        <v>0.200951</v>
+        <v>0.195156</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.252148</v>
+        <v>0.255233</v>
       </c>
       <c r="C95" t="n">
-        <v>0.23227</v>
+        <v>0.231483</v>
       </c>
       <c r="D95" t="n">
-        <v>0.269118</v>
+        <v>0.22835</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.254616</v>
+        <v>0.254751</v>
       </c>
       <c r="C96" t="n">
-        <v>0.233467</v>
+        <v>0.23298</v>
       </c>
       <c r="D96" t="n">
-        <v>0.27035</v>
+        <v>0.237774</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.255324</v>
+        <v>0.255006</v>
       </c>
       <c r="C97" t="n">
-        <v>0.234551</v>
+        <v>0.233934</v>
       </c>
       <c r="D97" t="n">
-        <v>0.271625</v>
+        <v>0.239133</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.255223</v>
+        <v>0.254812</v>
       </c>
       <c r="C98" t="n">
-        <v>0.235584</v>
+        <v>0.235453</v>
       </c>
       <c r="D98" t="n">
-        <v>0.272505</v>
+        <v>0.231469</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.255337</v>
+        <v>0.25563</v>
       </c>
       <c r="C99" t="n">
-        <v>0.237044</v>
+        <v>0.237173</v>
       </c>
       <c r="D99" t="n">
-        <v>0.274015</v>
+        <v>0.242727</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.255317</v>
+        <v>0.255666</v>
       </c>
       <c r="C100" t="n">
-        <v>0.239053</v>
+        <v>0.239096</v>
       </c>
       <c r="D100" t="n">
-        <v>0.275598</v>
+        <v>0.244501</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.255412</v>
+        <v>0.255781</v>
       </c>
       <c r="C101" t="n">
-        <v>0.24077</v>
+        <v>0.240613</v>
       </c>
       <c r="D101" t="n">
-        <v>0.277852</v>
+        <v>0.24575</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.255805</v>
+        <v>0.253232</v>
       </c>
       <c r="C102" t="n">
-        <v>0.242529</v>
+        <v>0.242721</v>
       </c>
       <c r="D102" t="n">
-        <v>0.27924</v>
+        <v>0.248415</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.256536</v>
+        <v>0.254788</v>
       </c>
       <c r="C103" t="n">
-        <v>0.244202</v>
+        <v>0.245257</v>
       </c>
       <c r="D103" t="n">
-        <v>0.281962</v>
+        <v>0.250728</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.256453</v>
+        <v>0.257238</v>
       </c>
       <c r="C104" t="n">
-        <v>0.246104</v>
+        <v>0.247012</v>
       </c>
       <c r="D104" t="n">
-        <v>0.284424</v>
+        <v>0.252974</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.256694</v>
+        <v>0.257669</v>
       </c>
       <c r="C105" t="n">
-        <v>0.24835</v>
+        <v>0.248863</v>
       </c>
       <c r="D105" t="n">
-        <v>0.287318</v>
+        <v>0.256658</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.258317</v>
+        <v>0.255935</v>
       </c>
       <c r="C106" t="n">
-        <v>0.250964</v>
+        <v>0.252123</v>
       </c>
       <c r="D106" t="n">
-        <v>0.290883</v>
+        <v>0.260497</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.259127</v>
+        <v>0.259684</v>
       </c>
       <c r="C107" t="n">
-        <v>0.254403</v>
+        <v>0.255471</v>
       </c>
       <c r="D107" t="n">
-        <v>0.296021</v>
+        <v>0.265193</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.263131</v>
+        <v>0.262476</v>
       </c>
       <c r="C108" t="n">
-        <v>0.259439</v>
+        <v>0.259263</v>
       </c>
       <c r="D108" t="n">
-        <v>0.298024</v>
+        <v>0.273681</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.267042</v>
+        <v>0.265713</v>
       </c>
       <c r="C109" t="n">
-        <v>0.265548</v>
+        <v>0.259092</v>
       </c>
       <c r="D109" t="n">
-        <v>0.316977</v>
+        <v>0.280512</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.292166</v>
+        <v>0.296842</v>
       </c>
       <c r="C110" t="n">
-        <v>0.265455</v>
+        <v>0.265162</v>
       </c>
       <c r="D110" t="n">
-        <v>0.30775</v>
+        <v>0.27237</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.291106</v>
+        <v>0.292316</v>
       </c>
       <c r="C111" t="n">
-        <v>0.266128</v>
+        <v>0.266538</v>
       </c>
       <c r="D111" t="n">
-        <v>0.309771</v>
+        <v>0.27389</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.292014</v>
+        <v>0.292912</v>
       </c>
       <c r="C112" t="n">
-        <v>0.263876</v>
+        <v>0.262991</v>
       </c>
       <c r="D112" t="n">
-        <v>0.312474</v>
+        <v>0.270155</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.292595</v>
+        <v>0.29189</v>
       </c>
       <c r="C113" t="n">
-        <v>0.263972</v>
+        <v>0.262571</v>
       </c>
       <c r="D113" t="n">
-        <v>0.314377</v>
+        <v>0.269881</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.29125</v>
+        <v>0.295029</v>
       </c>
       <c r="C114" t="n">
-        <v>0.267498</v>
+        <v>0.266488</v>
       </c>
       <c r="D114" t="n">
-        <v>0.317114</v>
+        <v>0.274262</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.2912</v>
+        <v>0.295659</v>
       </c>
       <c r="C115" t="n">
-        <v>0.269961</v>
+        <v>0.268943</v>
       </c>
       <c r="D115" t="n">
-        <v>0.312239</v>
+        <v>0.277534</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.290957</v>
+        <v>0.296478</v>
       </c>
       <c r="C116" t="n">
-        <v>0.272955</v>
+        <v>0.272738</v>
       </c>
       <c r="D116" t="n">
-        <v>0.315919</v>
+        <v>0.279821</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.291538</v>
+        <v>0.295141</v>
       </c>
       <c r="C117" t="n">
-        <v>0.27512</v>
+        <v>0.276239</v>
       </c>
       <c r="D117" t="n">
-        <v>0.317565</v>
+        <v>0.284652</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293064</v>
+        <v>0.296449</v>
       </c>
       <c r="C118" t="n">
-        <v>0.278639</v>
+        <v>0.279382</v>
       </c>
       <c r="D118" t="n">
-        <v>0.322907</v>
+        <v>0.288688</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.294622</v>
+        <v>0.295827</v>
       </c>
       <c r="C119" t="n">
-        <v>0.282185</v>
+        <v>0.282914</v>
       </c>
       <c r="D119" t="n">
-        <v>0.325932</v>
+        <v>0.292497</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.294868</v>
+        <v>0.298805</v>
       </c>
       <c r="C120" t="n">
-        <v>0.286828</v>
+        <v>0.287002</v>
       </c>
       <c r="D120" t="n">
-        <v>0.329732</v>
+        <v>0.297138</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.296746</v>
+        <v>0.301048</v>
       </c>
       <c r="C121" t="n">
-        <v>0.289923</v>
+        <v>0.291058</v>
       </c>
       <c r="D121" t="n">
-        <v>0.336367</v>
+        <v>0.303558</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.298659</v>
+        <v>0.30407</v>
       </c>
       <c r="C122" t="n">
-        <v>0.295148</v>
+        <v>0.294724</v>
       </c>
       <c r="D122" t="n">
-        <v>0.346089</v>
+        <v>0.311813</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.30284</v>
+        <v>0.305696</v>
       </c>
       <c r="C123" t="n">
-        <v>0.303155</v>
+        <v>0.303185</v>
       </c>
       <c r="D123" t="n">
-        <v>0.360066</v>
+        <v>0.325494</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.373778</v>
+        <v>0.373956</v>
       </c>
       <c r="C124" t="n">
-        <v>0.278249</v>
+        <v>0.279136</v>
       </c>
       <c r="D124" t="n">
-        <v>0.330862</v>
+        <v>0.287911</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.372176</v>
+        <v>0.370982</v>
       </c>
       <c r="C125" t="n">
-        <v>0.281507</v>
+        <v>0.281779</v>
       </c>
       <c r="D125" t="n">
-        <v>0.324668</v>
+        <v>0.291294</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.374884</v>
+        <v>0.374074</v>
       </c>
       <c r="C126" t="n">
-        <v>0.284634</v>
+        <v>0.284928</v>
       </c>
       <c r="D126" t="n">
-        <v>0.328486</v>
+        <v>0.293813</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.374132</v>
+        <v>0.375667</v>
       </c>
       <c r="C127" t="n">
-        <v>0.288133</v>
+        <v>0.288134</v>
       </c>
       <c r="D127" t="n">
-        <v>0.331751</v>
+        <v>0.297785</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.373715</v>
+        <v>0.371577</v>
       </c>
       <c r="C128" t="n">
-        <v>0.29098</v>
+        <v>0.292193</v>
       </c>
       <c r="D128" t="n">
-        <v>0.33487</v>
+        <v>0.300642</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.373245</v>
+        <v>0.3766</v>
       </c>
       <c r="C129" t="n">
-        <v>0.295008</v>
+        <v>0.295434</v>
       </c>
       <c r="D129" t="n">
-        <v>0.338736</v>
+        <v>0.305146</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.375063</v>
+        <v>0.371885</v>
       </c>
       <c r="C130" t="n">
-        <v>0.298475</v>
+        <v>0.300001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.34263</v>
+        <v>0.308566</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.373928</v>
+        <v>0.376008</v>
       </c>
       <c r="C131" t="n">
-        <v>0.302702</v>
+        <v>0.30316</v>
       </c>
       <c r="D131" t="n">
-        <v>0.347345</v>
+        <v>0.313944</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.376762</v>
+        <v>0.376775</v>
       </c>
       <c r="C132" t="n">
-        <v>0.306937</v>
+        <v>0.308119</v>
       </c>
       <c r="D132" t="n">
-        <v>0.352443</v>
+        <v>0.317758</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.375836</v>
+        <v>0.377507</v>
       </c>
       <c r="C133" t="n">
-        <v>0.311554</v>
+        <v>0.312004</v>
       </c>
       <c r="D133" t="n">
-        <v>0.358089</v>
+        <v>0.324596</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.376329</v>
+        <v>0.377207</v>
       </c>
       <c r="C134" t="n">
-        <v>0.316166</v>
+        <v>0.317675</v>
       </c>
       <c r="D134" t="n">
-        <v>0.365036</v>
+        <v>0.330234</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.378865</v>
+        <v>0.374912</v>
       </c>
       <c r="C135" t="n">
-        <v>0.321283</v>
+        <v>0.322475</v>
       </c>
       <c r="D135" t="n">
-        <v>0.373109</v>
+        <v>0.338123</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.378819</v>
+        <v>0.378202</v>
       </c>
       <c r="C136" t="n">
-        <v>0.329161</v>
+        <v>0.330436</v>
       </c>
       <c r="D136" t="n">
-        <v>0.384325</v>
+        <v>0.34929</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.382649</v>
+        <v>0.384131</v>
       </c>
       <c r="C137" t="n">
-        <v>0.337774</v>
+        <v>0.339379</v>
       </c>
       <c r="D137" t="n">
-        <v>0.397869</v>
+        <v>0.365391</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.440474</v>
+        <v>0.441548</v>
       </c>
       <c r="C138" t="n">
-        <v>0.300513</v>
+        <v>0.302322</v>
       </c>
       <c r="D138" t="n">
-        <v>0.344894</v>
+        <v>0.313245</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.440038</v>
+        <v>0.4416</v>
       </c>
       <c r="C139" t="n">
-        <v>0.30338</v>
+        <v>0.304994</v>
       </c>
       <c r="D139" t="n">
-        <v>0.347804</v>
+        <v>0.315959</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.440168</v>
+        <v>0.442166</v>
       </c>
       <c r="C140" t="n">
-        <v>0.306818</v>
+        <v>0.308408</v>
       </c>
       <c r="D140" t="n">
-        <v>0.350693</v>
+        <v>0.319237</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.440542</v>
+        <v>0.441852</v>
       </c>
       <c r="C141" t="n">
-        <v>0.309663</v>
+        <v>0.311562</v>
       </c>
       <c r="D141" t="n">
-        <v>0.353577</v>
+        <v>0.322227</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.440561</v>
+        <v>0.441928</v>
       </c>
       <c r="C142" t="n">
-        <v>0.312616</v>
+        <v>0.314046</v>
       </c>
       <c r="D142" t="n">
-        <v>0.35752</v>
+        <v>0.324791</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.441212</v>
+        <v>0.442294</v>
       </c>
       <c r="C143" t="n">
-        <v>0.315591</v>
+        <v>0.317363</v>
       </c>
       <c r="D143" t="n">
-        <v>0.361299</v>
+        <v>0.328012</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0526248</v>
+        <v>0.0428952</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0473969</v>
+        <v>0.0419099</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0494695</v>
+        <v>0.08381189999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0528243</v>
+        <v>0.0429662</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0473228</v>
+        <v>0.0418897</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0492145</v>
+        <v>0.0860689</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0525093</v>
+        <v>0.0430989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0474859</v>
+        <v>0.0423157</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0498896</v>
+        <v>0.0860937</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0528457</v>
+        <v>0.0433026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0476978</v>
+        <v>0.0423795</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0504785</v>
+        <v>0.08475190000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0533289</v>
+        <v>0.0433794</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0479981</v>
+        <v>0.0429557</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0504601</v>
+        <v>0.08506039999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0529965</v>
+        <v>0.0435851</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0485349</v>
+        <v>0.0435033</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0517202</v>
+        <v>0.0861798</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0540761</v>
+        <v>0.0441254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0494737</v>
+        <v>0.0443174</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0535116</v>
+        <v>0.08875420000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0546767</v>
+        <v>0.0448938</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0514556</v>
+        <v>0.045797</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0585862</v>
+        <v>0.0927452</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0527443</v>
+        <v>0.0516698</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0478931</v>
+        <v>0.0469767</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0504914</v>
+        <v>0.09201239999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0525862</v>
+        <v>0.0517073</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0481714</v>
+        <v>0.0471133</v>
       </c>
       <c r="D11" t="n">
-        <v>0.050872</v>
+        <v>0.0914473</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0522011</v>
+        <v>0.0517488</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0482106</v>
+        <v>0.0473911</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0512432</v>
+        <v>0.0917741</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0524934</v>
+        <v>0.0518702</v>
       </c>
       <c r="C13" t="n">
-        <v>0.048793</v>
+        <v>0.0476678</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0515862</v>
+        <v>0.09217740000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0524433</v>
+        <v>0.0520621</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0488977</v>
+        <v>0.047942</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0513466</v>
+        <v>0.09273199999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0524827</v>
+        <v>0.0520294</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0493459</v>
+        <v>0.048314</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0521789</v>
+        <v>0.09320199999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0526402</v>
+        <v>0.0521319</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0495566</v>
+        <v>0.0486434</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0524632</v>
+        <v>0.09374059999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0529127</v>
+        <v>0.0523556</v>
       </c>
       <c r="C17" t="n">
-        <v>0.049836</v>
+        <v>0.0489781</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0521219</v>
+        <v>0.0942214</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0531826</v>
+        <v>0.052615</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0503071</v>
+        <v>0.0492488</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0530558</v>
+        <v>0.0963302</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0532478</v>
+        <v>0.052838</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0505469</v>
+        <v>0.049676</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0533239</v>
+        <v>0.0950357</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0534669</v>
+        <v>0.0529869</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0511212</v>
+        <v>0.0502624</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0547005</v>
+        <v>0.0972673</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0538195</v>
+        <v>0.0535556</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0521369</v>
+        <v>0.051062</v>
       </c>
       <c r="D21" t="n">
-        <v>0.057081</v>
+        <v>0.0979169</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0545776</v>
+        <v>0.0537781</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0536041</v>
+        <v>0.0531618</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0623608</v>
+        <v>0.10346</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0559164</v>
+        <v>0.0553936</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0590667</v>
+        <v>0.0579506</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07488160000000001</v>
+        <v>0.101326</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0571534</v>
+        <v>0.0558998</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0519765</v>
+        <v>0.0504297</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0551544</v>
+        <v>0.101787</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0560903</v>
+        <v>0.0559157</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0523032</v>
+        <v>0.0511224</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0556033</v>
+        <v>0.102119</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0561061</v>
+        <v>0.0552933</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0524821</v>
+        <v>0.0514629</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0558924</v>
+        <v>0.10104</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0561774</v>
+        <v>0.0554116</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0529323</v>
+        <v>0.0515162</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0562042</v>
+        <v>0.102939</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0563497</v>
+        <v>0.055584</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0533519</v>
+        <v>0.0521082</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0563692</v>
+        <v>0.102639</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0564583</v>
+        <v>0.0557457</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0531688</v>
+        <v>0.0525203</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0566265</v>
+        <v>0.104054</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0566594</v>
+        <v>0.0559193</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0539895</v>
+        <v>0.0527152</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0570512</v>
+        <v>0.10432</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.056778</v>
+        <v>0.0560951</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0541906</v>
+        <v>0.0533649</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0578185</v>
+        <v>0.104277</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0570284</v>
+        <v>0.0563184</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0546457</v>
+        <v>0.0537972</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0583957</v>
+        <v>0.105557</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0573088</v>
+        <v>0.056594</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0551087</v>
+        <v>0.0544455</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0596907</v>
+        <v>0.106468</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0576003</v>
+        <v>0.0568677</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0562926</v>
+        <v>0.0557533</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0614814</v>
+        <v>0.107836</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0580707</v>
+        <v>0.0574975</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0583699</v>
+        <v>0.057799</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0666433</v>
+        <v>0.111571</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0588116</v>
+        <v>0.058271</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0624821</v>
+        <v>0.061543</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0733008</v>
+        <v>0.117617</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0614669</v>
+        <v>0.0608697</v>
       </c>
       <c r="C37" t="n">
-        <v>0.06853339999999999</v>
+        <v>0.0677271</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0820714</v>
+        <v>0.122065</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0615429</v>
+        <v>0.061812</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0568649</v>
+        <v>0.0552378</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0603955</v>
+        <v>0.12142</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0603223</v>
+        <v>0.0604146</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0572505</v>
+        <v>0.055616</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0602032</v>
+        <v>0.123311</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0604083</v>
+        <v>0.0605218</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0578906</v>
+        <v>0.0558933</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0612042</v>
+        <v>0.122503</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0605593</v>
+        <v>0.060648</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0580772</v>
+        <v>0.0565649</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0618936</v>
+        <v>0.124561</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0606342</v>
+        <v>0.0607646</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0584163</v>
+        <v>0.0569733</v>
       </c>
       <c r="D42" t="n">
-        <v>0.062366</v>
+        <v>0.124675</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0607848</v>
+        <v>0.0609313</v>
       </c>
       <c r="C43" t="n">
-        <v>0.059287</v>
+        <v>0.0576717</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06290419999999999</v>
+        <v>0.125698</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0609761</v>
+        <v>0.0611685</v>
       </c>
       <c r="C44" t="n">
-        <v>0.05967</v>
+        <v>0.0582275</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0633406</v>
+        <v>0.126317</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0611495</v>
+        <v>0.0613436</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0600529</v>
+        <v>0.0588837</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0643864</v>
+        <v>0.127043</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0613377</v>
+        <v>0.0616006</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0609418</v>
+        <v>0.0592384</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0648741</v>
+        <v>0.128022</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0616935</v>
+        <v>0.0619067</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0621397</v>
+        <v>0.0607845</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06770569999999999</v>
+        <v>0.129724</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0620217</v>
+        <v>0.0623424</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0636679</v>
+        <v>0.062861</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0707462</v>
+        <v>0.132281</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0626924</v>
+        <v>0.0629955</v>
       </c>
       <c r="C49" t="n">
-        <v>0.065932</v>
+        <v>0.0651501</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0741478</v>
+        <v>0.136335</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06421930000000001</v>
+        <v>0.0644665</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0688638</v>
+        <v>0.06826119999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>0.07880669999999999</v>
+        <v>0.141692</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.0678151</v>
+        <v>0.067874</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0740021</v>
+        <v>0.07288070000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0858014</v>
+        <v>0.150469</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0731511</v>
+        <v>0.0732372</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0804111</v>
+        <v>0.07922369999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09723619999999999</v>
+        <v>0.150996</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0666996</v>
+        <v>0.0678203</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0584305</v>
+        <v>0.0559201</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0621989</v>
+        <v>0.151454</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0667007</v>
+        <v>0.0674782</v>
       </c>
       <c r="C54" t="n">
-        <v>0.05886</v>
+        <v>0.0564476</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0646065</v>
+        <v>0.152516</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0666776</v>
+        <v>0.06758749999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0612762</v>
+        <v>0.0567539</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0652544</v>
+        <v>0.153015</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0667193</v>
+        <v>0.06768490000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0618381</v>
+        <v>0.0573647</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0658995</v>
+        <v>0.153416</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0669102</v>
+        <v>0.0678144</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0624622</v>
+        <v>0.0578854</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0666897</v>
+        <v>0.154088</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06703050000000001</v>
+        <v>0.0680072</v>
       </c>
       <c r="C58" t="n">
-        <v>0.06309149999999999</v>
+        <v>0.0588023</v>
       </c>
       <c r="D58" t="n">
-        <v>0.067589</v>
+        <v>0.155006</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0674169</v>
+        <v>0.0682024</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0640729</v>
+        <v>0.0598669</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06882580000000001</v>
+        <v>0.155916</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0676914</v>
+        <v>0.068482</v>
       </c>
       <c r="C60" t="n">
-        <v>0.06509520000000001</v>
+        <v>0.0606587</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0703531</v>
+        <v>0.157161</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0680026</v>
+        <v>0.06889140000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0665666</v>
+        <v>0.06231</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0724134</v>
+        <v>0.159064</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.0685902</v>
+        <v>0.069483</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0682591</v>
+        <v>0.0638785</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0748716</v>
+        <v>0.162074</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0694246</v>
+        <v>0.070464</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0705329</v>
+        <v>0.06660629999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0782957</v>
+        <v>0.165707</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0713356</v>
+        <v>0.0723129</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0735082</v>
+        <v>0.06929879999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0828221</v>
+        <v>0.170584</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0740102</v>
+        <v>0.07493370000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>0.0774458</v>
+        <v>0.0732337</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0899182</v>
+        <v>0.177054</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0783648</v>
+        <v>0.0790854</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0838453</v>
+        <v>0.0792407</v>
       </c>
       <c r="D66" t="n">
-        <v>0.100947</v>
+        <v>0.17849</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.122741</v>
+        <v>0.08169120000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0885251</v>
+        <v>0.0670081</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0928653</v>
+        <v>0.179082</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123173</v>
+        <v>0.0819956</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0886062</v>
+        <v>0.0675666</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0931115</v>
+        <v>0.179553</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.124086</v>
+        <v>0.082535</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0893747</v>
+        <v>0.06835769999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0939579</v>
+        <v>0.180164</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.124531</v>
+        <v>0.08286060000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0897276</v>
+        <v>0.06877560000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0943503</v>
+        <v>0.180838</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.125012</v>
+        <v>0.08379490000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0900039</v>
+        <v>0.06986920000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0947335</v>
+        <v>0.181638</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.125485</v>
+        <v>0.0840516</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0902829</v>
+        <v>0.0704206</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09525459999999999</v>
+        <v>0.182509</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.125784</v>
+        <v>0.0847287</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09098630000000001</v>
+        <v>0.0713657</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0961436</v>
+        <v>0.183514</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.126199</v>
+        <v>0.0850732</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0918807</v>
+        <v>0.0725567</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0973627</v>
+        <v>0.184945</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.126549</v>
+        <v>0.0856541</v>
       </c>
       <c r="C75" t="n">
-        <v>0.09304179999999999</v>
+        <v>0.07378270000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09886730000000001</v>
+        <v>0.186758</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.127415</v>
+        <v>0.08612590000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0942491</v>
+        <v>0.0753224</v>
       </c>
       <c r="D76" t="n">
-        <v>0.100738</v>
+        <v>0.189025</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.128252</v>
+        <v>0.0875203</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0959132</v>
+        <v>0.0774817</v>
       </c>
       <c r="D77" t="n">
-        <v>0.103269</v>
+        <v>0.192192</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.129257</v>
+        <v>0.0887347</v>
       </c>
       <c r="C78" t="n">
-        <v>0.0981392</v>
+        <v>0.0800647</v>
       </c>
       <c r="D78" t="n">
-        <v>0.106937</v>
+        <v>0.196437</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.130966</v>
+        <v>0.09080199999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.10132</v>
+        <v>0.08356470000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>0.112666</v>
+        <v>0.202635</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.133669</v>
+        <v>0.0943056</v>
       </c>
       <c r="C80" t="n">
-        <v>0.106229</v>
+        <v>0.08874029999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>0.121734</v>
+        <v>0.208353</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.181107</v>
+        <v>0.183349</v>
       </c>
       <c r="C81" t="n">
-        <v>0.15865</v>
+        <v>0.154046</v>
       </c>
       <c r="D81" t="n">
-        <v>0.162592</v>
+        <v>0.20906</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.186092</v>
+        <v>0.185523</v>
       </c>
       <c r="C82" t="n">
-        <v>0.157071</v>
+        <v>0.151832</v>
       </c>
       <c r="D82" t="n">
-        <v>0.161029</v>
+        <v>0.209047</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.187154</v>
+        <v>0.18368</v>
       </c>
       <c r="C83" t="n">
-        <v>0.151691</v>
+        <v>0.155458</v>
       </c>
       <c r="D83" t="n">
-        <v>0.155862</v>
+        <v>0.212096</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.17851</v>
+        <v>0.185492</v>
       </c>
       <c r="C84" t="n">
-        <v>0.152048</v>
+        <v>0.153683</v>
       </c>
       <c r="D84" t="n">
-        <v>0.156178</v>
+        <v>0.211653</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.180049</v>
+        <v>0.18444</v>
       </c>
       <c r="C85" t="n">
-        <v>0.166907</v>
+        <v>0.155292</v>
       </c>
       <c r="D85" t="n">
-        <v>0.171283</v>
+        <v>0.214612</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.193638</v>
+        <v>0.185367</v>
       </c>
       <c r="C86" t="n">
-        <v>0.162428</v>
+        <v>0.155978</v>
       </c>
       <c r="D86" t="n">
-        <v>0.166641</v>
+        <v>0.216189</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.18842</v>
+        <v>0.185576</v>
       </c>
       <c r="C87" t="n">
-        <v>0.169841</v>
+        <v>0.156707</v>
       </c>
       <c r="D87" t="n">
-        <v>0.174446</v>
+        <v>0.217166</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.192766</v>
+        <v>0.187495</v>
       </c>
       <c r="C88" t="n">
-        <v>0.160102</v>
+        <v>0.158063</v>
       </c>
       <c r="D88" t="n">
-        <v>0.165038</v>
+        <v>0.2186</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.184959</v>
+        <v>0.186971</v>
       </c>
       <c r="C89" t="n">
-        <v>0.17346</v>
+        <v>0.158587</v>
       </c>
       <c r="D89" t="n">
-        <v>0.178741</v>
+        <v>0.221743</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196061</v>
+        <v>0.187176</v>
       </c>
       <c r="C90" t="n">
-        <v>0.171553</v>
+        <v>0.161213</v>
       </c>
       <c r="D90" t="n">
-        <v>0.17727</v>
+        <v>0.223441</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.193043</v>
+        <v>0.188043</v>
       </c>
       <c r="C91" t="n">
-        <v>0.170652</v>
+        <v>0.160088</v>
       </c>
       <c r="D91" t="n">
-        <v>0.177277</v>
+        <v>0.226384</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.190242</v>
+        <v>0.188876</v>
       </c>
       <c r="C92" t="n">
-        <v>0.174571</v>
+        <v>0.163997</v>
       </c>
       <c r="D92" t="n">
-        <v>0.182329</v>
+        <v>0.229125</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.195498</v>
+        <v>0.191324</v>
       </c>
       <c r="C93" t="n">
-        <v>0.18433</v>
+        <v>0.165493</v>
       </c>
       <c r="D93" t="n">
-        <v>0.194271</v>
+        <v>0.237181</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.204256</v>
+        <v>0.192333</v>
       </c>
       <c r="C94" t="n">
-        <v>0.181131</v>
+        <v>0.170726</v>
       </c>
       <c r="D94" t="n">
-        <v>0.195156</v>
+        <v>0.277047</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.255233</v>
+        <v>0.255833</v>
       </c>
       <c r="C95" t="n">
-        <v>0.231483</v>
+        <v>0.232654</v>
       </c>
       <c r="D95" t="n">
-        <v>0.22835</v>
+        <v>0.279077</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.254751</v>
+        <v>0.254139</v>
       </c>
       <c r="C96" t="n">
-        <v>0.23298</v>
+        <v>0.226971</v>
       </c>
       <c r="D96" t="n">
-        <v>0.237774</v>
+        <v>0.283923</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.255006</v>
+        <v>0.2557</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233934</v>
+        <v>0.227869</v>
       </c>
       <c r="D97" t="n">
-        <v>0.239133</v>
+        <v>0.285921</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.254812</v>
+        <v>0.256316</v>
       </c>
       <c r="C98" t="n">
-        <v>0.235453</v>
+        <v>0.236367</v>
       </c>
       <c r="D98" t="n">
-        <v>0.231469</v>
+        <v>0.290264</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.25563</v>
+        <v>0.256774</v>
       </c>
       <c r="C99" t="n">
-        <v>0.237173</v>
+        <v>0.237769</v>
       </c>
       <c r="D99" t="n">
-        <v>0.242727</v>
+        <v>0.29128</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.255666</v>
+        <v>0.255658</v>
       </c>
       <c r="C100" t="n">
-        <v>0.239096</v>
+        <v>0.238759</v>
       </c>
       <c r="D100" t="n">
-        <v>0.244501</v>
+        <v>0.29065</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.255781</v>
+        <v>0.256253</v>
       </c>
       <c r="C101" t="n">
-        <v>0.240613</v>
+        <v>0.240526</v>
       </c>
       <c r="D101" t="n">
-        <v>0.24575</v>
+        <v>0.29625</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.253232</v>
+        <v>0.256866</v>
       </c>
       <c r="C102" t="n">
-        <v>0.242721</v>
+        <v>0.24202</v>
       </c>
       <c r="D102" t="n">
-        <v>0.248415</v>
+        <v>0.298251</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.254788</v>
+        <v>0.257032</v>
       </c>
       <c r="C103" t="n">
-        <v>0.245257</v>
+        <v>0.238792</v>
       </c>
       <c r="D103" t="n">
-        <v>0.250728</v>
+        <v>0.303831</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.257238</v>
+        <v>0.2569</v>
       </c>
       <c r="C104" t="n">
-        <v>0.247012</v>
+        <v>0.246495</v>
       </c>
       <c r="D104" t="n">
-        <v>0.252974</v>
+        <v>0.30974</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.257669</v>
+        <v>0.257632</v>
       </c>
       <c r="C105" t="n">
-        <v>0.248863</v>
+        <v>0.248374</v>
       </c>
       <c r="D105" t="n">
-        <v>0.256658</v>
+        <v>0.312751</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.255935</v>
+        <v>0.258648</v>
       </c>
       <c r="C106" t="n">
-        <v>0.252123</v>
+        <v>0.246872</v>
       </c>
       <c r="D106" t="n">
-        <v>0.260497</v>
+        <v>0.319143</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.259684</v>
+        <v>0.259855</v>
       </c>
       <c r="C107" t="n">
-        <v>0.255471</v>
+        <v>0.254286</v>
       </c>
       <c r="D107" t="n">
-        <v>0.265193</v>
+        <v>0.317656</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.262476</v>
+        <v>0.262424</v>
       </c>
       <c r="C108" t="n">
-        <v>0.259263</v>
+        <v>0.259332</v>
       </c>
       <c r="D108" t="n">
-        <v>0.273681</v>
+        <v>0.411353</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.265713</v>
+        <v>0.267539</v>
       </c>
       <c r="C109" t="n">
-        <v>0.259092</v>
+        <v>0.266078</v>
       </c>
       <c r="D109" t="n">
-        <v>0.280512</v>
+        <v>0.422246</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.296842</v>
+        <v>0.293638</v>
       </c>
       <c r="C110" t="n">
-        <v>0.265162</v>
+        <v>0.263921</v>
       </c>
       <c r="D110" t="n">
-        <v>0.27237</v>
+        <v>0.424523</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.292316</v>
+        <v>0.286216</v>
       </c>
       <c r="C111" t="n">
-        <v>0.266538</v>
+        <v>0.267943</v>
       </c>
       <c r="D111" t="n">
-        <v>0.27389</v>
+        <v>0.436028</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.292912</v>
+        <v>0.29463</v>
       </c>
       <c r="C112" t="n">
-        <v>0.262991</v>
+        <v>0.263399</v>
       </c>
       <c r="D112" t="n">
-        <v>0.270155</v>
+        <v>0.439238</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.29189</v>
+        <v>0.285386</v>
       </c>
       <c r="C113" t="n">
-        <v>0.262571</v>
+        <v>0.264995</v>
       </c>
       <c r="D113" t="n">
-        <v>0.269881</v>
+        <v>0.450189</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.295029</v>
+        <v>0.294129</v>
       </c>
       <c r="C114" t="n">
-        <v>0.266488</v>
+        <v>0.267711</v>
       </c>
       <c r="D114" t="n">
-        <v>0.274262</v>
+        <v>0.4542</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.295659</v>
+        <v>0.294979</v>
       </c>
       <c r="C115" t="n">
-        <v>0.268943</v>
+        <v>0.270539</v>
       </c>
       <c r="D115" t="n">
-        <v>0.277534</v>
+        <v>0.464663</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.296478</v>
+        <v>0.286402</v>
       </c>
       <c r="C116" t="n">
-        <v>0.272738</v>
+        <v>0.273378</v>
       </c>
       <c r="D116" t="n">
-        <v>0.279821</v>
+        <v>0.471647</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295141</v>
+        <v>0.293725</v>
       </c>
       <c r="C117" t="n">
-        <v>0.276239</v>
+        <v>0.277139</v>
       </c>
       <c r="D117" t="n">
-        <v>0.284652</v>
+        <v>0.482609</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.296449</v>
+        <v>0.291683</v>
       </c>
       <c r="C118" t="n">
-        <v>0.279382</v>
+        <v>0.279882</v>
       </c>
       <c r="D118" t="n">
-        <v>0.288688</v>
+        <v>0.487446</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.295827</v>
+        <v>0.295748</v>
       </c>
       <c r="C119" t="n">
-        <v>0.282914</v>
+        <v>0.283511</v>
       </c>
       <c r="D119" t="n">
-        <v>0.292497</v>
+        <v>0.495999</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.298805</v>
+        <v>0.29629</v>
       </c>
       <c r="C120" t="n">
-        <v>0.287002</v>
+        <v>0.28697</v>
       </c>
       <c r="D120" t="n">
-        <v>0.297138</v>
+        <v>0.499454</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.301048</v>
+        <v>0.295258</v>
       </c>
       <c r="C121" t="n">
-        <v>0.291058</v>
+        <v>0.290513</v>
       </c>
       <c r="D121" t="n">
-        <v>0.303558</v>
+        <v>0.510908</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.30407</v>
+        <v>0.300243</v>
       </c>
       <c r="C122" t="n">
-        <v>0.294724</v>
+        <v>0.295224</v>
       </c>
       <c r="D122" t="n">
-        <v>0.311813</v>
+        <v>0.511533</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.305696</v>
+        <v>0.304275</v>
       </c>
       <c r="C123" t="n">
-        <v>0.303185</v>
+        <v>0.304149</v>
       </c>
       <c r="D123" t="n">
-        <v>0.325494</v>
+        <v>0.679877</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.373956</v>
+        <v>0.374851</v>
       </c>
       <c r="C124" t="n">
-        <v>0.279136</v>
+        <v>0.280139</v>
       </c>
       <c r="D124" t="n">
-        <v>0.287911</v>
+        <v>0.690021</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.370982</v>
+        <v>0.373607</v>
       </c>
       <c r="C125" t="n">
-        <v>0.281779</v>
+        <v>0.282758</v>
       </c>
       <c r="D125" t="n">
-        <v>0.291294</v>
+        <v>0.6963279999999999</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.374074</v>
+        <v>0.374623</v>
       </c>
       <c r="C126" t="n">
-        <v>0.284928</v>
+        <v>0.285916</v>
       </c>
       <c r="D126" t="n">
-        <v>0.293813</v>
+        <v>0.707288</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.375667</v>
+        <v>0.375682</v>
       </c>
       <c r="C127" t="n">
-        <v>0.288134</v>
+        <v>0.289271</v>
       </c>
       <c r="D127" t="n">
-        <v>0.297785</v>
+        <v>0.715514</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.371577</v>
+        <v>0.375433</v>
       </c>
       <c r="C128" t="n">
-        <v>0.292193</v>
+        <v>0.292838</v>
       </c>
       <c r="D128" t="n">
-        <v>0.300642</v>
+        <v>0.724414</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.3766</v>
+        <v>0.376586</v>
       </c>
       <c r="C129" t="n">
-        <v>0.295434</v>
+        <v>0.296533</v>
       </c>
       <c r="D129" t="n">
-        <v>0.305146</v>
+        <v>0.735144</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.371885</v>
+        <v>0.377925</v>
       </c>
       <c r="C130" t="n">
-        <v>0.300001</v>
+        <v>0.299944</v>
       </c>
       <c r="D130" t="n">
-        <v>0.308566</v>
+        <v>0.743692</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.376008</v>
+        <v>0.376246</v>
       </c>
       <c r="C131" t="n">
-        <v>0.30316</v>
+        <v>0.304257</v>
       </c>
       <c r="D131" t="n">
-        <v>0.313944</v>
+        <v>0.752559</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.376775</v>
+        <v>0.378439</v>
       </c>
       <c r="C132" t="n">
-        <v>0.308119</v>
+        <v>0.308006</v>
       </c>
       <c r="D132" t="n">
-        <v>0.317758</v>
+        <v>0.7632989999999999</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.377507</v>
+        <v>0.377215</v>
       </c>
       <c r="C133" t="n">
-        <v>0.312004</v>
+        <v>0.312686</v>
       </c>
       <c r="D133" t="n">
-        <v>0.324596</v>
+        <v>0.770926</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.377207</v>
+        <v>0.379187</v>
       </c>
       <c r="C134" t="n">
-        <v>0.317675</v>
+        <v>0.317434</v>
       </c>
       <c r="D134" t="n">
-        <v>0.330234</v>
+        <v>0.780713</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.374912</v>
+        <v>0.378832</v>
       </c>
       <c r="C135" t="n">
-        <v>0.322475</v>
+        <v>0.323193</v>
       </c>
       <c r="D135" t="n">
-        <v>0.338123</v>
+        <v>0.791448</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.378202</v>
+        <v>0.381776</v>
       </c>
       <c r="C136" t="n">
-        <v>0.330436</v>
+        <v>0.329617</v>
       </c>
       <c r="D136" t="n">
-        <v>0.34929</v>
+        <v>0.796715</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.384131</v>
+        <v>0.384003</v>
       </c>
       <c r="C137" t="n">
-        <v>0.339379</v>
+        <v>0.339409</v>
       </c>
       <c r="D137" t="n">
-        <v>0.365391</v>
+        <v>0.948673</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.441548</v>
+        <v>0.443254</v>
       </c>
       <c r="C138" t="n">
-        <v>0.302322</v>
+        <v>0.302083</v>
       </c>
       <c r="D138" t="n">
-        <v>0.313245</v>
+        <v>0.954659</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4416</v>
+        <v>0.443143</v>
       </c>
       <c r="C139" t="n">
-        <v>0.304994</v>
+        <v>0.304792</v>
       </c>
       <c r="D139" t="n">
-        <v>0.315959</v>
+        <v>0.960739</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.442166</v>
+        <v>0.439764</v>
       </c>
       <c r="C140" t="n">
-        <v>0.308408</v>
+        <v>0.308161</v>
       </c>
       <c r="D140" t="n">
-        <v>0.319237</v>
+        <v>0.966967</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.441852</v>
+        <v>0.439297</v>
       </c>
       <c r="C141" t="n">
-        <v>0.311562</v>
+        <v>0.310836</v>
       </c>
       <c r="D141" t="n">
-        <v>0.322227</v>
+        <v>0.973519</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.441928</v>
+        <v>0.444486</v>
       </c>
       <c r="C142" t="n">
-        <v>0.314046</v>
+        <v>0.314701</v>
       </c>
       <c r="D142" t="n">
-        <v>0.324791</v>
+        <v>0.982268</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.442294</v>
+        <v>0.439743</v>
       </c>
       <c r="C143" t="n">
-        <v>0.317363</v>
+        <v>0.317697</v>
       </c>
       <c r="D143" t="n">
-        <v>0.328012</v>
+        <v>0.990253</v>
       </c>
     </row>
   </sheetData>

--- a/clang-x64/Scattered successful looukp.xlsx
+++ b/clang-x64/Scattered successful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0428952</v>
+        <v>0.0431205</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0419099</v>
+        <v>0.0425661</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08381189999999999</v>
+        <v>0.0455657</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0429662</v>
+        <v>0.0433415</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0418897</v>
+        <v>0.0428588</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0860689</v>
+        <v>0.045752</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0430989</v>
+        <v>0.0435725</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0423157</v>
+        <v>0.0428333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0860937</v>
+        <v>0.0459078</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0433026</v>
+        <v>0.0437611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0423795</v>
+        <v>0.0431873</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08475190000000001</v>
+        <v>0.0461193</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0433794</v>
+        <v>0.0442066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0429557</v>
+        <v>0.0434673</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08506039999999999</v>
+        <v>0.0466321</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0435851</v>
+        <v>0.0444636</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0435033</v>
+        <v>0.0438415</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0861798</v>
+        <v>0.0474966</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0441254</v>
+        <v>0.0448086</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0443174</v>
+        <v>0.0448578</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08875420000000001</v>
+        <v>0.048967</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0448938</v>
+        <v>0.045875</v>
       </c>
       <c r="C9" t="n">
-        <v>0.045797</v>
+        <v>0.0469114</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0927452</v>
+        <v>0.048999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0516698</v>
+        <v>0.0514694</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0469767</v>
+        <v>0.0465894</v>
       </c>
       <c r="D10" t="n">
-        <v>0.09201239999999999</v>
+        <v>0.0493944</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0517073</v>
+        <v>0.0512881</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0471133</v>
+        <v>0.0469563</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0914473</v>
+        <v>0.0496532</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0517488</v>
+        <v>0.0513713</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0473911</v>
+        <v>0.0472661</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0917741</v>
+        <v>0.0499975</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0518702</v>
+        <v>0.051402</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0476678</v>
+        <v>0.0476524</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09217740000000001</v>
+        <v>0.0503032</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0520621</v>
+        <v>0.0514967</v>
       </c>
       <c r="C14" t="n">
-        <v>0.047942</v>
+        <v>0.0480503</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09273199999999999</v>
+        <v>0.0509036</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0520294</v>
+        <v>0.0515943</v>
       </c>
       <c r="C15" t="n">
-        <v>0.048314</v>
+        <v>0.0483036</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09320199999999999</v>
+        <v>0.0511433</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0521319</v>
+        <v>0.051919</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0486434</v>
+        <v>0.0487163</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09374059999999999</v>
+        <v>0.0513488</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0523556</v>
+        <v>0.0521235</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0489781</v>
+        <v>0.0488539</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0942214</v>
+        <v>0.0518384</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.052615</v>
+        <v>0.0522776</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0492488</v>
+        <v>0.0492938</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0963302</v>
+        <v>0.0522537</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.052838</v>
+        <v>0.0524028</v>
       </c>
       <c r="C19" t="n">
-        <v>0.049676</v>
+        <v>0.0495866</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0950357</v>
+        <v>0.0527692</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0529869</v>
+        <v>0.0527071</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0502624</v>
+        <v>0.050109</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0972673</v>
+        <v>0.053553</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0535556</v>
+        <v>0.0529709</v>
       </c>
       <c r="C21" t="n">
-        <v>0.051062</v>
+        <v>0.0507509</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0979169</v>
+        <v>0.0546609</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0537781</v>
+        <v>0.053538</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0531618</v>
+        <v>0.0529561</v>
       </c>
       <c r="D22" t="n">
-        <v>0.10346</v>
+        <v>0.0584941</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0553936</v>
+        <v>0.0551615</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0579506</v>
+        <v>0.0575028</v>
       </c>
       <c r="D23" t="n">
-        <v>0.101326</v>
+        <v>0.0545663</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0558998</v>
+        <v>0.0556933</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0504297</v>
+        <v>0.0522599</v>
       </c>
       <c r="D24" t="n">
-        <v>0.101787</v>
+        <v>0.055544</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0559157</v>
+        <v>0.0551354</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0511224</v>
+        <v>0.0522905</v>
       </c>
       <c r="D25" t="n">
-        <v>0.102119</v>
+        <v>0.056062</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0552933</v>
+        <v>0.0551309</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0514629</v>
+        <v>0.0530831</v>
       </c>
       <c r="D26" t="n">
-        <v>0.10104</v>
+        <v>0.0564673</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0554116</v>
+        <v>0.0551656</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0515162</v>
+        <v>0.0530679</v>
       </c>
       <c r="D27" t="n">
-        <v>0.102939</v>
+        <v>0.0568522</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.055584</v>
+        <v>0.0553083</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0521082</v>
+        <v>0.0532067</v>
       </c>
       <c r="D28" t="n">
-        <v>0.102639</v>
+        <v>0.0570426</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0557457</v>
+        <v>0.055496</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0525203</v>
+        <v>0.0537398</v>
       </c>
       <c r="D29" t="n">
-        <v>0.104054</v>
+        <v>0.0576104</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0559193</v>
+        <v>0.0556256</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0527152</v>
+        <v>0.0544196</v>
       </c>
       <c r="D30" t="n">
-        <v>0.10432</v>
+        <v>0.0581369</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0560951</v>
+        <v>0.0557392</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0533649</v>
+        <v>0.0544797</v>
       </c>
       <c r="D31" t="n">
-        <v>0.104277</v>
+        <v>0.0577314</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0563184</v>
+        <v>0.0559879</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0537972</v>
+        <v>0.0553033</v>
       </c>
       <c r="D32" t="n">
-        <v>0.105557</v>
+        <v>0.0590515</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.056594</v>
+        <v>0.0562562</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0544455</v>
+        <v>0.0560005</v>
       </c>
       <c r="D33" t="n">
-        <v>0.106468</v>
+        <v>0.0593717</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0568677</v>
+        <v>0.0565087</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0557533</v>
+        <v>0.0569999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.107836</v>
+        <v>0.0607628</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0574975</v>
+        <v>0.0569319</v>
       </c>
       <c r="C35" t="n">
-        <v>0.057799</v>
+        <v>0.0592364</v>
       </c>
       <c r="D35" t="n">
-        <v>0.111571</v>
+        <v>0.0642416</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.058271</v>
+        <v>0.0578219</v>
       </c>
       <c r="C36" t="n">
-        <v>0.061543</v>
+        <v>0.0627764</v>
       </c>
       <c r="D36" t="n">
-        <v>0.117617</v>
+        <v>0.07027600000000001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0608697</v>
+        <v>0.0608349</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0677271</v>
+        <v>0.06893390000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.122065</v>
+        <v>0.0585243</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.061812</v>
+        <v>0.0626473</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0552378</v>
+        <v>0.0571364</v>
       </c>
       <c r="D38" t="n">
-        <v>0.12142</v>
+        <v>0.059351</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0604146</v>
+        <v>0.0611632</v>
       </c>
       <c r="C39" t="n">
-        <v>0.055616</v>
+        <v>0.0575327</v>
       </c>
       <c r="D39" t="n">
-        <v>0.123311</v>
+        <v>0.0591685</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0605218</v>
+        <v>0.0612427</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0558933</v>
+        <v>0.0578082</v>
       </c>
       <c r="D40" t="n">
-        <v>0.122503</v>
+        <v>0.0600537</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.060648</v>
+        <v>0.0613387</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0565649</v>
+        <v>0.0582799</v>
       </c>
       <c r="D41" t="n">
-        <v>0.124561</v>
+        <v>0.059738</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0607646</v>
+        <v>0.0613973</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0569733</v>
+        <v>0.0588701</v>
       </c>
       <c r="D42" t="n">
-        <v>0.124675</v>
+        <v>0.061007</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0609313</v>
+        <v>0.0615004</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0576717</v>
+        <v>0.0593371</v>
       </c>
       <c r="D43" t="n">
-        <v>0.125698</v>
+        <v>0.0601759</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0611685</v>
+        <v>0.0616865</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0582275</v>
+        <v>0.0598513</v>
       </c>
       <c r="D44" t="n">
-        <v>0.126317</v>
+        <v>0.0618064</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0613436</v>
+        <v>0.0618475</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0588837</v>
+        <v>0.0605362</v>
       </c>
       <c r="D45" t="n">
-        <v>0.127043</v>
+        <v>0.0626389</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0616006</v>
+        <v>0.0621327</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0592384</v>
+        <v>0.0612304</v>
       </c>
       <c r="D46" t="n">
-        <v>0.128022</v>
+        <v>0.0634707</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0619067</v>
+        <v>0.0624497</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0607845</v>
+        <v>0.0624741</v>
       </c>
       <c r="D47" t="n">
-        <v>0.129724</v>
+        <v>0.0642475</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0623424</v>
+        <v>0.06283179999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>0.062861</v>
+        <v>0.0633444</v>
       </c>
       <c r="D48" t="n">
-        <v>0.132281</v>
+        <v>0.0673324</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0629955</v>
+        <v>0.0635863</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0651501</v>
+        <v>0.0664969</v>
       </c>
       <c r="D49" t="n">
-        <v>0.136335</v>
+        <v>0.07076</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0644665</v>
+        <v>0.0652403</v>
       </c>
       <c r="C50" t="n">
-        <v>0.06826119999999999</v>
+        <v>0.0695542</v>
       </c>
       <c r="D50" t="n">
-        <v>0.141692</v>
+        <v>0.07535310000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.067874</v>
+        <v>0.0690827</v>
       </c>
       <c r="C51" t="n">
-        <v>0.07288070000000001</v>
+        <v>0.07379040000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.150469</v>
+        <v>0.0626597</v>
       </c>
     </r